--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -5,19 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/livia/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="533" documentId="11_B2CD3B23B734BEB69962A3A2F81BCE609405F408" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6859DD76-4D42-4798-B59C-5345A6B817C1}"/>
+  <xr:revisionPtr revIDLastSave="550" documentId="11_B2CD3B23B734BEB69962A3A2F81BCE609405F408" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51E93B70-9450-4D7F-95D8-AC56B5F27DB5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
     <sheet name="Arrivi" sheetId="2" r:id="rId2"/>
     <sheet name="Uscite" sheetId="3" r:id="rId3"/>
     <sheet name="Centri - Identical" sheetId="4" r:id="rId4"/>
-    <sheet name="Note" sheetId="7" r:id="rId5"/>
+    <sheet name="Foglio1" sheetId="8" r:id="rId5"/>
+    <sheet name="Note" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -100,7 +101,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="84">
   <si>
     <t>PAZIENTI - ARRIVI</t>
   </si>
@@ -249,9 +250,6 @@
     <t>d/giorno (2014-2019)</t>
   </si>
   <si>
-    <t>P(Bt AND Pr)</t>
-  </si>
-  <si>
     <t>r/anno (2014-2019)</t>
   </si>
   <si>
@@ -333,10 +331,28 @@
     <t>Tasso d'ingresso totale</t>
   </si>
   <si>
-    <t>P(Bt | Pr)</t>
+    <t>Activation center</t>
   </si>
   <si>
-    <t>P(Pr | Bt)</t>
+    <t>Tasso di completamento</t>
+  </si>
+  <si>
+    <t>Waiting List</t>
+  </si>
+  <si>
+    <t>Organ Bank</t>
+  </si>
+  <si>
+    <t>Matching</t>
+  </si>
+  <si>
+    <t>Probabilità</t>
+  </si>
+  <si>
+    <t>Probabilità di morte</t>
+  </si>
+  <si>
+    <t>Probabilità di renege</t>
   </si>
 </sst>
 </file>
@@ -348,7 +364,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -392,8 +408,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,8 +488,68 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FF99CCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor rgb="FFE2F0D9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFC5E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFF4B183"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD0CECE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor rgb="FFDAE3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -573,11 +655,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -633,7 +804,6 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,6 +830,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -695,10 +916,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,22 +937,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <font>
@@ -927,17 +1164,15 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabella5" displayName="Tabella5" ref="A2:G22" totalsRowShown="0">
-  <autoFilter ref="A2:G22" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabella5" displayName="Tabella5" ref="A2:E22" totalsRowShown="0">
+  <autoFilter ref="A2:E22" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0900-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="d/anno (2014-2019)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="d/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0900-000005000000}" name="P(Bt AND Pr)"/>
-    <tableColumn id="6" xr3:uid="{BA9696CB-973E-4C10-A048-3F2E161E3E03}" name="P(Bt | Pr)"/>
-    <tableColumn id="7" xr3:uid="{556A604F-B354-4937-B17D-BE37408A5600}" name="P(Pr | Bt)">
-      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{A87F9785-8BDD-4C18-9179-285F88A533E8}" name="Probabilità" dataDxfId="1">
+      <calculatedColumnFormula>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -945,34 +1180,19 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabella511" displayName="Tabella511" ref="A25:G45" totalsRowShown="0">
-  <autoFilter ref="A25:G45" xr:uid="{00000000-0009-0000-0100-000006000000}">
-    <filterColumn colId="0">
-      <filters blank="1">
-        <filter val="A"/>
-        <filter val="AB"/>
-        <filter val="B"/>
-        <filter val="O"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabella511" displayName="Tabella511" ref="A25:E45" totalsRowShown="0">
+  <autoFilter ref="A25:E45" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0A00-000003000000}" name="r/anno (2014-2019)">
-      <calculatedColumnFormula>AVERAGE(Dati_OPTN!Q49:V49)</calculatedColumnFormula>
+      <calculatedColumnFormula>IF(AVERAGE(Dati_OPTN!Q49:V49) &gt; Arrivi!C3, Arrivi!C3, AVERAGE(Dati_OPTN!Q49:V49))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0A00-000004000000}" name="r/giorno (2014-2019)">
       <calculatedColumnFormula>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="P(Bt AND Pr)">
-      <calculatedColumnFormula>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{E91D55C8-AA3E-42C5-9822-44CC27598042}" name="P(Bt | Pr)">
-      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{FA8A30BA-728B-45BF-9A31-1E3623916B71}" name="P(Pr | Bt)">
-      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0A00-000005000000}" name="Probabilità">
+      <calculatedColumnFormula>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -980,22 +1200,16 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabella512" displayName="Tabella512" ref="A49:G69" totalsRowShown="0">
-  <autoFilter ref="A49:G69" xr:uid="{00000000-0009-0000-0100-000007000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="All Types"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabella512" displayName="Tabella512" ref="A49:E69" totalsRowShown="0">
+  <autoFilter ref="A49:E69" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="t/anno (2014-2019)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="t/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="P(Bt AND Pr)" dataDxfId="0"/>
-    <tableColumn id="6" xr3:uid="{425A1A75-06E6-4CC9-B972-727A212EC0D3}" name="P(Bt | Pr)"/>
-    <tableColumn id="7" xr3:uid="{74CF2C72-BA58-4801-A149-31F371AAE7DA}" name="P(Pr | Bt)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Probabilità" dataDxfId="0">
+      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1127,8 +1341,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabella3" displayName="Tabella3" ref="A2:F22" totalsRowShown="0">
   <autoFilter ref="A2:F22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="p/anno (2014-2019)">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!C3:H3)</calculatedColumnFormula>
     </tableColumn>
@@ -1468,8 +1682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1484,36 +1698,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="O1" s="35" t="s">
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="O1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="53"/>
+      <c r="S1" s="53"/>
+      <c r="T1" s="53"/>
+      <c r="U1" s="53"/>
+      <c r="V1" s="53"/>
+      <c r="W1" s="53"/>
+      <c r="X1" s="53"/>
+      <c r="Y1" s="53"/>
+      <c r="Z1" s="53"/>
+      <c r="AA1" s="53"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2933,36 +3147,36 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="O24" s="35" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
+      <c r="K24" s="53"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="53"/>
+      <c r="O24" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
+      <c r="P24" s="53"/>
+      <c r="Q24" s="53"/>
+      <c r="R24" s="53"/>
+      <c r="S24" s="53"/>
+      <c r="T24" s="53"/>
+      <c r="U24" s="53"/>
+      <c r="V24" s="53"/>
+      <c r="W24" s="53"/>
+      <c r="X24" s="53"/>
+      <c r="Y24" s="53"/>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4555,36 +4769,36 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+      <c r="A47" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="36"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="36"/>
-      <c r="O47" s="35" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="O47" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
+      <c r="P47" s="53"/>
+      <c r="Q47" s="53"/>
+      <c r="R47" s="53"/>
+      <c r="S47" s="53"/>
+      <c r="T47" s="53"/>
+      <c r="U47" s="53"/>
+      <c r="V47" s="53"/>
+      <c r="W47" s="53"/>
+      <c r="X47" s="53"/>
+      <c r="Y47" s="53"/>
+      <c r="Z47" s="53"/>
+      <c r="AA47" s="53"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -6397,13 +6611,13 @@
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="34" t="s">
+      <c r="A70" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="34"/>
-      <c r="C70" s="34"/>
-      <c r="D70" s="34"/>
-      <c r="E70" s="34"/>
+      <c r="B70" s="52"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -6690,8 +6904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:B27"/>
+    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6705,14 +6919,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="57"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7189,14 +7403,14 @@
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="42"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -7566,8 +7780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7586,16 +7800,16 @@
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -7609,16 +7823,10 @@
         <v>48</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -7634,19 +7842,11 @@
         <v>12.105479452054794</v>
       </c>
       <c r="E3" s="5">
-        <f t="shared" ref="E3:E22" si="0">C3/$C$3</f>
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/$C3</f>
-        <v>1</v>
-      </c>
-      <c r="G3" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.1193667631710469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -7660,19 +7860,11 @@
         <v>3.6529680365296802E-3</v>
       </c>
       <c r="E4" s="5">
-        <f t="shared" si="0"/>
-        <v>3.0176153294858739E-4</v>
-      </c>
-      <c r="F4" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G4" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>3.5714285714285712E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -7686,19 +7878,11 @@
         <v>4.6054794520547944</v>
       </c>
       <c r="E5" s="5">
-        <f t="shared" si="0"/>
-        <v>0.38044585266493153</v>
-      </c>
-      <c r="F5" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G5" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>6.0025352766486739E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -7712,19 +7896,11 @@
         <v>7.7082191780821914</v>
       </c>
       <c r="E6" s="5">
-        <f t="shared" si="0"/>
-        <v>0.63675455471313791</v>
-      </c>
-      <c r="F6" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G6" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.30088227430710274</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7740,19 +7916,11 @@
         <v>6.338356164383562</v>
       </c>
       <c r="E7" s="5">
-        <f t="shared" si="0"/>
-        <v>0.52359397985741762</v>
-      </c>
-      <c r="F7" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G7" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.12814571370543379</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -7766,19 +7934,11 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="E8" s="5">
-        <f t="shared" si="0"/>
-        <v>2.2632114971144054E-4</v>
-      </c>
-      <c r="F8" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G8" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -7792,19 +7952,11 @@
         <v>2.5036529680365298</v>
       </c>
       <c r="E9" s="5">
-        <f t="shared" si="0"/>
-        <v>0.20681981064463809</v>
-      </c>
-      <c r="F9" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G9" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>6.6444498303441596E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -7818,19 +7970,11 @@
         <v>3.9470319634703199</v>
       </c>
       <c r="E10" s="5">
-        <f t="shared" si="0"/>
-        <v>0.32605333635094869</v>
-      </c>
-      <c r="F10" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G10" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.32265770810003735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -7846,19 +7990,11 @@
         <v>3.4981735159817351</v>
       </c>
       <c r="E11" s="5">
-        <f t="shared" si="0"/>
-        <v>0.28897438798989095</v>
-      </c>
-      <c r="F11" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G11" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.10598619315745057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -7872,19 +8008,11 @@
         <v>9.1324200913242006E-4</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="0"/>
-        <v>7.5440383237146847E-5</v>
-      </c>
-      <c r="F12" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G12" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>3.125E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -7898,19 +8026,11 @@
         <v>1.2205479452054795</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="0"/>
-        <v>0.10082607219644676</v>
-      </c>
-      <c r="F13" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G13" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>4.9482589459264335E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -7924,19 +8044,11 @@
         <v>2.3237442922374427</v>
       </c>
       <c r="E14" s="5">
-        <f t="shared" si="0"/>
-        <v>0.19195805514692013</v>
-      </c>
-      <c r="F14" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G14" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.26888935855436963</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -7952,19 +8064,11 @@
         <v>1.9420091324200914</v>
       </c>
       <c r="E15" s="5">
-        <f t="shared" si="0"/>
-        <v>0.16042397495379276</v>
-      </c>
-      <c r="F15" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G15" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.12875783355030124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -7978,16 +8082,8 @@
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="0"/>
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0</v>
-      </c>
-      <c r="F16" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G16" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -8004,16 +8100,8 @@
         <v>0.77579908675799092</v>
       </c>
       <c r="E17" s="5">
-        <f t="shared" si="0"/>
-        <v>6.4086605559956253E-2</v>
-      </c>
-      <c r="F17" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G17" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>6.7452755280292209E-2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -8030,21 +8118,13 @@
         <v>1.2123287671232876</v>
       </c>
       <c r="E18" s="5">
-        <f t="shared" si="0"/>
-        <v>0.10014710874731243</v>
-      </c>
-      <c r="F18" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G18" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
-      </c>
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.32548731151158516</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -8062,21 +8142,13 @@
         <v>0.32694063926940636</v>
       </c>
       <c r="E19" s="5">
-        <f t="shared" si="0"/>
-        <v>2.7007657198898569E-2</v>
-      </c>
-      <c r="F19" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C3</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>8.45835794447726E-2</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
@@ -8092,21 +8164,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="5">
-        <f t="shared" si="0"/>
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0</v>
       </c>
-      <c r="F20" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C4</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G20" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -8122,21 +8186,13 @@
         <v>0.10547945205479452</v>
       </c>
       <c r="E21" s="5">
-        <f t="shared" si="0"/>
-        <v>8.7133642638904611E-3</v>
-      </c>
-      <c r="F21" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G21" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>3.662597114317425E-2</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
-      <c r="N21" s="6"/>
-      <c r="O21" s="6"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
@@ -8152,21 +8208,13 @@
         <v>0.22511415525114156</v>
       </c>
       <c r="E22" s="5">
-        <f t="shared" si="0"/>
-        <v>1.8596054467956698E-2</v>
-      </c>
-      <c r="F22" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G22" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
-      </c>
+        <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
+        <v>0.22087813620071686</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
-      <c r="N22" s="6"/>
-      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
@@ -8185,13 +8233,13 @@
       <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
-      <c r="D24" s="43"/>
-      <c r="E24" s="43"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
@@ -8201,22 +8249,16 @@
         <v>3</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="E25" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -8224,7 +8266,7 @@
         <v>17</v>
       </c>
       <c r="C26" s="5">
-        <f>AVERAGE(Dati_OPTN!Q49:V49)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q49:V49) &gt; Arrivi!C3, Arrivi!C3, AVERAGE(Dati_OPTN!Q49:V49))</f>
         <v>11046.5</v>
       </c>
       <c r="D26" s="5">
@@ -8232,16 +8274,8 @@
         <v>30.264383561643836</v>
       </c>
       <c r="E26" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>1</v>
-      </c>
-      <c r="F26" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G26" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C3</f>
+        <v>0.2984236617333868</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -8250,7 +8284,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="5">
-        <f>AVERAGE(Dati_OPTN!Q50:V50)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q50:V50) &gt; Arrivi!C4, Arrivi!C4, AVERAGE(Dati_OPTN!Q50:V50))</f>
         <v>3.3333333333333335</v>
       </c>
       <c r="D27" s="5">
@@ -8258,16 +8292,8 @@
         <v>9.1324200913242021E-3</v>
       </c>
       <c r="E27" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>3.0175470360144241E-4</v>
-      </c>
-      <c r="F27" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C4</f>
+        <v>8.9285714285714288E-2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -8276,7 +8302,7 @@
         <v>21</v>
       </c>
       <c r="C28" s="5">
-        <f>AVERAGE(Dati_OPTN!Q51:V51)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q51:V51) &gt; Arrivi!C5, Arrivi!C5, AVERAGE(Dati_OPTN!Q51:V51))</f>
         <v>2905.8333333333335</v>
       </c>
       <c r="D28" s="5">
@@ -8284,16 +8310,8 @@
         <v>7.961187214611873</v>
       </c>
       <c r="E28" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.26305466286455742</v>
-      </c>
-      <c r="F28" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G28" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C5</f>
+        <v>0.10376185063292646</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -8302,7 +8320,7 @@
         <v>23</v>
       </c>
       <c r="C29" s="5">
-        <f>AVERAGE(Dati_OPTN!Q52:V52)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q52:V52) &gt; Arrivi!C6, Arrivi!C6, AVERAGE(Dati_OPTN!Q52:V52))</f>
         <v>9278.6666666666661</v>
       </c>
       <c r="D29" s="5">
@@ -8310,16 +8328,8 @@
         <v>25.421004566210044</v>
       </c>
       <c r="E29" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.83996439294497494</v>
-      </c>
-      <c r="F29" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G29" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C6</f>
+        <v>0.99228232777827274</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -8330,7 +8340,7 @@
         <v>17</v>
       </c>
       <c r="C30" s="5">
-        <f>AVERAGE(Dati_OPTN!Q53:V53)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q53:V53) &gt; Arrivi!C7, Arrivi!C7, AVERAGE(Dati_OPTN!Q53:V53))</f>
         <v>5731.833333333333</v>
       </c>
       <c r="D30" s="5">
@@ -8338,16 +8348,8 @@
         <v>15.703652968036529</v>
       </c>
       <c r="E30" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.51888230057786022</v>
-      </c>
-      <c r="F30" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G30" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C7</f>
+        <v>0.31748859880725983</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -8356,7 +8358,7 @@
         <v>19</v>
       </c>
       <c r="C31" s="5">
-        <f>AVERAGE(Dati_OPTN!Q54:V54)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q54:V54) &gt; Arrivi!C8, Arrivi!C8, AVERAGE(Dati_OPTN!Q54:V54))</f>
         <v>2.3333333333333335</v>
       </c>
       <c r="D31" s="5">
@@ -8364,16 +8366,8 @@
         <v>6.392694063926941E-3</v>
       </c>
       <c r="E31" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>2.1122829252100968E-4</v>
-      </c>
-      <c r="F31" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G31" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C8</f>
+        <v>0.12280701754385966</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -8382,7 +8376,7 @@
         <v>21</v>
       </c>
       <c r="C32" s="5">
-        <f>AVERAGE(Dati_OPTN!Q55:V55)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q55:V55) &gt; Arrivi!C9, Arrivi!C9, AVERAGE(Dati_OPTN!Q55:V55))</f>
         <v>1521.5</v>
       </c>
       <c r="D32" s="5">
@@ -8390,16 +8384,8 @@
         <v>4.1684931506849319</v>
       </c>
       <c r="E32" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.13773593445887838</v>
-      </c>
-      <c r="F32" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G32" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C9</f>
+        <v>0.11062772661173048</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -8408,24 +8394,16 @@
         <v>23</v>
       </c>
       <c r="C33" s="5">
-        <f>AVERAGE(Dati_OPTN!Q56:V56)</f>
-        <v>4760.833333333333</v>
+        <f>IF(AVERAGE(Dati_OPTN!Q56:V56) &gt; Arrivi!C10, Arrivi!C10, AVERAGE(Dati_OPTN!Q56:V56))</f>
+        <v>4465</v>
       </c>
       <c r="D33" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
-        <v>13.043378995433789</v>
+        <v>12.232876712328768</v>
       </c>
       <c r="E33" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.43098115541876009</v>
-      </c>
-      <c r="F33" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G33" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -8436,7 +8414,7 @@
         <v>17</v>
       </c>
       <c r="C34" s="5">
-        <f>AVERAGE(Dati_OPTN!Q57:V57)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q57:V57) &gt; Arrivi!C11, Arrivi!C11, AVERAGE(Dati_OPTN!Q57:V57))</f>
         <v>3254.1666666666665</v>
       </c>
       <c r="D34" s="5">
@@ -8444,16 +8422,8 @@
         <v>8.9155251141552512</v>
       </c>
       <c r="E34" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.29458802939090811</v>
-      </c>
-      <c r="F34" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G34" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C11</f>
+        <v>0.27011883845440837</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -8462,7 +8432,7 @@
         <v>19</v>
       </c>
       <c r="C35" s="5">
-        <f>AVERAGE(Dati_OPTN!Q58:V58)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q58:V58) &gt; Arrivi!C12, Arrivi!C12, AVERAGE(Dati_OPTN!Q58:V58))</f>
         <v>0.5</v>
       </c>
       <c r="D35" s="5">
@@ -8470,16 +8440,8 @@
         <v>1.3698630136986301E-3</v>
       </c>
       <c r="E35" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>4.5263205540216361E-5</v>
-      </c>
-      <c r="F35" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G35" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C12</f>
+        <v>4.6875E-2</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -8488,7 +8450,7 @@
         <v>21</v>
       </c>
       <c r="C36" s="5">
-        <f>AVERAGE(Dati_OPTN!Q59:V59)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q59:V59) &gt; Arrivi!C13, Arrivi!C13, AVERAGE(Dati_OPTN!Q59:V59))</f>
         <v>853.33333333333337</v>
       </c>
       <c r="D36" s="5">
@@ -8496,16 +8458,8 @@
         <v>2.3378995433789957</v>
       </c>
       <c r="E36" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>7.7249204121969256E-2</v>
-      </c>
-      <c r="F36" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G36" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C13</f>
+        <v>9.4781465780558696E-2</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -8514,7 +8468,7 @@
         <v>23</v>
       </c>
       <c r="C37" s="5">
-        <f>AVERAGE(Dati_OPTN!Q60:V60)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q60:V60) &gt; Arrivi!C14, Arrivi!C14, AVERAGE(Dati_OPTN!Q60:V60))</f>
         <v>2782.5</v>
       </c>
       <c r="D37" s="5">
@@ -8522,16 +8476,8 @@
         <v>7.6232876712328768</v>
       </c>
       <c r="E37" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.25188973883130406</v>
-      </c>
-      <c r="F37" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G37" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C14</f>
+        <v>0.88211983514741621</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -8542,7 +8488,7 @@
         <v>17</v>
       </c>
       <c r="C38" s="5">
-        <f>AVERAGE(Dati_OPTN!Q61:V61)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q61:V61) &gt; Arrivi!C15, Arrivi!C15, AVERAGE(Dati_OPTN!Q61:V61))</f>
         <v>1750.8333333333333</v>
       </c>
       <c r="D38" s="5">
@@ -8550,16 +8496,8 @@
         <v>4.7968036529680367</v>
       </c>
       <c r="E38" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.15849665806665761</v>
-      </c>
-      <c r="F38" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G38" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C15</f>
+        <v>0.31803457358239229</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
@@ -8568,7 +8506,7 @@
         <v>19</v>
       </c>
       <c r="C39" s="5">
-        <f>AVERAGE(Dati_OPTN!Q62:V62)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q62:V62) &gt; Arrivi!C16, Arrivi!C16, AVERAGE(Dati_OPTN!Q62:V62))</f>
         <v>0</v>
       </c>
       <c r="D39" s="5">
@@ -8576,16 +8514,8 @@
         <v>0</v>
       </c>
       <c r="E39" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C16</f>
         <v>0</v>
-      </c>
-      <c r="F39" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G39" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -8594,7 +8524,7 @@
         <v>21</v>
       </c>
       <c r="C40" s="5">
-        <f>AVERAGE(Dati_OPTN!Q63:V63)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q63:V63) &gt; Arrivi!C17, Arrivi!C17, AVERAGE(Dati_OPTN!Q63:V63))</f>
         <v>454</v>
       </c>
       <c r="D40" s="5">
@@ -8602,16 +8532,8 @@
         <v>1.2438356164383562</v>
       </c>
       <c r="E40" s="5">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>4.1098990630516453E-2</v>
-      </c>
-      <c r="F40" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G40" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C17</f>
+        <v>0.1081467365412101</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -8620,24 +8542,16 @@
         <v>23</v>
       </c>
       <c r="C41" s="5">
-        <f>AVERAGE(Dati_OPTN!Q64:V64)</f>
-        <v>1459.6666666666667</v>
+        <f>IF(AVERAGE(Dati_OPTN!Q64:V64) &gt; Arrivi!C18, Arrivi!C18, AVERAGE(Dati_OPTN!Q64:V64))</f>
+        <v>1359.5</v>
       </c>
       <c r="D41" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
-        <v>3.999086757990868</v>
-      </c>
-      <c r="E41" s="6">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>0.13213838470707162</v>
-      </c>
-      <c r="F41" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G41" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>#VALUE!</v>
+        <v>3.7246575342465755</v>
+      </c>
+      <c r="E41" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C18</f>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
@@ -8648,24 +8562,16 @@
         <v>17</v>
       </c>
       <c r="C42" s="5">
-        <f>AVERAGE(Dati_OPTN!Q65:V65)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q65:V65) &gt; Arrivi!C19, Arrivi!C19, AVERAGE(Dati_OPTN!Q65:V65))</f>
         <v>309.83333333333331</v>
       </c>
       <c r="D42" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.84885844748858441</v>
       </c>
-      <c r="E42" s="6">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>2.8048099699754067E-2</v>
-      </c>
-      <c r="F42" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G42" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
+      <c r="E42" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C19</f>
+        <v>0.21961015948021265</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -8674,24 +8580,16 @@
         <v>19</v>
       </c>
       <c r="C43" s="5">
-        <f>AVERAGE(Dati_OPTN!Q66:V66)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q66:V66) &gt; Arrivi!C20, Arrivi!C20, AVERAGE(Dati_OPTN!Q66:V66))</f>
         <v>0.5</v>
       </c>
       <c r="D43" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="E43" s="6">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>4.5263205540216361E-5</v>
-      </c>
-      <c r="F43" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G43" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
+      <c r="E43" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C20</f>
+        <v>0.3</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -8700,24 +8598,16 @@
         <v>21</v>
       </c>
       <c r="C44" s="5">
-        <f>AVERAGE(Dati_OPTN!Q67:V67)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q67:V67) &gt; Arrivi!C21, Arrivi!C21, AVERAGE(Dati_OPTN!Q67:V67))</f>
         <v>77</v>
       </c>
       <c r="D44" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.21095890410958903</v>
       </c>
-      <c r="E44" s="6">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>6.970533653193319E-3</v>
-      </c>
-      <c r="F44" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G44" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
+      <c r="E44" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C21</f>
+        <v>7.3251942286348501E-2</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -8726,24 +8616,16 @@
         <v>23</v>
       </c>
       <c r="C45" s="5">
-        <f>AVERAGE(Dati_OPTN!Q68:V68)</f>
+        <f>IF(AVERAGE(Dati_OPTN!Q68:V68) &gt; Arrivi!C22, Arrivi!C22, AVERAGE(Dati_OPTN!Q68:V68))</f>
         <v>275.83333333333331</v>
       </c>
       <c r="D45" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.75570776255707761</v>
       </c>
-      <c r="E45" s="6">
-        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/$C$26</f>
-        <v>2.4970201723019357E-2</v>
-      </c>
-      <c r="F45" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G45" t="e">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>#VALUE!</v>
+      <c r="E45" s="5">
+        <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C22</f>
+        <v>0.74148745519713255</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -8770,6 +8652,7 @@
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
       <c r="I47" s="6"/>
       <c r="J47" s="6"/>
       <c r="K47" s="6"/>
@@ -8781,17 +8664,18 @@
       <c r="Q47" s="6"/>
     </row>
     <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="46"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="63"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="64"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>2</v>
       </c>
@@ -8799,22 +8683,19 @@
         <v>3</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="4" t="s">
-        <v>54</v>
-      </c>
       <c r="E49" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>16</v>
       </c>
@@ -8830,19 +8711,11 @@
         <v>54.092694063926935</v>
       </c>
       <c r="E50" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>1</v>
-      </c>
-      <c r="F50">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>1</v>
-      </c>
-      <c r="G50">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C3</f>
+        <v>0.53338406191889132</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1" t="s">
         <v>19</v>
@@ -8856,19 +8729,11 @@
         <v>4.5205479452054796E-2</v>
       </c>
       <c r="E51" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>8.3570397508082699E-4</v>
-      </c>
-      <c r="F51">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>1</v>
-      </c>
-      <c r="G51">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>8.3570397508082699E-4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C4</f>
+        <v>0.4419642857142857</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
       <c r="B52" s="1" t="s">
         <v>21</v>
@@ -8882,19 +8747,11 @@
         <v>49.414155251141558</v>
       </c>
       <c r="E52" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.91350885930628145</v>
-      </c>
-      <c r="F52">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>1</v>
-      </c>
-      <c r="G52">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.91350885930628145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C5</f>
+        <v>0.64403763636039024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1"/>
       <c r="B53" s="1" t="s">
         <v>23</v>
@@ -8908,19 +8765,11 @@
         <v>4.2356164383561641</v>
       </c>
       <c r="E53" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>7.830293002878537E-2</v>
-      </c>
-      <c r="F53">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>1</v>
-      </c>
-      <c r="G53">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>7.830293002878537E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C6</f>
+        <v>0.1653328580340433</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>24</v>
       </c>
@@ -8936,19 +8785,11 @@
         <v>24.426027397260274</v>
       </c>
       <c r="E54" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.45155871453534019</v>
-      </c>
-      <c r="F54">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>0.45155871453534019</v>
-      </c>
-      <c r="G54">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C7</f>
+        <v>0.49383320101179812</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1"/>
       <c r="B55" s="1" t="s">
         <v>19</v>
@@ -8962,19 +8803,11 @@
         <v>2.0547945205479451E-2</v>
       </c>
       <c r="E55" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>3.7986544321855773E-4</v>
-      </c>
-      <c r="F55">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>0.45454545454545453</v>
-      </c>
-      <c r="G55">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>8.4123156300824409E-4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C8</f>
+        <v>0.39473684210526316</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
       <c r="B56" s="1" t="s">
         <v>21</v>
@@ -8988,19 +8821,11 @@
         <v>22.43013698630137</v>
       </c>
       <c r="E56" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.41466111781737758</v>
-      </c>
-      <c r="F56">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>0.45392128778288066</v>
-      </c>
-      <c r="G56">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>0.91828837417979925</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C9</f>
+        <v>0.59527387300048473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1"/>
       <c r="B57" s="1" t="s">
         <v>23</v>
@@ -9014,19 +8839,11 @@
         <v>1.800456621004566</v>
       </c>
       <c r="E57" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>3.3284654280239398E-2</v>
-      </c>
-      <c r="F57">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>0.42507546356188008</v>
-      </c>
-      <c r="G57">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$54</f>
-        <v>7.3710578954255687E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C10</f>
+        <v>0.14718178424785366</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>25</v>
       </c>
@@ -9042,19 +8859,11 @@
         <v>19.62283105022831</v>
       </c>
       <c r="E58" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.36276305681942883</v>
-      </c>
-      <c r="F58">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>0.36276305681942883</v>
-      </c>
-      <c r="G58">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C11</f>
+        <v>0.59452430031957726</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1"/>
       <c r="B59" s="1" t="s">
         <v>19</v>
@@ -9068,19 +8877,11 @@
         <v>1.187214611872146E-2</v>
       </c>
       <c r="E59" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>2.1947781163738888E-4</v>
-      </c>
-      <c r="F59">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>0.2626262626262626</v>
-      </c>
-      <c r="G59">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>6.0501698701540462E-4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C12</f>
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>21</v>
@@ -9094,19 +8895,11 @@
         <v>17.739726027397261</v>
       </c>
       <c r="E60" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.32795049931202147</v>
-      </c>
-      <c r="F60">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>0.35900089634715432</v>
-      </c>
-      <c r="G60">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>0.90403499790571051</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C13</f>
+        <v>0.71919139562005963</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1"/>
       <c r="B61" s="1" t="s">
         <v>23</v>
@@ -9120,19 +8913,11 @@
         <v>1.7132420091324201</v>
       </c>
       <c r="E61" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>3.1672336510133972E-2</v>
-      </c>
-      <c r="F61">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>0.40448469167744722</v>
-      </c>
-      <c r="G61">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$58</f>
-        <v>8.7308605203146095E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C14</f>
+        <v>0.19824579942935644</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>26</v>
       </c>
@@ -9148,19 +8933,11 @@
         <v>7.3986301369863012</v>
       </c>
       <c r="E62" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.13677688392156201</v>
-      </c>
-      <c r="F62">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>0.13677688392156201</v>
-      </c>
-      <c r="G62">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C15</f>
+        <v>0.49053919045744904</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1"/>
       <c r="B63" s="1" t="s">
         <v>19</v>
@@ -9174,19 +8951,11 @@
         <v>1.0502283105022832E-2</v>
       </c>
       <c r="E63" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>1.9415344875615173E-4</v>
-      </c>
-      <c r="F63">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>0.23232323232323232</v>
-      </c>
-      <c r="G63">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>1.4194902178608899E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C16</f>
+        <v>0.63888888888888895</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1" t="s">
         <v>21</v>
@@ -9200,19 +8969,11 @@
         <v>6.7986301369863016</v>
       </c>
       <c r="E64" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>0.12568481297958012</v>
-      </c>
-      <c r="F64">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>0.1375846678433148</v>
-      </c>
-      <c r="G64">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>0.91890390668394739</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C17</f>
+        <v>0.59111481657932352</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
         <v>23</v>
@@ -9226,19 +8987,11 @@
         <v>0.54292237442922375</v>
       </c>
       <c r="E65" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>1.0036889155263668E-2</v>
-      </c>
-      <c r="F65">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>0.12818025010780509</v>
-      </c>
-      <c r="G65">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$62</f>
-        <v>7.3381472566808617E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C18</f>
+        <v>0.14576437415716562</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>27</v>
       </c>
@@ -9254,19 +9007,11 @@
         <v>2.6452054794520548</v>
       </c>
       <c r="E66" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>4.8901344723668999E-2</v>
-      </c>
-      <c r="F66">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C50</f>
-        <v>4.8901344723668999E-2</v>
-      </c>
-      <c r="G66">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C19</f>
+        <v>0.68434731246308333</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
       <c r="B67" s="1" t="s">
         <v>19</v>
@@ -9280,19 +9025,11 @@
         <v>2.2831050228310505E-3</v>
       </c>
       <c r="E67" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>4.2207271468728638E-5</v>
-      </c>
-      <c r="F67">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C51</f>
-        <v>5.0505050505050504E-2</v>
-      </c>
-      <c r="G67">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>8.6311065078543069E-4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C20</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
         <v>21</v>
@@ -9306,19 +9043,11 @@
         <v>2.4456621004566208</v>
       </c>
       <c r="E68" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>4.5212429197302111E-2</v>
-      </c>
-      <c r="F68">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C52</f>
-        <v>4.9493148026650148E-2</v>
-      </c>
-      <c r="G68">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>0.92456412912135333</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C21</f>
+        <v>0.84921515776121759</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
         <v>23</v>
@@ -9332,24 +9061,17 @@
         <v>0.17899543378995433</v>
       </c>
       <c r="E69" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$50</f>
-        <v>3.3090500831483246E-3</v>
-      </c>
-      <c r="F69">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C53</f>
-        <v>4.2259594652867612E-2</v>
-      </c>
-      <c r="G69">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/$C$66</f>
-        <v>6.7667875021577756E-2</v>
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C22</f>
+        <v>0.17562724014336917</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A48:G48"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <tableParts count="3">
@@ -9362,10 +9084,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9385,61 +9107,61 @@
     <col min="16" max="16" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="49" t="s">
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="7" t="s">
+      <c r="K2" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="K2" s="50" t="s">
+      <c r="L2" s="68"/>
+      <c r="M2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="50"/>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -9447,16 +9169,16 @@
         <v>3</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>2</v>
@@ -9465,21 +9187,21 @@
         <v>42</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="15" t="s">
         <v>69</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>70</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>24</v>
       </c>
@@ -9495,54 +9217,50 @@
       <c r="E4" s="18">
         <v>6.392694063926941E-3</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <f>C4*(1-Uscite!E8-Uscite!E31)</f>
-        <v>5.2032017974239959E-2</v>
+        <v>4.2922374429223746E-2</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>24</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I4" s="18">
         <v>22.411872146118721</v>
       </c>
       <c r="J4" s="21">
         <f>1/(I$4+SUM(F$4:F$6))</f>
-        <v>1.9946762001335716E-2</v>
+        <v>2.0195499815566207E-2</v>
       </c>
       <c r="K4" s="22">
-        <f t="shared" ref="K4:K15" si="0">F4*J4</f>
-        <v>1.0378702789813866E-3</v>
+        <f>F4*J4</f>
+        <v>8.6683880486905182E-4</v>
       </c>
       <c r="L4" s="22">
         <f>SUM(K$4:K$6)</f>
-        <v>0.55295572029700468</v>
+        <v>0.54738104020656575</v>
       </c>
       <c r="M4" s="21">
         <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
-        <v>1.1041135416336339E-2</v>
+        <v>1.106422459576153E-2</v>
       </c>
       <c r="N4" s="21">
-        <f t="shared" ref="N4:N15" si="1">M4+J4</f>
-        <v>3.0987897417672057E-2</v>
+        <f t="shared" ref="N4:N15" si="0">M4+J4</f>
+        <v>3.1259724411327738E-2</v>
       </c>
       <c r="O4" s="21">
-        <f t="shared" ref="O4:O15" si="2">M4*F4</f>
-        <v>5.7449255643882982E-4</v>
+        <f t="shared" ref="O4:O5" si="1">M4*F4</f>
+        <v>4.7490279086830311E-4</v>
       </c>
       <c r="P4" s="21">
-        <f t="shared" ref="P4:P15" si="3">N4*F4</f>
-        <v>1.6123628354202165E-3</v>
-      </c>
-      <c r="Q4" s="23">
-        <f t="shared" ref="Q4:Q15" si="4">(D4/E4)</f>
-        <v>0.42857142857142855</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="24"/>
+        <f t="shared" ref="P4:P5" si="2">N4*F4</f>
+        <v>1.3417415957373551E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
       <c r="B5" s="17" t="s">
         <v>21</v>
       </c>
@@ -9555,52 +9273,48 @@
       <c r="E5" s="18">
         <v>4.1684931506849319</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="32">
         <f>C5*(1-Uscite!E9-Uscite!E32)</f>
-        <v>24.697378956190793</v>
+        <v>31.008219178082197</v>
       </c>
       <c r="G5" s="19"/>
       <c r="H5" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I5" s="18">
         <v>12.106849315068493</v>
       </c>
       <c r="J5" s="21">
         <f>J4</f>
-        <v>1.9946762001335716E-2</v>
+        <v>2.0195499815566207E-2</v>
       </c>
       <c r="K5" s="22">
-        <f t="shared" si="0"/>
-        <v>0.49263274009593488</v>
+        <f t="shared" ref="K5" si="3">F5*J5</f>
+        <v>0.62622648469199549</v>
       </c>
       <c r="L5" s="22">
         <f>L4</f>
-        <v>0.55295572029700468</v>
+        <v>0.54738104020656575</v>
       </c>
       <c r="M5" s="21">
         <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
-        <v>2.1806230573563679E-2</v>
+        <v>2.9670223927107671E-2</v>
       </c>
       <c r="N5" s="21">
+        <f t="shared" si="0"/>
+        <v>4.9865723742673881E-2</v>
+      </c>
+      <c r="O5" s="21">
         <f t="shared" si="1"/>
-        <v>4.1752992574899395E-2</v>
-      </c>
-      <c r="O5" s="21">
+        <v>0.92002080659453334</v>
+      </c>
+      <c r="P5" s="21">
         <f t="shared" si="2"/>
-        <v>0.53855674008137588</v>
-      </c>
-      <c r="P5" s="21">
-        <f t="shared" si="3"/>
-        <v>1.0311894801773107</v>
-      </c>
-      <c r="Q5" s="23">
-        <f t="shared" si="4"/>
-        <v>0.60061342972943366</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="24"/>
+        <v>1.546247291286529</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="17" t="s">
         <v>23</v>
       </c>
@@ -9613,51 +9327,47 @@
       <c r="E6" s="18">
         <v>13.043378995433789</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="32">
         <f>C6*(1-Uscite!E10-Uscite!E33)</f>
-        <v>2.9721671075294531</v>
+        <v>-3.9470319634703199</v>
       </c>
       <c r="G6" s="19"/>
       <c r="H6" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I6" s="18">
         <v>10.305022831050229</v>
       </c>
       <c r="J6" s="21">
         <f>J5</f>
-        <v>1.9946762001335716E-2</v>
+        <v>2.0195499815566207E-2</v>
       </c>
       <c r="K6" s="22">
-        <f t="shared" si="0"/>
-        <v>5.928510992208838E-2</v>
+        <f>F6*J6</f>
+        <v>-7.9712283290298766E-2</v>
       </c>
       <c r="L6" s="22">
         <f>L5</f>
-        <v>0.55295572029700468</v>
+        <v>0.54738104020656575</v>
       </c>
       <c r="M6" s="21">
         <f>IF(MOD(ROW(),3)=1,(L4*J4)/(1-K4),IF(MOD(ROW(),3)=2,(L4*J4)/((1-K4)*(1-K4-K5)), IF(MOD(ROW(),3)=0,(L4*J4)/((1-K4-K5)*(1-L4)))))</f>
-        <v>4.8728055640097266E-2</v>
+        <v>6.5495498993651591E-2</v>
       </c>
       <c r="N6" s="21">
-        <f t="shared" si="1"/>
-        <v>6.8674817641432989E-2</v>
+        <f t="shared" si="0"/>
+        <v>8.5690998809217794E-2</v>
       </c>
       <c r="O6" s="21">
-        <f t="shared" si="2"/>
-        <v>0.14482792418736215</v>
+        <f>M6*F6</f>
+        <v>-0.25851282799138098</v>
       </c>
       <c r="P6" s="21">
-        <f t="shared" si="3"/>
-        <v>0.20411303410945056</v>
-      </c>
-      <c r="Q6" s="23">
-        <f t="shared" si="4"/>
-        <v>0.30260808681953444</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <f>N6*F6</f>
+        <v>-0.33822511128167976</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>25</v>
       </c>
@@ -9673,54 +9383,50 @@
       <c r="E7" s="18">
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <f>C7*(1-Uscite!E12-Uscite!E35)</f>
-        <v>2.9220216881423858E-2</v>
+        <v>2.6940639269406392E-2</v>
       </c>
       <c r="G7" s="19" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I7" s="18">
         <v>13.938356164383562</v>
       </c>
       <c r="J7" s="21">
         <f>1/(I$7+SUM(F7:F9))</f>
-        <v>2.5609757636762279E-2</v>
+        <v>2.9613803548247511E-2</v>
       </c>
       <c r="K7" s="22">
-        <f t="shared" si="0"/>
-        <v>7.4832267242689471E-4</v>
+        <f>F7*J7</f>
+        <v>7.9781479878840325E-4</v>
       </c>
       <c r="L7" s="22">
         <f>SUM(K$7:K$9)</f>
-        <v>0.64304207677526548</v>
+        <v>0.58723225876244034</v>
       </c>
       <c r="M7" s="21">
         <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
-        <v>1.6480484456626303E-2</v>
+        <v>1.7404065969574174E-2</v>
       </c>
       <c r="N7" s="21">
-        <f t="shared" si="1"/>
-        <v>4.2090242093388582E-2</v>
+        <f t="shared" si="0"/>
+        <v>4.7017869517821685E-2</v>
       </c>
       <c r="O7" s="21">
-        <f t="shared" si="2"/>
-        <v>4.8156333013355538E-4</v>
+        <f>M7*F7</f>
+        <v>4.6887666310724941E-4</v>
       </c>
       <c r="P7" s="21">
-        <f t="shared" si="3"/>
-        <v>1.22988600256045E-3</v>
-      </c>
-      <c r="Q7" s="23">
-        <f t="shared" si="4"/>
-        <v>0.66666666666666663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="24"/>
+        <f>N7*F7</f>
+        <v>1.2666914618956527E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="17" t="s">
         <v>21</v>
       </c>
@@ -9733,52 +9439,48 @@
       <c r="E8" s="18">
         <v>2.3378995433789957</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="32">
         <f>C8*(1-Uscite!E13-Uscite!E36)</f>
-        <v>20.27376787605273</v>
+        <v>21.107762557077624</v>
       </c>
       <c r="G8" s="19"/>
       <c r="H8" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I8" s="18">
         <v>9.3986301369863021</v>
       </c>
       <c r="J8" s="21">
         <f>J7</f>
-        <v>2.5609757636762279E-2</v>
+        <v>2.9613803548247511E-2</v>
       </c>
       <c r="K8" s="22">
-        <f t="shared" si="0"/>
-        <v>0.51920628168968719</v>
+        <f>F8*J8</f>
+        <v>0.62508113370835128</v>
       </c>
       <c r="L8" s="22">
         <f>L7</f>
-        <v>0.64304207677526548</v>
+        <v>0.58723225876244034</v>
       </c>
       <c r="M8" s="21">
         <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
-        <v>3.4331095780487549E-2</v>
+        <v>4.6519878793578953E-2</v>
       </c>
       <c r="N8" s="21">
-        <f t="shared" si="1"/>
-        <v>5.9940853417249827E-2</v>
+        <f t="shared" si="0"/>
+        <v>7.6133682341826464E-2</v>
       </c>
       <c r="O8" s="21">
-        <f t="shared" si="2"/>
-        <v>0.69602066678413788</v>
+        <f>M8*F8</f>
+        <v>0.98193055575889521</v>
       </c>
       <c r="P8" s="21">
-        <f t="shared" si="3"/>
-        <v>1.2152269484738252</v>
-      </c>
-      <c r="Q8" s="23">
-        <f t="shared" si="4"/>
-        <v>0.52207031249999991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="24"/>
+        <f>N8*F8</f>
+        <v>1.6070116894672466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
       <c r="B9" s="17" t="s">
         <v>23</v>
       </c>
@@ -9791,51 +9493,47 @@
       <c r="E9" s="18">
         <v>7.6232876712328768</v>
       </c>
-      <c r="F9" s="33">
+      <c r="F9" s="32">
         <f>C9*(1-Uscite!E14-Uscite!E37)</f>
-        <v>4.806272443455768</v>
+        <v>-1.3050228310502283</v>
       </c>
       <c r="G9" s="19"/>
       <c r="H9" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I9" s="18">
         <v>4.5397260273972604</v>
       </c>
       <c r="J9" s="21">
         <f>J8</f>
-        <v>2.5609757636762279E-2</v>
+        <v>2.9613803548247511E-2</v>
       </c>
       <c r="K9" s="22">
-        <f t="shared" si="0"/>
-        <v>0.12308747241315145</v>
+        <f>F9*J9</f>
+        <v>-3.8646689744699265E-2</v>
       </c>
       <c r="L9" s="22">
         <f>L8</f>
-        <v>0.64304207677526548</v>
+        <v>0.58723225876244034</v>
       </c>
       <c r="M9" s="21">
         <f>IF(MOD(ROW(),3)=1,(L7*J7)/(1-K7),IF(MOD(ROW(),3)=2,(L7*J7)/((1-K7)*(1-K7-K8)), IF(MOD(ROW(),3)=0,(L7*J7)/((1-K7-K8)*(1-L7)))))</f>
-        <v>9.6104898676104361E-2</v>
+        <v>0.1126123965174096</v>
       </c>
       <c r="N9" s="21">
-        <f t="shared" si="1"/>
-        <v>0.12171465631286664</v>
+        <f t="shared" si="0"/>
+        <v>0.14222620006565712</v>
       </c>
       <c r="O9" s="21">
-        <f t="shared" si="2"/>
-        <v>0.46190632618806909</v>
+        <f>M9*F9</f>
+        <v>-0.14696174851450075</v>
       </c>
       <c r="P9" s="21">
-        <f t="shared" si="3"/>
-        <v>0.58499379860122058</v>
-      </c>
-      <c r="Q9" s="23">
-        <f t="shared" si="4"/>
-        <v>0.30482180293501043</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <f>N9*F9</f>
+        <v>-0.18560843825920001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>26</v>
       </c>
@@ -9851,7 +9549,7 @@
       <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="32">
         <f>C10*(1-Uscite!E16-Uscite!E39)</f>
         <v>1.643835616438356E-2</v>
       </c>
@@ -9859,46 +9557,42 @@
         <v>26</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I10" s="18">
         <v>4.3242009132420085</v>
       </c>
       <c r="J10" s="21">
         <f>1/(I$10+SUM(F10:F12))</f>
-        <v>5.7169957965793758E-2</v>
+        <v>7.9301853997682498E-2</v>
       </c>
       <c r="K10" s="22">
-        <f t="shared" si="0"/>
-        <v>9.3978013094455487E-4</v>
+        <f>F10*J10</f>
+        <v>1.3035921205098492E-3</v>
       </c>
       <c r="L10" s="22">
         <f>SUM(K$10:K$12)</f>
-        <v>0.75278561555430723</v>
+        <v>0.65708285052143689</v>
       </c>
       <c r="M10" s="21">
         <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
-        <v>4.3077205099943477E-2</v>
+        <v>5.2175904374254775E-2</v>
       </c>
       <c r="N10" s="21">
-        <f t="shared" si="1"/>
-        <v>0.10024716306573724</v>
+        <f t="shared" si="0"/>
+        <v>0.13147775837193726</v>
       </c>
       <c r="O10" s="21">
-        <f t="shared" si="2"/>
-        <v>7.081184399990708E-4</v>
+        <f>M10*F10</f>
+        <v>8.5768609930281811E-4</v>
       </c>
       <c r="P10" s="21">
-        <f t="shared" si="3"/>
-        <v>1.6478985709436256E-3</v>
-      </c>
-      <c r="Q10" s="23" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
+        <f>N10*F10</f>
+        <v>2.1612782198126672E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
       <c r="B11" s="17" t="s">
         <v>21</v>
       </c>
@@ -9911,52 +9605,48 @@
       <c r="E11" s="18">
         <v>1.2438356164383562</v>
       </c>
-      <c r="F11" s="33">
+      <c r="F11" s="32">
         <f>C11*(1-Uscite!E17-Uscite!E40)</f>
-        <v>10.291591416965467</v>
+        <v>9.4817351598173527</v>
       </c>
       <c r="G11" s="19"/>
       <c r="H11" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I11" s="18">
         <v>2.9876712328767123</v>
       </c>
       <c r="J11" s="21">
         <f>J10</f>
-        <v>5.7169957965793758E-2</v>
+        <v>7.9301853997682498E-2</v>
       </c>
       <c r="K11" s="22">
-        <f t="shared" si="0"/>
-        <v>0.58836984870903952</v>
+        <f>F11*J11</f>
+        <v>0.75191917728852842</v>
       </c>
       <c r="L11" s="22">
         <f>L10</f>
-        <v>0.75278561555430723</v>
+        <v>0.65708285052143689</v>
       </c>
       <c r="M11" s="21">
         <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
-        <v>0.10488973719610156</v>
+        <v>0.21142916730732506</v>
       </c>
       <c r="N11" s="21">
-        <f t="shared" si="1"/>
-        <v>0.16205969516189533</v>
+        <f t="shared" si="0"/>
+        <v>0.29073102130500755</v>
       </c>
       <c r="O11" s="21">
-        <f t="shared" si="2"/>
-        <v>1.0794823190551623</v>
+        <f>M11*F11</f>
+        <v>2.0047153694687694</v>
       </c>
       <c r="P11" s="21">
-        <f t="shared" si="3"/>
-        <v>1.667852167764202</v>
-      </c>
-      <c r="Q11" s="23">
-        <f t="shared" si="4"/>
-        <v>0.62371512481644642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
+        <f>N11*F11</f>
+        <v>2.7566345467572981</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
@@ -9969,51 +9659,47 @@
       <c r="E12" s="18">
         <v>3.999086757990868</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <f>C12*(1-Uscite!E18-Uscite!E41)</f>
-        <v>2.8594736209555203</v>
+        <v>-1.2123287671232879</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I12" s="18">
         <v>1.3365296803652968</v>
       </c>
       <c r="J12" s="21">
         <f>J11</f>
-        <v>5.7169957965793758E-2</v>
+        <v>7.9301853997682498E-2</v>
       </c>
       <c r="K12" s="22">
-        <f t="shared" si="0"/>
-        <v>0.16347598671432317</v>
+        <f>F12*J12</f>
+        <v>-9.61399188876014E-2</v>
       </c>
       <c r="L12" s="22">
         <f>L11</f>
-        <v>0.75278561555430723</v>
+        <v>0.65708285052143689</v>
       </c>
       <c r="M12" s="21">
         <f>IF(MOD(ROW(),3)=1,(L10*J10)/(1-K10),IF(MOD(ROW(),3)=2,(L10*J10)/((1-K10)*(1-K10-K11)), IF(MOD(ROW(),3)=0,(L10*J10)/((1-K10-K11)*(1-L10)))))</f>
-        <v>0.4238878095225273</v>
+        <v>0.6157567512498443</v>
       </c>
       <c r="N12" s="21">
-        <f t="shared" si="1"/>
-        <v>0.48105776748832108</v>
+        <f t="shared" si="0"/>
+        <v>0.69505860524752683</v>
       </c>
       <c r="O12" s="21">
-        <f t="shared" si="2"/>
-        <v>1.212096009574285</v>
+        <f>M12*F12</f>
+        <v>-0.74649962309056483</v>
       </c>
       <c r="P12" s="21">
-        <f t="shared" si="3"/>
-        <v>1.3755719962886082</v>
-      </c>
-      <c r="Q12" s="23">
-        <f t="shared" si="4"/>
-        <v>0.30315140443023519</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <f>N12*F12</f>
+        <v>-0.84263954197816626</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>27</v>
       </c>
@@ -10029,54 +9715,50 @@
       <c r="E13" s="18">
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="F13" s="33">
+      <c r="F13" s="32">
         <f>C13*(1-Uscite!E20-Uscite!E43)</f>
-        <v>4.5660033643582648E-3</v>
+        <v>3.1963470319634705E-3</v>
       </c>
       <c r="G13" s="19" t="s">
         <v>27</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I13" s="18">
         <v>1.0904109589041096</v>
       </c>
       <c r="J13" s="21">
         <f>1/(I$13+SUM(F13:F15))</f>
-        <v>0.20389464241010324</v>
+        <v>0.27060422587421229</v>
       </c>
       <c r="K13" s="22">
-        <f t="shared" si="0"/>
-        <v>9.3098362321915676E-4</v>
+        <f>F13*J13</f>
+        <v>8.6494501420981106E-4</v>
       </c>
       <c r="L13" s="22">
         <f>SUM(K$13:K$15)</f>
-        <v>0.77767104745418902</v>
+        <v>0.70493018658099604</v>
       </c>
       <c r="M13" s="21">
         <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
-        <v>0.15871071721191596</v>
+        <v>0.19092222466143724</v>
       </c>
       <c r="N13" s="21">
-        <f t="shared" si="1"/>
-        <v>0.36260535962201923</v>
+        <f t="shared" si="0"/>
+        <v>0.46152645053564956</v>
       </c>
       <c r="O13" s="21">
-        <f t="shared" si="2"/>
-        <v>7.2467366874932144E-4</v>
+        <f>M13*F13</f>
+        <v>6.1025368613244779E-4</v>
       </c>
       <c r="P13" s="21">
-        <f t="shared" si="3"/>
-        <v>1.6556572919684783E-3</v>
-      </c>
-      <c r="Q13" s="23">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="24"/>
+        <f>N13*F13</f>
+        <v>1.4751987003422588E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
       <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
@@ -10089,52 +9771,48 @@
       <c r="E14" s="18">
         <v>0.21095890410958903</v>
       </c>
-      <c r="F14" s="33">
+      <c r="F14" s="32">
         <f>C14*(1-Uscite!E21-Uscite!E44)</f>
-        <v>2.8347404821173301</v>
+        <v>2.5634703196347033</v>
       </c>
       <c r="G14" s="19"/>
       <c r="H14" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I14" s="18">
         <v>0.87168949771689508</v>
       </c>
       <c r="J14" s="21">
         <f>J13</f>
-        <v>0.20389464241010324</v>
+        <v>0.27060422587421229</v>
       </c>
       <c r="K14" s="22">
-        <f t="shared" si="0"/>
-        <v>0.57798839692675674</v>
+        <f>F14*J14</f>
+        <v>0.6936859013962684</v>
       </c>
       <c r="L14" s="22">
         <f>L13</f>
-        <v>0.77767104745418902</v>
+        <v>0.70493018658099604</v>
       </c>
       <c r="M14" s="21">
         <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
-        <v>0.37691289952790746</v>
+        <v>0.62505403081917954</v>
       </c>
       <c r="N14" s="21">
-        <f t="shared" si="1"/>
-        <v>0.58080754193801076</v>
+        <f t="shared" si="0"/>
+        <v>0.89565825669339183</v>
       </c>
       <c r="O14" s="21">
-        <f t="shared" si="2"/>
-        <v>1.0684502545239811</v>
+        <f>M14*F14</f>
+        <v>1.602307456173002</v>
       </c>
       <c r="P14" s="21">
-        <f t="shared" si="3"/>
-        <v>1.6464386514507381</v>
-      </c>
-      <c r="Q14" s="23">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="24"/>
+        <f>N14*F14</f>
+        <v>2.2959933575692704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
       <c r="B15" s="17" t="s">
         <v>23</v>
       </c>
@@ -10147,105 +9825,101 @@
       <c r="E15" s="18">
         <v>0.75570776255707761</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <f>C15*(1-Uscite!E22-Uscite!E45)</f>
-        <v>0.97477630875878618</v>
+        <v>3.8356164383561722E-2</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I15" s="18">
         <v>0.21872146118721461</v>
       </c>
       <c r="J15" s="21">
         <f>J14</f>
-        <v>0.20389464241010324</v>
+        <v>0.27060422587421229</v>
       </c>
       <c r="K15" s="22">
-        <f t="shared" si="0"/>
-        <v>0.19875166690421309</v>
+        <f>F15*J15</f>
+        <v>1.0379340170517753E-2</v>
       </c>
       <c r="L15" s="22">
         <f>L14</f>
-        <v>0.77767104745418902</v>
+        <v>0.70493018658099604</v>
       </c>
       <c r="M15" s="21">
         <f>IF(MOD(ROW(),3)=1,(L13*J13)/(1-K13),IF(MOD(ROW(),3)=2,(L13*J13)/((1-K13)*(1-K13-K14)), IF(MOD(ROW(),3)=0,(L13*J13)/((1-K13-K14)*(1-L13)))))</f>
-        <v>1.6937155304299658</v>
+        <v>2.1164936738709748</v>
       </c>
       <c r="N15" s="21">
-        <f t="shared" si="1"/>
-        <v>1.8976101728400692</v>
+        <f t="shared" si="0"/>
+        <v>2.387097899745187</v>
       </c>
       <c r="O15" s="21">
-        <f t="shared" si="2"/>
-        <v>1.6509937728399517</v>
+        <f>M15*F15</f>
+        <v>8.1180579271763587E-2</v>
       </c>
       <c r="P15" s="21">
-        <f t="shared" si="3"/>
-        <v>1.8497454397441648</v>
-      </c>
-      <c r="Q15" s="23">
-        <f t="shared" si="4"/>
-        <v>0.29788519637462235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
+        <f>N15*F15</f>
+        <v>9.155991944228134E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="53"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>75</v>
-      </c>
       <c r="D19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="E19" s="30" t="s">
-        <v>59</v>
-      </c>
       <c r="F19" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="30" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="32">
+      <c r="C20" s="31">
         <f>Uscite!D55</f>
         <v>2.0547945205479451E-2</v>
       </c>
@@ -10254,67 +9928,67 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E20" s="22">
-        <f t="shared" ref="E20:E31" si="5">D20*C20</f>
+        <f t="shared" ref="E20:E31" si="4">D20*C20</f>
         <v>3.4246575342465752E-3</v>
       </c>
       <c r="F20" s="22">
-        <f t="shared" ref="F20:F31" si="6">D20</f>
+        <f t="shared" ref="F20:F31" si="5">D20</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" ref="G20:G31" si="7">F20*C20</f>
+        <f t="shared" ref="G20:G31" si="6">F20*C20</f>
         <v>3.4246575342465752E-3</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="24"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="32">
+      <c r="C21" s="31">
         <f>Uscite!D56</f>
         <v>22.43013698630137</v>
       </c>
       <c r="D21" s="22">
-        <f t="shared" ref="D21:D31" si="8">4/24</f>
+        <f t="shared" ref="D21:D31" si="7">4/24</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="E21" s="22">
+        <f t="shared" si="4"/>
+        <v>3.7383561643835614</v>
+      </c>
+      <c r="F21" s="22">
         <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G21" s="22">
+        <f t="shared" si="6"/>
         <v>3.7383561643835614</v>
       </c>
-      <c r="F21" s="22">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G21" s="22">
-        <f t="shared" si="7"/>
-        <v>3.7383561643835614</v>
-      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="32">
+      <c r="C22" s="31">
         <f>Uscite!D57</f>
         <v>1.800456621004566</v>
       </c>
       <c r="D22" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E22" s="22">
+        <f t="shared" si="4"/>
+        <v>0.30007610350076097</v>
+      </c>
+      <c r="F22" s="22">
         <f t="shared" si="5"/>
-        <v>0.30007610350076097</v>
-      </c>
-      <c r="F22" s="22">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G22" s="22">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G22" s="22">
-        <f t="shared" si="7"/>
         <v>0.30007610350076097</v>
       </c>
     </row>
@@ -10330,24 +10004,24 @@
         <v>1.187214611872146E-2</v>
       </c>
       <c r="D23" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E23" s="22">
+        <f t="shared" si="4"/>
+        <v>1.9786910197869098E-3</v>
+      </c>
+      <c r="F23" s="22">
         <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G23" s="22">
+        <f t="shared" si="6"/>
         <v>1.9786910197869098E-3</v>
       </c>
-      <c r="F23" s="22">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G23" s="22">
-        <f t="shared" si="7"/>
-        <v>1.9786910197869098E-3</v>
-      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="24"/>
+      <c r="A24" s="23"/>
       <c r="B24" s="17" t="s">
         <v>21</v>
       </c>
@@ -10356,24 +10030,24 @@
         <v>17.739726027397261</v>
       </c>
       <c r="D24" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E24" s="22">
+        <f t="shared" si="4"/>
+        <v>2.9566210045662098</v>
+      </c>
+      <c r="F24" s="22">
         <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G24" s="22">
+        <f t="shared" si="6"/>
         <v>2.9566210045662098</v>
       </c>
-      <c r="F24" s="22">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G24" s="22">
-        <f t="shared" si="7"/>
-        <v>2.9566210045662098</v>
-      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="17" t="s">
         <v>23</v>
       </c>
@@ -10382,19 +10056,19 @@
         <v>1.7132420091324201</v>
       </c>
       <c r="D25" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E25" s="22">
+        <f t="shared" si="4"/>
+        <v>0.28554033485540331</v>
+      </c>
+      <c r="F25" s="22">
         <f t="shared" si="5"/>
-        <v>0.28554033485540331</v>
-      </c>
-      <c r="F25" s="22">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G25" s="22">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G25" s="22">
-        <f t="shared" si="7"/>
         <v>0.28554033485540331</v>
       </c>
     </row>
@@ -10410,24 +10084,24 @@
         <v>1.0502283105022832E-2</v>
       </c>
       <c r="D26" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E26" s="22">
+        <f t="shared" si="4"/>
+        <v>1.7503805175038052E-3</v>
+      </c>
+      <c r="F26" s="22">
         <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G26" s="22">
+        <f t="shared" si="6"/>
         <v>1.7503805175038052E-3</v>
       </c>
-      <c r="F26" s="22">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G26" s="22">
-        <f t="shared" si="7"/>
-        <v>1.7503805175038052E-3</v>
-      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="17" t="s">
         <v>21</v>
       </c>
@@ -10436,24 +10110,24 @@
         <v>6.7986301369863016</v>
       </c>
       <c r="D27" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E27" s="22">
+        <f t="shared" si="4"/>
+        <v>1.1331050228310502</v>
+      </c>
+      <c r="F27" s="22">
         <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G27" s="22">
+        <f t="shared" si="6"/>
         <v>1.1331050228310502</v>
       </c>
-      <c r="F27" s="22">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G27" s="22">
-        <f t="shared" si="7"/>
-        <v>1.1331050228310502</v>
-      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="17" t="s">
         <v>23</v>
       </c>
@@ -10462,19 +10136,19 @@
         <v>0.54292237442922375</v>
       </c>
       <c r="D28" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E28" s="22">
+        <f t="shared" si="4"/>
+        <v>9.0487062404870616E-2</v>
+      </c>
+      <c r="F28" s="22">
         <f t="shared" si="5"/>
-        <v>9.0487062404870616E-2</v>
-      </c>
-      <c r="F28" s="22">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G28" s="22">
         <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G28" s="22">
-        <f t="shared" si="7"/>
         <v>9.0487062404870616E-2</v>
       </c>
     </row>
@@ -10490,24 +10164,24 @@
         <v>2.2831050228310505E-3</v>
       </c>
       <c r="D29" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E29" s="22">
+        <f t="shared" si="4"/>
+        <v>3.8051750380517507E-4</v>
+      </c>
+      <c r="F29" s="22">
         <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="6"/>
         <v>3.8051750380517507E-4</v>
       </c>
-      <c r="F29" s="22">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G29" s="22">
-        <f t="shared" si="7"/>
-        <v>3.8051750380517507E-4</v>
-      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="17" t="s">
         <v>21</v>
       </c>
@@ -10516,24 +10190,24 @@
         <v>2.4456621004566208</v>
       </c>
       <c r="D30" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E30" s="22">
+        <f t="shared" si="4"/>
+        <v>0.40761035007610347</v>
+      </c>
+      <c r="F30" s="22">
         <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G30" s="22">
+        <f t="shared" si="6"/>
         <v>0.40761035007610347</v>
       </c>
-      <c r="F30" s="22">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G30" s="22">
-        <f t="shared" si="7"/>
-        <v>0.40761035007610347</v>
-      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="17" t="s">
         <v>23</v>
       </c>
@@ -10542,32 +10216,32 @@
         <v>0.17899543378995433</v>
       </c>
       <c r="D31" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="E31" s="22">
+        <f t="shared" si="4"/>
+        <v>2.983257229832572E-2</v>
+      </c>
+      <c r="F31" s="22">
         <f t="shared" si="5"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G31" s="22">
+        <f t="shared" si="6"/>
         <v>2.983257229832572E-2</v>
       </c>
-      <c r="F31" s="22">
-        <f t="shared" si="6"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G31" s="22">
-        <f t="shared" si="7"/>
-        <v>2.983257229832572E-2</v>
-      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D32" s="25"/>
+      <c r="D32" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A18:G18"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="A18:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -10576,6 +10250,905 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A70289-E0EB-4E13-B21C-62A20F7D26A8}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="21.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="31">
+        <v>12.232876712328768</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0.32265770810003735</v>
+      </c>
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="E3" s="34">
+        <f>B3*(1-(C3/B3)-(D3/B3))</f>
+        <v>10.910219004228731</v>
+      </c>
+      <c r="F3" s="21">
+        <f>(5*365)/2</f>
+        <v>912.5</v>
+      </c>
+      <c r="G3" s="21">
+        <f>(5*365)/2</f>
+        <v>912.5</v>
+      </c>
+      <c r="H3" s="21">
+        <f>G3*E3</f>
+        <v>9955.5748413587171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="18">
+        <v>8.6420091324200925</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.26888935855436963</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.88211983514741621</v>
+      </c>
+      <c r="E4" s="34">
+        <f t="shared" ref="E4:E6" si="0">B4*(1-(C4/B4)-(D4/B4))</f>
+        <v>7.4909999387183062</v>
+      </c>
+      <c r="F4" s="21">
+        <f t="shared" ref="F4:G6" si="1">(5*365)/2</f>
+        <v>912.5</v>
+      </c>
+      <c r="G4" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="H4" s="21">
+        <f>G4*E4</f>
+        <v>6835.5374440804544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3.7246575342465755</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.32548731151158516</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="34">
+        <f t="shared" si="0"/>
+        <v>2.3991702227349903</v>
+      </c>
+      <c r="F5" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="G5" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="H5" s="21">
+        <f>G5*E5</f>
+        <v>2189.2428282456785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="18">
+        <v>1.0191780821917809</v>
+      </c>
+      <c r="C6" s="18">
+        <v>0.22087813620071686</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.74148745519713255</v>
+      </c>
+      <c r="E6" s="34">
+        <f t="shared" si="0"/>
+        <v>5.6812490793931421E-2</v>
+      </c>
+      <c r="F6" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="G6" s="21">
+        <f t="shared" si="1"/>
+        <v>912.5</v>
+      </c>
+      <c r="H6" s="21">
+        <f>G6*E6</f>
+        <v>51.841397849462425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="69" t="s">
+        <v>78</v>
+      </c>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
+      <c r="F8" s="64"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="31">
+        <v>5.2054794520547946E-2</v>
+      </c>
+      <c r="D10" s="31">
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="E10" s="31">
+        <v>6.392694063926941E-3</v>
+      </c>
+      <c r="F10" s="78">
+        <v>4.2922374429223746E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="18">
+        <v>37.6803652968037</v>
+      </c>
+      <c r="D11" s="18">
+        <v>2.5036529680365298</v>
+      </c>
+      <c r="E11" s="18">
+        <v>4.1684931506849319</v>
+      </c>
+      <c r="F11" s="76">
+        <v>31.008219178082197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="18">
+        <v>2.9223744292237442E-2</v>
+      </c>
+      <c r="D12" s="18">
+        <v>9.1324200913242006E-4</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1.3698630136986301E-3</v>
+      </c>
+      <c r="F12" s="76">
+        <v>2.6940639269406392E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
+      <c r="B13" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="18">
+        <v>24.666210045662098</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1.2205479452054795</v>
+      </c>
+      <c r="E13" s="18">
+        <v>2.3378995433789957</v>
+      </c>
+      <c r="F13" s="76">
+        <v>21.107762557077624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18">
+        <v>1.643835616438356E-2</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0</v>
+      </c>
+      <c r="F14" s="76">
+        <v>1.643835616438356E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="18">
+        <v>11.501369863013698</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.77579908675799092</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1.2438356164383562</v>
+      </c>
+      <c r="F15" s="76">
+        <v>9.4817351598173527</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="18">
+        <v>4.5662100456621011E-3</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1.3698630136986301E-3</v>
+      </c>
+      <c r="F16" s="76">
+        <v>3.1963470319634705E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
+      <c r="B17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="18">
+        <v>2.8799086757990868</v>
+      </c>
+      <c r="D17" s="18">
+        <v>0.10547945205479452</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.21095890410958903</v>
+      </c>
+      <c r="F17" s="76">
+        <v>2.5634703196347033</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="24"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="33"/>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="69" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="63"/>
+      <c r="C19" s="64"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="71"/>
+      <c r="K19" s="71"/>
+      <c r="L19" s="71"/>
+      <c r="M19" s="72"/>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H20" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="68"/>
+      <c r="J20" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="31">
+        <v>22.411872146118721</v>
+      </c>
+      <c r="E21" s="50"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
+      <c r="L21" s="48"/>
+      <c r="M21" s="49"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="18">
+        <v>12.106849315068493</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="22">
+        <f>1/(C$21)</f>
+        <v>4.4619208671203295E-2</v>
+      </c>
+      <c r="H22" s="22" t="e">
+        <f>#REF!*G22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I22" s="22" t="e">
+        <f>SUM(H22:H23)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J22" s="22" t="e">
+        <f>IF(F22="Critical",(I22*G22)/(1-H22),IF(F22="Normal",(I22*G22)/((1-H21)*(1-I22))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K22" s="22" t="e">
+        <f>J22+G22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L22" s="22" t="e">
+        <f>J22*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M22" s="22" t="e">
+        <f>K22*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="18">
+        <v>10.305022831050229</v>
+      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="21">
+        <f>G22</f>
+        <v>4.4619208671203295E-2</v>
+      </c>
+      <c r="H23" s="22" t="e">
+        <f>#REF!*G23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I23" s="22" t="e">
+        <f>I22</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J23" s="22" t="e">
+        <f>IF(F23="Critical",(I23*G23)/(1-H23),IF(F23="Normal",(I23*G23)/((1-H22)*(1-I23))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K23" s="22" t="e">
+        <f t="shared" ref="K23:K29" si="2">J23+G23</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L23" s="22" t="e">
+        <f>J23*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M23" s="22" t="e">
+        <f>K23*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="18">
+        <v>13.938356164383562</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24" s="21">
+        <f>1/(C24)</f>
+        <v>7.1744471744471738E-2</v>
+      </c>
+      <c r="H24" s="22" t="e">
+        <f>#REF!*G24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I24" s="22" t="e">
+        <f>SUM(H24:H25)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J24" s="22" t="e">
+        <f t="shared" ref="J24:J29" si="3">IF(F24="Critical",(I24*G24)/(1-H24),IF(F24="Normal",(I24*G24)/((1-H23)*(1-I24))))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K24" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L24" s="22" t="e">
+        <f>J24*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M24" s="22" t="e">
+        <f>K24*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="18">
+        <v>9.3986301369863021</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="21">
+        <f>G24</f>
+        <v>7.1744471744471738E-2</v>
+      </c>
+      <c r="H25" s="22" t="e">
+        <f>#REF!*G25</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I25" s="22" t="e">
+        <f>I24</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J25" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K25" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L25" s="22" t="e">
+        <f>J25*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M25" s="22" t="e">
+        <f>K25*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="18">
+        <v>4.5397260273972604</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G26" s="21">
+        <f>1/(C27)</f>
+        <v>0.2312565997888068</v>
+      </c>
+      <c r="H26" s="22" t="e">
+        <f>#REF!*G26</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I26" s="21" t="e">
+        <f>SUM(H26:H27)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J26" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K26" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L26" s="22" t="e">
+        <f>J26*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M26" s="22" t="e">
+        <f>K26*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27" s="18">
+        <v>4.3242009132420085</v>
+      </c>
+      <c r="E27" s="23"/>
+      <c r="F27" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" s="21">
+        <f>G26</f>
+        <v>0.2312565997888068</v>
+      </c>
+      <c r="H27" s="22" t="e">
+        <f>#REF!*G27</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I27" s="21" t="e">
+        <f>I26</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J27" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K27" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L27" s="22" t="e">
+        <f>J27*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M27" s="22" t="e">
+        <f>K27*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="18">
+        <v>2.9876712328767123</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="21">
+        <f>1/(C30)</f>
+        <v>0.91708542713567842</v>
+      </c>
+      <c r="H28" s="22" t="e">
+        <f>#REF!*G28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I28" s="21" t="e">
+        <f>SUM(H28:H29)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J28" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K28" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L28" s="22" t="e">
+        <f>J28*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M28" s="22" t="e">
+        <f>K28*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="18">
+        <v>1.3365296803652968</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G29" s="21">
+        <f>G28</f>
+        <v>0.91708542713567842</v>
+      </c>
+      <c r="H29" s="22" t="e">
+        <f>#REF!*G29</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I29" s="21" t="e">
+        <f>I28</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J29" s="22" t="e">
+        <f t="shared" si="3"/>
+        <v>#REF!</v>
+      </c>
+      <c r="K29" s="22" t="e">
+        <f t="shared" si="2"/>
+        <v>#REF!</v>
+      </c>
+      <c r="L29" s="22" t="e">
+        <f>J29*#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M29" s="22" t="e">
+        <f>K29*#REF!</f>
+        <v>#REF!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="18">
+        <v>1.0904109589041096</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="18">
+        <v>0.87168949771689508</v>
+      </c>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0.21872146118721461</v>
+      </c>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E35" s="33"/>
+      <c r="F35" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="E19:M19"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A6:C6"/>
   <sheetViews>
@@ -10590,11 +11163,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
+      <c r="A6" s="73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\OneDrive - Universita' degli Studi di Roma Tor Vergata\Corsi\Attivi\PMCSN\Progetto\PMCSN_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="550" documentId="11_B2CD3B23B734BEB69962A3A2F81BCE609405F408" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{51E93B70-9450-4D7F-95D8-AC56B5F27DB5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C34A1D-1E9B-4ECF-A1DC-BE5750F30F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,64 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>oem</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{B8032D36-4440-4688-8F17-3D38B0F9956C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I TASSI DI ARRIVO CRESCONO IN MEDIA DEL 2% OGNI ANNO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H29" authorId="0" shapeId="0" xr:uid="{D4237AF7-02E6-403C-A37F-C9691CD1B6C3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oem:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+I TASSI DI ARRIVO CRESCONO IN MEDIA DEL 2% OGNI ANNO</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -101,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="696" uniqueCount="87">
   <si>
     <t>PAZIENTI - ARRIVI</t>
   </si>
@@ -354,6 +412,15 @@
   <si>
     <t>Probabilità di renege</t>
   </si>
+  <si>
+    <t>PAZIENTI - ARRIVI - Tassi giornalieri per anno</t>
+  </si>
+  <si>
+    <t>Percentuali di incremento</t>
+  </si>
+  <si>
+    <t>ORGANI - ARRIVI - Tassi giornalieri per anno</t>
+  </si>
 </sst>
 </file>
 
@@ -364,7 +431,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -413,6 +480,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="23">
@@ -748,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -883,6 +963,14 @@
     <xf numFmtId="0" fontId="1" fillId="21" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -922,6 +1010,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -934,9 +1031,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="5" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -945,25 +1039,121 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="14">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
@@ -1164,6 +1354,102 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{DF9D3E7A-E6E9-47CA-88F6-F39DCCC65249}" name="Tabella315" displayName="Tabella315" ref="H2:T22" totalsRowShown="0">
+  <autoFilter ref="H2:T22" xr:uid="{DF9D3E7A-E6E9-47CA-88F6-F39DCCC65249}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Critical"/>
+        <filter val="Low"/>
+        <filter val="Normal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{77F58619-F4CF-436B-BA3C-ECA35D465358}" name="ABO" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{701C0560-7DD0-458E-8945-D5F6ED434270}" name="Priorità" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{2FA295DF-4EC6-4559-BE53-862CE47BAD5C}" name="2019">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2019]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E35C6331-1EF9-4E1C-BEDB-BB99DEFA8FF7}" name="2018">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2018]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{A642258A-9A57-4CC0-8641-662100B438F5}" name="2017">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2017]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{329FFCA1-8A4B-4218-9658-BE003084B4C0}" name="2016">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2016]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{FA0B766F-E529-4387-83CD-724A53105377}" name="2015">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2015]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C7B1CAA6-52F1-4156-8814-E8BFD0C178C3}" name="2014">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2014]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{5B57C8EC-349F-4248-8E67-1E10C745E6EB}" name="2013">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2013]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C579E545-0803-401D-87FF-28EE7B6BA88C}" name="2012">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2012]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{CE7C35F1-DE79-43D4-8A18-029651738319}" name="2011">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2011]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{C19AD498-B525-4A4E-88AD-B2C7BFDF5B15}" name="2010">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2010]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{E23EBA5D-C2C5-473A-9657-46B0635DE136}" name="2009">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2009]]/365</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{86813835-D5D8-48BC-97BA-F975F2E81646}" name="Tabella31517" displayName="Tabella31517" ref="H30:T50" totalsRowShown="0">
+  <autoFilter ref="H30:T50" xr:uid="{86813835-D5D8-48BC-97BA-F975F2E81646}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{E9DE6F72-E5CE-4BA8-9B63-029ACD4F85E0}" name="ABO" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{B8046175-A7DA-4509-B491-5AC9F2A7F98E}" name="Priorità" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{B25FA22F-3C8A-476C-974F-39C19267EEEE}" name="2019">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2019]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{83E3027E-494A-4EF7-9746-F09EDC1559F0}" name="2018">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2018]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{95B6EEC6-741B-4B9A-8505-D3D5070149D6}" name="2017">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2017]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{3CBDF04C-5FDD-4A98-BD88-50957A965F3F}" name="2016">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2016]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{83EC6807-8FBA-4886-9ABD-23D97C868A72}" name="2015">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2015]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{BC8287A0-BD2C-4E8F-A466-D97F9A2BC3B0}" name="2014">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2014]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{804FD751-528A-48B4-B445-9D76A6AE66DA}" name="2013">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2013]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{C4964958-7C86-4509-855F-7C021878D879}" name="2012">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2012]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{C055CAB6-8F57-4925-B1C4-B27744519F6B}" name="2011">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2011]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{B2719800-3526-446C-9BFF-22D4FB38E908}" name="2010">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2010]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{D5455C0F-C869-4CE8-AF83-19FE6AD50A83}" name="2009">
+      <calculatedColumnFormula>Tabella2[[#This Row],[2009]]/365</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF09000000}" name="Tabella5" displayName="Tabella5" ref="A2:E22" totalsRowShown="0">
   <autoFilter ref="A2:E22" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="5">
@@ -1171,7 +1457,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="d/anno (2014-2019)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="d/giorno (2014-2019)"/>
-    <tableColumn id="8" xr3:uid="{A87F9785-8BDD-4C18-9179-285F88A533E8}" name="Probabilità" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{A87F9785-8BDD-4C18-9179-285F88A533E8}" name="Probabilità" dataDxfId="11">
       <calculatedColumnFormula>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1179,9 +1465,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabella511" displayName="Tabella511" ref="A25:E45" totalsRowShown="0">
-  <autoFilter ref="A25:E45" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF0A000000}" name="Tabella511" displayName="Tabella511" ref="A30:E50" totalsRowShown="0">
+  <autoFilter ref="A30:E50" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0A00-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0A00-000002000000}" name="Priorità"/>
@@ -1199,16 +1485,116 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabella512" displayName="Tabella512" ref="A49:E69" totalsRowShown="0">
-  <autoFilter ref="A49:E69" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF0B000000}" name="Tabella512" displayName="Tabella512" ref="A54:E74" totalsRowShown="0">
+  <autoFilter ref="A54:E74" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0B00-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0B00-000002000000}" name="Priorità"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="t/anno (2014-2019)"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="t/giorno (2014-2019)"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Probabilità" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0B00-000003000000}" name="t/anno (2014-2019)">
+      <calculatedColumnFormula>AVERAGE(Dati_OPTN!C49:H49)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="t/giorno (2014-2019)">
+      <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Probabilità" dataDxfId="10">
       <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C3</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{61DFADF2-0F83-4FAA-AD20-0235E9F13A4A}" name="Tabella519" displayName="Tabella519" ref="G2:S22" totalsRowShown="0">
+  <autoFilter ref="G2:S22" xr:uid="{61DFADF2-0F83-4FAA-AD20-0235E9F13A4A}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{A3EB5F0B-D165-4B79-9E27-62222F7BAFE5}" name="ABO"/>
+    <tableColumn id="2" xr3:uid="{270D45FC-F2E2-4629-A7DB-D8ACC28FF923}" name="Priorità"/>
+    <tableColumn id="3" xr3:uid="{250FD133-FF98-4432-BAEF-7EFBD04CC6B1}" name="2019">
+      <calculatedColumnFormula>Dati_OPTN!C26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DB425871-C35C-498E-B95A-E84CE540D883}" name="2018">
+      <calculatedColumnFormula>Dati_OPTN!D26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{C2C29135-3CAD-4007-A7A9-56F4BE4548E8}" name="2017" dataDxfId="5">
+      <calculatedColumnFormula>Dati_OPTN!E26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{5E82250A-E93F-4CDF-B667-D7707A54390B}" name="2016" dataDxfId="4">
+      <calculatedColumnFormula>Dati_OPTN!F26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{1711EE05-E788-4D75-80FD-D04A8E41D89A}" name="2015" dataDxfId="3">
+      <calculatedColumnFormula>Dati_OPTN!G26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{4A0AC50E-843E-48D2-86EA-DEDCB2162D6D}" name="2014">
+      <calculatedColumnFormula>Dati_OPTN!H26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{EFF45230-E1A8-48B4-ABA8-DDB467B6ACEA}" name="2013">
+      <calculatedColumnFormula>Dati_OPTN!I26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{5BDA84F3-AD48-4F0D-90B6-626C3B96BCE1}" name="2012">
+      <calculatedColumnFormula>Dati_OPTN!J26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{DFB45795-480E-4EDA-B32A-C7201141B99A}" name="2011">
+      <calculatedColumnFormula>Dati_OPTN!K26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{DB6EF5DC-ED1D-4514-8C71-34530674F59C}" name="2010">
+      <calculatedColumnFormula>Dati_OPTN!L26/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{7FA48C39-F49F-42B8-887B-7CA391F585ED}" name="2009">
+      <calculatedColumnFormula>Dati_OPTN!M26/365</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{01F2B4FF-6E00-465C-B933-4B9D49B6D9EF}" name="Tabella51921" displayName="Tabella51921" ref="G30:S50" totalsRowShown="0">
+  <autoFilter ref="G30:S50" xr:uid="{01F2B4FF-6E00-465C-B933-4B9D49B6D9EF}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Critical"/>
+        <filter val="Low"/>
+        <filter val="Normal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{E28BAEDA-37EC-4D39-8F49-0C906CC75348}" name="ABO"/>
+    <tableColumn id="2" xr3:uid="{4940E508-D48A-4576-A637-9944A0F899FC}" name="Priorità"/>
+    <tableColumn id="3" xr3:uid="{EF155154-02CF-44BD-9821-68F7BA45BB88}" name="2019">
+      <calculatedColumnFormula>Dati_OPTN!Q49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{9EB9A0EF-6B88-477A-A2C0-E710E6B758EE}" name="2018">
+      <calculatedColumnFormula>Dati_OPTN!R49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{7C41D32C-DD3D-4D56-9AAA-32583A9E5055}" name="2017" dataDxfId="2">
+      <calculatedColumnFormula>Dati_OPTN!S49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7053BFC1-803E-49CE-9D4A-ECB1C8C9DDE5}" name="2016" dataDxfId="1">
+      <calculatedColumnFormula>Dati_OPTN!T49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{42A313DA-8CEC-445F-9ED1-AC39C916DC9C}" name="2015" dataDxfId="0">
+      <calculatedColumnFormula>Dati_OPTN!U49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{D88EA76F-10A1-4890-946D-50FC59790222}" name="2014">
+      <calculatedColumnFormula>Dati_OPTN!V49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{D3009F9B-233F-4AEF-9DA1-F2AA1A2560A3}" name="2013">
+      <calculatedColumnFormula>Dati_OPTN!W49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{A35736B0-6445-401E-9B63-AB017612C4A2}" name="2012">
+      <calculatedColumnFormula>Dati_OPTN!X49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{53248200-F272-450F-931A-0A191BABDB7F}" name="2011">
+      <calculatedColumnFormula>Dati_OPTN!Y49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{6268194F-54B5-43C9-A5A4-9A716E064CA7}" name="2010">
+      <calculatedColumnFormula>Dati_OPTN!Z49/365</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{94B4E8D8-B86A-4677-A1DB-B677FD5B937C}" name="2009">
+      <calculatedColumnFormula>Dati_OPTN!AA49/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1217,6 +1603,7 @@
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabella2" displayName="Tabella2" ref="A2:M22" totalsRowShown="0">
+  <autoFilter ref="A2:M22" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Priorità"/>
@@ -1252,6 +1639,7 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tabella7" displayName="Tabella7" ref="A48:M68" totalsRowShown="0">
+  <autoFilter ref="A48:M68" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Priorità"/>
@@ -1317,7 +1705,13 @@
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tabella913" displayName="Tabella913" ref="O48:AA68" totalsRowShown="0">
-  <autoFilter ref="O48:AA68" xr:uid="{00000000-0009-0000-0100-00000C000000}"/>
+  <autoFilter ref="O48:AA68" xr:uid="{00000000-0009-0000-0100-00000C000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Low"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Priorità"/>
@@ -1341,8 +1735,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabella3" displayName="Tabella3" ref="A2:F22" totalsRowShown="0">
   <autoFilter ref="A2:F22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="p/anno (2014-2019)">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!C3:H3)</calculatedColumnFormula>
     </tableColumn>
@@ -1361,8 +1755,8 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabella4" displayName="Tabella4" ref="A25:F40" totalsRowShown="0">
-  <autoFilter ref="A25:F40" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="Tabella4" displayName="Tabella4" ref="A30:F45" totalsRowShown="0">
+  <autoFilter ref="A30:F45" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Tipo"/>
@@ -1370,13 +1764,13 @@
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!Q3:V3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="o/giorno (2014-2019)">
-      <calculatedColumnFormula>C26/365</calculatedColumnFormula>
+      <calculatedColumnFormula>C31/365</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="o/anno (2009-2013)">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!W3:AA3)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0800-000006000000}" name="o/giorno (2009-2013)">
-      <calculatedColumnFormula>E26/365</calculatedColumnFormula>
+      <calculatedColumnFormula>E31/365</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1682,8 +2076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q52" sqref="Q52:Z52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1698,36 +2092,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="O1" s="53" t="s">
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="O1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
-      <c r="T1" s="53"/>
-      <c r="U1" s="53"/>
-      <c r="V1" s="53"/>
-      <c r="W1" s="53"/>
-      <c r="X1" s="53"/>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+      <c r="X1" s="57"/>
+      <c r="Y1" s="57"/>
+      <c r="Z1" s="57"/>
+      <c r="AA1" s="57"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3147,36 +3541,36 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="53" t="s">
+      <c r="A24" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="O24" s="53" t="s">
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="O24" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="53"/>
-      <c r="Q24" s="53"/>
-      <c r="R24" s="53"/>
-      <c r="S24" s="53"/>
-      <c r="T24" s="53"/>
-      <c r="U24" s="53"/>
-      <c r="V24" s="53"/>
-      <c r="W24" s="53"/>
-      <c r="X24" s="53"/>
-      <c r="Y24" s="53"/>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -4769,36 +5163,36 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="54" t="s">
+      <c r="A47" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="O47" s="53" t="s">
+      <c r="B47" s="58"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
+      <c r="H47" s="58"/>
+      <c r="I47" s="58"/>
+      <c r="J47" s="58"/>
+      <c r="K47" s="58"/>
+      <c r="L47" s="58"/>
+      <c r="M47" s="58"/>
+      <c r="O47" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-      <c r="Y47" s="53"/>
-      <c r="Z47" s="53"/>
-      <c r="AA47" s="53"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="57"/>
+      <c r="X47" s="57"/>
+      <c r="Y47" s="57"/>
+      <c r="Z47" s="57"/>
+      <c r="AA47" s="57"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -4880,7 +5274,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -4971,7 +5365,7 @@
         <v>5587</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>19</v>
       </c>
@@ -5056,7 +5450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>21</v>
       </c>
@@ -5226,7 +5620,7 @@
         <v>4968</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>24</v>
       </c>
@@ -5317,7 +5711,7 @@
         <v>3006</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>19</v>
       </c>
@@ -5402,7 +5796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>21</v>
       </c>
@@ -5572,7 +5966,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>25</v>
       </c>
@@ -5663,7 +6057,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>19</v>
       </c>
@@ -5748,7 +6142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>21</v>
       </c>
@@ -5918,7 +6312,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>26</v>
       </c>
@@ -6009,7 +6403,7 @@
         <v>903</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>19</v>
       </c>
@@ -6094,7 +6488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>21</v>
       </c>
@@ -6264,7 +6658,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>27</v>
       </c>
@@ -6355,7 +6749,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>19</v>
       </c>
@@ -6440,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>21</v>
       </c>
@@ -6611,13 +7005,13 @@
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="52"/>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -6901,11 +7295,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6916,19 +7310,39 @@
     <col min="4" max="4" width="21.42578125" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="11" width="12.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="57"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
+      <c r="H1" s="81" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+      <c r="T1" s="82"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -6947,8 +7361,47 @@
       <c r="F2" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" s="80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -6971,8 +7424,58 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>94.701369863013696</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>112.60273972602739</v>
+      </c>
+      <c r="K3" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>106.30410958904109</v>
+      </c>
+      <c r="L3" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>97.512328767123293</v>
+      </c>
+      <c r="M3" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>97.032876712328772</v>
+      </c>
+      <c r="N3" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>95.980821917808214</v>
+      </c>
+      <c r="O3" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>99.052054794520544</v>
+      </c>
+      <c r="P3" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>99.706849315068496</v>
+      </c>
+      <c r="Q3" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>95.427397260273978</v>
+      </c>
+      <c r="R3" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>91.945205479452056</v>
+      </c>
+      <c r="S3" s="3">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>94.246575342465746</v>
+      </c>
+      <c r="T3" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>92.180821917808217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -6993,8 +7496,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>8.4931506849315067E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>0.11232876712328767</v>
+      </c>
+      <c r="K4" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>0.10136986301369863</v>
+      </c>
+      <c r="L4" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>5.2054794520547946E-2</v>
+      </c>
+      <c r="M4" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>0.12328767123287671</v>
+      </c>
+      <c r="N4" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>0.12602739726027398</v>
+      </c>
+      <c r="O4" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>9.8630136986301367E-2</v>
+      </c>
+      <c r="P4" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="Q4" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>7.6712328767123292E-2</v>
+      </c>
+      <c r="R4" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>7.9452054794520555E-2</v>
+      </c>
+      <c r="S4" s="3">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>9.3150684931506855E-2</v>
+      </c>
+      <c r="T4" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>9.5890410958904104E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -7015,8 +7566,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>66.527671232876713</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>85.328767123287676</v>
+      </c>
+      <c r="K5" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>81.465753424657535</v>
+      </c>
+      <c r="L5" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>76.473972602739721</v>
+      </c>
+      <c r="M5" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>75.736986301369868</v>
+      </c>
+      <c r="N5" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>72.31506849315069</v>
+      </c>
+      <c r="O5" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>69.032876712328772</v>
+      </c>
+      <c r="P5" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>68.821917808219183</v>
+      </c>
+      <c r="Q5" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>66.095890410958901</v>
+      </c>
+      <c r="R5" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>64.389041095890406</v>
+      </c>
+      <c r="S5" s="3">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>66.758904109589039</v>
+      </c>
+      <c r="T5" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>66.572602739726022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -7037,8 +7636,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>29.22082191780822</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>28.342465753424658</v>
+      </c>
+      <c r="K6" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>25.728767123287671</v>
+      </c>
+      <c r="L6" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>21.827397260273973</v>
+      </c>
+      <c r="M6" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>22.12054794520548</v>
+      </c>
+      <c r="N6" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>24.487671232876714</v>
+      </c>
+      <c r="O6" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>31.205479452054796</v>
+      </c>
+      <c r="P6" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>32.123287671232873</v>
+      </c>
+      <c r="Q6" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>30.43013698630137</v>
+      </c>
+      <c r="R6" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>28.506849315068493</v>
+      </c>
+      <c r="S6" s="3">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>28.397260273972602</v>
+      </c>
+      <c r="T6" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>26.646575342465752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7061,8 +7708,58 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>45.944109589041091</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>55.178082191780824</v>
+      </c>
+      <c r="K7" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>51.950684931506849</v>
+      </c>
+      <c r="L7" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>47.136986301369866</v>
+      </c>
+      <c r="M7" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>47.819178082191783</v>
+      </c>
+      <c r="N7" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>46.520547945205479</v>
+      </c>
+      <c r="O7" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>48.167123287671231</v>
+      </c>
+      <c r="P7" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>48.336986301369862</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>46.506849315068493</v>
+      </c>
+      <c r="R7" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>44.484931506849314</v>
+      </c>
+      <c r="S7" s="3">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>45.665753424657531</v>
+      </c>
+      <c r="T7" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>44.726027397260275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -7083,8 +7780,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>4.3835616438356165E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>5.2054794520547946E-2</v>
+      </c>
+      <c r="K8" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>4.6575342465753428E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="M8" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>6.3013698630136991E-2</v>
+      </c>
+      <c r="N8" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>8.4931506849315067E-2</v>
+      </c>
+      <c r="O8" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>3.8356164383561646E-2</v>
+      </c>
+      <c r="P8" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>3.5616438356164383E-2</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="R8" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>4.3835616438356165E-2</v>
+      </c>
+      <c r="S8" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>4.3835616438356165E-2</v>
+      </c>
+      <c r="T8" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>4.1095890410958902E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -7105,8 +7850,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>32.323287671232876</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>42.142465753424659</v>
+      </c>
+      <c r="K9" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>40.169863013698631</v>
+      </c>
+      <c r="L9" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>37.419178082191777</v>
+      </c>
+      <c r="M9" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>37.402739726027399</v>
+      </c>
+      <c r="N9" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>35.095890410958901</v>
+      </c>
+      <c r="O9" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>33.852054794520548</v>
+      </c>
+      <c r="P9" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>33.326027397260276</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>32.367123287671234</v>
+      </c>
+      <c r="R9" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>31.38082191780822</v>
+      </c>
+      <c r="S9" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>32.347945205479455</v>
+      </c>
+      <c r="T9" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>32.194520547945203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -7127,8 +7920,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>14.109041095890412</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>13.526027397260274</v>
+      </c>
+      <c r="K10" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>12.230136986301369</v>
+      </c>
+      <c r="L10" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>10.084931506849315</v>
+      </c>
+      <c r="M10" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>10.857534246575343</v>
+      </c>
+      <c r="N10" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>11.810958904109588</v>
+      </c>
+      <c r="O10" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>14.887671232876713</v>
+      </c>
+      <c r="P10" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>15.561643835616438</v>
+      </c>
+      <c r="Q10" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>14.613698630136986</v>
+      </c>
+      <c r="R10" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>13.547945205479452</v>
+      </c>
+      <c r="S10" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>13.783561643835617</v>
+      </c>
+      <c r="T10" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>13.038356164383561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -7151,8 +7992,58 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>31.255342465753426</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>36.460273972602742</v>
+      </c>
+      <c r="K11" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>34.200000000000003</v>
+      </c>
+      <c r="L11" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>32.079452054794523</v>
+      </c>
+      <c r="M11" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>31.495890410958904</v>
+      </c>
+      <c r="N11" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>31.449315068493149</v>
+      </c>
+      <c r="O11" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>32.350684931506848</v>
+      </c>
+      <c r="P11" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>32.62191780821918</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>31.312328767123287</v>
+      </c>
+      <c r="R11" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>30.778082191780822</v>
+      </c>
+      <c r="S11" s="3">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>31.197260273972603</v>
+      </c>
+      <c r="T11" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>30.367123287671234</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -7173,8 +8064,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>2.3561643835616437E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="K12" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="L12" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>2.1917808219178082E-2</v>
+      </c>
+      <c r="M12" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>3.287671232876712E-2</v>
+      </c>
+      <c r="N12" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>2.1917808219178082E-2</v>
+      </c>
+      <c r="O12" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>4.3835616438356165E-2</v>
+      </c>
+      <c r="P12" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="Q12" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+      <c r="R12" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+      <c r="S12" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>3.287671232876712E-2</v>
+      </c>
+      <c r="T12" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -7195,8 +8134,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>22.001643835616438</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>27.164383561643834</v>
+      </c>
+      <c r="K13" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>25.693150684931506</v>
+      </c>
+      <c r="L13" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>24.783561643835615</v>
+      </c>
+      <c r="M13" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>24.246575342465754</v>
+      </c>
+      <c r="N13" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>23.772602739726029</v>
+      </c>
+      <c r="O13" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>22.336986301369862</v>
+      </c>
+      <c r="P13" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>22.610958904109587</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>21.695890410958903</v>
+      </c>
+      <c r="R13" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>21.394520547945206</v>
+      </c>
+      <c r="S13" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>22.268493150684932</v>
+      </c>
+      <c r="T13" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>22.038356164383561</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -7217,8 +8204,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>9.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>9.668493150684931</v>
+      </c>
+      <c r="K14" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>8.8109589041095884</v>
+      </c>
+      <c r="L14" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>7.5616438356164384</v>
+      </c>
+      <c r="M14" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>7.5041095890410956</v>
+      </c>
+      <c r="N14" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>7.9452054794520546</v>
+      </c>
+      <c r="O14" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>10.361643835616439</v>
+      </c>
+      <c r="P14" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>10.449315068493151</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>10</v>
+      </c>
+      <c r="R14" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>9.7013698630136993</v>
+      </c>
+      <c r="S14" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>9.2027397260273975</v>
+      </c>
+      <c r="T14" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>8.6465753424657539</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -7241,8 +8276,58 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>13.869589041095889</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>16.649315068493152</v>
+      </c>
+      <c r="K15" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>16.068493150684933</v>
+      </c>
+      <c r="L15" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>14.534246575342467</v>
+      </c>
+      <c r="M15" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>14.216438356164383</v>
+      </c>
+      <c r="N15" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>14.24931506849315</v>
+      </c>
+      <c r="O15" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>14.778082191780822</v>
+      </c>
+      <c r="P15" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>15.038356164383561</v>
+      </c>
+      <c r="Q15" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>13.931506849315069</v>
+      </c>
+      <c r="R15" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>13.232876712328768</v>
+      </c>
+      <c r="S15" s="3">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>13.673972602739726</v>
+      </c>
+      <c r="T15" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>13.471232876712328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -7263,8 +8348,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>1.4794520547945207E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J16" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="K16" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>2.1917808219178082E-2</v>
+      </c>
+      <c r="N16" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="O16" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>1.643835616438356E-2</v>
+      </c>
+      <c r="P16" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="Q16" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="R16" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="S16" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="T16" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>3.5616438356164383E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>21</v>
@@ -7285,8 +8418,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>9.7041095890410958</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J17" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>12.846575342465753</v>
+      </c>
+      <c r="K17" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>12.53972602739726</v>
+      </c>
+      <c r="L17" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>11.438356164383562</v>
+      </c>
+      <c r="M17" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>11.304109589041095</v>
+      </c>
+      <c r="N17" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>10.698630136986301</v>
+      </c>
+      <c r="O17" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>10.180821917808219</v>
+      </c>
+      <c r="P17" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>10.383561643835616</v>
+      </c>
+      <c r="Q17" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>9.5287671232876718</v>
+      </c>
+      <c r="R17" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>9.2356164383561641</v>
+      </c>
+      <c r="S17" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>9.6356164383561644</v>
+      </c>
+      <c r="T17" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>9.7369863013698623</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>23</v>
@@ -7307,8 +8488,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>4.335342465753425</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J18" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>3.9698630136986299</v>
+      </c>
+      <c r="K18" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>3.6410958904109587</v>
+      </c>
+      <c r="L18" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>3.2219178082191782</v>
+      </c>
+      <c r="M18" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>3.010958904109589</v>
+      </c>
+      <c r="N18" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>3.6876712328767125</v>
+      </c>
+      <c r="O18" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>4.816438356164384</v>
+      </c>
+      <c r="P18" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>4.8575342465753426</v>
+      </c>
+      <c r="Q18" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>4.602739726027397</v>
+      </c>
+      <c r="R18" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>4.1561643835616442</v>
+      </c>
+      <c r="S18" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>4.1589041095890407</v>
+      </c>
+      <c r="T18" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>3.9013698630136986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -7331,8 +8560,58 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>3.6356164383561644</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>4.3178082191780822</v>
+      </c>
+      <c r="K19" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>4.0849315068493155</v>
+      </c>
+      <c r="L19" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>3.7643835616438355</v>
+      </c>
+      <c r="M19" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>3.504109589041096</v>
+      </c>
+      <c r="N19" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>3.7643835616438355</v>
+      </c>
+      <c r="O19" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>3.7561643835616438</v>
+      </c>
+      <c r="P19" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>3.7123287671232879</v>
+      </c>
+      <c r="Q19" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>3.6794520547945204</v>
+      </c>
+      <c r="R19" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>3.452054794520548</v>
+      </c>
+      <c r="S19" s="3">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>3.7095890410958905</v>
+      </c>
+      <c r="T19" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>3.6246575342465754</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -7353,8 +8632,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="K20" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="L20" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="M20" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="N20" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="O20" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="Q20" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="S20" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="T20" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
@@ -7375,8 +8702,56 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>2.5013698630136987</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J21" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>3.1780821917808217</v>
+      </c>
+      <c r="K21" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>3.0630136986301371</v>
+      </c>
+      <c r="L21" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>2.8356164383561642</v>
+      </c>
+      <c r="M21" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>2.7863013698630139</v>
+      </c>
+      <c r="N21" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>2.7506849315068491</v>
+      </c>
+      <c r="O21" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>2.6657534246575341</v>
+      </c>
+      <c r="P21" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>2.504109589041096</v>
+      </c>
+      <c r="Q21" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>2.506849315068493</v>
+      </c>
+      <c r="R21" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>2.3808219178082193</v>
+      </c>
+      <c r="S21" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>2.506849315068493</v>
+      </c>
+      <c r="T21" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>2.6082191780821917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -7397,391 +8772,1550 @@
         <f>Tabella3[[#This Row],[p/anno (2009-2013)]]/365</f>
         <v>1.1769863013698632</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="3">
+        <f>Tabella2[[#This Row],[2019]]/365</f>
+        <v>1.178082191780822</v>
+      </c>
+      <c r="K22" s="3">
+        <f>Tabella2[[#This Row],[2018]]/365</f>
+        <v>1.0465753424657533</v>
+      </c>
+      <c r="L22" s="3">
+        <f>Tabella2[[#This Row],[2017]]/365</f>
+        <v>0.95890410958904104</v>
+      </c>
+      <c r="M22" s="3">
+        <f>Tabella2[[#This Row],[2016]]/365</f>
+        <v>0.74794520547945209</v>
+      </c>
+      <c r="N22" s="3">
+        <f>Tabella2[[#This Row],[2015]]/365</f>
+        <v>1.0438356164383562</v>
+      </c>
+      <c r="O22" s="3">
+        <f>Tabella2[[#This Row],[2014]]/365</f>
+        <v>1.1397260273972603</v>
+      </c>
+      <c r="P22" s="3">
+        <f>Tabella2[[#This Row],[2013]]/365</f>
+        <v>1.2547945205479452</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>Tabella2[[#This Row],[2012]]/365</f>
+        <v>1.2136986301369863</v>
+      </c>
+      <c r="R22" s="3">
+        <f>Tabella2[[#This Row],[2011]]/365</f>
+        <v>1.1013698630136985</v>
+      </c>
+      <c r="S22" s="25">
+        <f>Tabella2[[#This Row],[2010]]/365</f>
+        <v>1.252054794520548</v>
+      </c>
+      <c r="T22" s="3">
+        <f>Tabella2[[#This Row],[2009]]/365</f>
+        <v>1.0630136986301371</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="58" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I24" s="84" t="s">
+        <v>85</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:R24" si="0">J3/K3</f>
+        <v>1.0592510502306642</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>1.090160710271971</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1.0049411299658355</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1.0109610938258216</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>0.96899374896277035</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>0.99343280301156811</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>1.0448451092417674</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>1.0378724672228845</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="0"/>
+        <v>0.97558139534883725</v>
+      </c>
+      <c r="T24" s="83">
+        <f>AVERAGE(J24:S24)</f>
+        <v>1.0206710564535686</v>
+      </c>
+      <c r="V24">
+        <f>AVERAGE(T24:T27)</f>
+        <v>1.0367072515209286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I25" s="84"/>
+      <c r="J25">
+        <f t="shared" ref="J25:R25" si="1">J4/K4</f>
+        <v>1.1081081081081081</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>1.9473684210526316</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0.42222222222222228</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.97826086956521729</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="1"/>
+        <v>1.2777777777777779</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>1.2413793103448274</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>1.0357142857142858</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0.96551724137931028</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>0.8529411764705882</v>
+      </c>
+      <c r="T25" s="83">
+        <f>AVERAGE(J25:S25)</f>
+        <v>1.0921432680705521</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I26" s="84"/>
+      <c r="J26">
+        <f t="shared" ref="J26:R26" si="2">J5/K5</f>
+        <v>1.0474188666554565</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="2"/>
+        <v>1.0652742449754595</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="2"/>
+        <v>1.0097308638402545</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="2"/>
+        <v>1.0473195681000189</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="2"/>
+        <v>1.0475453426995278</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>1.0030652866242038</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="2"/>
+        <v>1.0412435233160624</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="2"/>
+        <v>1.0265083822653391</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="2"/>
+        <v>0.96450116961464272</v>
+      </c>
+      <c r="T26" s="83">
+        <f>AVERAGE(J26:S26)</f>
+        <v>1.0280674720101073</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I27" s="84"/>
+      <c r="J27">
+        <f t="shared" ref="J27:R27" si="3">J6/K6</f>
+        <v>1.1015866254924929</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>1.1787372913267227</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0.98674758484022784</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>0.90333407921235176</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>0.78472344161545216</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0.97142857142857153</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>1.0556405870171963</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>1.0674675636713118</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>1.0038591413410516</v>
+      </c>
+      <c r="T27" s="83">
+        <f>AVERAGE(J27:S27)</f>
+        <v>1.0059472095494864</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="64"/>
+      <c r="H29" s="81" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+      <c r="T29" s="82"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F30" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="H30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J30" s="80" t="s">
+        <v>4</v>
+      </c>
+      <c r="K30" s="80" t="s">
+        <v>5</v>
+      </c>
+      <c r="L30" s="80" t="s">
+        <v>6</v>
+      </c>
+      <c r="M30" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="N30" s="80" t="s">
+        <v>8</v>
+      </c>
+      <c r="O30" s="80" t="s">
+        <v>9</v>
+      </c>
+      <c r="P30" s="80" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q30" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="R30" s="80" t="s">
+        <v>12</v>
+      </c>
+      <c r="S30" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="T30" s="80" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>16</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B31" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C31" s="3">
         <f>AVERAGE(Dati_OPTN!Q3:V3)</f>
         <v>15244.166666666666</v>
       </c>
-      <c r="D26" s="3">
-        <f t="shared" ref="D26:D40" si="0">C26/365</f>
+      <c r="D31" s="3">
+        <f t="shared" ref="D31:D45" si="4">C31/365</f>
         <v>41.764840182648399</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E31" s="3">
         <f>AVERAGE(Dati_OPTN!W3:AA3)</f>
         <v>13336.8</v>
       </c>
-      <c r="F26" s="3">
-        <f t="shared" ref="F26:F40" si="1">E26/365</f>
+      <c r="F31" s="3">
+        <f t="shared" ref="F31:F45" si="5">E31/365</f>
         <v>36.539178082191782</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="H31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" s="3">
+        <f>Dati_OPTN!Q3/365</f>
+        <v>49.364383561643834</v>
+      </c>
+      <c r="K31" s="3">
+        <f>Dati_OPTN!R3/365</f>
+        <v>44.684931506849317</v>
+      </c>
+      <c r="L31" s="3">
+        <f>Dati_OPTN!S3/365</f>
+        <v>41.676712328767124</v>
+      </c>
+      <c r="M31" s="3">
+        <f>Dati_OPTN!T3/365</f>
+        <v>40.397260273972606</v>
+      </c>
+      <c r="N31" s="3">
+        <f>Dati_OPTN!U3/365</f>
+        <v>38.021917808219179</v>
+      </c>
+      <c r="O31" s="3">
+        <f>Dati_OPTN!V3/365</f>
+        <v>36.443835616438356</v>
+      </c>
+      <c r="P31" s="3">
+        <f>Dati_OPTN!W3/365</f>
+        <v>36.389041095890413</v>
+      </c>
+      <c r="Q31" s="3">
+        <f>Dati_OPTN!X3/365</f>
+        <v>35.726027397260275</v>
+      </c>
+      <c r="R31" s="3">
+        <f>Dati_OPTN!Y3/365</f>
+        <v>36.183561643835617</v>
+      </c>
+      <c r="S31" s="3">
+        <f>Dati_OPTN!Z3/365</f>
+        <v>37.038356164383565</v>
+      </c>
+      <c r="T31" s="3">
+        <f>Dati_OPTN!AA3/365</f>
+        <v>37.358904109589041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C32" s="3">
         <f>AVERAGE(Dati_OPTN!Q4:V4)</f>
         <v>9258.1666666666661</v>
       </c>
-      <c r="D27" s="3">
-        <f t="shared" si="0"/>
+      <c r="D32" s="3">
+        <f t="shared" si="4"/>
         <v>25.3648401826484</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E32" s="3">
         <f>AVERAGE(Dati_OPTN!W4:AA4)</f>
         <v>7378.4</v>
       </c>
-      <c r="F27" s="3">
-        <f t="shared" si="1"/>
+      <c r="F32" s="3">
+        <f t="shared" si="5"/>
         <v>20.214794520547944</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="I32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="3">
+        <f>Dati_OPTN!Q4/365</f>
+        <v>30.553424657534247</v>
+      </c>
+      <c r="K32" s="3">
+        <f>Dati_OPTN!R4/365</f>
+        <v>27.032876712328768</v>
+      </c>
+      <c r="L32" s="3">
+        <f>Dati_OPTN!S4/365</f>
+        <v>25.756164383561643</v>
+      </c>
+      <c r="M32" s="3">
+        <f>Dati_OPTN!T4/365</f>
+        <v>24.975342465753425</v>
+      </c>
+      <c r="N32" s="3">
+        <f>Dati_OPTN!U4/365</f>
+        <v>22.602739726027398</v>
+      </c>
+      <c r="O32" s="3">
+        <f>Dati_OPTN!V4/365</f>
+        <v>21.268493150684932</v>
+      </c>
+      <c r="P32" s="3">
+        <f>Dati_OPTN!W4/365</f>
+        <v>20.67945205479452</v>
+      </c>
+      <c r="Q32" s="3">
+        <f>Dati_OPTN!X4/365</f>
+        <v>20.331506849315069</v>
+      </c>
+      <c r="R32" s="3">
+        <f>Dati_OPTN!Y4/365</f>
+        <v>20.367123287671234</v>
+      </c>
+      <c r="S32" s="3">
+        <f>Dati_OPTN!Z4/365</f>
+        <v>19.838356164383562</v>
+      </c>
+      <c r="T32" s="3">
+        <f>Dati_OPTN!AA4/365</f>
+        <v>19.857534246575341</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C33" s="3">
         <f>AVERAGE(Dati_OPTN!Q5:V5)</f>
         <v>5986</v>
       </c>
-      <c r="D28" s="3">
-        <f t="shared" si="0"/>
+      <c r="D33" s="3">
+        <f t="shared" si="4"/>
         <v>16.399999999999999</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E33" s="3">
         <f>AVERAGE(Dati_OPTN!W5:AA5)</f>
         <v>5958.4</v>
       </c>
-      <c r="F28" s="3">
-        <f t="shared" si="1"/>
+      <c r="F33" s="3">
+        <f t="shared" si="5"/>
         <v>16.324383561643835</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="I33" t="s">
+        <v>22</v>
+      </c>
+      <c r="J33" s="3">
+        <f>Dati_OPTN!Q5/365</f>
+        <v>18.81095890410959</v>
+      </c>
+      <c r="K33" s="3">
+        <f>Dati_OPTN!R5/365</f>
+        <v>17.652054794520549</v>
+      </c>
+      <c r="L33" s="3">
+        <f>Dati_OPTN!S5/365</f>
+        <v>15.920547945205479</v>
+      </c>
+      <c r="M33" s="3">
+        <f>Dati_OPTN!T5/365</f>
+        <v>15.421917808219177</v>
+      </c>
+      <c r="N33" s="3">
+        <f>Dati_OPTN!U5/365</f>
+        <v>15.419178082191781</v>
+      </c>
+      <c r="O33" s="3">
+        <f>Dati_OPTN!V5/365</f>
+        <v>15.175342465753424</v>
+      </c>
+      <c r="P33" s="3">
+        <f>Dati_OPTN!W5/365</f>
+        <v>15.70958904109589</v>
+      </c>
+      <c r="Q33" s="3">
+        <f>Dati_OPTN!X5/365</f>
+        <v>15.394520547945206</v>
+      </c>
+      <c r="R33" s="3">
+        <f>Dati_OPTN!Y5/365</f>
+        <v>15.816438356164383</v>
+      </c>
+      <c r="S33" s="3">
+        <f>Dati_OPTN!Z5/365</f>
+        <v>17.2</v>
+      </c>
+      <c r="T33" s="3">
+        <f>Dati_OPTN!AA5/365</f>
+        <v>17.5013698630137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>24</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B34" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C34" s="3">
         <f>AVERAGE(Dati_OPTN!Q6:V6)</f>
         <v>8180.333333333333</v>
       </c>
-      <c r="D29" s="3">
-        <f t="shared" si="0"/>
+      <c r="D34" s="3">
+        <f t="shared" si="4"/>
         <v>22.411872146118721</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E34" s="3">
         <f>AVERAGE(Dati_OPTN!W6:AA6)</f>
         <v>7320.6</v>
       </c>
-      <c r="F29" s="3">
-        <f t="shared" si="1"/>
+      <c r="F34" s="3">
+        <f t="shared" si="5"/>
         <v>20.056438356164385</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
+      <c r="H34" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J34" s="3">
+        <f>Dati_OPTN!Q6/365</f>
+        <v>26.36986301369863</v>
+      </c>
+      <c r="K34" s="3">
+        <f>Dati_OPTN!R6/365</f>
+        <v>23.761643835616439</v>
+      </c>
+      <c r="L34" s="3">
+        <f>Dati_OPTN!S6/365</f>
+        <v>22.353424657534248</v>
+      </c>
+      <c r="M34" s="3">
+        <f>Dati_OPTN!T6/365</f>
+        <v>21.797260273972604</v>
+      </c>
+      <c r="N34" s="3">
+        <f>Dati_OPTN!U6/365</f>
+        <v>20.583561643835615</v>
+      </c>
+      <c r="O34" s="3">
+        <f>Dati_OPTN!V6/365</f>
+        <v>19.605479452054794</v>
+      </c>
+      <c r="P34" s="3">
+        <f>Dati_OPTN!W6/365</f>
+        <v>19.756164383561643</v>
+      </c>
+      <c r="Q34" s="3">
+        <f>Dati_OPTN!X6/365</f>
+        <v>19.353424657534248</v>
+      </c>
+      <c r="R34" s="3">
+        <f>Dati_OPTN!Y6/365</f>
+        <v>19.846575342465755</v>
+      </c>
+      <c r="S34" s="3">
+        <f>Dati_OPTN!Z6/365</f>
+        <v>20.358904109589041</v>
+      </c>
+      <c r="T34" s="3">
+        <f>Dati_OPTN!AA6/365</f>
+        <v>20.967123287671232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C35" s="3">
         <f>AVERAGE(Dati_OPTN!Q7:V7)</f>
         <v>4419</v>
       </c>
-      <c r="D30" s="3">
-        <f t="shared" si="0"/>
+      <c r="D35" s="3">
+        <f t="shared" si="4"/>
         <v>12.106849315068493</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E35" s="3">
         <f>AVERAGE(Dati_OPTN!W7:AA7)</f>
         <v>3510</v>
       </c>
-      <c r="F30" s="3">
-        <f t="shared" si="1"/>
+      <c r="F35" s="3">
+        <f t="shared" si="5"/>
         <v>9.6164383561643838</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="3">
+        <f>Dati_OPTN!Q7/365</f>
+        <v>14.580821917808219</v>
+      </c>
+      <c r="K35" s="3">
+        <f>Dati_OPTN!R7/365</f>
+        <v>12.780821917808218</v>
+      </c>
+      <c r="L35" s="3">
+        <f>Dati_OPTN!S7/365</f>
+        <v>12.33972602739726</v>
+      </c>
+      <c r="M35" s="3">
+        <f>Dati_OPTN!T7/365</f>
+        <v>11.953424657534246</v>
+      </c>
+      <c r="N35" s="3">
+        <f>Dati_OPTN!U7/365</f>
+        <v>10.895890410958904</v>
+      </c>
+      <c r="O35" s="3">
+        <f>Dati_OPTN!V7/365</f>
+        <v>10.09041095890411</v>
+      </c>
+      <c r="P35" s="3">
+        <f>Dati_OPTN!W7/365</f>
+        <v>9.9013698630136986</v>
+      </c>
+      <c r="Q35" s="3">
+        <f>Dati_OPTN!X7/365</f>
+        <v>9.4876712328767123</v>
+      </c>
+      <c r="R35" s="3">
+        <f>Dati_OPTN!Y7/365</f>
+        <v>9.7698630136986306</v>
+      </c>
+      <c r="S35" s="3">
+        <f>Dati_OPTN!Z7/365</f>
+        <v>9.4493150684931511</v>
+      </c>
+      <c r="T35" s="3">
+        <f>Dati_OPTN!AA7/365</f>
+        <v>9.4739726027397264</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C36" s="3">
         <f>AVERAGE(Dati_OPTN!Q8:V8)</f>
         <v>3761.3333333333335</v>
       </c>
-      <c r="D31" s="3">
-        <f t="shared" si="0"/>
+      <c r="D36" s="3">
+        <f t="shared" si="4"/>
         <v>10.305022831050229</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E36" s="3">
         <f>AVERAGE(Dati_OPTN!W8:AA8)</f>
         <v>3810.6</v>
       </c>
-      <c r="F31" s="3">
-        <f t="shared" si="1"/>
+      <c r="F36" s="3">
+        <f t="shared" si="5"/>
         <v>10.44</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="I36" t="s">
+        <v>22</v>
+      </c>
+      <c r="J36" s="3">
+        <f>Dati_OPTN!Q8/365</f>
+        <v>11.789041095890411</v>
+      </c>
+      <c r="K36" s="3">
+        <f>Dati_OPTN!R8/365</f>
+        <v>10.980821917808219</v>
+      </c>
+      <c r="L36" s="3">
+        <f>Dati_OPTN!S8/365</f>
+        <v>10.013698630136986</v>
+      </c>
+      <c r="M36" s="3">
+        <f>Dati_OPTN!T8/365</f>
+        <v>9.8438356164383567</v>
+      </c>
+      <c r="N36" s="3">
+        <f>Dati_OPTN!U8/365</f>
+        <v>9.6876712328767116</v>
+      </c>
+      <c r="O36" s="3">
+        <f>Dati_OPTN!V8/365</f>
+        <v>9.5150684931506841</v>
+      </c>
+      <c r="P36" s="3">
+        <f>Dati_OPTN!W8/365</f>
+        <v>9.8547945205479444</v>
+      </c>
+      <c r="Q36" s="3">
+        <f>Dati_OPTN!X8/365</f>
+        <v>9.8657534246575338</v>
+      </c>
+      <c r="R36" s="3">
+        <f>Dati_OPTN!Y8/365</f>
+        <v>10.076712328767123</v>
+      </c>
+      <c r="S36" s="3">
+        <f>Dati_OPTN!Z8/365</f>
+        <v>10.90958904109589</v>
+      </c>
+      <c r="T36" s="3">
+        <f>Dati_OPTN!AA8/365</f>
+        <v>11.493150684931507</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>25</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C37" s="3">
         <f>AVERAGE(Dati_OPTN!Q9:V9)</f>
         <v>5087.5</v>
       </c>
-      <c r="D32" s="3">
-        <f t="shared" si="0"/>
+      <c r="D37" s="3">
+        <f t="shared" si="4"/>
         <v>13.938356164383562</v>
       </c>
-      <c r="E32" s="3">
+      <c r="E37" s="3">
         <f>AVERAGE(Dati_OPTN!W9:AA9)</f>
         <v>4323.8</v>
       </c>
-      <c r="F32" s="3">
-        <f t="shared" si="1"/>
+      <c r="F37" s="3">
+        <f t="shared" si="5"/>
         <v>11.846027397260274</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="3">
+        <f>Dati_OPTN!Q9/365</f>
+        <v>16.482191780821918</v>
+      </c>
+      <c r="K37" s="3">
+        <f>Dati_OPTN!R9/365</f>
+        <v>14.904109589041095</v>
+      </c>
+      <c r="L37" s="3">
+        <f>Dati_OPTN!S9/365</f>
+        <v>14.079452054794521</v>
+      </c>
+      <c r="M37" s="3">
+        <f>Dati_OPTN!T9/365</f>
+        <v>13.517808219178082</v>
+      </c>
+      <c r="N37" s="3">
+        <f>Dati_OPTN!U9/365</f>
+        <v>12.594520547945205</v>
+      </c>
+      <c r="O37" s="3">
+        <f>Dati_OPTN!V9/365</f>
+        <v>12.052054794520547</v>
+      </c>
+      <c r="P37" s="3">
+        <f>Dati_OPTN!W9/365</f>
+        <v>12.032876712328767</v>
+      </c>
+      <c r="Q37" s="3">
+        <f>Dati_OPTN!X9/365</f>
+        <v>11.731506849315069</v>
+      </c>
+      <c r="R37" s="3">
+        <f>Dati_OPTN!Y9/365</f>
+        <v>11.663013698630136</v>
+      </c>
+      <c r="S37" s="3">
+        <f>Dati_OPTN!Z9/365</f>
+        <v>11.857534246575343</v>
+      </c>
+      <c r="T37" s="3">
+        <f>Dati_OPTN!AA9/365</f>
+        <v>11.945205479452055</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C38" s="3">
         <f>AVERAGE(Dati_OPTN!Q10:V10)</f>
         <v>3430.5</v>
       </c>
-      <c r="D33" s="3">
-        <f t="shared" si="0"/>
+      <c r="D38" s="3">
+        <f t="shared" si="4"/>
         <v>9.3986301369863021</v>
       </c>
-      <c r="E33" s="3">
+      <c r="E38" s="3">
         <f>AVERAGE(Dati_OPTN!W10:AA10)</f>
         <v>2731.2</v>
       </c>
-      <c r="F33" s="3">
-        <f t="shared" si="1"/>
+      <c r="F38" s="3">
+        <f t="shared" si="5"/>
         <v>7.4827397260273969</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
+      <c r="I38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="3">
+        <f>Dati_OPTN!Q10/365</f>
+        <v>11.306849315068494</v>
+      </c>
+      <c r="K38" s="3">
+        <f>Dati_OPTN!R10/365</f>
+        <v>9.9589041095890405</v>
+      </c>
+      <c r="L38" s="3">
+        <f>Dati_OPTN!S10/365</f>
+        <v>9.632876712328768</v>
+      </c>
+      <c r="M38" s="3">
+        <f>Dati_OPTN!T10/365</f>
+        <v>9.3232876712328761</v>
+      </c>
+      <c r="N38" s="3">
+        <f>Dati_OPTN!U10/365</f>
+        <v>8.2739726027397253</v>
+      </c>
+      <c r="O38" s="3">
+        <f>Dati_OPTN!V10/365</f>
+        <v>7.8958904109589039</v>
+      </c>
+      <c r="P38" s="3">
+        <f>Dati_OPTN!W10/365</f>
+        <v>7.7123287671232879</v>
+      </c>
+      <c r="Q38" s="3">
+        <f>Dati_OPTN!X10/365</f>
+        <v>7.5780821917808217</v>
+      </c>
+      <c r="R38" s="3">
+        <f>Dati_OPTN!Y10/365</f>
+        <v>7.4383561643835616</v>
+      </c>
+      <c r="S38" s="3">
+        <f>Dati_OPTN!Z10/365</f>
+        <v>7.2273972602739729</v>
+      </c>
+      <c r="T38" s="3">
+        <f>Dati_OPTN!AA10/365</f>
+        <v>7.4575342465753423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C39" s="3">
         <f>AVERAGE(Dati_OPTN!Q11:V11)</f>
         <v>1657</v>
       </c>
-      <c r="D34" s="3">
-        <f t="shared" si="0"/>
+      <c r="D39" s="3">
+        <f t="shared" si="4"/>
         <v>4.5397260273972604</v>
       </c>
-      <c r="E34" s="3">
+      <c r="E39" s="3">
         <f>AVERAGE(Dati_OPTN!W11:AA11)</f>
         <v>1592.6</v>
       </c>
-      <c r="F34" s="3">
-        <f t="shared" si="1"/>
+      <c r="F39" s="3">
+        <f t="shared" si="5"/>
         <v>4.3632876712328761</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="I39" t="s">
+        <v>22</v>
+      </c>
+      <c r="J39" s="3">
+        <f>Dati_OPTN!Q11/365</f>
+        <v>5.1753424657534248</v>
+      </c>
+      <c r="K39" s="3">
+        <f>Dati_OPTN!R11/365</f>
+        <v>4.9452054794520546</v>
+      </c>
+      <c r="L39" s="3">
+        <f>Dati_OPTN!S11/365</f>
+        <v>4.4465753424657537</v>
+      </c>
+      <c r="M39" s="3">
+        <f>Dati_OPTN!T11/365</f>
+        <v>4.1945205479452055</v>
+      </c>
+      <c r="N39" s="3">
+        <f>Dati_OPTN!U11/365</f>
+        <v>4.3205479452054796</v>
+      </c>
+      <c r="O39" s="3">
+        <f>Dati_OPTN!V11/365</f>
+        <v>4.1561643835616442</v>
+      </c>
+      <c r="P39" s="3">
+        <f>Dati_OPTN!W11/365</f>
+        <v>4.3205479452054796</v>
+      </c>
+      <c r="Q39" s="3">
+        <f>Dati_OPTN!X11/365</f>
+        <v>4.1534246575342468</v>
+      </c>
+      <c r="R39" s="3">
+        <f>Dati_OPTN!Y11/365</f>
+        <v>4.2246575342465755</v>
+      </c>
+      <c r="S39" s="3">
+        <f>Dati_OPTN!Z11/365</f>
+        <v>4.6301369863013697</v>
+      </c>
+      <c r="T39" s="3">
+        <f>Dati_OPTN!AA11/365</f>
+        <v>4.4876712328767123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>26</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B40" t="s">
         <v>18</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C40" s="3">
         <f>AVERAGE(Dati_OPTN!Q12:V12)</f>
         <v>1578.3333333333333</v>
       </c>
-      <c r="D35" s="3">
-        <f t="shared" si="0"/>
+      <c r="D40" s="3">
+        <f t="shared" si="4"/>
         <v>4.3242009132420085</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E40" s="3">
         <f>AVERAGE(Dati_OPTN!W12:AA12)</f>
         <v>1377.6</v>
       </c>
-      <c r="F35" s="3">
-        <f t="shared" si="1"/>
+      <c r="F40" s="3">
+        <f t="shared" si="5"/>
         <v>3.7742465753424654</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="H40" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="3">
+        <f>Dati_OPTN!Q12/365</f>
+        <v>5.1369863013698627</v>
+      </c>
+      <c r="K40" s="3">
+        <f>Dati_OPTN!R12/365</f>
+        <v>4.8849315068493153</v>
+      </c>
+      <c r="L40" s="3">
+        <f>Dati_OPTN!S12/365</f>
+        <v>4.1479452054794521</v>
+      </c>
+      <c r="M40" s="3">
+        <f>Dati_OPTN!T12/365</f>
+        <v>4.1095890410958908</v>
+      </c>
+      <c r="N40" s="3">
+        <f>Dati_OPTN!U12/365</f>
+        <v>3.8301369863013699</v>
+      </c>
+      <c r="O40" s="3">
+        <f>Dati_OPTN!V12/365</f>
+        <v>3.8356164383561642</v>
+      </c>
+      <c r="P40" s="3">
+        <f>Dati_OPTN!W12/365</f>
+        <v>3.7287671232876711</v>
+      </c>
+      <c r="Q40" s="3">
+        <f>Dati_OPTN!X12/365</f>
+        <v>3.7315068493150685</v>
+      </c>
+      <c r="R40" s="3">
+        <f>Dati_OPTN!Y12/365</f>
+        <v>3.7643835616438355</v>
+      </c>
+      <c r="S40" s="3">
+        <f>Dati_OPTN!Z12/365</f>
+        <v>3.9506849315068493</v>
+      </c>
+      <c r="T40" s="3">
+        <f>Dati_OPTN!AA12/365</f>
+        <v>3.6958904109589041</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C41" s="3">
         <f>AVERAGE(Dati_OPTN!Q13:V13)</f>
         <v>1090.5</v>
       </c>
-      <c r="D36" s="3">
-        <f t="shared" si="0"/>
+      <c r="D41" s="3">
+        <f t="shared" si="4"/>
         <v>2.9876712328767123</v>
       </c>
-      <c r="E36" s="3">
+      <c r="E41" s="3">
         <f>AVERAGE(Dati_OPTN!W13:AA13)</f>
         <v>888.8</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" si="1"/>
+      <c r="F41" s="3">
+        <f t="shared" si="5"/>
         <v>2.435068493150685</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
+      <c r="I41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="3">
+        <f>Dati_OPTN!Q13/365</f>
+        <v>3.5972602739726027</v>
+      </c>
+      <c r="K41" s="3">
+        <f>Dati_OPTN!R13/365</f>
+        <v>3.3452054794520549</v>
+      </c>
+      <c r="L41" s="3">
+        <f>Dati_OPTN!S13/365</f>
+        <v>2.8986301369863012</v>
+      </c>
+      <c r="M41" s="3">
+        <f>Dati_OPTN!T13/365</f>
+        <v>2.9369863013698629</v>
+      </c>
+      <c r="N41" s="3">
+        <f>Dati_OPTN!U13/365</f>
+        <v>2.6027397260273974</v>
+      </c>
+      <c r="O41" s="3">
+        <f>Dati_OPTN!V13/365</f>
+        <v>2.5452054794520547</v>
+      </c>
+      <c r="P41" s="3">
+        <f>Dati_OPTN!W13/365</f>
+        <v>2.3945205479452056</v>
+      </c>
+      <c r="Q41" s="3">
+        <f>Dati_OPTN!X13/365</f>
+        <v>2.5616438356164384</v>
+      </c>
+      <c r="R41" s="3">
+        <f>Dati_OPTN!Y13/365</f>
+        <v>2.4356164383561643</v>
+      </c>
+      <c r="S41" s="3">
+        <f>Dati_OPTN!Z13/365</f>
+        <v>2.4547945205479453</v>
+      </c>
+      <c r="T41" s="3">
+        <f>Dati_OPTN!AA13/365</f>
+        <v>2.3287671232876712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C42" s="3">
         <f>AVERAGE(Dati_OPTN!Q14:V14)</f>
         <v>487.83333333333331</v>
       </c>
-      <c r="D37" s="3">
-        <f t="shared" si="0"/>
+      <c r="D42" s="3">
+        <f t="shared" si="4"/>
         <v>1.3365296803652968</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E42" s="3">
         <f>AVERAGE(Dati_OPTN!W14:AA14)</f>
         <v>488.8</v>
       </c>
-      <c r="F37" s="3">
-        <f t="shared" si="1"/>
+      <c r="F42" s="3">
+        <f t="shared" si="5"/>
         <v>1.3391780821917809</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="I42" t="s">
+        <v>22</v>
+      </c>
+      <c r="J42" s="3">
+        <f>Dati_OPTN!Q14/365</f>
+        <v>1.5397260273972602</v>
+      </c>
+      <c r="K42" s="3">
+        <f>Dati_OPTN!R14/365</f>
+        <v>1.5397260273972602</v>
+      </c>
+      <c r="L42" s="3">
+        <f>Dati_OPTN!S14/365</f>
+        <v>1.2493150684931507</v>
+      </c>
+      <c r="M42" s="3">
+        <f>Dati_OPTN!T14/365</f>
+        <v>1.1726027397260275</v>
+      </c>
+      <c r="N42" s="3">
+        <f>Dati_OPTN!U14/365</f>
+        <v>1.2273972602739727</v>
+      </c>
+      <c r="O42" s="3">
+        <f>Dati_OPTN!V14/365</f>
+        <v>1.2904109589041095</v>
+      </c>
+      <c r="P42" s="3">
+        <f>Dati_OPTN!W14/365</f>
+        <v>1.3342465753424657</v>
+      </c>
+      <c r="Q42" s="3">
+        <f>Dati_OPTN!X14/365</f>
+        <v>1.1698630136986301</v>
+      </c>
+      <c r="R42" s="3">
+        <f>Dati_OPTN!Y14/365</f>
+        <v>1.3287671232876712</v>
+      </c>
+      <c r="S42" s="3">
+        <f>Dati_OPTN!Z14/365</f>
+        <v>1.4958904109589042</v>
+      </c>
+      <c r="T42" s="3">
+        <f>Dati_OPTN!AA14/365</f>
+        <v>1.3671232876712329</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>27</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C43" s="3">
         <f>AVERAGE(Dati_OPTN!Q15:V15)</f>
         <v>398</v>
       </c>
-      <c r="D38" s="3">
-        <f t="shared" si="0"/>
+      <c r="D43" s="3">
+        <f t="shared" si="4"/>
         <v>1.0904109589041096</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E43" s="3">
         <f>AVERAGE(Dati_OPTN!W15:AA15)</f>
         <v>314.8</v>
       </c>
-      <c r="F38" s="3">
-        <f t="shared" si="1"/>
+      <c r="F43" s="3">
+        <f t="shared" si="5"/>
         <v>0.86246575342465759</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
+      <c r="H43" t="s">
+        <v>27</v>
+      </c>
+      <c r="I43" t="s">
+        <v>18</v>
+      </c>
+      <c r="J43" s="3">
+        <f>Dati_OPTN!Q15/365</f>
+        <v>1.3753424657534246</v>
+      </c>
+      <c r="K43" s="3">
+        <f>Dati_OPTN!R15/365</f>
+        <v>1.1342465753424658</v>
+      </c>
+      <c r="L43" s="3">
+        <f>Dati_OPTN!S15/365</f>
+        <v>1.095890410958904</v>
+      </c>
+      <c r="M43" s="3">
+        <f>Dati_OPTN!T15/365</f>
+        <v>0.9726027397260274</v>
+      </c>
+      <c r="N43" s="3">
+        <f>Dati_OPTN!U15/365</f>
+        <v>1.0136986301369864</v>
+      </c>
+      <c r="O43" s="3">
+        <f>Dati_OPTN!V15/365</f>
+        <v>0.9506849315068493</v>
+      </c>
+      <c r="P43" s="3">
+        <f>Dati_OPTN!W15/365</f>
+        <v>0.87123287671232874</v>
+      </c>
+      <c r="Q43" s="3">
+        <f>Dati_OPTN!X15/365</f>
+        <v>0.90958904109589045</v>
+      </c>
+      <c r="R43" s="3">
+        <f>Dati_OPTN!Y15/365</f>
+        <v>0.90958904109589045</v>
+      </c>
+      <c r="S43" s="3">
+        <f>Dati_OPTN!Z15/365</f>
+        <v>0.87123287671232874</v>
+      </c>
+      <c r="T43" s="3">
+        <f>Dati_OPTN!AA15/365</f>
+        <v>0.75068493150684934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C44" s="3">
         <f>AVERAGE(Dati_OPTN!Q16:V16)</f>
         <v>318.16666666666669</v>
       </c>
-      <c r="D39" s="3">
-        <f t="shared" si="0"/>
+      <c r="D44" s="3">
+        <f t="shared" si="4"/>
         <v>0.87168949771689508</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E44" s="3">
         <f>AVERAGE(Dati_OPTN!W16:AA16)</f>
         <v>248.4</v>
       </c>
-      <c r="F39" s="3">
-        <f t="shared" si="1"/>
+      <c r="F44" s="3">
+        <f t="shared" si="5"/>
         <v>0.68054794520547945</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="I44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="3">
+        <f>Dati_OPTN!Q16/365</f>
+        <v>1.0684931506849316</v>
+      </c>
+      <c r="K44" s="3">
+        <f>Dati_OPTN!R16/365</f>
+        <v>0.94794520547945205</v>
+      </c>
+      <c r="L44" s="3">
+        <f>Dati_OPTN!S16/365</f>
+        <v>0.8849315068493151</v>
+      </c>
+      <c r="M44" s="3">
+        <f>Dati_OPTN!T16/365</f>
+        <v>0.76164383561643834</v>
+      </c>
+      <c r="N44" s="3">
+        <f>Dati_OPTN!U16/365</f>
+        <v>0.83013698630136989</v>
+      </c>
+      <c r="O44" s="3">
+        <f>Dati_OPTN!V16/365</f>
+        <v>0.73698630136986298</v>
+      </c>
+      <c r="P44" s="3">
+        <f>Dati_OPTN!W16/365</f>
+        <v>0.67123287671232879</v>
+      </c>
+      <c r="Q44" s="3">
+        <f>Dati_OPTN!X16/365</f>
+        <v>0.70410958904109588</v>
+      </c>
+      <c r="R44" s="3">
+        <f>Dati_OPTN!Y16/365</f>
+        <v>0.72328767123287674</v>
+      </c>
+      <c r="S44" s="3">
+        <f>Dati_OPTN!Z16/365</f>
+        <v>0.70684931506849313</v>
+      </c>
+      <c r="T44" s="3">
+        <f>Dati_OPTN!AA16/365</f>
+        <v>0.59726027397260273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>22</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C45" s="3">
         <f>AVERAGE(Dati_OPTN!Q17:V17)</f>
         <v>79.833333333333329</v>
       </c>
-      <c r="D40" s="3">
-        <f t="shared" si="0"/>
+      <c r="D45" s="3">
+        <f t="shared" si="4"/>
         <v>0.21872146118721461</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E45" s="3">
         <f>AVERAGE(Dati_OPTN!W17:AA17)</f>
         <v>66.400000000000006</v>
       </c>
-      <c r="F40" s="3">
-        <f t="shared" si="1"/>
+      <c r="F45" s="3">
+        <f t="shared" si="5"/>
         <v>0.18191780821917811</v>
       </c>
+      <c r="I45" t="s">
+        <v>22</v>
+      </c>
+      <c r="J45" s="3">
+        <f>Dati_OPTN!Q17/365</f>
+        <v>0.30684931506849317</v>
+      </c>
+      <c r="K45" s="3">
+        <f>Dati_OPTN!R17/365</f>
+        <v>0.18630136986301371</v>
+      </c>
+      <c r="L45" s="3">
+        <f>Dati_OPTN!S17/365</f>
+        <v>0.21095890410958903</v>
+      </c>
+      <c r="M45" s="3">
+        <f>Dati_OPTN!T17/365</f>
+        <v>0.21095890410958903</v>
+      </c>
+      <c r="N45" s="3">
+        <f>Dati_OPTN!U17/365</f>
+        <v>0.18356164383561643</v>
+      </c>
+      <c r="O45" s="3">
+        <f>Dati_OPTN!V17/365</f>
+        <v>0.21369863013698631</v>
+      </c>
+      <c r="P45" s="3">
+        <f>Dati_OPTN!W17/365</f>
+        <v>0.2</v>
+      </c>
+      <c r="Q45" s="3">
+        <f>Dati_OPTN!X17/365</f>
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="R45" s="3">
+        <f>Dati_OPTN!Y17/365</f>
+        <v>0.18630136986301371</v>
+      </c>
+      <c r="S45" s="3">
+        <f>Dati_OPTN!Z17/365</f>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="T45" s="3">
+        <f>Dati_OPTN!AA17/365</f>
+        <v>0.15342465753424658</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I47" s="85"/>
+      <c r="J47">
+        <f>J31/K31</f>
+        <v>1.1047210300429184</v>
+      </c>
+      <c r="K47">
+        <f t="shared" ref="J47:R47" si="6">K31/L31</f>
+        <v>1.0721798580068367</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>1.0316717531366564</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>1.0624729788153913</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>1.0433017591339648</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>1.0015057973196808</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>1.018558282208589</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>0.98735519042931774</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>0.97692136992381085</v>
+      </c>
+      <c r="S47" s="85"/>
+      <c r="T47">
+        <f>AVERAGE(Tabella31517[[#This Row],[2019]:[2011]])</f>
+        <v>1.0331875576685741</v>
+      </c>
+      <c r="V47">
+        <f>AVERAGE(T47:T49)</f>
+        <v>1.0314923073387774</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I48" s="85"/>
+      <c r="J48">
+        <f t="shared" ref="J48:S48" si="7">J32/K32</f>
+        <v>1.1302320867538258</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="7"/>
+        <v>1.0495691947665142</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="7"/>
+        <v>1.0312637121544537</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>1.1049696969696969</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="7"/>
+        <v>1.0627334793250032</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="7"/>
+        <v>1.0284843667196608</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>1.0171135965503302</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="7"/>
+        <v>0.99825127791229484</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="7"/>
+        <v>1.0266537771026101</v>
+      </c>
+      <c r="S48" s="85"/>
+      <c r="T48">
+        <f>AVERAGE(Tabella31517[[#This Row],[2019]:[2011]])</f>
+        <v>1.0499190209171543</v>
+      </c>
+    </row>
+    <row r="49" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I49" s="85"/>
+      <c r="J49">
+        <f t="shared" ref="J49:S49" si="8">J33/K33</f>
+        <v>1.0656526462827876</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="8"/>
+        <v>1.108759249698847</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="8"/>
+        <v>1.0323325635103926</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="8"/>
+        <v>1.0001776830135038</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="8"/>
+        <v>1.016067882289222</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="8"/>
+        <v>0.96599232647366584</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>1.020466275137925</v>
+      </c>
+      <c r="Q49">
+        <f t="shared" si="8"/>
+        <v>0.97332409492464922</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="8"/>
+        <v>0.91956036954444087</v>
+      </c>
+      <c r="S49" s="85"/>
+      <c r="T49">
+        <f>AVERAGE(Tabella31517[[#This Row],[2019]:[2011]])</f>
+        <v>1.0113703434306036</v>
+      </c>
+    </row>
+    <row r="50" spans="9:21" x14ac:dyDescent="0.25">
+      <c r="I50" s="85"/>
+      <c r="J50" s="85"/>
+      <c r="K50" s="85"/>
+      <c r="L50" s="85"/>
+      <c r="M50" s="85"/>
+      <c r="N50" s="85"/>
+      <c r="O50" s="85"/>
+      <c r="P50" s="85"/>
+      <c r="Q50" s="85"/>
+      <c r="R50" s="85"/>
+      <c r="S50" s="85"/>
+      <c r="T50" s="85"/>
+      <c r="U50" s="85"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="H29:T29"/>
   </mergeCells>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <legacyDrawing r:id="rId2"/>
+  <tableParts count="4">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q69"/>
+  <dimension ref="A1:T74"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7794,22 +10328,37 @@
     <col min="6" max="6" width="16.28515625" customWidth="1"/>
     <col min="7" max="7" width="16.140625" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" customWidth="1"/>
-    <col min="9" max="9" width="21.42578125" customWidth="1"/>
-    <col min="10" max="10" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="G1" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -7825,8 +10374,47 @@
       <c r="E2" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -7845,8 +10433,58 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0.1193667631710469</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5">
+        <f>Dati_OPTN!C26/365</f>
+        <v>10.605479452054794</v>
+      </c>
+      <c r="J3" s="5">
+        <f>Dati_OPTN!D26/365</f>
+        <v>11.238356164383562</v>
+      </c>
+      <c r="K3" s="5">
+        <f>Dati_OPTN!E26/365</f>
+        <v>11.775342465753425</v>
+      </c>
+      <c r="L3" s="5">
+        <f>Dati_OPTN!F26/365</f>
+        <v>12.852054794520548</v>
+      </c>
+      <c r="M3" s="5">
+        <f>Dati_OPTN!G26/365</f>
+        <v>13.139726027397261</v>
+      </c>
+      <c r="N3" s="5">
+        <f>Dati_OPTN!H26/365</f>
+        <v>13.021917808219179</v>
+      </c>
+      <c r="O3" s="5">
+        <f>Dati_OPTN!I26/365</f>
+        <v>12.621917808219179</v>
+      </c>
+      <c r="P3" s="5">
+        <f>Dati_OPTN!J26/365</f>
+        <v>12.654794520547945</v>
+      </c>
+      <c r="Q3" s="5">
+        <f>Dati_OPTN!K26/365</f>
+        <v>13.104109589041096</v>
+      </c>
+      <c r="R3" s="5">
+        <f>Dati_OPTN!L26/365</f>
+        <v>12.816438356164383</v>
+      </c>
+      <c r="S3" s="5">
+        <f>Dati_OPTN!M26/365</f>
+        <v>12.843835616438357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -7863,8 +10501,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>3.5714285714285712E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="5">
+        <f>Dati_OPTN!C27/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="J4" s="5">
+        <f>Dati_OPTN!D27/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="K4" s="5">
+        <f>Dati_OPTN!E27/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="L4" s="5">
+        <f>Dati_OPTN!F27/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="M4" s="5">
+        <f>Dati_OPTN!G27/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="N4" s="5">
+        <f>Dati_OPTN!H27/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="O4" s="5">
+        <f>Dati_OPTN!I27/365</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <f>Dati_OPTN!J27/365</f>
+        <v>1.0958904109589041E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <f>Dati_OPTN!K27/365</f>
+        <v>2.4657534246575342E-2</v>
+      </c>
+      <c r="R4" s="5">
+        <f>Dati_OPTN!L27/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="S4" s="5">
+        <f>Dati_OPTN!M27/365</f>
+        <v>2.4657534246575342E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>21</v>
@@ -7881,8 +10567,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>6.0025352766486739E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5">
+        <f>Dati_OPTN!C28/365</f>
+        <v>4.2356164383561641</v>
+      </c>
+      <c r="J5" s="5">
+        <f>Dati_OPTN!D28/365</f>
+        <v>4.3561643835616435</v>
+      </c>
+      <c r="K5" s="5">
+        <f>Dati_OPTN!E28/365</f>
+        <v>4.3479452054794523</v>
+      </c>
+      <c r="L5" s="5">
+        <f>Dati_OPTN!F28/365</f>
+        <v>4.7506849315068491</v>
+      </c>
+      <c r="M5" s="5">
+        <f>Dati_OPTN!G28/365</f>
+        <v>4.8410958904109593</v>
+      </c>
+      <c r="N5" s="5">
+        <f>Dati_OPTN!H28/365</f>
+        <v>5.1013698630136988</v>
+      </c>
+      <c r="O5" s="5">
+        <f>Dati_OPTN!I28/365</f>
+        <v>4.8849315068493153</v>
+      </c>
+      <c r="P5" s="5">
+        <f>Dati_OPTN!J28/365</f>
+        <v>4.7068493150684931</v>
+      </c>
+      <c r="Q5" s="5">
+        <f>Dati_OPTN!K28/365</f>
+        <v>5.0630136986301366</v>
+      </c>
+      <c r="R5" s="5">
+        <f>Dati_OPTN!L28/365</f>
+        <v>5.2821917808219174</v>
+      </c>
+      <c r="S5" s="5">
+        <f>Dati_OPTN!M28/365</f>
+        <v>5.3561643835616435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>23</v>
@@ -7899,8 +10633,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0.30088227430710274</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="5">
+        <f>Dati_OPTN!C29/365</f>
+        <v>6.5945205479452058</v>
+      </c>
+      <c r="J6" s="5">
+        <f>Dati_OPTN!D29/365</f>
+        <v>7.0465753424657533</v>
+      </c>
+      <c r="K6" s="5">
+        <f>Dati_OPTN!E29/365</f>
+        <v>7.6410958904109592</v>
+      </c>
+      <c r="L6" s="5">
+        <f>Dati_OPTN!F29/365</f>
+        <v>8.3479452054794514</v>
+      </c>
+      <c r="M6" s="5">
+        <f>Dati_OPTN!G29/365</f>
+        <v>8.4794520547945211</v>
+      </c>
+      <c r="N6" s="5">
+        <f>Dati_OPTN!H29/365</f>
+        <v>8.1397260273972609</v>
+      </c>
+      <c r="O6" s="5">
+        <f>Dati_OPTN!I29/365</f>
+        <v>7.9260273972602739</v>
+      </c>
+      <c r="P6" s="5">
+        <f>Dati_OPTN!J29/365</f>
+        <v>8.161643835616438</v>
+      </c>
+      <c r="Q6" s="5">
+        <f>Dati_OPTN!K29/365</f>
+        <v>8.2438356164383571</v>
+      </c>
+      <c r="R6" s="5">
+        <f>Dati_OPTN!L29/365</f>
+        <v>7.7041095890410958</v>
+      </c>
+      <c r="S6" s="5">
+        <f>Dati_OPTN!M29/365</f>
+        <v>7.624657534246575</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7919,8 +10701,58 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0.12814571370543379</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="5">
+        <f>Dati_OPTN!C30/365</f>
+        <v>5.7616438356164386</v>
+      </c>
+      <c r="J7" s="5">
+        <f>Dati_OPTN!D30/365</f>
+        <v>6.0465753424657533</v>
+      </c>
+      <c r="K7" s="5">
+        <f>Dati_OPTN!E30/365</f>
+        <v>6.1123287671232873</v>
+      </c>
+      <c r="L7" s="5">
+        <f>Dati_OPTN!F30/365</f>
+        <v>6.6958904109589037</v>
+      </c>
+      <c r="M7" s="5">
+        <f>Dati_OPTN!G30/365</f>
+        <v>6.8054794520547945</v>
+      </c>
+      <c r="N7" s="5">
+        <f>Dati_OPTN!H30/365</f>
+        <v>6.6082191780821917</v>
+      </c>
+      <c r="O7" s="5">
+        <f>Dati_OPTN!I30/365</f>
+        <v>6.5287671232876709</v>
+      </c>
+      <c r="P7" s="5">
+        <f>Dati_OPTN!J30/365</f>
+        <v>6.6136986301369864</v>
+      </c>
+      <c r="Q7" s="5">
+        <f>Dati_OPTN!K30/365</f>
+        <v>6.720547945205479</v>
+      </c>
+      <c r="R7" s="5">
+        <f>Dati_OPTN!L30/365</f>
+        <v>6.6493150684931503</v>
+      </c>
+      <c r="S7" s="5">
+        <f>Dati_OPTN!M30/365</f>
+        <v>6.7342465753424658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
         <v>19</v>
@@ -7937,8 +10769,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>5.2631578947368418E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="5">
+        <f>Dati_OPTN!C31/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="J8" s="5">
+        <f>Dati_OPTN!D31/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="K8" s="5">
+        <f>Dati_OPTN!E31/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="L8" s="5">
+        <f>Dati_OPTN!F31/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="M8" s="5">
+        <f>Dati_OPTN!G31/365</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="5">
+        <f>Dati_OPTN!H31/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="O8" s="5">
+        <f>Dati_OPTN!I31/365</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="5">
+        <f>Dati_OPTN!J31/365</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="5">
+        <f>Dati_OPTN!K31/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="R8" s="25">
+        <f>Dati_OPTN!L31/365</f>
+        <v>1.0958904109589041E-2</v>
+      </c>
+      <c r="S8" s="5">
+        <f>Dati_OPTN!M31/365</f>
+        <v>1.9178082191780823E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -7955,8 +10835,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>6.6444498303441596E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="5">
+        <f>Dati_OPTN!C32/365</f>
+        <v>2.3945205479452056</v>
+      </c>
+      <c r="J9" s="5">
+        <f>Dati_OPTN!D32/365</f>
+        <v>2.4712328767123286</v>
+      </c>
+      <c r="K9" s="5">
+        <f>Dati_OPTN!E32/365</f>
+        <v>2.2904109589041095</v>
+      </c>
+      <c r="L9" s="5">
+        <f>Dati_OPTN!F32/365</f>
+        <v>2.5452054794520547</v>
+      </c>
+      <c r="M9" s="5">
+        <f>Dati_OPTN!G32/365</f>
+        <v>2.6136986301369864</v>
+      </c>
+      <c r="N9" s="5">
+        <f>Dati_OPTN!H32/365</f>
+        <v>2.7068493150684931</v>
+      </c>
+      <c r="O9" s="5">
+        <f>Dati_OPTN!I32/365</f>
+        <v>2.6356164383561644</v>
+      </c>
+      <c r="P9" s="5">
+        <f>Dati_OPTN!J32/365</f>
+        <v>2.4904109589041097</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>Dati_OPTN!K32/365</f>
+        <v>2.7671232876712328</v>
+      </c>
+      <c r="R9" s="25">
+        <f>Dati_OPTN!L32/365</f>
+        <v>2.7917808219178082</v>
+      </c>
+      <c r="S9" s="5">
+        <f>Dati_OPTN!M32/365</f>
+        <v>2.9150684931506849</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>23</v>
@@ -7973,8 +10901,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0.32265770810003735</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="5">
+        <f>Dati_OPTN!C33/365</f>
+        <v>3.4602739726027396</v>
+      </c>
+      <c r="J10" s="5">
+        <f>Dati_OPTN!D33/365</f>
+        <v>3.6794520547945204</v>
+      </c>
+      <c r="K10" s="5">
+        <f>Dati_OPTN!E33/365</f>
+        <v>3.9479452054794519</v>
+      </c>
+      <c r="L10" s="5">
+        <f>Dati_OPTN!F33/365</f>
+        <v>4.2931506849315069</v>
+      </c>
+      <c r="M10" s="5">
+        <f>Dati_OPTN!G33/365</f>
+        <v>4.2931506849315069</v>
+      </c>
+      <c r="N10" s="5">
+        <f>Dati_OPTN!H33/365</f>
+        <v>4.0082191780821921</v>
+      </c>
+      <c r="O10" s="5">
+        <f>Dati_OPTN!I33/365</f>
+        <v>4.0027397260273974</v>
+      </c>
+      <c r="P10" s="5">
+        <f>Dati_OPTN!J33/365</f>
+        <v>4.2547945205479456</v>
+      </c>
+      <c r="Q10" s="5">
+        <f>Dati_OPTN!K33/365</f>
+        <v>4.0904109589041093</v>
+      </c>
+      <c r="R10" s="25">
+        <f>Dati_OPTN!L33/365</f>
+        <v>3.9616438356164383</v>
+      </c>
+      <c r="S10" s="5">
+        <f>Dati_OPTN!M33/365</f>
+        <v>3.8958904109589043</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -7993,8 +10969,58 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0.10598619315745057</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5">
+        <f>Dati_OPTN!C34/365</f>
+        <v>2.8547945205479452</v>
+      </c>
+      <c r="J11" s="5">
+        <f>Dati_OPTN!D34/365</f>
+        <v>3.1342465753424658</v>
+      </c>
+      <c r="K11" s="5">
+        <f>Dati_OPTN!E34/365</f>
+        <v>3.4493150684931506</v>
+      </c>
+      <c r="L11" s="5">
+        <f>Dati_OPTN!F34/365</f>
+        <v>3.7643835616438355</v>
+      </c>
+      <c r="M11" s="5">
+        <f>Dati_OPTN!G34/365</f>
+        <v>3.8767123287671232</v>
+      </c>
+      <c r="N11" s="5">
+        <f>Dati_OPTN!H34/365</f>
+        <v>3.9095890410958902</v>
+      </c>
+      <c r="O11" s="5">
+        <f>Dati_OPTN!I34/365</f>
+        <v>3.7808219178082192</v>
+      </c>
+      <c r="P11" s="5">
+        <f>Dati_OPTN!J34/365</f>
+        <v>3.7452054794520548</v>
+      </c>
+      <c r="Q11" s="5">
+        <f>Dati_OPTN!K34/365</f>
+        <v>3.8849315068493149</v>
+      </c>
+      <c r="R11" s="5">
+        <f>Dati_OPTN!L34/365</f>
+        <v>3.6849315068493151</v>
+      </c>
+      <c r="S11" s="5">
+        <f>Dati_OPTN!M34/365</f>
+        <v>3.7369863013698632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
         <v>19</v>
@@ -8011,8 +11037,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" s="5">
+        <f>Dati_OPTN!C35/365</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <f>Dati_OPTN!D35/365</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="5">
+        <f>Dati_OPTN!E35/365</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <f>Dati_OPTN!F35/365</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5">
+        <f>Dati_OPTN!G35/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="N12" s="5">
+        <f>Dati_OPTN!H35/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="O12" s="5">
+        <f>Dati_OPTN!I35/365</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="5">
+        <f>Dati_OPTN!J35/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="Q12" s="5">
+        <f>Dati_OPTN!K35/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="R12" s="25">
+        <f>Dati_OPTN!L35/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="S12" s="5">
+        <f>Dati_OPTN!M35/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>21</v>
@@ -8029,8 +11103,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>4.9482589459264335E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="5">
+        <f>Dati_OPTN!C36/365</f>
+        <v>1.0082191780821919</v>
+      </c>
+      <c r="J13" s="5">
+        <f>Dati_OPTN!D36/365</f>
+        <v>1.1013698630136985</v>
+      </c>
+      <c r="K13" s="5">
+        <f>Dati_OPTN!E36/365</f>
+        <v>1.2027397260273973</v>
+      </c>
+      <c r="L13" s="5">
+        <f>Dati_OPTN!F36/365</f>
+        <v>1.2931506849315069</v>
+      </c>
+      <c r="M13" s="5">
+        <f>Dati_OPTN!G36/365</f>
+        <v>1.3315068493150686</v>
+      </c>
+      <c r="N13" s="5">
+        <f>Dati_OPTN!H36/365</f>
+        <v>1.3863013698630138</v>
+      </c>
+      <c r="O13" s="5">
+        <f>Dati_OPTN!I36/365</f>
+        <v>1.3589041095890411</v>
+      </c>
+      <c r="P13" s="5">
+        <f>Dati_OPTN!J36/365</f>
+        <v>1.3835616438356164</v>
+      </c>
+      <c r="Q13" s="5">
+        <f>Dati_OPTN!K36/365</f>
+        <v>1.3643835616438356</v>
+      </c>
+      <c r="R13" s="25">
+        <f>Dati_OPTN!L36/365</f>
+        <v>1.4328767123287671</v>
+      </c>
+      <c r="S13" s="5">
+        <f>Dati_OPTN!M36/365</f>
+        <v>1.4684931506849315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
         <v>23</v>
@@ -8047,8 +11169,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0.26888935855436963</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="5">
+        <f>Dati_OPTN!C37/365</f>
+        <v>1.9068493150684931</v>
+      </c>
+      <c r="J14" s="5">
+        <f>Dati_OPTN!D37/365</f>
+        <v>2.0657534246575344</v>
+      </c>
+      <c r="K14" s="5">
+        <f>Dati_OPTN!E37/365</f>
+        <v>2.2849315068493152</v>
+      </c>
+      <c r="L14" s="5">
+        <f>Dati_OPTN!F37/365</f>
+        <v>2.5287671232876714</v>
+      </c>
+      <c r="M14" s="5">
+        <f>Dati_OPTN!G37/365</f>
+        <v>2.580821917808219</v>
+      </c>
+      <c r="N14" s="5">
+        <f>Dati_OPTN!H37/365</f>
+        <v>2.5753424657534247</v>
+      </c>
+      <c r="O14" s="5">
+        <f>Dati_OPTN!I37/365</f>
+        <v>2.4575342465753423</v>
+      </c>
+      <c r="P14" s="5">
+        <f>Dati_OPTN!J37/365</f>
+        <v>2.4054794520547946</v>
+      </c>
+      <c r="Q14" s="5">
+        <f>Dati_OPTN!K37/365</f>
+        <v>2.5534246575342467</v>
+      </c>
+      <c r="R14" s="25">
+        <f>Dati_OPTN!L37/365</f>
+        <v>2.2931506849315069</v>
+      </c>
+      <c r="S14" s="5">
+        <f>Dati_OPTN!M37/365</f>
+        <v>2.2958904109589042</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
@@ -8067,8 +11237,58 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0.12875783355030124</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="5">
+        <f>Dati_OPTN!C38/365</f>
+        <v>1.726027397260274</v>
+      </c>
+      <c r="J15" s="5">
+        <f>Dati_OPTN!D38/365</f>
+        <v>1.7780821917808218</v>
+      </c>
+      <c r="K15" s="5">
+        <f>Dati_OPTN!E38/365</f>
+        <v>1.9452054794520548</v>
+      </c>
+      <c r="L15" s="5">
+        <f>Dati_OPTN!F38/365</f>
+        <v>2.010958904109589</v>
+      </c>
+      <c r="M15" s="5">
+        <f>Dati_OPTN!G38/365</f>
+        <v>2.0876712328767124</v>
+      </c>
+      <c r="N15" s="5">
+        <f>Dati_OPTN!H38/365</f>
+        <v>2.1041095890410957</v>
+      </c>
+      <c r="O15" s="5">
+        <f>Dati_OPTN!I38/365</f>
+        <v>1.9534246575342467</v>
+      </c>
+      <c r="P15" s="5">
+        <f>Dati_OPTN!J38/365</f>
+        <v>1.9561643835616438</v>
+      </c>
+      <c r="Q15" s="5">
+        <f>Dati_OPTN!K38/365</f>
+        <v>2.106849315068493</v>
+      </c>
+      <c r="R15" s="5">
+        <f>Dati_OPTN!L38/365</f>
+        <v>2.0191780821917806</v>
+      </c>
+      <c r="S15" s="5">
+        <f>Dati_OPTN!M38/365</f>
+        <v>1.9643835616438357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="s">
         <v>19</v>
@@ -8085,8 +11305,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="5">
+        <f>Dati_OPTN!C39/365</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <f>Dati_OPTN!D39/365</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="5">
+        <f>Dati_OPTN!E39/365</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <f>Dati_OPTN!F39/365</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="5">
+        <f>Dati_OPTN!G39/365</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="5">
+        <f>Dati_OPTN!H39/365</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <f>Dati_OPTN!I39/365</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="5">
+        <f>Dati_OPTN!J39/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="Q16" s="5">
+        <f>Dati_OPTN!K39/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="R16" s="25">
+        <f>Dati_OPTN!L39/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="S16" s="5">
+        <f>Dati_OPTN!M39/365</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="s">
         <v>21</v>
@@ -8103,8 +11371,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>6.7452755280292209E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="5">
+        <f>Dati_OPTN!C40/365</f>
+        <v>0.73972602739726023</v>
+      </c>
+      <c r="J17" s="5">
+        <f>Dati_OPTN!D40/365</f>
+        <v>0.68767123287671228</v>
+      </c>
+      <c r="K17" s="5">
+        <f>Dati_OPTN!E40/365</f>
+        <v>0.77260273972602744</v>
+      </c>
+      <c r="L17" s="5">
+        <f>Dati_OPTN!F40/365</f>
+        <v>0.79726027397260268</v>
+      </c>
+      <c r="M17" s="5">
+        <f>Dati_OPTN!G40/365</f>
+        <v>0.77534246575342469</v>
+      </c>
+      <c r="N17" s="5">
+        <f>Dati_OPTN!H40/365</f>
+        <v>0.88219178082191785</v>
+      </c>
+      <c r="O17" s="5">
+        <f>Dati_OPTN!I40/365</f>
+        <v>0.76712328767123283</v>
+      </c>
+      <c r="P17" s="5">
+        <f>Dati_OPTN!J40/365</f>
+        <v>0.71780821917808224</v>
+      </c>
+      <c r="Q17" s="5">
+        <f>Dati_OPTN!K40/365</f>
+        <v>0.79726027397260268</v>
+      </c>
+      <c r="R17" s="25">
+        <f>Dati_OPTN!L40/365</f>
+        <v>0.88767123287671235</v>
+      </c>
+      <c r="S17" s="5">
+        <f>Dati_OPTN!M40/365</f>
+        <v>0.81917808219178079</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
         <v>23</v>
@@ -8121,12 +11437,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0.32548731151158516</v>
       </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="5">
+        <f>Dati_OPTN!C41/365</f>
+        <v>1.0465753424657533</v>
+      </c>
+      <c r="J18" s="5">
+        <f>Dati_OPTN!D41/365</f>
+        <v>1.1178082191780823</v>
+      </c>
+      <c r="K18" s="5">
+        <f>Dati_OPTN!E41/365</f>
+        <v>1.2191780821917808</v>
+      </c>
+      <c r="L18" s="5">
+        <f>Dati_OPTN!F41/365</f>
+        <v>1.2575342465753425</v>
+      </c>
+      <c r="M18" s="5">
+        <f>Dati_OPTN!G41/365</f>
+        <v>1.3534246575342466</v>
+      </c>
+      <c r="N18" s="5">
+        <f>Dati_OPTN!H41/365</f>
+        <v>1.2794520547945205</v>
+      </c>
+      <c r="O18" s="5">
+        <f>Dati_OPTN!I41/365</f>
+        <v>1.2246575342465753</v>
+      </c>
+      <c r="P18" s="5">
+        <f>Dati_OPTN!J41/365</f>
+        <v>1.2712328767123289</v>
+      </c>
+      <c r="Q18" s="5">
+        <f>Dati_OPTN!K41/365</f>
+        <v>1.3424657534246576</v>
+      </c>
+      <c r="R18" s="25">
+        <f>Dati_OPTN!L41/365</f>
+        <v>1.1561643835616437</v>
+      </c>
+      <c r="S18" s="5">
+        <f>Dati_OPTN!M41/365</f>
+        <v>1.178082191780822</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -8145,12 +11505,58 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>8.45835794447726E-2</v>
       </c>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I19" s="5">
+        <f>Dati_OPTN!C42/365</f>
+        <v>0.26301369863013696</v>
+      </c>
+      <c r="J19" s="5">
+        <f>Dati_OPTN!D42/365</f>
+        <v>0.27945205479452057</v>
+      </c>
+      <c r="K19" s="5">
+        <f>Dati_OPTN!E42/365</f>
+        <v>0.26849315068493151</v>
+      </c>
+      <c r="L19" s="5">
+        <f>Dati_OPTN!F42/365</f>
+        <v>0.38082191780821917</v>
+      </c>
+      <c r="M19" s="5">
+        <f>Dati_OPTN!G42/365</f>
+        <v>0.36986301369863012</v>
+      </c>
+      <c r="N19" s="5">
+        <f>Dati_OPTN!H42/365</f>
+        <v>0.4</v>
+      </c>
+      <c r="O19" s="5">
+        <f>Dati_OPTN!I42/365</f>
+        <v>0.35890410958904112</v>
+      </c>
+      <c r="P19" s="5">
+        <f>Dati_OPTN!J42/365</f>
+        <v>0.33972602739726027</v>
+      </c>
+      <c r="Q19" s="5">
+        <f>Dati_OPTN!K42/365</f>
+        <v>0.39178082191780822</v>
+      </c>
+      <c r="R19" s="5">
+        <f>Dati_OPTN!L42/365</f>
+        <v>0.46301369863013697</v>
+      </c>
+      <c r="S19" s="5">
+        <f>Dati_OPTN!M42/365</f>
+        <v>0.40821917808219177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>19</v>
@@ -8167,12 +11573,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0</v>
       </c>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I20" s="5">
+        <f>Dati_OPTN!C43/365</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="5">
+        <f>Dati_OPTN!D43/365</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="5">
+        <f>Dati_OPTN!E43/365</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="5">
+        <f>Dati_OPTN!F43/365</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="5">
+        <f>Dati_OPTN!G43/365</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="5">
+        <f>Dati_OPTN!H43/365</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="5">
+        <f>Dati_OPTN!I43/365</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="5">
+        <f>Dati_OPTN!J43/365</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>Dati_OPTN!K43/365</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="25">
+        <f>Dati_OPTN!L43/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="S20" s="5">
+        <f>Dati_OPTN!M43/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>21</v>
@@ -8189,12 +11639,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>3.662597114317425E-2</v>
       </c>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="5">
+        <f>Dati_OPTN!C44/365</f>
+        <v>9.3150684931506855E-2</v>
+      </c>
+      <c r="J21" s="5">
+        <f>Dati_OPTN!D44/365</f>
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="K21" s="5">
+        <f>Dati_OPTN!E44/365</f>
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="L21" s="5">
+        <f>Dati_OPTN!F44/365</f>
+        <v>0.11506849315068493</v>
+      </c>
+      <c r="M21" s="5">
+        <f>Dati_OPTN!G44/365</f>
+        <v>0.12054794520547946</v>
+      </c>
+      <c r="N21" s="5">
+        <f>Dati_OPTN!H44/365</f>
+        <v>0.12602739726027398</v>
+      </c>
+      <c r="O21" s="5">
+        <f>Dati_OPTN!I44/365</f>
+        <v>0.12328767123287671</v>
+      </c>
+      <c r="P21" s="5">
+        <f>Dati_OPTN!J44/365</f>
+        <v>0.11506849315068493</v>
+      </c>
+      <c r="Q21" s="5">
+        <f>Dati_OPTN!K44/365</f>
+        <v>0.13424657534246576</v>
+      </c>
+      <c r="R21" s="25">
+        <f>Dati_OPTN!L44/365</f>
+        <v>0.16986301369863013</v>
+      </c>
+      <c r="S21" s="5">
+        <f>Dati_OPTN!M44/365</f>
+        <v>0.15342465753424658</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
         <v>23</v>
@@ -8211,12 +11705,56 @@
         <f>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</f>
         <v>0.22087813620071686</v>
       </c>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
-      <c r="M22" s="6"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="5">
+        <f>Dati_OPTN!C45/365</f>
+        <v>0.18082191780821918</v>
+      </c>
+      <c r="J22" s="5">
+        <f>Dati_OPTN!D45/365</f>
+        <v>0.18356164383561643</v>
+      </c>
+      <c r="K22" s="5">
+        <f>Dati_OPTN!E45/365</f>
+        <v>0.18904109589041096</v>
+      </c>
+      <c r="L22" s="5">
+        <f>Dati_OPTN!F45/365</f>
+        <v>0.26849315068493151</v>
+      </c>
+      <c r="M22" s="5">
+        <f>Dati_OPTN!G45/365</f>
+        <v>0.25205479452054796</v>
+      </c>
+      <c r="N22" s="5">
+        <f>Dati_OPTN!H45/365</f>
+        <v>0.27671232876712326</v>
+      </c>
+      <c r="O22" s="5">
+        <f>Dati_OPTN!I45/365</f>
+        <v>0.24109589041095891</v>
+      </c>
+      <c r="P22" s="5">
+        <f>Dati_OPTN!J45/365</f>
+        <v>0.23013698630136986</v>
+      </c>
+      <c r="Q22" s="5">
+        <f>Dati_OPTN!K45/365</f>
+        <v>0.25753424657534246</v>
+      </c>
+      <c r="R22" s="25">
+        <f>Dati_OPTN!L45/365</f>
+        <v>0.29315068493150687</v>
+      </c>
+      <c r="S22" s="5">
+        <f>Dati_OPTN!M45/365</f>
+        <v>0.25479452054794521</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
@@ -8232,852 +11770,2207 @@
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="61" t="s">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <f>I3/J3</f>
+        <v>0.94368600682593851</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:Q24" si="0">J3/K3</f>
+        <v>0.9543973941368078</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0.91622255382647633</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>0.9781067556296914</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>1.0090469177361667</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="0"/>
+        <v>1.0316909051443457</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="0"/>
+        <v>0.99740203507252656</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="0"/>
+        <v>0.96571189629939369</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="0"/>
+        <v>1.0224454895254382</v>
+      </c>
+      <c r="S24">
+        <f>AVERAGE(I24:Q24)</f>
+        <v>0.97985666157742046</v>
+      </c>
+      <c r="T24">
+        <f>1-S24</f>
+        <v>2.0143338422579538E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <f t="shared" ref="I25:Q27" si="1">I4/J4</f>
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="1"/>
+        <v>0.44444444444444448</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+      <c r="S25">
+        <f t="shared" ref="S25:S27" si="2">AVERAGE(I25:Q25)</f>
+        <v>0.70493827160493838</v>
+      </c>
+      <c r="T25">
+        <f t="shared" ref="T25:T27" si="3">1-S25</f>
+        <v>0.29506172839506162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <f t="shared" si="1"/>
+        <v>0.97232704402515724</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="1"/>
+        <v>1.0018903591682418</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>0.91522491349480972</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0.98132427843803038</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0.94897959183673475</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="1"/>
+        <v>1.0443073471676949</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>1.0378346915017462</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="1"/>
+        <v>0.92965367965367973</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="1"/>
+        <v>0.95850622406639008</v>
+      </c>
+      <c r="S26">
+        <f t="shared" si="2"/>
+        <v>0.97667201437249829</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="3"/>
+        <v>2.3327985627501713E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <f t="shared" si="1"/>
+        <v>0.93584758942457236</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0.92219433488705627</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>0.9153265507056122</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0.98449111470113071</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>1.041736788959946</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="1"/>
+        <v>1.0269616315243693</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>0.97113125209801954</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="1"/>
+        <v>0.99002991026919229</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="1"/>
+        <v>1.0700568990042676</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="2"/>
+        <v>0.98419734128601855</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>1.5802658713981454E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="G29" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="82"/>
+      <c r="I29" s="82"/>
+      <c r="J29" s="82"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="82"/>
+      <c r="M29" s="82"/>
+      <c r="N29" s="82"/>
+      <c r="O29" s="82"/>
+      <c r="P29" s="82"/>
+      <c r="Q29" s="82"/>
+      <c r="R29" s="82"/>
+      <c r="S29" s="82"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B30" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="G30" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J30" t="s">
+        <v>5</v>
+      </c>
+      <c r="K30" t="s">
+        <v>6</v>
+      </c>
+      <c r="L30" t="s">
+        <v>7</v>
+      </c>
+      <c r="M30" t="s">
+        <v>8</v>
+      </c>
+      <c r="N30" t="s">
+        <v>9</v>
+      </c>
+      <c r="O30" t="s">
+        <v>10</v>
+      </c>
+      <c r="P30" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>12</v>
+      </c>
+      <c r="R30" t="s">
+        <v>13</v>
+      </c>
+      <c r="S30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C31" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q49:V49) &gt; Arrivi!C3, Arrivi!C3, AVERAGE(Dati_OPTN!Q49:V49))</f>
         <v>11046.5</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D31" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>30.264383561643836</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E31" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C3</f>
         <v>0.2984236617333868</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="G31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="5">
+        <f>Dati_OPTN!Q49/365</f>
+        <v>29.964383561643835</v>
+      </c>
+      <c r="J31" s="5">
+        <f>Dati_OPTN!R49/365</f>
+        <v>31.084931506849315</v>
+      </c>
+      <c r="K31" s="5">
+        <f>Dati_OPTN!S49/365</f>
+        <v>31.942465753424656</v>
+      </c>
+      <c r="L31" s="5">
+        <f>Dati_OPTN!T49/365</f>
+        <v>31.517808219178082</v>
+      </c>
+      <c r="M31" s="5">
+        <f>Dati_OPTN!U49/365</f>
+        <v>30.931506849315067</v>
+      </c>
+      <c r="N31" s="5">
+        <f>Dati_OPTN!V49/365</f>
+        <v>26.145205479452056</v>
+      </c>
+      <c r="O31" s="5">
+        <f>Dati_OPTN!W49/365</f>
+        <v>23.063013698630137</v>
+      </c>
+      <c r="P31" s="5">
+        <f>Dati_OPTN!X49/365</f>
+        <v>21.257534246575343</v>
+      </c>
+      <c r="Q31" s="5">
+        <f>Dati_OPTN!Y49/365</f>
+        <v>19.468493150684932</v>
+      </c>
+      <c r="R31" s="5">
+        <f>Dati_OPTN!Z49/365</f>
+        <v>17.052054794520547</v>
+      </c>
+      <c r="S31" s="5">
+        <f>Dati_OPTN!AA49/365</f>
+        <v>15.306849315068494</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C32" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q50:V50) &gt; Arrivi!C4, Arrivi!C4, AVERAGE(Dati_OPTN!Q50:V50))</f>
         <v>3.3333333333333335</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D32" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>9.1324200913242021E-3</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E32" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C4</f>
         <v>8.9285714285714288E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1" t="s">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I32" s="5">
+        <f>Dati_OPTN!Q50/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="J32" s="5">
+        <f>Dati_OPTN!R50/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="K32" s="5">
+        <f>Dati_OPTN!S50/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="L32" s="5">
+        <f>Dati_OPTN!T50/365</f>
+        <v>2.1917808219178082E-2</v>
+      </c>
+      <c r="M32" s="5">
+        <f>Dati_OPTN!U50/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="N32" s="5">
+        <f>Dati_OPTN!V50/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="O32" s="5">
+        <f>Dati_OPTN!W50/365</f>
+        <v>1.0958904109589041E-2</v>
+      </c>
+      <c r="P32" s="5">
+        <f>Dati_OPTN!X50/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="Q32" s="5">
+        <f>Dati_OPTN!Y50/365</f>
+        <v>2.1917808219178082E-2</v>
+      </c>
+      <c r="R32" s="5">
+        <f>Dati_OPTN!Z50/365</f>
+        <v>2.4657534246575342E-2</v>
+      </c>
+      <c r="S32" s="5">
+        <f>Dati_OPTN!AA50/365</f>
+        <v>3.287671232876712E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C33" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q51:V51) &gt; Arrivi!C5, Arrivi!C5, AVERAGE(Dati_OPTN!Q51:V51))</f>
         <v>2905.8333333333335</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D33" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>7.961187214611873</v>
       </c>
-      <c r="E28" s="5">
+      <c r="E33" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C5</f>
         <v>0.10376185063292646</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="5">
+        <f>Dati_OPTN!Q51/365</f>
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J33" s="5">
+        <f>Dati_OPTN!R51/365</f>
+        <v>7.9972602739726026</v>
+      </c>
+      <c r="K33" s="5">
+        <f>Dati_OPTN!S51/365</f>
+        <v>8.24931506849315</v>
+      </c>
+      <c r="L33" s="5">
+        <f>Dati_OPTN!T51/365</f>
+        <v>7.7835616438356166</v>
+      </c>
+      <c r="M33" s="5">
+        <f>Dati_OPTN!U51/365</f>
+        <v>8.3095890410958901</v>
+      </c>
+      <c r="N33" s="5">
+        <f>Dati_OPTN!V51/365</f>
+        <v>7.2273972602739729</v>
+      </c>
+      <c r="O33" s="5">
+        <f>Dati_OPTN!W51/365</f>
+        <v>7.4219178082191783</v>
+      </c>
+      <c r="P33" s="5">
+        <f>Dati_OPTN!X51/365</f>
+        <v>6.8794520547945206</v>
+      </c>
+      <c r="Q33" s="5">
+        <f>Dati_OPTN!Y51/365</f>
+        <v>6.9095890410958907</v>
+      </c>
+      <c r="R33" s="5">
+        <f>Dati_OPTN!Z51/365</f>
+        <v>6.7698630136986298</v>
+      </c>
+      <c r="S33" s="5">
+        <f>Dati_OPTN!AA51/365</f>
+        <v>6.5890410958904111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C34" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q52:V52) &gt; Arrivi!C6, Arrivi!C6, AVERAGE(Dati_OPTN!Q52:V52))</f>
         <v>9278.6666666666661</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D34" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>25.421004566210044</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E34" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C6</f>
         <v>0.99228232777827274</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="5">
+        <f>Dati_OPTN!Q52/365</f>
+        <v>25.027397260273972</v>
+      </c>
+      <c r="J34" s="5">
+        <f>Dati_OPTN!R52/365</f>
+        <v>26.2</v>
+      </c>
+      <c r="K34" s="5">
+        <f>Dati_OPTN!S52/365</f>
+        <v>26.695890410958903</v>
+      </c>
+      <c r="L34" s="5">
+        <f>Dati_OPTN!T52/365</f>
+        <v>26.720547945205478</v>
+      </c>
+      <c r="M34" s="5">
+        <f>Dati_OPTN!U52/365</f>
+        <v>25.643835616438356</v>
+      </c>
+      <c r="N34" s="5">
+        <f>Dati_OPTN!V52/365</f>
+        <v>22.238356164383561</v>
+      </c>
+      <c r="O34" s="5">
+        <f>Dati_OPTN!W52/365</f>
+        <v>19.427397260273974</v>
+      </c>
+      <c r="P34" s="5">
+        <f>Dati_OPTN!X52/365</f>
+        <v>18.098630136986301</v>
+      </c>
+      <c r="Q34" s="5">
+        <f>Dati_OPTN!Y52/365</f>
+        <v>16.484931506849314</v>
+      </c>
+      <c r="R34" s="5">
+        <f>Dati_OPTN!Z52/365</f>
+        <v>14.742465753424657</v>
+      </c>
+      <c r="S34" s="5">
+        <f>Dati_OPTN!AA52/365</f>
+        <v>13.610958904109589</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C35" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q53:V53) &gt; Arrivi!C7, Arrivi!C7, AVERAGE(Dati_OPTN!Q53:V53))</f>
         <v>5731.833333333333</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D35" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>15.703652968036529</v>
       </c>
-      <c r="E30" s="5">
+      <c r="E35" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C7</f>
         <v>0.31748859880725983</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
+      <c r="G35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="5">
+        <f>Dati_OPTN!Q53/365</f>
+        <v>15.654794520547945</v>
+      </c>
+      <c r="J35" s="5">
+        <f>Dati_OPTN!R53/365</f>
+        <v>16.126027397260273</v>
+      </c>
+      <c r="K35" s="5">
+        <f>Dati_OPTN!S53/365</f>
+        <v>16.55890410958904</v>
+      </c>
+      <c r="L35" s="5">
+        <f>Dati_OPTN!T53/365</f>
+        <v>16.339726027397262</v>
+      </c>
+      <c r="M35" s="5">
+        <f>Dati_OPTN!U53/365</f>
+        <v>15.945205479452055</v>
+      </c>
+      <c r="N35" s="5">
+        <f>Dati_OPTN!V53/365</f>
+        <v>13.597260273972603</v>
+      </c>
+      <c r="O35" s="5">
+        <f>Dati_OPTN!W53/365</f>
+        <v>11.816438356164383</v>
+      </c>
+      <c r="P35" s="5">
+        <f>Dati_OPTN!X53/365</f>
+        <v>10.972602739726028</v>
+      </c>
+      <c r="Q35" s="5">
+        <f>Dati_OPTN!Y53/365</f>
+        <v>9.9780821917808211</v>
+      </c>
+      <c r="R35" s="5">
+        <f>Dati_OPTN!Z53/365</f>
+        <v>9.0547945205479454</v>
+      </c>
+      <c r="S35" s="5">
+        <f>Dati_OPTN!AA53/365</f>
+        <v>8.2356164383561641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C36" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q54:V54) &gt; Arrivi!C8, Arrivi!C8, AVERAGE(Dati_OPTN!Q54:V54))</f>
         <v>2.3333333333333335</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D36" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>6.392694063926941E-3</v>
       </c>
-      <c r="E31" s="5">
+      <c r="E36" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C8</f>
         <v>0.12280701754385966</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I36" s="5">
+        <f>Dati_OPTN!Q54/365</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="5">
+        <f>Dati_OPTN!R54/365</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="5">
+        <f>Dati_OPTN!S54/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="L36" s="5">
+        <f>Dati_OPTN!T54/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="M36" s="5">
+        <f>Dati_OPTN!U54/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="N36" s="5">
+        <f>Dati_OPTN!V54/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="O36" s="5">
+        <f>Dati_OPTN!W54/365</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="5">
+        <f>Dati_OPTN!X54/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="Q36" s="5">
+        <f>Dati_OPTN!Y54/365</f>
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="R36" s="25">
+        <f>Dati_OPTN!Z54/365</f>
+        <v>1.0958904109589041E-2</v>
+      </c>
+      <c r="S36" s="5">
+        <f>Dati_OPTN!AA54/365</f>
+        <v>2.7397260273972601E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C37" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q55:V55) &gt; Arrivi!C9, Arrivi!C9, AVERAGE(Dati_OPTN!Q55:V55))</f>
         <v>1521.5</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D37" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>4.1684931506849319</v>
       </c>
-      <c r="E32" s="5">
+      <c r="E37" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C9</f>
         <v>0.11062772661173048</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1" t="s">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I37" s="5">
+        <f>Dati_OPTN!Q55/365</f>
+        <v>4.2849315068493148</v>
+      </c>
+      <c r="J37" s="5">
+        <f>Dati_OPTN!R55/365</f>
+        <v>4.1589041095890407</v>
+      </c>
+      <c r="K37" s="5">
+        <f>Dati_OPTN!S55/365</f>
+        <v>4.2904109589041095</v>
+      </c>
+      <c r="L37" s="5">
+        <f>Dati_OPTN!T55/365</f>
+        <v>4.0904109589041093</v>
+      </c>
+      <c r="M37" s="5">
+        <f>Dati_OPTN!U55/365</f>
+        <v>4.3315068493150681</v>
+      </c>
+      <c r="N37" s="5">
+        <f>Dati_OPTN!V55/365</f>
+        <v>3.8547945205479452</v>
+      </c>
+      <c r="O37" s="5">
+        <f>Dati_OPTN!W55/365</f>
+        <v>3.7260273972602738</v>
+      </c>
+      <c r="P37" s="5">
+        <f>Dati_OPTN!X55/365</f>
+        <v>3.580821917808219</v>
+      </c>
+      <c r="Q37" s="5">
+        <f>Dati_OPTN!Y55/365</f>
+        <v>3.5561643835616437</v>
+      </c>
+      <c r="R37" s="25">
+        <f>Dati_OPTN!Z55/365</f>
+        <v>3.5643835616438357</v>
+      </c>
+      <c r="S37" s="5">
+        <f>Dati_OPTN!AA55/365</f>
+        <v>3.3397260273972602</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C38" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q56:V56) &gt; Arrivi!C10, Arrivi!C10, AVERAGE(Dati_OPTN!Q56:V56))</f>
         <v>4465</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D38" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>12.232876712328768</v>
       </c>
-      <c r="E33" s="5">
+      <c r="E38" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C10</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="5">
+        <f>Dati_OPTN!Q56/365</f>
+        <v>12.975342465753425</v>
+      </c>
+      <c r="J38" s="5">
+        <f>Dati_OPTN!R56/365</f>
+        <v>13.493150684931507</v>
+      </c>
+      <c r="K38" s="5">
+        <f>Dati_OPTN!S56/365</f>
+        <v>13.72054794520548</v>
+      </c>
+      <c r="L38" s="5">
+        <f>Dati_OPTN!T56/365</f>
+        <v>13.695890410958905</v>
+      </c>
+      <c r="M38" s="5">
+        <f>Dati_OPTN!U56/365</f>
+        <v>13.027397260273972</v>
+      </c>
+      <c r="N38" s="5">
+        <f>Dati_OPTN!V56/365</f>
+        <v>11.347945205479451</v>
+      </c>
+      <c r="O38" s="5">
+        <f>Dati_OPTN!W56/365</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="P38" s="5">
+        <f>Dati_OPTN!X56/365</f>
+        <v>9.0657534246575349</v>
+      </c>
+      <c r="Q38" s="5">
+        <f>Dati_OPTN!Y56/365</f>
+        <v>8.2547945205479447</v>
+      </c>
+      <c r="R38" s="25">
+        <f>Dati_OPTN!Z56/365</f>
+        <v>7.5534246575342463</v>
+      </c>
+      <c r="S38" s="5">
+        <f>Dati_OPTN!AA56/365</f>
+        <v>7.0575342465753428</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C39" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q57:V57) &gt; Arrivi!C11, Arrivi!C11, AVERAGE(Dati_OPTN!Q57:V57))</f>
         <v>3254.1666666666665</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D39" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>8.9155251141552512</v>
       </c>
-      <c r="E34" s="5">
+      <c r="E39" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C11</f>
         <v>0.27011883845440837</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
+      <c r="G39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="5">
+        <f>Dati_OPTN!Q57/365</f>
+        <v>8.6547945205479451</v>
+      </c>
+      <c r="J39" s="5">
+        <f>Dati_OPTN!R57/365</f>
+        <v>9.161643835616438</v>
+      </c>
+      <c r="K39" s="5">
+        <f>Dati_OPTN!S57/365</f>
+        <v>9.3178082191780813</v>
+      </c>
+      <c r="L39" s="5">
+        <f>Dati_OPTN!T57/365</f>
+        <v>9.4328767123287669</v>
+      </c>
+      <c r="M39" s="5">
+        <f>Dati_OPTN!U57/365</f>
+        <v>9.1068493150684926</v>
+      </c>
+      <c r="N39" s="5">
+        <f>Dati_OPTN!V57/365</f>
+        <v>7.8191780821917805</v>
+      </c>
+      <c r="O39" s="5">
+        <f>Dati_OPTN!W57/365</f>
+        <v>6.8</v>
+      </c>
+      <c r="P39" s="5">
+        <f>Dati_OPTN!X57/365</f>
+        <v>6.2767123287671236</v>
+      </c>
+      <c r="Q39" s="5">
+        <f>Dati_OPTN!Y57/365</f>
+        <v>5.7698630136986298</v>
+      </c>
+      <c r="R39" s="5">
+        <f>Dati_OPTN!Z57/365</f>
+        <v>4.8082191780821919</v>
+      </c>
+      <c r="S39" s="5">
+        <f>Dati_OPTN!AA57/365</f>
+        <v>4.2356164383561641</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C40" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q58:V58) &gt; Arrivi!C12, Arrivi!C12, AVERAGE(Dati_OPTN!Q58:V58))</f>
         <v>0.5</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D40" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="E35" s="5">
+      <c r="E40" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C12</f>
         <v>4.6875E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I40" s="5">
+        <f>Dati_OPTN!Q58/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="J40" s="5">
+        <f>Dati_OPTN!R58/365</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="5">
+        <f>Dati_OPTN!S58/365</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="5">
+        <f>Dati_OPTN!T58/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="M40" s="5">
+        <f>Dati_OPTN!U58/365</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="5">
+        <f>Dati_OPTN!V58/365</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="5">
+        <f>Dati_OPTN!W58/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="P40" s="5">
+        <f>Dati_OPTN!X58/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="Q40" s="5">
+        <f>Dati_OPTN!Y58/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="R40" s="25">
+        <f>Dati_OPTN!Z58/365</f>
+        <v>8.21917808219178E-3</v>
+      </c>
+      <c r="S40" s="5">
+        <f>Dati_OPTN!AA58/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C41" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q59:V59) &gt; Arrivi!C13, Arrivi!C13, AVERAGE(Dati_OPTN!Q59:V59))</f>
         <v>853.33333333333337</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D41" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>2.3378995433789957</v>
       </c>
-      <c r="E36" s="5">
+      <c r="E41" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C13</f>
         <v>9.4781465780558696E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I41" s="5">
+        <f>Dati_OPTN!Q59/365</f>
+        <v>2.3671232876712329</v>
+      </c>
+      <c r="J41" s="5">
+        <f>Dati_OPTN!R59/365</f>
+        <v>2.3013698630136985</v>
+      </c>
+      <c r="K41" s="5">
+        <f>Dati_OPTN!S59/365</f>
+        <v>2.5123287671232877</v>
+      </c>
+      <c r="L41" s="5">
+        <f>Dati_OPTN!T59/365</f>
+        <v>2.3205479452054796</v>
+      </c>
+      <c r="M41" s="5">
+        <f>Dati_OPTN!U59/365</f>
+        <v>2.3068493150684932</v>
+      </c>
+      <c r="N41" s="5">
+        <f>Dati_OPTN!V59/365</f>
+        <v>2.2191780821917808</v>
+      </c>
+      <c r="O41" s="5">
+        <f>Dati_OPTN!W59/365</f>
+        <v>2.2876712328767121</v>
+      </c>
+      <c r="P41" s="5">
+        <f>Dati_OPTN!X59/365</f>
+        <v>2.0712328767123287</v>
+      </c>
+      <c r="Q41" s="5">
+        <f>Dati_OPTN!Y59/365</f>
+        <v>2.0794520547945203</v>
+      </c>
+      <c r="R41" s="25">
+        <f>Dati_OPTN!Z59/365</f>
+        <v>1.9643835616438357</v>
+      </c>
+      <c r="S41" s="5">
+        <f>Dati_OPTN!AA59/365</f>
+        <v>2.0520547945205481</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C42" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q60:V60) &gt; Arrivi!C14, Arrivi!C14, AVERAGE(Dati_OPTN!Q60:V60))</f>
         <v>2782.5</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D42" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>7.6232876712328768</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E42" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C14</f>
         <v>0.88211983514741621</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="5">
+        <f>Dati_OPTN!Q60/365</f>
+        <v>7.3150684931506849</v>
+      </c>
+      <c r="J42" s="5">
+        <f>Dati_OPTN!R60/365</f>
+        <v>7.8684931506849312</v>
+      </c>
+      <c r="K42" s="5">
+        <f>Dati_OPTN!S60/365</f>
+        <v>7.7835616438356166</v>
+      </c>
+      <c r="L42" s="5">
+        <f>Dati_OPTN!T60/365</f>
+        <v>8.1260273972602732</v>
+      </c>
+      <c r="M42" s="5">
+        <f>Dati_OPTN!U60/365</f>
+        <v>7.8410958904109593</v>
+      </c>
+      <c r="N42" s="5">
+        <f>Dati_OPTN!V60/365</f>
+        <v>6.8054794520547945</v>
+      </c>
+      <c r="O42" s="5">
+        <f>Dati_OPTN!W60/365</f>
+        <v>5.9013698630136986</v>
+      </c>
+      <c r="P42" s="5">
+        <f>Dati_OPTN!X60/365</f>
+        <v>5.5561643835616437</v>
+      </c>
+      <c r="Q42" s="5">
+        <f>Dati_OPTN!Y60/365</f>
+        <v>5.183561643835616</v>
+      </c>
+      <c r="R42" s="25">
+        <f>Dati_OPTN!Z60/365</f>
+        <v>4.5041095890410956</v>
+      </c>
+      <c r="S42" s="5">
+        <f>Dati_OPTN!AA60/365</f>
+        <v>4.0931506849315067</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C43" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q61:V61) &gt; Arrivi!C15, Arrivi!C15, AVERAGE(Dati_OPTN!Q61:V61))</f>
         <v>1750.8333333333333</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D43" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>4.7968036529680367</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E43" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C15</f>
         <v>0.31803457358239229</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1" t="s">
+      <c r="G43" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" s="5">
+        <f>Dati_OPTN!Q61/365</f>
+        <v>4.9068493150684933</v>
+      </c>
+      <c r="J43" s="5">
+        <f>Dati_OPTN!R61/365</f>
+        <v>4.9287671232876713</v>
+      </c>
+      <c r="K43" s="5">
+        <f>Dati_OPTN!S61/365</f>
+        <v>5.117808219178082</v>
+      </c>
+      <c r="L43" s="5">
+        <f>Dati_OPTN!T61/365</f>
+        <v>4.8712328767123285</v>
+      </c>
+      <c r="M43" s="5">
+        <f>Dati_OPTN!U61/365</f>
+        <v>4.9698630136986299</v>
+      </c>
+      <c r="N43" s="5">
+        <f>Dati_OPTN!V61/365</f>
+        <v>3.9863013698630136</v>
+      </c>
+      <c r="O43" s="5">
+        <f>Dati_OPTN!W61/365</f>
+        <v>3.7232876712328768</v>
+      </c>
+      <c r="P43" s="5">
+        <f>Dati_OPTN!X61/365</f>
+        <v>3.408219178082192</v>
+      </c>
+      <c r="Q43" s="5">
+        <f>Dati_OPTN!Y61/365</f>
+        <v>3.1589041095890411</v>
+      </c>
+      <c r="R43" s="5">
+        <f>Dati_OPTN!Z61/365</f>
+        <v>2.7616438356164386</v>
+      </c>
+      <c r="S43" s="5">
+        <f>Dati_OPTN!AA61/365</f>
+        <v>2.473972602739726</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C44" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q62:V62) &gt; Arrivi!C16, Arrivi!C16, AVERAGE(Dati_OPTN!Q62:V62))</f>
         <v>0</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D44" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E44" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C16</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1" t="s">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I44" s="5">
+        <f>Dati_OPTN!Q62/365</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="5">
+        <f>Dati_OPTN!R62/365</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="5">
+        <f>Dati_OPTN!S62/365</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="5">
+        <f>Dati_OPTN!T62/365</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="5">
+        <f>Dati_OPTN!U62/365</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="5">
+        <f>Dati_OPTN!V62/365</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="5">
+        <f>Dati_OPTN!W62/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="P44" s="5">
+        <f>Dati_OPTN!X62/365</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="5">
+        <f>Dati_OPTN!Y62/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="R44" s="25">
+        <f>Dati_OPTN!Z62/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="S44" s="5">
+        <f>Dati_OPTN!AA62/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C45" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q63:V63) &gt; Arrivi!C17, Arrivi!C17, AVERAGE(Dati_OPTN!Q63:V63))</f>
         <v>454</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D45" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.2438356164383562</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E45" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C17</f>
         <v>0.1081467365412101</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1" t="s">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I45" s="5">
+        <f>Dati_OPTN!Q63/365</f>
+        <v>1.3095890410958904</v>
+      </c>
+      <c r="J45" s="5">
+        <f>Dati_OPTN!R63/365</f>
+        <v>1.3095890410958904</v>
+      </c>
+      <c r="K45" s="5">
+        <f>Dati_OPTN!S63/365</f>
+        <v>1.252054794520548</v>
+      </c>
+      <c r="L45" s="5">
+        <f>Dati_OPTN!T63/365</f>
+        <v>1.1753424657534246</v>
+      </c>
+      <c r="M45" s="5">
+        <f>Dati_OPTN!U63/365</f>
+        <v>1.4383561643835616</v>
+      </c>
+      <c r="N45" s="5">
+        <f>Dati_OPTN!V63/365</f>
+        <v>0.9780821917808219</v>
+      </c>
+      <c r="O45" s="5">
+        <f>Dati_OPTN!W63/365</f>
+        <v>1.2027397260273973</v>
+      </c>
+      <c r="P45" s="5">
+        <f>Dati_OPTN!X63/365</f>
+        <v>1.0410958904109588</v>
+      </c>
+      <c r="Q45" s="5">
+        <f>Dati_OPTN!Y63/365</f>
+        <v>1.0547945205479452</v>
+      </c>
+      <c r="R45" s="25">
+        <f>Dati_OPTN!Z63/365</f>
+        <v>1.0383561643835617</v>
+      </c>
+      <c r="S45" s="5">
+        <f>Dati_OPTN!AA63/365</f>
+        <v>1.0191780821917809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C46" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q64:V64) &gt; Arrivi!C18, Arrivi!C18, AVERAGE(Dati_OPTN!Q64:V64))</f>
         <v>1359.5</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D46" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>3.7246575342465755</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E46" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C18</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="5">
+        <f>Dati_OPTN!Q64/365</f>
+        <v>4.1041095890410961</v>
+      </c>
+      <c r="J46" s="5">
+        <f>Dati_OPTN!R64/365</f>
+        <v>4.1068493150684935</v>
+      </c>
+      <c r="K46" s="5">
+        <f>Dati_OPTN!S64/365</f>
+        <v>4.3397260273972602</v>
+      </c>
+      <c r="L46" s="5">
+        <f>Dati_OPTN!T64/365</f>
+        <v>4.0986301369863014</v>
+      </c>
+      <c r="M46" s="5">
+        <f>Dati_OPTN!U64/365</f>
+        <v>3.9726027397260273</v>
+      </c>
+      <c r="N46" s="5">
+        <f>Dati_OPTN!V64/365</f>
+        <v>3.3726027397260272</v>
+      </c>
+      <c r="O46" s="5">
+        <f>Dati_OPTN!W64/365</f>
+        <v>3.0575342465753423</v>
+      </c>
+      <c r="P46" s="5">
+        <f>Dati_OPTN!X64/365</f>
+        <v>2.893150684931507</v>
+      </c>
+      <c r="Q46" s="5">
+        <f>Dati_OPTN!Y64/365</f>
+        <v>2.5753424657534247</v>
+      </c>
+      <c r="R46" s="25">
+        <f>Dati_OPTN!Z64/365</f>
+        <v>2.3150684931506849</v>
+      </c>
+      <c r="S46" s="5">
+        <f>Dati_OPTN!AA64/365</f>
+        <v>2.0575342465753423</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C47" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q65:V65) &gt; Arrivi!C19, Arrivi!C19, AVERAGE(Dati_OPTN!Q65:V65))</f>
         <v>309.83333333333331</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D47" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.84885844748858441</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E47" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C19</f>
         <v>0.21961015948021265</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1" t="s">
+      <c r="F47" s="5"/>
+      <c r="G47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="5">
+        <f>Dati_OPTN!Q65/365</f>
+        <v>0.74794520547945209</v>
+      </c>
+      <c r="J47" s="5">
+        <f>Dati_OPTN!R65/365</f>
+        <v>0.87123287671232874</v>
+      </c>
+      <c r="K47" s="5">
+        <f>Dati_OPTN!S65/365</f>
+        <v>0.94794520547945205</v>
+      </c>
+      <c r="L47" s="5">
+        <f>Dati_OPTN!T65/365</f>
+        <v>0.87397260273972599</v>
+      </c>
+      <c r="M47" s="5">
+        <f>Dati_OPTN!U65/365</f>
+        <v>0.90958904109589045</v>
+      </c>
+      <c r="N47" s="5">
+        <f>Dati_OPTN!V65/365</f>
+        <v>0.74246575342465748</v>
+      </c>
+      <c r="O47" s="5">
+        <f>Dati_OPTN!W65/365</f>
+        <v>0.72328767123287674</v>
+      </c>
+      <c r="P47" s="5">
+        <f>Dati_OPTN!X65/365</f>
+        <v>0.60273972602739723</v>
+      </c>
+      <c r="Q47" s="5">
+        <f>Dati_OPTN!Y65/365</f>
+        <v>0.56712328767123288</v>
+      </c>
+      <c r="R47" s="5">
+        <f>Dati_OPTN!Z65/365</f>
+        <v>0.42739726027397262</v>
+      </c>
+      <c r="S47" s="5">
+        <f>Dati_OPTN!AA65/365</f>
+        <v>0.36164383561643837</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C48" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q66:V66) &gt; Arrivi!C20, Arrivi!C20, AVERAGE(Dati_OPTN!Q66:V66))</f>
         <v>0.5</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D48" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="E43" s="5">
+      <c r="E48" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C20</f>
         <v>0.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1" t="s">
+      <c r="F48" s="5"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I48" s="5">
+        <f>Dati_OPTN!Q66/365</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="5">
+        <f>Dati_OPTN!R66/365</f>
+        <v>2.7397260273972603E-3</v>
+      </c>
+      <c r="K48" s="5">
+        <f>Dati_OPTN!S66/365</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="5">
+        <f>Dati_OPTN!T66/365</f>
+        <v>5.4794520547945206E-3</v>
+      </c>
+      <c r="M48" s="5">
+        <f>Dati_OPTN!U66/365</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="5">
+        <f>Dati_OPTN!V66/365</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="5">
+        <f>Dati_OPTN!W66/365</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="5">
+        <f>Dati_OPTN!X66/365</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="5">
+        <f>Dati_OPTN!Y66/365</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="25">
+        <f>Dati_OPTN!Z66/365</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="5">
+        <f>Dati_OPTN!AA66/365</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C49" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q67:V67) &gt; Arrivi!C21, Arrivi!C21, AVERAGE(Dati_OPTN!Q67:V67))</f>
         <v>77</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D49" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.21095890410958903</v>
       </c>
-      <c r="E44" s="5">
+      <c r="E49" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C21</f>
         <v>7.3251942286348501E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1" t="s">
+      <c r="F49" s="5"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I49" s="5">
+        <f>Dati_OPTN!Q67/365</f>
+        <v>0.23835616438356164</v>
+      </c>
+      <c r="J49" s="5">
+        <f>Dati_OPTN!R67/365</f>
+        <v>0.22739726027397261</v>
+      </c>
+      <c r="K49" s="5">
+        <f>Dati_OPTN!S67/365</f>
+        <v>0.19452054794520549</v>
+      </c>
+      <c r="L49" s="5">
+        <f>Dati_OPTN!T67/365</f>
+        <v>0.19726027397260273</v>
+      </c>
+      <c r="M49" s="5">
+        <f>Dati_OPTN!U67/365</f>
+        <v>0.23287671232876711</v>
+      </c>
+      <c r="N49" s="5">
+        <f>Dati_OPTN!V67/365</f>
+        <v>0.17534246575342466</v>
+      </c>
+      <c r="O49" s="5">
+        <f>Dati_OPTN!W67/365</f>
+        <v>0.20547945205479451</v>
+      </c>
+      <c r="P49" s="5">
+        <f>Dati_OPTN!X67/365</f>
+        <v>0.18630136986301371</v>
+      </c>
+      <c r="Q49" s="5">
+        <f>Dati_OPTN!Y67/365</f>
+        <v>0.22465753424657534</v>
+      </c>
+      <c r="R49" s="25">
+        <f>Dati_OPTN!Z67/365</f>
+        <v>0.20273972602739726</v>
+      </c>
+      <c r="S49" s="5">
+        <f>Dati_OPTN!AA67/365</f>
+        <v>0.17808219178082191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C50" s="5">
         <f>IF(AVERAGE(Dati_OPTN!Q68:V68) &gt; Arrivi!C22, Arrivi!C22, AVERAGE(Dati_OPTN!Q68:V68))</f>
         <v>275.83333333333331</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D50" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/365</f>
         <v>0.75570776255707761</v>
       </c>
-      <c r="E45" s="5">
+      <c r="E50" s="5">
         <f>Tabella511[[#This Row],[r/anno (2014-2019)]]/Arrivi!C22</f>
         <v>0.74148745519713255</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="6"/>
-      <c r="L46" s="6"/>
-      <c r="M46" s="6"/>
-      <c r="N46" s="6"/>
-      <c r="O46" s="6"/>
-    </row>
-    <row r="47" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-    </row>
-    <row r="48" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="62" t="s">
+      <c r="G50" s="1"/>
+      <c r="H50" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="5">
+        <f>Dati_OPTN!Q68/365</f>
+        <v>0.63287671232876708</v>
+      </c>
+      <c r="J50" s="5">
+        <f>Dati_OPTN!R68/365</f>
+        <v>0.73424657534246573</v>
+      </c>
+      <c r="K50" s="5">
+        <f>Dati_OPTN!S68/365</f>
+        <v>0.852054794520548</v>
+      </c>
+      <c r="L50" s="5">
+        <f>Dati_OPTN!T68/365</f>
+        <v>0.8</v>
+      </c>
+      <c r="M50" s="5">
+        <f>Dati_OPTN!U68/365</f>
+        <v>0.80273972602739729</v>
+      </c>
+      <c r="N50" s="5">
+        <f>Dati_OPTN!V68/365</f>
+        <v>0.71232876712328763</v>
+      </c>
+      <c r="O50" s="5">
+        <f>Dati_OPTN!W68/365</f>
+        <v>0.66849315068493154</v>
+      </c>
+      <c r="P50" s="5">
+        <f>Dati_OPTN!X68/365</f>
+        <v>0.58356164383561648</v>
+      </c>
+      <c r="Q50" s="5">
+        <f>Dati_OPTN!Y68/365</f>
+        <v>0.47123287671232877</v>
+      </c>
+      <c r="R50" s="25">
+        <f>Dati_OPTN!Z68/365</f>
+        <v>0.36986301369863012</v>
+      </c>
+      <c r="S50" s="5">
+        <f>Dati_OPTN!AA68/365</f>
+        <v>0.40273972602739727</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="6"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="6"/>
+      <c r="N51" s="6"/>
+      <c r="O51" s="6"/>
+    </row>
+    <row r="52" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="I52">
+        <f>I31/J31</f>
+        <v>0.96395205358716729</v>
+      </c>
+      <c r="J52">
+        <f t="shared" ref="J52:Q52" si="4">J31/K31</f>
+        <v>0.97315378677416597</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="4"/>
+        <v>1.0134735744089012</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="4"/>
+        <v>1.0189548272807796</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="4"/>
+        <v>1.1830661217646441</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="4"/>
+        <v>1.1336421952957947</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="4"/>
+        <v>1.0849336254671993</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="4"/>
+        <v>1.0918941739375176</v>
+      </c>
+      <c r="Q52">
+        <f t="shared" si="4"/>
+        <v>1.1417095115681235</v>
+      </c>
+      <c r="S52">
+        <f>AVERAGE(I52:Q52)</f>
+        <v>1.0671977633426992</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="64"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="68"/>
+      <c r="I53">
+        <f t="shared" ref="I53:Q53" si="5">I32/J32</f>
         <v>2</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="J53">
+        <f t="shared" si="5"/>
+        <v>0.5</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="5"/>
+        <v>0.4</v>
+      </c>
+      <c r="N53">
+        <v>0</v>
+      </c>
+      <c r="O53">
+        <f t="shared" ref="O53:S53" si="6">O32/P32</f>
+        <v>1.3333333333333335</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="6"/>
+        <v>0.37499999999999994</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" si="6"/>
+        <v>0.88888888888888895</v>
+      </c>
+      <c r="S53">
+        <f t="shared" ref="S53:S55" si="7">AVERAGE(I53:Q53)</f>
+        <v>1.0830246913580248</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C54" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E54" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="I54">
+        <f t="shared" ref="I54:Q54" si="8">I33/J33</f>
+        <v>1.0253511476533059</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="8"/>
+        <v>0.96944536698771178</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="8"/>
+        <v>1.0598380851812741</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="8"/>
+        <v>0.93669634025717119</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="8"/>
+        <v>1.149734647460197</v>
+      </c>
+      <c r="N54">
+        <f t="shared" si="8"/>
+        <v>0.97379106681432259</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="8"/>
+        <v>1.0788530465949822</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="8"/>
+        <v>0.9956383822363204</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="8"/>
+        <v>1.020639417239984</v>
+      </c>
+      <c r="S54">
+        <f t="shared" si="7"/>
+        <v>1.0233319444916966</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C55" s="5">
         <f>AVERAGE(Dati_OPTN!C49:H49)</f>
         <v>19743.833333333332</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D55" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>54.092694063926935</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E55" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C3</f>
         <v>0.53338406191889132</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1" t="s">
+      <c r="I55">
+        <f t="shared" ref="I55:Q55" si="9">I34/J34</f>
+        <v>0.95524417023946462</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="9"/>
+        <v>0.98142446633825942</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="9"/>
+        <v>0.99907720701322666</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="9"/>
+        <v>1.0419871794871796</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="9"/>
+        <v>1.1531353948503142</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="9"/>
+        <v>1.1446904526865038</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="9"/>
+        <v>1.0734181047532547</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="9"/>
+        <v>1.0978893136114343</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="9"/>
+        <v>1.1181936443040328</v>
+      </c>
+      <c r="S55">
+        <f t="shared" si="7"/>
+        <v>1.0627844370315187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C56" s="5">
         <f>AVERAGE(Dati_OPTN!C50:H50)</f>
         <v>16.5</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D56" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>4.5205479452054796E-2</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E56" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C4</f>
         <v>0.4419642857142857</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1" t="s">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C57" s="5">
         <f>AVERAGE(Dati_OPTN!C51:H51)</f>
         <v>18036.166666666668</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D57" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>49.414155251141558</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E57" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C5</f>
         <v>0.64403763636039024</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1" t="s">
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C58" s="5">
         <f>AVERAGE(Dati_OPTN!C52:H52)</f>
         <v>1546</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D58" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>4.2356164383561641</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E58" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C6</f>
         <v>0.1653328580340433</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C59" s="5">
         <f>AVERAGE(Dati_OPTN!C53:H53)</f>
         <v>8915.5</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D59" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>24.426027397260274</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E59" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C7</f>
         <v>0.49383320101179812</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1" t="s">
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C60" s="5">
         <f>AVERAGE(Dati_OPTN!C54:H54)</f>
         <v>7.5</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D60" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>2.0547945205479451E-2</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E60" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C8</f>
         <v>0.39473684210526316</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="1"/>
-      <c r="B56" s="1" t="s">
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C61" s="5">
         <f>AVERAGE(Dati_OPTN!C55:H55)</f>
         <v>8187</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D61" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>22.43013698630137</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E61" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C9</f>
         <v>0.59527387300048473</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="1"/>
-      <c r="B57" s="1" t="s">
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C62" s="5">
         <f>AVERAGE(Dati_OPTN!C56:H56)</f>
         <v>657.16666666666663</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D62" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.800456621004566</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E62" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C10</f>
         <v>0.14718178424785366</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C63" s="5">
         <f>AVERAGE(Dati_OPTN!C57:H57)</f>
         <v>7162.333333333333</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D63" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>19.62283105022831</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E63" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C11</f>
         <v>0.59452430031957726</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1" t="s">
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C64" s="5">
         <f>AVERAGE(Dati_OPTN!C58:H58)</f>
         <v>4.333333333333333</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D64" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>1.187214611872146E-2</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E64" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C12</f>
         <v>0.40625</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="5">
-        <f>AVERAGE(Dati_OPTN!C59:H59)</f>
-        <v>6475</v>
-      </c>
-      <c r="D60" s="5">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
-        <v>17.739726027397261</v>
-      </c>
-      <c r="E60" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C13</f>
-        <v>0.71919139562005963</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="5">
-        <f>AVERAGE(Dati_OPTN!C60:H60)</f>
-        <v>625.33333333333337</v>
-      </c>
-      <c r="D61" s="5">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
-        <v>1.7132420091324201</v>
-      </c>
-      <c r="E61" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C14</f>
-        <v>0.19824579942935644</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C62" s="5">
-        <f>AVERAGE(Dati_OPTN!C61:H61)</f>
-        <v>2700.5</v>
-      </c>
-      <c r="D62" s="5">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
-        <v>7.3986301369863012</v>
-      </c>
-      <c r="E62" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C15</f>
-        <v>0.49053919045744904</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C63" s="5">
-        <f>AVERAGE(Dati_OPTN!C62:H62)</f>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="D63" s="5">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
-        <v>1.0502283105022832E-2</v>
-      </c>
-      <c r="E63" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C16</f>
-        <v>0.63888888888888895</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C64" s="5">
-        <f>AVERAGE(Dati_OPTN!C63:H63)</f>
-        <v>2481.5</v>
-      </c>
-      <c r="D64" s="5">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
-        <v>6.7986301369863016</v>
-      </c>
-      <c r="E64" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C17</f>
-        <v>0.59111481657932352</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C65" s="5">
-        <f>AVERAGE(Dati_OPTN!C64:H64)</f>
-        <v>198.16666666666666</v>
+        <f>AVERAGE(Dati_OPTN!C59:H59)</f>
+        <v>6475</v>
       </c>
       <c r="D65" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
-        <v>0.54292237442922375</v>
+        <v>17.739726027397261</v>
       </c>
       <c r="E65" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C18</f>
-        <v>0.14576437415716562</v>
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C13</f>
+        <v>0.71919139562005963</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="A66" s="1"/>
       <c r="B66" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C66" s="5">
-        <f>AVERAGE(Dati_OPTN!C65:H65)</f>
-        <v>965.5</v>
+        <f>AVERAGE(Dati_OPTN!C60:H60)</f>
+        <v>625.33333333333337</v>
       </c>
       <c r="D66" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
-        <v>2.6452054794520548</v>
+        <v>1.7132420091324201</v>
       </c>
       <c r="E66" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C19</f>
-        <v>0.68434731246308333</v>
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C14</f>
+        <v>0.19824579942935644</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="1"/>
+      <c r="A67" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="B67" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C67" s="5">
-        <f>AVERAGE(Dati_OPTN!C66:H66)</f>
-        <v>0.83333333333333337</v>
+        <f>AVERAGE(Dati_OPTN!C61:H61)</f>
+        <v>2700.5</v>
       </c>
       <c r="D67" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
-        <v>2.2831050228310505E-3</v>
+        <v>7.3986301369863012</v>
       </c>
       <c r="E67" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C20</f>
-        <v>0.5</v>
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C15</f>
+        <v>0.49053919045744904</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="1"/>
       <c r="B68" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C68" s="5">
-        <f>AVERAGE(Dati_OPTN!C67:H67)</f>
-        <v>892.66666666666663</v>
+        <f>AVERAGE(Dati_OPTN!C62:H62)</f>
+        <v>3.8333333333333335</v>
       </c>
       <c r="D68" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
-        <v>2.4456621004566208</v>
+        <v>1.0502283105022832E-2</v>
       </c>
       <c r="E68" s="6">
-        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C21</f>
-        <v>0.84921515776121759</v>
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C16</f>
+        <v>0.63888888888888895</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="1"/>
       <c r="B69" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69" s="5">
+        <f>AVERAGE(Dati_OPTN!C63:H63)</f>
+        <v>2481.5</v>
+      </c>
+      <c r="D69" s="5">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
+        <v>6.7986301369863016</v>
+      </c>
+      <c r="E69" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C17</f>
+        <v>0.59111481657932352</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C70" s="5">
+        <f>AVERAGE(Dati_OPTN!C64:H64)</f>
+        <v>198.16666666666666</v>
+      </c>
+      <c r="D70" s="5">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
+        <v>0.54292237442922375</v>
+      </c>
+      <c r="E70" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C18</f>
+        <v>0.14576437415716562</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C71" s="5">
+        <f>AVERAGE(Dati_OPTN!C65:H65)</f>
+        <v>965.5</v>
+      </c>
+      <c r="D71" s="5">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
+        <v>2.6452054794520548</v>
+      </c>
+      <c r="E71" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C19</f>
+        <v>0.68434731246308333</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72" s="5">
+        <f>AVERAGE(Dati_OPTN!C66:H66)</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D72" s="5">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
+        <v>2.2831050228310505E-3</v>
+      </c>
+      <c r="E72" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C20</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="5">
+        <f>AVERAGE(Dati_OPTN!C67:H67)</f>
+        <v>892.66666666666663</v>
+      </c>
+      <c r="D73" s="5">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
+        <v>2.4456621004566208</v>
+      </c>
+      <c r="E73" s="6">
+        <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C21</f>
+        <v>0.84921515776121759</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="5">
         <f>AVERAGE(Dati_OPTN!C68:H68)</f>
         <v>65.333333333333329</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D74" s="5">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</f>
         <v>0.17899543378995433</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E74" s="6">
         <f>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C22</f>
         <v>0.17562724014336917</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A53:E53"/>
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="G1:S1"/>
+    <mergeCell ref="G29:S29"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="5">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -9108,46 +14001,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="72"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="67" t="s">
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="74" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
       <c r="J2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="68" t="s">
+      <c r="K2" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="68"/>
+      <c r="L2" s="75"/>
       <c r="M2" s="2" t="s">
         <v>59</v>
       </c>
@@ -9218,7 +14111,7 @@
         <v>6.392694063926941E-3</v>
       </c>
       <c r="F4" s="32">
-        <f>C4*(1-Uscite!E8-Uscite!E31)</f>
+        <f>C4*(1-Uscite!E8-Uscite!E36)</f>
         <v>4.2922374429223746E-2</v>
       </c>
       <c r="G4" s="19" t="s">
@@ -9274,7 +14167,7 @@
         <v>4.1684931506849319</v>
       </c>
       <c r="F5" s="32">
-        <f>C5*(1-Uscite!E9-Uscite!E32)</f>
+        <f>C5*(1-Uscite!E9-Uscite!E37)</f>
         <v>31.008219178082197</v>
       </c>
       <c r="G5" s="19"/>
@@ -9328,7 +14221,7 @@
         <v>13.043378995433789</v>
       </c>
       <c r="F6" s="32">
-        <f>C6*(1-Uscite!E10-Uscite!E33)</f>
+        <f>C6*(1-Uscite!E10-Uscite!E38)</f>
         <v>-3.9470319634703199</v>
       </c>
       <c r="G6" s="19"/>
@@ -9343,7 +14236,7 @@
         <v>2.0195499815566207E-2</v>
       </c>
       <c r="K6" s="22">
-        <f>F6*J6</f>
+        <f t="shared" ref="K6:K15" si="4">F6*J6</f>
         <v>-7.9712283290298766E-2</v>
       </c>
       <c r="L6" s="22">
@@ -9359,11 +14252,11 @@
         <v>8.5690998809217794E-2</v>
       </c>
       <c r="O6" s="21">
-        <f>M6*F6</f>
+        <f t="shared" ref="O6:O15" si="5">M6*F6</f>
         <v>-0.25851282799138098</v>
       </c>
       <c r="P6" s="21">
-        <f>N6*F6</f>
+        <f t="shared" ref="P6:P15" si="6">N6*F6</f>
         <v>-0.33822511128167976</v>
       </c>
     </row>
@@ -9384,7 +14277,7 @@
         <v>1.3698630136986301E-3</v>
       </c>
       <c r="F7" s="32">
-        <f>C7*(1-Uscite!E12-Uscite!E35)</f>
+        <f>C7*(1-Uscite!E12-Uscite!E40)</f>
         <v>2.6940639269406392E-2</v>
       </c>
       <c r="G7" s="19" t="s">
@@ -9401,7 +14294,7 @@
         <v>2.9613803548247511E-2</v>
       </c>
       <c r="K7" s="22">
-        <f>F7*J7</f>
+        <f t="shared" si="4"/>
         <v>7.9781479878840325E-4</v>
       </c>
       <c r="L7" s="22">
@@ -9417,11 +14310,11 @@
         <v>4.7017869517821685E-2</v>
       </c>
       <c r="O7" s="21">
-        <f>M7*F7</f>
+        <f t="shared" si="5"/>
         <v>4.6887666310724941E-4</v>
       </c>
       <c r="P7" s="21">
-        <f>N7*F7</f>
+        <f t="shared" si="6"/>
         <v>1.2666914618956527E-3</v>
       </c>
     </row>
@@ -9440,7 +14333,7 @@
         <v>2.3378995433789957</v>
       </c>
       <c r="F8" s="32">
-        <f>C8*(1-Uscite!E13-Uscite!E36)</f>
+        <f>C8*(1-Uscite!E13-Uscite!E41)</f>
         <v>21.107762557077624</v>
       </c>
       <c r="G8" s="19"/>
@@ -9455,7 +14348,7 @@
         <v>2.9613803548247511E-2</v>
       </c>
       <c r="K8" s="22">
-        <f>F8*J8</f>
+        <f t="shared" si="4"/>
         <v>0.62508113370835128</v>
       </c>
       <c r="L8" s="22">
@@ -9471,11 +14364,11 @@
         <v>7.6133682341826464E-2</v>
       </c>
       <c r="O8" s="21">
-        <f>M8*F8</f>
+        <f t="shared" si="5"/>
         <v>0.98193055575889521</v>
       </c>
       <c r="P8" s="21">
-        <f>N8*F8</f>
+        <f t="shared" si="6"/>
         <v>1.6070116894672466</v>
       </c>
     </row>
@@ -9494,7 +14387,7 @@
         <v>7.6232876712328768</v>
       </c>
       <c r="F9" s="32">
-        <f>C9*(1-Uscite!E14-Uscite!E37)</f>
+        <f>C9*(1-Uscite!E14-Uscite!E42)</f>
         <v>-1.3050228310502283</v>
       </c>
       <c r="G9" s="19"/>
@@ -9509,7 +14402,7 @@
         <v>2.9613803548247511E-2</v>
       </c>
       <c r="K9" s="22">
-        <f>F9*J9</f>
+        <f t="shared" si="4"/>
         <v>-3.8646689744699265E-2</v>
       </c>
       <c r="L9" s="22">
@@ -9525,11 +14418,11 @@
         <v>0.14222620006565712</v>
       </c>
       <c r="O9" s="21">
-        <f>M9*F9</f>
+        <f t="shared" si="5"/>
         <v>-0.14696174851450075</v>
       </c>
       <c r="P9" s="21">
-        <f>N9*F9</f>
+        <f t="shared" si="6"/>
         <v>-0.18560843825920001</v>
       </c>
     </row>
@@ -9550,7 +14443,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="32">
-        <f>C10*(1-Uscite!E16-Uscite!E39)</f>
+        <f>C10*(1-Uscite!E16-Uscite!E44)</f>
         <v>1.643835616438356E-2</v>
       </c>
       <c r="G10" s="19" t="s">
@@ -9567,7 +14460,7 @@
         <v>7.9301853997682498E-2</v>
       </c>
       <c r="K10" s="22">
-        <f>F10*J10</f>
+        <f t="shared" si="4"/>
         <v>1.3035921205098492E-3</v>
       </c>
       <c r="L10" s="22">
@@ -9583,11 +14476,11 @@
         <v>0.13147775837193726</v>
       </c>
       <c r="O10" s="21">
-        <f>M10*F10</f>
+        <f t="shared" si="5"/>
         <v>8.5768609930281811E-4</v>
       </c>
       <c r="P10" s="21">
-        <f>N10*F10</f>
+        <f t="shared" si="6"/>
         <v>2.1612782198126672E-3</v>
       </c>
     </row>
@@ -9606,7 +14499,7 @@
         <v>1.2438356164383562</v>
       </c>
       <c r="F11" s="32">
-        <f>C11*(1-Uscite!E17-Uscite!E40)</f>
+        <f>C11*(1-Uscite!E17-Uscite!E45)</f>
         <v>9.4817351598173527</v>
       </c>
       <c r="G11" s="19"/>
@@ -9621,7 +14514,7 @@
         <v>7.9301853997682498E-2</v>
       </c>
       <c r="K11" s="22">
-        <f>F11*J11</f>
+        <f t="shared" si="4"/>
         <v>0.75191917728852842</v>
       </c>
       <c r="L11" s="22">
@@ -9637,11 +14530,11 @@
         <v>0.29073102130500755</v>
       </c>
       <c r="O11" s="21">
-        <f>M11*F11</f>
+        <f t="shared" si="5"/>
         <v>2.0047153694687694</v>
       </c>
       <c r="P11" s="21">
-        <f>N11*F11</f>
+        <f t="shared" si="6"/>
         <v>2.7566345467572981</v>
       </c>
     </row>
@@ -9660,7 +14553,7 @@
         <v>3.999086757990868</v>
       </c>
       <c r="F12" s="32">
-        <f>C12*(1-Uscite!E18-Uscite!E41)</f>
+        <f>C12*(1-Uscite!E18-Uscite!E46)</f>
         <v>-1.2123287671232879</v>
       </c>
       <c r="G12" s="19"/>
@@ -9675,7 +14568,7 @@
         <v>7.9301853997682498E-2</v>
       </c>
       <c r="K12" s="22">
-        <f>F12*J12</f>
+        <f t="shared" si="4"/>
         <v>-9.61399188876014E-2</v>
       </c>
       <c r="L12" s="22">
@@ -9691,11 +14584,11 @@
         <v>0.69505860524752683</v>
       </c>
       <c r="O12" s="21">
-        <f>M12*F12</f>
+        <f t="shared" si="5"/>
         <v>-0.74649962309056483</v>
       </c>
       <c r="P12" s="21">
-        <f>N12*F12</f>
+        <f t="shared" si="6"/>
         <v>-0.84263954197816626</v>
       </c>
     </row>
@@ -9716,7 +14609,7 @@
         <v>1.3698630136986301E-3</v>
       </c>
       <c r="F13" s="32">
-        <f>C13*(1-Uscite!E20-Uscite!E43)</f>
+        <f>C13*(1-Uscite!E20-Uscite!E48)</f>
         <v>3.1963470319634705E-3</v>
       </c>
       <c r="G13" s="19" t="s">
@@ -9733,7 +14626,7 @@
         <v>0.27060422587421229</v>
       </c>
       <c r="K13" s="22">
-        <f>F13*J13</f>
+        <f t="shared" si="4"/>
         <v>8.6494501420981106E-4</v>
       </c>
       <c r="L13" s="22">
@@ -9749,11 +14642,11 @@
         <v>0.46152645053564956</v>
       </c>
       <c r="O13" s="21">
-        <f>M13*F13</f>
+        <f t="shared" si="5"/>
         <v>6.1025368613244779E-4</v>
       </c>
       <c r="P13" s="21">
-        <f>N13*F13</f>
+        <f t="shared" si="6"/>
         <v>1.4751987003422588E-3</v>
       </c>
     </row>
@@ -9772,7 +14665,7 @@
         <v>0.21095890410958903</v>
       </c>
       <c r="F14" s="32">
-        <f>C14*(1-Uscite!E21-Uscite!E44)</f>
+        <f>C14*(1-Uscite!E21-Uscite!E49)</f>
         <v>2.5634703196347033</v>
       </c>
       <c r="G14" s="19"/>
@@ -9787,7 +14680,7 @@
         <v>0.27060422587421229</v>
       </c>
       <c r="K14" s="22">
-        <f>F14*J14</f>
+        <f t="shared" si="4"/>
         <v>0.6936859013962684</v>
       </c>
       <c r="L14" s="22">
@@ -9803,11 +14696,11 @@
         <v>0.89565825669339183</v>
       </c>
       <c r="O14" s="21">
-        <f>M14*F14</f>
+        <f t="shared" si="5"/>
         <v>1.602307456173002</v>
       </c>
       <c r="P14" s="21">
-        <f>N14*F14</f>
+        <f t="shared" si="6"/>
         <v>2.2959933575692704</v>
       </c>
     </row>
@@ -9826,7 +14719,7 @@
         <v>0.75570776255707761</v>
       </c>
       <c r="F15" s="32">
-        <f>C15*(1-Uscite!E22-Uscite!E45)</f>
+        <f>C15*(1-Uscite!E22-Uscite!E50)</f>
         <v>3.8356164383561722E-2</v>
       </c>
       <c r="G15" s="19"/>
@@ -9841,7 +14734,7 @@
         <v>0.27060422587421229</v>
       </c>
       <c r="K15" s="22">
-        <f>F15*J15</f>
+        <f t="shared" si="4"/>
         <v>1.0379340170517753E-2</v>
       </c>
       <c r="L15" s="22">
@@ -9857,11 +14750,11 @@
         <v>2.387097899745187</v>
       </c>
       <c r="O15" s="21">
-        <f>M15*F15</f>
+        <f t="shared" si="5"/>
         <v>8.1180579271763587E-2</v>
       </c>
       <c r="P15" s="21">
-        <f>N15*F15</f>
+        <f t="shared" si="6"/>
         <v>9.155991944228134E-2</v>
       </c>
     </row>
@@ -9882,12 +14775,12 @@
       <c r="A18" s="69" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="71"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
@@ -9920,7 +14813,7 @@
         <v>19</v>
       </c>
       <c r="C20" s="31">
-        <f>Uscite!D55</f>
+        <f>Uscite!D60</f>
         <v>2.0547945205479451E-2</v>
       </c>
       <c r="D20" s="22">
@@ -9928,15 +14821,15 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E20" s="22">
-        <f t="shared" ref="E20:E31" si="4">D20*C20</f>
+        <f t="shared" ref="E20:E31" si="7">D20*C20</f>
         <v>3.4246575342465752E-3</v>
       </c>
       <c r="F20" s="22">
-        <f t="shared" ref="F20:F31" si="5">D20</f>
+        <f t="shared" ref="F20:F31" si="8">D20</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="G20" s="22">
-        <f t="shared" ref="G20:G31" si="6">F20*C20</f>
+        <f t="shared" ref="G20:G31" si="9">F20*C20</f>
         <v>3.4246575342465752E-3</v>
       </c>
     </row>
@@ -9946,23 +14839,23 @@
         <v>21</v>
       </c>
       <c r="C21" s="31">
-        <f>Uscite!D56</f>
+        <f>Uscite!D61</f>
         <v>22.43013698630137</v>
       </c>
       <c r="D21" s="22">
-        <f t="shared" ref="D21:D31" si="7">4/24</f>
+        <f t="shared" ref="D21:D31" si="10">4/24</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="E21" s="22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>3.7383561643835614</v>
       </c>
       <c r="F21" s="22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="G21" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.7383561643835614</v>
       </c>
     </row>
@@ -9972,23 +14865,23 @@
         <v>23</v>
       </c>
       <c r="C22" s="31">
-        <f>Uscite!D57</f>
+        <f>Uscite!D62</f>
         <v>1.800456621004566</v>
       </c>
       <c r="D22" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E22" s="22">
         <f t="shared" si="7"/>
+        <v>0.30007610350076097</v>
+      </c>
+      <c r="F22" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E22" s="22">
-        <f t="shared" si="4"/>
-        <v>0.30007610350076097</v>
-      </c>
-      <c r="F22" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G22" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.30007610350076097</v>
       </c>
     </row>
@@ -10000,23 +14893,23 @@
         <v>19</v>
       </c>
       <c r="C23" s="18">
-        <f>Uscite!D59</f>
+        <f>Uscite!D64</f>
         <v>1.187214611872146E-2</v>
       </c>
       <c r="D23" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E23" s="22">
         <f t="shared" si="7"/>
+        <v>1.9786910197869098E-3</v>
+      </c>
+      <c r="F23" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E23" s="22">
-        <f t="shared" si="4"/>
-        <v>1.9786910197869098E-3</v>
-      </c>
-      <c r="F23" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G23" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.9786910197869098E-3</v>
       </c>
     </row>
@@ -10026,23 +14919,23 @@
         <v>21</v>
       </c>
       <c r="C24" s="18">
-        <f>Uscite!D60</f>
+        <f>Uscite!D65</f>
         <v>17.739726027397261</v>
       </c>
       <c r="D24" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E24" s="22">
         <f t="shared" si="7"/>
+        <v>2.9566210045662098</v>
+      </c>
+      <c r="F24" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E24" s="22">
-        <f t="shared" si="4"/>
-        <v>2.9566210045662098</v>
-      </c>
-      <c r="F24" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G24" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.9566210045662098</v>
       </c>
     </row>
@@ -10052,23 +14945,23 @@
         <v>23</v>
       </c>
       <c r="C25" s="18">
-        <f>Uscite!D61</f>
+        <f>Uscite!D66</f>
         <v>1.7132420091324201</v>
       </c>
       <c r="D25" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E25" s="22">
         <f t="shared" si="7"/>
+        <v>0.28554033485540331</v>
+      </c>
+      <c r="F25" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E25" s="22">
-        <f t="shared" si="4"/>
-        <v>0.28554033485540331</v>
-      </c>
-      <c r="F25" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G25" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.28554033485540331</v>
       </c>
     </row>
@@ -10080,23 +14973,23 @@
         <v>19</v>
       </c>
       <c r="C26" s="18">
-        <f>Uscite!D63</f>
+        <f>Uscite!D68</f>
         <v>1.0502283105022832E-2</v>
       </c>
       <c r="D26" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E26" s="22">
         <f t="shared" si="7"/>
+        <v>1.7503805175038052E-3</v>
+      </c>
+      <c r="F26" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E26" s="22">
-        <f t="shared" si="4"/>
-        <v>1.7503805175038052E-3</v>
-      </c>
-      <c r="F26" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G26" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.7503805175038052E-3</v>
       </c>
     </row>
@@ -10106,23 +14999,23 @@
         <v>21</v>
       </c>
       <c r="C27" s="18">
-        <f>Uscite!D64</f>
+        <f>Uscite!D69</f>
         <v>6.7986301369863016</v>
       </c>
       <c r="D27" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E27" s="22">
         <f t="shared" si="7"/>
+        <v>1.1331050228310502</v>
+      </c>
+      <c r="F27" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E27" s="22">
-        <f t="shared" si="4"/>
-        <v>1.1331050228310502</v>
-      </c>
-      <c r="F27" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G27" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1.1331050228310502</v>
       </c>
     </row>
@@ -10132,23 +15025,23 @@
         <v>23</v>
       </c>
       <c r="C28" s="18">
-        <f>Uscite!D65</f>
+        <f>Uscite!D70</f>
         <v>0.54292237442922375</v>
       </c>
       <c r="D28" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E28" s="22">
         <f t="shared" si="7"/>
+        <v>9.0487062404870616E-2</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E28" s="22">
-        <f t="shared" si="4"/>
-        <v>9.0487062404870616E-2</v>
-      </c>
-      <c r="F28" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G28" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>9.0487062404870616E-2</v>
       </c>
     </row>
@@ -10160,23 +15053,23 @@
         <v>19</v>
       </c>
       <c r="C29" s="18">
-        <f>Uscite!D67</f>
+        <f>Uscite!D72</f>
         <v>2.2831050228310505E-3</v>
       </c>
       <c r="D29" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E29" s="22">
         <f t="shared" si="7"/>
+        <v>3.8051750380517507E-4</v>
+      </c>
+      <c r="F29" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E29" s="22">
-        <f t="shared" si="4"/>
-        <v>3.8051750380517507E-4</v>
-      </c>
-      <c r="F29" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G29" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>3.8051750380517507E-4</v>
       </c>
     </row>
@@ -10186,23 +15079,23 @@
         <v>21</v>
       </c>
       <c r="C30" s="18">
-        <f>Uscite!D68</f>
+        <f>Uscite!D73</f>
         <v>2.4456621004566208</v>
       </c>
       <c r="D30" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E30" s="22">
         <f t="shared" si="7"/>
+        <v>0.40761035007610347</v>
+      </c>
+      <c r="F30" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E30" s="22">
-        <f t="shared" si="4"/>
-        <v>0.40761035007610347</v>
-      </c>
-      <c r="F30" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G30" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.40761035007610347</v>
       </c>
     </row>
@@ -10212,23 +15105,23 @@
         <v>23</v>
       </c>
       <c r="C31" s="18">
-        <f>Uscite!D69</f>
+        <f>Uscite!D74</f>
         <v>0.17899543378995433</v>
       </c>
       <c r="D31" s="22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E31" s="22">
         <f t="shared" si="7"/>
+        <v>2.983257229832572E-2</v>
+      </c>
+      <c r="F31" s="22">
+        <f t="shared" si="8"/>
         <v>0.16666666666666666</v>
       </c>
-      <c r="E31" s="22">
-        <f t="shared" si="4"/>
-        <v>2.983257229832572E-2</v>
-      </c>
-      <c r="F31" s="22">
-        <f t="shared" si="5"/>
-        <v>0.16666666666666666</v>
-      </c>
       <c r="G31" s="22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2.983257229832572E-2</v>
       </c>
     </row>
@@ -10253,8 +15146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A70289-E0EB-4E13-B21C-62A20F7D26A8}">
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10271,13 +15164,13 @@
       <c r="A1" s="69" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
@@ -10439,11 +15332,11 @@
       <c r="A8" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
-      <c r="F8" s="64"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
+      <c r="F8" s="68"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
@@ -10458,10 +15351,10 @@
       <c r="D9" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="77" t="s">
+      <c r="E9" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="55" t="s">
         <v>66</v>
       </c>
     </row>
@@ -10481,7 +15374,7 @@
       <c r="E10" s="31">
         <v>6.392694063926941E-3</v>
       </c>
-      <c r="F10" s="78">
+      <c r="F10" s="54">
         <v>4.2922374429223746E-2</v>
       </c>
     </row>
@@ -10499,7 +15392,7 @@
       <c r="E11" s="18">
         <v>4.1684931506849319</v>
       </c>
-      <c r="F11" s="76">
+      <c r="F11" s="52">
         <v>31.008219178082197</v>
       </c>
     </row>
@@ -10519,7 +15412,7 @@
       <c r="E12" s="18">
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="F12" s="76">
+      <c r="F12" s="52">
         <v>2.6940639269406392E-2</v>
       </c>
     </row>
@@ -10537,7 +15430,7 @@
       <c r="E13" s="18">
         <v>2.3378995433789957</v>
       </c>
-      <c r="F13" s="76">
+      <c r="F13" s="52">
         <v>21.107762557077624</v>
       </c>
     </row>
@@ -10557,7 +15450,7 @@
       <c r="E14" s="18">
         <v>0</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="52">
         <v>1.643835616438356E-2</v>
       </c>
     </row>
@@ -10575,7 +15468,7 @@
       <c r="E15" s="18">
         <v>1.2438356164383562</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="52">
         <v>9.4817351598173527</v>
       </c>
     </row>
@@ -10595,7 +15488,7 @@
       <c r="E16" s="18">
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="52">
         <v>3.1963470319634705E-3</v>
       </c>
     </row>
@@ -10613,7 +15506,7 @@
       <c r="E17" s="18">
         <v>0.21095890410958903</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="52">
         <v>2.5634703196347033</v>
       </c>
     </row>
@@ -10629,20 +15522,20 @@
       <c r="A19" s="69" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="64"/>
+      <c r="B19" s="67"/>
+      <c r="C19" s="68"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="71"/>
-      <c r="K19" s="71"/>
-      <c r="L19" s="71"/>
-      <c r="M19" s="72"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="77"/>
+      <c r="L19" s="77"/>
+      <c r="M19" s="78"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
@@ -10663,10 +15556,10 @@
       <c r="G20" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="68" t="s">
+      <c r="H20" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="68"/>
+      <c r="I20" s="75"/>
       <c r="J20" s="2" t="s">
         <v>59</v>
       </c>
@@ -11163,11 +16056,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="73" t="s">
+      <c r="A6" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="73"/>
-      <c r="C6" s="73"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\OneDrive - Universita' degli Studi di Roma Tor Vergata\Corsi\Attivi\PMCSN\Progetto\PMCSN_Project\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61C34A1D-1E9B-4ECF-A1DC-BE5750F30F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{61C34A1D-1E9B-4ECF-A1DC-BE5750F30F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF4BC865-1FFC-47DB-8308-3D4DA9F21FA7}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
@@ -971,6 +971,10 @@
     <xf numFmtId="0" fontId="1" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -998,8 +1002,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1008,6 +1016,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1039,23 +1050,45 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="25">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
     </dxf>
@@ -1067,6 +1100,12 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.00000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="0.00000"/>
@@ -1153,12 +1192,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00000"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <font>
@@ -1333,21 +1366,27 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabella1" displayName="Tabella1" ref="O2:AA17" totalsRowShown="0">
-  <autoFilter ref="O2:AA17" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <autoFilter ref="O2:AA17" xr:uid="{00000000-0009-0000-0100-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Living Donor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ABO"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Donor type"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2019"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2018"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2017"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2016"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2015"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2014"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2013"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2012"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2011"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2010"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2009"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="2019" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="2018" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="2017" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="2016" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="2015" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="2014" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="2013" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="2012" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="2011" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="2010" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="2009" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1365,8 +1404,8 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{77F58619-F4CF-436B-BA3C-ECA35D465358}" name="ABO" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{701C0560-7DD0-458E-8945-D5F6ED434270}" name="Priorità" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{77F58619-F4CF-436B-BA3C-ECA35D465358}" name="ABO" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{701C0560-7DD0-458E-8945-D5F6ED434270}" name="Priorità" dataDxfId="21"/>
     <tableColumn id="3" xr3:uid="{2FA295DF-4EC6-4559-BE53-862CE47BAD5C}" name="2019">
       <calculatedColumnFormula>Tabella2[[#This Row],[2019]]/365</calculatedColumnFormula>
     </tableColumn>
@@ -1409,8 +1448,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{86813835-D5D8-48BC-97BA-F975F2E81646}" name="Tabella31517" displayName="Tabella31517" ref="H30:T50" totalsRowShown="0">
   <autoFilter ref="H30:T50" xr:uid="{86813835-D5D8-48BC-97BA-F975F2E81646}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{E9DE6F72-E5CE-4BA8-9B63-029ACD4F85E0}" name="ABO" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{B8046175-A7DA-4509-B491-5AC9F2A7F98E}" name="Priorità" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{E9DE6F72-E5CE-4BA8-9B63-029ACD4F85E0}" name="ABO" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{B8046175-A7DA-4509-B491-5AC9F2A7F98E}" name="Priorità" dataDxfId="19"/>
     <tableColumn id="3" xr3:uid="{B25FA22F-3C8A-476C-974F-39C19267EEEE}" name="2019">
       <calculatedColumnFormula>Tabella2[[#This Row],[2019]]/365</calculatedColumnFormula>
     </tableColumn>
@@ -1457,7 +1496,7 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0900-000002000000}" name="Priorità"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0900-000003000000}" name="d/anno (2014-2019)"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0900-000004000000}" name="d/giorno (2014-2019)"/>
-    <tableColumn id="8" xr3:uid="{A87F9785-8BDD-4C18-9179-285F88A533E8}" name="Probabilità" dataDxfId="11">
+    <tableColumn id="8" xr3:uid="{A87F9785-8BDD-4C18-9179-285F88A533E8}" name="Probabilità" dataDxfId="18">
       <calculatedColumnFormula>Tabella5[[#This Row],[d/anno (2014-2019)]]/Tabella3[[#This Row],[p/anno (2014-2019)]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1497,7 +1536,7 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0B00-000004000000}" name="t/giorno (2014-2019)">
       <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Probabilità" dataDxfId="10">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0B00-000005000000}" name="Probabilità" dataDxfId="17">
       <calculatedColumnFormula>Tabella512[[#This Row],[t/anno (2014-2019)]]/Arrivi!C3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1517,13 +1556,13 @@
     <tableColumn id="4" xr3:uid="{DB425871-C35C-498E-B95A-E84CE540D883}" name="2018">
       <calculatedColumnFormula>Dati_OPTN!D26/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{C2C29135-3CAD-4007-A7A9-56F4BE4548E8}" name="2017" dataDxfId="5">
+    <tableColumn id="8" xr3:uid="{C2C29135-3CAD-4007-A7A9-56F4BE4548E8}" name="2017" dataDxfId="16">
       <calculatedColumnFormula>Dati_OPTN!E26/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{5E82250A-E93F-4CDF-B667-D7707A54390B}" name="2016" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{5E82250A-E93F-4CDF-B667-D7707A54390B}" name="2016" dataDxfId="15">
       <calculatedColumnFormula>Dati_OPTN!F26/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1711EE05-E788-4D75-80FD-D04A8E41D89A}" name="2015" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{1711EE05-E788-4D75-80FD-D04A8E41D89A}" name="2015" dataDxfId="14">
       <calculatedColumnFormula>Dati_OPTN!G26/365</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{4A0AC50E-843E-48D2-86EA-DEDCB2162D6D}" name="2014">
@@ -1569,13 +1608,13 @@
     <tableColumn id="4" xr3:uid="{9EB9A0EF-6B88-477A-A2C0-E710E6B758EE}" name="2018">
       <calculatedColumnFormula>Dati_OPTN!R49/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7C41D32C-DD3D-4D56-9AAA-32583A9E5055}" name="2017" dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{7C41D32C-DD3D-4D56-9AAA-32583A9E5055}" name="2017" dataDxfId="13">
       <calculatedColumnFormula>Dati_OPTN!S49/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7053BFC1-803E-49CE-9D4A-ECB1C8C9DDE5}" name="2016" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{7053BFC1-803E-49CE-9D4A-ECB1C8C9DDE5}" name="2016" dataDxfId="12">
       <calculatedColumnFormula>Dati_OPTN!T49/365</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{42A313DA-8CEC-445F-9ED1-AC39C916DC9C}" name="2015" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{42A313DA-8CEC-445F-9ED1-AC39C916DC9C}" name="2015" dataDxfId="11">
       <calculatedColumnFormula>Dati_OPTN!U49/365</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="7" xr3:uid="{D88EA76F-10A1-4890-946D-50FC59790222}" name="2014">
@@ -1735,8 +1774,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tabella3" displayName="Tabella3" ref="A2:F22" totalsRowShown="0">
   <autoFilter ref="A2:F22" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="ABO" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Priorità" dataDxfId="23"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="p/anno (2014-2019)">
       <calculatedColumnFormula>AVERAGE(Dati_OPTN!C3:H3)</calculatedColumnFormula>
     </tableColumn>
@@ -2076,8 +2115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q52" sqref="Q52:Z52"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8:Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2092,36 +2131,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="O1" s="57" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="O1" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="57"/>
-      <c r="Z1" s="57"/>
-      <c r="AA1" s="57"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59"/>
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2203,7 +2242,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2249,41 +2288,41 @@
       <c r="P3" t="s">
         <v>18</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="85">
         <v>18018</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="85">
         <v>16310</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="85">
         <v>15212</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="85">
         <v>14745</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="85">
         <v>13878</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="85">
         <v>13302</v>
       </c>
-      <c r="W3" s="3">
+      <c r="W3" s="85">
         <v>13282</v>
       </c>
-      <c r="X3" s="3">
+      <c r="X3" s="85">
         <v>13040</v>
       </c>
-      <c r="Y3" s="3">
+      <c r="Y3" s="85">
         <v>13207</v>
       </c>
-      <c r="Z3" s="3">
+      <c r="Z3" s="85">
         <v>13519</v>
       </c>
-      <c r="AA3" s="3">
+      <c r="AA3" s="85">
         <v>13636</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>19</v>
       </c>
@@ -2323,37 +2362,37 @@
       <c r="P4" t="s">
         <v>20</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="85">
         <v>11152</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="85">
         <v>9867</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="85">
         <v>9401</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="85">
         <v>9116</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="85">
         <v>8250</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="85">
         <v>7763</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="85">
         <v>7548</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="85">
         <v>7421</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="85">
         <v>7434</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="85">
         <v>7241</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="85">
         <v>7248</v>
       </c>
     </row>
@@ -2397,41 +2436,41 @@
       <c r="P5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="85">
         <v>6866</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="85">
         <v>6443</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="85">
         <v>5811</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="85">
         <v>5629</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="85">
         <v>5628</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="85">
         <v>5539</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="85">
         <v>5734</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="85">
         <v>5619</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="85">
         <v>5773</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="85">
         <v>6278</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="85">
         <v>6388</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>23</v>
       </c>
@@ -2474,41 +2513,41 @@
       <c r="P6" t="s">
         <v>18</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="85">
         <v>9625</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="85">
         <v>8673</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="85">
         <v>8159</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="85">
         <v>7956</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="85">
         <v>7513</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="85">
         <v>7156</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="85">
         <v>7211</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="85">
         <v>7064</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="85">
         <v>7244</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="85">
         <v>7431</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="85">
         <v>7653</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -2551,37 +2590,37 @@
       <c r="P7" t="s">
         <v>20</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="85">
         <v>5322</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="85">
         <v>4665</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="85">
         <v>4504</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="85">
         <v>4363</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="85">
         <v>3977</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="85">
         <v>3683</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="85">
         <v>3614</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="85">
         <v>3463</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="85">
         <v>3566</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="85">
         <v>3449</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="85">
         <v>3458</v>
       </c>
     </row>
@@ -2625,41 +2664,41 @@
       <c r="P8" t="s">
         <v>22</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="85">
         <v>4303</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="85">
         <v>4008</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="85">
         <v>3655</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="85">
         <v>3593</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="85">
         <v>3536</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="85">
         <v>3473</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="85">
         <v>3597</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="85">
         <v>3601</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="85">
         <v>3678</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="85">
         <v>3982</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="85">
         <v>4195</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>21</v>
       </c>
@@ -2702,41 +2741,41 @@
       <c r="P9" t="s">
         <v>18</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="85">
         <v>6016</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="85">
         <v>5440</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="85">
         <v>5139</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="85">
         <v>4934</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="85">
         <v>4597</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="85">
         <v>4399</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="85">
         <v>4392</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="85">
         <v>4282</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="85">
         <v>4257</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="85">
         <v>4328</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="85">
         <v>4360</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
@@ -2776,37 +2815,37 @@
       <c r="P10" t="s">
         <v>20</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="85">
         <v>4127</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="85">
         <v>3635</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="85">
         <v>3516</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="85">
         <v>3403</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="85">
         <v>3020</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="85">
         <v>2882</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="85">
         <v>2815</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="85">
         <v>2766</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="85">
         <v>2715</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="85">
         <v>2638</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="85">
         <v>2722</v>
       </c>
     </row>
@@ -2853,41 +2892,41 @@
       <c r="P11" t="s">
         <v>22</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="85">
         <v>1889</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="85">
         <v>1805</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="85">
         <v>1623</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="85">
         <v>1531</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="85">
         <v>1577</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="85">
         <v>1517</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="85">
         <v>1577</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="85">
         <v>1516</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="85">
         <v>1542</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="85">
         <v>1690</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="85">
         <v>1638</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -2930,41 +2969,41 @@
       <c r="P12" t="s">
         <v>18</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="85">
         <v>1875</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="85">
         <v>1783</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="85">
         <v>1514</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="85">
         <v>1500</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="85">
         <v>1398</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="85">
         <v>1400</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="85">
         <v>1361</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="85">
         <v>1362</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="85">
         <v>1374</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="85">
         <v>1442</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="85">
         <v>1349</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -3004,37 +3043,37 @@
       <c r="P13" t="s">
         <v>20</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="85">
         <v>1313</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="85">
         <v>1221</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="85">
         <v>1058</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="85">
         <v>1072</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="85">
         <v>950</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="85">
         <v>929</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="85">
         <v>874</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="85">
         <v>935</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="85">
         <v>889</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="85">
         <v>896</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="85">
         <v>850</v>
       </c>
     </row>
@@ -3078,41 +3117,41 @@
       <c r="P14" t="s">
         <v>22</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="85">
         <v>562</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="85">
         <v>562</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="85">
         <v>456</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="85">
         <v>428</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="85">
         <v>448</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="85">
         <v>471</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="85">
         <v>487</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="85">
         <v>427</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="85">
         <v>485</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="85">
         <v>546</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="85">
         <v>499</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3158,41 +3197,41 @@
       <c r="P15" t="s">
         <v>18</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="85">
         <v>502</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="85">
         <v>414</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="85">
         <v>400</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="85">
         <v>355</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="85">
         <v>370</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="85">
         <v>347</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="85">
         <v>318</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="85">
         <v>332</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="85">
         <v>332</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="85">
         <v>318</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="85">
         <v>274</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" hidden="1" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
@@ -3232,37 +3271,37 @@
       <c r="P16" t="s">
         <v>20</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="85">
         <v>390</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="85">
         <v>346</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="85">
         <v>323</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="85">
         <v>278</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="85">
         <v>303</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="85">
         <v>269</v>
       </c>
-      <c r="W16" s="3">
+      <c r="W16" s="85">
         <v>245</v>
       </c>
-      <c r="X16" s="3">
+      <c r="X16" s="85">
         <v>257</v>
       </c>
-      <c r="Y16" s="3">
+      <c r="Y16" s="85">
         <v>264</v>
       </c>
-      <c r="Z16" s="3">
+      <c r="Z16" s="85">
         <v>258</v>
       </c>
-      <c r="AA16" s="3">
+      <c r="AA16" s="85">
         <v>218</v>
       </c>
     </row>
@@ -3306,37 +3345,37 @@
       <c r="P17" t="s">
         <v>22</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="85">
         <v>112</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="85">
         <v>68</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="85">
         <v>77</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="85">
         <v>77</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="85">
         <v>67</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="85">
         <v>78</v>
       </c>
-      <c r="W17" s="3">
+      <c r="W17" s="85">
         <v>73</v>
       </c>
-      <c r="X17" s="3">
+      <c r="X17" s="85">
         <v>75</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Y17" s="85">
         <v>68</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="Z17" s="85">
         <v>60</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AA17" s="85">
         <v>56</v>
       </c>
     </row>
@@ -3541,36 +3580,36 @@
       <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-      <c r="K24" s="57"/>
-      <c r="L24" s="57"/>
-      <c r="M24" s="57"/>
-      <c r="O24" s="57" t="s">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="O24" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
-      <c r="X24" s="57"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
-      <c r="AA24" s="57"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -5163,36 +5202,36 @@
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A47" s="58" t="s">
+      <c r="A47" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="58"/>
-      <c r="G47" s="58"/>
-      <c r="H47" s="58"/>
-      <c r="I47" s="58"/>
-      <c r="J47" s="58"/>
-      <c r="K47" s="58"/>
-      <c r="L47" s="58"/>
-      <c r="M47" s="58"/>
-      <c r="O47" s="57" t="s">
+      <c r="B47" s="60"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="60"/>
+      <c r="E47" s="60"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="O47" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="57"/>
-      <c r="U47" s="57"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
-      <c r="X47" s="57"/>
-      <c r="Y47" s="57"/>
-      <c r="Z47" s="57"/>
-      <c r="AA47" s="57"/>
+      <c r="P47" s="59"/>
+      <c r="Q47" s="59"/>
+      <c r="R47" s="59"/>
+      <c r="S47" s="59"/>
+      <c r="T47" s="59"/>
+      <c r="U47" s="59"/>
+      <c r="V47" s="59"/>
+      <c r="W47" s="59"/>
+      <c r="X47" s="59"/>
+      <c r="Y47" s="59"/>
+      <c r="Z47" s="59"/>
+      <c r="AA47" s="59"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -7005,13 +7044,13 @@
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70" s="56" t="s">
+      <c r="A70" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B70" s="56"/>
-      <c r="C70" s="56"/>
-      <c r="D70" s="56"/>
-      <c r="E70" s="56"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="58"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
@@ -7318,29 +7357,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
-      <c r="H1" s="81" t="s">
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="63"/>
+      <c r="H1" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
-      <c r="T1" s="82"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -7367,37 +7406,37 @@
       <c r="I2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="80" t="s">
+      <c r="J2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="80" t="s">
+      <c r="L2" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="80" t="s">
+      <c r="R2" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="80" t="s">
+      <c r="S2" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="80" t="s">
+      <c r="T2" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -8826,7 +8865,7 @@
       <c r="B23" s="1"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I24" s="84" t="s">
+      <c r="I24" s="69" t="s">
         <v>85</v>
       </c>
       <c r="J24">
@@ -8865,7 +8904,7 @@
         <f t="shared" si="0"/>
         <v>0.97558139534883725</v>
       </c>
-      <c r="T24" s="83">
+      <c r="T24">
         <f>AVERAGE(J24:S24)</f>
         <v>1.0206710564535686</v>
       </c>
@@ -8875,7 +8914,7 @@
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I25" s="84"/>
+      <c r="I25" s="69"/>
       <c r="J25">
         <f t="shared" ref="J25:R25" si="1">J4/K4</f>
         <v>1.1081081081081081</v>
@@ -8912,13 +8951,13 @@
         <f t="shared" si="1"/>
         <v>0.8529411764705882</v>
       </c>
-      <c r="T25" s="83">
+      <c r="T25">
         <f>AVERAGE(J25:S25)</f>
         <v>1.0921432680705521</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I26" s="84"/>
+      <c r="I26" s="69"/>
       <c r="J26">
         <f t="shared" ref="J26:R26" si="2">J5/K5</f>
         <v>1.0474188666554565</v>
@@ -8955,13 +8994,13 @@
         <f t="shared" si="2"/>
         <v>0.96450116961464272</v>
       </c>
-      <c r="T26" s="83">
+      <c r="T26">
         <f>AVERAGE(J26:S26)</f>
         <v>1.0280674720101073</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I27" s="84"/>
+      <c r="I27" s="69"/>
       <c r="J27">
         <f t="shared" ref="J27:R27" si="3">J6/K6</f>
         <v>1.1015866254924929</v>
@@ -8998,36 +9037,36 @@
         <f t="shared" si="3"/>
         <v>1.0038591413410516</v>
       </c>
-      <c r="T27" s="83">
+      <c r="T27">
         <f>AVERAGE(J27:S27)</f>
         <v>1.0059472095494864</v>
       </c>
     </row>
     <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="62" t="s">
+      <c r="A29" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
-      <c r="F29" s="64"/>
-      <c r="H29" s="81" t="s">
+      <c r="B29" s="65"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="66"/>
+      <c r="H29" s="67" t="s">
         <v>86</v>
       </c>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
-      <c r="T29" s="82"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -9054,37 +9093,37 @@
       <c r="I30" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J30" s="80" t="s">
+      <c r="J30" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="K30" s="80" t="s">
+      <c r="K30" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="L30" s="80" t="s">
+      <c r="L30" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="M30" s="80" t="s">
+      <c r="M30" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N30" s="80" t="s">
+      <c r="N30" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="O30" s="80" t="s">
+      <c r="O30" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="P30" s="80" t="s">
+      <c r="P30" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="Q30" s="80" t="s">
+      <c r="Q30" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="R30" s="80" t="s">
+      <c r="R30" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="S30" s="80" t="s">
+      <c r="S30" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="T30" s="80" t="s">
+      <c r="T30" s="56" t="s">
         <v>14</v>
       </c>
     </row>
@@ -10139,13 +10178,13 @@
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I47" s="85"/>
+      <c r="I47" s="57"/>
       <c r="J47">
         <f>J31/K31</f>
         <v>1.1047210300429184</v>
       </c>
       <c r="K47">
-        <f t="shared" ref="J47:R47" si="6">K31/L31</f>
+        <f t="shared" ref="K47:R47" si="6">K31/L31</f>
         <v>1.0721798580068367</v>
       </c>
       <c r="L47">
@@ -10176,7 +10215,7 @@
         <f t="shared" si="6"/>
         <v>0.97692136992381085</v>
       </c>
-      <c r="S47" s="85"/>
+      <c r="S47" s="57"/>
       <c r="T47">
         <f>AVERAGE(Tabella31517[[#This Row],[2019]:[2011]])</f>
         <v>1.0331875576685741</v>
@@ -10187,9 +10226,9 @@
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I48" s="85"/>
+      <c r="I48" s="57"/>
       <c r="J48">
-        <f t="shared" ref="J48:S48" si="7">J32/K32</f>
+        <f t="shared" ref="J48:R48" si="7">J32/K32</f>
         <v>1.1302320867538258</v>
       </c>
       <c r="K48">
@@ -10224,16 +10263,16 @@
         <f t="shared" si="7"/>
         <v>1.0266537771026101</v>
       </c>
-      <c r="S48" s="85"/>
+      <c r="S48" s="57"/>
       <c r="T48">
         <f>AVERAGE(Tabella31517[[#This Row],[2019]:[2011]])</f>
         <v>1.0499190209171543</v>
       </c>
     </row>
     <row r="49" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I49" s="85"/>
+      <c r="I49" s="57"/>
       <c r="J49">
-        <f t="shared" ref="J49:S49" si="8">J33/K33</f>
+        <f t="shared" ref="J49:R49" si="8">J33/K33</f>
         <v>1.0656526462827876</v>
       </c>
       <c r="K49">
@@ -10268,26 +10307,26 @@
         <f t="shared" si="8"/>
         <v>0.91956036954444087</v>
       </c>
-      <c r="S49" s="85"/>
+      <c r="S49" s="57"/>
       <c r="T49">
         <f>AVERAGE(Tabella31517[[#This Row],[2019]:[2011]])</f>
         <v>1.0113703434306036</v>
       </c>
     </row>
     <row r="50" spans="9:21" x14ac:dyDescent="0.25">
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="85"/>
-      <c r="Q50" s="85"/>
-      <c r="R50" s="85"/>
-      <c r="S50" s="85"/>
-      <c r="T50" s="85"/>
-      <c r="U50" s="85"/>
+      <c r="I50" s="57"/>
+      <c r="J50" s="57"/>
+      <c r="K50" s="57"/>
+      <c r="L50" s="57"/>
+      <c r="M50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="57"/>
+      <c r="R50" s="57"/>
+      <c r="S50" s="57"/>
+      <c r="T50" s="57"/>
+      <c r="U50" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -10335,28 +10374,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="G1" s="65" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="G1" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -11954,28 +11993,28 @@
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="65" t="s">
+      <c r="A29" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="65"/>
-      <c r="E29" s="65"/>
-      <c r="G29" s="65" t="s">
+      <c r="B29" s="73"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="G29" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="82"/>
-      <c r="I29" s="82"/>
-      <c r="J29" s="82"/>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="82"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="82"/>
-      <c r="P29" s="82"/>
-      <c r="Q29" s="82"/>
-      <c r="R29" s="82"/>
-      <c r="S29" s="82"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="68"/>
+      <c r="L29" s="68"/>
+      <c r="M29" s="68"/>
+      <c r="N29" s="68"/>
+      <c r="O29" s="68"/>
+      <c r="P29" s="68"/>
+      <c r="Q29" s="68"/>
+      <c r="R29" s="68"/>
+      <c r="S29" s="68"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
@@ -13440,15 +13479,15 @@
       </c>
     </row>
     <row r="53" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="66" t="s">
+      <c r="A53" s="70" t="s">
         <v>51</v>
       </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="68"/>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="72"/>
       <c r="I53">
-        <f t="shared" ref="I53:Q53" si="5">I32/J32</f>
+        <f t="shared" ref="I53:M53" si="5">I32/J32</f>
         <v>2</v>
       </c>
       <c r="J53">
@@ -13471,7 +13510,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <f t="shared" ref="O53:S53" si="6">O32/P32</f>
+        <f t="shared" ref="O53:Q53" si="6">O32/P32</f>
         <v>1.3333333333333335</v>
       </c>
       <c r="P53">
@@ -14001,46 +14040,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="74" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
       <c r="J2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K2" s="75" t="s">
+      <c r="K2" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="L2" s="75"/>
+      <c r="L2" s="80"/>
       <c r="M2" s="2" t="s">
         <v>59</v>
       </c>
@@ -14772,15 +14811,15 @@
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="69" t="s">
+      <c r="A18" s="74" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="71"/>
+      <c r="B18" s="75"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="76"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="26" t="s">
@@ -15161,16 +15200,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="68"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="38" t="s">
@@ -15329,14 +15368,14 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="74" t="s">
         <v>78</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="39" t="s">
@@ -15519,23 +15558,23 @@
       <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69" t="s">
+      <c r="A19" s="74" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="68"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="24"/>
-      <c r="E19" s="76" t="s">
+      <c r="E19" s="81" t="s">
         <v>80</v>
       </c>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="77"/>
-      <c r="L19" s="77"/>
-      <c r="M19" s="78"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="82"/>
+      <c r="H19" s="82"/>
+      <c r="I19" s="82"/>
+      <c r="J19" s="82"/>
+      <c r="K19" s="82"/>
+      <c r="L19" s="82"/>
+      <c r="M19" s="83"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="43" t="s">
@@ -15556,10 +15595,10 @@
       <c r="G20" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="H20" s="75" t="s">
+      <c r="H20" s="80" t="s">
         <v>58</v>
       </c>
-      <c r="I20" s="75"/>
+      <c r="I20" s="80"/>
       <c r="J20" s="2" t="s">
         <v>59</v>
       </c>
@@ -16056,11 +16095,11 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="84" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="79"/>
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oem\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4381A0EC-2D30-4498-9779-99D3AD39F721}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
@@ -1193,7 +1193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1363,6 +1363,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1396,9 +1406,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1408,60 +1426,38 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1864,34 +1860,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="N1" s="90" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="N1" s="96" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="91"/>
-      <c r="P1" s="91"/>
-      <c r="Q1" s="91"/>
-      <c r="R1" s="91"/>
-      <c r="S1" s="91"/>
-      <c r="T1" s="91"/>
-      <c r="U1" s="91"/>
-      <c r="V1" s="91"/>
-      <c r="W1" s="91"/>
-      <c r="X1" s="91"/>
-      <c r="Y1" s="91"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
@@ -3218,34 +3214,34 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="90" t="s">
+      <c r="A24" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="91"/>
-      <c r="C24" s="91"/>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="91"/>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91"/>
-      <c r="N24" s="90" t="s">
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="97"/>
+      <c r="L24" s="97"/>
+      <c r="N24" s="96" t="s">
         <v>28</v>
       </c>
-      <c r="O24" s="91"/>
-      <c r="P24" s="91"/>
-      <c r="Q24" s="91"/>
-      <c r="R24" s="91"/>
-      <c r="S24" s="91"/>
-      <c r="T24" s="91"/>
-      <c r="U24" s="91"/>
-      <c r="V24" s="91"/>
-      <c r="W24" s="91"/>
-      <c r="X24" s="91"/>
-      <c r="Y24" s="91"/>
+      <c r="O24" s="97"/>
+      <c r="P24" s="97"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="97"/>
+      <c r="S24" s="97"/>
+      <c r="T24" s="97"/>
+      <c r="U24" s="97"/>
+      <c r="V24" s="97"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="97"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
@@ -4742,34 +4738,34 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="92" t="s">
+      <c r="A47" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93"/>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
-      <c r="N47" s="90" t="s">
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99"/>
+      <c r="E47" s="99"/>
+      <c r="F47" s="99"/>
+      <c r="G47" s="99"/>
+      <c r="H47" s="99"/>
+      <c r="I47" s="99"/>
+      <c r="J47" s="99"/>
+      <c r="K47" s="99"/>
+      <c r="L47" s="99"/>
+      <c r="N47" s="96" t="s">
         <v>31</v>
       </c>
-      <c r="O47" s="91"/>
-      <c r="P47" s="91"/>
-      <c r="Q47" s="91"/>
-      <c r="R47" s="91"/>
-      <c r="S47" s="91"/>
-      <c r="T47" s="91"/>
-      <c r="U47" s="91"/>
-      <c r="V47" s="91"/>
-      <c r="W47" s="91"/>
-      <c r="X47" s="91"/>
-      <c r="Y47" s="91"/>
+      <c r="O47" s="97"/>
+      <c r="P47" s="97"/>
+      <c r="Q47" s="97"/>
+      <c r="R47" s="97"/>
+      <c r="S47" s="97"/>
+      <c r="T47" s="97"/>
+      <c r="U47" s="97"/>
+      <c r="V47" s="97"/>
+      <c r="W47" s="97"/>
+      <c r="X47" s="97"/>
+      <c r="Y47" s="97"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="41" t="s">
@@ -6466,13 +6462,13 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="87" t="s">
+      <c r="A70" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="B70" s="88"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="88"/>
-      <c r="E70" s="89"/>
+      <c r="B70" s="94"/>
+      <c r="C70" s="94"/>
+      <c r="D70" s="94"/>
+      <c r="E70" s="95"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="s">
@@ -6781,24 +6777,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="100" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="95"/>
-      <c r="C1" s="95"/>
-      <c r="D1" s="96"/>
-      <c r="F1" s="94" t="s">
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="102"/>
+      <c r="F1" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="95"/>
-      <c r="H1" s="96"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="102"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="94" t="s">
+      <c r="J1" s="100" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="95"/>
-      <c r="L1" s="95"/>
-      <c r="M1" s="96"/>
+      <c r="K1" s="101"/>
+      <c r="L1" s="101"/>
+      <c r="M1" s="102"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
@@ -7571,23 +7567,23 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+      <c r="A24" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="96"/>
-      <c r="F24" s="94" t="s">
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="F24" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="95"/>
-      <c r="H24" s="96"/>
-      <c r="J24" s="94" t="s">
+      <c r="G24" s="101"/>
+      <c r="H24" s="102"/>
+      <c r="J24" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="K24" s="95"/>
-      <c r="L24" s="95"/>
-      <c r="M24" s="96"/>
+      <c r="K24" s="101"/>
+      <c r="L24" s="101"/>
+      <c r="M24" s="102"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
@@ -8204,26 +8200,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="103" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="98"/>
-      <c r="G1" s="97" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="106"/>
+      <c r="G1" s="103" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="123"/>
-      <c r="L1" s="97" t="s">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="108"/>
+      <c r="L1" s="103" t="s">
         <v>217</v>
       </c>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
-      <c r="P1" s="98"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
+      <c r="P1" s="106"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="64" t="s">
@@ -8238,7 +8234,7 @@
       <c r="D2" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="119" t="s">
+      <c r="E2" s="90" t="s">
         <v>43</v>
       </c>
       <c r="G2" s="64" t="s">
@@ -8250,7 +8246,7 @@
       <c r="I2" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="119" t="s">
+      <c r="J2" s="90" t="s">
         <v>43</v>
       </c>
       <c r="L2" s="64" t="s">
@@ -8265,7 +8261,7 @@
       <c r="O2" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="119" t="s">
+      <c r="P2" s="90" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8284,21 +8280,21 @@
         <f>Uscite!$C3/365</f>
         <v>12.317351598173515</v>
       </c>
-      <c r="E3" s="120">
+      <c r="E3" s="91">
         <f>Uscite!$C3/Arrivi!$C3</f>
         <v>0.12023195072161455</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="114" t="s">
+      <c r="H3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="117">
+      <c r="I3" s="88">
         <f>Dati_OPTN!C26/365</f>
         <v>10.832876712328767</v>
       </c>
-      <c r="J3" s="120">
+      <c r="J3" s="91">
         <f>I3/Arrivi!H3</f>
         <v>9.5205990705737889E-2</v>
       </c>
@@ -8312,11 +8308,11 @@
         <f>AVERAGE(Dati_OPTN!C26:L26)</f>
         <v>4596.8</v>
       </c>
-      <c r="O3" s="116">
+      <c r="O3" s="4">
         <f>N3/365</f>
         <v>12.593972602739727</v>
       </c>
-      <c r="P3" s="120">
+      <c r="P3" s="91">
         <f>N3/Arrivi!$C3</f>
         <v>0.12293209959083251</v>
       </c>
@@ -8334,19 +8330,19 @@
         <f>Uscite!$C4/365</f>
         <v>3.6529680365296802E-3</v>
       </c>
-      <c r="E4" s="120">
+      <c r="E4" s="91">
         <f>Uscite!$C4/Arrivi!$C4</f>
         <v>3.5714285714285712E-2</v>
       </c>
       <c r="G4" s="6"/>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="117">
+      <c r="I4" s="88">
         <f>Dati_OPTN!C27/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="J4" s="120">
+      <c r="J4" s="91">
         <f>I4/Arrivi!H4</f>
         <v>2.4390243902439025E-2</v>
       </c>
@@ -8358,11 +8354,11 @@
         <f>AVERAGE(Dati_OPTN!C27:L27)</f>
         <v>3.1</v>
       </c>
-      <c r="O4" s="116">
+      <c r="O4" s="4">
         <f t="shared" ref="O4:O22" si="0">N4/365</f>
         <v>8.493150684931507E-3</v>
       </c>
-      <c r="P4" s="120">
+      <c r="P4" s="91">
         <f>N4/Arrivi!$C4</f>
         <v>8.3035714285714282E-2</v>
       </c>
@@ -8380,19 +8376,19 @@
         <f>Uscite!$C5/365</f>
         <v>4.6054794520547944</v>
       </c>
-      <c r="E5" s="120">
+      <c r="E5" s="91">
         <f>Uscite!$C5/Arrivi!$C5</f>
         <v>6.0025352766486739E-2</v>
       </c>
       <c r="G5" s="6"/>
-      <c r="H5" s="114" t="s">
+      <c r="H5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="117">
+      <c r="I5" s="88">
         <f>Dati_OPTN!C28/365</f>
         <v>4.2356164383561641</v>
       </c>
-      <c r="J5" s="120">
+      <c r="J5" s="91">
         <f>I5/Arrivi!H5</f>
         <v>4.9638786322042057E-2</v>
       </c>
@@ -8404,11 +8400,11 @@
         <f>AVERAGE(Dati_OPTN!C28:L28)</f>
         <v>1736.3</v>
       </c>
-      <c r="O5" s="116">
+      <c r="O5" s="4">
         <f t="shared" si="0"/>
         <v>4.7569863013698628</v>
       </c>
-      <c r="P5" s="120">
+      <c r="P5" s="91">
         <f>N5/Arrivi!$C5</f>
         <v>6.2000011902707271E-2</v>
       </c>
@@ -8426,19 +8422,19 @@
         <f>Uscite!$C6/365</f>
         <v>7.7082191780821914</v>
       </c>
-      <c r="E6" s="120">
+      <c r="E6" s="91">
         <f>Uscite!$C6/Arrivi!$C6</f>
         <v>0.30088227430710274</v>
       </c>
       <c r="G6" s="6"/>
-      <c r="H6" s="114" t="s">
+      <c r="H6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="117">
+      <c r="I6" s="88">
         <f>Dati_OPTN!C29/365</f>
         <v>6.5945205479452058</v>
       </c>
-      <c r="J6" s="120">
+      <c r="J6" s="91">
         <f>I6/Arrivi!H6</f>
         <v>0.23267278878685355</v>
       </c>
@@ -8450,11 +8446,11 @@
         <f>AVERAGE(Dati_OPTN!C29:L29)</f>
         <v>2857.4</v>
       </c>
-      <c r="O6" s="116">
+      <c r="O6" s="4">
         <f t="shared" si="0"/>
         <v>7.828493150684932</v>
       </c>
-      <c r="P6" s="120">
+      <c r="P6" s="91">
         <f>N6/Arrivi!$C6</f>
         <v>0.30557704304429195</v>
       </c>
@@ -8474,21 +8470,21 @@
         <f>Uscite!$C7/365</f>
         <v>6.4534246575342467</v>
       </c>
-      <c r="E7" s="120">
+      <c r="E7" s="91">
         <f>Uscite!$C7/Arrivi!$C7</f>
         <v>0.12915813715455476</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="114" t="s">
+      <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="117">
+      <c r="I7" s="88">
         <f>Dati_OPTN!C30/365</f>
         <v>5.8575342465753426</v>
       </c>
-      <c r="J7" s="120">
+      <c r="J7" s="91">
         <f>I7/Arrivi!H7</f>
         <v>0.10512341429835775</v>
       </c>
@@ -8502,11 +8498,11 @@
         <f>AVERAGE(Dati_OPTN!C30:L30)</f>
         <v>2399.5</v>
       </c>
-      <c r="O7" s="116">
+      <c r="O7" s="4">
         <f t="shared" si="0"/>
         <v>6.5739726027397261</v>
       </c>
-      <c r="P7" s="120">
+      <c r="P7" s="91">
         <f>N7/Arrivi!$C7</f>
         <v>0.13157077058049424</v>
       </c>
@@ -8524,19 +8520,19 @@
         <f>Uscite!$C8/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="E8" s="120">
+      <c r="E8" s="91">
         <f>Uscite!$C8/Arrivi!$C8</f>
         <v>5.2631578947368418E-2</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="114" t="s">
+      <c r="H8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="117">
+      <c r="I8" s="88">
         <f>Dati_OPTN!C31/365</f>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="J8" s="120">
+      <c r="J8" s="91">
         <f>I8/Arrivi!H8</f>
         <v>5.2631578947368418E-2</v>
       </c>
@@ -8548,11 +8544,11 @@
         <f>AVERAGE(Dati_OPTN!C31:L31)</f>
         <v>1.5</v>
       </c>
-      <c r="O8" s="116">
+      <c r="O8" s="4">
         <f t="shared" si="0"/>
         <v>4.10958904109589E-3</v>
       </c>
-      <c r="P8" s="120">
+      <c r="P8" s="91">
         <f>N8/Arrivi!$C8</f>
         <v>7.8947368421052627E-2</v>
       </c>
@@ -8570,19 +8566,19 @@
         <f>Uscite!$C9/365</f>
         <v>2.5036529680365298</v>
       </c>
-      <c r="E9" s="120">
+      <c r="E9" s="91">
         <f>Uscite!$C9/Arrivi!$C9</f>
         <v>6.6444498303441596E-2</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="114" t="s">
+      <c r="H9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="117">
+      <c r="I9" s="88">
         <f>Dati_OPTN!C32/365</f>
         <v>2.3945205479452056</v>
       </c>
-      <c r="J9" s="120">
+      <c r="J9" s="91">
         <f>I9/Arrivi!H9</f>
         <v>5.6819659342088158E-2</v>
       </c>
@@ -8594,11 +8590,11 @@
         <f>AVERAGE(Dati_OPTN!C32:L32)</f>
         <v>938.3</v>
       </c>
-      <c r="O9" s="116">
+      <c r="O9" s="4">
         <f t="shared" si="0"/>
         <v>2.5706849315068494</v>
       </c>
-      <c r="P9" s="120">
+      <c r="P9" s="91">
         <f>N9/Arrivi!$C9</f>
         <v>6.8223460979156561E-2</v>
       </c>
@@ -8616,19 +8612,19 @@
         <f>Uscite!$C10/365</f>
         <v>3.9470319634703199</v>
       </c>
-      <c r="E10" s="120">
+      <c r="E10" s="91">
         <f>Uscite!$C10/Arrivi!$C10</f>
         <v>0.32265770810003735</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="114" t="s">
+      <c r="H10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="117">
+      <c r="I10" s="88">
         <f>Dati_OPTN!C33/365</f>
         <v>3.4602739726027396</v>
       </c>
-      <c r="J10" s="120">
+      <c r="J10" s="91">
         <f>I10/Arrivi!H10</f>
         <v>0.25582337451893861</v>
       </c>
@@ -8640,11 +8636,11 @@
         <f>AVERAGE(Dati_OPTN!C33:L33)</f>
         <v>1459.7</v>
       </c>
-      <c r="O10" s="116">
+      <c r="O10" s="4">
         <f t="shared" si="0"/>
         <v>3.9991780821917811</v>
       </c>
-      <c r="P10" s="120">
+      <c r="P10" s="91">
         <f>N10/Arrivi!$C10</f>
         <v>0.32692049272116463</v>
       </c>
@@ -8664,21 +8660,21 @@
         <f>Uscite!$C11/365</f>
         <v>3.5452054794520547</v>
       </c>
-      <c r="E11" s="120">
+      <c r="E11" s="91">
         <f>Uscite!$C11/Arrivi!$C11</f>
         <v>0.10634305359613198</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="117">
+      <c r="I11" s="88">
         <f>Dati_OPTN!C34/365</f>
         <v>2.9150684931506849</v>
       </c>
-      <c r="J11" s="120">
+      <c r="J11" s="91">
         <f>I11/Arrivi!H11</f>
         <v>7.9084287200832465E-2</v>
       </c>
@@ -8692,11 +8688,11 @@
         <f>AVERAGE(Dati_OPTN!C34:L34)</f>
         <v>1333.8</v>
       </c>
-      <c r="O11" s="116">
+      <c r="O11" s="4">
         <f t="shared" si="0"/>
         <v>3.6542465753424658</v>
       </c>
-      <c r="P11" s="120">
+      <c r="P11" s="91">
         <f>N11/Arrivi!$C11</f>
         <v>0.109613883219877</v>
       </c>
@@ -8714,19 +8710,19 @@
         <f>Uscite!$C12/365</f>
         <v>9.1324200913242006E-4</v>
       </c>
-      <c r="E12" s="120">
+      <c r="E12" s="91">
         <f>Uscite!$C12/Arrivi!$C12</f>
         <v>3.125E-2</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="114" t="s">
+      <c r="H12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="117">
+      <c r="I12" s="88">
         <f>Dati_OPTN!C35/365</f>
         <v>0</v>
       </c>
-      <c r="J12" s="120">
+      <c r="J12" s="91">
         <f>I12/Arrivi!H12</f>
         <v>0</v>
       </c>
@@ -8738,11 +8734,11 @@
         <f>AVERAGE(Dati_OPTN!C35:L35)</f>
         <v>1</v>
       </c>
-      <c r="O12" s="116">
+      <c r="O12" s="4">
         <f t="shared" si="0"/>
         <v>2.7397260273972603E-3</v>
       </c>
-      <c r="P12" s="120">
+      <c r="P12" s="91">
         <f>N12/Arrivi!$C12</f>
         <v>9.375E-2</v>
       </c>
@@ -8760,19 +8756,19 @@
         <f>Uscite!$C13/365</f>
         <v>1.2205479452054795</v>
       </c>
-      <c r="E13" s="120">
+      <c r="E13" s="91">
         <f>Uscite!$C13/Arrivi!$C13</f>
         <v>4.9482589459264335E-2</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="117">
+      <c r="I13" s="88">
         <f>Dati_OPTN!C36/365</f>
         <v>1.0082191780821919</v>
       </c>
-      <c r="J13" s="120">
+      <c r="J13" s="91">
         <f>I13/Arrivi!H13</f>
         <v>3.7115481593545135E-2</v>
       </c>
@@ -8784,11 +8780,11 @@
         <f>AVERAGE(Dati_OPTN!C36:L36)</f>
         <v>469.5</v>
       </c>
-      <c r="O13" s="116">
+      <c r="O13" s="4">
         <f t="shared" si="0"/>
         <v>1.2863013698630137</v>
       </c>
-      <c r="P13" s="120">
+      <c r="P13" s="91">
         <f>N13/Arrivi!$C13</f>
         <v>5.2148318184342547E-2</v>
       </c>
@@ -8806,19 +8802,19 @@
         <f>Uscite!$C14/365</f>
         <v>2.3237442922374427</v>
       </c>
-      <c r="E14" s="120">
+      <c r="E14" s="91">
         <f>Uscite!$C14/Arrivi!$C14</f>
         <v>0.26888935855436963</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="114" t="s">
+      <c r="H14" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="117">
+      <c r="I14" s="88">
         <f>Dati_OPTN!C37/365</f>
         <v>1.9068493150684931</v>
       </c>
-      <c r="J14" s="120">
+      <c r="J14" s="91">
         <f>I14/Arrivi!H14</f>
         <v>0.19722300935109097</v>
       </c>
@@ -8830,11 +8826,11 @@
         <f>AVERAGE(Dati_OPTN!C37:L37)</f>
         <v>863.3</v>
       </c>
-      <c r="O14" s="116">
+      <c r="O14" s="4">
         <f t="shared" si="0"/>
         <v>2.3652054794520545</v>
       </c>
-      <c r="P14" s="120">
+      <c r="P14" s="91">
         <f>N14/Arrivi!$C14</f>
         <v>0.27368699144034658</v>
       </c>
@@ -8854,21 +8850,21 @@
         <f>Uscite!$C15/365</f>
         <v>1.9881278538812783</v>
       </c>
-      <c r="E15" s="120">
+      <c r="E15" s="91">
         <f>Uscite!$C15/Arrivi!$C15</f>
         <v>0.13043348012342348</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="114" t="s">
+      <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="117">
+      <c r="I15" s="88">
         <f>Dati_OPTN!C38/365</f>
         <v>1.7863013698630137</v>
       </c>
-      <c r="J15" s="120">
+      <c r="J15" s="91">
         <f>I15/Arrivi!H15</f>
         <v>0.10605074821080027</v>
       </c>
@@ -8882,11 +8878,11 @@
         <f>AVERAGE(Dati_OPTN!C38:L38)</f>
         <v>733.9</v>
       </c>
-      <c r="O15" s="116">
+      <c r="O15" s="4">
         <f t="shared" si="0"/>
         <v>2.0106849315068493</v>
       </c>
-      <c r="P15" s="120">
+      <c r="P15" s="91">
         <f>N15/Arrivi!$C15</f>
         <v>0.13191336388963781</v>
       </c>
@@ -8904,19 +8900,19 @@
         <f>Uscite!$C16/365</f>
         <v>0</v>
       </c>
-      <c r="E16" s="120">
+      <c r="E16" s="91">
         <f>Uscite!$C16/Arrivi!$C16</f>
         <v>0</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="114" t="s">
+      <c r="H16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I16" s="117">
+      <c r="I16" s="88">
         <f>Dati_OPTN!C39/365</f>
         <v>0</v>
       </c>
-      <c r="J16" s="120">
+      <c r="J16" s="91">
         <f>I16/Arrivi!H16</f>
         <v>0</v>
       </c>
@@ -8928,11 +8924,11 @@
         <f>AVERAGE(Dati_OPTN!C39:L39)</f>
         <v>0.5</v>
       </c>
-      <c r="O16" s="116">
+      <c r="O16" s="4">
         <f t="shared" si="0"/>
         <v>1.3698630136986301E-3</v>
       </c>
-      <c r="P16" s="120">
+      <c r="P16" s="91">
         <f>N16/Arrivi!$C16</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -8950,19 +8946,19 @@
         <f>Uscite!$C17/365</f>
         <v>0.77579908675799092</v>
       </c>
-      <c r="E17" s="120">
+      <c r="E17" s="91">
         <f>Uscite!$C17/Arrivi!$C17</f>
         <v>6.7452755280292209E-2</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="114" t="s">
+      <c r="H17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="117">
+      <c r="I17" s="88">
         <f>Dati_OPTN!C40/365</f>
         <v>0.73972602739726023</v>
       </c>
-      <c r="J17" s="120">
+      <c r="J17" s="91">
         <f>I17/Arrivi!H17</f>
         <v>5.7581573896353162E-2</v>
       </c>
@@ -8974,11 +8970,11 @@
         <f>AVERAGE(Dati_OPTN!C40:L40)</f>
         <v>285.60000000000002</v>
       </c>
-      <c r="O17" s="116">
+      <c r="O17" s="4">
         <f t="shared" si="0"/>
         <v>0.78246575342465763</v>
       </c>
-      <c r="P17" s="120">
+      <c r="P17" s="91">
         <f>N17/Arrivi!$C17</f>
         <v>6.8032396379228213E-2</v>
       </c>
@@ -8996,19 +8992,19 @@
         <f>Uscite!$C18/365</f>
         <v>1.2123287671232876</v>
       </c>
-      <c r="E18" s="120">
+      <c r="E18" s="91">
         <f>Uscite!$C18/Arrivi!$C18</f>
         <v>0.32548731151158516</v>
       </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="114" t="s">
+      <c r="H18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I18" s="117">
+      <c r="I18" s="88">
         <f>Dati_OPTN!C41/365</f>
         <v>1.0465753424657533</v>
       </c>
-      <c r="J18" s="120">
+      <c r="J18" s="91">
         <f>I18/Arrivi!H18</f>
         <v>0.26363008971704621</v>
       </c>
@@ -9021,11 +9017,11 @@
         <f>AVERAGE(Dati_OPTN!C41:L41)</f>
         <v>447.8</v>
       </c>
-      <c r="O18" s="116">
+      <c r="O18" s="4">
         <f t="shared" si="0"/>
         <v>1.2268493150684932</v>
       </c>
-      <c r="P18" s="120">
+      <c r="P18" s="91">
         <f>N18/Arrivi!$C18</f>
         <v>0.32938580360426628</v>
       </c>
@@ -9045,21 +9041,21 @@
         <f>Uscite!$C19/365</f>
         <v>0.33059360730593607</v>
       </c>
-      <c r="E19" s="120">
+      <c r="E19" s="91">
         <f>Uscite!$C19/Arrivi!$C19</f>
         <v>8.4688267633641373E-2</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="114" t="s">
+      <c r="H19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="117">
+      <c r="I19" s="88">
         <f>Dati_OPTN!C42/365</f>
         <v>0.27397260273972601</v>
       </c>
-      <c r="J19" s="120">
+      <c r="J19" s="91">
         <f>I19/Arrivi!H19</f>
         <v>6.2814070351758788E-2</v>
       </c>
@@ -9074,11 +9070,11 @@
         <f>AVERAGE(Dati_OPTN!C42:L42)</f>
         <v>129.6</v>
       </c>
-      <c r="O19" s="116">
+      <c r="O19" s="4">
         <f t="shared" si="0"/>
         <v>0.35506849315068489</v>
       </c>
-      <c r="P19" s="120">
+      <c r="P19" s="91">
         <f>N19/Arrivi!$C19</f>
         <v>9.0958006784419232E-2</v>
       </c>
@@ -9096,19 +9092,19 @@
         <f>Uscite!$C20/365</f>
         <v>0</v>
       </c>
-      <c r="E20" s="120">
+      <c r="E20" s="91">
         <f>Uscite!$C20/Arrivi!$C20</f>
         <v>0</v>
       </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="114" t="s">
+      <c r="H20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I20" s="117">
+      <c r="I20" s="88">
         <f>Dati_OPTN!C43/365</f>
         <v>0</v>
       </c>
-      <c r="J20" s="120">
+      <c r="J20" s="91">
         <f>I20/Arrivi!H20</f>
         <v>0</v>
       </c>
@@ -9121,11 +9117,11 @@
         <f>AVERAGE(Dati_OPTN!C43:L43)</f>
         <v>0.1</v>
       </c>
-      <c r="O20" s="116">
+      <c r="O20" s="4">
         <f t="shared" si="0"/>
         <v>2.7397260273972606E-4</v>
       </c>
-      <c r="P20" s="120">
+      <c r="P20" s="91">
         <f>N20/Arrivi!$C20</f>
         <v>0.06</v>
       </c>
@@ -9143,19 +9139,19 @@
         <f>Uscite!$C21/365</f>
         <v>0.10547945205479452</v>
       </c>
-      <c r="E21" s="120">
+      <c r="E21" s="91">
         <f>Uscite!$C21/Arrivi!$C21</f>
         <v>3.662597114317425E-2</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="114" t="s">
+      <c r="H21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="117">
+      <c r="I21" s="88">
         <f>Dati_OPTN!C44/365</f>
         <v>9.3150684931506855E-2</v>
       </c>
-      <c r="J21" s="120">
+      <c r="J21" s="91">
         <f>I21/Arrivi!H21</f>
         <v>2.931034482758621E-2</v>
       </c>
@@ -9168,11 +9164,11 @@
         <f>AVERAGE(Dati_OPTN!C44:L44)</f>
         <v>42.9</v>
       </c>
-      <c r="O21" s="116">
+      <c r="O21" s="4">
         <f t="shared" si="0"/>
         <v>0.11753424657534246</v>
       </c>
-      <c r="P21" s="120">
+      <c r="P21" s="91">
         <f>N21/Arrivi!$C21</f>
         <v>4.0811796416679876E-2</v>
       </c>
@@ -9195,10 +9191,10 @@
         <v>0.22087813620071686</v>
       </c>
       <c r="G22" s="56"/>
-      <c r="H22" s="115" t="s">
+      <c r="H22" s="87" t="s">
         <v>22</v>
       </c>
-      <c r="I22" s="118">
+      <c r="I22" s="89">
         <f>Dati_OPTN!C45/365</f>
         <v>0.18082191780821918</v>
       </c>
@@ -9241,26 +9237,26 @@
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="103" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="98"/>
-      <c r="G24" s="97" t="s">
+      <c r="B24" s="103"/>
+      <c r="C24" s="103"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="106"/>
+      <c r="G24" s="103" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="122"/>
-      <c r="I24" s="122"/>
-      <c r="J24" s="123"/>
-      <c r="L24" s="97" t="s">
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="108"/>
+      <c r="L24" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="97"/>
-      <c r="P24" s="98"/>
+      <c r="M24" s="103"/>
+      <c r="N24" s="103"/>
+      <c r="O24" s="103"/>
+      <c r="P24" s="106"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="64" t="s">
@@ -9287,7 +9283,7 @@
       <c r="I25" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="J25" s="119" t="s">
+      <c r="J25" s="90" t="s">
         <v>43</v>
       </c>
       <c r="L25" s="64" t="s">
@@ -9335,7 +9331,7 @@
         <f>Dati_OPTN!P49/365</f>
         <v>33.232876712328768</v>
       </c>
-      <c r="J26" s="120">
+      <c r="J26" s="91">
         <f>I26/Arrivi!H3</f>
         <v>0.29207098312104213</v>
       </c>
@@ -9349,7 +9345,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P49:Y49) &gt; Arrivi!C3, Arrivi!C3, AVERAGE(Dati_OPTN!P49:Y49))</f>
         <v>10845.9</v>
       </c>
-      <c r="O26" s="121">
+      <c r="O26" s="92">
         <f>N26/365</f>
         <v>29.714794520547944</v>
       </c>
@@ -9383,7 +9379,7 @@
         <f>Dati_OPTN!P50/365</f>
         <v>5.4794520547945206E-3</v>
       </c>
-      <c r="J27" s="120">
+      <c r="J27" s="91">
         <f>I27/Arrivi!H4</f>
         <v>4.878048780487805E-2</v>
       </c>
@@ -9395,7 +9391,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P50:Y50) &gt; Arrivi!C4, Arrivi!C4, AVERAGE(Dati_OPTN!P50:Y50))</f>
         <v>4.4000000000000004</v>
       </c>
-      <c r="O27" s="116">
+      <c r="O27" s="4">
         <f t="shared" ref="O27:O45" si="1">N27/365</f>
         <v>1.2054794520547946E-2</v>
       </c>
@@ -9429,7 +9425,7 @@
         <f>Dati_OPTN!P51/365</f>
         <v>8.1999999999999993</v>
       </c>
-      <c r="J28" s="120">
+      <c r="J28" s="91">
         <f>I28/Arrivi!H5</f>
         <v>9.6098892278054251E-2</v>
       </c>
@@ -9441,7 +9437,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P51:Y51) &gt; Arrivi!C5, Arrivi!C5, AVERAGE(Dati_OPTN!P51:Y51))</f>
         <v>2764.8</v>
       </c>
-      <c r="O28" s="116">
+      <c r="O28" s="4">
         <f t="shared" si="1"/>
         <v>7.5747945205479459</v>
       </c>
@@ -9475,7 +9471,7 @@
         <f>Dati_OPTN!P52/365</f>
         <v>25.027397260273972</v>
       </c>
-      <c r="J29" s="120">
+      <c r="J29" s="91">
         <f>I29/Arrivi!H6</f>
         <v>0.88303528274528753</v>
       </c>
@@ -9487,7 +9483,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P52:Y52) &gt; Arrivi!C6, Arrivi!C6, AVERAGE(Dati_OPTN!P52:Y52))</f>
         <v>8076.7</v>
       </c>
-      <c r="O29" s="116">
+      <c r="O29" s="4">
         <f t="shared" si="1"/>
         <v>22.127945205479453</v>
       </c>
@@ -9525,7 +9521,7 @@
         <f>Dati_OPTN!P53/365</f>
         <v>17.260273972602739</v>
       </c>
-      <c r="J30" s="120">
+      <c r="J30" s="91">
         <f>I30/Arrivi!H7</f>
         <v>0.30976497197364539</v>
       </c>
@@ -9539,7 +9535,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P53:Y53) &gt; Arrivi!C7, Arrivi!C7, AVERAGE(Dati_OPTN!P53:Y53))</f>
         <v>5564.1</v>
       </c>
-      <c r="O30" s="116">
+      <c r="O30" s="4">
         <f t="shared" si="1"/>
         <v>15.244109589041097</v>
       </c>
@@ -9573,7 +9569,7 @@
         <f>Dati_OPTN!P54/365</f>
         <v>0</v>
       </c>
-      <c r="J31" s="120">
+      <c r="J31" s="91">
         <f>I31/Arrivi!H8</f>
         <v>0</v>
       </c>
@@ -9585,7 +9581,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P54:Y54) &gt; Arrivi!C8, Arrivi!C8, AVERAGE(Dati_OPTN!P54:Y54))</f>
         <v>2.5</v>
       </c>
-      <c r="O31" s="116">
+      <c r="O31" s="4">
         <f t="shared" si="1"/>
         <v>6.8493150684931503E-3</v>
       </c>
@@ -9619,7 +9615,7 @@
         <f>Dati_OPTN!P55/365</f>
         <v>4.2849315068493148</v>
       </c>
-      <c r="J32" s="120">
+      <c r="J32" s="91">
         <f>I32/Arrivi!H9</f>
         <v>0.10167728513847353</v>
       </c>
@@ -9631,7 +9627,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P55:Y55) &gt; Arrivi!C9, Arrivi!C9, AVERAGE(Dati_OPTN!P55:Y55))</f>
         <v>1439.5</v>
       </c>
-      <c r="O32" s="116">
+      <c r="O32" s="4">
         <f t="shared" si="1"/>
         <v>3.9438356164383563</v>
       </c>
@@ -9665,7 +9661,7 @@
         <f>Dati_OPTN!P56/365</f>
         <v>12.975342465753425</v>
       </c>
-      <c r="J33" s="120">
+      <c r="J33" s="91">
         <f>I33/Arrivi!H10</f>
         <v>0.95928701640672476</v>
       </c>
@@ -9677,7 +9673,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P56:Y56) &gt; Arrivi!C10, Arrivi!C10, AVERAGE(Dati_OPTN!P56:Y56))</f>
         <v>4122.1000000000004</v>
       </c>
-      <c r="O33" s="116">
+      <c r="O33" s="4">
         <f t="shared" si="1"/>
         <v>11.293424657534247</v>
       </c>
@@ -9715,7 +9711,7 @@
         <f>Dati_OPTN!P57/365</f>
         <v>9.6876712328767116</v>
       </c>
-      <c r="J34" s="120">
+      <c r="J34" s="91">
         <f>I34/Arrivi!H11</f>
         <v>0.26282146573509735</v>
       </c>
@@ -9729,7 +9725,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P57:Y57) &gt; Arrivi!C11, Arrivi!C11, AVERAGE(Dati_OPTN!P57:Y57))</f>
         <v>3261.2</v>
       </c>
-      <c r="O34" s="116">
+      <c r="O34" s="4">
         <f t="shared" si="1"/>
         <v>8.9347945205479444</v>
       </c>
@@ -9763,7 +9759,7 @@
         <f>Dati_OPTN!P58/365</f>
         <v>5.4794520547945206E-3</v>
       </c>
-      <c r="J35" s="120">
+      <c r="J35" s="91">
         <f>I35/Arrivi!H12</f>
         <v>0.2</v>
       </c>
@@ -9775,7 +9771,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P58:Y58) &gt; Arrivi!C12, Arrivi!C12, AVERAGE(Dati_OPTN!P58:Y58))</f>
         <v>1.2</v>
       </c>
-      <c r="O35" s="116">
+      <c r="O35" s="4">
         <f t="shared" si="1"/>
         <v>3.2876712328767121E-3</v>
       </c>
@@ -9809,7 +9805,7 @@
         <f>Dati_OPTN!P59/365</f>
         <v>2.3671232876712329</v>
       </c>
-      <c r="J36" s="120">
+      <c r="J36" s="91">
         <f>I36/Arrivi!H13</f>
         <v>8.7140695915279884E-2</v>
       </c>
@@ -9821,7 +9817,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P59:Y59) &gt; Arrivi!C13, Arrivi!C13, AVERAGE(Dati_OPTN!P59:Y59))</f>
         <v>818.7</v>
       </c>
-      <c r="O36" s="116">
+      <c r="O36" s="4">
         <f t="shared" si="1"/>
         <v>2.2430136986301372</v>
       </c>
@@ -9855,7 +9851,7 @@
         <f>Dati_OPTN!P60/365</f>
         <v>7.3150684931506849</v>
       </c>
-      <c r="J37" s="120">
+      <c r="J37" s="91">
         <f>I37/Arrivi!H14</f>
         <v>0.75658826863134032</v>
       </c>
@@ -9867,7 +9863,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P60:Y60) &gt; Arrivi!C14, Arrivi!C14, AVERAGE(Dati_OPTN!P60:Y60))</f>
         <v>2441.3000000000002</v>
       </c>
-      <c r="O37" s="116">
+      <c r="O37" s="4">
         <f t="shared" si="1"/>
         <v>6.6884931506849323</v>
       </c>
@@ -9905,7 +9901,7 @@
         <f>Dati_OPTN!P61/365</f>
         <v>5.4136986301369863</v>
       </c>
-      <c r="J38" s="120">
+      <c r="J38" s="91">
         <f>I38/Arrivi!H15</f>
         <v>0.32140533506831492</v>
       </c>
@@ -9919,7 +9915,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P61:Y61) &gt; Arrivi!C15, Arrivi!C15, AVERAGE(Dati_OPTN!P61:Y61))</f>
         <v>1702.6</v>
       </c>
-      <c r="O38" s="116">
+      <c r="O38" s="4">
         <f t="shared" si="1"/>
         <v>4.664657534246575</v>
       </c>
@@ -9953,7 +9949,7 @@
         <f>Dati_OPTN!P62/365</f>
         <v>0</v>
       </c>
-      <c r="J39" s="120">
+      <c r="J39" s="91">
         <f>I39/Arrivi!H16</f>
         <v>0</v>
       </c>
@@ -9965,7 +9961,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P62:Y62) &gt; Arrivi!C16, Arrivi!C16, AVERAGE(Dati_OPTN!P62:Y62))</f>
         <v>0.4</v>
       </c>
-      <c r="O39" s="116">
+      <c r="O39" s="4">
         <f t="shared" si="1"/>
         <v>1.0958904109589042E-3</v>
       </c>
@@ -9999,7 +9995,7 @@
         <f>Dati_OPTN!P63/365</f>
         <v>1.3095890410958904</v>
       </c>
-      <c r="J40" s="120">
+      <c r="J40" s="91">
         <f>I40/Arrivi!H17</f>
         <v>0.1019407123053956</v>
       </c>
@@ -10011,7 +10007,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P63:Y63) &gt; Arrivi!C17, Arrivi!C17, AVERAGE(Dati_OPTN!P63:Y63))</f>
         <v>430.7</v>
       </c>
-      <c r="O40" s="116">
+      <c r="O40" s="4">
         <f t="shared" si="1"/>
         <v>1.18</v>
       </c>
@@ -10045,7 +10041,7 @@
         <f>Dati_OPTN!P64/365</f>
         <v>4.1041095890410961</v>
       </c>
-      <c r="J41" s="120">
+      <c r="J41" s="91">
         <f>I41/Arrivi!H18</f>
         <v>1.0338164251207731</v>
       </c>
@@ -10057,7 +10053,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P64:Y64) &gt; Arrivi!C18, Arrivi!C18, AVERAGE(Dati_OPTN!P64:Y64))</f>
         <v>1271.5</v>
       </c>
-      <c r="O41" s="116">
+      <c r="O41" s="4">
         <f t="shared" si="1"/>
         <v>3.4835616438356163</v>
       </c>
@@ -10095,7 +10091,7 @@
         <f>Dati_OPTN!P65/365</f>
         <v>0.87123287671232874</v>
       </c>
-      <c r="J42" s="120">
+      <c r="J42" s="91">
         <f>I42/Arrivi!H19</f>
         <v>0.19974874371859297</v>
       </c>
@@ -10109,7 +10105,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P65:Y65) &gt; Arrivi!C19, Arrivi!C19, AVERAGE(Dati_OPTN!P65:Y65))</f>
         <v>318.3</v>
       </c>
-      <c r="O42" s="116">
+      <c r="O42" s="4">
         <f t="shared" si="1"/>
         <v>0.87205479452054802</v>
       </c>
@@ -10143,7 +10139,7 @@
         <f>Dati_OPTN!P66/365</f>
         <v>0</v>
       </c>
-      <c r="J43" s="120">
+      <c r="J43" s="91">
         <f>I43/Arrivi!H20</f>
         <v>0</v>
       </c>
@@ -10155,7 +10151,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P66:Y66) &gt; Arrivi!C20, Arrivi!C20, AVERAGE(Dati_OPTN!P66:Y66))</f>
         <v>0.3</v>
       </c>
-      <c r="O43" s="116">
+      <c r="O43" s="4">
         <f t="shared" si="1"/>
         <v>8.2191780821917802E-4</v>
       </c>
@@ -10189,7 +10185,7 @@
         <f>Dati_OPTN!P67/365</f>
         <v>0.23835616438356164</v>
       </c>
-      <c r="J44" s="120">
+      <c r="J44" s="91">
         <f>I44/Arrivi!H21</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -10201,7 +10197,7 @@
         <f>IF(AVERAGE(Dati_OPTN!P67:Y67) &gt; Arrivi!C21, Arrivi!C21, AVERAGE(Dati_OPTN!P67:Y67))</f>
         <v>76.099999999999994</v>
       </c>
-      <c r="O44" s="116">
+      <c r="O44" s="4">
         <f t="shared" si="1"/>
         <v>0.20849315068493149</v>
       </c>
@@ -10272,27 +10268,27 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="97" t="s">
+      <c r="A47" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="124"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="125"/>
+      <c r="B47" s="104"/>
+      <c r="C47" s="104"/>
+      <c r="D47" s="104"/>
+      <c r="E47" s="105"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="97" t="s">
+      <c r="G47" s="103" t="s">
         <v>219</v>
       </c>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="125"/>
-      <c r="L47" s="97" t="s">
+      <c r="H47" s="104"/>
+      <c r="I47" s="104"/>
+      <c r="J47" s="105"/>
+      <c r="L47" s="103" t="s">
         <v>202</v>
       </c>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
-      <c r="O47" s="124"/>
-      <c r="P47" s="125"/>
+      <c r="M47" s="104"/>
+      <c r="N47" s="104"/>
+      <c r="O47" s="104"/>
+      <c r="P47" s="105"/>
       <c r="Q47" s="8"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -10384,7 +10380,7 @@
         <f>AVERAGE(Dati_OPTN!C49:L49)</f>
         <v>18179.2</v>
       </c>
-      <c r="O49" s="121">
+      <c r="O49" s="92">
         <f>N49/365</f>
         <v>49.806027397260273</v>
       </c>
@@ -10430,7 +10426,7 @@
         <f>AVERAGE(Dati_OPTN!C50:L50)</f>
         <v>21.2</v>
       </c>
-      <c r="O50" s="116">
+      <c r="O50" s="4">
         <f t="shared" ref="O50:O68" si="2">N50/365</f>
         <v>5.8082191780821919E-2</v>
       </c>
@@ -10476,7 +10472,7 @@
         <f>AVERAGE(Dati_OPTN!C51:L51)</f>
         <v>16771.5</v>
       </c>
-      <c r="O51" s="116">
+      <c r="O51" s="4">
         <f t="shared" si="2"/>
         <v>45.949315068493149</v>
       </c>
@@ -10522,7 +10518,7 @@
         <f>AVERAGE(Dati_OPTN!C52:L52)</f>
         <v>1386.5</v>
       </c>
-      <c r="O52" s="116">
+      <c r="O52" s="4">
         <f t="shared" si="2"/>
         <v>3.7986301369863016</v>
       </c>
@@ -10574,7 +10570,7 @@
         <f>AVERAGE(Dati_OPTN!C53:L53)</f>
         <v>8204</v>
       </c>
-      <c r="O53" s="116">
+      <c r="O53" s="4">
         <f t="shared" si="2"/>
         <v>22.476712328767125</v>
       </c>
@@ -10620,7 +10616,7 @@
         <f>AVERAGE(Dati_OPTN!C54:L54)</f>
         <v>10</v>
       </c>
-      <c r="O54" s="116">
+      <c r="O54" s="4">
         <f t="shared" si="2"/>
         <v>2.7397260273972601E-2</v>
       </c>
@@ -10666,7 +10662,7 @@
         <f>AVERAGE(Dati_OPTN!C55:L55)</f>
         <v>7605</v>
       </c>
-      <c r="O55" s="116">
+      <c r="O55" s="4">
         <f t="shared" si="2"/>
         <v>20.835616438356166</v>
       </c>
@@ -10712,7 +10708,7 @@
         <f>AVERAGE(Dati_OPTN!C56:L56)</f>
         <v>589</v>
       </c>
-      <c r="O56" s="116">
+      <c r="O56" s="4">
         <f t="shared" si="2"/>
         <v>1.6136986301369862</v>
       </c>
@@ -10764,7 +10760,7 @@
         <f>AVERAGE(Dati_OPTN!C57:L57)</f>
         <v>6619.6</v>
       </c>
-      <c r="O57" s="116">
+      <c r="O57" s="4">
         <f t="shared" si="2"/>
         <v>18.135890410958904</v>
       </c>
@@ -10810,7 +10806,7 @@
         <f>AVERAGE(Dati_OPTN!C58:L58)</f>
         <v>6</v>
       </c>
-      <c r="O58" s="116">
+      <c r="O58" s="4">
         <f t="shared" si="2"/>
         <v>1.643835616438356E-2</v>
       </c>
@@ -10856,7 +10852,7 @@
         <f>AVERAGE(Dati_OPTN!C59:L59)</f>
         <v>6052</v>
       </c>
-      <c r="O59" s="116">
+      <c r="O59" s="4">
         <f t="shared" si="2"/>
         <v>16.580821917808219</v>
       </c>
@@ -10902,7 +10898,7 @@
         <f>AVERAGE(Dati_OPTN!C60:L60)</f>
         <v>561.6</v>
       </c>
-      <c r="O60" s="116">
+      <c r="O60" s="4">
         <f t="shared" si="2"/>
         <v>1.5386301369863014</v>
       </c>
@@ -10954,7 +10950,7 @@
         <f>AVERAGE(Dati_OPTN!C61:L61)</f>
         <v>2458.9</v>
       </c>
-      <c r="O61" s="116">
+      <c r="O61" s="4">
         <f t="shared" si="2"/>
         <v>6.7367123287671236</v>
       </c>
@@ -11000,7 +10996,7 @@
         <f>AVERAGE(Dati_OPTN!C62:L62)</f>
         <v>4.3</v>
       </c>
-      <c r="O62" s="116">
+      <c r="O62" s="4">
         <f t="shared" si="2"/>
         <v>1.1780821917808219E-2</v>
       </c>
@@ -11046,7 +11042,7 @@
         <f>AVERAGE(Dati_OPTN!C63:L63)</f>
         <v>2279.5</v>
       </c>
-      <c r="O63" s="116">
+      <c r="O63" s="4">
         <f t="shared" si="2"/>
         <v>6.2452054794520544</v>
       </c>
@@ -11092,7 +11088,7 @@
         <f>AVERAGE(Dati_OPTN!C64:L64)</f>
         <v>175.1</v>
       </c>
-      <c r="O64" s="116">
+      <c r="O64" s="4">
         <f t="shared" si="2"/>
         <v>0.47972602739726028</v>
       </c>
@@ -11144,7 +11140,7 @@
         <f>AVERAGE(Dati_OPTN!C65:L65)</f>
         <v>896.7</v>
       </c>
-      <c r="O65" s="116">
+      <c r="O65" s="4">
         <f t="shared" si="2"/>
         <v>2.4567123287671233</v>
       </c>
@@ -11190,7 +11186,7 @@
         <f>AVERAGE(Dati_OPTN!C66:L66)</f>
         <v>0.9</v>
       </c>
-      <c r="O66" s="116">
+      <c r="O66" s="4">
         <f t="shared" si="2"/>
         <v>2.4657534246575342E-3</v>
       </c>
@@ -11236,7 +11232,7 @@
         <f>AVERAGE(Dati_OPTN!C67:L67)</f>
         <v>835</v>
       </c>
-      <c r="O67" s="116">
+      <c r="O67" s="4">
         <f t="shared" si="2"/>
         <v>2.2876712328767121</v>
       </c>
@@ -11312,7 +11308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
@@ -11334,16 +11330,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="111" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11501,14 +11497,14 @@
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="101" t="s">
+      <c r="A8" s="111" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="101"/>
-      <c r="C8" s="101"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="101"/>
+      <c r="B8" s="111"/>
+      <c r="C8" s="111"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="111"/>
+      <c r="F8" s="111"/>
     </row>
     <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
@@ -11698,23 +11694,23 @@
       <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="101" t="s">
+      <c r="A19" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="B19" s="101"/>
-      <c r="C19" s="101"/>
+      <c r="B19" s="111"/>
+      <c r="C19" s="111"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="99" t="s">
+      <c r="E19" s="109" t="s">
         <v>208</v>
       </c>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="99"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="109"/>
+      <c r="J19" s="109"/>
+      <c r="K19" s="109"/>
+      <c r="L19" s="109"/>
+      <c r="M19" s="109"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -11735,10 +11731,10 @@
       <c r="G20" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H20" s="100" t="s">
+      <c r="H20" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="I20" s="100"/>
+      <c r="I20" s="110"/>
       <c r="J20" s="1" t="s">
         <v>48</v>
       </c>
@@ -12144,17 +12140,17 @@
       <c r="C31" s="15">
         <v>0.87168949771689497</v>
       </c>
-      <c r="E31" s="99" t="s">
+      <c r="E31" s="109" t="s">
         <v>215</v>
       </c>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
+      <c r="F31" s="109"/>
+      <c r="G31" s="109"/>
+      <c r="H31" s="109"/>
+      <c r="I31" s="109"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="109"/>
+      <c r="L31" s="109"/>
+      <c r="M31" s="109"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="16"/>
@@ -12173,10 +12169,10 @@
       <c r="G32" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="H32" s="100" t="s">
+      <c r="H32" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="I32" s="100"/>
+      <c r="I32" s="110"/>
       <c r="J32" s="1" t="s">
         <v>209</v>
       </c>
@@ -12544,8 +12540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y105" sqref="Y105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12558,32 +12554,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="113"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="113" t="s">
+      <c r="G1" s="112" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="113"/>
-      <c r="I1" s="113"/>
-      <c r="J1" s="113"/>
-      <c r="K1" s="113"/>
-      <c r="L1" s="113"/>
-      <c r="M1" s="113"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="105"/>
+      <c r="C2" s="113"/>
       <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
@@ -12594,11 +12590,11 @@
       <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="105" t="s">
+      <c r="H2" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="105"/>
-      <c r="J2" s="105"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
@@ -12613,10 +12609,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="102"/>
+      <c r="C3" s="114"/>
       <c r="D3">
         <f>Dati_OPTN!C30/(Dati_OPTN!C7+Dati_OPTN!P53)</f>
         <v>8.0261280876942717E-2</v>
@@ -12628,11 +12624,11 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="102" t="s">
+      <c r="H3" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
+      <c r="I3" s="114"/>
+      <c r="J3" s="114"/>
       <c r="K3">
         <f>Dati_OPTN!P53/(Dati_OPTN!C30+Dati_OPTN!C7)</f>
         <v>0.28029898558462357</v>
@@ -12649,10 +12645,10 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="102" t="s">
+      <c r="B4" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="102"/>
+      <c r="C4" s="114"/>
       <c r="D4">
         <f>Dati_OPTN!C34/(Dati_OPTN!C11+Dati_OPTN!P57)</f>
         <v>6.2625073572689816E-2</v>
@@ -12664,11 +12660,11 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="102" t="s">
+      <c r="H4" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
       <c r="K4">
         <f>Dati_OPTN!P57/(Dati_OPTN!C34+Dati_OPTN!C11)</f>
         <v>0.24355971896955503</v>
@@ -12685,10 +12681,10 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="102" t="s">
+      <c r="B5" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="102"/>
+      <c r="C5" s="114"/>
       <c r="D5">
         <f>Dati_OPTN!C38/(Dati_OPTN!C15+Dati_OPTN!P61)</f>
         <v>8.0256031511570652E-2</v>
@@ -12700,11 +12696,11 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="102" t="s">
+      <c r="H5" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="102"/>
-      <c r="J5" s="102"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
       <c r="K5">
         <f>Dati_OPTN!P61/(Dati_OPTN!C38+Dati_OPTN!C15)</f>
         <v>0.29058823529411765</v>
@@ -12721,10 +12717,10 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="102" t="s">
+      <c r="B6" s="114" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="102"/>
+      <c r="C6" s="114"/>
       <c r="D6">
         <f>Dati_OPTN!C42/(Dati_OPTN!C19+Dati_OPTN!P65)</f>
         <v>5.2356020942408377E-2</v>
@@ -12736,11 +12732,11 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="114" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="102"/>
-      <c r="J6" s="102"/>
+      <c r="I6" s="114"/>
+      <c r="J6" s="114"/>
       <c r="K6">
         <f>Dati_OPTN!P65/(Dati_OPTN!C42+Dati_OPTN!C19)</f>
         <v>0.18794326241134751</v>
@@ -12757,25 +12753,25 @@
       <c r="C7" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="111" t="s">
+      <c r="A9" s="115" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="111"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="111"/>
-      <c r="I9" s="111" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="I9" s="115" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="111"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="115"/>
+      <c r="P9" s="115"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -12784,12 +12780,12 @@
       <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="102" t="s">
+      <c r="C10" s="114" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
       <c r="G10">
         <f>Dati_OPTN!C8/365*(1-M3-E3)</f>
         <v>1.9231109417069146E-2</v>
@@ -12797,16 +12793,16 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="112" t="s">
+      <c r="J10" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="112"/>
-      <c r="L10" s="102" t="s">
+      <c r="K10" s="116"/>
+      <c r="L10" s="114" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
+      <c r="M10" s="114"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
       <c r="P10">
         <f>G10</f>
         <v>1.9231109417069146E-2</v>
@@ -12816,26 +12812,26 @@
       <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="114" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
       <c r="G11">
         <f>Dati_OPTN!C9/365*(1-M3-E3)</f>
         <v>15.56910131859777</v>
       </c>
-      <c r="J11" s="112" t="s">
+      <c r="J11" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="112"/>
-      <c r="L11" s="102" t="s">
+      <c r="K11" s="116"/>
+      <c r="L11" s="114" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
+      <c r="M11" s="114"/>
+      <c r="N11" s="114"/>
+      <c r="O11" s="114"/>
       <c r="P11">
         <f>G11+G19</f>
         <v>20.566153276075159</v>
@@ -12848,12 +12844,12 @@
       <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="102" t="s">
+      <c r="C12" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="D12" s="114"/>
+      <c r="E12" s="114"/>
+      <c r="F12" s="114"/>
       <c r="G12">
         <f>Dati_OPTN!C12/365*(1-M4-E4)</f>
         <v>9.6935673276097294E-3</v>
@@ -12861,16 +12857,16 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="112" t="s">
+      <c r="J12" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="112"/>
-      <c r="L12" s="102" t="s">
+      <c r="K12" s="116"/>
+      <c r="L12" s="114" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
+      <c r="M12" s="114"/>
+      <c r="N12" s="114"/>
+      <c r="O12" s="114"/>
       <c r="P12">
         <f>G12</f>
         <v>9.6935673276097294E-3</v>
@@ -12880,26 +12876,26 @@
       <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="102" t="s">
+      <c r="C13" s="114" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
       <c r="G13">
         <f>Dati_OPTN!C13/365*(1-M4-E4)</f>
         <v>9.6111720053250469</v>
       </c>
-      <c r="J13" s="112" t="s">
+      <c r="J13" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="112"/>
-      <c r="L13" s="102" t="s">
+      <c r="K13" s="116"/>
+      <c r="L13" s="114" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="102"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="102"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
       <c r="P13">
         <f>G13+G20</f>
         <v>13.03203191523852</v>
@@ -12912,12 +12908,12 @@
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="102" t="s">
+      <c r="C14" s="114" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
       <c r="G14">
         <f>Dati_OPTN!C16/365*(1-M5-E5)</f>
         <v>6.2782392655975792E-3</v>
@@ -12925,16 +12921,16 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="112" t="s">
+      <c r="J14" s="116" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="112"/>
-      <c r="L14" s="102" t="s">
+      <c r="K14" s="116"/>
+      <c r="L14" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="102"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="102"/>
+      <c r="M14" s="114"/>
+      <c r="N14" s="114"/>
+      <c r="O14" s="114"/>
       <c r="P14">
         <f>G14</f>
         <v>6.2782392655975792E-3</v>
@@ -12944,26 +12940,26 @@
       <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="102" t="s">
+      <c r="C15" s="114" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
       <c r="G15">
         <f>Dati_OPTN!C17/365*(1-M5-E5)</f>
         <v>2.9438663916387049</v>
       </c>
-      <c r="J15" s="112" t="s">
+      <c r="J15" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="112"/>
-      <c r="L15" s="102" t="s">
+      <c r="K15" s="116"/>
+      <c r="L15" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
+      <c r="M15" s="114"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
       <c r="P15">
         <f>G15+G21</f>
         <v>3.8535832612237941</v>
@@ -12976,12 +12972,12 @@
       <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="114" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
+      <c r="D16" s="114"/>
+      <c r="E16" s="114"/>
+      <c r="F16" s="114"/>
       <c r="G16">
         <f>Dati_OPTN!C20/365*(1-M6-E6)</f>
         <v>1.3134285843629813E-3</v>
@@ -12989,16 +12985,16 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="112" t="s">
+      <c r="J16" s="116" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="112"/>
-      <c r="L16" s="102" t="s">
+      <c r="K16" s="116"/>
+      <c r="L16" s="114" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
+      <c r="M16" s="114"/>
+      <c r="N16" s="114"/>
+      <c r="O16" s="114"/>
       <c r="P16">
         <f>G16</f>
         <v>1.3134285843629813E-3</v>
@@ -13008,52 +13004,52 @@
       <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="102" t="s">
+      <c r="C17" s="114" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
+      <c r="D17" s="114"/>
+      <c r="E17" s="114"/>
+      <c r="F17" s="114"/>
       <c r="G17">
         <f>Dati_OPTN!C21/365*(1-M6-E6)</f>
         <v>0.76178857893052909</v>
       </c>
-      <c r="J17" s="112" t="s">
+      <c r="J17" s="116" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="112"/>
-      <c r="L17" s="102" t="s">
+      <c r="K17" s="116"/>
+      <c r="L17" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
+      <c r="M17" s="114"/>
+      <c r="N17" s="114"/>
+      <c r="O17" s="114"/>
       <c r="P17">
         <f>G17+G22</f>
         <v>1.0441757245685701</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="111" t="s">
+      <c r="A18" s="115" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="111"/>
-      <c r="C18" s="111"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="111"/>
-      <c r="G18" s="111"/>
-      <c r="I18" s="111" t="s">
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="I18" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="111"/>
-      <c r="K18" s="111"/>
-      <c r="L18" s="111"/>
-      <c r="M18" s="111"/>
-      <c r="N18" s="111"/>
-      <c r="O18" s="111"/>
-      <c r="P18" s="111"/>
-      <c r="Q18" s="111"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="115"/>
+      <c r="P18" s="115"/>
+      <c r="Q18" s="115"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
@@ -13064,12 +13060,12 @@
       <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="114"/>
+      <c r="F19" s="114"/>
       <c r="G19">
         <f>Dati_OPTN!C10/365*(1-M3-E3)</f>
         <v>4.997051957477388</v>
@@ -13077,15 +13073,15 @@
       <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="102" t="s">
+      <c r="J19" s="114" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="102"/>
-      <c r="L19" s="102"/>
-      <c r="M19" s="102"/>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
+      <c r="K19" s="114"/>
+      <c r="L19" s="114"/>
+      <c r="M19" s="114"/>
+      <c r="N19" s="114"/>
+      <c r="O19" s="114"/>
+      <c r="P19" s="114"/>
       <c r="Q19">
         <f>G10+G11+G19</f>
         <v>20.585384385492226</v>
@@ -13098,12 +13094,12 @@
       <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="102" t="s">
+      <c r="C20" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
+      <c r="D20" s="114"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="114"/>
       <c r="G20">
         <f>Dati_OPTN!C14/365*(1-M4-E4)</f>
         <v>3.4208599099134736</v>
@@ -13111,15 +13107,15 @@
       <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="102" t="s">
+      <c r="J20" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="102"/>
-      <c r="L20" s="102"/>
-      <c r="M20" s="102"/>
-      <c r="N20" s="102"/>
-      <c r="O20" s="102"/>
-      <c r="P20" s="102"/>
+      <c r="K20" s="114"/>
+      <c r="L20" s="114"/>
+      <c r="M20" s="114"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
       <c r="Q20">
         <f>G12+G13+G20</f>
         <v>13.041725482566129</v>
@@ -13132,12 +13128,12 @@
       <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="114" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="114"/>
       <c r="G21">
         <f>Dati_OPTN!C18/365*(1-M5-E5)</f>
         <v>0.90971686958508924</v>
@@ -13145,15 +13141,15 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="102" t="s">
+      <c r="J21" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="102"/>
-      <c r="L21" s="102"/>
-      <c r="M21" s="102"/>
-      <c r="N21" s="102"/>
-      <c r="O21" s="102"/>
-      <c r="P21" s="102"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="114"/>
+      <c r="M21" s="114"/>
+      <c r="N21" s="114"/>
+      <c r="O21" s="114"/>
+      <c r="P21" s="114"/>
       <c r="Q21">
         <f>G14+G15+G21</f>
         <v>3.8598615004893917</v>
@@ -13166,12 +13162,12 @@
       <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="102" t="s">
+      <c r="C22" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="114"/>
+      <c r="F22" s="114"/>
       <c r="G22">
         <f>Dati_OPTN!C22/365*(1-M6-E6)</f>
         <v>0.28238714563804101</v>
@@ -13179,62 +13175,62 @@
       <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="102" t="s">
+      <c r="J22" s="114" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="102"/>
-      <c r="L22" s="102"/>
-      <c r="M22" s="102"/>
-      <c r="N22" s="102"/>
-      <c r="O22" s="102"/>
-      <c r="P22" s="102"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="114"/>
+      <c r="M22" s="114"/>
+      <c r="N22" s="114"/>
+      <c r="O22" s="114"/>
+      <c r="P22" s="114"/>
       <c r="Q22">
         <f>G16+G17+G22</f>
         <v>1.0454891531529331</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="108" t="s">
+      <c r="A25" s="117" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="108"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="108"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="108"/>
-      <c r="I25" s="108" t="s">
+      <c r="B25" s="117"/>
+      <c r="C25" s="117"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="I25" s="117" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="108"/>
-      <c r="K25" s="108"/>
-      <c r="L25" s="108"/>
-      <c r="M25" s="108"/>
-      <c r="N25" s="108"/>
-      <c r="Q25" s="108" t="s">
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="117"/>
+      <c r="N25" s="117"/>
+      <c r="Q25" s="117" t="s">
         <v>109</v>
       </c>
-      <c r="R25" s="108"/>
-      <c r="S25" s="108"/>
-      <c r="T25" s="108"/>
-      <c r="U25" s="108"/>
-      <c r="V25" s="108"/>
-      <c r="Y25" s="108" t="s">
+      <c r="R25" s="117"/>
+      <c r="S25" s="117"/>
+      <c r="T25" s="117"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="117"/>
+      <c r="Y25" s="117" t="s">
         <v>110</v>
       </c>
-      <c r="Z25" s="108"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="108"/>
-      <c r="AC25" s="108"/>
+      <c r="Z25" s="117"/>
+      <c r="AA25" s="117"/>
+      <c r="AB25" s="117"/>
+      <c r="AC25" s="117"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
+      <c r="C26" s="113"/>
+      <c r="D26" s="113"/>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
@@ -13244,34 +13240,34 @@
       <c r="I26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="105" t="s">
+      <c r="J26" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="105"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="105"/>
+      <c r="K26" s="113"/>
+      <c r="L26" s="113"/>
+      <c r="M26" s="113"/>
       <c r="N26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="105" t="s">
+      <c r="R26" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="S26" s="105"/>
-      <c r="T26" s="105"/>
-      <c r="U26" s="105"/>
+      <c r="S26" s="113"/>
+      <c r="T26" s="113"/>
+      <c r="U26" s="113"/>
       <c r="V26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="105" t="s">
+      <c r="Z26" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="AA26" s="105"/>
+      <c r="AA26" s="113"/>
       <c r="AB26" s="2" t="s">
         <v>46</v>
       </c>
@@ -13283,11 +13279,11 @@
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="102" t="s">
+      <c r="B27" s="114" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="102"/>
-      <c r="D27" s="102"/>
+      <c r="C27" s="114"/>
+      <c r="D27" s="114"/>
       <c r="E27">
         <f>Arrivi!D31/Arrivi!D29</f>
         <v>0.45980196406014429</v>
@@ -13299,12 +13295,12 @@
       <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="102" t="s">
+      <c r="J27" s="114" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="102"/>
-      <c r="L27" s="102"/>
-      <c r="M27" s="102"/>
+      <c r="K27" s="114"/>
+      <c r="L27" s="114"/>
+      <c r="M27" s="114"/>
       <c r="N27">
         <f>1/(2*E27*Arrivi!H31)</f>
         <v>9.2240298702594314E-2</v>
@@ -13312,12 +13308,12 @@
       <c r="Q27" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="102" t="s">
+      <c r="R27" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="S27" s="102"/>
-      <c r="T27" s="102"/>
-      <c r="U27" s="102"/>
+      <c r="S27" s="114"/>
+      <c r="T27" s="114"/>
+      <c r="U27" s="114"/>
       <c r="V27">
         <f>1/(2*F27*Arrivi!H30)</f>
         <v>6.3479719307352522E-2</v>
@@ -13325,10 +13321,10 @@
       <c r="Y27" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="102" t="s">
+      <c r="Z27" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="AA27" s="102"/>
+      <c r="AA27" s="114"/>
       <c r="AB27">
         <f>E27*N27+F27*V27</f>
         <v>7.6703890200792421E-2</v>
@@ -13342,11 +13338,11 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
+      <c r="C28" s="114"/>
+      <c r="D28" s="114"/>
       <c r="E28">
         <f>Arrivi!D34/Arrivi!D32</f>
         <v>0.32570024570024569</v>
@@ -13358,12 +13354,12 @@
       <c r="I28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="102" t="s">
+      <c r="J28" s="114" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
+      <c r="K28" s="114"/>
+      <c r="L28" s="114"/>
+      <c r="M28" s="114"/>
       <c r="N28">
         <f>1/(2*E28*Arrivi!H34)</f>
         <v>0.29662846521470904</v>
@@ -13371,12 +13367,12 @@
       <c r="Q28" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="102" t="s">
+      <c r="R28" s="114" t="s">
         <v>121</v>
       </c>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
+      <c r="S28" s="114"/>
+      <c r="T28" s="114"/>
+      <c r="U28" s="114"/>
       <c r="V28">
         <f>1/(2*F28*Arrivi!H33)</f>
         <v>6.5580601925874338E-2</v>
@@ -13384,10 +13380,10 @@
       <c r="Y28" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="102" t="s">
+      <c r="Z28" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="AA28" s="102"/>
+      <c r="AA28" s="114"/>
       <c r="AB28">
         <f>E28*N28+F28*V28</f>
         <v>0.14083294776756458</v>
@@ -13401,11 +13397,11 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="102" t="s">
+      <c r="B29" s="114" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="102"/>
-      <c r="D29" s="102"/>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
       <c r="E29">
         <f>Arrivi!D37/Arrivi!D35</f>
         <v>0.3090813093980993</v>
@@ -13417,12 +13413,12 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="102" t="s">
+      <c r="J29" s="114" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="102"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="102"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
       <c r="N29">
         <f>1/(2*E29*Arrivi!H37)</f>
         <v>1.0506397061594894</v>
@@ -13430,12 +13426,12 @@
       <c r="Q29" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="102" t="s">
+      <c r="R29" s="114" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="102"/>
-      <c r="T29" s="102"/>
-      <c r="U29" s="102"/>
+      <c r="S29" s="114"/>
+      <c r="T29" s="114"/>
+      <c r="U29" s="114"/>
       <c r="V29">
         <f>1/(2*F29*Arrivi!H36)</f>
         <v>0.20117369900147355</v>
@@ -13443,10 +13439,10 @@
       <c r="Y29" t="s">
         <v>25</v>
       </c>
-      <c r="Z29" s="102" t="s">
+      <c r="Z29" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="AA29" s="102"/>
+      <c r="AA29" s="114"/>
       <c r="AB29">
         <f>E29*N29+F29*V29</f>
         <v>0.46372776478304834</v>
@@ -13460,11 +13456,11 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="114" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="102"/>
-      <c r="D30" s="102"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
       <c r="E30">
         <f>Arrivi!D40/Arrivi!D38</f>
         <v>0.20058626465661641</v>
@@ -13476,12 +13472,12 @@
       <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="102" t="s">
+      <c r="J30" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="102"/>
-      <c r="L30" s="102"/>
-      <c r="M30" s="102"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
       <c r="N30">
         <f>1/(2*E30*Arrivi!H40)</f>
         <v>8.1235087980912617</v>
@@ -13489,12 +13485,12 @@
       <c r="Q30" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="102" t="s">
+      <c r="R30" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="S30" s="102"/>
-      <c r="T30" s="102"/>
-      <c r="U30" s="102"/>
+      <c r="S30" s="114"/>
+      <c r="T30" s="114"/>
+      <c r="U30" s="114"/>
       <c r="V30">
         <f>1/(2*F30*Arrivi!H39)</f>
         <v>0.58536487085465616</v>
@@ -13502,10 +13498,10 @@
       <c r="Y30" t="s">
         <v>26</v>
       </c>
-      <c r="Z30" s="102" t="s">
+      <c r="Z30" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="AA30" s="102"/>
+      <c r="AA30" s="114"/>
       <c r="AB30">
         <f>E30*N30+F30*V30</f>
         <v>2.0974130036630036</v>
@@ -13516,27 +13512,27 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="107"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="F33" s="110" t="s">
+      <c r="B33" s="118"/>
+      <c r="C33" s="118"/>
+      <c r="D33" s="118"/>
+      <c r="F33" s="119" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="110"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="110"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="106"/>
+      <c r="C34" s="120"/>
       <c r="D34">
         <f>Q19*AB27</f>
         <v>1.5789790636459025</v>
@@ -13544,10 +13540,10 @@
       <c r="F34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="102" t="s">
+      <c r="G34" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="102"/>
+      <c r="H34" s="114"/>
       <c r="I34">
         <f>1/(2*E27*F27)-1</f>
         <v>1.0130111547150507</v>
@@ -13557,10 +13553,10 @@
       <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="106" t="s">
+      <c r="B35" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="106"/>
+      <c r="C35" s="120"/>
       <c r="D35">
         <f>Q20*AB28</f>
         <v>1.8367046436851515</v>
@@ -13568,10 +13564,10 @@
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="102" t="s">
+      <c r="G35" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="102"/>
+      <c r="H35" s="114"/>
       <c r="I35">
         <f>1/(2*E28*F28)-1</f>
         <v>1.2766638765442981</v>
@@ -13581,10 +13577,10 @@
       <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="106" t="s">
+      <c r="B36" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="106"/>
+      <c r="C36" s="120"/>
       <c r="D36">
         <f>Q21*AB29</f>
         <v>1.7899249459940887</v>
@@ -13592,10 +13588,10 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="102" t="s">
+      <c r="G36" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="102"/>
+      <c r="H36" s="114"/>
       <c r="I36">
         <f>1/(2*E29*F29)-1</f>
         <v>1.3413714565768982</v>
@@ -13605,10 +13601,10 @@
       <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="106" t="s">
+      <c r="B37" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="106"/>
+      <c r="C37" s="120"/>
       <c r="D37">
         <f>Q22*AB30</f>
         <v>2.1928225450115835</v>
@@ -13616,22 +13612,22 @@
       <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="102" t="s">
+      <c r="G37" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="102"/>
+      <c r="H37" s="114"/>
       <c r="I37">
         <f>1/(2*E30*F30)-1</f>
         <v>2.1181514658069514</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="107" t="s">
+      <c r="A40" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="107"/>
-      <c r="C40" s="107"/>
-      <c r="D40" s="107"/>
+      <c r="B40" s="118"/>
+      <c r="C40" s="118"/>
+      <c r="D40" s="118"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -13764,42 +13760,42 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="109" t="s">
+      <c r="A51" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="109"/>
-      <c r="C51" s="109"/>
-      <c r="D51" s="109"/>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-      <c r="J51" s="109"/>
-      <c r="K51" s="109"/>
-      <c r="L51" s="109"/>
-      <c r="M51" s="109"/>
-      <c r="N51" s="109"/>
-      <c r="O51" s="109"/>
+      <c r="B51" s="121"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="121"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="121"/>
+      <c r="L51" s="121"/>
+      <c r="M51" s="121"/>
+      <c r="N51" s="121"/>
+      <c r="O51" s="121"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="104" t="s">
+      <c r="A52" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="104"/>
-      <c r="C52" s="104"/>
-      <c r="D52" s="104"/>
-      <c r="E52" s="104"/>
-      <c r="F52" s="104"/>
-      <c r="I52" s="104" t="s">
+      <c r="B52" s="122"/>
+      <c r="C52" s="122"/>
+      <c r="D52" s="122"/>
+      <c r="E52" s="122"/>
+      <c r="F52" s="122"/>
+      <c r="I52" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="J52" s="104"/>
-      <c r="K52" s="104"/>
-      <c r="L52" s="104"/>
-      <c r="M52" s="104"/>
-      <c r="N52" s="104"/>
-      <c r="O52" s="104"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="122"/>
+      <c r="M52" s="122"/>
+      <c r="N52" s="122"/>
+      <c r="O52" s="122"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -13808,26 +13804,26 @@
       <c r="B53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="105" t="s">
+      <c r="C53" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="105"/>
-      <c r="E53" s="105"/>
+      <c r="D53" s="113"/>
+      <c r="E53" s="113"/>
       <c r="F53" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="105" t="s">
+      <c r="J53" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="K53" s="105"/>
-      <c r="L53" s="105" t="s">
+      <c r="K53" s="113"/>
+      <c r="L53" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="105"/>
-      <c r="N53" s="105"/>
+      <c r="M53" s="113"/>
+      <c r="N53" s="113"/>
       <c r="O53" s="2" t="s">
         <v>146</v>
       </c>
@@ -13839,11 +13835,11 @@
       <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="102" t="s">
+      <c r="C54" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
+      <c r="D54" s="114"/>
+      <c r="E54" s="114"/>
       <c r="F54">
         <f>(D34*AB27*(1+I34))/(2*(1-D42))</f>
         <v>0.12208183518672942</v>
@@ -13851,15 +13847,15 @@
       <c r="I54" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="102" t="s">
+      <c r="J54" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="102"/>
-      <c r="L54" s="102" t="s">
+      <c r="K54" s="114"/>
+      <c r="L54" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="102"/>
-      <c r="N54" s="102"/>
+      <c r="M54" s="114"/>
+      <c r="N54" s="114"/>
       <c r="O54">
         <f>F54+AB27</f>
         <v>0.19878572538752184</v>
@@ -13869,32 +13865,32 @@
       <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="102" t="s">
+      <c r="C55" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
+      <c r="D55" s="114"/>
+      <c r="E55" s="114"/>
       <c r="F55">
         <f>(D34*AB27*(1+I34))/(2*(1-D42)*(1-D34))</f>
         <v>-0.21085708076897478</v>
       </c>
-      <c r="J55" s="102" t="s">
+      <c r="J55" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="102"/>
-      <c r="L55" s="102" t="s">
+      <c r="K55" s="114"/>
+      <c r="L55" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="M55" s="102"/>
-      <c r="N55" s="102"/>
+      <c r="M55" s="114"/>
+      <c r="N55" s="114"/>
       <c r="O55">
         <f>F55+AB27</f>
         <v>-0.13415319056818237</v>
       </c>
-      <c r="S55" s="103" t="s">
+      <c r="S55" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="T55" s="103"/>
+      <c r="T55" s="123"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -13903,11 +13899,11 @@
       <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="102" t="s">
+      <c r="C56" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
+      <c r="D56" s="114"/>
+      <c r="E56" s="114"/>
       <c r="F56">
         <f>(D35*AB28*(1+I35))/(2*(1-D44))</f>
         <v>0.29485317394264693</v>
@@ -13915,15 +13911,15 @@
       <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="102" t="s">
+      <c r="J56" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K56" s="102"/>
-      <c r="L56" s="102" t="s">
+      <c r="K56" s="114"/>
+      <c r="L56" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="M56" s="102"/>
-      <c r="N56" s="102"/>
+      <c r="M56" s="114"/>
+      <c r="N56" s="114"/>
       <c r="O56">
         <f>F56+AB28</f>
         <v>0.43568612171021148</v>
@@ -13940,24 +13936,24 @@
       <c r="B57" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="102" t="s">
+      <c r="C57" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
+      <c r="D57" s="114"/>
+      <c r="E57" s="114"/>
       <c r="F57">
         <f>(D35*AB28*(1+I35))/(2*(1-D44)*(1-D35))</f>
         <v>-0.3523981564677427</v>
       </c>
-      <c r="J57" s="102" t="s">
+      <c r="J57" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K57" s="102"/>
-      <c r="L57" s="102" t="s">
+      <c r="K57" s="114"/>
+      <c r="L57" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="M57" s="102"/>
-      <c r="N57" s="102"/>
+      <c r="M57" s="114"/>
+      <c r="N57" s="114"/>
       <c r="O57">
         <f>F57+AB28</f>
         <v>-0.21156520870017811</v>
@@ -13977,11 +13973,11 @@
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="102" t="s">
+      <c r="C58" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
       <c r="F58">
         <f>(D36*AB29*(1+I36))/(2*(1-D46))</f>
         <v>0.97455081810634703</v>
@@ -13989,15 +13985,15 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="102" t="s">
+      <c r="J58" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="102"/>
-      <c r="L58" s="102" t="s">
+      <c r="K58" s="114"/>
+      <c r="L58" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="M58" s="102"/>
-      <c r="N58" s="102"/>
+      <c r="M58" s="114"/>
+      <c r="N58" s="114"/>
       <c r="O58">
         <f>F58+AB29</f>
         <v>1.4382785828893954</v>
@@ -14014,24 +14010,24 @@
       <c r="B59" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="102" t="s">
+      <c r="C59" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
+      <c r="D59" s="114"/>
+      <c r="E59" s="114"/>
       <c r="F59">
         <f>(D36*AB29*(1+I36))/(2*(1-D46)*(1-D36))</f>
         <v>-1.2337258407251768</v>
       </c>
-      <c r="J59" s="102" t="s">
+      <c r="J59" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="102"/>
-      <c r="L59" s="102" t="s">
+      <c r="K59" s="114"/>
+      <c r="L59" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="M59" s="102"/>
-      <c r="N59" s="102"/>
+      <c r="M59" s="114"/>
+      <c r="N59" s="114"/>
       <c r="O59">
         <f>F59+AB29</f>
         <v>-0.76999807594212843</v>
@@ -14051,11 +14047,11 @@
       <c r="B60" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="102" t="s">
+      <c r="C60" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="114"/>
       <c r="F60">
         <f>(D37*AB30*(1+I37))/(2*(1-D48))</f>
         <v>7.1903942263427414</v>
@@ -14063,15 +14059,15 @@
       <c r="I60" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="102" t="s">
+      <c r="J60" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="K60" s="102"/>
-      <c r="L60" s="102" t="s">
+      <c r="K60" s="114"/>
+      <c r="L60" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="M60" s="102"/>
-      <c r="N60" s="102"/>
+      <c r="M60" s="114"/>
+      <c r="N60" s="114"/>
       <c r="O60">
         <f>F60+AB30</f>
         <v>9.287807230005745</v>
@@ -14081,71 +14077,71 @@
       <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="102" t="s">
+      <c r="C61" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
+      <c r="D61" s="114"/>
+      <c r="E61" s="114"/>
       <c r="F61">
         <f>(D37*AB30*(1+I37))/(2*(1-D48)*(1-D37))</f>
         <v>-6.0280502379948864</v>
       </c>
-      <c r="J61" s="102" t="s">
+      <c r="J61" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="102"/>
-      <c r="L61" s="102" t="s">
+      <c r="K61" s="114"/>
+      <c r="L61" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="M61" s="102"/>
-      <c r="N61" s="102"/>
+      <c r="M61" s="114"/>
+      <c r="N61" s="114"/>
       <c r="O61">
         <f>F61+AB30</f>
         <v>-3.9306372343318827</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="104" t="s">
+      <c r="A62" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="104"/>
-      <c r="C62" s="104"/>
-      <c r="D62" s="104"/>
-      <c r="E62" s="104"/>
-      <c r="F62" s="104"/>
-      <c r="I62" s="104" t="s">
+      <c r="B62" s="122"/>
+      <c r="C62" s="122"/>
+      <c r="D62" s="122"/>
+      <c r="E62" s="122"/>
+      <c r="F62" s="122"/>
+      <c r="I62" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="J62" s="104"/>
-      <c r="K62" s="104"/>
-      <c r="L62" s="104"/>
-      <c r="M62" s="104"/>
-      <c r="N62" s="104"/>
-      <c r="O62" s="104"/>
+      <c r="J62" s="122"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="122"/>
+      <c r="M62" s="122"/>
+      <c r="N62" s="122"/>
+      <c r="O62" s="122"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="105" t="s">
+      <c r="B63" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="105"/>
-      <c r="D63" s="105"/>
-      <c r="E63" s="105"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
       <c r="F63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J63" s="105" t="s">
+      <c r="J63" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="105"/>
-      <c r="L63" s="105"/>
-      <c r="M63" s="105"/>
-      <c r="N63" s="105"/>
+      <c r="K63" s="113"/>
+      <c r="L63" s="113"/>
+      <c r="M63" s="113"/>
+      <c r="N63" s="113"/>
       <c r="O63" s="2" t="s">
         <v>146</v>
       </c>
@@ -14154,12 +14150,12 @@
       <c r="A64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="102" t="s">
+      <c r="B64" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="102"/>
-      <c r="D64" s="102"/>
-      <c r="E64" s="102"/>
+      <c r="C64" s="114"/>
+      <c r="D64" s="114"/>
+      <c r="E64" s="114"/>
       <c r="F64">
         <f>C42*F54+C43*F55</f>
         <v>-0.21054604529827176</v>
@@ -14167,13 +14163,13 @@
       <c r="I64" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="102" t="s">
+      <c r="J64" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="102"/>
-      <c r="L64" s="102"/>
-      <c r="M64" s="102"/>
-      <c r="N64" s="102"/>
+      <c r="K64" s="114"/>
+      <c r="L64" s="114"/>
+      <c r="M64" s="114"/>
+      <c r="N64" s="114"/>
       <c r="O64">
         <f>C42*O54+C43*O55</f>
         <v>-0.13384215509747935</v>
@@ -14183,12 +14179,12 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="102" t="s">
+      <c r="B65" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="102"/>
-      <c r="D65" s="102"/>
-      <c r="E65" s="102"/>
+      <c r="C65" s="114"/>
+      <c r="D65" s="114"/>
+      <c r="E65" s="114"/>
       <c r="F65">
         <f>C44*F56+C45*F57</f>
         <v>-0.35191707178630199</v>
@@ -14196,13 +14192,13 @@
       <c r="I65" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="102" t="s">
+      <c r="J65" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="K65" s="102"/>
-      <c r="L65" s="102"/>
-      <c r="M65" s="102"/>
-      <c r="N65" s="102"/>
+      <c r="K65" s="114"/>
+      <c r="L65" s="114"/>
+      <c r="M65" s="114"/>
+      <c r="N65" s="114"/>
       <c r="O65">
         <f>C44*O56+C45*O57</f>
         <v>-0.21108412401873736</v>
@@ -14212,12 +14208,12 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="102" t="s">
+      <c r="B66" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="102"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
+      <c r="C66" s="114"/>
+      <c r="D66" s="114"/>
+      <c r="E66" s="114"/>
       <c r="F66">
         <f>C46*F58+C47*F59</f>
         <v>-1.2301339788858281</v>
@@ -14225,13 +14221,13 @@
       <c r="I66" t="s">
         <v>25</v>
       </c>
-      <c r="J66" s="102" t="s">
+      <c r="J66" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="102"/>
-      <c r="L66" s="102"/>
-      <c r="M66" s="102"/>
-      <c r="N66" s="102"/>
+      <c r="K66" s="114"/>
+      <c r="L66" s="114"/>
+      <c r="M66" s="114"/>
+      <c r="N66" s="114"/>
       <c r="O66">
         <f>C46*O58+C47*O59</f>
         <v>-0.76640621410277987</v>
@@ -14241,12 +14237,12 @@
       <c r="A67" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="102" t="s">
+      <c r="B67" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="102"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
+      <c r="C67" s="114"/>
+      <c r="D67" s="114"/>
+      <c r="E67" s="114"/>
       <c r="F67">
         <f>C48*F60+C49*F61</f>
         <v>-6.0114441519844126</v>
@@ -14254,36 +14250,36 @@
       <c r="I67" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="102" t="s">
+      <c r="J67" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="102"/>
-      <c r="L67" s="102"/>
-      <c r="M67" s="102"/>
-      <c r="N67" s="102"/>
+      <c r="K67" s="114"/>
+      <c r="L67" s="114"/>
+      <c r="M67" s="114"/>
+      <c r="N67" s="114"/>
       <c r="O67">
         <f>C48*O60+C49*O61</f>
         <v>-3.9140311483214085</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="104" t="s">
+      <c r="A70" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="104"/>
-      <c r="C70" s="104"/>
-      <c r="D70" s="104"/>
-      <c r="E70" s="104"/>
-      <c r="F70" s="104"/>
-      <c r="I70" s="104" t="s">
+      <c r="B70" s="122"/>
+      <c r="C70" s="122"/>
+      <c r="D70" s="122"/>
+      <c r="E70" s="122"/>
+      <c r="F70" s="122"/>
+      <c r="I70" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="J70" s="104"/>
-      <c r="K70" s="104"/>
-      <c r="L70" s="104"/>
-      <c r="M70" s="104"/>
-      <c r="N70" s="104"/>
-      <c r="O70" s="104"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="122"/>
+      <c r="M70" s="122"/>
+      <c r="N70" s="122"/>
+      <c r="O70" s="122"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -14292,26 +14288,26 @@
       <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="105" t="s">
+      <c r="C71" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="105"/>
-      <c r="E71" s="105"/>
+      <c r="D71" s="113"/>
+      <c r="E71" s="113"/>
       <c r="F71" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="105" t="s">
+      <c r="J71" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="K71" s="105"/>
-      <c r="L71" s="105" t="s">
+      <c r="K71" s="113"/>
+      <c r="L71" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="M71" s="105"/>
-      <c r="N71" s="105"/>
+      <c r="M71" s="113"/>
+      <c r="N71" s="113"/>
       <c r="O71" s="2" t="s">
         <v>159</v>
       </c>
@@ -14323,11 +14319,11 @@
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="102" t="s">
+      <c r="C72" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="102"/>
-      <c r="E72" s="102"/>
+      <c r="D72" s="114"/>
+      <c r="E72" s="114"/>
       <c r="F72">
         <f t="shared" ref="F72:F79" si="0">P10*F54</f>
         <v>2.3477691303125958E-3</v>
@@ -14335,15 +14331,15 @@
       <c r="I72" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="102" t="s">
+      <c r="J72" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K72" s="102"/>
-      <c r="L72" s="102" t="s">
+      <c r="K72" s="114"/>
+      <c r="L72" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="M72" s="102"/>
-      <c r="N72" s="102"/>
+      <c r="M72" s="114"/>
+      <c r="N72" s="114"/>
       <c r="O72">
         <f t="shared" ref="O72:O79" si="1">P10*O54</f>
         <v>3.8228700354788927E-3</v>
@@ -14353,24 +14349,24 @@
       <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="102" t="s">
+      <c r="C73" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="102"/>
-      <c r="E73" s="102"/>
+      <c r="D73" s="114"/>
+      <c r="E73" s="114"/>
       <c r="F73">
         <f t="shared" si="0"/>
         <v>-4.3365190424404947</v>
       </c>
-      <c r="J73" s="102" t="s">
+      <c r="J73" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K73" s="102"/>
-      <c r="L73" s="102" t="s">
+      <c r="K73" s="114"/>
+      <c r="L73" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="M73" s="102"/>
-      <c r="N73" s="102"/>
+      <c r="M73" s="114"/>
+      <c r="N73" s="114"/>
       <c r="O73">
         <f t="shared" si="1"/>
         <v>-2.759015079699759</v>
@@ -14383,11 +14379,11 @@
       <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="102" t="s">
+      <c r="C74" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="102"/>
-      <c r="E74" s="102"/>
+      <c r="D74" s="114"/>
+      <c r="E74" s="114"/>
       <c r="F74">
         <f t="shared" si="0"/>
         <v>2.8581790933724705E-3</v>
@@ -14395,15 +14391,15 @@
       <c r="I74" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="102" t="s">
+      <c r="J74" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K74" s="102"/>
-      <c r="L74" s="102" t="s">
+      <c r="K74" s="114"/>
+      <c r="L74" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="M74" s="102"/>
-      <c r="N74" s="102"/>
+      <c r="M74" s="114"/>
+      <c r="N74" s="114"/>
       <c r="O74">
         <f t="shared" si="1"/>
         <v>4.223352754503102E-3</v>
@@ -14413,24 +14409,24 @@
       <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="102" t="s">
+      <c r="C75" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="114"/>
       <c r="F75">
         <f t="shared" si="0"/>
         <v>-4.5924640219588406</v>
       </c>
-      <c r="J75" s="102" t="s">
+      <c r="J75" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K75" s="102"/>
-      <c r="L75" s="102" t="s">
+      <c r="K75" s="114"/>
+      <c r="L75" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="M75" s="102"/>
-      <c r="N75" s="102"/>
+      <c r="M75" s="114"/>
+      <c r="N75" s="114"/>
       <c r="O75">
         <f t="shared" si="1"/>
         <v>-2.7571245519348193</v>
@@ -14443,11 +14439,11 @@
       <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="102" t="s">
+      <c r="C76" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
+      <c r="D76" s="114"/>
+      <c r="E76" s="114"/>
       <c r="F76">
         <f t="shared" si="0"/>
         <v>6.1184632125555125E-3</v>
@@ -14455,15 +14451,15 @@
       <c r="I76" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="102" t="s">
+      <c r="J76" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K76" s="102"/>
-      <c r="L76" s="102" t="s">
+      <c r="K76" s="114"/>
+      <c r="L76" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="M76" s="102"/>
-      <c r="N76" s="102"/>
+      <c r="M76" s="114"/>
+      <c r="N76" s="114"/>
       <c r="O76">
         <f t="shared" si="1"/>
         <v>9.029857073964245E-3</v>
@@ -14473,24 +14469,24 @@
       <c r="B77" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="102" t="s">
+      <c r="C77" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
+      <c r="D77" s="114"/>
+      <c r="E77" s="114"/>
       <c r="F77">
         <f t="shared" si="0"/>
         <v>-4.7542652487577941</v>
       </c>
-      <c r="J77" s="102" t="s">
+      <c r="J77" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K77" s="102"/>
-      <c r="L77" s="102" t="s">
+      <c r="K77" s="114"/>
+      <c r="L77" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="M77" s="102"/>
-      <c r="N77" s="102"/>
+      <c r="M77" s="114"/>
+      <c r="N77" s="114"/>
       <c r="O77">
         <f t="shared" si="1"/>
         <v>-2.9672516966251141</v>
@@ -14503,11 +14499,11 @@
       <c r="B78" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="102" t="s">
+      <c r="C78" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="102"/>
-      <c r="E78" s="102"/>
+      <c r="D78" s="114"/>
+      <c r="E78" s="114"/>
       <c r="F78">
         <f t="shared" si="0"/>
         <v>9.444069309717102E-3</v>
@@ -14515,15 +14511,15 @@
       <c r="I78" t="s">
         <v>26</v>
       </c>
-      <c r="J78" s="102" t="s">
+      <c r="J78" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="K78" s="102"/>
-      <c r="L78" s="102" t="s">
+      <c r="K78" s="114"/>
+      <c r="L78" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="M78" s="102"/>
-      <c r="N78" s="102"/>
+      <c r="M78" s="114"/>
+      <c r="N78" s="114"/>
       <c r="O78">
         <f t="shared" si="1"/>
         <v>1.219887150194271E-2</v>
@@ -14533,71 +14529,71 @@
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="102" t="s">
+      <c r="C79" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102"/>
+      <c r="D79" s="114"/>
+      <c r="E79" s="114"/>
       <c r="F79">
         <f t="shared" si="0"/>
         <v>-6.2943437249940519</v>
       </c>
-      <c r="J79" s="102" t="s">
+      <c r="J79" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K79" s="102"/>
-      <c r="L79" s="102" t="s">
+      <c r="K79" s="114"/>
+      <c r="L79" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="M79" s="102"/>
-      <c r="N79" s="102"/>
+      <c r="M79" s="114"/>
+      <c r="N79" s="114"/>
       <c r="O79">
         <f t="shared" si="1"/>
         <v>-4.1042759821746939</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="104" t="s">
+      <c r="A80" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="104"/>
-      <c r="C80" s="104"/>
-      <c r="D80" s="104"/>
-      <c r="E80" s="104"/>
-      <c r="F80" s="104"/>
-      <c r="I80" s="104" t="s">
+      <c r="B80" s="122"/>
+      <c r="C80" s="122"/>
+      <c r="D80" s="122"/>
+      <c r="E80" s="122"/>
+      <c r="F80" s="122"/>
+      <c r="I80" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="J80" s="104"/>
-      <c r="K80" s="104"/>
-      <c r="L80" s="104"/>
-      <c r="M80" s="104"/>
-      <c r="N80" s="104"/>
-      <c r="O80" s="104"/>
+      <c r="J80" s="122"/>
+      <c r="K80" s="122"/>
+      <c r="L80" s="122"/>
+      <c r="M80" s="122"/>
+      <c r="N80" s="122"/>
+      <c r="O80" s="122"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="105" t="s">
+      <c r="B81" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="105"/>
-      <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
+      <c r="C81" s="113"/>
+      <c r="D81" s="113"/>
+      <c r="E81" s="113"/>
       <c r="F81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J81" s="105" t="s">
+      <c r="J81" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="K81" s="105"/>
-      <c r="L81" s="105"/>
-      <c r="M81" s="105"/>
-      <c r="N81" s="105"/>
+      <c r="K81" s="113"/>
+      <c r="L81" s="113"/>
+      <c r="M81" s="113"/>
+      <c r="N81" s="113"/>
       <c r="O81" s="2" t="s">
         <v>159</v>
       </c>
@@ -14606,12 +14602,12 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="102" t="s">
+      <c r="B82" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="102"/>
-      <c r="D82" s="102"/>
-      <c r="E82" s="102"/>
+      <c r="C82" s="114"/>
+      <c r="D82" s="114"/>
+      <c r="E82" s="114"/>
       <c r="F82">
         <f>Q19*F64</f>
         <v>-4.334171273310182</v>
@@ -14619,13 +14615,13 @@
       <c r="I82" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="102" t="s">
+      <c r="J82" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="102"/>
-      <c r="L82" s="102"/>
-      <c r="M82" s="102"/>
-      <c r="N82" s="102"/>
+      <c r="K82" s="114"/>
+      <c r="L82" s="114"/>
+      <c r="M82" s="114"/>
+      <c r="N82" s="114"/>
       <c r="O82">
         <f>Q19*O64</f>
         <v>-2.7551922096642802</v>
@@ -14635,12 +14631,12 @@
       <c r="A83" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="102" t="s">
+      <c r="B83" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="102"/>
-      <c r="D83" s="102"/>
-      <c r="E83" s="102"/>
+      <c r="C83" s="114"/>
+      <c r="D83" s="114"/>
+      <c r="E83" s="114"/>
       <c r="F83">
         <f>Q20*F65</f>
         <v>-4.5896058428654687</v>
@@ -14648,13 +14644,13 @@
       <c r="I83" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="102" t="s">
+      <c r="J83" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="K83" s="102"/>
-      <c r="L83" s="102"/>
-      <c r="M83" s="102"/>
-      <c r="N83" s="102"/>
+      <c r="K83" s="114"/>
+      <c r="L83" s="114"/>
+      <c r="M83" s="114"/>
+      <c r="N83" s="114"/>
       <c r="O83">
         <f>Q20*O65</f>
         <v>-2.7529011991803158</v>
@@ -14664,12 +14660,12 @@
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="102" t="s">
+      <c r="B84" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="102"/>
-      <c r="D84" s="102"/>
-      <c r="E84" s="102"/>
+      <c r="C84" s="114"/>
+      <c r="D84" s="114"/>
+      <c r="E84" s="114"/>
       <c r="F84">
         <f>Q21*F66</f>
         <v>-4.7481467855452379</v>
@@ -14677,13 +14673,13 @@
       <c r="I84" t="s">
         <v>25</v>
       </c>
-      <c r="J84" s="102" t="s">
+      <c r="J84" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="K84" s="102"/>
-      <c r="L84" s="102"/>
-      <c r="M84" s="102"/>
-      <c r="N84" s="102"/>
+      <c r="K84" s="114"/>
+      <c r="L84" s="114"/>
+      <c r="M84" s="114"/>
+      <c r="N84" s="114"/>
       <c r="O84">
         <f>Q21*O66</f>
         <v>-2.9582218395511499</v>
@@ -14693,12 +14689,12 @@
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="102" t="s">
+      <c r="B85" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="102"/>
-      <c r="D85" s="102"/>
-      <c r="E85" s="102"/>
+      <c r="C85" s="114"/>
+      <c r="D85" s="114"/>
+      <c r="E85" s="114"/>
       <c r="F85">
         <f>Q22*F67</f>
         <v>-6.2848996556843355</v>
@@ -14706,62 +14702,62 @@
       <c r="I85" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="102" t="s">
+      <c r="J85" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="K85" s="102"/>
-      <c r="L85" s="102"/>
-      <c r="M85" s="102"/>
-      <c r="N85" s="102"/>
+      <c r="K85" s="114"/>
+      <c r="L85" s="114"/>
+      <c r="M85" s="114"/>
+      <c r="N85" s="114"/>
       <c r="O85">
         <f>Q22*O67</f>
         <v>-4.0920771106727516</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="109" t="s">
+      <c r="A88" s="121" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="109"/>
-      <c r="C88" s="109"/>
-      <c r="D88" s="109"/>
-      <c r="E88" s="109"/>
-      <c r="F88" s="109"/>
-      <c r="G88" s="109"/>
-      <c r="H88" s="109"/>
-      <c r="I88" s="109"/>
-      <c r="J88" s="109"/>
-      <c r="K88" s="109"/>
-      <c r="L88" s="109"/>
-      <c r="M88" s="109"/>
-      <c r="N88" s="109"/>
-      <c r="O88" s="109"/>
+      <c r="B88" s="121"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="121"/>
+      <c r="G88" s="121"/>
+      <c r="H88" s="121"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="121"/>
+      <c r="K88" s="121"/>
+      <c r="L88" s="121"/>
+      <c r="M88" s="121"/>
+      <c r="N88" s="121"/>
+      <c r="O88" s="121"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="104" t="s">
+      <c r="A89" s="122" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="104"/>
-      <c r="C89" s="104"/>
-      <c r="D89" s="104"/>
-      <c r="E89" s="104"/>
-      <c r="F89" s="104"/>
-      <c r="I89" s="104" t="s">
+      <c r="B89" s="122"/>
+      <c r="C89" s="122"/>
+      <c r="D89" s="122"/>
+      <c r="E89" s="122"/>
+      <c r="F89" s="122"/>
+      <c r="I89" s="122" t="s">
         <v>143</v>
       </c>
-      <c r="J89" s="104"/>
-      <c r="K89" s="104"/>
-      <c r="L89" s="104"/>
-      <c r="M89" s="104"/>
-      <c r="N89" s="104"/>
-      <c r="O89" s="104"/>
-      <c r="R89" s="108" t="s">
+      <c r="J89" s="122"/>
+      <c r="K89" s="122"/>
+      <c r="L89" s="122"/>
+      <c r="M89" s="122"/>
+      <c r="N89" s="122"/>
+      <c r="O89" s="122"/>
+      <c r="R89" s="117" t="s">
         <v>187</v>
       </c>
-      <c r="S89" s="108"/>
-      <c r="T89" s="108"/>
-      <c r="U89" s="108"/>
-      <c r="V89" s="108"/>
+      <c r="S89" s="117"/>
+      <c r="T89" s="117"/>
+      <c r="U89" s="117"/>
+      <c r="V89" s="117"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -14770,36 +14766,36 @@
       <c r="B90" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="105" t="s">
+      <c r="C90" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="105"/>
-      <c r="E90" s="105"/>
+      <c r="D90" s="113"/>
+      <c r="E90" s="113"/>
       <c r="F90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J90" s="105" t="s">
+      <c r="J90" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="K90" s="105"/>
-      <c r="L90" s="105" t="s">
+      <c r="K90" s="113"/>
+      <c r="L90" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="M90" s="105"/>
-      <c r="N90" s="105"/>
+      <c r="M90" s="113"/>
+      <c r="N90" s="113"/>
       <c r="O90" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S90" s="105" t="s">
+      <c r="S90" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="T90" s="105"/>
+      <c r="T90" s="113"/>
       <c r="U90" s="2" t="s">
         <v>46</v>
       </c>
@@ -14814,11 +14810,11 @@
       <c r="B91" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="102" t="s">
+      <c r="C91" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="102"/>
-      <c r="E91" s="102"/>
+      <c r="D91" s="114"/>
+      <c r="E91" s="114"/>
       <c r="F91">
         <f>(U98*U91)/(1-U105)</f>
         <v>2.9625116906426847E-2</v>
@@ -14826,15 +14822,15 @@
       <c r="I91" t="s">
         <v>23</v>
       </c>
-      <c r="J91" s="102" t="s">
+      <c r="J91" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K91" s="102"/>
-      <c r="L91" s="102" t="s">
+      <c r="K91" s="114"/>
+      <c r="L91" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="M91" s="102"/>
-      <c r="N91" s="102"/>
+      <c r="M91" s="114"/>
+      <c r="N91" s="114"/>
       <c r="O91">
         <f>F91+U91</f>
         <v>6.754719482850477E-2</v>
@@ -14842,10 +14838,10 @@
       <c r="R91" t="s">
         <v>23</v>
       </c>
-      <c r="S91" s="102" t="s">
+      <c r="S91" s="114" t="s">
         <v>189</v>
       </c>
-      <c r="T91" s="102"/>
+      <c r="T91" s="114"/>
       <c r="U91">
         <f>1/(Arrivi!H31+Arrivi!H30)</f>
         <v>3.7922077922077919E-2</v>
@@ -14859,24 +14855,24 @@
       <c r="B92" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="102" t="s">
+      <c r="C92" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="102"/>
-      <c r="E92" s="102"/>
+      <c r="D92" s="114"/>
+      <c r="E92" s="114"/>
       <c r="F92">
         <f>(U98*U91)/((1-U105)*(1-U98))</f>
         <v>0.13505284137068607</v>
       </c>
-      <c r="J92" s="102" t="s">
+      <c r="J92" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K92" s="102"/>
-      <c r="L92" s="102" t="s">
+      <c r="K92" s="114"/>
+      <c r="L92" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="M92" s="102"/>
-      <c r="N92" s="102"/>
+      <c r="M92" s="114"/>
+      <c r="N92" s="114"/>
       <c r="O92">
         <f>F92+U91</f>
         <v>0.17297491929276398</v>
@@ -14884,10 +14880,10 @@
       <c r="R92" t="s">
         <v>24</v>
       </c>
-      <c r="S92" s="102" t="s">
+      <c r="S92" s="114" t="s">
         <v>191</v>
       </c>
-      <c r="T92" s="102"/>
+      <c r="T92" s="114"/>
       <c r="U92">
         <f>1/(Arrivi!H33+Arrivi!H34)</f>
         <v>6.0671542553191488E-2</v>
@@ -14904,11 +14900,11 @@
       <c r="B93" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="102" t="s">
+      <c r="C93" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="102"/>
-      <c r="E93" s="102"/>
+      <c r="D93" s="114"/>
+      <c r="E93" s="114"/>
       <c r="F93">
         <f>(U99*U92)/(1-U107)</f>
         <v>4.8035312696792357E-2</v>
@@ -14916,15 +14912,15 @@
       <c r="I93" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="102" t="s">
+      <c r="J93" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K93" s="102"/>
-      <c r="L93" s="102" t="s">
+      <c r="K93" s="114"/>
+      <c r="L93" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="M93" s="102"/>
-      <c r="N93" s="102"/>
+      <c r="M93" s="114"/>
+      <c r="N93" s="114"/>
       <c r="O93">
         <f>F93+U92</f>
         <v>0.10870685524998384</v>
@@ -14932,10 +14928,10 @@
       <c r="R93" t="s">
         <v>25</v>
       </c>
-      <c r="S93" s="102" t="s">
+      <c r="S93" s="114" t="s">
         <v>192</v>
       </c>
-      <c r="T93" s="102"/>
+      <c r="T93" s="114"/>
       <c r="U93">
         <f>1/(Arrivi!H36+Arrivi!H37)</f>
         <v>0.19466666666666668</v>
@@ -14949,24 +14945,24 @@
       <c r="B94" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="102" t="s">
+      <c r="C94" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="102"/>
-      <c r="E94" s="102"/>
+      <c r="D94" s="114"/>
+      <c r="E94" s="114"/>
       <c r="F94">
         <f>(U99*U92)/((1-U107)*(1-U99))</f>
         <v>0.23012207284857372</v>
       </c>
-      <c r="J94" s="102" t="s">
+      <c r="J94" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K94" s="102"/>
-      <c r="L94" s="102" t="s">
+      <c r="K94" s="114"/>
+      <c r="L94" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="M94" s="102"/>
-      <c r="N94" s="102"/>
+      <c r="M94" s="114"/>
+      <c r="N94" s="114"/>
       <c r="O94">
         <f>F94+U92</f>
         <v>0.29079361540176518</v>
@@ -14974,10 +14970,10 @@
       <c r="R94" t="s">
         <v>26</v>
       </c>
-      <c r="S94" s="102" t="s">
+      <c r="S94" s="114" t="s">
         <v>193</v>
       </c>
-      <c r="T94" s="102"/>
+      <c r="T94" s="114"/>
       <c r="U94">
         <f>1/(Arrivi!H39+Arrivi!H40)</f>
         <v>0.72709163346613537</v>
@@ -14994,11 +14990,11 @@
       <c r="B95" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="102" t="s">
+      <c r="C95" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="102"/>
-      <c r="E95" s="102"/>
+      <c r="D95" s="114"/>
+      <c r="E95" s="114"/>
       <c r="F95">
         <f>(U100*U93)/(1-U109)</f>
         <v>0.14644886495200449</v>
@@ -15006,15 +15002,15 @@
       <c r="I95" t="s">
         <v>25</v>
       </c>
-      <c r="J95" s="102" t="s">
+      <c r="J95" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K95" s="102"/>
-      <c r="L95" s="102" t="s">
+      <c r="K95" s="114"/>
+      <c r="L95" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="M95" s="102"/>
-      <c r="N95" s="102"/>
+      <c r="M95" s="114"/>
+      <c r="N95" s="114"/>
       <c r="O95">
         <f>F95+U93</f>
         <v>0.34111553161867114</v>
@@ -15024,24 +15020,24 @@
       <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="102" t="s">
+      <c r="C96" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="102"/>
-      <c r="E96" s="102"/>
+      <c r="D96" s="114"/>
+      <c r="E96" s="114"/>
       <c r="F96">
         <f>(U100*U93)/((1-U109)*(1-U100))</f>
         <v>0.5890620968216731</v>
       </c>
-      <c r="J96" s="102" t="s">
+      <c r="J96" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K96" s="102"/>
-      <c r="L96" s="102" t="s">
+      <c r="K96" s="114"/>
+      <c r="L96" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="M96" s="102"/>
-      <c r="N96" s="102"/>
+      <c r="M96" s="114"/>
+      <c r="N96" s="114"/>
       <c r="O96">
         <f>F96+U93</f>
         <v>0.78372876348833975</v>
@@ -15054,11 +15050,11 @@
       <c r="B97" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="102" t="s">
+      <c r="C97" s="114" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="102"/>
-      <c r="E97" s="102"/>
+      <c r="D97" s="114"/>
+      <c r="E97" s="114"/>
       <c r="F97">
         <f>(U101*U94)/(1-U111)</f>
         <v>0.55323897499522867</v>
@@ -15066,48 +15062,48 @@
       <c r="I97" t="s">
         <v>26</v>
       </c>
-      <c r="J97" s="102" t="s">
+      <c r="J97" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="K97" s="102"/>
-      <c r="L97" s="102" t="s">
+      <c r="K97" s="114"/>
+      <c r="L97" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="M97" s="102"/>
-      <c r="N97" s="102"/>
+      <c r="M97" s="114"/>
+      <c r="N97" s="114"/>
       <c r="O97">
         <f>F97+U93</f>
         <v>0.74790564166189533</v>
       </c>
-      <c r="R97" s="107" t="s">
+      <c r="R97" s="118" t="s">
         <v>128</v>
       </c>
-      <c r="S97" s="107"/>
-      <c r="T97" s="107"/>
-      <c r="U97" s="107"/>
+      <c r="S97" s="118"/>
+      <c r="T97" s="118"/>
+      <c r="U97" s="118"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="102" t="s">
+      <c r="C98" s="114" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="102"/>
-      <c r="E98" s="102"/>
+      <c r="D98" s="114"/>
+      <c r="E98" s="114"/>
       <c r="F98">
         <f>(U101*U94)/((1-U111)*(1-U101))</f>
         <v>2.3067619058366273</v>
       </c>
-      <c r="J98" s="102" t="s">
+      <c r="J98" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K98" s="102"/>
-      <c r="L98" s="102" t="s">
+      <c r="K98" s="114"/>
+      <c r="L98" s="114" t="s">
         <v>150</v>
       </c>
-      <c r="M98" s="102"/>
-      <c r="N98" s="102"/>
+      <c r="M98" s="114"/>
+      <c r="N98" s="114"/>
       <c r="O98">
         <f>F98+U94</f>
         <v>3.0338535393027626</v>
@@ -15115,40 +15111,40 @@
       <c r="R98" t="s">
         <v>23</v>
       </c>
-      <c r="S98" s="106" t="s">
+      <c r="S98" s="120" t="s">
         <v>130</v>
       </c>
-      <c r="T98" s="106"/>
+      <c r="T98" s="120"/>
       <c r="U98">
         <f>Q19*U91</f>
         <v>0.78064055072256233</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="104" t="s">
+      <c r="A99" s="122" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="104"/>
-      <c r="C99" s="104"/>
-      <c r="D99" s="104"/>
-      <c r="E99" s="104"/>
-      <c r="F99" s="104"/>
-      <c r="I99" s="104" t="s">
+      <c r="B99" s="122"/>
+      <c r="C99" s="122"/>
+      <c r="D99" s="122"/>
+      <c r="E99" s="122"/>
+      <c r="F99" s="122"/>
+      <c r="I99" s="122" t="s">
         <v>153</v>
       </c>
-      <c r="J99" s="104"/>
-      <c r="K99" s="104"/>
-      <c r="L99" s="104"/>
-      <c r="M99" s="104"/>
-      <c r="N99" s="104"/>
-      <c r="O99" s="104"/>
+      <c r="J99" s="122"/>
+      <c r="K99" s="122"/>
+      <c r="L99" s="122"/>
+      <c r="M99" s="122"/>
+      <c r="N99" s="122"/>
+      <c r="O99" s="122"/>
       <c r="R99" t="s">
         <v>24</v>
       </c>
-      <c r="S99" s="106" t="s">
+      <c r="S99" s="120" t="s">
         <v>132</v>
       </c>
-      <c r="T99" s="106"/>
+      <c r="T99" s="120"/>
       <c r="U99">
         <f>Q20*U92</f>
         <v>0.79126160258255263</v>
@@ -15158,35 +15154,35 @@
       <c r="A100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="105" t="s">
+      <c r="B100" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="105"/>
-      <c r="D100" s="105"/>
-      <c r="E100" s="105"/>
+      <c r="C100" s="113"/>
+      <c r="D100" s="113"/>
+      <c r="E100" s="113"/>
       <c r="F100" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J100" s="105" t="s">
+      <c r="J100" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="105"/>
-      <c r="L100" s="105"/>
-      <c r="M100" s="105"/>
-      <c r="N100" s="105"/>
+      <c r="K100" s="113"/>
+      <c r="L100" s="113"/>
+      <c r="M100" s="113"/>
+      <c r="N100" s="113"/>
       <c r="O100" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R100" t="s">
         <v>25</v>
       </c>
-      <c r="S100" s="106" t="s">
+      <c r="S100" s="120" t="s">
         <v>133</v>
       </c>
-      <c r="T100" s="106"/>
+      <c r="T100" s="120"/>
       <c r="U100">
         <f>Q21*U93</f>
         <v>0.75138637209526826</v>
@@ -15196,12 +15192,12 @@
       <c r="A101" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="102" t="s">
+      <c r="B101" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="102"/>
-      <c r="D101" s="102"/>
-      <c r="E101" s="102"/>
+      <c r="C101" s="114"/>
+      <c r="D101" s="114"/>
+      <c r="E101" s="114"/>
       <c r="F101">
         <f>T105*F91+T106*F92</f>
         <v>0.13495434954431079</v>
@@ -15209,13 +15205,13 @@
       <c r="I101" t="s">
         <v>23</v>
       </c>
-      <c r="J101" s="102" t="s">
+      <c r="J101" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="K101" s="102"/>
-      <c r="L101" s="102"/>
-      <c r="M101" s="102"/>
-      <c r="N101" s="102"/>
+      <c r="K101" s="114"/>
+      <c r="L101" s="114"/>
+      <c r="M101" s="114"/>
+      <c r="N101" s="114"/>
       <c r="O101">
         <f>T105*O91+T106*O92</f>
         <v>0.1728764274663887</v>
@@ -15223,10 +15219,10 @@
       <c r="R101" t="s">
         <v>26</v>
       </c>
-      <c r="S101" s="106" t="s">
+      <c r="S101" s="120" t="s">
         <v>134</v>
       </c>
-      <c r="T101" s="106"/>
+      <c r="T101" s="120"/>
       <c r="U101">
         <f>Q22*U94</f>
         <v>0.76016641613709268</v>
@@ -15236,12 +15232,12 @@
       <c r="A102" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="102" t="s">
+      <c r="B102" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="102"/>
-      <c r="D102" s="102"/>
-      <c r="E102" s="102"/>
+      <c r="C102" s="114"/>
+      <c r="D102" s="114"/>
+      <c r="E102" s="114"/>
       <c r="F102">
         <f>T107*F93+T108*F94</f>
         <v>0.22998673260764035</v>
@@ -15249,13 +15245,13 @@
       <c r="I102" t="s">
         <v>24</v>
       </c>
-      <c r="J102" s="102" t="s">
+      <c r="J102" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="K102" s="102"/>
-      <c r="L102" s="102"/>
-      <c r="M102" s="102"/>
-      <c r="N102" s="102"/>
+      <c r="K102" s="114"/>
+      <c r="L102" s="114"/>
+      <c r="M102" s="114"/>
+      <c r="N102" s="114"/>
       <c r="O102">
         <f>T107*O93+T108*O94</f>
         <v>0.29065827516083181</v>
@@ -15265,12 +15261,12 @@
       <c r="A103" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="102" t="s">
+      <c r="B103" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="102"/>
-      <c r="D103" s="102"/>
-      <c r="E103" s="102"/>
+      <c r="C103" s="114"/>
+      <c r="D103" s="114"/>
+      <c r="E103" s="114"/>
       <c r="F103">
         <f>T109*F95+T110*F96</f>
         <v>0.58834216638597092</v>
@@ -15278,34 +15274,34 @@
       <c r="I103" t="s">
         <v>25</v>
       </c>
-      <c r="J103" s="102" t="s">
+      <c r="J103" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="K103" s="102"/>
-      <c r="L103" s="102"/>
-      <c r="M103" s="102"/>
-      <c r="N103" s="102"/>
+      <c r="K103" s="114"/>
+      <c r="L103" s="114"/>
+      <c r="M103" s="114"/>
+      <c r="N103" s="114"/>
       <c r="O103">
         <f>T109*O95+T110*O96</f>
         <v>0.78300883305263769</v>
       </c>
-      <c r="R103" s="107" t="s">
+      <c r="R103" s="118" t="s">
         <v>135</v>
       </c>
-      <c r="S103" s="107"/>
-      <c r="T103" s="107"/>
-      <c r="U103" s="107"/>
+      <c r="S103" s="118"/>
+      <c r="T103" s="118"/>
+      <c r="U103" s="118"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="102" t="s">
+      <c r="B104" s="114" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="102"/>
-      <c r="D104" s="102"/>
-      <c r="E104" s="102"/>
+      <c r="C104" s="114"/>
+      <c r="D104" s="114"/>
+      <c r="E104" s="114"/>
       <c r="F104">
         <f>T111*F97+T112*F98</f>
         <v>2.3045589875818013</v>
@@ -15313,13 +15309,13 @@
       <c r="I104" t="s">
         <v>26</v>
       </c>
-      <c r="J104" s="102" t="s">
+      <c r="J104" s="114" t="s">
         <v>155</v>
       </c>
-      <c r="K104" s="102"/>
-      <c r="L104" s="102"/>
-      <c r="M104" s="102"/>
-      <c r="N104" s="102"/>
+      <c r="K104" s="114"/>
+      <c r="L104" s="114"/>
+      <c r="M104" s="114"/>
+      <c r="N104" s="114"/>
       <c r="O104">
         <f>T111*O97+T112*O98</f>
         <v>3.0309817454615051</v>
@@ -15367,23 +15363,23 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="104" t="s">
+      <c r="A107" s="122" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="104"/>
-      <c r="C107" s="104"/>
-      <c r="D107" s="104"/>
-      <c r="E107" s="104"/>
-      <c r="F107" s="104"/>
-      <c r="I107" s="104" t="s">
+      <c r="B107" s="122"/>
+      <c r="C107" s="122"/>
+      <c r="D107" s="122"/>
+      <c r="E107" s="122"/>
+      <c r="F107" s="122"/>
+      <c r="I107" s="122" t="s">
         <v>157</v>
       </c>
-      <c r="J107" s="104"/>
-      <c r="K107" s="104"/>
-      <c r="L107" s="104"/>
-      <c r="M107" s="104"/>
-      <c r="N107" s="104"/>
-      <c r="O107" s="104"/>
+      <c r="J107" s="122"/>
+      <c r="K107" s="122"/>
+      <c r="L107" s="122"/>
+      <c r="M107" s="122"/>
+      <c r="N107" s="122"/>
+      <c r="O107" s="122"/>
       <c r="R107" t="s">
         <v>24</v>
       </c>
@@ -15406,26 +15402,26 @@
       <c r="B108" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="105" t="s">
+      <c r="C108" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="D108" s="105"/>
-      <c r="E108" s="105"/>
+      <c r="D108" s="113"/>
+      <c r="E108" s="113"/>
       <c r="F108" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J108" s="105" t="s">
+      <c r="J108" s="113" t="s">
         <v>144</v>
       </c>
-      <c r="K108" s="105"/>
-      <c r="L108" s="105" t="s">
+      <c r="K108" s="113"/>
+      <c r="L108" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="M108" s="105"/>
-      <c r="N108" s="105"/>
+      <c r="M108" s="113"/>
+      <c r="N108" s="113"/>
       <c r="O108" s="2" t="s">
         <v>159</v>
       </c>
@@ -15448,11 +15444,11 @@
       <c r="B109" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="102" t="s">
+      <c r="C109" s="114" t="s">
         <v>160</v>
       </c>
-      <c r="D109" s="102"/>
-      <c r="E109" s="102"/>
+      <c r="D109" s="114"/>
+      <c r="E109" s="114"/>
       <c r="F109" s="4">
         <f t="shared" ref="F109:F116" si="2">P10*F91</f>
         <v>5.6972386472095972E-4</v>
@@ -15460,15 +15456,15 @@
       <c r="I109" t="s">
         <v>23</v>
       </c>
-      <c r="J109" s="102" t="s">
+      <c r="J109" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K109" s="102"/>
-      <c r="L109" s="102" t="s">
+      <c r="K109" s="114"/>
+      <c r="L109" s="114" t="s">
         <v>161</v>
       </c>
-      <c r="M109" s="102"/>
-      <c r="N109" s="102"/>
+      <c r="M109" s="114"/>
+      <c r="N109" s="114"/>
       <c r="O109">
         <f t="shared" ref="O109:O116" si="3">P10*O91</f>
         <v>1.2990074945630624E-3</v>
@@ -15492,24 +15488,24 @@
       <c r="B110" t="s">
         <v>80</v>
       </c>
-      <c r="C110" s="102" t="s">
+      <c r="C110" s="114" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="102"/>
-      <c r="E110" s="102"/>
+      <c r="D110" s="114"/>
+      <c r="E110" s="114"/>
       <c r="F110" s="4">
         <f t="shared" si="2"/>
         <v>2.7775174359989943</v>
       </c>
-      <c r="J110" s="102" t="s">
+      <c r="J110" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K110" s="102"/>
-      <c r="L110" s="102" t="s">
+      <c r="K110" s="114"/>
+      <c r="L110" s="114" t="s">
         <v>163</v>
       </c>
-      <c r="M110" s="102"/>
-      <c r="N110" s="102"/>
+      <c r="M110" s="114"/>
+      <c r="N110" s="114"/>
       <c r="O110">
         <f t="shared" si="3"/>
         <v>3.5574287030917144</v>
@@ -15533,11 +15529,11 @@
       <c r="B111" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="102" t="s">
+      <c r="C111" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="102"/>
-      <c r="E111" s="102"/>
+      <c r="D111" s="114"/>
+      <c r="E111" s="114"/>
       <c r="F111" s="4">
         <f t="shared" si="2"/>
         <v>4.6563353772914319E-4</v>
@@ -15545,15 +15541,15 @@
       <c r="I111" t="s">
         <v>24</v>
       </c>
-      <c r="J111" s="102" t="s">
+      <c r="J111" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K111" s="102"/>
-      <c r="L111" s="102" t="s">
+      <c r="K111" s="114"/>
+      <c r="L111" s="114" t="s">
         <v>165</v>
       </c>
-      <c r="M111" s="102"/>
-      <c r="N111" s="102"/>
+      <c r="M111" s="114"/>
+      <c r="N111" s="114"/>
       <c r="O111">
         <f t="shared" si="3"/>
         <v>1.0537572203384437E-3</v>
@@ -15577,24 +15573,24 @@
       <c r="B112" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="102" t="s">
+      <c r="C112" s="114" t="s">
         <v>166</v>
       </c>
-      <c r="D112" s="102"/>
-      <c r="E112" s="102"/>
+      <c r="D112" s="114"/>
+      <c r="E112" s="114"/>
       <c r="F112" s="4">
         <f t="shared" si="2"/>
         <v>2.9989581977634563</v>
       </c>
-      <c r="J112" s="102" t="s">
+      <c r="J112" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K112" s="102"/>
-      <c r="L112" s="102" t="s">
+      <c r="K112" s="114"/>
+      <c r="L112" s="114" t="s">
         <v>167</v>
       </c>
-      <c r="M112" s="102"/>
-      <c r="N112" s="102"/>
+      <c r="M112" s="114"/>
+      <c r="N112" s="114"/>
       <c r="O112">
         <f t="shared" si="3"/>
         <v>3.7896316766633995</v>
@@ -15618,11 +15614,11 @@
       <c r="B113" t="s">
         <v>77</v>
       </c>
-      <c r="C113" s="102" t="s">
+      <c r="C113" s="114" t="s">
         <v>168</v>
       </c>
-      <c r="D113" s="102"/>
-      <c r="E113" s="102"/>
+      <c r="D113" s="114"/>
+      <c r="E113" s="114"/>
       <c r="F113" s="4">
         <f t="shared" si="2"/>
         <v>9.1944101434387169E-4</v>
@@ -15630,15 +15626,15 @@
       <c r="I113" t="s">
         <v>25</v>
       </c>
-      <c r="J113" s="102" t="s">
+      <c r="J113" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="K113" s="102"/>
-      <c r="L113" s="102" t="s">
+      <c r="K113" s="114"/>
+      <c r="L113" s="114" t="s">
         <v>169</v>
       </c>
-      <c r="M113" s="102"/>
-      <c r="N113" s="102"/>
+      <c r="M113" s="114"/>
+      <c r="N113" s="114"/>
       <c r="O113">
         <f t="shared" si="3"/>
         <v>2.1416049247135337E-3</v>
@@ -15648,24 +15644,24 @@
       <c r="B114" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="102" t="s">
+      <c r="C114" s="114" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="102"/>
-      <c r="E114" s="102"/>
+      <c r="D114" s="114"/>
+      <c r="E114" s="114"/>
       <c r="F114" s="4">
         <f t="shared" si="2"/>
         <v>2.2699998361333895</v>
       </c>
-      <c r="J114" s="102" t="s">
+      <c r="J114" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K114" s="102"/>
-      <c r="L114" s="102" t="s">
+      <c r="K114" s="114"/>
+      <c r="L114" s="114" t="s">
         <v>171</v>
       </c>
-      <c r="M114" s="102"/>
-      <c r="N114" s="102"/>
+      <c r="M114" s="114"/>
+      <c r="N114" s="114"/>
       <c r="O114">
         <f t="shared" si="3"/>
         <v>3.020164044318288</v>
@@ -15678,11 +15674,11 @@
       <c r="B115" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="102" t="s">
+      <c r="C115" s="114" t="s">
         <v>172</v>
       </c>
-      <c r="D115" s="102"/>
-      <c r="E115" s="102"/>
+      <c r="D115" s="114"/>
+      <c r="E115" s="114"/>
       <c r="F115" s="4">
         <f t="shared" si="2"/>
         <v>7.2663988374241004E-4</v>
@@ -15690,15 +15686,15 @@
       <c r="I115" t="s">
         <v>26</v>
       </c>
-      <c r="J115" s="102" t="s">
+      <c r="J115" s="114" t="s">
         <v>91</v>
       </c>
-      <c r="K115" s="102"/>
-      <c r="L115" s="102" t="s">
+      <c r="K115" s="114"/>
+      <c r="L115" s="114" t="s">
         <v>173</v>
       </c>
-      <c r="M115" s="102"/>
-      <c r="N115" s="102"/>
+      <c r="M115" s="114"/>
+      <c r="N115" s="114"/>
       <c r="O115">
         <f t="shared" si="3"/>
         <v>9.823206481650703E-4</v>
@@ -15708,51 +15704,51 @@
       <c r="B116" t="s">
         <v>80</v>
       </c>
-      <c r="C116" s="102" t="s">
+      <c r="C116" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="D116" s="102"/>
-      <c r="E116" s="102"/>
+      <c r="D116" s="114"/>
+      <c r="E116" s="114"/>
       <c r="F116" s="4">
         <f t="shared" si="2"/>
         <v>2.4086647844341362</v>
       </c>
-      <c r="J116" s="102" t="s">
+      <c r="J116" s="114" t="s">
         <v>80</v>
       </c>
-      <c r="K116" s="102"/>
-      <c r="L116" s="102" t="s">
+      <c r="K116" s="114"/>
+      <c r="L116" s="114" t="s">
         <v>175</v>
       </c>
-      <c r="M116" s="102"/>
-      <c r="N116" s="102"/>
+      <c r="M116" s="114"/>
+      <c r="N116" s="114"/>
       <c r="O116">
         <f t="shared" si="3"/>
         <v>3.1678762176363828</v>
       </c>
-      <c r="S116" s="103" t="s">
+      <c r="S116" s="123" t="s">
         <v>151</v>
       </c>
-      <c r="T116" s="103"/>
+      <c r="T116" s="123"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="104" t="s">
+      <c r="A117" s="122" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="104"/>
-      <c r="C117" s="104"/>
-      <c r="D117" s="104"/>
-      <c r="E117" s="104"/>
-      <c r="F117" s="104"/>
-      <c r="I117" s="104" t="s">
+      <c r="B117" s="122"/>
+      <c r="C117" s="122"/>
+      <c r="D117" s="122"/>
+      <c r="E117" s="122"/>
+      <c r="F117" s="122"/>
+      <c r="I117" s="122" t="s">
         <v>177</v>
       </c>
-      <c r="J117" s="104"/>
-      <c r="K117" s="104"/>
-      <c r="L117" s="104"/>
-      <c r="M117" s="104"/>
-      <c r="N117" s="104"/>
-      <c r="O117" s="104"/>
+      <c r="J117" s="122"/>
+      <c r="K117" s="122"/>
+      <c r="L117" s="122"/>
+      <c r="M117" s="122"/>
+      <c r="N117" s="122"/>
+      <c r="O117" s="122"/>
       <c r="S117" t="s">
         <v>23</v>
       </c>
@@ -15765,25 +15761,25 @@
       <c r="A118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="105" t="s">
+      <c r="B118" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="105"/>
-      <c r="D118" s="105"/>
-      <c r="E118" s="105"/>
+      <c r="C118" s="113"/>
+      <c r="D118" s="113"/>
+      <c r="E118" s="113"/>
       <c r="F118" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J118" s="105" t="s">
+      <c r="J118" s="113" t="s">
         <v>68</v>
       </c>
-      <c r="K118" s="105"/>
-      <c r="L118" s="105"/>
-      <c r="M118" s="105"/>
-      <c r="N118" s="105"/>
+      <c r="K118" s="113"/>
+      <c r="L118" s="113"/>
+      <c r="M118" s="113"/>
+      <c r="N118" s="113"/>
       <c r="O118" s="2" t="s">
         <v>159</v>
       </c>
@@ -15799,12 +15795,12 @@
       <c r="A119" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="102" t="s">
+      <c r="B119" s="114" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="102"/>
-      <c r="D119" s="102"/>
-      <c r="E119" s="102"/>
+      <c r="C119" s="114"/>
+      <c r="D119" s="114"/>
+      <c r="E119" s="114"/>
       <c r="F119">
         <f>Q19*F101</f>
         <v>2.7780871598637153</v>
@@ -15812,13 +15808,13 @@
       <c r="I119" t="s">
         <v>23</v>
       </c>
-      <c r="J119" s="102" t="s">
+      <c r="J119" s="114" t="s">
         <v>179</v>
       </c>
-      <c r="K119" s="102"/>
-      <c r="L119" s="102"/>
-      <c r="M119" s="102"/>
-      <c r="N119" s="102"/>
+      <c r="K119" s="114"/>
+      <c r="L119" s="114"/>
+      <c r="M119" s="114"/>
+      <c r="N119" s="114"/>
       <c r="O119">
         <f>Q19*O101</f>
         <v>3.5587277105862776</v>
@@ -15835,12 +15831,12 @@
       <c r="A120" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="102" t="s">
+      <c r="B120" s="114" t="s">
         <v>180</v>
       </c>
-      <c r="C120" s="102"/>
-      <c r="D120" s="102"/>
-      <c r="E120" s="102"/>
+      <c r="C120" s="114"/>
+      <c r="D120" s="114"/>
+      <c r="E120" s="114"/>
       <c r="F120">
         <f>Q20*F102</f>
         <v>2.9994238313011858</v>
@@ -15848,13 +15844,13 @@
       <c r="I120" t="s">
         <v>24</v>
       </c>
-      <c r="J120" s="102" t="s">
+      <c r="J120" s="114" t="s">
         <v>181</v>
       </c>
-      <c r="K120" s="102"/>
-      <c r="L120" s="102"/>
-      <c r="M120" s="102"/>
-      <c r="N120" s="102"/>
+      <c r="K120" s="114"/>
+      <c r="L120" s="114"/>
+      <c r="M120" s="114"/>
+      <c r="N120" s="114"/>
       <c r="O120">
         <f>Q20*O102</f>
         <v>3.7906854338837381</v>
@@ -15871,12 +15867,12 @@
       <c r="A121" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="102" t="s">
+      <c r="B121" s="114" t="s">
         <v>182</v>
       </c>
-      <c r="C121" s="102"/>
-      <c r="D121" s="102"/>
-      <c r="E121" s="102"/>
+      <c r="C121" s="114"/>
+      <c r="D121" s="114"/>
+      <c r="E121" s="114"/>
       <c r="F121">
         <f>Q21*F103</f>
         <v>2.2709192771477329</v>
@@ -15884,13 +15880,13 @@
       <c r="I121" t="s">
         <v>25</v>
       </c>
-      <c r="J121" s="102" t="s">
+      <c r="J121" s="114" t="s">
         <v>183</v>
       </c>
-      <c r="K121" s="102"/>
-      <c r="L121" s="102"/>
-      <c r="M121" s="102"/>
-      <c r="N121" s="102"/>
+      <c r="K121" s="114"/>
+      <c r="L121" s="114"/>
+      <c r="M121" s="114"/>
+      <c r="N121" s="114"/>
       <c r="O121">
         <f>Q21*O103</f>
         <v>3.0223056492430018</v>
@@ -15900,12 +15896,12 @@
       <c r="A122" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="102" t="s">
+      <c r="B122" s="114" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="102"/>
-      <c r="D122" s="102"/>
-      <c r="E122" s="102"/>
+      <c r="C122" s="114"/>
+      <c r="D122" s="114"/>
+      <c r="E122" s="114"/>
       <c r="F122">
         <f>Q22*F104</f>
         <v>2.4093914243178784</v>
@@ -15913,13 +15909,13 @@
       <c r="I122" t="s">
         <v>26</v>
       </c>
-      <c r="J122" s="102" t="s">
+      <c r="J122" s="114" t="s">
         <v>185</v>
       </c>
-      <c r="K122" s="102"/>
-      <c r="L122" s="102"/>
-      <c r="M122" s="102"/>
-      <c r="N122" s="102"/>
+      <c r="K122" s="114"/>
+      <c r="L122" s="114"/>
+      <c r="M122" s="114"/>
+      <c r="N122" s="114"/>
       <c r="O122">
         <f>Q22*O104</f>
         <v>3.1688585382845482</v>
@@ -15927,256 +15923,6 @@
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="I62:O62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="I80:O80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="I89:O89"/>
-    <mergeCell ref="R89:V89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="I99:O99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="J100:N100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="J101:N101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="J102:N102"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="I107:O107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:N114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="L116:N116"/>
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="J121:N121"/>
     <mergeCell ref="B122:E122"/>
@@ -16190,6 +15936,256 @@
     <mergeCell ref="J119:N119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="J120:N120"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="I107:O107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="J101:N101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="J102:N102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="I99:O99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="J100:N100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="I89:O89"/>
+    <mergeCell ref="R89:V89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="I80:O80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="I62:O62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1362" uniqueCount="230">
   <si>
     <t xml:space="preserve">PAZIENTI - ARRIVI</t>
   </si>
@@ -217,12 +217,6 @@
   </si>
   <si>
     <t xml:space="preserve">t/giorno</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_rej,crit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p_crit,inact</t>
   </si>
   <si>
     <t xml:space="preserve">Activation center</t>
@@ -1635,14 +1629,14 @@
       <selection pane="topLeft" activeCell="T19" activeCellId="0" sqref="T19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="16.57"/>
   </cols>
   <sheetData>
@@ -6551,19 +6545,19 @@
   </sheetPr>
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P15" activeCellId="0" sqref="P15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="5.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="18.58"/>
@@ -7981,15 +7975,15 @@
   </sheetPr>
   <dimension ref="A1:V107"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H74" activeCellId="0" sqref="H74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N33" activeCellId="0" sqref="N33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="4.86"/>
@@ -11319,34 +11313,9 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G71" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="H71" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G72" s="0" t="n">
-        <f aca="false">1-(N50/N49)</f>
-        <v>0.998833832071818</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G73" s="0" t="n">
-        <f aca="false">1-G72</f>
-        <v>0.00116616792818169</v>
-      </c>
-      <c r="H73" s="0" t="n">
-        <f aca="false">0</f>
-        <v>0</v>
-      </c>
-    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -11434,7 +11403,7 @@
       <selection pane="topLeft" activeCell="K47" activeCellId="0" sqref="K47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.57"/>
@@ -11442,7 +11411,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="26.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.15"/>
@@ -11453,7 +11422,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="57" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -11463,7 +11432,7 @@
       <c r="G1" s="57"/>
       <c r="H1" s="57"/>
       <c r="J1" s="57" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K1" s="57"/>
       <c r="L1" s="57"/>
@@ -11473,25 +11442,25 @@
         <v>2</v>
       </c>
       <c r="B2" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="E2" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="60" t="s">
+      <c r="F2" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="61" t="s">
+      <c r="G2" s="58" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="H2" s="58" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="58" t="s">
-        <v>73</v>
-      </c>
-      <c r="H2" s="58" t="s">
-        <v>74</v>
       </c>
       <c r="J2" s="59" t="s">
         <v>2</v>
@@ -11500,7 +11469,7 @@
         <v>45</v>
       </c>
       <c r="L2" s="61" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11536,7 +11505,7 @@
         <v>23</v>
       </c>
       <c r="K3" s="68" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L3" s="64" t="n">
         <v>22.4118721461187</v>
@@ -11573,7 +11542,7 @@
       </c>
       <c r="J4" s="71"/>
       <c r="K4" s="72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L4" s="70" t="n">
         <v>12.1068493150685</v>
@@ -11610,7 +11579,7 @@
       </c>
       <c r="J5" s="71"/>
       <c r="K5" s="72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L5" s="70" t="n">
         <v>10.3050228310502</v>
@@ -11649,7 +11618,7 @@
         <v>24</v>
       </c>
       <c r="K6" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L6" s="70" t="n">
         <v>13.9383561643836</v>
@@ -11665,7 +11634,7 @@
       <c r="G7" s="75"/>
       <c r="J7" s="71"/>
       <c r="K7" s="72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L7" s="70" t="n">
         <v>9.3986301369863</v>
@@ -11673,7 +11642,7 @@
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B8" s="57"/>
       <c r="C8" s="57"/>
@@ -11682,7 +11651,7 @@
       <c r="F8" s="57"/>
       <c r="J8" s="71"/>
       <c r="K8" s="72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L8" s="70" t="n">
         <v>4.53972602739726</v>
@@ -11696,22 +11665,22 @@
         <v>3</v>
       </c>
       <c r="C9" s="60" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D9" s="60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F9" s="58" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J9" s="71" t="s">
         <v>25</v>
       </c>
       <c r="K9" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L9" s="70" t="n">
         <v>4.32420091324201</v>
@@ -11739,7 +11708,7 @@
       </c>
       <c r="J10" s="71"/>
       <c r="K10" s="72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L10" s="70" t="n">
         <v>2.98767123287671</v>
@@ -11765,7 +11734,7 @@
       </c>
       <c r="J11" s="71"/>
       <c r="K11" s="72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L11" s="70" t="n">
         <v>1.3365296803653</v>
@@ -11795,7 +11764,7 @@
         <v>26</v>
       </c>
       <c r="K12" s="72" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L12" s="70" t="n">
         <v>1.09041095890411</v>
@@ -11821,7 +11790,7 @@
       </c>
       <c r="J13" s="71"/>
       <c r="K13" s="72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L13" s="70" t="n">
         <v>0.871689497716895</v>
@@ -11849,7 +11818,7 @@
       </c>
       <c r="J14" s="71"/>
       <c r="K14" s="72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L14" s="70" t="n">
         <v>0.218721461187215</v>
@@ -11923,7 +11892,7 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="81" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B19" s="81"/>
       <c r="C19" s="81"/>
@@ -11942,36 +11911,36 @@
         <v>3</v>
       </c>
       <c r="C20" s="82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" s="58" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" s="58"/>
       <c r="F20" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H20" s="58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I20" s="58" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="83"/>
       <c r="B21" s="84"/>
       <c r="C21" s="85" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="87" t="s">
         <v>86</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="87" t="s">
-        <v>88</v>
       </c>
       <c r="F21" s="88"/>
       <c r="G21" s="88"/>
@@ -12271,7 +12240,7 @@
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="81" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="81"/>
       <c r="C31" s="81"/>
@@ -12291,28 +12260,28 @@
         <v>3</v>
       </c>
       <c r="C32" s="62" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="91" t="s">
+      <c r="F32" s="82" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="E32" s="58" t="s">
+      <c r="H32" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="F32" s="82" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="H32" s="58" t="s">
-        <v>94</v>
-      </c>
       <c r="I32" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J32" s="58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12630,7 +12599,7 @@
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="81" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B42" s="81"/>
       <c r="C42" s="81"/>
@@ -12648,25 +12617,25 @@
         <v>3</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D43" s="82" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E43" s="58" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F43" s="58" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G43" s="58" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H43" s="58" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I43" s="58" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12979,9 +12948,9 @@
       <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.86"/>
@@ -12991,59 +12960,59 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="0" width="17.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.12"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="94" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="95" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="D2" s="95" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="E2" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="F2" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="96" t="s">
+        <v>89</v>
+      </c>
+      <c r="H2" s="96" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="96" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="96" t="s">
-        <v>102</v>
-      </c>
-      <c r="F2" s="96" t="s">
+      <c r="L2" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="M2" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="N2" s="95" t="s">
+        <v>83</v>
+      </c>
+      <c r="O2" s="95" t="s">
         <v>72</v>
-      </c>
-      <c r="G2" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="96" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="95" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="96" t="s">
-        <v>94</v>
-      </c>
-      <c r="K2" s="96" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="95" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="N2" s="95" t="s">
-        <v>85</v>
-      </c>
-      <c r="O2" s="95" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13166,13 +13135,13 @@
   </sheetPr>
   <dimension ref="A1:AC122"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U11" activeCellId="0" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.7421875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="12.71"/>
@@ -13182,7 +13151,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="101" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B1" s="101"/>
       <c r="C1" s="101"/>
@@ -13190,7 +13159,7 @@
       <c r="E1" s="101"/>
       <c r="F1" s="29"/>
       <c r="G1" s="101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H1" s="101"/>
       <c r="I1" s="101"/>
@@ -13201,35 +13170,35 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B2" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C2" s="102"/>
       <c r="D2" s="29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F2" s="29"/>
       <c r="G2" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H2" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I2" s="102"/>
       <c r="J2" s="102"/>
       <c r="K2" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L2" s="29" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M2" s="29" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13237,7 +13206,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="103" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" s="103"/>
       <c r="D3" s="0" t="n">
@@ -13252,7 +13221,7 @@
         <v>23</v>
       </c>
       <c r="H3" s="103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I3" s="103"/>
       <c r="J3" s="103"/>
@@ -13273,7 +13242,7 @@
         <v>24</v>
       </c>
       <c r="B4" s="103" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" s="103"/>
       <c r="D4" s="0" t="n">
@@ -13288,7 +13257,7 @@
         <v>24</v>
       </c>
       <c r="H4" s="103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I4" s="103"/>
       <c r="J4" s="103"/>
@@ -13309,7 +13278,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="103" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="103"/>
       <c r="D5" s="0" t="n">
@@ -13324,7 +13293,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I5" s="103"/>
       <c r="J5" s="103"/>
@@ -13345,7 +13314,7 @@
         <v>26</v>
       </c>
       <c r="B6" s="103" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="103"/>
       <c r="D6" s="0" t="n">
@@ -13360,7 +13329,7 @@
         <v>26</v>
       </c>
       <c r="H6" s="103" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I6" s="103"/>
       <c r="J6" s="103"/>
@@ -13381,7 +13350,7 @@
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B9" s="104"/>
       <c r="C9" s="104"/>
@@ -13390,7 +13359,7 @@
       <c r="F9" s="104"/>
       <c r="G9" s="104"/>
       <c r="I9" s="104" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J9" s="104"/>
       <c r="K9" s="104"/>
@@ -13405,10 +13374,10 @@
         <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="103" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="103"/>
@@ -13421,11 +13390,11 @@
         <v>23</v>
       </c>
       <c r="J10" s="105" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K10" s="105"/>
       <c r="L10" s="103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M10" s="103"/>
       <c r="N10" s="103"/>
@@ -13437,10 +13406,10 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C11" s="103" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D11" s="103"/>
       <c r="E11" s="103"/>
@@ -13450,11 +13419,11 @@
         <v>15.5691013185978</v>
       </c>
       <c r="J11" s="105" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K11" s="105"/>
       <c r="L11" s="103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M11" s="103"/>
       <c r="N11" s="103"/>
@@ -13469,10 +13438,10 @@
         <v>24</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D12" s="103"/>
       <c r="E12" s="103"/>
@@ -13485,11 +13454,11 @@
         <v>24</v>
       </c>
       <c r="J12" s="105" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K12" s="105"/>
       <c r="L12" s="103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M12" s="103"/>
       <c r="N12" s="103"/>
@@ -13501,10 +13470,10 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C13" s="103" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D13" s="103"/>
       <c r="E13" s="103"/>
@@ -13514,11 +13483,11 @@
         <v>9.61117200532505</v>
       </c>
       <c r="J13" s="105" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K13" s="105"/>
       <c r="L13" s="103" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M13" s="103"/>
       <c r="N13" s="103"/>
@@ -13533,10 +13502,10 @@
         <v>25</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="103" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D14" s="103"/>
       <c r="E14" s="103"/>
@@ -13549,11 +13518,11 @@
         <v>25</v>
       </c>
       <c r="J14" s="105" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K14" s="105"/>
       <c r="L14" s="103" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M14" s="103"/>
       <c r="N14" s="103"/>
@@ -13565,10 +13534,10 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C15" s="103" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D15" s="103"/>
       <c r="E15" s="103"/>
@@ -13578,11 +13547,11 @@
         <v>2.9438663916387</v>
       </c>
       <c r="J15" s="105" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K15" s="105"/>
       <c r="L15" s="103" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M15" s="103"/>
       <c r="N15" s="103"/>
@@ -13597,10 +13566,10 @@
         <v>26</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C16" s="103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D16" s="103"/>
       <c r="E16" s="103"/>
@@ -13613,11 +13582,11 @@
         <v>26</v>
       </c>
       <c r="J16" s="105" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K16" s="105"/>
       <c r="L16" s="103" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M16" s="103"/>
       <c r="N16" s="103"/>
@@ -13629,10 +13598,10 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D17" s="103"/>
       <c r="E17" s="103"/>
@@ -13642,11 +13611,11 @@
         <v>0.761788578930529</v>
       </c>
       <c r="J17" s="105" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K17" s="105"/>
       <c r="L17" s="103" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M17" s="103"/>
       <c r="N17" s="103"/>
@@ -13658,7 +13627,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="104" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B18" s="104"/>
       <c r="C18" s="104"/>
@@ -13667,7 +13636,7 @@
       <c r="F18" s="104"/>
       <c r="G18" s="104"/>
       <c r="I18" s="104" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="J18" s="104"/>
       <c r="K18" s="104"/>
@@ -13685,10 +13654,10 @@
         <v>23</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C19" s="103" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D19" s="103"/>
       <c r="E19" s="103"/>
@@ -13701,7 +13670,7 @@
         <v>23</v>
       </c>
       <c r="J19" s="103" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K19" s="103"/>
       <c r="L19" s="103"/>
@@ -13719,10 +13688,10 @@
         <v>24</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C20" s="103" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D20" s="103"/>
       <c r="E20" s="103"/>
@@ -13735,7 +13704,7 @@
         <v>24</v>
       </c>
       <c r="J20" s="103" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K20" s="103"/>
       <c r="L20" s="103"/>
@@ -13753,10 +13722,10 @@
         <v>25</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C21" s="103" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D21" s="103"/>
       <c r="E21" s="103"/>
@@ -13769,7 +13738,7 @@
         <v>25</v>
       </c>
       <c r="J21" s="103" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K21" s="103"/>
       <c r="L21" s="103"/>
@@ -13787,10 +13756,10 @@
         <v>26</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D22" s="103"/>
       <c r="E22" s="103"/>
@@ -13803,7 +13772,7 @@
         <v>26</v>
       </c>
       <c r="J22" s="103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K22" s="103"/>
       <c r="L22" s="103"/>
@@ -13818,7 +13787,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B25" s="106"/>
       <c r="C25" s="106"/>
@@ -13826,7 +13795,7 @@
       <c r="E25" s="106"/>
       <c r="F25" s="106"/>
       <c r="I25" s="106" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="J25" s="106"/>
       <c r="K25" s="106"/>
@@ -13834,7 +13803,7 @@
       <c r="M25" s="106"/>
       <c r="N25" s="106"/>
       <c r="Q25" s="106" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="R25" s="106"/>
       <c r="S25" s="106"/>
@@ -13842,7 +13811,7 @@
       <c r="U25" s="106"/>
       <c r="V25" s="106"/>
       <c r="Y25" s="106" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="Z25" s="106"/>
       <c r="AA25" s="106"/>
@@ -13851,55 +13820,55 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B26" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C26" s="102"/>
       <c r="D26" s="102"/>
       <c r="E26" s="29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F26" s="29" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I26" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J26" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K26" s="102"/>
       <c r="L26" s="102"/>
       <c r="M26" s="102"/>
       <c r="N26" s="29" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="Q26" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="R26" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S26" s="102"/>
       <c r="T26" s="102"/>
       <c r="U26" s="102"/>
       <c r="V26" s="29" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="Y26" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="Z26" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AA26" s="102"/>
       <c r="AB26" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="AC26" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13907,7 +13876,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="103" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C27" s="103"/>
       <c r="D27" s="103"/>
@@ -13923,7 +13892,7 @@
         <v>23</v>
       </c>
       <c r="J27" s="103" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K27" s="103"/>
       <c r="L27" s="103"/>
@@ -13936,7 +13905,7 @@
         <v>23</v>
       </c>
       <c r="R27" s="103" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="S27" s="103"/>
       <c r="T27" s="103"/>
@@ -13949,7 +13918,7 @@
         <v>23</v>
       </c>
       <c r="Z27" s="103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AA27" s="103"/>
       <c r="AB27" s="0" t="n">
@@ -13966,7 +13935,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="103" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C28" s="103"/>
       <c r="D28" s="103"/>
@@ -13982,7 +13951,7 @@
         <v>24</v>
       </c>
       <c r="J28" s="103" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="K28" s="103"/>
       <c r="L28" s="103"/>
@@ -13995,7 +13964,7 @@
         <v>24</v>
       </c>
       <c r="R28" s="103" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="S28" s="103"/>
       <c r="T28" s="103"/>
@@ -14008,7 +13977,7 @@
         <v>24</v>
       </c>
       <c r="Z28" s="103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AA28" s="103"/>
       <c r="AB28" s="0" t="n">
@@ -14025,7 +13994,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="103" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C29" s="103"/>
       <c r="D29" s="103"/>
@@ -14041,7 +14010,7 @@
         <v>25</v>
       </c>
       <c r="J29" s="103" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K29" s="103"/>
       <c r="L29" s="103"/>
@@ -14054,7 +14023,7 @@
         <v>25</v>
       </c>
       <c r="R29" s="103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="S29" s="103"/>
       <c r="T29" s="103"/>
@@ -14067,7 +14036,7 @@
         <v>25</v>
       </c>
       <c r="Z29" s="103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AA29" s="103"/>
       <c r="AB29" s="0" t="n">
@@ -14084,7 +14053,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="103" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="103"/>
       <c r="D30" s="103"/>
@@ -14100,7 +14069,7 @@
         <v>26</v>
       </c>
       <c r="J30" s="103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="K30" s="103"/>
       <c r="L30" s="103"/>
@@ -14113,7 +14082,7 @@
         <v>26</v>
       </c>
       <c r="R30" s="103" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="S30" s="103"/>
       <c r="T30" s="103"/>
@@ -14126,7 +14095,7 @@
         <v>26</v>
       </c>
       <c r="Z30" s="103" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AA30" s="103"/>
       <c r="AB30" s="0" t="n">
@@ -14140,13 +14109,13 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B33" s="107"/>
       <c r="C33" s="107"/>
       <c r="D33" s="107"/>
       <c r="F33" s="108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G33" s="108"/>
       <c r="H33" s="108"/>
@@ -14157,7 +14126,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C34" s="109"/>
       <c r="D34" s="0" t="n">
@@ -14168,7 +14137,7 @@
         <v>23</v>
       </c>
       <c r="G34" s="103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H34" s="103"/>
       <c r="I34" s="0" t="n">
@@ -14181,7 +14150,7 @@
         <v>24</v>
       </c>
       <c r="B35" s="109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C35" s="109"/>
       <c r="D35" s="0" t="n">
@@ -14192,7 +14161,7 @@
         <v>24</v>
       </c>
       <c r="G35" s="103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H35" s="103"/>
       <c r="I35" s="0" t="n">
@@ -14205,7 +14174,7 @@
         <v>25</v>
       </c>
       <c r="B36" s="109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C36" s="109"/>
       <c r="D36" s="0" t="n">
@@ -14216,7 +14185,7 @@
         <v>25</v>
       </c>
       <c r="G36" s="103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H36" s="103"/>
       <c r="I36" s="0" t="n">
@@ -14229,7 +14198,7 @@
         <v>26</v>
       </c>
       <c r="B37" s="109" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C37" s="109"/>
       <c r="D37" s="0" t="n">
@@ -14240,7 +14209,7 @@
         <v>26</v>
       </c>
       <c r="G37" s="103" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H37" s="103"/>
       <c r="I37" s="0" t="n">
@@ -14250,7 +14219,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B40" s="107"/>
       <c r="C40" s="107"/>
@@ -14258,16 +14227,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B41" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="D41" s="29" t="s">
         <v>174</v>
-      </c>
-      <c r="C41" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="D41" s="29" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14275,7 +14244,7 @@
         <v>23</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C42" s="0" t="n">
         <f aca="false">P10/Q19</f>
@@ -14288,7 +14257,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C43" s="0" t="n">
         <f aca="false">P11/Q19</f>
@@ -14304,7 +14273,7 @@
         <v>24</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C44" s="0" t="n">
         <f aca="false">P12/Q20</f>
@@ -14317,7 +14286,7 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C45" s="0" t="n">
         <f aca="false">P13/Q20</f>
@@ -14333,7 +14302,7 @@
         <v>25</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C46" s="0" t="n">
         <f aca="false">P14/Q21</f>
@@ -14346,7 +14315,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C47" s="0" t="n">
         <f aca="false">P15/Q21</f>
@@ -14362,7 +14331,7 @@
         <v>26</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C48" s="0" t="n">
         <f aca="false">P16/Q22</f>
@@ -14375,7 +14344,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C49" s="0" t="n">
         <f aca="false">P17/Q22</f>
@@ -14388,7 +14357,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="110" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B51" s="110"/>
       <c r="C51" s="110"/>
@@ -14407,7 +14376,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B52" s="111"/>
       <c r="C52" s="111"/>
@@ -14415,7 +14384,7 @@
       <c r="E52" s="111"/>
       <c r="F52" s="111"/>
       <c r="I52" s="111" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J52" s="111"/>
       <c r="K52" s="111"/>
@@ -14426,33 +14395,33 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B53" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C53" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D53" s="102"/>
       <c r="E53" s="102"/>
       <c r="F53" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I53" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J53" s="102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K53" s="102"/>
       <c r="L53" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M53" s="102"/>
       <c r="N53" s="102"/>
       <c r="O53" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14460,10 +14429,10 @@
         <v>23</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C54" s="103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D54" s="103"/>
       <c r="E54" s="103"/>
@@ -14475,11 +14444,11 @@
         <v>23</v>
       </c>
       <c r="J54" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K54" s="103"/>
       <c r="L54" s="103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M54" s="103"/>
       <c r="N54" s="103"/>
@@ -14490,10 +14459,10 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C55" s="103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D55" s="103"/>
       <c r="E55" s="103"/>
@@ -14502,11 +14471,11 @@
         <v>-0.210857080768975</v>
       </c>
       <c r="J55" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K55" s="103"/>
       <c r="L55" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M55" s="103"/>
       <c r="N55" s="103"/>
@@ -14515,7 +14484,7 @@
         <v>-0.134153190568182</v>
       </c>
       <c r="S55" s="112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T55" s="112"/>
     </row>
@@ -14524,10 +14493,10 @@
         <v>24</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C56" s="103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D56" s="103"/>
       <c r="E56" s="103"/>
@@ -14539,11 +14508,11 @@
         <v>24</v>
       </c>
       <c r="J56" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K56" s="103"/>
       <c r="L56" s="103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M56" s="103"/>
       <c r="N56" s="103"/>
@@ -14561,10 +14530,10 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C57" s="103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D57" s="103"/>
       <c r="E57" s="103"/>
@@ -14573,11 +14542,11 @@
         <v>-0.352398156467743</v>
       </c>
       <c r="J57" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K57" s="103"/>
       <c r="L57" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M57" s="103"/>
       <c r="N57" s="103"/>
@@ -14598,10 +14567,10 @@
         <v>25</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C58" s="103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D58" s="103"/>
       <c r="E58" s="103"/>
@@ -14613,11 +14582,11 @@
         <v>25</v>
       </c>
       <c r="J58" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K58" s="103"/>
       <c r="L58" s="103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M58" s="103"/>
       <c r="N58" s="103"/>
@@ -14635,10 +14604,10 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C59" s="103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D59" s="103"/>
       <c r="E59" s="103"/>
@@ -14647,11 +14616,11 @@
         <v>-1.23372584072518</v>
       </c>
       <c r="J59" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K59" s="103"/>
       <c r="L59" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M59" s="103"/>
       <c r="N59" s="103"/>
@@ -14672,10 +14641,10 @@
         <v>26</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C60" s="103" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D60" s="103"/>
       <c r="E60" s="103"/>
@@ -14687,11 +14656,11 @@
         <v>26</v>
       </c>
       <c r="J60" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K60" s="103"/>
       <c r="L60" s="103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M60" s="103"/>
       <c r="N60" s="103"/>
@@ -14702,10 +14671,10 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C61" s="103" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D61" s="103"/>
       <c r="E61" s="103"/>
@@ -14714,11 +14683,11 @@
         <v>-6.02805023799489</v>
       </c>
       <c r="J61" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K61" s="103"/>
       <c r="L61" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M61" s="103"/>
       <c r="N61" s="103"/>
@@ -14729,7 +14698,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="111" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B62" s="111"/>
       <c r="C62" s="111"/>
@@ -14737,7 +14706,7 @@
       <c r="E62" s="111"/>
       <c r="F62" s="111"/>
       <c r="I62" s="111" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J62" s="111"/>
       <c r="K62" s="111"/>
@@ -14748,29 +14717,29 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B63" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C63" s="102"/>
       <c r="D63" s="102"/>
       <c r="E63" s="102"/>
       <c r="F63" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I63" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J63" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K63" s="102"/>
       <c r="L63" s="102"/>
       <c r="M63" s="102"/>
       <c r="N63" s="102"/>
       <c r="O63" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14778,7 +14747,7 @@
         <v>23</v>
       </c>
       <c r="B64" s="103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C64" s="103"/>
       <c r="D64" s="103"/>
@@ -14791,7 +14760,7 @@
         <v>23</v>
       </c>
       <c r="J64" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K64" s="103"/>
       <c r="L64" s="103"/>
@@ -14807,7 +14776,7 @@
         <v>24</v>
       </c>
       <c r="B65" s="103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C65" s="103"/>
       <c r="D65" s="103"/>
@@ -14820,7 +14789,7 @@
         <v>24</v>
       </c>
       <c r="J65" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K65" s="103"/>
       <c r="L65" s="103"/>
@@ -14836,7 +14805,7 @@
         <v>25</v>
       </c>
       <c r="B66" s="103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C66" s="103"/>
       <c r="D66" s="103"/>
@@ -14849,7 +14818,7 @@
         <v>25</v>
       </c>
       <c r="J66" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K66" s="103"/>
       <c r="L66" s="103"/>
@@ -14865,7 +14834,7 @@
         <v>26</v>
       </c>
       <c r="B67" s="103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C67" s="103"/>
       <c r="D67" s="103"/>
@@ -14878,7 +14847,7 @@
         <v>26</v>
       </c>
       <c r="J67" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K67" s="103"/>
       <c r="L67" s="103"/>
@@ -14891,7 +14860,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="111" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B70" s="111"/>
       <c r="C70" s="111"/>
@@ -14899,7 +14868,7 @@
       <c r="E70" s="111"/>
       <c r="F70" s="111"/>
       <c r="I70" s="111" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J70" s="111"/>
       <c r="K70" s="111"/>
@@ -14910,33 +14879,33 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B71" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C71" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D71" s="102"/>
       <c r="E71" s="102"/>
       <c r="F71" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I71" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J71" s="102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K71" s="102"/>
       <c r="L71" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M71" s="102"/>
       <c r="N71" s="102"/>
       <c r="O71" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14944,10 +14913,10 @@
         <v>23</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C72" s="103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D72" s="103"/>
       <c r="E72" s="103"/>
@@ -14959,11 +14928,11 @@
         <v>23</v>
       </c>
       <c r="J72" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K72" s="103"/>
       <c r="L72" s="103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M72" s="103"/>
       <c r="N72" s="103"/>
@@ -14974,10 +14943,10 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C73" s="103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D73" s="103"/>
       <c r="E73" s="103"/>
@@ -14986,11 +14955,11 @@
         <v>-4.3365190424405</v>
       </c>
       <c r="J73" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K73" s="103"/>
       <c r="L73" s="103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M73" s="103"/>
       <c r="N73" s="103"/>
@@ -15004,10 +14973,10 @@
         <v>24</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C74" s="103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D74" s="103"/>
       <c r="E74" s="103"/>
@@ -15019,11 +14988,11 @@
         <v>24</v>
       </c>
       <c r="J74" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K74" s="103"/>
       <c r="L74" s="103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M74" s="103"/>
       <c r="N74" s="103"/>
@@ -15034,10 +15003,10 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C75" s="103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D75" s="103"/>
       <c r="E75" s="103"/>
@@ -15046,11 +15015,11 @@
         <v>-4.59246402195884</v>
       </c>
       <c r="J75" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K75" s="103"/>
       <c r="L75" s="103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M75" s="103"/>
       <c r="N75" s="103"/>
@@ -15064,10 +15033,10 @@
         <v>25</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C76" s="103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D76" s="103"/>
       <c r="E76" s="103"/>
@@ -15079,11 +15048,11 @@
         <v>25</v>
       </c>
       <c r="J76" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K76" s="103"/>
       <c r="L76" s="103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M76" s="103"/>
       <c r="N76" s="103"/>
@@ -15094,10 +15063,10 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C77" s="103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D77" s="103"/>
       <c r="E77" s="103"/>
@@ -15106,11 +15075,11 @@
         <v>-4.75426524875779</v>
       </c>
       <c r="J77" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K77" s="103"/>
       <c r="L77" s="103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M77" s="103"/>
       <c r="N77" s="103"/>
@@ -15124,10 +15093,10 @@
         <v>26</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C78" s="103" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D78" s="103"/>
       <c r="E78" s="103"/>
@@ -15139,11 +15108,11 @@
         <v>26</v>
       </c>
       <c r="J78" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K78" s="103"/>
       <c r="L78" s="103" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M78" s="103"/>
       <c r="N78" s="103"/>
@@ -15154,10 +15123,10 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C79" s="103" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D79" s="103"/>
       <c r="E79" s="103"/>
@@ -15166,11 +15135,11 @@
         <v>-6.29434372499405</v>
       </c>
       <c r="J79" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K79" s="103"/>
       <c r="L79" s="103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M79" s="103"/>
       <c r="N79" s="103"/>
@@ -15181,7 +15150,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B80" s="111"/>
       <c r="C80" s="111"/>
@@ -15189,7 +15158,7 @@
       <c r="E80" s="111"/>
       <c r="F80" s="111"/>
       <c r="I80" s="111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J80" s="111"/>
       <c r="K80" s="111"/>
@@ -15200,29 +15169,29 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B81" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" s="102"/>
       <c r="D81" s="102"/>
       <c r="E81" s="102"/>
       <c r="F81" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I81" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J81" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K81" s="102"/>
       <c r="L81" s="102"/>
       <c r="M81" s="102"/>
       <c r="N81" s="102"/>
       <c r="O81" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15230,7 +15199,7 @@
         <v>23</v>
       </c>
       <c r="B82" s="103" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C82" s="103"/>
       <c r="D82" s="103"/>
@@ -15243,7 +15212,7 @@
         <v>23</v>
       </c>
       <c r="J82" s="103" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K82" s="103"/>
       <c r="L82" s="103"/>
@@ -15259,7 +15228,7 @@
         <v>24</v>
       </c>
       <c r="B83" s="103" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C83" s="103"/>
       <c r="D83" s="103"/>
@@ -15272,7 +15241,7 @@
         <v>24</v>
       </c>
       <c r="J83" s="103" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K83" s="103"/>
       <c r="L83" s="103"/>
@@ -15288,7 +15257,7 @@
         <v>25</v>
       </c>
       <c r="B84" s="103" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C84" s="103"/>
       <c r="D84" s="103"/>
@@ -15301,7 +15270,7 @@
         <v>25</v>
       </c>
       <c r="J84" s="103" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K84" s="103"/>
       <c r="L84" s="103"/>
@@ -15317,7 +15286,7 @@
         <v>26</v>
       </c>
       <c r="B85" s="103" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C85" s="103"/>
       <c r="D85" s="103"/>
@@ -15330,7 +15299,7 @@
         <v>26</v>
       </c>
       <c r="J85" s="103" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K85" s="103"/>
       <c r="L85" s="103"/>
@@ -15343,7 +15312,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="110" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B88" s="110"/>
       <c r="C88" s="110"/>
@@ -15362,7 +15331,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B89" s="111"/>
       <c r="C89" s="111"/>
@@ -15370,7 +15339,7 @@
       <c r="E89" s="111"/>
       <c r="F89" s="111"/>
       <c r="I89" s="111" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J89" s="111"/>
       <c r="K89" s="111"/>
@@ -15379,7 +15348,7 @@
       <c r="N89" s="111"/>
       <c r="O89" s="111"/>
       <c r="R89" s="106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="S89" s="106"/>
       <c r="T89" s="106"/>
@@ -15388,46 +15357,46 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B90" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C90" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D90" s="102"/>
       <c r="E90" s="102"/>
       <c r="F90" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I90" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J90" s="102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K90" s="102"/>
       <c r="L90" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M90" s="102"/>
       <c r="N90" s="102"/>
       <c r="O90" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R90" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S90" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="T90" s="102"/>
       <c r="U90" s="29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="V90" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15435,10 +15404,10 @@
         <v>23</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C91" s="103" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D91" s="103"/>
       <c r="E91" s="103"/>
@@ -15450,11 +15419,11 @@
         <v>23</v>
       </c>
       <c r="J91" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K91" s="103"/>
       <c r="L91" s="103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M91" s="103"/>
       <c r="N91" s="103"/>
@@ -15466,7 +15435,7 @@
         <v>23</v>
       </c>
       <c r="S91" s="103" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="T91" s="103"/>
       <c r="U91" s="0" t="n">
@@ -15480,10 +15449,10 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C92" s="103" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D92" s="103"/>
       <c r="E92" s="103"/>
@@ -15492,11 +15461,11 @@
         <v>0.135052841370686</v>
       </c>
       <c r="J92" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K92" s="103"/>
       <c r="L92" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M92" s="103"/>
       <c r="N92" s="103"/>
@@ -15508,7 +15477,7 @@
         <v>24</v>
       </c>
       <c r="S92" s="103" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="T92" s="103"/>
       <c r="U92" s="0" t="n">
@@ -15525,10 +15494,10 @@
         <v>24</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C93" s="103" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D93" s="103"/>
       <c r="E93" s="103"/>
@@ -15540,11 +15509,11 @@
         <v>24</v>
       </c>
       <c r="J93" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K93" s="103"/>
       <c r="L93" s="103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M93" s="103"/>
       <c r="N93" s="103"/>
@@ -15556,7 +15525,7 @@
         <v>25</v>
       </c>
       <c r="S93" s="103" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="T93" s="103"/>
       <c r="U93" s="0" t="n">
@@ -15570,10 +15539,10 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C94" s="103" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D94" s="103"/>
       <c r="E94" s="103"/>
@@ -15582,11 +15551,11 @@
         <v>0.230122072848574</v>
       </c>
       <c r="J94" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K94" s="103"/>
       <c r="L94" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M94" s="103"/>
       <c r="N94" s="103"/>
@@ -15598,7 +15567,7 @@
         <v>26</v>
       </c>
       <c r="S94" s="103" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="T94" s="103"/>
       <c r="U94" s="0" t="n">
@@ -15615,10 +15584,10 @@
         <v>25</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C95" s="103" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D95" s="103"/>
       <c r="E95" s="103"/>
@@ -15630,11 +15599,11 @@
         <v>25</v>
       </c>
       <c r="J95" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K95" s="103"/>
       <c r="L95" s="103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M95" s="103"/>
       <c r="N95" s="103"/>
@@ -15645,10 +15614,10 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C96" s="103" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D96" s="103"/>
       <c r="E96" s="103"/>
@@ -15657,11 +15626,11 @@
         <v>0.589062096821673</v>
       </c>
       <c r="J96" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K96" s="103"/>
       <c r="L96" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M96" s="103"/>
       <c r="N96" s="103"/>
@@ -15675,10 +15644,10 @@
         <v>26</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C97" s="103" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D97" s="103"/>
       <c r="E97" s="103"/>
@@ -15690,11 +15659,11 @@
         <v>26</v>
       </c>
       <c r="J97" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K97" s="103"/>
       <c r="L97" s="103" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M97" s="103"/>
       <c r="N97" s="103"/>
@@ -15703,7 +15672,7 @@
         <v>0.747905641661895</v>
       </c>
       <c r="R97" s="107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="S97" s="107"/>
       <c r="T97" s="107"/>
@@ -15711,10 +15680,10 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C98" s="103" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D98" s="103"/>
       <c r="E98" s="103"/>
@@ -15723,11 +15692,11 @@
         <v>2.30676190583663</v>
       </c>
       <c r="J98" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K98" s="103"/>
       <c r="L98" s="103" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M98" s="103"/>
       <c r="N98" s="103"/>
@@ -15739,7 +15708,7 @@
         <v>23</v>
       </c>
       <c r="S98" s="109" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="T98" s="109"/>
       <c r="U98" s="0" t="n">
@@ -15749,7 +15718,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="111" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B99" s="111"/>
       <c r="C99" s="111"/>
@@ -15757,7 +15726,7 @@
       <c r="E99" s="111"/>
       <c r="F99" s="111"/>
       <c r="I99" s="111" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="J99" s="111"/>
       <c r="K99" s="111"/>
@@ -15769,7 +15738,7 @@
         <v>24</v>
       </c>
       <c r="S99" s="109" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="T99" s="109"/>
       <c r="U99" s="0" t="n">
@@ -15779,35 +15748,35 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B100" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C100" s="102"/>
       <c r="D100" s="102"/>
       <c r="E100" s="102"/>
       <c r="F100" s="29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I100" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J100" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K100" s="102"/>
       <c r="L100" s="102"/>
       <c r="M100" s="102"/>
       <c r="N100" s="102"/>
       <c r="O100" s="29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="R100" s="0" t="s">
         <v>25</v>
       </c>
       <c r="S100" s="109" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="T100" s="109"/>
       <c r="U100" s="0" t="n">
@@ -15820,7 +15789,7 @@
         <v>23</v>
       </c>
       <c r="B101" s="103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C101" s="103"/>
       <c r="D101" s="103"/>
@@ -15833,7 +15802,7 @@
         <v>23</v>
       </c>
       <c r="J101" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K101" s="103"/>
       <c r="L101" s="103"/>
@@ -15847,7 +15816,7 @@
         <v>26</v>
       </c>
       <c r="S101" s="109" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T101" s="109"/>
       <c r="U101" s="0" t="n">
@@ -15860,7 +15829,7 @@
         <v>24</v>
       </c>
       <c r="B102" s="103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C102" s="103"/>
       <c r="D102" s="103"/>
@@ -15873,7 +15842,7 @@
         <v>24</v>
       </c>
       <c r="J102" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K102" s="103"/>
       <c r="L102" s="103"/>
@@ -15889,7 +15858,7 @@
         <v>25</v>
       </c>
       <c r="B103" s="103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C103" s="103"/>
       <c r="D103" s="103"/>
@@ -15902,7 +15871,7 @@
         <v>25</v>
       </c>
       <c r="J103" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K103" s="103"/>
       <c r="L103" s="103"/>
@@ -15913,7 +15882,7 @@
         <v>0.783008833052638</v>
       </c>
       <c r="R103" s="107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S103" s="107"/>
       <c r="T103" s="107"/>
@@ -15924,7 +15893,7 @@
         <v>26</v>
       </c>
       <c r="B104" s="103" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C104" s="103"/>
       <c r="D104" s="103"/>
@@ -15937,7 +15906,7 @@
         <v>26</v>
       </c>
       <c r="J104" s="103" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K104" s="103"/>
       <c r="L104" s="103"/>
@@ -15948,16 +15917,16 @@
         <v>3.03098174546151</v>
       </c>
       <c r="R104" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="S104" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="T104" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="U104" s="29" t="s">
         <v>174</v>
-      </c>
-      <c r="T104" s="29" t="s">
-        <v>175</v>
-      </c>
-      <c r="U104" s="29" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15965,7 +15934,7 @@
         <v>23</v>
       </c>
       <c r="S105" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T105" s="114" t="n">
         <f aca="false">P10/Q19</f>
@@ -15978,7 +15947,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="S106" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T106" s="114" t="n">
         <f aca="false">P11/Q19</f>
@@ -15991,7 +15960,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="111" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B107" s="111"/>
       <c r="C107" s="111"/>
@@ -15999,7 +15968,7 @@
       <c r="E107" s="111"/>
       <c r="F107" s="111"/>
       <c r="I107" s="111" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J107" s="111"/>
       <c r="K107" s="111"/>
@@ -16011,7 +15980,7 @@
         <v>24</v>
       </c>
       <c r="S107" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T107" s="114" t="n">
         <f aca="false">P12/Q20</f>
@@ -16024,36 +15993,36 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B108" s="29" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C108" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D108" s="102"/>
       <c r="E108" s="102"/>
       <c r="F108" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I108" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J108" s="102" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K108" s="102"/>
       <c r="L108" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M108" s="102"/>
       <c r="N108" s="102"/>
       <c r="O108" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S108" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T108" s="114" t="n">
         <f aca="false">P13/Q20</f>
@@ -16069,10 +16038,10 @@
         <v>23</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C109" s="103" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D109" s="103"/>
       <c r="E109" s="103"/>
@@ -16084,11 +16053,11 @@
         <v>23</v>
       </c>
       <c r="J109" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K109" s="103"/>
       <c r="L109" s="103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M109" s="103"/>
       <c r="N109" s="103"/>
@@ -16100,7 +16069,7 @@
         <v>25</v>
       </c>
       <c r="S109" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T109" s="114" t="n">
         <f aca="false">P14/Q21</f>
@@ -16113,10 +16082,10 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C110" s="103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D110" s="103"/>
       <c r="E110" s="103"/>
@@ -16125,11 +16094,11 @@
         <v>2.77751743599899</v>
       </c>
       <c r="J110" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K110" s="103"/>
       <c r="L110" s="103" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M110" s="103"/>
       <c r="N110" s="103"/>
@@ -16138,7 +16107,7 @@
         <v>3.55742870309171</v>
       </c>
       <c r="S110" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T110" s="114" t="n">
         <f aca="false">P15/Q21</f>
@@ -16154,10 +16123,10 @@
         <v>24</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C111" s="103" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D111" s="103"/>
       <c r="E111" s="103"/>
@@ -16169,11 +16138,11 @@
         <v>24</v>
       </c>
       <c r="J111" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K111" s="103"/>
       <c r="L111" s="103" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M111" s="103"/>
       <c r="N111" s="103"/>
@@ -16185,7 +16154,7 @@
         <v>26</v>
       </c>
       <c r="S111" s="0" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="T111" s="114" t="n">
         <f aca="false">P16/Q22</f>
@@ -16198,10 +16167,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C112" s="103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D112" s="103"/>
       <c r="E112" s="103"/>
@@ -16210,11 +16179,11 @@
         <v>2.99895819776346</v>
       </c>
       <c r="J112" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K112" s="103"/>
       <c r="L112" s="103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M112" s="103"/>
       <c r="N112" s="103"/>
@@ -16223,7 +16192,7 @@
         <v>3.7896316766634</v>
       </c>
       <c r="S112" s="0" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="T112" s="114" t="n">
         <f aca="false">P17/Q22</f>
@@ -16239,10 +16208,10 @@
         <v>25</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C113" s="103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D113" s="103"/>
       <c r="E113" s="103"/>
@@ -16254,11 +16223,11 @@
         <v>25</v>
       </c>
       <c r="J113" s="103" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K113" s="103"/>
       <c r="L113" s="103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M113" s="103"/>
       <c r="N113" s="103"/>
@@ -16269,10 +16238,10 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C114" s="103" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D114" s="103"/>
       <c r="E114" s="103"/>
@@ -16281,11 +16250,11 @@
         <v>2.26999983613339</v>
       </c>
       <c r="J114" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K114" s="103"/>
       <c r="L114" s="103" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M114" s="103"/>
       <c r="N114" s="103"/>
@@ -16299,10 +16268,10 @@
         <v>26</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C115" s="103" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D115" s="103"/>
       <c r="E115" s="103"/>
@@ -16314,11 +16283,11 @@
         <v>26</v>
       </c>
       <c r="J115" s="103" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K115" s="103"/>
       <c r="L115" s="103" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M115" s="103"/>
       <c r="N115" s="103"/>
@@ -16329,10 +16298,10 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C116" s="103" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D116" s="103"/>
       <c r="E116" s="103"/>
@@ -16341,11 +16310,11 @@
         <v>2.40866478443414</v>
       </c>
       <c r="J116" s="103" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K116" s="103"/>
       <c r="L116" s="103" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="M116" s="103"/>
       <c r="N116" s="103"/>
@@ -16354,13 +16323,13 @@
         <v>3.16787621763638</v>
       </c>
       <c r="S116" s="112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="T116" s="112"/>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="111" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B117" s="111"/>
       <c r="C117" s="111"/>
@@ -16368,7 +16337,7 @@
       <c r="E117" s="111"/>
       <c r="F117" s="111"/>
       <c r="I117" s="111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J117" s="111"/>
       <c r="K117" s="111"/>
@@ -16386,29 +16355,29 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B118" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C118" s="102"/>
       <c r="D118" s="102"/>
       <c r="E118" s="102"/>
       <c r="F118" s="29" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="I118" s="29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J118" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K118" s="102"/>
       <c r="L118" s="102"/>
       <c r="M118" s="102"/>
       <c r="N118" s="102"/>
       <c r="O118" s="29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="S118" s="0" t="s">
         <v>24</v>
@@ -16423,7 +16392,7 @@
         <v>23</v>
       </c>
       <c r="B119" s="103" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C119" s="103"/>
       <c r="D119" s="103"/>
@@ -16436,7 +16405,7 @@
         <v>23</v>
       </c>
       <c r="J119" s="103" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K119" s="103"/>
       <c r="L119" s="103"/>
@@ -16459,7 +16428,7 @@
         <v>24</v>
       </c>
       <c r="B120" s="103" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C120" s="103"/>
       <c r="D120" s="103"/>
@@ -16472,7 +16441,7 @@
         <v>24</v>
       </c>
       <c r="J120" s="103" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K120" s="103"/>
       <c r="L120" s="103"/>
@@ -16495,7 +16464,7 @@
         <v>25</v>
       </c>
       <c r="B121" s="103" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C121" s="103"/>
       <c r="D121" s="103"/>
@@ -16508,7 +16477,7 @@
         <v>25</v>
       </c>
       <c r="J121" s="103" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K121" s="103"/>
       <c r="L121" s="103"/>
@@ -16524,7 +16493,7 @@
         <v>26</v>
       </c>
       <c r="B122" s="103" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C122" s="103"/>
       <c r="D122" s="103"/>
@@ -16537,7 +16506,7 @@
         <v>26</v>
       </c>
       <c r="J122" s="103" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K122" s="103"/>
       <c r="L122" s="103"/>

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="494" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{95E8DCB0-FE06-4CDF-A5D5-8C254519A9B5}"/>
+  <xr:revisionPtr revIDLastSave="496" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0088A743-8C24-46E8-92FE-10843F203119}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arrivi!$J$2:$M$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dati_OPTN!$N$48:$Y$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dati_OPTN!$A$2:$L$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Uscite!$A$25:$E$45</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -1226,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1438,6 +1438,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1511,44 +1514,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1634,6 +1631,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1933,10 +1934,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1951,34 +1953,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="N1" s="106" t="s">
+      <c r="B1" s="108"/>
+      <c r="C1" s="108"/>
+      <c r="D1" s="108"/>
+      <c r="E1" s="108"/>
+      <c r="F1" s="108"/>
+      <c r="G1" s="108"/>
+      <c r="H1" s="108"/>
+      <c r="I1" s="108"/>
+      <c r="J1" s="108"/>
+      <c r="K1" s="108"/>
+      <c r="L1" s="108"/>
+      <c r="N1" s="107" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="107"/>
-      <c r="P1" s="107"/>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="107"/>
-      <c r="S1" s="107"/>
-      <c r="T1" s="107"/>
-      <c r="U1" s="107"/>
-      <c r="V1" s="107"/>
-      <c r="W1" s="107"/>
-      <c r="X1" s="107"/>
-      <c r="Y1" s="107"/>
+      <c r="O1" s="108"/>
+      <c r="P1" s="108"/>
+      <c r="Q1" s="108"/>
+      <c r="R1" s="108"/>
+      <c r="S1" s="108"/>
+      <c r="T1" s="108"/>
+      <c r="U1" s="108"/>
+      <c r="V1" s="108"/>
+      <c r="W1" s="108"/>
+      <c r="X1" s="108"/>
+      <c r="Y1" s="108"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -2054,7 +2056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>6278</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" t="s">
         <v>22</v>
@@ -2340,7 +2342,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
@@ -2554,7 +2556,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" t="s">
         <v>22</v>
@@ -2624,7 +2626,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>24</v>
       </c>
@@ -2838,7 +2840,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" t="s">
         <v>22</v>
@@ -2908,7 +2910,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>25</v>
       </c>
@@ -3122,7 +3124,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" t="s">
         <v>22</v>
@@ -3158,7 +3160,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>26</v>
       </c>
@@ -3268,7 +3270,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="51" t="s">
         <v>22</v>
@@ -3319,20 +3321,20 @@
       <c r="L23" s="49"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="106" t="s">
+      <c r="A24" s="107" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108"/>
+      <c r="D24" s="108"/>
+      <c r="E24" s="108"/>
+      <c r="F24" s="108"/>
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="108"/>
+      <c r="K24" s="108"/>
+      <c r="L24" s="108"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
@@ -4103,34 +4105,34 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="106" t="s">
+      <c r="A47" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="107"/>
-      <c r="C47" s="107"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="N47" s="106" t="s">
+      <c r="B47" s="108"/>
+      <c r="C47" s="108"/>
+      <c r="D47" s="108"/>
+      <c r="E47" s="108"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
+      <c r="J47" s="108"/>
+      <c r="K47" s="108"/>
+      <c r="L47" s="108"/>
+      <c r="N47" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="107"/>
-      <c r="P47" s="107"/>
-      <c r="Q47" s="107"/>
-      <c r="R47" s="107"/>
-      <c r="S47" s="107"/>
-      <c r="T47" s="107"/>
-      <c r="U47" s="107"/>
-      <c r="V47" s="107"/>
-      <c r="W47" s="107"/>
-      <c r="X47" s="107"/>
-      <c r="Y47" s="107"/>
+      <c r="O47" s="108"/>
+      <c r="P47" s="108"/>
+      <c r="Q47" s="108"/>
+      <c r="R47" s="108"/>
+      <c r="S47" s="108"/>
+      <c r="T47" s="108"/>
+      <c r="U47" s="108"/>
+      <c r="V47" s="108"/>
+      <c r="W47" s="108"/>
+      <c r="X47" s="108"/>
+      <c r="Y47" s="108"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
@@ -5627,34 +5629,34 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="108" t="s">
+      <c r="A70" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="109"/>
-      <c r="C70" s="109"/>
-      <c r="D70" s="109"/>
-      <c r="E70" s="109"/>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-      <c r="J70" s="109"/>
-      <c r="K70" s="109"/>
-      <c r="L70" s="109"/>
-      <c r="N70" s="106" t="s">
+      <c r="B70" s="110"/>
+      <c r="C70" s="110"/>
+      <c r="D70" s="110"/>
+      <c r="E70" s="110"/>
+      <c r="F70" s="110"/>
+      <c r="G70" s="110"/>
+      <c r="H70" s="110"/>
+      <c r="I70" s="110"/>
+      <c r="J70" s="110"/>
+      <c r="K70" s="110"/>
+      <c r="L70" s="110"/>
+      <c r="N70" s="107" t="s">
         <v>31</v>
       </c>
-      <c r="O70" s="107"/>
-      <c r="P70" s="107"/>
-      <c r="Q70" s="107"/>
-      <c r="R70" s="107"/>
-      <c r="S70" s="107"/>
-      <c r="T70" s="107"/>
-      <c r="U70" s="107"/>
-      <c r="V70" s="107"/>
-      <c r="W70" s="107"/>
-      <c r="X70" s="107"/>
-      <c r="Y70" s="107"/>
+      <c r="O70" s="108"/>
+      <c r="P70" s="108"/>
+      <c r="Q70" s="108"/>
+      <c r="R70" s="108"/>
+      <c r="S70" s="108"/>
+      <c r="T70" s="108"/>
+      <c r="U70" s="108"/>
+      <c r="V70" s="108"/>
+      <c r="W70" s="108"/>
+      <c r="X70" s="108"/>
+      <c r="Y70" s="108"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
@@ -7351,13 +7353,13 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="103" t="s">
+      <c r="A93" s="104" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="104"/>
-      <c r="C93" s="104"/>
-      <c r="D93" s="104"/>
-      <c r="E93" s="105"/>
+      <c r="B93" s="105"/>
+      <c r="C93" s="105"/>
+      <c r="D93" s="105"/>
+      <c r="E93" s="106"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
@@ -7627,6 +7629,14 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:L22" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Critical"/>
+        <filter val="Normal"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A93:E93"/>
     <mergeCell ref="A1:L1"/>
@@ -7646,7 +7656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
@@ -7670,30 +7680,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="110" t="s">
+      <c r="A1" s="111" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="112"/>
-      <c r="F1" s="110" t="s">
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="113"/>
+      <c r="F1" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="111"/>
-      <c r="H1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="113"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="110" t="s">
+      <c r="J1" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="111"/>
-      <c r="L1" s="111"/>
-      <c r="M1" s="112"/>
-      <c r="O1" s="110" t="s">
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="113"/>
+      <c r="O1" s="111" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="111"/>
-      <c r="Q1" s="111"/>
-      <c r="R1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="113"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
@@ -7736,7 +7746,7 @@
       <c r="P2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="143" t="s">
+      <c r="Q2" s="103" t="s">
         <v>196</v>
       </c>
       <c r="R2" s="59" t="s">
@@ -7786,7 +7796,7 @@
       <c r="O3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="142" t="s">
+      <c r="P3" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q3" s="89">
@@ -7833,7 +7843,7 @@
         <v>9.4246575342465749E-2</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="142" t="s">
+      <c r="P4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Q4" s="89">
@@ -7880,7 +7890,7 @@
         <v>72.720547945205482</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="142" t="s">
+      <c r="P5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q5" s="89">
@@ -7927,7 +7937,7 @@
         <v>27.330136986301369</v>
       </c>
       <c r="O6" s="6"/>
-      <c r="P6" s="142" t="s">
+      <c r="P6" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q6" s="89">
@@ -7982,7 +7992,7 @@
       <c r="O7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="P7" s="142" t="s">
+      <c r="P7" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q7" s="89">
@@ -8029,7 +8039,7 @@
         <v>4.9041095890410953E-2</v>
       </c>
       <c r="O8" s="6"/>
-      <c r="P8" s="142" t="s">
+      <c r="P8" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Q8" s="89">
@@ -8076,7 +8086,7 @@
         <v>35.581917808219174</v>
       </c>
       <c r="O9" s="6"/>
-      <c r="P9" s="142" t="s">
+      <c r="P9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q9" s="89">
@@ -8123,7 +8133,7 @@
         <v>13.096438356164382</v>
       </c>
       <c r="O10" s="6"/>
-      <c r="P10" s="142" t="s">
+      <c r="P10" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q10" s="89">
@@ -8178,7 +8188,7 @@
       <c r="O11" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="P11" s="142" t="s">
+      <c r="P11" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="89">
@@ -8225,7 +8235,7 @@
         <v>2.7397260273972601E-2</v>
       </c>
       <c r="O12" s="6"/>
-      <c r="P12" s="142" t="s">
+      <c r="P12" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Q12" s="89">
@@ -8272,7 +8282,7 @@
         <v>23.624657534246577</v>
       </c>
       <c r="O13" s="6"/>
-      <c r="P13" s="142" t="s">
+      <c r="P13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q13" s="89">
@@ -8319,7 +8329,7 @@
         <v>9.1252054794520543</v>
       </c>
       <c r="O14" s="6"/>
-      <c r="P14" s="142" t="s">
+      <c r="P14" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q14" s="89">
@@ -8374,7 +8384,7 @@
       <c r="O15" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="P15" s="142" t="s">
+      <c r="P15" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q15" s="89">
@@ -8421,7 +8431,7 @@
         <v>1.3698630136986301E-2</v>
       </c>
       <c r="O16" s="6"/>
-      <c r="P16" s="142" t="s">
+      <c r="P16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Q16" s="89">
@@ -8468,7 +8478,7 @@
         <v>10.791780821917808</v>
       </c>
       <c r="O17" s="6"/>
-      <c r="P17" s="142" t="s">
+      <c r="P17" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q17" s="89">
@@ -8515,7 +8525,7 @@
         <v>4.0139726027397256</v>
       </c>
       <c r="O18" s="6"/>
-      <c r="P18" s="142" t="s">
+      <c r="P18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="Q18" s="89">
@@ -8570,7 +8580,7 @@
       <c r="O19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="P19" s="142" t="s">
+      <c r="P19" s="2" t="s">
         <v>16</v>
       </c>
       <c r="Q19" s="89">
@@ -8617,7 +8627,7 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="O20" s="6"/>
-      <c r="P20" s="142" t="s">
+      <c r="P20" s="2" t="s">
         <v>18</v>
       </c>
       <c r="Q20" s="89">
@@ -8664,7 +8674,7 @@
         <v>2.7221917808219178</v>
       </c>
       <c r="O21" s="6"/>
-      <c r="P21" s="142" t="s">
+      <c r="P21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="Q21" s="89">
@@ -8728,23 +8738,23 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="110" t="s">
+      <c r="A24" s="111" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="112"/>
-      <c r="F24" s="110" t="s">
+      <c r="B24" s="112"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="113"/>
+      <c r="F24" s="111" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="111"/>
-      <c r="H24" s="112"/>
-      <c r="J24" s="110" t="s">
+      <c r="G24" s="112"/>
+      <c r="H24" s="113"/>
+      <c r="J24" s="111" t="s">
         <v>209</v>
       </c>
-      <c r="K24" s="111"/>
-      <c r="L24" s="111"/>
-      <c r="M24" s="112"/>
+      <c r="K24" s="112"/>
+      <c r="L24" s="112"/>
+      <c r="M24" s="113"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -9362,26 +9372,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="114" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="113"/>
-      <c r="D1" s="113"/>
-      <c r="E1" s="116"/>
-      <c r="G1" s="113" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="117"/>
+      <c r="G1" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="118"/>
-      <c r="L1" s="113" t="s">
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="119"/>
+      <c r="L1" s="114" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="113"/>
-      <c r="N1" s="113"/>
-      <c r="O1" s="113"/>
-      <c r="P1" s="116"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
+      <c r="P1" s="117"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
@@ -10399,26 +10409,26 @@
       <c r="O23" s="8"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="113" t="s">
+      <c r="A24" s="114" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="116"/>
-      <c r="G24" s="113" t="s">
+      <c r="B24" s="114"/>
+      <c r="C24" s="114"/>
+      <c r="D24" s="114"/>
+      <c r="E24" s="117"/>
+      <c r="G24" s="114" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="117"/>
-      <c r="I24" s="117"/>
-      <c r="J24" s="118"/>
-      <c r="L24" s="113" t="s">
+      <c r="H24" s="118"/>
+      <c r="I24" s="118"/>
+      <c r="J24" s="119"/>
+      <c r="L24" s="114" t="s">
         <v>211</v>
       </c>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="113"/>
-      <c r="P24" s="116"/>
+      <c r="M24" s="114"/>
+      <c r="N24" s="114"/>
+      <c r="O24" s="114"/>
+      <c r="P24" s="117"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
@@ -11430,27 +11440,27 @@
       <c r="O46" s="8"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="113" t="s">
+      <c r="A47" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="114"/>
-      <c r="C47" s="114"/>
-      <c r="D47" s="114"/>
-      <c r="E47" s="115"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="116"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="113" t="s">
+      <c r="G47" s="114" t="s">
         <v>212</v>
       </c>
-      <c r="H47" s="114"/>
-      <c r="I47" s="114"/>
-      <c r="J47" s="115"/>
-      <c r="L47" s="113" t="s">
+      <c r="H47" s="115"/>
+      <c r="I47" s="115"/>
+      <c r="J47" s="116"/>
+      <c r="L47" s="114" t="s">
         <v>202</v>
       </c>
-      <c r="M47" s="114"/>
-      <c r="N47" s="114"/>
-      <c r="O47" s="114"/>
-      <c r="P47" s="115"/>
+      <c r="M47" s="115"/>
+      <c r="N47" s="115"/>
+      <c r="O47" s="115"/>
+      <c r="P47" s="116"/>
       <c r="Q47" s="8"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -12492,21 +12502,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="123" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="J1" s="122" t="s">
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
+      <c r="J1" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -12712,14 +12722,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="122" t="s">
+      <c r="A8" s="123" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
       <c r="J8" s="16"/>
       <c r="K8" s="17" t="s">
         <v>59</v>
@@ -12962,17 +12972,17 @@
       <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="119" t="s">
+      <c r="A19" s="120" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="123"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="123"/>
-      <c r="F19" s="123"/>
-      <c r="G19" s="123"/>
-      <c r="H19" s="123"/>
-      <c r="I19" s="124"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="124"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="124"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="124"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="125"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -13310,18 +13320,18 @@
       <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="119" t="s">
+      <c r="A31" s="120" t="s">
         <v>228</v>
       </c>
-      <c r="B31" s="120"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="120"/>
-      <c r="E31" s="120"/>
-      <c r="F31" s="120"/>
-      <c r="G31" s="120"/>
-      <c r="H31" s="120"/>
-      <c r="I31" s="120"/>
-      <c r="J31" s="121"/>
+      <c r="B31" s="121"/>
+      <c r="C31" s="121"/>
+      <c r="D31" s="121"/>
+      <c r="E31" s="121"/>
+      <c r="F31" s="121"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="121"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="122"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
@@ -13669,16 +13679,16 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="119" t="s">
+      <c r="A42" s="120" t="s">
         <v>220</v>
       </c>
-      <c r="B42" s="120"/>
-      <c r="C42" s="120"/>
-      <c r="D42" s="120"/>
-      <c r="E42" s="120"/>
-      <c r="F42" s="120"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="121"/>
+      <c r="B42" s="121"/>
+      <c r="C42" s="121"/>
+      <c r="D42" s="121"/>
+      <c r="E42" s="121"/>
+      <c r="F42" s="121"/>
+      <c r="G42" s="121"/>
+      <c r="H42" s="122"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
@@ -14092,10 +14102,10 @@
         <f>B3*(1-C3)</f>
         <v>4.2922374429223795E-2</v>
       </c>
-      <c r="E3" s="125">
+      <c r="E3" s="126">
         <v>22.4118721461187</v>
       </c>
-      <c r="F3" s="127">
+      <c r="F3" s="128">
         <f>1/E3</f>
         <v>4.4619208671203336E-2</v>
       </c>
@@ -14108,11 +14118,11 @@
         <f>F$3*D3</f>
         <v>1.9151623813210587E-3</v>
       </c>
-      <c r="J3" s="128">
+      <c r="J3" s="129">
         <f>SUM(I3:I4)</f>
         <v>1.3854773644105816</v>
       </c>
-      <c r="K3" s="128">
+      <c r="K3" s="129">
         <f>IF(J3&gt;=1, 0.95,J3)</f>
         <v>0.95</v>
       </c>
@@ -14147,16 +14157,16 @@
         <f>B4*(1-C4)</f>
         <v>31.008219178082232</v>
       </c>
-      <c r="E4" s="126"/>
-      <c r="F4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="128"/>
       <c r="G4" s="100"/>
       <c r="H4" s="100"/>
       <c r="I4" s="102">
         <f>F$3*D4</f>
         <v>1.3835622020292604</v>
       </c>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
+      <c r="J4" s="130"/>
+      <c r="K4" s="130"/>
       <c r="L4" s="102">
         <f>IF(A4=1,(F$3*K$3)/(1-I4),(F$3*K$3)/((1-I3)*(1-K$3)))</f>
         <v>0.84939168776026774</v>
@@ -14204,32 +14214,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="130" t="s">
+      <c r="G1" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="130"/>
-      <c r="I1" s="130"/>
-      <c r="J1" s="130"/>
-      <c r="K1" s="130"/>
-      <c r="L1" s="130"/>
-      <c r="M1" s="130"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="131" t="s">
+      <c r="B2" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="131"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
@@ -14240,11 +14250,11 @@
       <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="131" t="s">
+      <c r="H2" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="131"/>
-      <c r="J2" s="131"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
@@ -14259,10 +14269,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="132"/>
+      <c r="C3" s="131"/>
       <c r="D3">
         <f>Dati_OPTN!C53/(Dati_OPTN!C7+Dati_OPTN!P76)</f>
         <v>8.022815115013697E-2</v>
@@ -14274,11 +14284,11 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="132" t="s">
+      <c r="H3" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="132"/>
-      <c r="J3" s="132"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
       <c r="K3">
         <f>Dati_OPTN!P76/(Dati_OPTN!C53+Dati_OPTN!C7)</f>
         <v>0.28016187130341974</v>
@@ -14295,10 +14305,10 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="132"/>
+      <c r="C4" s="131"/>
       <c r="D4">
         <f>Dati_OPTN!C57/(Dati_OPTN!C11+Dati_OPTN!P80)</f>
         <v>6.2610333058726611E-2</v>
@@ -14310,11 +14320,11 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="132" t="s">
+      <c r="H4" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
       <c r="K4">
         <f>Dati_OPTN!P80/(Dati_OPTN!C57+Dati_OPTN!C11)</f>
         <v>0.24349263186888859</v>
@@ -14331,10 +14341,10 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="132"/>
+      <c r="C5" s="131"/>
       <c r="D5">
         <f>Dati_OPTN!C61/(Dati_OPTN!C15+Dati_OPTN!P84)</f>
         <v>8.022640580780116E-2</v>
@@ -14346,11 +14356,11 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="132" t="s">
+      <c r="H5" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="132"/>
-      <c r="J5" s="132"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
       <c r="K5">
         <f>Dati_OPTN!P84/(Dati_OPTN!C61+Dati_OPTN!C15)</f>
         <v>0.29046009113626342</v>
@@ -14367,10 +14377,10 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="132"/>
+      <c r="C6" s="131"/>
       <c r="D6">
         <f>Dati_OPTN!C65/(Dati_OPTN!C19+Dati_OPTN!P88)</f>
         <v>5.2356020942408377E-2</v>
@@ -14382,11 +14392,11 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="132" t="s">
+      <c r="H6" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="132"/>
-      <c r="J6" s="132"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
       <c r="K6">
         <f>Dati_OPTN!P88/(Dati_OPTN!C65+Dati_OPTN!C19)</f>
         <v>0.18794326241134751</v>
@@ -14403,25 +14413,25 @@
       <c r="C7" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
+      <c r="A9" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="133"/>
-      <c r="C9" s="133"/>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="133"/>
-      <c r="I9" s="133" t="s">
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="I9" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="133"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="133"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -14430,12 +14440,12 @@
       <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="132" t="s">
+      <c r="C10" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="132"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="132"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
       <c r="G10">
         <f>Dati_OPTN!C8/365*(1-M3-E3)</f>
         <v>1.9239971433924447E-2</v>
@@ -14443,16 +14453,16 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="134" t="s">
+      <c r="J10" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="134"/>
-      <c r="L10" s="132" t="s">
+      <c r="K10" s="141"/>
+      <c r="L10" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="132"/>
-      <c r="N10" s="132"/>
-      <c r="O10" s="132"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
       <c r="P10">
         <f>G10</f>
         <v>1.9239971433924447E-2</v>
@@ -14462,26 +14472,26 @@
       <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
       <c r="G11">
         <f>Dati_OPTN!C9/365*(1-M3-E3)</f>
         <v>15.587414751705209</v>
       </c>
-      <c r="J11" s="134" t="s">
+      <c r="J11" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="134"/>
-      <c r="L11" s="132" t="s">
+      <c r="K11" s="141"/>
+      <c r="L11" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="132"/>
-      <c r="N11" s="132"/>
-      <c r="O11" s="132"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
       <c r="P11">
         <f>G11+G19</f>
         <v>20.586769434299157</v>
@@ -14494,12 +14504,12 @@
       <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="132" t="s">
+      <c r="C12" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
       <c r="G12">
         <f>Dati_OPTN!C12/365*(1-M4-E4)</f>
         <v>9.6958091800653338E-3</v>
@@ -14507,16 +14517,16 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="134" t="s">
+      <c r="J12" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="134"/>
-      <c r="L12" s="132" t="s">
+      <c r="K12" s="141"/>
+      <c r="L12" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="132"/>
-      <c r="N12" s="132"/>
-      <c r="O12" s="132"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
       <c r="P12">
         <f>G12</f>
         <v>9.6958091800653338E-3</v>
@@ -14526,26 +14536,26 @@
       <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="132" t="s">
+      <c r="C13" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
       <c r="G13">
         <f>Dati_OPTN!C13/365*(1-M4-E4)</f>
         <v>9.6163035447887992</v>
       </c>
-      <c r="J13" s="134" t="s">
+      <c r="J13" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="134"/>
-      <c r="L13" s="132" t="s">
+      <c r="K13" s="141"/>
+      <c r="L13" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
       <c r="P13">
         <f>G13+G20</f>
         <v>13.038924185351863</v>
@@ -14558,12 +14568,12 @@
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="132" t="s">
+      <c r="C14" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="132"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="132"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
       <c r="G14">
         <f>Dati_OPTN!C16/365*(1-M5-E5)</f>
         <v>6.2825617275598716E-3</v>
@@ -14571,16 +14581,16 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="134" t="s">
+      <c r="J14" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="134"/>
-      <c r="L14" s="132" t="s">
+      <c r="K14" s="141"/>
+      <c r="L14" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="132"/>
-      <c r="N14" s="132"/>
-      <c r="O14" s="132"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
       <c r="P14">
         <f>G14</f>
         <v>6.2825617275598716E-3</v>
@@ -14590,26 +14600,26 @@
       <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="132" t="s">
+      <c r="C15" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="132"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
       <c r="G15">
         <f>Dati_OPTN!C17/365*(1-M5-E5)</f>
         <v>2.947777962571092</v>
       </c>
-      <c r="J15" s="134" t="s">
+      <c r="J15" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="134"/>
-      <c r="L15" s="132" t="s">
+      <c r="K15" s="141"/>
+      <c r="L15" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="132"/>
-      <c r="N15" s="132"/>
-      <c r="O15" s="132"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
       <c r="P15">
         <f>G15+G21</f>
         <v>3.8581211568945175</v>
@@ -14622,12 +14632,12 @@
       <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="132" t="s">
+      <c r="C16" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="132"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="132"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
       <c r="G16">
         <f>Dati_OPTN!C20/365*(1-M6-E6)</f>
         <v>1.3134285843629813E-3</v>
@@ -14635,16 +14645,16 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="134" t="s">
+      <c r="J16" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="134"/>
-      <c r="L16" s="132" t="s">
+      <c r="K16" s="141"/>
+      <c r="L16" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="132"/>
-      <c r="N16" s="132"/>
-      <c r="O16" s="132"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
       <c r="P16">
         <f>G16</f>
         <v>1.3134285843629813E-3</v>
@@ -14654,52 +14664,52 @@
       <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="132" t="s">
+      <c r="C17" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="132"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="132"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
       <c r="G17">
         <f>Dati_OPTN!C21/365*(1-M6-E6)</f>
         <v>0.76178857893052909</v>
       </c>
-      <c r="J17" s="134" t="s">
+      <c r="J17" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="134"/>
-      <c r="L17" s="132" t="s">
+      <c r="K17" s="141"/>
+      <c r="L17" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="M17" s="132"/>
-      <c r="N17" s="132"/>
-      <c r="O17" s="132"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
       <c r="P17">
         <f>G17+G22</f>
         <v>1.0441757245685701</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="133" t="s">
+      <c r="A18" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="133"/>
-      <c r="C18" s="133"/>
-      <c r="D18" s="133"/>
-      <c r="E18" s="133"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="133"/>
-      <c r="I18" s="133" t="s">
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="I18" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="133"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="133"/>
-      <c r="Q18" s="133"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
@@ -14710,12 +14720,12 @@
       <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="132" t="s">
+      <c r="C19" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="132"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="132"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
       <c r="G19">
         <f>Dati_OPTN!C10/365*(1-M3-E3)</f>
         <v>4.999354682593947</v>
@@ -14723,15 +14733,15 @@
       <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="132" t="s">
+      <c r="J19" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="132"/>
-      <c r="L19" s="132"/>
-      <c r="M19" s="132"/>
-      <c r="N19" s="132"/>
-      <c r="O19" s="132"/>
-      <c r="P19" s="132"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
       <c r="Q19">
         <f>G10+G11+G19</f>
         <v>20.606009405733079</v>
@@ -14744,12 +14754,12 @@
       <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="132" t="s">
+      <c r="C20" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
       <c r="G20">
         <f>Dati_OPTN!C14/365*(1-M4-E4)</f>
         <v>3.4226206405630637</v>
@@ -14757,15 +14767,15 @@
       <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="132" t="s">
+      <c r="J20" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="132"/>
-      <c r="L20" s="132"/>
-      <c r="M20" s="132"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="132"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
       <c r="Q20">
         <f>G12+G13+G20</f>
         <v>13.048619994531929</v>
@@ -14778,12 +14788,12 @@
       <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="132" t="s">
+      <c r="C21" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="132"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="132"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
       <c r="G21">
         <f>Dati_OPTN!C18/365*(1-M5-E5)</f>
         <v>0.91034319432342548</v>
@@ -14791,15 +14801,15 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="132" t="s">
+      <c r="J21" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="132"/>
-      <c r="L21" s="132"/>
-      <c r="M21" s="132"/>
-      <c r="N21" s="132"/>
-      <c r="O21" s="132"/>
-      <c r="P21" s="132"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
       <c r="Q21">
         <f>G14+G15+G21</f>
         <v>3.8644037186220772</v>
@@ -14812,12 +14822,12 @@
       <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="132" t="s">
+      <c r="C22" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="132"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
       <c r="G22">
         <f>Dati_OPTN!C22/365*(1-M6-E6)</f>
         <v>0.28238714563804101</v>
@@ -14825,62 +14835,62 @@
       <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="132" t="s">
+      <c r="J22" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="132"/>
-      <c r="L22" s="132"/>
-      <c r="M22" s="132"/>
-      <c r="N22" s="132"/>
-      <c r="O22" s="132"/>
-      <c r="P22" s="132"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
       <c r="Q22">
         <f>G16+G17+G22</f>
         <v>1.0454891531529331</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="135" t="s">
+      <c r="A25" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="135"/>
-      <c r="C25" s="135"/>
-      <c r="D25" s="135"/>
-      <c r="E25" s="135"/>
-      <c r="F25" s="135"/>
-      <c r="I25" s="135" t="s">
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="I25" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="135"/>
-      <c r="K25" s="135"/>
-      <c r="L25" s="135"/>
-      <c r="M25" s="135"/>
-      <c r="N25" s="135"/>
-      <c r="Q25" s="135" t="s">
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="Q25" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="R25" s="135"/>
-      <c r="S25" s="135"/>
-      <c r="T25" s="135"/>
-      <c r="U25" s="135"/>
-      <c r="V25" s="135"/>
-      <c r="Y25" s="135" t="s">
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="Y25" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="Z25" s="135"/>
-      <c r="AA25" s="135"/>
-      <c r="AB25" s="135"/>
-      <c r="AC25" s="135"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="131" t="s">
+      <c r="B26" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="131"/>
-      <c r="D26" s="131"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
@@ -14890,34 +14900,34 @@
       <c r="I26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="131" t="s">
+      <c r="J26" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="131"/>
-      <c r="L26" s="131"/>
-      <c r="M26" s="131"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
       <c r="N26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="131" t="s">
+      <c r="R26" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="S26" s="131"/>
-      <c r="T26" s="131"/>
-      <c r="U26" s="131"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
       <c r="V26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="131" t="s">
+      <c r="Z26" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="AA26" s="131"/>
+      <c r="AA26" s="134"/>
       <c r="AB26" s="2" t="s">
         <v>46</v>
       </c>
@@ -14929,11 +14939,11 @@
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="132" t="s">
+      <c r="B27" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="132"/>
-      <c r="D27" s="132"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
       <c r="E27">
         <f>Arrivi!D31/Arrivi!D29</f>
         <v>0.45980196406014429</v>
@@ -14945,12 +14955,12 @@
       <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="132" t="s">
+      <c r="J27" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="132"/>
-      <c r="L27" s="132"/>
-      <c r="M27" s="132"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
       <c r="N27">
         <f>1/(2*E27*Arrivi!H31)</f>
         <v>9.2240298702594314E-2</v>
@@ -14958,12 +14968,12 @@
       <c r="Q27" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="132" t="s">
+      <c r="R27" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="S27" s="132"/>
-      <c r="T27" s="132"/>
-      <c r="U27" s="132"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
       <c r="V27">
         <f>1/(2*F27*Arrivi!H30)</f>
         <v>6.3479719307352522E-2</v>
@@ -14971,10 +14981,10 @@
       <c r="Y27" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="132" t="s">
+      <c r="Z27" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="AA27" s="132"/>
+      <c r="AA27" s="131"/>
       <c r="AB27">
         <f>E27*N27+F27*V27</f>
         <v>7.6703890200792421E-2</v>
@@ -14988,11 +14998,11 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="132"/>
-      <c r="D28" s="132"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
       <c r="E28">
         <f>Arrivi!D34/Arrivi!D32</f>
         <v>0.32570024570024569</v>
@@ -15004,12 +15014,12 @@
       <c r="I28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="132" t="s">
+      <c r="J28" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="132"/>
-      <c r="L28" s="132"/>
-      <c r="M28" s="132"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
       <c r="N28">
         <f>1/(2*E28*Arrivi!H34)</f>
         <v>0.29662846521470904</v>
@@ -15017,12 +15027,12 @@
       <c r="Q28" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="132" t="s">
+      <c r="R28" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="S28" s="132"/>
-      <c r="T28" s="132"/>
-      <c r="U28" s="132"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
       <c r="V28">
         <f>1/(2*F28*Arrivi!H33)</f>
         <v>6.5580601925874338E-2</v>
@@ -15030,10 +15040,10 @@
       <c r="Y28" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="132" t="s">
+      <c r="Z28" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="AA28" s="132"/>
+      <c r="AA28" s="131"/>
       <c r="AB28">
         <f>E28*N28+F28*V28</f>
         <v>0.14083294776756458</v>
@@ -15047,11 +15057,11 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="132"/>
-      <c r="D29" s="132"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
       <c r="E29">
         <f>Arrivi!D37/Arrivi!D35</f>
         <v>0.3090813093980993</v>
@@ -15063,12 +15073,12 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="132" t="s">
+      <c r="J29" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="132"/>
-      <c r="L29" s="132"/>
-      <c r="M29" s="132"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
       <c r="N29">
         <f>1/(2*E29*Arrivi!H37)</f>
         <v>1.0506397061594894</v>
@@ -15076,12 +15086,12 @@
       <c r="Q29" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="132" t="s">
+      <c r="R29" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="132"/>
-      <c r="T29" s="132"/>
-      <c r="U29" s="132"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
       <c r="V29">
         <f>1/(2*F29*Arrivi!H36)</f>
         <v>0.20117369900147355</v>
@@ -15089,10 +15099,10 @@
       <c r="Y29" t="s">
         <v>25</v>
       </c>
-      <c r="Z29" s="132" t="s">
+      <c r="Z29" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="AA29" s="132"/>
+      <c r="AA29" s="131"/>
       <c r="AB29">
         <f>E29*N29+F29*V29</f>
         <v>0.46372776478304834</v>
@@ -15106,11 +15116,11 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="132" t="s">
+      <c r="B30" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
       <c r="E30">
         <f>Arrivi!D40/Arrivi!D38</f>
         <v>0.20058626465661641</v>
@@ -15122,12 +15132,12 @@
       <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="132" t="s">
+      <c r="J30" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="132"/>
-      <c r="L30" s="132"/>
-      <c r="M30" s="132"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
       <c r="N30">
         <f>1/(2*E30*Arrivi!H40)</f>
         <v>8.1235087980912617</v>
@@ -15135,12 +15145,12 @@
       <c r="Q30" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="132" t="s">
+      <c r="R30" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="S30" s="132"/>
-      <c r="T30" s="132"/>
-      <c r="U30" s="132"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
       <c r="V30">
         <f>1/(2*F30*Arrivi!H39)</f>
         <v>0.58536487085465616</v>
@@ -15148,10 +15158,10 @@
       <c r="Y30" t="s">
         <v>26</v>
       </c>
-      <c r="Z30" s="132" t="s">
+      <c r="Z30" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="AA30" s="132"/>
+      <c r="AA30" s="131"/>
       <c r="AB30">
         <f>E30*N30+F30*V30</f>
         <v>2.0974130036630036</v>
@@ -15168,21 +15178,21 @@
       <c r="B33" s="136"/>
       <c r="C33" s="136"/>
       <c r="D33" s="136"/>
-      <c r="F33" s="137" t="s">
+      <c r="F33" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="137"/>
-      <c r="H33" s="137"/>
-      <c r="I33" s="137"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="138" t="s">
+      <c r="B34" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="138"/>
+      <c r="C34" s="135"/>
       <c r="D34">
         <f>Q19*AB27</f>
         <v>1.5805610829338461</v>
@@ -15190,10 +15200,10 @@
       <c r="F34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="132" t="s">
+      <c r="G34" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="132"/>
+      <c r="H34" s="131"/>
       <c r="I34">
         <f>1/(2*E27*F27)-1</f>
         <v>1.0130111547150507</v>
@@ -15203,10 +15213,10 @@
       <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="138" t="s">
+      <c r="B35" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="138"/>
+      <c r="C35" s="135"/>
       <c r="D35">
         <f>Q20*AB28</f>
         <v>1.8376756181287139</v>
@@ -15214,10 +15224,10 @@
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="132" t="s">
+      <c r="G35" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="132"/>
+      <c r="H35" s="131"/>
       <c r="I35">
         <f>1/(2*E28*F28)-1</f>
         <v>1.2766638765442981</v>
@@ -15227,10 +15237,10 @@
       <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="138" t="s">
+      <c r="B36" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="138"/>
+      <c r="C36" s="135"/>
       <c r="D36">
         <f>Q21*AB29</f>
         <v>1.7920312986559159</v>
@@ -15238,10 +15248,10 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="132" t="s">
+      <c r="G36" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="132"/>
+      <c r="H36" s="131"/>
       <c r="I36">
         <f>1/(2*E29*F29)-1</f>
         <v>1.3413714565768982</v>
@@ -15251,10 +15261,10 @@
       <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="138" t="s">
+      <c r="B37" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="138"/>
+      <c r="C37" s="135"/>
       <c r="D37">
         <f>Q22*AB30</f>
         <v>2.1928225450115835</v>
@@ -15262,10 +15272,10 @@
       <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="132" t="s">
+      <c r="G37" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="132"/>
+      <c r="H37" s="131"/>
       <c r="I37">
         <f>1/(2*E30*F30)-1</f>
         <v>2.1181514658069514</v>
@@ -15410,42 +15420,42 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="139" t="s">
+      <c r="A51" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="139"/>
-      <c r="C51" s="139"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="139"/>
-      <c r="F51" s="139"/>
-      <c r="G51" s="139"/>
-      <c r="H51" s="139"/>
-      <c r="I51" s="139"/>
-      <c r="J51" s="139"/>
-      <c r="K51" s="139"/>
-      <c r="L51" s="139"/>
-      <c r="M51" s="139"/>
-      <c r="N51" s="139"/>
-      <c r="O51" s="139"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+      <c r="O51" s="138"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="140" t="s">
+      <c r="A52" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="140"/>
-      <c r="C52" s="140"/>
-      <c r="D52" s="140"/>
-      <c r="E52" s="140"/>
-      <c r="F52" s="140"/>
-      <c r="I52" s="140" t="s">
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="I52" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="J52" s="140"/>
-      <c r="K52" s="140"/>
-      <c r="L52" s="140"/>
-      <c r="M52" s="140"/>
-      <c r="N52" s="140"/>
-      <c r="O52" s="140"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
+      <c r="N52" s="133"/>
+      <c r="O52" s="133"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -15454,26 +15464,26 @@
       <c r="B53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="131" t="s">
+      <c r="C53" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="131"/>
-      <c r="E53" s="131"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
       <c r="F53" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="131" t="s">
+      <c r="J53" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="K53" s="131"/>
-      <c r="L53" s="131" t="s">
+      <c r="K53" s="134"/>
+      <c r="L53" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="131"/>
-      <c r="N53" s="131"/>
+      <c r="M53" s="134"/>
+      <c r="N53" s="134"/>
       <c r="O53" s="2" t="s">
         <v>146</v>
       </c>
@@ -15485,11 +15495,11 @@
       <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="132" t="s">
+      <c r="C54" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
       <c r="F54">
         <f>(D34*AB27*(1+I34))/(2*(1-D42))</f>
         <v>0.1222042352739537</v>
@@ -15497,15 +15507,15 @@
       <c r="I54" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="132" t="s">
+      <c r="J54" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="132"/>
-      <c r="L54" s="132" t="s">
+      <c r="K54" s="131"/>
+      <c r="L54" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="132"/>
-      <c r="N54" s="132"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="131"/>
       <c r="O54">
         <f>F54+AB27</f>
         <v>0.19890812547474612</v>
@@ -15515,32 +15525,32 @@
       <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="132" t="s">
+      <c r="C55" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="132"/>
-      <c r="E55" s="132"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
       <c r="F55">
         <f>(D34*AB27*(1+I34))/(2*(1-D42)*(1-D34))</f>
         <v>-0.21049332941229656</v>
       </c>
-      <c r="J55" s="132" t="s">
+      <c r="J55" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="132"/>
-      <c r="L55" s="132" t="s">
+      <c r="K55" s="131"/>
+      <c r="L55" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M55" s="132"/>
-      <c r="N55" s="132"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
       <c r="O55">
         <f>F55+AB27</f>
         <v>-0.13378943921150416</v>
       </c>
-      <c r="S55" s="141" t="s">
+      <c r="S55" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="T55" s="141"/>
+      <c r="T55" s="132"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -15549,11 +15559,11 @@
       <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="132" t="s">
+      <c r="C56" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="132"/>
-      <c r="E56" s="132"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
       <c r="F56">
         <f>(D35*AB28*(1+I35))/(2*(1-D44))</f>
         <v>0.29500914142831403</v>
@@ -15561,15 +15571,15 @@
       <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="132" t="s">
+      <c r="J56" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K56" s="132"/>
-      <c r="L56" s="132" t="s">
+      <c r="K56" s="131"/>
+      <c r="L56" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M56" s="132"/>
-      <c r="N56" s="132"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
       <c r="O56">
         <f>F56+AB28</f>
         <v>0.43584208919587863</v>
@@ -15586,24 +15596,24 @@
       <c r="B57" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="132" t="s">
+      <c r="C57" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="132"/>
-      <c r="E57" s="132"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
       <c r="F57">
         <f>(D35*AB28*(1+I35))/(2*(1-D44)*(1-D35))</f>
         <v>-0.3521758721918346</v>
       </c>
-      <c r="J57" s="132" t="s">
+      <c r="J57" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K57" s="132"/>
-      <c r="L57" s="132" t="s">
+      <c r="K57" s="131"/>
+      <c r="L57" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M57" s="132"/>
-      <c r="N57" s="132"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
       <c r="O57">
         <f>F57+AB28</f>
         <v>-0.21134292442427002</v>
@@ -15623,11 +15633,11 @@
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="132" t="s">
+      <c r="C58" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
       <c r="F58">
         <f>(D36*AB29*(1+I36))/(2*(1-D46))</f>
         <v>0.97569961407009964</v>
@@ -15635,15 +15645,15 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="132" t="s">
+      <c r="J58" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="132"/>
-      <c r="L58" s="132" t="s">
+      <c r="K58" s="131"/>
+      <c r="L58" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M58" s="132"/>
-      <c r="N58" s="132"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
       <c r="O58">
         <f>F58+AB29</f>
         <v>1.439427378853148</v>
@@ -15660,24 +15670,24 @@
       <c r="B59" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="132" t="s">
+      <c r="C59" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="132"/>
-      <c r="E59" s="132"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
       <c r="F59">
         <f>(D36*AB29*(1+I36))/(2*(1-D46)*(1-D36))</f>
         <v>-1.2318952744997205</v>
       </c>
-      <c r="J59" s="132" t="s">
+      <c r="J59" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="132"/>
-      <c r="L59" s="132" t="s">
+      <c r="K59" s="131"/>
+      <c r="L59" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M59" s="132"/>
-      <c r="N59" s="132"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
       <c r="O59">
         <f>F59+AB29</f>
         <v>-0.76816750971667214</v>
@@ -15697,11 +15707,11 @@
       <c r="B60" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="132" t="s">
+      <c r="C60" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
       <c r="F60">
         <f>(D37*AB30*(1+I37))/(2*(1-D48))</f>
         <v>7.1903942263427414</v>
@@ -15709,15 +15719,15 @@
       <c r="I60" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="132" t="s">
+      <c r="J60" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K60" s="132"/>
-      <c r="L60" s="132" t="s">
+      <c r="K60" s="131"/>
+      <c r="L60" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M60" s="132"/>
-      <c r="N60" s="132"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="131"/>
       <c r="O60">
         <f>F60+AB30</f>
         <v>9.287807230005745</v>
@@ -15727,71 +15737,71 @@
       <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="132" t="s">
+      <c r="C61" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
       <c r="F61">
         <f>(D37*AB30*(1+I37))/(2*(1-D48)*(1-D37))</f>
         <v>-6.0280502379948864</v>
       </c>
-      <c r="J61" s="132" t="s">
+      <c r="J61" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="132"/>
-      <c r="L61" s="132" t="s">
+      <c r="K61" s="131"/>
+      <c r="L61" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M61" s="132"/>
-      <c r="N61" s="132"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="131"/>
       <c r="O61">
         <f>F61+AB30</f>
         <v>-3.9306372343318827</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="140" t="s">
+      <c r="A62" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="140"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="I62" s="140" t="s">
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="I62" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="J62" s="140"/>
-      <c r="K62" s="140"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="140"/>
-      <c r="N62" s="140"/>
-      <c r="O62" s="140"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
+      <c r="N62" s="133"/>
+      <c r="O62" s="133"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="131" t="s">
+      <c r="B63" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="131"/>
-      <c r="D63" s="131"/>
-      <c r="E63" s="131"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
       <c r="F63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J63" s="131" t="s">
+      <c r="J63" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="131"/>
-      <c r="L63" s="131"/>
-      <c r="M63" s="131"/>
-      <c r="N63" s="131"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
       <c r="O63" s="2" t="s">
         <v>146</v>
       </c>
@@ -15800,12 +15810,12 @@
       <c r="A64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="132" t="s">
+      <c r="B64" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="132"/>
-      <c r="D64" s="132"/>
-      <c r="E64" s="132"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="131"/>
       <c r="F64">
         <f>C42*F54+C43*F55</f>
         <v>-0.21018268742846255</v>
@@ -15813,13 +15823,13 @@
       <c r="I64" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="132" t="s">
+      <c r="J64" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="132"/>
-      <c r="L64" s="132"/>
-      <c r="M64" s="132"/>
-      <c r="N64" s="132"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="131"/>
       <c r="O64">
         <f>C42*O54+C43*O55</f>
         <v>-0.13347879722767014</v>
@@ -15829,12 +15839,12 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="132" t="s">
+      <c r="B65" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="132"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="132"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
       <c r="F65">
         <f>C44*F56+C45*F57</f>
         <v>-0.35169497977571024</v>
@@ -15842,13 +15852,13 @@
       <c r="I65" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="132" t="s">
+      <c r="J65" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K65" s="132"/>
-      <c r="L65" s="132"/>
-      <c r="M65" s="132"/>
-      <c r="N65" s="132"/>
+      <c r="K65" s="131"/>
+      <c r="L65" s="131"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="131"/>
       <c r="O65">
         <f>C44*O56+C45*O57</f>
         <v>-0.21086203200814566</v>
@@ -15858,12 +15868,12 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="132" t="s">
+      <c r="B66" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="132"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="132"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="131"/>
       <c r="F66">
         <f>C46*F58+C47*F59</f>
         <v>-1.2283062728925513</v>
@@ -15871,13 +15881,13 @@
       <c r="I66" t="s">
         <v>25</v>
       </c>
-      <c r="J66" s="132" t="s">
+      <c r="J66" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="132"/>
-      <c r="L66" s="132"/>
-      <c r="M66" s="132"/>
-      <c r="N66" s="132"/>
+      <c r="K66" s="131"/>
+      <c r="L66" s="131"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="131"/>
       <c r="O66">
         <f>C46*O58+C47*O59</f>
         <v>-0.7645785081095029</v>
@@ -15887,12 +15897,12 @@
       <c r="A67" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="132" t="s">
+      <c r="B67" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="132"/>
-      <c r="D67" s="132"/>
-      <c r="E67" s="132"/>
+      <c r="C67" s="131"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="131"/>
       <c r="F67">
         <f>C48*F60+C49*F61</f>
         <v>-6.0114441519844126</v>
@@ -15900,36 +15910,36 @@
       <c r="I67" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="132" t="s">
+      <c r="J67" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="132"/>
-      <c r="L67" s="132"/>
-      <c r="M67" s="132"/>
-      <c r="N67" s="132"/>
+      <c r="K67" s="131"/>
+      <c r="L67" s="131"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="131"/>
       <c r="O67">
         <f>C48*O60+C49*O61</f>
         <v>-3.9140311483214085</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="140" t="s">
+      <c r="A70" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="140"/>
-      <c r="C70" s="140"/>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="I70" s="140" t="s">
+      <c r="B70" s="133"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="133"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
+      <c r="I70" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="J70" s="140"/>
-      <c r="K70" s="140"/>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140"/>
-      <c r="N70" s="140"/>
-      <c r="O70" s="140"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
+      <c r="N70" s="133"/>
+      <c r="O70" s="133"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -15938,26 +15948,26 @@
       <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="131" t="s">
+      <c r="C71" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="131"/>
-      <c r="E71" s="131"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
       <c r="F71" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="131" t="s">
+      <c r="J71" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="K71" s="131"/>
-      <c r="L71" s="131" t="s">
+      <c r="K71" s="134"/>
+      <c r="L71" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="M71" s="131"/>
-      <c r="N71" s="131"/>
+      <c r="M71" s="134"/>
+      <c r="N71" s="134"/>
       <c r="O71" s="2" t="s">
         <v>159</v>
       </c>
@@ -15969,11 +15979,11 @@
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="132" t="s">
+      <c r="C72" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="132"/>
-      <c r="E72" s="132"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="131"/>
       <c r="F72">
         <f t="shared" ref="F72:F79" si="0">P10*F54</f>
         <v>2.3512059957754516E-3</v>
@@ -15981,15 +15991,15 @@
       <c r="I72" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="132" t="s">
+      <c r="J72" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K72" s="132"/>
-      <c r="L72" s="132" t="s">
+      <c r="K72" s="131"/>
+      <c r="L72" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="M72" s="132"/>
-      <c r="N72" s="132"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="131"/>
       <c r="O72">
         <f t="shared" ref="O72:O79" si="1">P10*O54</f>
         <v>3.8269866521095748E-3</v>
@@ -15999,24 +16009,24 @@
       <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="132" t="s">
+      <c r="C73" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="132"/>
-      <c r="E73" s="132"/>
+      <c r="D73" s="131"/>
+      <c r="E73" s="131"/>
       <c r="F73">
         <f t="shared" si="0"/>
         <v>-4.3333776400689308</v>
       </c>
-      <c r="J73" s="132" t="s">
+      <c r="J73" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K73" s="132"/>
-      <c r="L73" s="132" t="s">
+      <c r="K73" s="131"/>
+      <c r="L73" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="M73" s="132"/>
-      <c r="N73" s="132"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="131"/>
       <c r="O73">
         <f t="shared" si="1"/>
         <v>-2.7542923377914188</v>
@@ -16029,11 +16039,11 @@
       <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="132" t="s">
+      <c r="C74" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="132"/>
-      <c r="E74" s="132"/>
+      <c r="D74" s="131"/>
+      <c r="E74" s="131"/>
       <c r="F74">
         <f t="shared" si="0"/>
         <v>2.8603523416638396E-3</v>
@@ -16041,15 +16051,15 @@
       <c r="I74" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="132" t="s">
+      <c r="J74" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K74" s="132"/>
-      <c r="L74" s="132" t="s">
+      <c r="K74" s="131"/>
+      <c r="L74" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="M74" s="132"/>
-      <c r="N74" s="132"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="131"/>
       <c r="O74">
         <f t="shared" si="1"/>
         <v>4.2258417294842544E-3</v>
@@ -16059,24 +16069,24 @@
       <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="132" t="s">
+      <c r="C75" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="132"/>
-      <c r="E75" s="132"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="131"/>
       <c r="F75">
         <f t="shared" si="0"/>
         <v>-4.5919944974194991</v>
       </c>
-      <c r="J75" s="132" t="s">
+      <c r="J75" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K75" s="132"/>
-      <c r="L75" s="132" t="s">
+      <c r="K75" s="131"/>
+      <c r="L75" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="M75" s="132"/>
-      <c r="N75" s="132"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
       <c r="O75">
         <f t="shared" si="1"/>
         <v>-2.7556843686786054</v>
@@ -16089,11 +16099,11 @@
       <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="132" t="s">
+      <c r="C76" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="132"/>
-      <c r="E76" s="132"/>
+      <c r="D76" s="131"/>
+      <c r="E76" s="131"/>
       <c r="F76">
         <f t="shared" si="0"/>
         <v>6.1298930529517454E-3</v>
@@ -16101,15 +16111,15 @@
       <c r="I76" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="132" t="s">
+      <c r="J76" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K76" s="132"/>
-      <c r="L76" s="132" t="s">
+      <c r="K76" s="131"/>
+      <c r="L76" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="M76" s="132"/>
-      <c r="N76" s="132"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="131"/>
       <c r="O76">
         <f t="shared" si="1"/>
         <v>9.0432913599846117E-3</v>
@@ -16119,24 +16129,24 @@
       <c r="B77" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="132" t="s">
+      <c r="C77" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="132"/>
-      <c r="E77" s="132"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="131"/>
       <c r="F77">
         <f t="shared" si="0"/>
         <v>-4.7528012216257505</v>
       </c>
-      <c r="J77" s="132" t="s">
+      <c r="J77" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K77" s="132"/>
-      <c r="L77" s="132" t="s">
+      <c r="K77" s="131"/>
+      <c r="L77" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="M77" s="132"/>
-      <c r="N77" s="132"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="131"/>
       <c r="O77">
         <f t="shared" si="1"/>
         <v>-2.9636833212768678</v>
@@ -16149,11 +16159,11 @@
       <c r="B78" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="132" t="s">
+      <c r="C78" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="132"/>
-      <c r="E78" s="132"/>
+      <c r="D78" s="131"/>
+      <c r="E78" s="131"/>
       <c r="F78">
         <f t="shared" si="0"/>
         <v>9.444069309717102E-3</v>
@@ -16161,15 +16171,15 @@
       <c r="I78" t="s">
         <v>26</v>
       </c>
-      <c r="J78" s="132" t="s">
+      <c r="J78" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K78" s="132"/>
-      <c r="L78" s="132" t="s">
+      <c r="K78" s="131"/>
+      <c r="L78" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="M78" s="132"/>
-      <c r="N78" s="132"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="131"/>
       <c r="O78">
         <f t="shared" si="1"/>
         <v>1.219887150194271E-2</v>
@@ -16179,71 +16189,71 @@
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="132" t="s">
+      <c r="C79" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="132"/>
-      <c r="E79" s="132"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="131"/>
       <c r="F79">
         <f t="shared" si="0"/>
         <v>-6.2943437249940519</v>
       </c>
-      <c r="J79" s="132" t="s">
+      <c r="J79" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K79" s="132"/>
-      <c r="L79" s="132" t="s">
+      <c r="K79" s="131"/>
+      <c r="L79" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="M79" s="132"/>
-      <c r="N79" s="132"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
       <c r="O79">
         <f t="shared" si="1"/>
         <v>-4.1042759821746939</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="140" t="s">
+      <c r="A80" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="140"/>
-      <c r="C80" s="140"/>
-      <c r="D80" s="140"/>
-      <c r="E80" s="140"/>
-      <c r="F80" s="140"/>
-      <c r="I80" s="140" t="s">
+      <c r="B80" s="133"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="133"/>
+      <c r="I80" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="J80" s="140"/>
-      <c r="K80" s="140"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140"/>
-      <c r="N80" s="140"/>
-      <c r="O80" s="140"/>
+      <c r="J80" s="133"/>
+      <c r="K80" s="133"/>
+      <c r="L80" s="133"/>
+      <c r="M80" s="133"/>
+      <c r="N80" s="133"/>
+      <c r="O80" s="133"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="131" t="s">
+      <c r="B81" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="131"/>
-      <c r="D81" s="131"/>
-      <c r="E81" s="131"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
       <c r="F81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J81" s="131" t="s">
+      <c r="J81" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K81" s="131"/>
-      <c r="L81" s="131"/>
-      <c r="M81" s="131"/>
-      <c r="N81" s="131"/>
+      <c r="K81" s="134"/>
+      <c r="L81" s="134"/>
+      <c r="M81" s="134"/>
+      <c r="N81" s="134"/>
       <c r="O81" s="2" t="s">
         <v>159</v>
       </c>
@@ -16252,12 +16262,12 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="132" t="s">
+      <c r="B82" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="132"/>
-      <c r="D82" s="132"/>
-      <c r="E82" s="132"/>
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
       <c r="F82">
         <f>Q19*F64</f>
         <v>-4.3310264340731548</v>
@@ -16265,13 +16275,13 @@
       <c r="I82" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="132" t="s">
+      <c r="J82" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="132"/>
-      <c r="L82" s="132"/>
-      <c r="M82" s="132"/>
-      <c r="N82" s="132"/>
+      <c r="K82" s="131"/>
+      <c r="L82" s="131"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="131"/>
       <c r="O82">
         <f>Q19*O64</f>
         <v>-2.7504653511393093</v>
@@ -16281,12 +16291,12 @@
       <c r="A83" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="132" t="s">
+      <c r="B83" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="132"/>
-      <c r="D83" s="132"/>
-      <c r="E83" s="132"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
       <c r="F83">
         <f>Q20*F65</f>
         <v>-4.5891341450778347</v>
@@ -16294,13 +16304,13 @@
       <c r="I83" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="132" t="s">
+      <c r="J83" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="K83" s="132"/>
-      <c r="L83" s="132"/>
-      <c r="M83" s="132"/>
-      <c r="N83" s="132"/>
+      <c r="K83" s="131"/>
+      <c r="L83" s="131"/>
+      <c r="M83" s="131"/>
+      <c r="N83" s="131"/>
       <c r="O83">
         <f>Q20*O65</f>
         <v>-2.7514585269491212</v>
@@ -16310,12 +16320,12 @@
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="132" t="s">
+      <c r="B84" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="132"/>
-      <c r="D84" s="132"/>
-      <c r="E84" s="132"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
       <c r="F84">
         <f>Q21*F66</f>
         <v>-4.7466713285727993</v>
@@ -16323,13 +16333,13 @@
       <c r="I84" t="s">
         <v>25</v>
       </c>
-      <c r="J84" s="132" t="s">
+      <c r="J84" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="K84" s="132"/>
-      <c r="L84" s="132"/>
-      <c r="M84" s="132"/>
-      <c r="N84" s="132"/>
+      <c r="K84" s="131"/>
+      <c r="L84" s="131"/>
+      <c r="M84" s="131"/>
+      <c r="N84" s="131"/>
       <c r="O84">
         <f>Q21*O66</f>
         <v>-2.9546400299168831</v>
@@ -16339,12 +16349,12 @@
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="132" t="s">
+      <c r="B85" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="132"/>
-      <c r="D85" s="132"/>
-      <c r="E85" s="132"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
       <c r="F85">
         <f>Q22*F67</f>
         <v>-6.2848996556843355</v>
@@ -16352,62 +16362,62 @@
       <c r="I85" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="132" t="s">
+      <c r="J85" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="K85" s="132"/>
-      <c r="L85" s="132"/>
-      <c r="M85" s="132"/>
-      <c r="N85" s="132"/>
+      <c r="K85" s="131"/>
+      <c r="L85" s="131"/>
+      <c r="M85" s="131"/>
+      <c r="N85" s="131"/>
       <c r="O85">
         <f>Q22*O67</f>
         <v>-4.0920771106727516</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="139" t="s">
+      <c r="A88" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="139"/>
-      <c r="C88" s="139"/>
-      <c r="D88" s="139"/>
-      <c r="E88" s="139"/>
-      <c r="F88" s="139"/>
-      <c r="G88" s="139"/>
-      <c r="H88" s="139"/>
-      <c r="I88" s="139"/>
-      <c r="J88" s="139"/>
-      <c r="K88" s="139"/>
-      <c r="L88" s="139"/>
-      <c r="M88" s="139"/>
-      <c r="N88" s="139"/>
-      <c r="O88" s="139"/>
+      <c r="B88" s="138"/>
+      <c r="C88" s="138"/>
+      <c r="D88" s="138"/>
+      <c r="E88" s="138"/>
+      <c r="F88" s="138"/>
+      <c r="G88" s="138"/>
+      <c r="H88" s="138"/>
+      <c r="I88" s="138"/>
+      <c r="J88" s="138"/>
+      <c r="K88" s="138"/>
+      <c r="L88" s="138"/>
+      <c r="M88" s="138"/>
+      <c r="N88" s="138"/>
+      <c r="O88" s="138"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="140" t="s">
+      <c r="A89" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="140"/>
-      <c r="C89" s="140"/>
-      <c r="D89" s="140"/>
-      <c r="E89" s="140"/>
-      <c r="F89" s="140"/>
-      <c r="I89" s="140" t="s">
+      <c r="B89" s="133"/>
+      <c r="C89" s="133"/>
+      <c r="D89" s="133"/>
+      <c r="E89" s="133"/>
+      <c r="F89" s="133"/>
+      <c r="I89" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="J89" s="140"/>
-      <c r="K89" s="140"/>
-      <c r="L89" s="140"/>
-      <c r="M89" s="140"/>
-      <c r="N89" s="140"/>
-      <c r="O89" s="140"/>
-      <c r="R89" s="135" t="s">
+      <c r="J89" s="133"/>
+      <c r="K89" s="133"/>
+      <c r="L89" s="133"/>
+      <c r="M89" s="133"/>
+      <c r="N89" s="133"/>
+      <c r="O89" s="133"/>
+      <c r="R89" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="S89" s="135"/>
-      <c r="T89" s="135"/>
-      <c r="U89" s="135"/>
-      <c r="V89" s="135"/>
+      <c r="S89" s="137"/>
+      <c r="T89" s="137"/>
+      <c r="U89" s="137"/>
+      <c r="V89" s="137"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -16416,36 +16426,36 @@
       <c r="B90" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="131" t="s">
+      <c r="C90" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="131"/>
-      <c r="E90" s="131"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
       <c r="F90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J90" s="131" t="s">
+      <c r="J90" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="K90" s="131"/>
-      <c r="L90" s="131" t="s">
+      <c r="K90" s="134"/>
+      <c r="L90" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="M90" s="131"/>
-      <c r="N90" s="131"/>
+      <c r="M90" s="134"/>
+      <c r="N90" s="134"/>
       <c r="O90" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S90" s="131" t="s">
+      <c r="S90" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="T90" s="131"/>
+      <c r="T90" s="134"/>
       <c r="U90" s="2" t="s">
         <v>46</v>
       </c>
@@ -16460,11 +16470,11 @@
       <c r="B91" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="132" t="s">
+      <c r="C91" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="132"/>
-      <c r="E91" s="132"/>
+      <c r="D91" s="131"/>
+      <c r="E91" s="131"/>
       <c r="F91">
         <f>(U98*U91)/(1-U105)</f>
         <v>2.9654809037870895E-2</v>
@@ -16472,15 +16482,15 @@
       <c r="I91" t="s">
         <v>23</v>
       </c>
-      <c r="J91" s="132" t="s">
+      <c r="J91" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K91" s="132"/>
-      <c r="L91" s="132" t="s">
+      <c r="K91" s="131"/>
+      <c r="L91" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M91" s="132"/>
-      <c r="N91" s="132"/>
+      <c r="M91" s="131"/>
+      <c r="N91" s="131"/>
       <c r="O91">
         <f>F91+U91</f>
         <v>6.7576886959948818E-2</v>
@@ -16488,10 +16498,10 @@
       <c r="R91" t="s">
         <v>23</v>
       </c>
-      <c r="S91" s="132" t="s">
+      <c r="S91" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="T91" s="132"/>
+      <c r="T91" s="131"/>
       <c r="U91">
         <f>1/(Arrivi!H31+Arrivi!H30)</f>
         <v>3.7922077922077919E-2</v>
@@ -16505,24 +16515,24 @@
       <c r="B92" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="132" t="s">
+      <c r="C92" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="132"/>
-      <c r="E92" s="132"/>
+      <c r="D92" s="131"/>
+      <c r="E92" s="131"/>
       <c r="F92">
         <f>(U98*U91)/((1-U105)*(1-U98))</f>
         <v>0.13567194887554843</v>
       </c>
-      <c r="J92" s="132" t="s">
+      <c r="J92" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K92" s="132"/>
-      <c r="L92" s="132" t="s">
+      <c r="K92" s="131"/>
+      <c r="L92" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M92" s="132"/>
-      <c r="N92" s="132"/>
+      <c r="M92" s="131"/>
+      <c r="N92" s="131"/>
       <c r="O92">
         <f>F92+U91</f>
         <v>0.17359402679762634</v>
@@ -16530,10 +16540,10 @@
       <c r="R92" t="s">
         <v>24</v>
       </c>
-      <c r="S92" s="132" t="s">
+      <c r="S92" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="T92" s="132"/>
+      <c r="T92" s="131"/>
       <c r="U92">
         <f>1/(Arrivi!H33+Arrivi!H34)</f>
         <v>6.0671542553191488E-2</v>
@@ -16550,11 +16560,11 @@
       <c r="B93" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="132" t="s">
+      <c r="C93" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="132"/>
-      <c r="E93" s="132"/>
+      <c r="D93" s="131"/>
+      <c r="E93" s="131"/>
       <c r="F93">
         <f>(U99*U92)/(1-U107)</f>
         <v>4.8060713119710698E-2</v>
@@ -16562,15 +16572,15 @@
       <c r="I93" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="132" t="s">
+      <c r="J93" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K93" s="132"/>
-      <c r="L93" s="132" t="s">
+      <c r="K93" s="131"/>
+      <c r="L93" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M93" s="132"/>
-      <c r="N93" s="132"/>
+      <c r="M93" s="131"/>
+      <c r="N93" s="131"/>
       <c r="O93">
         <f>F93+U92</f>
         <v>0.10873225567290218</v>
@@ -16578,10 +16588,10 @@
       <c r="R93" t="s">
         <v>25</v>
       </c>
-      <c r="S93" s="132" t="s">
+      <c r="S93" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="T93" s="132"/>
+      <c r="T93" s="131"/>
       <c r="U93">
         <f>1/(Arrivi!H36+Arrivi!H37)</f>
         <v>0.19466666666666668</v>
@@ -16595,24 +16605,24 @@
       <c r="B94" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="132" t="s">
+      <c r="C94" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="132"/>
-      <c r="E94" s="132"/>
+      <c r="D94" s="131"/>
+      <c r="E94" s="131"/>
       <c r="F94">
         <f>(U99*U92)/((1-U107)*(1-U99))</f>
         <v>0.23070608103349363</v>
       </c>
-      <c r="J94" s="132" t="s">
+      <c r="J94" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K94" s="132"/>
-      <c r="L94" s="132" t="s">
+      <c r="K94" s="131"/>
+      <c r="L94" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M94" s="132"/>
-      <c r="N94" s="132"/>
+      <c r="M94" s="131"/>
+      <c r="N94" s="131"/>
       <c r="O94">
         <f>F94+U92</f>
         <v>0.29137762358668512</v>
@@ -16620,10 +16630,10 @@
       <c r="R94" t="s">
         <v>26</v>
       </c>
-      <c r="S94" s="132" t="s">
+      <c r="S94" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="T94" s="132"/>
+      <c r="T94" s="131"/>
       <c r="U94">
         <f>1/(Arrivi!H39+Arrivi!H40)</f>
         <v>0.72709163346613537</v>
@@ -16640,11 +16650,11 @@
       <c r="B95" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="132" t="s">
+      <c r="C95" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="132"/>
-      <c r="E95" s="132"/>
+      <c r="D95" s="131"/>
+      <c r="E95" s="131"/>
       <c r="F95">
         <f>(U100*U93)/(1-U109)</f>
         <v>0.14662132696261998</v>
@@ -16652,15 +16662,15 @@
       <c r="I95" t="s">
         <v>25</v>
       </c>
-      <c r="J95" s="132" t="s">
+      <c r="J95" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K95" s="132"/>
-      <c r="L95" s="132" t="s">
+      <c r="K95" s="131"/>
+      <c r="L95" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M95" s="132"/>
-      <c r="N95" s="132"/>
+      <c r="M95" s="131"/>
+      <c r="N95" s="131"/>
       <c r="O95">
         <f>F95+U93</f>
         <v>0.34128799362928663</v>
@@ -16670,24 +16680,24 @@
       <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="132" t="s">
+      <c r="C96" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="132"/>
-      <c r="E96" s="132"/>
+      <c r="D96" s="131"/>
+      <c r="E96" s="131"/>
       <c r="F96">
         <f>(U100*U93)/((1-U109)*(1-U100))</f>
         <v>0.59186080204660962</v>
       </c>
-      <c r="J96" s="132" t="s">
+      <c r="J96" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K96" s="132"/>
-      <c r="L96" s="132" t="s">
+      <c r="K96" s="131"/>
+      <c r="L96" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M96" s="132"/>
-      <c r="N96" s="132"/>
+      <c r="M96" s="131"/>
+      <c r="N96" s="131"/>
       <c r="O96">
         <f>F96+U93</f>
         <v>0.78652746871327628</v>
@@ -16700,11 +16710,11 @@
       <c r="B97" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="132" t="s">
+      <c r="C97" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="132"/>
-      <c r="E97" s="132"/>
+      <c r="D97" s="131"/>
+      <c r="E97" s="131"/>
       <c r="F97">
         <f>(U101*U94)/(1-U111)</f>
         <v>0.55323897499522867</v>
@@ -16712,15 +16722,15 @@
       <c r="I97" t="s">
         <v>26</v>
       </c>
-      <c r="J97" s="132" t="s">
+      <c r="J97" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K97" s="132"/>
-      <c r="L97" s="132" t="s">
+      <c r="K97" s="131"/>
+      <c r="L97" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M97" s="132"/>
-      <c r="N97" s="132"/>
+      <c r="M97" s="131"/>
+      <c r="N97" s="131"/>
       <c r="O97">
         <f>F97+U93</f>
         <v>0.74790564166189533</v>
@@ -16736,24 +16746,24 @@
       <c r="B98" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="132" t="s">
+      <c r="C98" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="132"/>
-      <c r="E98" s="132"/>
+      <c r="D98" s="131"/>
+      <c r="E98" s="131"/>
       <c r="F98">
         <f>(U101*U94)/((1-U111)*(1-U101))</f>
         <v>2.3067619058366273</v>
       </c>
-      <c r="J98" s="132" t="s">
+      <c r="J98" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K98" s="132"/>
-      <c r="L98" s="132" t="s">
+      <c r="K98" s="131"/>
+      <c r="L98" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M98" s="132"/>
-      <c r="N98" s="132"/>
+      <c r="M98" s="131"/>
+      <c r="N98" s="131"/>
       <c r="O98">
         <f>F98+U94</f>
         <v>3.0338535393027626</v>
@@ -16761,40 +16771,40 @@
       <c r="R98" t="s">
         <v>23</v>
       </c>
-      <c r="S98" s="138" t="s">
+      <c r="S98" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="T98" s="138"/>
+      <c r="T98" s="135"/>
       <c r="U98">
         <f>Q19*U91</f>
         <v>0.7814226943472804</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="140" t="s">
+      <c r="A99" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="140"/>
-      <c r="C99" s="140"/>
-      <c r="D99" s="140"/>
-      <c r="E99" s="140"/>
-      <c r="F99" s="140"/>
-      <c r="I99" s="140" t="s">
+      <c r="B99" s="133"/>
+      <c r="C99" s="133"/>
+      <c r="D99" s="133"/>
+      <c r="E99" s="133"/>
+      <c r="F99" s="133"/>
+      <c r="I99" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="J99" s="140"/>
-      <c r="K99" s="140"/>
-      <c r="L99" s="140"/>
-      <c r="M99" s="140"/>
-      <c r="N99" s="140"/>
-      <c r="O99" s="140"/>
+      <c r="J99" s="133"/>
+      <c r="K99" s="133"/>
+      <c r="L99" s="133"/>
+      <c r="M99" s="133"/>
+      <c r="N99" s="133"/>
+      <c r="O99" s="133"/>
       <c r="R99" t="s">
         <v>24</v>
       </c>
-      <c r="S99" s="138" t="s">
+      <c r="S99" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="T99" s="138"/>
+      <c r="T99" s="135"/>
       <c r="U99">
         <f>Q20*U92</f>
         <v>0.79167990325866922</v>
@@ -16804,35 +16814,35 @@
       <c r="A100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="131" t="s">
+      <c r="B100" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="131"/>
-      <c r="D100" s="131"/>
-      <c r="E100" s="131"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="134"/>
       <c r="F100" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J100" s="131" t="s">
+      <c r="J100" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="131"/>
-      <c r="L100" s="131"/>
-      <c r="M100" s="131"/>
-      <c r="N100" s="131"/>
+      <c r="K100" s="134"/>
+      <c r="L100" s="134"/>
+      <c r="M100" s="134"/>
+      <c r="N100" s="134"/>
       <c r="O100" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R100" t="s">
         <v>25</v>
       </c>
-      <c r="S100" s="138" t="s">
+      <c r="S100" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="T100" s="138"/>
+      <c r="T100" s="135"/>
       <c r="U100">
         <f>Q21*U93</f>
         <v>0.75227059055843104</v>
@@ -16842,12 +16852,12 @@
       <c r="A101" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="132" t="s">
+      <c r="B101" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="132"/>
-      <c r="D101" s="132"/>
-      <c r="E101" s="132"/>
+      <c r="C101" s="131"/>
+      <c r="D101" s="131"/>
+      <c r="E101" s="131"/>
       <c r="F101">
         <f>T105*F91+T106*F92</f>
         <v>0.13557295994946283</v>
@@ -16855,13 +16865,13 @@
       <c r="I101" t="s">
         <v>23</v>
       </c>
-      <c r="J101" s="132" t="s">
+      <c r="J101" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K101" s="132"/>
-      <c r="L101" s="132"/>
-      <c r="M101" s="132"/>
-      <c r="N101" s="132"/>
+      <c r="K101" s="131"/>
+      <c r="L101" s="131"/>
+      <c r="M101" s="131"/>
+      <c r="N101" s="131"/>
       <c r="O101">
         <f>T105*O91+T106*O92</f>
         <v>0.17349503787154075</v>
@@ -16869,10 +16879,10 @@
       <c r="R101" t="s">
         <v>26</v>
       </c>
-      <c r="S101" s="138" t="s">
+      <c r="S101" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="T101" s="138"/>
+      <c r="T101" s="135"/>
       <c r="U101">
         <f>Q22*U94</f>
         <v>0.76016641613709268</v>
@@ -16882,12 +16892,12 @@
       <c r="A102" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="132" t="s">
+      <c r="B102" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="132"/>
-      <c r="D102" s="132"/>
-      <c r="E102" s="132"/>
+      <c r="C102" s="131"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="131"/>
       <c r="F102">
         <f>T107*F93+T108*F94</f>
         <v>0.23057036594364833</v>
@@ -16895,13 +16905,13 @@
       <c r="I102" t="s">
         <v>24</v>
       </c>
-      <c r="J102" s="132" t="s">
+      <c r="J102" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K102" s="132"/>
-      <c r="L102" s="132"/>
-      <c r="M102" s="132"/>
-      <c r="N102" s="132"/>
+      <c r="K102" s="131"/>
+      <c r="L102" s="131"/>
+      <c r="M102" s="131"/>
+      <c r="N102" s="131"/>
       <c r="O102">
         <f>T107*O93+T108*O94</f>
         <v>0.29124190849683984</v>
@@ -16911,12 +16921,12 @@
       <c r="A103" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="132" t="s">
+      <c r="B103" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="132"/>
-      <c r="D103" s="132"/>
-      <c r="E103" s="132"/>
+      <c r="C103" s="131"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="131"/>
       <c r="F103">
         <f>T109*F95+T110*F96</f>
         <v>0.59113695311946934</v>
@@ -16924,13 +16934,13 @@
       <c r="I103" t="s">
         <v>25</v>
       </c>
-      <c r="J103" s="132" t="s">
+      <c r="J103" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K103" s="132"/>
-      <c r="L103" s="132"/>
-      <c r="M103" s="132"/>
-      <c r="N103" s="132"/>
+      <c r="K103" s="131"/>
+      <c r="L103" s="131"/>
+      <c r="M103" s="131"/>
+      <c r="N103" s="131"/>
       <c r="O103">
         <f>T109*O95+T110*O96</f>
         <v>0.785803619786136</v>
@@ -16946,12 +16956,12 @@
       <c r="A104" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="132" t="s">
+      <c r="B104" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="132"/>
-      <c r="D104" s="132"/>
-      <c r="E104" s="132"/>
+      <c r="C104" s="131"/>
+      <c r="D104" s="131"/>
+      <c r="E104" s="131"/>
       <c r="F104">
         <f>T111*F97+T112*F98</f>
         <v>2.3045589875818013</v>
@@ -16959,13 +16969,13 @@
       <c r="I104" t="s">
         <v>26</v>
       </c>
-      <c r="J104" s="132" t="s">
+      <c r="J104" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K104" s="132"/>
-      <c r="L104" s="132"/>
-      <c r="M104" s="132"/>
-      <c r="N104" s="132"/>
+      <c r="K104" s="131"/>
+      <c r="L104" s="131"/>
+      <c r="M104" s="131"/>
+      <c r="N104" s="131"/>
       <c r="O104">
         <f>T111*O97+T112*O98</f>
         <v>3.0309817454615051</v>
@@ -17013,23 +17023,23 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="140" t="s">
+      <c r="A107" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="140"/>
-      <c r="C107" s="140"/>
-      <c r="D107" s="140"/>
-      <c r="E107" s="140"/>
-      <c r="F107" s="140"/>
-      <c r="I107" s="140" t="s">
+      <c r="B107" s="133"/>
+      <c r="C107" s="133"/>
+      <c r="D107" s="133"/>
+      <c r="E107" s="133"/>
+      <c r="F107" s="133"/>
+      <c r="I107" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="J107" s="140"/>
-      <c r="K107" s="140"/>
-      <c r="L107" s="140"/>
-      <c r="M107" s="140"/>
-      <c r="N107" s="140"/>
-      <c r="O107" s="140"/>
+      <c r="J107" s="133"/>
+      <c r="K107" s="133"/>
+      <c r="L107" s="133"/>
+      <c r="M107" s="133"/>
+      <c r="N107" s="133"/>
+      <c r="O107" s="133"/>
       <c r="R107" t="s">
         <v>24</v>
       </c>
@@ -17052,26 +17062,26 @@
       <c r="B108" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="131" t="s">
+      <c r="C108" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="D108" s="131"/>
-      <c r="E108" s="131"/>
+      <c r="D108" s="134"/>
+      <c r="E108" s="134"/>
       <c r="F108" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J108" s="131" t="s">
+      <c r="J108" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="K108" s="131"/>
-      <c r="L108" s="131" t="s">
+      <c r="K108" s="134"/>
+      <c r="L108" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="M108" s="131"/>
-      <c r="N108" s="131"/>
+      <c r="M108" s="134"/>
+      <c r="N108" s="134"/>
       <c r="O108" s="2" t="s">
         <v>159</v>
       </c>
@@ -17094,11 +17104,11 @@
       <c r="B109" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="132" t="s">
+      <c r="C109" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="D109" s="132"/>
-      <c r="E109" s="132"/>
+      <c r="D109" s="131"/>
+      <c r="E109" s="131"/>
       <c r="F109" s="4">
         <f t="shared" ref="F109:F116" si="2">P10*F91</f>
         <v>5.7055767876712049E-4</v>
@@ -17106,15 +17116,15 @@
       <c r="I109" t="s">
         <v>23</v>
       </c>
-      <c r="J109" s="132" t="s">
+      <c r="J109" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K109" s="132"/>
-      <c r="L109" s="132" t="s">
+      <c r="K109" s="131"/>
+      <c r="L109" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="M109" s="132"/>
-      <c r="N109" s="132"/>
+      <c r="M109" s="131"/>
+      <c r="N109" s="131"/>
       <c r="O109">
         <f t="shared" ref="O109:O116" si="3">P10*O91</f>
         <v>1.3001773747029566E-3</v>
@@ -17138,24 +17148,24 @@
       <c r="B110" t="s">
         <v>80</v>
       </c>
-      <c r="C110" s="132" t="s">
+      <c r="C110" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="132"/>
-      <c r="E110" s="132"/>
+      <c r="D110" s="131"/>
+      <c r="E110" s="131"/>
       <c r="F110" s="4">
         <f t="shared" si="2"/>
         <v>2.7930471302029383</v>
       </c>
-      <c r="J110" s="132" t="s">
+      <c r="J110" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K110" s="132"/>
-      <c r="L110" s="132" t="s">
+      <c r="K110" s="131"/>
+      <c r="L110" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="M110" s="132"/>
-      <c r="N110" s="132"/>
+      <c r="M110" s="131"/>
+      <c r="N110" s="131"/>
       <c r="O110">
         <f t="shared" si="3"/>
         <v>3.5737402048542828</v>
@@ -17179,11 +17189,11 @@
       <c r="B111" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="132" t="s">
+      <c r="C111" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="132"/>
-      <c r="E111" s="132"/>
+      <c r="D111" s="131"/>
+      <c r="E111" s="131"/>
       <c r="F111" s="4">
         <f t="shared" si="2"/>
         <v>4.6598750346657741E-4</v>
@@ -17191,15 +17201,15 @@
       <c r="I111" t="s">
         <v>24</v>
       </c>
-      <c r="J111" s="132" t="s">
+      <c r="J111" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K111" s="132"/>
-      <c r="L111" s="132" t="s">
+      <c r="K111" s="131"/>
+      <c r="L111" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="M111" s="132"/>
-      <c r="N111" s="132"/>
+      <c r="M111" s="131"/>
+      <c r="N111" s="131"/>
       <c r="O111">
         <f t="shared" si="3"/>
         <v>1.0542472027225359E-3</v>
@@ -17223,24 +17233,24 @@
       <c r="B112" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="132" t="s">
+      <c r="C112" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="D112" s="132"/>
-      <c r="E112" s="132"/>
+      <c r="D112" s="131"/>
+      <c r="E112" s="131"/>
       <c r="F112" s="4">
         <f t="shared" si="2"/>
         <v>3.0081590996953671</v>
       </c>
-      <c r="J112" s="132" t="s">
+      <c r="J112" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K112" s="132"/>
-      <c r="L112" s="132" t="s">
+      <c r="K112" s="131"/>
+      <c r="L112" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="M112" s="132"/>
-      <c r="N112" s="132"/>
+      <c r="M112" s="131"/>
+      <c r="N112" s="131"/>
       <c r="O112">
         <f t="shared" si="3"/>
         <v>3.7992507432547802</v>
@@ -17264,11 +17274,11 @@
       <c r="B113" t="s">
         <v>77</v>
       </c>
-      <c r="C113" s="132" t="s">
+      <c r="C113" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="D113" s="132"/>
-      <c r="E113" s="132"/>
+      <c r="D113" s="131"/>
+      <c r="E113" s="131"/>
       <c r="F113" s="4">
         <f t="shared" si="2"/>
         <v>9.2115753721939855E-4</v>
@@ -17276,15 +17286,15 @@
       <c r="I113" t="s">
         <v>25</v>
       </c>
-      <c r="J113" s="132" t="s">
+      <c r="J113" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K113" s="132"/>
-      <c r="L113" s="132" t="s">
+      <c r="K113" s="131"/>
+      <c r="L113" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="M113" s="132"/>
-      <c r="N113" s="132"/>
+      <c r="M113" s="131"/>
+      <c r="N113" s="131"/>
       <c r="O113">
         <f t="shared" si="3"/>
         <v>2.1441628868510533E-3</v>
@@ -17294,24 +17304,24 @@
       <c r="B114" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="132" t="s">
+      <c r="C114" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="132"/>
-      <c r="E114" s="132"/>
+      <c r="D114" s="131"/>
+      <c r="E114" s="131"/>
       <c r="F114" s="4">
         <f t="shared" si="2"/>
         <v>2.2834706823125823</v>
       </c>
-      <c r="J114" s="132" t="s">
+      <c r="J114" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K114" s="132"/>
-      <c r="L114" s="132" t="s">
+      <c r="K114" s="131"/>
+      <c r="L114" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="M114" s="132"/>
-      <c r="N114" s="132"/>
+      <c r="M114" s="131"/>
+      <c r="N114" s="131"/>
       <c r="O114">
         <f t="shared" si="3"/>
         <v>3.0345182675213818</v>
@@ -17324,11 +17334,11 @@
       <c r="B115" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="132" t="s">
+      <c r="C115" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="D115" s="132"/>
-      <c r="E115" s="132"/>
+      <c r="D115" s="131"/>
+      <c r="E115" s="131"/>
       <c r="F115" s="4">
         <f t="shared" si="2"/>
         <v>7.2663988374241004E-4</v>
@@ -17336,15 +17346,15 @@
       <c r="I115" t="s">
         <v>26</v>
       </c>
-      <c r="J115" s="132" t="s">
+      <c r="J115" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K115" s="132"/>
-      <c r="L115" s="132" t="s">
+      <c r="K115" s="131"/>
+      <c r="L115" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="M115" s="132"/>
-      <c r="N115" s="132"/>
+      <c r="M115" s="131"/>
+      <c r="N115" s="131"/>
       <c r="O115">
         <f t="shared" si="3"/>
         <v>9.823206481650703E-4</v>
@@ -17354,51 +17364,51 @@
       <c r="B116" t="s">
         <v>80</v>
       </c>
-      <c r="C116" s="132" t="s">
+      <c r="C116" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="D116" s="132"/>
-      <c r="E116" s="132"/>
+      <c r="D116" s="131"/>
+      <c r="E116" s="131"/>
       <c r="F116" s="4">
         <f t="shared" si="2"/>
         <v>2.4086647844341362</v>
       </c>
-      <c r="J116" s="132" t="s">
+      <c r="J116" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K116" s="132"/>
-      <c r="L116" s="132" t="s">
+      <c r="K116" s="131"/>
+      <c r="L116" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="M116" s="132"/>
-      <c r="N116" s="132"/>
+      <c r="M116" s="131"/>
+      <c r="N116" s="131"/>
       <c r="O116">
         <f t="shared" si="3"/>
         <v>3.1678762176363828</v>
       </c>
-      <c r="S116" s="141" t="s">
+      <c r="S116" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="T116" s="141"/>
+      <c r="T116" s="132"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="140" t="s">
+      <c r="A117" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="140"/>
-      <c r="C117" s="140"/>
-      <c r="D117" s="140"/>
-      <c r="E117" s="140"/>
-      <c r="F117" s="140"/>
-      <c r="I117" s="140" t="s">
+      <c r="B117" s="133"/>
+      <c r="C117" s="133"/>
+      <c r="D117" s="133"/>
+      <c r="E117" s="133"/>
+      <c r="F117" s="133"/>
+      <c r="I117" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="J117" s="140"/>
-      <c r="K117" s="140"/>
-      <c r="L117" s="140"/>
-      <c r="M117" s="140"/>
-      <c r="N117" s="140"/>
-      <c r="O117" s="140"/>
+      <c r="J117" s="133"/>
+      <c r="K117" s="133"/>
+      <c r="L117" s="133"/>
+      <c r="M117" s="133"/>
+      <c r="N117" s="133"/>
+      <c r="O117" s="133"/>
       <c r="S117" t="s">
         <v>23</v>
       </c>
@@ -17411,25 +17421,25 @@
       <c r="A118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="131" t="s">
+      <c r="B118" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="131"/>
-      <c r="D118" s="131"/>
-      <c r="E118" s="131"/>
+      <c r="C118" s="134"/>
+      <c r="D118" s="134"/>
+      <c r="E118" s="134"/>
       <c r="F118" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J118" s="131" t="s">
+      <c r="J118" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K118" s="131"/>
-      <c r="L118" s="131"/>
-      <c r="M118" s="131"/>
-      <c r="N118" s="131"/>
+      <c r="K118" s="134"/>
+      <c r="L118" s="134"/>
+      <c r="M118" s="134"/>
+      <c r="N118" s="134"/>
       <c r="O118" s="2" t="s">
         <v>159</v>
       </c>
@@ -17445,12 +17455,12 @@
       <c r="A119" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="132" t="s">
+      <c r="B119" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="132"/>
-      <c r="D119" s="132"/>
-      <c r="E119" s="132"/>
+      <c r="C119" s="131"/>
+      <c r="D119" s="131"/>
+      <c r="E119" s="131"/>
       <c r="F119">
         <f>Q19*F101</f>
         <v>2.7936176878817052</v>
@@ -17458,13 +17468,13 @@
       <c r="I119" t="s">
         <v>23</v>
       </c>
-      <c r="J119" s="132" t="s">
+      <c r="J119" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="K119" s="132"/>
-      <c r="L119" s="132"/>
-      <c r="M119" s="132"/>
-      <c r="N119" s="132"/>
+      <c r="K119" s="131"/>
+      <c r="L119" s="131"/>
+      <c r="M119" s="131"/>
+      <c r="N119" s="131"/>
       <c r="O119">
         <f>Q19*O101</f>
         <v>3.5750403822289853</v>
@@ -17481,12 +17491,12 @@
       <c r="A120" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="132" t="s">
+      <c r="B120" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="C120" s="132"/>
-      <c r="D120" s="132"/>
-      <c r="E120" s="132"/>
+      <c r="C120" s="131"/>
+      <c r="D120" s="131"/>
+      <c r="E120" s="131"/>
       <c r="F120">
         <f>Q20*F102</f>
         <v>3.0086250871988334</v>
@@ -17494,13 +17504,13 @@
       <c r="I120" t="s">
         <v>24</v>
       </c>
-      <c r="J120" s="132" t="s">
+      <c r="J120" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="K120" s="132"/>
-      <c r="L120" s="132"/>
-      <c r="M120" s="132"/>
-      <c r="N120" s="132"/>
+      <c r="K120" s="131"/>
+      <c r="L120" s="131"/>
+      <c r="M120" s="131"/>
+      <c r="N120" s="131"/>
       <c r="O120">
         <f>Q20*O102</f>
         <v>3.8003049904575028</v>
@@ -17517,12 +17527,12 @@
       <c r="A121" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="132" t="s">
+      <c r="B121" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="C121" s="132"/>
-      <c r="D121" s="132"/>
-      <c r="E121" s="132"/>
+      <c r="C121" s="131"/>
+      <c r="D121" s="131"/>
+      <c r="E121" s="131"/>
       <c r="F121">
         <f>Q21*F103</f>
         <v>2.284391839849802</v>
@@ -17530,13 +17540,13 @@
       <c r="I121" t="s">
         <v>25</v>
       </c>
-      <c r="J121" s="132" t="s">
+      <c r="J121" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="K121" s="132"/>
-      <c r="L121" s="132"/>
-      <c r="M121" s="132"/>
-      <c r="N121" s="132"/>
+      <c r="K121" s="131"/>
+      <c r="L121" s="131"/>
+      <c r="M121" s="131"/>
+      <c r="N121" s="131"/>
       <c r="O121">
         <f>Q21*O103</f>
         <v>3.0366624304082328</v>
@@ -17546,12 +17556,12 @@
       <c r="A122" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="132" t="s">
+      <c r="B122" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="132"/>
-      <c r="D122" s="132"/>
-      <c r="E122" s="132"/>
+      <c r="C122" s="131"/>
+      <c r="D122" s="131"/>
+      <c r="E122" s="131"/>
       <c r="F122">
         <f>Q22*F104</f>
         <v>2.4093914243178784</v>
@@ -17559,13 +17569,13 @@
       <c r="I122" t="s">
         <v>26</v>
       </c>
-      <c r="J122" s="132" t="s">
+      <c r="J122" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="K122" s="132"/>
-      <c r="L122" s="132"/>
-      <c r="M122" s="132"/>
-      <c r="N122" s="132"/>
+      <c r="K122" s="131"/>
+      <c r="L122" s="131"/>
+      <c r="M122" s="131"/>
+      <c r="N122" s="131"/>
       <c r="O122">
         <f>Q22*O104</f>
         <v>3.1688585382845482</v>
@@ -17573,6 +17583,256 @@
     </row>
   </sheetData>
   <mergeCells count="263">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="I62:O62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="I80:O80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="I89:O89"/>
+    <mergeCell ref="R89:V89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="I99:O99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="J100:N100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="J101:N101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="J102:N102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="I107:O107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:N116"/>
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="J121:N121"/>
     <mergeCell ref="B122:E122"/>
@@ -17586,256 +17846,6 @@
     <mergeCell ref="J119:N119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="J120:N120"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:N114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="I107:O107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="J101:N101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="J102:N102"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="I99:O99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="J100:N100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="I89:O89"/>
-    <mergeCell ref="R89:V89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="I80:O80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="I62:O62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="496" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0088A743-8C24-46E8-92FE-10843F203119}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14F1E41F-B786-4DC1-A524-7658B23FBA04}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arrivi!$J$2:$M$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dati_OPTN!$A$2:$L$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Uscite!$A$25:$E$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dati_OPTN!$N$71:$Y$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Uscite!$L$48:$P$68</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -1934,11 +1934,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8:L21"/>
+    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L98" sqref="L98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2056,7 +2055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
         <v>15</v>
       </c>
@@ -2270,7 +2269,7 @@
         <v>6278</v>
       </c>
     </row>
-    <row r="6" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="36"/>
       <c r="B6" t="s">
         <v>22</v>
@@ -2342,7 +2341,7 @@
         <v>7431</v>
       </c>
     </row>
-    <row r="7" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="36" t="s">
         <v>23</v>
       </c>
@@ -2556,7 +2555,7 @@
         <v>4328</v>
       </c>
     </row>
-    <row r="10" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="36"/>
       <c r="B10" t="s">
         <v>22</v>
@@ -2626,7 +2625,7 @@
         <v>2638</v>
       </c>
     </row>
-    <row r="11" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>24</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="14" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="36"/>
       <c r="B14" t="s">
         <v>22</v>
@@ -2910,7 +2909,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="15" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>25</v>
       </c>
@@ -3124,7 +3123,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="36"/>
       <c r="B18" t="s">
         <v>22</v>
@@ -3160,7 +3159,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="19" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
         <v>26</v>
       </c>
@@ -3270,7 +3269,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="22" spans="1:25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="51" t="s">
         <v>22</v>
@@ -7629,14 +7628,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:L22" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Critical"/>
-        <filter val="Normal"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A93:E93"/>
     <mergeCell ref="A1:L1"/>
@@ -9348,10 +9339,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U54" sqref="U54"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53:P65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11561,7 +11553,7 @@
         <v>0.48585402357217311</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="56" t="s">
         <v>18</v>
@@ -11607,7 +11599,7 @@
         <v>0.56785714285714284</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="56" t="s">
         <v>20</v>
@@ -11653,7 +11645,7 @@
         <v>0.59841222645099901</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="56" t="s">
         <v>22</v>
@@ -11751,7 +11743,7 @@
         <v>0.44958351600175361</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="56" t="s">
         <v>18</v>
@@ -11797,7 +11789,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="56" t="s">
         <v>20</v>
@@ -11843,7 +11835,7 @@
         <v>0.55256178931689659</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="56" t="s">
         <v>22</v>
@@ -11941,7 +11933,7 @@
         <v>0.5436150119076949</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="56" t="s">
         <v>18</v>
@@ -11987,7 +11979,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="56" t="s">
         <v>20</v>
@@ -12033,7 +12025,7 @@
         <v>0.67163599371127347</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="56" t="s">
         <v>22</v>
@@ -12131,7 +12123,7 @@
         <v>0.44178469830813</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="56" t="s">
         <v>18</v>
@@ -12177,7 +12169,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="56" t="s">
         <v>20</v>
@@ -12223,7 +12215,7 @@
         <v>0.54271655886671155</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="56" t="s">
         <v>22</v>
@@ -12321,7 +12313,7 @@
         <v>0.62874839312843289</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="56" t="s">
         <v>18</v>
@@ -12367,7 +12359,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="56" t="s">
         <v>20</v>
@@ -12413,7 +12405,7 @@
         <v>0.79334916864608074</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="55"/>
       <c r="B68" s="57" t="s">
         <v>22</v>
@@ -12460,6 +12452,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="L48:P68" xr:uid="{00000000-0001-0000-0200-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="All Types"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="G47:J47"/>

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="544" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14F1E41F-B786-4DC1-A524-7658B23FBA04}"/>
+  <xr:revisionPtr revIDLastSave="552" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACCE337F-B3FD-4C83-9459-5A1CBA26B4A2}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
@@ -1514,38 +1514,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1936,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L98" sqref="L98"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O92" sqref="O92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7376,6 +7376,10 @@
       <c r="E94" s="41" t="s">
         <v>36</v>
       </c>
+      <c r="H94">
+        <f t="shared" ref="H94:H109" si="11">SUM(C73:L73)</f>
+        <v>212</v>
+      </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
@@ -7393,6 +7397,10 @@
       <c r="E95" s="52">
         <f>1-Dati_OPTN!$D95</f>
         <v>5.4000000000000048E-2</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="11"/>
+        <v>167715</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -7410,8 +7418,12 @@
         <f>1-Dati_OPTN!$D96</f>
         <v>0.122</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H96">
+        <f t="shared" si="11"/>
+        <v>13865</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="37">
         <v>5</v>
@@ -7426,8 +7438,12 @@
         <f>1-Dati_OPTN!$D97</f>
         <v>0.21325000000000005</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H97">
+        <f t="shared" si="11"/>
+        <v>82040</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>23</v>
       </c>
@@ -7444,8 +7460,12 @@
         <f>1-Dati_OPTN!$D98</f>
         <v>5.4000000000000048E-2</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H98">
+        <f t="shared" si="11"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
       <c r="B99" s="37">
         <v>3</v>
@@ -7460,8 +7480,12 @@
         <f>1-Dati_OPTN!$D99</f>
         <v>0.124</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H99">
+        <f t="shared" si="11"/>
+        <v>76050</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="36"/>
       <c r="B100" s="37">
         <v>5</v>
@@ -7476,8 +7500,12 @@
         <f>1-Dati_OPTN!$D100</f>
         <v>0.21499999999999997</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H100">
+        <f t="shared" si="11"/>
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>24</v>
       </c>
@@ -7494,8 +7522,12 @@
         <f>1-Dati_OPTN!$D101</f>
         <v>5.3000000000000047E-2</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H101">
+        <f t="shared" si="11"/>
+        <v>66196</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="36"/>
       <c r="B102" s="37">
         <v>3</v>
@@ -7510,8 +7542,12 @@
         <f>1-Dati_OPTN!$D102</f>
         <v>0.122</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H102">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="36"/>
       <c r="B103" s="37">
         <v>5</v>
@@ -7526,8 +7562,12 @@
         <f>1-Dati_OPTN!$D103</f>
         <v>0.21499999999999997</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H103">
+        <f t="shared" si="11"/>
+        <v>60520</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
         <v>25</v>
       </c>
@@ -7544,8 +7584,12 @@
         <f>1-Dati_OPTN!$D104</f>
         <v>5.600000000000005E-2</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H104">
+        <f t="shared" si="11"/>
+        <v>5616</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="36"/>
       <c r="B105" s="37">
         <v>3</v>
@@ -7560,8 +7604,12 @@
         <f>1-Dati_OPTN!$D105</f>
         <v>0.124</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H105">
+        <f t="shared" si="11"/>
+        <v>24589</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="36"/>
       <c r="B106" s="37">
         <v>5</v>
@@ -7576,8 +7624,12 @@
         <f>1-Dati_OPTN!$D106</f>
         <v>0.22399999999999998</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H106">
+        <f t="shared" si="11"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
         <v>26</v>
       </c>
@@ -7594,8 +7646,12 @@
         <f>1-Dati_OPTN!$D107</f>
         <v>5.3000000000000047E-2</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H107">
+        <f t="shared" si="11"/>
+        <v>22795</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="36"/>
       <c r="B108" s="37">
         <v>3</v>
@@ -7610,8 +7666,12 @@
         <f>1-Dati_OPTN!$D108</f>
         <v>0.11799999999999999</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H108">
+        <f t="shared" si="11"/>
+        <v>1751</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="39">
         <v>5</v>
@@ -7625,6 +7685,10 @@
       <c r="E109" s="54">
         <f>1-Dati_OPTN!$D109</f>
         <v>0.19899999999999995</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="11"/>
+        <v>8967</v>
       </c>
     </row>
   </sheetData>
@@ -9339,11 +9403,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Q68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P53" sqref="P53:P65"/>
+    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11553,7 +11616,7 @@
         <v>0.48585402357217311</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="6"/>
       <c r="B50" s="56" t="s">
         <v>18</v>
@@ -11599,7 +11662,7 @@
         <v>0.56785714285714284</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="56" t="s">
         <v>20</v>
@@ -11645,7 +11708,7 @@
         <v>0.59841222645099901</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="6"/>
       <c r="B52" s="56" t="s">
         <v>22</v>
@@ -11743,7 +11806,7 @@
         <v>0.44958351600175361</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
       <c r="B54" s="56" t="s">
         <v>18</v>
@@ -11789,7 +11852,7 @@
         <v>0.52631578947368418</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="56" t="s">
         <v>20</v>
@@ -11835,7 +11898,7 @@
         <v>0.55256178931689659</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="6"/>
       <c r="B56" s="56" t="s">
         <v>22</v>
@@ -11933,7 +11996,7 @@
         <v>0.5436150119076949</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="56" t="s">
         <v>18</v>
@@ -11979,7 +12042,7 @@
         <v>0.5625</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="6"/>
       <c r="B59" s="56" t="s">
         <v>20</v>
@@ -12025,7 +12088,7 @@
         <v>0.67163599371127347</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="6"/>
       <c r="B60" s="56" t="s">
         <v>22</v>
@@ -12123,7 +12186,7 @@
         <v>0.44178469830813</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="56" t="s">
         <v>18</v>
@@ -12169,7 +12232,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="6"/>
       <c r="B63" s="56" t="s">
         <v>20</v>
@@ -12215,7 +12278,7 @@
         <v>0.54271655886671155</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="6"/>
       <c r="B64" s="56" t="s">
         <v>22</v>
@@ -12313,7 +12376,7 @@
         <v>0.62874839312843289</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="6"/>
       <c r="B66" s="56" t="s">
         <v>18</v>
@@ -12359,7 +12422,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="6"/>
       <c r="B67" s="56" t="s">
         <v>20</v>
@@ -12405,7 +12468,7 @@
         <v>0.79334916864608074</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="55"/>
       <c r="B68" s="57" t="s">
         <v>22</v>
@@ -12452,13 +12515,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="L48:P68" xr:uid="{00000000-0001-0000-0200-000000000000}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="All Types"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <mergeCells count="9">
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="G47:J47"/>
@@ -14213,32 +14269,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="131"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="142" t="s">
+      <c r="G1" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
+      <c r="H1" s="131"/>
+      <c r="I1" s="131"/>
+      <c r="J1" s="131"/>
+      <c r="K1" s="131"/>
+      <c r="L1" s="131"/>
+      <c r="M1" s="131"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="134"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
@@ -14249,11 +14305,11 @@
       <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
+      <c r="I2" s="132"/>
+      <c r="J2" s="132"/>
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
@@ -14268,10 +14324,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="131"/>
+      <c r="C3" s="133"/>
       <c r="D3">
         <f>Dati_OPTN!C53/(Dati_OPTN!C7+Dati_OPTN!P76)</f>
         <v>8.022815115013697E-2</v>
@@ -14283,11 +14339,11 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
+      <c r="I3" s="133"/>
+      <c r="J3" s="133"/>
       <c r="K3">
         <f>Dati_OPTN!P76/(Dati_OPTN!C53+Dati_OPTN!C7)</f>
         <v>0.28016187130341974</v>
@@ -14304,10 +14360,10 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="131"/>
+      <c r="C4" s="133"/>
       <c r="D4">
         <f>Dati_OPTN!C57/(Dati_OPTN!C11+Dati_OPTN!P80)</f>
         <v>6.2610333058726611E-2</v>
@@ -14319,11 +14375,11 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
+      <c r="I4" s="133"/>
+      <c r="J4" s="133"/>
       <c r="K4">
         <f>Dati_OPTN!P80/(Dati_OPTN!C57+Dati_OPTN!C11)</f>
         <v>0.24349263186888859</v>
@@ -14340,10 +14396,10 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="131"/>
+      <c r="C5" s="133"/>
       <c r="D5">
         <f>Dati_OPTN!C61/(Dati_OPTN!C15+Dati_OPTN!P84)</f>
         <v>8.022640580780116E-2</v>
@@ -14355,11 +14411,11 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
+      <c r="I5" s="133"/>
+      <c r="J5" s="133"/>
       <c r="K5">
         <f>Dati_OPTN!P84/(Dati_OPTN!C61+Dati_OPTN!C15)</f>
         <v>0.29046009113626342</v>
@@ -14376,10 +14432,10 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="133" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="131"/>
+      <c r="C6" s="133"/>
       <c r="D6">
         <f>Dati_OPTN!C65/(Dati_OPTN!C19+Dati_OPTN!P88)</f>
         <v>5.2356020942408377E-2</v>
@@ -14391,11 +14447,11 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="133" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="133"/>
       <c r="K6">
         <f>Dati_OPTN!P88/(Dati_OPTN!C65+Dati_OPTN!C19)</f>
         <v>0.18794326241134751</v>
@@ -14412,25 +14468,25 @@
       <c r="C7" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="134" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="I9" s="140" t="s">
+      <c r="B9" s="134"/>
+      <c r="C9" s="134"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
+      <c r="G9" s="134"/>
+      <c r="I9" s="134" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+      <c r="N9" s="134"/>
+      <c r="O9" s="134"/>
+      <c r="P9" s="134"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -14439,12 +14495,12 @@
       <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="133" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="133"/>
+      <c r="F10" s="133"/>
       <c r="G10">
         <f>Dati_OPTN!C8/365*(1-M3-E3)</f>
         <v>1.9239971433924447E-2</v>
@@ -14452,16 +14508,16 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="141" t="s">
+      <c r="J10" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="131" t="s">
+      <c r="K10" s="135"/>
+      <c r="L10" s="133" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="133"/>
+      <c r="O10" s="133"/>
       <c r="P10">
         <f>G10</f>
         <v>1.9239971433924447E-2</v>
@@ -14471,26 +14527,26 @@
       <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="133"/>
+      <c r="F11" s="133"/>
       <c r="G11">
         <f>Dati_OPTN!C9/365*(1-M3-E3)</f>
         <v>15.587414751705209</v>
       </c>
-      <c r="J11" s="141" t="s">
+      <c r="J11" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="131" t="s">
+      <c r="K11" s="135"/>
+      <c r="L11" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="133"/>
+      <c r="O11" s="133"/>
       <c r="P11">
         <f>G11+G19</f>
         <v>20.586769434299157</v>
@@ -14503,12 +14559,12 @@
       <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="133"/>
       <c r="G12">
         <f>Dati_OPTN!C12/365*(1-M4-E4)</f>
         <v>9.6958091800653338E-3</v>
@@ -14516,16 +14572,16 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="141" t="s">
+      <c r="J12" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="141"/>
-      <c r="L12" s="131" t="s">
+      <c r="K12" s="135"/>
+      <c r="L12" s="133" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="133"/>
+      <c r="O12" s="133"/>
       <c r="P12">
         <f>G12</f>
         <v>9.6958091800653338E-3</v>
@@ -14535,26 +14591,26 @@
       <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="133" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="133"/>
       <c r="G13">
         <f>Dati_OPTN!C13/365*(1-M4-E4)</f>
         <v>9.6163035447887992</v>
       </c>
-      <c r="J13" s="141" t="s">
+      <c r="J13" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="131" t="s">
+      <c r="K13" s="135"/>
+      <c r="L13" s="133" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="133"/>
+      <c r="O13" s="133"/>
       <c r="P13">
         <f>G13+G20</f>
         <v>13.038924185351863</v>
@@ -14567,12 +14623,12 @@
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="133" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
       <c r="G14">
         <f>Dati_OPTN!C16/365*(1-M5-E5)</f>
         <v>6.2825617275598716E-3</v>
@@ -14580,16 +14636,16 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="141" t="s">
+      <c r="J14" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="141"/>
-      <c r="L14" s="131" t="s">
+      <c r="K14" s="135"/>
+      <c r="L14" s="133" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="133"/>
+      <c r="O14" s="133"/>
       <c r="P14">
         <f>G14</f>
         <v>6.2825617275598716E-3</v>
@@ -14599,26 +14655,26 @@
       <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="133" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="133"/>
+      <c r="F15" s="133"/>
       <c r="G15">
         <f>Dati_OPTN!C17/365*(1-M5-E5)</f>
         <v>2.947777962571092</v>
       </c>
-      <c r="J15" s="141" t="s">
+      <c r="J15" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="131" t="s">
+      <c r="K15" s="135"/>
+      <c r="L15" s="133" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="133"/>
+      <c r="O15" s="133"/>
       <c r="P15">
         <f>G15+G21</f>
         <v>3.8581211568945175</v>
@@ -14631,12 +14687,12 @@
       <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="133" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="133"/>
+      <c r="F16" s="133"/>
       <c r="G16">
         <f>Dati_OPTN!C20/365*(1-M6-E6)</f>
         <v>1.3134285843629813E-3</v>
@@ -14644,16 +14700,16 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="141" t="s">
+      <c r="J16" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="141"/>
-      <c r="L16" s="131" t="s">
+      <c r="K16" s="135"/>
+      <c r="L16" s="133" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="133"/>
+      <c r="O16" s="133"/>
       <c r="P16">
         <f>G16</f>
         <v>1.3134285843629813E-3</v>
@@ -14663,52 +14719,52 @@
       <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="133" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="133"/>
+      <c r="F17" s="133"/>
       <c r="G17">
         <f>Dati_OPTN!C21/365*(1-M6-E6)</f>
         <v>0.76178857893052909</v>
       </c>
-      <c r="J17" s="141" t="s">
+      <c r="J17" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="131" t="s">
+      <c r="K17" s="135"/>
+      <c r="L17" s="133" t="s">
         <v>95</v>
       </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="133"/>
+      <c r="O17" s="133"/>
       <c r="P17">
         <f>G17+G22</f>
         <v>1.0441757245685701</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="134" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="I18" s="140" t="s">
+      <c r="B18" s="134"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="134"/>
+      <c r="E18" s="134"/>
+      <c r="F18" s="134"/>
+      <c r="G18" s="134"/>
+      <c r="I18" s="134" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
+      <c r="J18" s="134"/>
+      <c r="K18" s="134"/>
+      <c r="L18" s="134"/>
+      <c r="M18" s="134"/>
+      <c r="N18" s="134"/>
+      <c r="O18" s="134"/>
+      <c r="P18" s="134"/>
+      <c r="Q18" s="134"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
@@ -14719,12 +14775,12 @@
       <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="133" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="133"/>
+      <c r="F19" s="133"/>
       <c r="G19">
         <f>Dati_OPTN!C10/365*(1-M3-E3)</f>
         <v>4.999354682593947</v>
@@ -14732,15 +14788,15 @@
       <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="131" t="s">
+      <c r="J19" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
+      <c r="K19" s="133"/>
+      <c r="L19" s="133"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="133"/>
+      <c r="O19" s="133"/>
+      <c r="P19" s="133"/>
       <c r="Q19">
         <f>G10+G11+G19</f>
         <v>20.606009405733079</v>
@@ -14753,12 +14809,12 @@
       <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="133" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="133"/>
+      <c r="F20" s="133"/>
       <c r="G20">
         <f>Dati_OPTN!C14/365*(1-M4-E4)</f>
         <v>3.4226206405630637</v>
@@ -14766,15 +14822,15 @@
       <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="131" t="s">
+      <c r="J20" s="133" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="133"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="133"/>
+      <c r="O20" s="133"/>
+      <c r="P20" s="133"/>
       <c r="Q20">
         <f>G12+G13+G20</f>
         <v>13.048619994531929</v>
@@ -14787,12 +14843,12 @@
       <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="133" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="133"/>
+      <c r="F21" s="133"/>
       <c r="G21">
         <f>Dati_OPTN!C18/365*(1-M5-E5)</f>
         <v>0.91034319432342548</v>
@@ -14800,15 +14856,15 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="131" t="s">
+      <c r="J21" s="133" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
+      <c r="K21" s="133"/>
+      <c r="L21" s="133"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="133"/>
+      <c r="O21" s="133"/>
+      <c r="P21" s="133"/>
       <c r="Q21">
         <f>G14+G15+G21</f>
         <v>3.8644037186220772</v>
@@ -14821,12 +14877,12 @@
       <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="133" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
       <c r="G22">
         <f>Dati_OPTN!C22/365*(1-M6-E6)</f>
         <v>0.28238714563804101</v>
@@ -14834,62 +14890,62 @@
       <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="131" t="s">
+      <c r="J22" s="133" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
+      <c r="K22" s="133"/>
+      <c r="L22" s="133"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="133"/>
+      <c r="O22" s="133"/>
+      <c r="P22" s="133"/>
       <c r="Q22">
         <f>G16+G17+G22</f>
         <v>1.0454891531529331</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="137" t="s">
+      <c r="A25" s="136" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="I25" s="137" t="s">
+      <c r="B25" s="136"/>
+      <c r="C25" s="136"/>
+      <c r="D25" s="136"/>
+      <c r="E25" s="136"/>
+      <c r="F25" s="136"/>
+      <c r="I25" s="136" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="Q25" s="137" t="s">
+      <c r="J25" s="136"/>
+      <c r="K25" s="136"/>
+      <c r="L25" s="136"/>
+      <c r="M25" s="136"/>
+      <c r="N25" s="136"/>
+      <c r="Q25" s="136" t="s">
         <v>109</v>
       </c>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="Y25" s="137" t="s">
+      <c r="R25" s="136"/>
+      <c r="S25" s="136"/>
+      <c r="T25" s="136"/>
+      <c r="U25" s="136"/>
+      <c r="V25" s="136"/>
+      <c r="Y25" s="136" t="s">
         <v>110</v>
       </c>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
+      <c r="Z25" s="136"/>
+      <c r="AA25" s="136"/>
+      <c r="AB25" s="136"/>
+      <c r="AC25" s="136"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
+      <c r="C26" s="132"/>
+      <c r="D26" s="132"/>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
@@ -14899,34 +14955,34 @@
       <c r="I26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="134" t="s">
+      <c r="J26" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
+      <c r="K26" s="132"/>
+      <c r="L26" s="132"/>
+      <c r="M26" s="132"/>
       <c r="N26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="134" t="s">
+      <c r="R26" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
+      <c r="S26" s="132"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
       <c r="V26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="134" t="s">
+      <c r="Z26" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="AA26" s="134"/>
+      <c r="AA26" s="132"/>
       <c r="AB26" s="2" t="s">
         <v>46</v>
       </c>
@@ -14938,11 +14994,11 @@
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="133" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
+      <c r="C27" s="133"/>
+      <c r="D27" s="133"/>
       <c r="E27">
         <f>Arrivi!D31/Arrivi!D29</f>
         <v>0.45980196406014429</v>
@@ -14954,12 +15010,12 @@
       <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="131" t="s">
+      <c r="J27" s="133" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="133"/>
+      <c r="M27" s="133"/>
       <c r="N27">
         <f>1/(2*E27*Arrivi!H31)</f>
         <v>9.2240298702594314E-2</v>
@@ -14967,12 +15023,12 @@
       <c r="Q27" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="131" t="s">
+      <c r="R27" s="133" t="s">
         <v>117</v>
       </c>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
+      <c r="S27" s="133"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
       <c r="V27">
         <f>1/(2*F27*Arrivi!H30)</f>
         <v>6.3479719307352522E-2</v>
@@ -14980,10 +15036,10 @@
       <c r="Y27" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="131" t="s">
+      <c r="Z27" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="AA27" s="131"/>
+      <c r="AA27" s="133"/>
       <c r="AB27">
         <f>E27*N27+F27*V27</f>
         <v>7.6703890200792421E-2</v>
@@ -14997,11 +15053,11 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="133" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
+      <c r="C28" s="133"/>
+      <c r="D28" s="133"/>
       <c r="E28">
         <f>Arrivi!D34/Arrivi!D32</f>
         <v>0.32570024570024569</v>
@@ -15013,12 +15069,12 @@
       <c r="I28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="131" t="s">
+      <c r="J28" s="133" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
+      <c r="K28" s="133"/>
+      <c r="L28" s="133"/>
+      <c r="M28" s="133"/>
       <c r="N28">
         <f>1/(2*E28*Arrivi!H34)</f>
         <v>0.29662846521470904</v>
@@ -15026,12 +15082,12 @@
       <c r="Q28" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="131" t="s">
+      <c r="R28" s="133" t="s">
         <v>121</v>
       </c>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
+      <c r="S28" s="133"/>
+      <c r="T28" s="133"/>
+      <c r="U28" s="133"/>
       <c r="V28">
         <f>1/(2*F28*Arrivi!H33)</f>
         <v>6.5580601925874338E-2</v>
@@ -15039,10 +15095,10 @@
       <c r="Y28" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="131" t="s">
+      <c r="Z28" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="AA28" s="131"/>
+      <c r="AA28" s="133"/>
       <c r="AB28">
         <f>E28*N28+F28*V28</f>
         <v>0.14083294776756458</v>
@@ -15056,11 +15112,11 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
+      <c r="C29" s="133"/>
+      <c r="D29" s="133"/>
       <c r="E29">
         <f>Arrivi!D37/Arrivi!D35</f>
         <v>0.3090813093980993</v>
@@ -15072,12 +15128,12 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="131" t="s">
+      <c r="J29" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="133"/>
+      <c r="M29" s="133"/>
       <c r="N29">
         <f>1/(2*E29*Arrivi!H37)</f>
         <v>1.0506397061594894</v>
@@ -15085,12 +15141,12 @@
       <c r="Q29" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="131" t="s">
+      <c r="R29" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
+      <c r="S29" s="133"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
       <c r="V29">
         <f>1/(2*F29*Arrivi!H36)</f>
         <v>0.20117369900147355</v>
@@ -15098,10 +15154,10 @@
       <c r="Y29" t="s">
         <v>25</v>
       </c>
-      <c r="Z29" s="131" t="s">
+      <c r="Z29" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="AA29" s="131"/>
+      <c r="AA29" s="133"/>
       <c r="AB29">
         <f>E29*N29+F29*V29</f>
         <v>0.46372776478304834</v>
@@ -15115,11 +15171,11 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="133" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
+      <c r="C30" s="133"/>
+      <c r="D30" s="133"/>
       <c r="E30">
         <f>Arrivi!D40/Arrivi!D38</f>
         <v>0.20058626465661641</v>
@@ -15131,12 +15187,12 @@
       <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="131" t="s">
+      <c r="J30" s="133" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="133"/>
+      <c r="M30" s="133"/>
       <c r="N30">
         <f>1/(2*E30*Arrivi!H40)</f>
         <v>8.1235087980912617</v>
@@ -15144,12 +15200,12 @@
       <c r="Q30" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="131" t="s">
+      <c r="R30" s="133" t="s">
         <v>127</v>
       </c>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
+      <c r="S30" s="133"/>
+      <c r="T30" s="133"/>
+      <c r="U30" s="133"/>
       <c r="V30">
         <f>1/(2*F30*Arrivi!H39)</f>
         <v>0.58536487085465616</v>
@@ -15157,10 +15213,10 @@
       <c r="Y30" t="s">
         <v>26</v>
       </c>
-      <c r="Z30" s="131" t="s">
+      <c r="Z30" s="133" t="s">
         <v>118</v>
       </c>
-      <c r="AA30" s="131"/>
+      <c r="AA30" s="133"/>
       <c r="AB30">
         <f>E30*N30+F30*V30</f>
         <v>2.0974130036630036</v>
@@ -15171,27 +15227,27 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
-      <c r="F33" s="139" t="s">
+      <c r="B33" s="137"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="F33" s="138" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="138"/>
+      <c r="I33" s="138"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="135" t="s">
+      <c r="B34" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="135"/>
+      <c r="C34" s="139"/>
       <c r="D34">
         <f>Q19*AB27</f>
         <v>1.5805610829338461</v>
@@ -15199,10 +15255,10 @@
       <c r="F34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="131" t="s">
+      <c r="G34" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="131"/>
+      <c r="H34" s="133"/>
       <c r="I34">
         <f>1/(2*E27*F27)-1</f>
         <v>1.0130111547150507</v>
@@ -15212,10 +15268,10 @@
       <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="135"/>
+      <c r="C35" s="139"/>
       <c r="D35">
         <f>Q20*AB28</f>
         <v>1.8376756181287139</v>
@@ -15223,10 +15279,10 @@
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="131" t="s">
+      <c r="G35" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="131"/>
+      <c r="H35" s="133"/>
       <c r="I35">
         <f>1/(2*E28*F28)-1</f>
         <v>1.2766638765442981</v>
@@ -15236,10 +15292,10 @@
       <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="135"/>
+      <c r="C36" s="139"/>
       <c r="D36">
         <f>Q21*AB29</f>
         <v>1.7920312986559159</v>
@@ -15247,10 +15303,10 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="131" t="s">
+      <c r="G36" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="131"/>
+      <c r="H36" s="133"/>
       <c r="I36">
         <f>1/(2*E29*F29)-1</f>
         <v>1.3413714565768982</v>
@@ -15260,10 +15316,10 @@
       <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="135" t="s">
+      <c r="B37" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="135"/>
+      <c r="C37" s="139"/>
       <c r="D37">
         <f>Q22*AB30</f>
         <v>2.1928225450115835</v>
@@ -15271,22 +15327,22 @@
       <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="131" t="s">
+      <c r="G37" s="133" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="131"/>
+      <c r="H37" s="133"/>
       <c r="I37">
         <f>1/(2*E30*F30)-1</f>
         <v>2.1181514658069514</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
+      <c r="B40" s="137"/>
+      <c r="C40" s="137"/>
+      <c r="D40" s="137"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -15419,42 +15475,42 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="138" t="s">
+      <c r="A51" s="140" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="138"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="138"/>
-      <c r="M51" s="138"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="138"/>
+      <c r="B51" s="140"/>
+      <c r="C51" s="140"/>
+      <c r="D51" s="140"/>
+      <c r="E51" s="140"/>
+      <c r="F51" s="140"/>
+      <c r="G51" s="140"/>
+      <c r="H51" s="140"/>
+      <c r="I51" s="140"/>
+      <c r="J51" s="140"/>
+      <c r="K51" s="140"/>
+      <c r="L51" s="140"/>
+      <c r="M51" s="140"/>
+      <c r="N51" s="140"/>
+      <c r="O51" s="140"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="133" t="s">
+      <c r="A52" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="I52" s="133" t="s">
+      <c r="B52" s="141"/>
+      <c r="C52" s="141"/>
+      <c r="D52" s="141"/>
+      <c r="E52" s="141"/>
+      <c r="F52" s="141"/>
+      <c r="I52" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="133"/>
+      <c r="J52" s="141"/>
+      <c r="K52" s="141"/>
+      <c r="L52" s="141"/>
+      <c r="M52" s="141"/>
+      <c r="N52" s="141"/>
+      <c r="O52" s="141"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -15463,26 +15519,26 @@
       <c r="B53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="134" t="s">
+      <c r="C53" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="132"/>
       <c r="F53" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="134" t="s">
+      <c r="J53" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="K53" s="134"/>
-      <c r="L53" s="134" t="s">
+      <c r="K53" s="132"/>
+      <c r="L53" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="134"/>
-      <c r="N53" s="134"/>
+      <c r="M53" s="132"/>
+      <c r="N53" s="132"/>
       <c r="O53" s="2" t="s">
         <v>146</v>
       </c>
@@ -15494,11 +15550,11 @@
       <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
+      <c r="D54" s="133"/>
+      <c r="E54" s="133"/>
       <c r="F54">
         <f>(D34*AB27*(1+I34))/(2*(1-D42))</f>
         <v>0.1222042352739537</v>
@@ -15506,15 +15562,15 @@
       <c r="I54" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="131" t="s">
+      <c r="J54" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131" t="s">
+      <c r="K54" s="133"/>
+      <c r="L54" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="131"/>
-      <c r="N54" s="131"/>
+      <c r="M54" s="133"/>
+      <c r="N54" s="133"/>
       <c r="O54">
         <f>F54+AB27</f>
         <v>0.19890812547474612</v>
@@ -15524,32 +15580,32 @@
       <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="131" t="s">
+      <c r="C55" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
+      <c r="D55" s="133"/>
+      <c r="E55" s="133"/>
       <c r="F55">
         <f>(D34*AB27*(1+I34))/(2*(1-D42)*(1-D34))</f>
         <v>-0.21049332941229656</v>
       </c>
-      <c r="J55" s="131" t="s">
+      <c r="J55" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="131"/>
-      <c r="L55" s="131" t="s">
+      <c r="K55" s="133"/>
+      <c r="L55" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="M55" s="131"/>
-      <c r="N55" s="131"/>
+      <c r="M55" s="133"/>
+      <c r="N55" s="133"/>
       <c r="O55">
         <f>F55+AB27</f>
         <v>-0.13378943921150416</v>
       </c>
-      <c r="S55" s="132" t="s">
+      <c r="S55" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="T55" s="132"/>
+      <c r="T55" s="142"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -15558,11 +15614,11 @@
       <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
+      <c r="D56" s="133"/>
+      <c r="E56" s="133"/>
       <c r="F56">
         <f>(D35*AB28*(1+I35))/(2*(1-D44))</f>
         <v>0.29500914142831403</v>
@@ -15570,15 +15626,15 @@
       <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="131" t="s">
+      <c r="J56" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K56" s="131"/>
-      <c r="L56" s="131" t="s">
+      <c r="K56" s="133"/>
+      <c r="L56" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="M56" s="131"/>
-      <c r="N56" s="131"/>
+      <c r="M56" s="133"/>
+      <c r="N56" s="133"/>
       <c r="O56">
         <f>F56+AB28</f>
         <v>0.43584208919587863</v>
@@ -15595,24 +15651,24 @@
       <c r="B57" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="131" t="s">
+      <c r="C57" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
+      <c r="D57" s="133"/>
+      <c r="E57" s="133"/>
       <c r="F57">
         <f>(D35*AB28*(1+I35))/(2*(1-D44)*(1-D35))</f>
         <v>-0.3521758721918346</v>
       </c>
-      <c r="J57" s="131" t="s">
+      <c r="J57" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K57" s="131"/>
-      <c r="L57" s="131" t="s">
+      <c r="K57" s="133"/>
+      <c r="L57" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="M57" s="131"/>
-      <c r="N57" s="131"/>
+      <c r="M57" s="133"/>
+      <c r="N57" s="133"/>
       <c r="O57">
         <f>F57+AB28</f>
         <v>-0.21134292442427002</v>
@@ -15632,11 +15688,11 @@
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
+      <c r="D58" s="133"/>
+      <c r="E58" s="133"/>
       <c r="F58">
         <f>(D36*AB29*(1+I36))/(2*(1-D46))</f>
         <v>0.97569961407009964</v>
@@ -15644,15 +15700,15 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="131" t="s">
+      <c r="J58" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="131"/>
-      <c r="L58" s="131" t="s">
+      <c r="K58" s="133"/>
+      <c r="L58" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="M58" s="131"/>
-      <c r="N58" s="131"/>
+      <c r="M58" s="133"/>
+      <c r="N58" s="133"/>
       <c r="O58">
         <f>F58+AB29</f>
         <v>1.439427378853148</v>
@@ -15669,24 +15725,24 @@
       <c r="B59" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="131" t="s">
+      <c r="C59" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
+      <c r="D59" s="133"/>
+      <c r="E59" s="133"/>
       <c r="F59">
         <f>(D36*AB29*(1+I36))/(2*(1-D46)*(1-D36))</f>
         <v>-1.2318952744997205</v>
       </c>
-      <c r="J59" s="131" t="s">
+      <c r="J59" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131" t="s">
+      <c r="K59" s="133"/>
+      <c r="L59" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="M59" s="131"/>
-      <c r="N59" s="131"/>
+      <c r="M59" s="133"/>
+      <c r="N59" s="133"/>
       <c r="O59">
         <f>F59+AB29</f>
         <v>-0.76816750971667214</v>
@@ -15706,11 +15762,11 @@
       <c r="B60" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="131" t="s">
+      <c r="C60" s="133" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
+      <c r="D60" s="133"/>
+      <c r="E60" s="133"/>
       <c r="F60">
         <f>(D37*AB30*(1+I37))/(2*(1-D48))</f>
         <v>7.1903942263427414</v>
@@ -15718,15 +15774,15 @@
       <c r="I60" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="131" t="s">
+      <c r="J60" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="K60" s="131"/>
-      <c r="L60" s="131" t="s">
+      <c r="K60" s="133"/>
+      <c r="L60" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="M60" s="131"/>
-      <c r="N60" s="131"/>
+      <c r="M60" s="133"/>
+      <c r="N60" s="133"/>
       <c r="O60">
         <f>F60+AB30</f>
         <v>9.287807230005745</v>
@@ -15736,71 +15792,71 @@
       <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="131" t="s">
+      <c r="C61" s="133" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
+      <c r="D61" s="133"/>
+      <c r="E61" s="133"/>
       <c r="F61">
         <f>(D37*AB30*(1+I37))/(2*(1-D48)*(1-D37))</f>
         <v>-6.0280502379948864</v>
       </c>
-      <c r="J61" s="131" t="s">
+      <c r="J61" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="131"/>
-      <c r="L61" s="131" t="s">
+      <c r="K61" s="133"/>
+      <c r="L61" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="M61" s="131"/>
-      <c r="N61" s="131"/>
+      <c r="M61" s="133"/>
+      <c r="N61" s="133"/>
       <c r="O61">
         <f>F61+AB30</f>
         <v>-3.9306372343318827</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="I62" s="133" t="s">
+      <c r="B62" s="141"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="141"/>
+      <c r="I62" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="133"/>
-      <c r="N62" s="133"/>
-      <c r="O62" s="133"/>
+      <c r="J62" s="141"/>
+      <c r="K62" s="141"/>
+      <c r="L62" s="141"/>
+      <c r="M62" s="141"/>
+      <c r="N62" s="141"/>
+      <c r="O62" s="141"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="134" t="s">
+      <c r="B63" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
+      <c r="C63" s="132"/>
+      <c r="D63" s="132"/>
+      <c r="E63" s="132"/>
       <c r="F63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J63" s="134" t="s">
+      <c r="J63" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="134"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
-      <c r="N63" s="134"/>
+      <c r="K63" s="132"/>
+      <c r="L63" s="132"/>
+      <c r="M63" s="132"/>
+      <c r="N63" s="132"/>
       <c r="O63" s="2" t="s">
         <v>146</v>
       </c>
@@ -15809,12 +15865,12 @@
       <c r="A64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="131" t="s">
+      <c r="B64" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="131"/>
+      <c r="C64" s="133"/>
+      <c r="D64" s="133"/>
+      <c r="E64" s="133"/>
       <c r="F64">
         <f>C42*F54+C43*F55</f>
         <v>-0.21018268742846255</v>
@@ -15822,13 +15878,13 @@
       <c r="I64" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="131" t="s">
+      <c r="J64" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="131"/>
-      <c r="L64" s="131"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="131"/>
+      <c r="K64" s="133"/>
+      <c r="L64" s="133"/>
+      <c r="M64" s="133"/>
+      <c r="N64" s="133"/>
       <c r="O64">
         <f>C42*O54+C43*O55</f>
         <v>-0.13347879722767014</v>
@@ -15838,12 +15894,12 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="131" t="s">
+      <c r="B65" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="131"/>
+      <c r="C65" s="133"/>
+      <c r="D65" s="133"/>
+      <c r="E65" s="133"/>
       <c r="F65">
         <f>C44*F56+C45*F57</f>
         <v>-0.35169497977571024</v>
@@ -15851,13 +15907,13 @@
       <c r="I65" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="131" t="s">
+      <c r="J65" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="K65" s="131"/>
-      <c r="L65" s="131"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
+      <c r="K65" s="133"/>
+      <c r="L65" s="133"/>
+      <c r="M65" s="133"/>
+      <c r="N65" s="133"/>
       <c r="O65">
         <f>C44*O56+C45*O57</f>
         <v>-0.21086203200814566</v>
@@ -15867,12 +15923,12 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="131"/>
-      <c r="D66" s="131"/>
-      <c r="E66" s="131"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="133"/>
+      <c r="E66" s="133"/>
       <c r="F66">
         <f>C46*F58+C47*F59</f>
         <v>-1.2283062728925513</v>
@@ -15880,13 +15936,13 @@
       <c r="I66" t="s">
         <v>25</v>
       </c>
-      <c r="J66" s="131" t="s">
+      <c r="J66" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="131"/>
-      <c r="L66" s="131"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="131"/>
+      <c r="K66" s="133"/>
+      <c r="L66" s="133"/>
+      <c r="M66" s="133"/>
+      <c r="N66" s="133"/>
       <c r="O66">
         <f>C46*O58+C47*O59</f>
         <v>-0.7645785081095029</v>
@@ -15896,12 +15952,12 @@
       <c r="A67" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="131" t="s">
+      <c r="B67" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131"/>
+      <c r="C67" s="133"/>
+      <c r="D67" s="133"/>
+      <c r="E67" s="133"/>
       <c r="F67">
         <f>C48*F60+C49*F61</f>
         <v>-6.0114441519844126</v>
@@ -15909,36 +15965,36 @@
       <c r="I67" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="131" t="s">
+      <c r="J67" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="131"/>
-      <c r="L67" s="131"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="131"/>
+      <c r="K67" s="133"/>
+      <c r="L67" s="133"/>
+      <c r="M67" s="133"/>
+      <c r="N67" s="133"/>
       <c r="O67">
         <f>C48*O60+C49*O61</f>
         <v>-3.9140311483214085</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="133" t="s">
+      <c r="A70" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="133"/>
-      <c r="C70" s="133"/>
-      <c r="D70" s="133"/>
-      <c r="E70" s="133"/>
-      <c r="F70" s="133"/>
-      <c r="I70" s="133" t="s">
+      <c r="B70" s="141"/>
+      <c r="C70" s="141"/>
+      <c r="D70" s="141"/>
+      <c r="E70" s="141"/>
+      <c r="F70" s="141"/>
+      <c r="I70" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
-      <c r="L70" s="133"/>
-      <c r="M70" s="133"/>
-      <c r="N70" s="133"/>
-      <c r="O70" s="133"/>
+      <c r="J70" s="141"/>
+      <c r="K70" s="141"/>
+      <c r="L70" s="141"/>
+      <c r="M70" s="141"/>
+      <c r="N70" s="141"/>
+      <c r="O70" s="141"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -15947,26 +16003,26 @@
       <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="134" t="s">
+      <c r="C71" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="134"/>
-      <c r="E71" s="134"/>
+      <c r="D71" s="132"/>
+      <c r="E71" s="132"/>
       <c r="F71" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="134" t="s">
+      <c r="J71" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="K71" s="134"/>
-      <c r="L71" s="134" t="s">
+      <c r="K71" s="132"/>
+      <c r="L71" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="M71" s="134"/>
-      <c r="N71" s="134"/>
+      <c r="M71" s="132"/>
+      <c r="N71" s="132"/>
       <c r="O71" s="2" t="s">
         <v>159</v>
       </c>
@@ -15978,11 +16034,11 @@
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="131" t="s">
+      <c r="C72" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="131"/>
-      <c r="E72" s="131"/>
+      <c r="D72" s="133"/>
+      <c r="E72" s="133"/>
       <c r="F72">
         <f t="shared" ref="F72:F79" si="0">P10*F54</f>
         <v>2.3512059957754516E-3</v>
@@ -15990,15 +16046,15 @@
       <c r="I72" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="131" t="s">
+      <c r="J72" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K72" s="131"/>
-      <c r="L72" s="131" t="s">
+      <c r="K72" s="133"/>
+      <c r="L72" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="M72" s="131"/>
-      <c r="N72" s="131"/>
+      <c r="M72" s="133"/>
+      <c r="N72" s="133"/>
       <c r="O72">
         <f t="shared" ref="O72:O79" si="1">P10*O54</f>
         <v>3.8269866521095748E-3</v>
@@ -16008,24 +16064,24 @@
       <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="131" t="s">
+      <c r="C73" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="131"/>
-      <c r="E73" s="131"/>
+      <c r="D73" s="133"/>
+      <c r="E73" s="133"/>
       <c r="F73">
         <f t="shared" si="0"/>
         <v>-4.3333776400689308</v>
       </c>
-      <c r="J73" s="131" t="s">
+      <c r="J73" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K73" s="131"/>
-      <c r="L73" s="131" t="s">
+      <c r="K73" s="133"/>
+      <c r="L73" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="M73" s="131"/>
-      <c r="N73" s="131"/>
+      <c r="M73" s="133"/>
+      <c r="N73" s="133"/>
       <c r="O73">
         <f t="shared" si="1"/>
         <v>-2.7542923377914188</v>
@@ -16038,11 +16094,11 @@
       <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="131" t="s">
+      <c r="C74" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="131"/>
-      <c r="E74" s="131"/>
+      <c r="D74" s="133"/>
+      <c r="E74" s="133"/>
       <c r="F74">
         <f t="shared" si="0"/>
         <v>2.8603523416638396E-3</v>
@@ -16050,15 +16106,15 @@
       <c r="I74" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="131" t="s">
+      <c r="J74" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K74" s="131"/>
-      <c r="L74" s="131" t="s">
+      <c r="K74" s="133"/>
+      <c r="L74" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="M74" s="131"/>
-      <c r="N74" s="131"/>
+      <c r="M74" s="133"/>
+      <c r="N74" s="133"/>
       <c r="O74">
         <f t="shared" si="1"/>
         <v>4.2258417294842544E-3</v>
@@ -16068,24 +16124,24 @@
       <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="131" t="s">
+      <c r="C75" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="131"/>
-      <c r="E75" s="131"/>
+      <c r="D75" s="133"/>
+      <c r="E75" s="133"/>
       <c r="F75">
         <f t="shared" si="0"/>
         <v>-4.5919944974194991</v>
       </c>
-      <c r="J75" s="131" t="s">
+      <c r="J75" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K75" s="131"/>
-      <c r="L75" s="131" t="s">
+      <c r="K75" s="133"/>
+      <c r="L75" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="M75" s="131"/>
-      <c r="N75" s="131"/>
+      <c r="M75" s="133"/>
+      <c r="N75" s="133"/>
       <c r="O75">
         <f t="shared" si="1"/>
         <v>-2.7556843686786054</v>
@@ -16098,11 +16154,11 @@
       <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="131" t="s">
+      <c r="C76" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="131"/>
-      <c r="E76" s="131"/>
+      <c r="D76" s="133"/>
+      <c r="E76" s="133"/>
       <c r="F76">
         <f t="shared" si="0"/>
         <v>6.1298930529517454E-3</v>
@@ -16110,15 +16166,15 @@
       <c r="I76" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="131" t="s">
+      <c r="J76" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K76" s="131"/>
-      <c r="L76" s="131" t="s">
+      <c r="K76" s="133"/>
+      <c r="L76" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="M76" s="131"/>
-      <c r="N76" s="131"/>
+      <c r="M76" s="133"/>
+      <c r="N76" s="133"/>
       <c r="O76">
         <f t="shared" si="1"/>
         <v>9.0432913599846117E-3</v>
@@ -16128,24 +16184,24 @@
       <c r="B77" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="131" t="s">
+      <c r="C77" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="131"/>
-      <c r="E77" s="131"/>
+      <c r="D77" s="133"/>
+      <c r="E77" s="133"/>
       <c r="F77">
         <f t="shared" si="0"/>
         <v>-4.7528012216257505</v>
       </c>
-      <c r="J77" s="131" t="s">
+      <c r="J77" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K77" s="131"/>
-      <c r="L77" s="131" t="s">
+      <c r="K77" s="133"/>
+      <c r="L77" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="M77" s="131"/>
-      <c r="N77" s="131"/>
+      <c r="M77" s="133"/>
+      <c r="N77" s="133"/>
       <c r="O77">
         <f t="shared" si="1"/>
         <v>-2.9636833212768678</v>
@@ -16158,11 +16214,11 @@
       <c r="B78" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="131" t="s">
+      <c r="C78" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="131"/>
-      <c r="E78" s="131"/>
+      <c r="D78" s="133"/>
+      <c r="E78" s="133"/>
       <c r="F78">
         <f t="shared" si="0"/>
         <v>9.444069309717102E-3</v>
@@ -16170,15 +16226,15 @@
       <c r="I78" t="s">
         <v>26</v>
       </c>
-      <c r="J78" s="131" t="s">
+      <c r="J78" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="K78" s="131"/>
-      <c r="L78" s="131" t="s">
+      <c r="K78" s="133"/>
+      <c r="L78" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="M78" s="131"/>
-      <c r="N78" s="131"/>
+      <c r="M78" s="133"/>
+      <c r="N78" s="133"/>
       <c r="O78">
         <f t="shared" si="1"/>
         <v>1.219887150194271E-2</v>
@@ -16188,71 +16244,71 @@
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="133" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
+      <c r="D79" s="133"/>
+      <c r="E79" s="133"/>
       <c r="F79">
         <f t="shared" si="0"/>
         <v>-6.2943437249940519</v>
       </c>
-      <c r="J79" s="131" t="s">
+      <c r="J79" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K79" s="131"/>
-      <c r="L79" s="131" t="s">
+      <c r="K79" s="133"/>
+      <c r="L79" s="133" t="s">
         <v>175</v>
       </c>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
+      <c r="M79" s="133"/>
+      <c r="N79" s="133"/>
       <c r="O79">
         <f t="shared" si="1"/>
         <v>-4.1042759821746939</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="133" t="s">
+      <c r="A80" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="133"/>
-      <c r="E80" s="133"/>
-      <c r="F80" s="133"/>
-      <c r="I80" s="133" t="s">
+      <c r="B80" s="141"/>
+      <c r="C80" s="141"/>
+      <c r="D80" s="141"/>
+      <c r="E80" s="141"/>
+      <c r="F80" s="141"/>
+      <c r="I80" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="J80" s="133"/>
-      <c r="K80" s="133"/>
-      <c r="L80" s="133"/>
-      <c r="M80" s="133"/>
-      <c r="N80" s="133"/>
-      <c r="O80" s="133"/>
+      <c r="J80" s="141"/>
+      <c r="K80" s="141"/>
+      <c r="L80" s="141"/>
+      <c r="M80" s="141"/>
+      <c r="N80" s="141"/>
+      <c r="O80" s="141"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="134" t="s">
+      <c r="B81" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="134"/>
-      <c r="D81" s="134"/>
-      <c r="E81" s="134"/>
+      <c r="C81" s="132"/>
+      <c r="D81" s="132"/>
+      <c r="E81" s="132"/>
       <c r="F81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J81" s="134" t="s">
+      <c r="J81" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="K81" s="134"/>
-      <c r="L81" s="134"/>
-      <c r="M81" s="134"/>
-      <c r="N81" s="134"/>
+      <c r="K81" s="132"/>
+      <c r="L81" s="132"/>
+      <c r="M81" s="132"/>
+      <c r="N81" s="132"/>
       <c r="O81" s="2" t="s">
         <v>159</v>
       </c>
@@ -16261,12 +16317,12 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="131" t="s">
+      <c r="B82" s="133" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
+      <c r="C82" s="133"/>
+      <c r="D82" s="133"/>
+      <c r="E82" s="133"/>
       <c r="F82">
         <f>Q19*F64</f>
         <v>-4.3310264340731548</v>
@@ -16274,13 +16330,13 @@
       <c r="I82" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="131" t="s">
+      <c r="J82" s="133" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="131"/>
-      <c r="L82" s="131"/>
-      <c r="M82" s="131"/>
-      <c r="N82" s="131"/>
+      <c r="K82" s="133"/>
+      <c r="L82" s="133"/>
+      <c r="M82" s="133"/>
+      <c r="N82" s="133"/>
       <c r="O82">
         <f>Q19*O64</f>
         <v>-2.7504653511393093</v>
@@ -16290,12 +16346,12 @@
       <c r="A83" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="131" t="s">
+      <c r="B83" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="C83" s="133"/>
+      <c r="D83" s="133"/>
+      <c r="E83" s="133"/>
       <c r="F83">
         <f>Q20*F65</f>
         <v>-4.5891341450778347</v>
@@ -16303,13 +16359,13 @@
       <c r="I83" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="131" t="s">
+      <c r="J83" s="133" t="s">
         <v>181</v>
       </c>
-      <c r="K83" s="131"/>
-      <c r="L83" s="131"/>
-      <c r="M83" s="131"/>
-      <c r="N83" s="131"/>
+      <c r="K83" s="133"/>
+      <c r="L83" s="133"/>
+      <c r="M83" s="133"/>
+      <c r="N83" s="133"/>
       <c r="O83">
         <f>Q20*O65</f>
         <v>-2.7514585269491212</v>
@@ -16319,12 +16375,12 @@
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="131" t="s">
+      <c r="B84" s="133" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
+      <c r="C84" s="133"/>
+      <c r="D84" s="133"/>
+      <c r="E84" s="133"/>
       <c r="F84">
         <f>Q21*F66</f>
         <v>-4.7466713285727993</v>
@@ -16332,13 +16388,13 @@
       <c r="I84" t="s">
         <v>25</v>
       </c>
-      <c r="J84" s="131" t="s">
+      <c r="J84" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="K84" s="131"/>
-      <c r="L84" s="131"/>
-      <c r="M84" s="131"/>
-      <c r="N84" s="131"/>
+      <c r="K84" s="133"/>
+      <c r="L84" s="133"/>
+      <c r="M84" s="133"/>
+      <c r="N84" s="133"/>
       <c r="O84">
         <f>Q21*O66</f>
         <v>-2.9546400299168831</v>
@@ -16348,12 +16404,12 @@
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="131" t="s">
+      <c r="B85" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
+      <c r="C85" s="133"/>
+      <c r="D85" s="133"/>
+      <c r="E85" s="133"/>
       <c r="F85">
         <f>Q22*F67</f>
         <v>-6.2848996556843355</v>
@@ -16361,62 +16417,62 @@
       <c r="I85" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="131" t="s">
+      <c r="J85" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="K85" s="131"/>
-      <c r="L85" s="131"/>
-      <c r="M85" s="131"/>
-      <c r="N85" s="131"/>
+      <c r="K85" s="133"/>
+      <c r="L85" s="133"/>
+      <c r="M85" s="133"/>
+      <c r="N85" s="133"/>
       <c r="O85">
         <f>Q22*O67</f>
         <v>-4.0920771106727516</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="138" t="s">
+      <c r="A88" s="140" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="138"/>
-      <c r="C88" s="138"/>
-      <c r="D88" s="138"/>
-      <c r="E88" s="138"/>
-      <c r="F88" s="138"/>
-      <c r="G88" s="138"/>
-      <c r="H88" s="138"/>
-      <c r="I88" s="138"/>
-      <c r="J88" s="138"/>
-      <c r="K88" s="138"/>
-      <c r="L88" s="138"/>
-      <c r="M88" s="138"/>
-      <c r="N88" s="138"/>
-      <c r="O88" s="138"/>
+      <c r="B88" s="140"/>
+      <c r="C88" s="140"/>
+      <c r="D88" s="140"/>
+      <c r="E88" s="140"/>
+      <c r="F88" s="140"/>
+      <c r="G88" s="140"/>
+      <c r="H88" s="140"/>
+      <c r="I88" s="140"/>
+      <c r="J88" s="140"/>
+      <c r="K88" s="140"/>
+      <c r="L88" s="140"/>
+      <c r="M88" s="140"/>
+      <c r="N88" s="140"/>
+      <c r="O88" s="140"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="133" t="s">
+      <c r="A89" s="141" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="133"/>
-      <c r="C89" s="133"/>
-      <c r="D89" s="133"/>
-      <c r="E89" s="133"/>
-      <c r="F89" s="133"/>
-      <c r="I89" s="133" t="s">
+      <c r="B89" s="141"/>
+      <c r="C89" s="141"/>
+      <c r="D89" s="141"/>
+      <c r="E89" s="141"/>
+      <c r="F89" s="141"/>
+      <c r="I89" s="141" t="s">
         <v>143</v>
       </c>
-      <c r="J89" s="133"/>
-      <c r="K89" s="133"/>
-      <c r="L89" s="133"/>
-      <c r="M89" s="133"/>
-      <c r="N89" s="133"/>
-      <c r="O89" s="133"/>
-      <c r="R89" s="137" t="s">
+      <c r="J89" s="141"/>
+      <c r="K89" s="141"/>
+      <c r="L89" s="141"/>
+      <c r="M89" s="141"/>
+      <c r="N89" s="141"/>
+      <c r="O89" s="141"/>
+      <c r="R89" s="136" t="s">
         <v>187</v>
       </c>
-      <c r="S89" s="137"/>
-      <c r="T89" s="137"/>
-      <c r="U89" s="137"/>
-      <c r="V89" s="137"/>
+      <c r="S89" s="136"/>
+      <c r="T89" s="136"/>
+      <c r="U89" s="136"/>
+      <c r="V89" s="136"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -16425,36 +16481,36 @@
       <c r="B90" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="134" t="s">
+      <c r="C90" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="134"/>
-      <c r="E90" s="134"/>
+      <c r="D90" s="132"/>
+      <c r="E90" s="132"/>
       <c r="F90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J90" s="134" t="s">
+      <c r="J90" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="K90" s="134"/>
-      <c r="L90" s="134" t="s">
+      <c r="K90" s="132"/>
+      <c r="L90" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="M90" s="134"/>
-      <c r="N90" s="134"/>
+      <c r="M90" s="132"/>
+      <c r="N90" s="132"/>
       <c r="O90" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S90" s="134" t="s">
+      <c r="S90" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="T90" s="134"/>
+      <c r="T90" s="132"/>
       <c r="U90" s="2" t="s">
         <v>46</v>
       </c>
@@ -16469,11 +16525,11 @@
       <c r="B91" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="131" t="s">
+      <c r="C91" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="131"/>
-      <c r="E91" s="131"/>
+      <c r="D91" s="133"/>
+      <c r="E91" s="133"/>
       <c r="F91">
         <f>(U98*U91)/(1-U105)</f>
         <v>2.9654809037870895E-2</v>
@@ -16481,15 +16537,15 @@
       <c r="I91" t="s">
         <v>23</v>
       </c>
-      <c r="J91" s="131" t="s">
+      <c r="J91" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K91" s="131"/>
-      <c r="L91" s="131" t="s">
+      <c r="K91" s="133"/>
+      <c r="L91" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="M91" s="131"/>
-      <c r="N91" s="131"/>
+      <c r="M91" s="133"/>
+      <c r="N91" s="133"/>
       <c r="O91">
         <f>F91+U91</f>
         <v>6.7576886959948818E-2</v>
@@ -16497,10 +16553,10 @@
       <c r="R91" t="s">
         <v>23</v>
       </c>
-      <c r="S91" s="131" t="s">
+      <c r="S91" s="133" t="s">
         <v>189</v>
       </c>
-      <c r="T91" s="131"/>
+      <c r="T91" s="133"/>
       <c r="U91">
         <f>1/(Arrivi!H31+Arrivi!H30)</f>
         <v>3.7922077922077919E-2</v>
@@ -16514,24 +16570,24 @@
       <c r="B92" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="131" t="s">
+      <c r="C92" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
+      <c r="D92" s="133"/>
+      <c r="E92" s="133"/>
       <c r="F92">
         <f>(U98*U91)/((1-U105)*(1-U98))</f>
         <v>0.13567194887554843</v>
       </c>
-      <c r="J92" s="131" t="s">
+      <c r="J92" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K92" s="131"/>
-      <c r="L92" s="131" t="s">
+      <c r="K92" s="133"/>
+      <c r="L92" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="M92" s="131"/>
-      <c r="N92" s="131"/>
+      <c r="M92" s="133"/>
+      <c r="N92" s="133"/>
       <c r="O92">
         <f>F92+U91</f>
         <v>0.17359402679762634</v>
@@ -16539,10 +16595,10 @@
       <c r="R92" t="s">
         <v>24</v>
       </c>
-      <c r="S92" s="131" t="s">
+      <c r="S92" s="133" t="s">
         <v>191</v>
       </c>
-      <c r="T92" s="131"/>
+      <c r="T92" s="133"/>
       <c r="U92">
         <f>1/(Arrivi!H33+Arrivi!H34)</f>
         <v>6.0671542553191488E-2</v>
@@ -16559,11 +16615,11 @@
       <c r="B93" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="131" t="s">
+      <c r="C93" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="131"/>
-      <c r="E93" s="131"/>
+      <c r="D93" s="133"/>
+      <c r="E93" s="133"/>
       <c r="F93">
         <f>(U99*U92)/(1-U107)</f>
         <v>4.8060713119710698E-2</v>
@@ -16571,15 +16627,15 @@
       <c r="I93" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="131" t="s">
+      <c r="J93" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K93" s="131"/>
-      <c r="L93" s="131" t="s">
+      <c r="K93" s="133"/>
+      <c r="L93" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="M93" s="131"/>
-      <c r="N93" s="131"/>
+      <c r="M93" s="133"/>
+      <c r="N93" s="133"/>
       <c r="O93">
         <f>F93+U92</f>
         <v>0.10873225567290218</v>
@@ -16587,10 +16643,10 @@
       <c r="R93" t="s">
         <v>25</v>
       </c>
-      <c r="S93" s="131" t="s">
+      <c r="S93" s="133" t="s">
         <v>192</v>
       </c>
-      <c r="T93" s="131"/>
+      <c r="T93" s="133"/>
       <c r="U93">
         <f>1/(Arrivi!H36+Arrivi!H37)</f>
         <v>0.19466666666666668</v>
@@ -16604,24 +16660,24 @@
       <c r="B94" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="131" t="s">
+      <c r="C94" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="131"/>
-      <c r="E94" s="131"/>
+      <c r="D94" s="133"/>
+      <c r="E94" s="133"/>
       <c r="F94">
         <f>(U99*U92)/((1-U107)*(1-U99))</f>
         <v>0.23070608103349363</v>
       </c>
-      <c r="J94" s="131" t="s">
+      <c r="J94" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K94" s="131"/>
-      <c r="L94" s="131" t="s">
+      <c r="K94" s="133"/>
+      <c r="L94" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="M94" s="131"/>
-      <c r="N94" s="131"/>
+      <c r="M94" s="133"/>
+      <c r="N94" s="133"/>
       <c r="O94">
         <f>F94+U92</f>
         <v>0.29137762358668512</v>
@@ -16629,10 +16685,10 @@
       <c r="R94" t="s">
         <v>26</v>
       </c>
-      <c r="S94" s="131" t="s">
+      <c r="S94" s="133" t="s">
         <v>193</v>
       </c>
-      <c r="T94" s="131"/>
+      <c r="T94" s="133"/>
       <c r="U94">
         <f>1/(Arrivi!H39+Arrivi!H40)</f>
         <v>0.72709163346613537</v>
@@ -16649,11 +16705,11 @@
       <c r="B95" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="131" t="s">
+      <c r="C95" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="131"/>
-      <c r="E95" s="131"/>
+      <c r="D95" s="133"/>
+      <c r="E95" s="133"/>
       <c r="F95">
         <f>(U100*U93)/(1-U109)</f>
         <v>0.14662132696261998</v>
@@ -16661,15 +16717,15 @@
       <c r="I95" t="s">
         <v>25</v>
       </c>
-      <c r="J95" s="131" t="s">
+      <c r="J95" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K95" s="131"/>
-      <c r="L95" s="131" t="s">
+      <c r="K95" s="133"/>
+      <c r="L95" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="M95" s="131"/>
-      <c r="N95" s="131"/>
+      <c r="M95" s="133"/>
+      <c r="N95" s="133"/>
       <c r="O95">
         <f>F95+U93</f>
         <v>0.34128799362928663</v>
@@ -16679,24 +16735,24 @@
       <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="131" t="s">
+      <c r="C96" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="131"/>
-      <c r="E96" s="131"/>
+      <c r="D96" s="133"/>
+      <c r="E96" s="133"/>
       <c r="F96">
         <f>(U100*U93)/((1-U109)*(1-U100))</f>
         <v>0.59186080204660962</v>
       </c>
-      <c r="J96" s="131" t="s">
+      <c r="J96" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K96" s="131"/>
-      <c r="L96" s="131" t="s">
+      <c r="K96" s="133"/>
+      <c r="L96" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="M96" s="131"/>
-      <c r="N96" s="131"/>
+      <c r="M96" s="133"/>
+      <c r="N96" s="133"/>
       <c r="O96">
         <f>F96+U93</f>
         <v>0.78652746871327628</v>
@@ -16709,11 +16765,11 @@
       <c r="B97" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="131" t="s">
+      <c r="C97" s="133" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="131"/>
-      <c r="E97" s="131"/>
+      <c r="D97" s="133"/>
+      <c r="E97" s="133"/>
       <c r="F97">
         <f>(U101*U94)/(1-U111)</f>
         <v>0.55323897499522867</v>
@@ -16721,48 +16777,48 @@
       <c r="I97" t="s">
         <v>26</v>
       </c>
-      <c r="J97" s="131" t="s">
+      <c r="J97" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="K97" s="131"/>
-      <c r="L97" s="131" t="s">
+      <c r="K97" s="133"/>
+      <c r="L97" s="133" t="s">
         <v>148</v>
       </c>
-      <c r="M97" s="131"/>
-      <c r="N97" s="131"/>
+      <c r="M97" s="133"/>
+      <c r="N97" s="133"/>
       <c r="O97">
         <f>F97+U93</f>
         <v>0.74790564166189533</v>
       </c>
-      <c r="R97" s="136" t="s">
+      <c r="R97" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="S97" s="136"/>
-      <c r="T97" s="136"/>
-      <c r="U97" s="136"/>
+      <c r="S97" s="137"/>
+      <c r="T97" s="137"/>
+      <c r="U97" s="137"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="131" t="s">
+      <c r="C98" s="133" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="131"/>
-      <c r="E98" s="131"/>
+      <c r="D98" s="133"/>
+      <c r="E98" s="133"/>
       <c r="F98">
         <f>(U101*U94)/((1-U111)*(1-U101))</f>
         <v>2.3067619058366273</v>
       </c>
-      <c r="J98" s="131" t="s">
+      <c r="J98" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K98" s="131"/>
-      <c r="L98" s="131" t="s">
+      <c r="K98" s="133"/>
+      <c r="L98" s="133" t="s">
         <v>150</v>
       </c>
-      <c r="M98" s="131"/>
-      <c r="N98" s="131"/>
+      <c r="M98" s="133"/>
+      <c r="N98" s="133"/>
       <c r="O98">
         <f>F98+U94</f>
         <v>3.0338535393027626</v>
@@ -16770,40 +16826,40 @@
       <c r="R98" t="s">
         <v>23</v>
       </c>
-      <c r="S98" s="135" t="s">
+      <c r="S98" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="T98" s="135"/>
+      <c r="T98" s="139"/>
       <c r="U98">
         <f>Q19*U91</f>
         <v>0.7814226943472804</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="133" t="s">
+      <c r="A99" s="141" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="133"/>
-      <c r="C99" s="133"/>
-      <c r="D99" s="133"/>
-      <c r="E99" s="133"/>
-      <c r="F99" s="133"/>
-      <c r="I99" s="133" t="s">
+      <c r="B99" s="141"/>
+      <c r="C99" s="141"/>
+      <c r="D99" s="141"/>
+      <c r="E99" s="141"/>
+      <c r="F99" s="141"/>
+      <c r="I99" s="141" t="s">
         <v>153</v>
       </c>
-      <c r="J99" s="133"/>
-      <c r="K99" s="133"/>
-      <c r="L99" s="133"/>
-      <c r="M99" s="133"/>
-      <c r="N99" s="133"/>
-      <c r="O99" s="133"/>
+      <c r="J99" s="141"/>
+      <c r="K99" s="141"/>
+      <c r="L99" s="141"/>
+      <c r="M99" s="141"/>
+      <c r="N99" s="141"/>
+      <c r="O99" s="141"/>
       <c r="R99" t="s">
         <v>24</v>
       </c>
-      <c r="S99" s="135" t="s">
+      <c r="S99" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="T99" s="135"/>
+      <c r="T99" s="139"/>
       <c r="U99">
         <f>Q20*U92</f>
         <v>0.79167990325866922</v>
@@ -16813,35 +16869,35 @@
       <c r="A100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="134" t="s">
+      <c r="B100" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="134"/>
-      <c r="D100" s="134"/>
-      <c r="E100" s="134"/>
+      <c r="C100" s="132"/>
+      <c r="D100" s="132"/>
+      <c r="E100" s="132"/>
       <c r="F100" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J100" s="134" t="s">
+      <c r="J100" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="134"/>
-      <c r="L100" s="134"/>
-      <c r="M100" s="134"/>
-      <c r="N100" s="134"/>
+      <c r="K100" s="132"/>
+      <c r="L100" s="132"/>
+      <c r="M100" s="132"/>
+      <c r="N100" s="132"/>
       <c r="O100" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R100" t="s">
         <v>25</v>
       </c>
-      <c r="S100" s="135" t="s">
+      <c r="S100" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="T100" s="135"/>
+      <c r="T100" s="139"/>
       <c r="U100">
         <f>Q21*U93</f>
         <v>0.75227059055843104</v>
@@ -16851,12 +16907,12 @@
       <c r="A101" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="131" t="s">
+      <c r="B101" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="131"/>
-      <c r="D101" s="131"/>
-      <c r="E101" s="131"/>
+      <c r="C101" s="133"/>
+      <c r="D101" s="133"/>
+      <c r="E101" s="133"/>
       <c r="F101">
         <f>T105*F91+T106*F92</f>
         <v>0.13557295994946283</v>
@@ -16864,13 +16920,13 @@
       <c r="I101" t="s">
         <v>23</v>
       </c>
-      <c r="J101" s="131" t="s">
+      <c r="J101" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="K101" s="131"/>
-      <c r="L101" s="131"/>
-      <c r="M101" s="131"/>
-      <c r="N101" s="131"/>
+      <c r="K101" s="133"/>
+      <c r="L101" s="133"/>
+      <c r="M101" s="133"/>
+      <c r="N101" s="133"/>
       <c r="O101">
         <f>T105*O91+T106*O92</f>
         <v>0.17349503787154075</v>
@@ -16878,10 +16934,10 @@
       <c r="R101" t="s">
         <v>26</v>
       </c>
-      <c r="S101" s="135" t="s">
+      <c r="S101" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="T101" s="135"/>
+      <c r="T101" s="139"/>
       <c r="U101">
         <f>Q22*U94</f>
         <v>0.76016641613709268</v>
@@ -16891,12 +16947,12 @@
       <c r="A102" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="131" t="s">
+      <c r="B102" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="131"/>
-      <c r="D102" s="131"/>
-      <c r="E102" s="131"/>
+      <c r="C102" s="133"/>
+      <c r="D102" s="133"/>
+      <c r="E102" s="133"/>
       <c r="F102">
         <f>T107*F93+T108*F94</f>
         <v>0.23057036594364833</v>
@@ -16904,13 +16960,13 @@
       <c r="I102" t="s">
         <v>24</v>
       </c>
-      <c r="J102" s="131" t="s">
+      <c r="J102" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="K102" s="131"/>
-      <c r="L102" s="131"/>
-      <c r="M102" s="131"/>
-      <c r="N102" s="131"/>
+      <c r="K102" s="133"/>
+      <c r="L102" s="133"/>
+      <c r="M102" s="133"/>
+      <c r="N102" s="133"/>
       <c r="O102">
         <f>T107*O93+T108*O94</f>
         <v>0.29124190849683984</v>
@@ -16920,12 +16976,12 @@
       <c r="A103" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="131" t="s">
+      <c r="B103" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="131"/>
-      <c r="D103" s="131"/>
-      <c r="E103" s="131"/>
+      <c r="C103" s="133"/>
+      <c r="D103" s="133"/>
+      <c r="E103" s="133"/>
       <c r="F103">
         <f>T109*F95+T110*F96</f>
         <v>0.59113695311946934</v>
@@ -16933,34 +16989,34 @@
       <c r="I103" t="s">
         <v>25</v>
       </c>
-      <c r="J103" s="131" t="s">
+      <c r="J103" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="K103" s="131"/>
-      <c r="L103" s="131"/>
-      <c r="M103" s="131"/>
-      <c r="N103" s="131"/>
+      <c r="K103" s="133"/>
+      <c r="L103" s="133"/>
+      <c r="M103" s="133"/>
+      <c r="N103" s="133"/>
       <c r="O103">
         <f>T109*O95+T110*O96</f>
         <v>0.785803619786136</v>
       </c>
-      <c r="R103" s="136" t="s">
+      <c r="R103" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="S103" s="136"/>
-      <c r="T103" s="136"/>
-      <c r="U103" s="136"/>
+      <c r="S103" s="137"/>
+      <c r="T103" s="137"/>
+      <c r="U103" s="137"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="131" t="s">
+      <c r="B104" s="133" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="131"/>
-      <c r="D104" s="131"/>
-      <c r="E104" s="131"/>
+      <c r="C104" s="133"/>
+      <c r="D104" s="133"/>
+      <c r="E104" s="133"/>
       <c r="F104">
         <f>T111*F97+T112*F98</f>
         <v>2.3045589875818013</v>
@@ -16968,13 +17024,13 @@
       <c r="I104" t="s">
         <v>26</v>
       </c>
-      <c r="J104" s="131" t="s">
+      <c r="J104" s="133" t="s">
         <v>155</v>
       </c>
-      <c r="K104" s="131"/>
-      <c r="L104" s="131"/>
-      <c r="M104" s="131"/>
-      <c r="N104" s="131"/>
+      <c r="K104" s="133"/>
+      <c r="L104" s="133"/>
+      <c r="M104" s="133"/>
+      <c r="N104" s="133"/>
       <c r="O104">
         <f>T111*O97+T112*O98</f>
         <v>3.0309817454615051</v>
@@ -17022,23 +17078,23 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="133" t="s">
+      <c r="A107" s="141" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="133"/>
-      <c r="C107" s="133"/>
-      <c r="D107" s="133"/>
-      <c r="E107" s="133"/>
-      <c r="F107" s="133"/>
-      <c r="I107" s="133" t="s">
+      <c r="B107" s="141"/>
+      <c r="C107" s="141"/>
+      <c r="D107" s="141"/>
+      <c r="E107" s="141"/>
+      <c r="F107" s="141"/>
+      <c r="I107" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="J107" s="133"/>
-      <c r="K107" s="133"/>
-      <c r="L107" s="133"/>
-      <c r="M107" s="133"/>
-      <c r="N107" s="133"/>
-      <c r="O107" s="133"/>
+      <c r="J107" s="141"/>
+      <c r="K107" s="141"/>
+      <c r="L107" s="141"/>
+      <c r="M107" s="141"/>
+      <c r="N107" s="141"/>
+      <c r="O107" s="141"/>
       <c r="R107" t="s">
         <v>24</v>
       </c>
@@ -17061,26 +17117,26 @@
       <c r="B108" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="134" t="s">
+      <c r="C108" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="D108" s="134"/>
-      <c r="E108" s="134"/>
+      <c r="D108" s="132"/>
+      <c r="E108" s="132"/>
       <c r="F108" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J108" s="134" t="s">
+      <c r="J108" s="132" t="s">
         <v>144</v>
       </c>
-      <c r="K108" s="134"/>
-      <c r="L108" s="134" t="s">
+      <c r="K108" s="132"/>
+      <c r="L108" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="M108" s="134"/>
-      <c r="N108" s="134"/>
+      <c r="M108" s="132"/>
+      <c r="N108" s="132"/>
       <c r="O108" s="2" t="s">
         <v>159</v>
       </c>
@@ -17103,11 +17159,11 @@
       <c r="B109" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="131" t="s">
+      <c r="C109" s="133" t="s">
         <v>160</v>
       </c>
-      <c r="D109" s="131"/>
-      <c r="E109" s="131"/>
+      <c r="D109" s="133"/>
+      <c r="E109" s="133"/>
       <c r="F109" s="4">
         <f t="shared" ref="F109:F116" si="2">P10*F91</f>
         <v>5.7055767876712049E-4</v>
@@ -17115,15 +17171,15 @@
       <c r="I109" t="s">
         <v>23</v>
       </c>
-      <c r="J109" s="131" t="s">
+      <c r="J109" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K109" s="131"/>
-      <c r="L109" s="131" t="s">
+      <c r="K109" s="133"/>
+      <c r="L109" s="133" t="s">
         <v>161</v>
       </c>
-      <c r="M109" s="131"/>
-      <c r="N109" s="131"/>
+      <c r="M109" s="133"/>
+      <c r="N109" s="133"/>
       <c r="O109">
         <f t="shared" ref="O109:O116" si="3">P10*O91</f>
         <v>1.3001773747029566E-3</v>
@@ -17147,24 +17203,24 @@
       <c r="B110" t="s">
         <v>80</v>
       </c>
-      <c r="C110" s="131" t="s">
+      <c r="C110" s="133" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="131"/>
-      <c r="E110" s="131"/>
+      <c r="D110" s="133"/>
+      <c r="E110" s="133"/>
       <c r="F110" s="4">
         <f t="shared" si="2"/>
         <v>2.7930471302029383</v>
       </c>
-      <c r="J110" s="131" t="s">
+      <c r="J110" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K110" s="131"/>
-      <c r="L110" s="131" t="s">
+      <c r="K110" s="133"/>
+      <c r="L110" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="M110" s="131"/>
-      <c r="N110" s="131"/>
+      <c r="M110" s="133"/>
+      <c r="N110" s="133"/>
       <c r="O110">
         <f t="shared" si="3"/>
         <v>3.5737402048542828</v>
@@ -17188,11 +17244,11 @@
       <c r="B111" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="131" t="s">
+      <c r="C111" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="131"/>
-      <c r="E111" s="131"/>
+      <c r="D111" s="133"/>
+      <c r="E111" s="133"/>
       <c r="F111" s="4">
         <f t="shared" si="2"/>
         <v>4.6598750346657741E-4</v>
@@ -17200,15 +17256,15 @@
       <c r="I111" t="s">
         <v>24</v>
       </c>
-      <c r="J111" s="131" t="s">
+      <c r="J111" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K111" s="131"/>
-      <c r="L111" s="131" t="s">
+      <c r="K111" s="133"/>
+      <c r="L111" s="133" t="s">
         <v>165</v>
       </c>
-      <c r="M111" s="131"/>
-      <c r="N111" s="131"/>
+      <c r="M111" s="133"/>
+      <c r="N111" s="133"/>
       <c r="O111">
         <f t="shared" si="3"/>
         <v>1.0542472027225359E-3</v>
@@ -17232,24 +17288,24 @@
       <c r="B112" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="131" t="s">
+      <c r="C112" s="133" t="s">
         <v>166</v>
       </c>
-      <c r="D112" s="131"/>
-      <c r="E112" s="131"/>
+      <c r="D112" s="133"/>
+      <c r="E112" s="133"/>
       <c r="F112" s="4">
         <f t="shared" si="2"/>
         <v>3.0081590996953671</v>
       </c>
-      <c r="J112" s="131" t="s">
+      <c r="J112" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K112" s="131"/>
-      <c r="L112" s="131" t="s">
+      <c r="K112" s="133"/>
+      <c r="L112" s="133" t="s">
         <v>167</v>
       </c>
-      <c r="M112" s="131"/>
-      <c r="N112" s="131"/>
+      <c r="M112" s="133"/>
+      <c r="N112" s="133"/>
       <c r="O112">
         <f t="shared" si="3"/>
         <v>3.7992507432547802</v>
@@ -17273,11 +17329,11 @@
       <c r="B113" t="s">
         <v>77</v>
       </c>
-      <c r="C113" s="131" t="s">
+      <c r="C113" s="133" t="s">
         <v>168</v>
       </c>
-      <c r="D113" s="131"/>
-      <c r="E113" s="131"/>
+      <c r="D113" s="133"/>
+      <c r="E113" s="133"/>
       <c r="F113" s="4">
         <f t="shared" si="2"/>
         <v>9.2115753721939855E-4</v>
@@ -17285,15 +17341,15 @@
       <c r="I113" t="s">
         <v>25</v>
       </c>
-      <c r="J113" s="131" t="s">
+      <c r="J113" s="133" t="s">
         <v>77</v>
       </c>
-      <c r="K113" s="131"/>
-      <c r="L113" s="131" t="s">
+      <c r="K113" s="133"/>
+      <c r="L113" s="133" t="s">
         <v>169</v>
       </c>
-      <c r="M113" s="131"/>
-      <c r="N113" s="131"/>
+      <c r="M113" s="133"/>
+      <c r="N113" s="133"/>
       <c r="O113">
         <f t="shared" si="3"/>
         <v>2.1441628868510533E-3</v>
@@ -17303,24 +17359,24 @@
       <c r="B114" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="131" t="s">
+      <c r="C114" s="133" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="131"/>
-      <c r="E114" s="131"/>
+      <c r="D114" s="133"/>
+      <c r="E114" s="133"/>
       <c r="F114" s="4">
         <f t="shared" si="2"/>
         <v>2.2834706823125823</v>
       </c>
-      <c r="J114" s="131" t="s">
+      <c r="J114" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K114" s="131"/>
-      <c r="L114" s="131" t="s">
+      <c r="K114" s="133"/>
+      <c r="L114" s="133" t="s">
         <v>171</v>
       </c>
-      <c r="M114" s="131"/>
-      <c r="N114" s="131"/>
+      <c r="M114" s="133"/>
+      <c r="N114" s="133"/>
       <c r="O114">
         <f t="shared" si="3"/>
         <v>3.0345182675213818</v>
@@ -17333,11 +17389,11 @@
       <c r="B115" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="131" t="s">
+      <c r="C115" s="133" t="s">
         <v>172</v>
       </c>
-      <c r="D115" s="131"/>
-      <c r="E115" s="131"/>
+      <c r="D115" s="133"/>
+      <c r="E115" s="133"/>
       <c r="F115" s="4">
         <f t="shared" si="2"/>
         <v>7.2663988374241004E-4</v>
@@ -17345,15 +17401,15 @@
       <c r="I115" t="s">
         <v>26</v>
       </c>
-      <c r="J115" s="131" t="s">
+      <c r="J115" s="133" t="s">
         <v>91</v>
       </c>
-      <c r="K115" s="131"/>
-      <c r="L115" s="131" t="s">
+      <c r="K115" s="133"/>
+      <c r="L115" s="133" t="s">
         <v>173</v>
       </c>
-      <c r="M115" s="131"/>
-      <c r="N115" s="131"/>
+      <c r="M115" s="133"/>
+      <c r="N115" s="133"/>
       <c r="O115">
         <f t="shared" si="3"/>
         <v>9.823206481650703E-4</v>
@@ -17363,51 +17419,51 @@
       <c r="B116" t="s">
         <v>80</v>
       </c>
-      <c r="C116" s="131" t="s">
+      <c r="C116" s="133" t="s">
         <v>174</v>
       </c>
-      <c r="D116" s="131"/>
-      <c r="E116" s="131"/>
+      <c r="D116" s="133"/>
+      <c r="E116" s="133"/>
       <c r="F116" s="4">
         <f t="shared" si="2"/>
         <v>2.4086647844341362</v>
       </c>
-      <c r="J116" s="131" t="s">
+      <c r="J116" s="133" t="s">
         <v>80</v>
       </c>
-      <c r="K116" s="131"/>
-      <c r="L116" s="131" t="s">
+      <c r="K116" s="133"/>
+      <c r="L116" s="133" t="s">
         <v>175</v>
       </c>
-      <c r="M116" s="131"/>
-      <c r="N116" s="131"/>
+      <c r="M116" s="133"/>
+      <c r="N116" s="133"/>
       <c r="O116">
         <f t="shared" si="3"/>
         <v>3.1678762176363828</v>
       </c>
-      <c r="S116" s="132" t="s">
+      <c r="S116" s="142" t="s">
         <v>151</v>
       </c>
-      <c r="T116" s="132"/>
+      <c r="T116" s="142"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="133" t="s">
+      <c r="A117" s="141" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="133"/>
-      <c r="C117" s="133"/>
-      <c r="D117" s="133"/>
-      <c r="E117" s="133"/>
-      <c r="F117" s="133"/>
-      <c r="I117" s="133" t="s">
+      <c r="B117" s="141"/>
+      <c r="C117" s="141"/>
+      <c r="D117" s="141"/>
+      <c r="E117" s="141"/>
+      <c r="F117" s="141"/>
+      <c r="I117" s="141" t="s">
         <v>177</v>
       </c>
-      <c r="J117" s="133"/>
-      <c r="K117" s="133"/>
-      <c r="L117" s="133"/>
-      <c r="M117" s="133"/>
-      <c r="N117" s="133"/>
-      <c r="O117" s="133"/>
+      <c r="J117" s="141"/>
+      <c r="K117" s="141"/>
+      <c r="L117" s="141"/>
+      <c r="M117" s="141"/>
+      <c r="N117" s="141"/>
+      <c r="O117" s="141"/>
       <c r="S117" t="s">
         <v>23</v>
       </c>
@@ -17420,25 +17476,25 @@
       <c r="A118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="134" t="s">
+      <c r="B118" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="134"/>
-      <c r="D118" s="134"/>
-      <c r="E118" s="134"/>
+      <c r="C118" s="132"/>
+      <c r="D118" s="132"/>
+      <c r="E118" s="132"/>
       <c r="F118" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J118" s="134" t="s">
+      <c r="J118" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="K118" s="134"/>
-      <c r="L118" s="134"/>
-      <c r="M118" s="134"/>
-      <c r="N118" s="134"/>
+      <c r="K118" s="132"/>
+      <c r="L118" s="132"/>
+      <c r="M118" s="132"/>
+      <c r="N118" s="132"/>
       <c r="O118" s="2" t="s">
         <v>159</v>
       </c>
@@ -17454,12 +17510,12 @@
       <c r="A119" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="131" t="s">
+      <c r="B119" s="133" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="131"/>
-      <c r="D119" s="131"/>
-      <c r="E119" s="131"/>
+      <c r="C119" s="133"/>
+      <c r="D119" s="133"/>
+      <c r="E119" s="133"/>
       <c r="F119">
         <f>Q19*F101</f>
         <v>2.7936176878817052</v>
@@ -17467,13 +17523,13 @@
       <c r="I119" t="s">
         <v>23</v>
       </c>
-      <c r="J119" s="131" t="s">
+      <c r="J119" s="133" t="s">
         <v>179</v>
       </c>
-      <c r="K119" s="131"/>
-      <c r="L119" s="131"/>
-      <c r="M119" s="131"/>
-      <c r="N119" s="131"/>
+      <c r="K119" s="133"/>
+      <c r="L119" s="133"/>
+      <c r="M119" s="133"/>
+      <c r="N119" s="133"/>
       <c r="O119">
         <f>Q19*O101</f>
         <v>3.5750403822289853</v>
@@ -17490,12 +17546,12 @@
       <c r="A120" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="131" t="s">
+      <c r="B120" s="133" t="s">
         <v>180</v>
       </c>
-      <c r="C120" s="131"/>
-      <c r="D120" s="131"/>
-      <c r="E120" s="131"/>
+      <c r="C120" s="133"/>
+      <c r="D120" s="133"/>
+      <c r="E120" s="133"/>
       <c r="F120">
         <f>Q20*F102</f>
         <v>3.0086250871988334</v>
@@ -17503,13 +17559,13 @@
       <c r="I120" t="s">
         <v>24</v>
       </c>
-      <c r="J120" s="131" t="s">
+      <c r="J120" s="133" t="s">
         <v>181</v>
       </c>
-      <c r="K120" s="131"/>
-      <c r="L120" s="131"/>
-      <c r="M120" s="131"/>
-      <c r="N120" s="131"/>
+      <c r="K120" s="133"/>
+      <c r="L120" s="133"/>
+      <c r="M120" s="133"/>
+      <c r="N120" s="133"/>
       <c r="O120">
         <f>Q20*O102</f>
         <v>3.8003049904575028</v>
@@ -17526,12 +17582,12 @@
       <c r="A121" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="131" t="s">
+      <c r="B121" s="133" t="s">
         <v>182</v>
       </c>
-      <c r="C121" s="131"/>
-      <c r="D121" s="131"/>
-      <c r="E121" s="131"/>
+      <c r="C121" s="133"/>
+      <c r="D121" s="133"/>
+      <c r="E121" s="133"/>
       <c r="F121">
         <f>Q21*F103</f>
         <v>2.284391839849802</v>
@@ -17539,13 +17595,13 @@
       <c r="I121" t="s">
         <v>25</v>
       </c>
-      <c r="J121" s="131" t="s">
+      <c r="J121" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="K121" s="131"/>
-      <c r="L121" s="131"/>
-      <c r="M121" s="131"/>
-      <c r="N121" s="131"/>
+      <c r="K121" s="133"/>
+      <c r="L121" s="133"/>
+      <c r="M121" s="133"/>
+      <c r="N121" s="133"/>
       <c r="O121">
         <f>Q21*O103</f>
         <v>3.0366624304082328</v>
@@ -17555,12 +17611,12 @@
       <c r="A122" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="131" t="s">
+      <c r="B122" s="133" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="131"/>
-      <c r="D122" s="131"/>
-      <c r="E122" s="131"/>
+      <c r="C122" s="133"/>
+      <c r="D122" s="133"/>
+      <c r="E122" s="133"/>
       <c r="F122">
         <f>Q22*F104</f>
         <v>2.4093914243178784</v>
@@ -17568,13 +17624,13 @@
       <c r="I122" t="s">
         <v>26</v>
       </c>
-      <c r="J122" s="131" t="s">
+      <c r="J122" s="133" t="s">
         <v>185</v>
       </c>
-      <c r="K122" s="131"/>
-      <c r="L122" s="131"/>
-      <c r="M122" s="131"/>
-      <c r="N122" s="131"/>
+      <c r="K122" s="133"/>
+      <c r="L122" s="133"/>
+      <c r="M122" s="133"/>
+      <c r="N122" s="133"/>
       <c r="O122">
         <f>Q22*O104</f>
         <v>3.1688585382845482</v>
@@ -17582,256 +17638,6 @@
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="I62:O62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="I80:O80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="I89:O89"/>
-    <mergeCell ref="R89:V89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="I99:O99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="J100:N100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="J101:N101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="J102:N102"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="I107:O107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:N114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="L116:N116"/>
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="J121:N121"/>
     <mergeCell ref="B122:E122"/>
@@ -17845,6 +17651,256 @@
     <mergeCell ref="J119:N119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="J120:N120"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="I107:O107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="J101:N101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="J102:N102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="I99:O99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="J100:N100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="I89:O89"/>
+    <mergeCell ref="R89:V89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="I80:O80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="I62:O62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="552" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACCE337F-B3FD-4C83-9459-5A1CBA26B4A2}"/>
+  <xr:revisionPtr revIDLastSave="574" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE069188-1117-4011-8010-A5F4DC952932}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arrivi!$J$2:$M$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dati_OPTN!$N$71:$Y$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dati_OPTN!$A$71:$L$91</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Uscite!$L$48:$P$68</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -1226,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1514,38 +1514,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1936,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O92" sqref="O92"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1965,7 +1971,7 @@
       <c r="I1" s="108"/>
       <c r="J1" s="108"/>
       <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
+      <c r="L1" s="143"/>
       <c r="N1" s="107" t="s">
         <v>1</v>
       </c>
@@ -1979,7 +1985,7 @@
       <c r="V1" s="108"/>
       <c r="W1" s="108"/>
       <c r="X1" s="108"/>
-      <c r="Y1" s="108"/>
+      <c r="Y1" s="143"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -3333,7 +3339,7 @@
       <c r="I24" s="108"/>
       <c r="J24" s="108"/>
       <c r="K24" s="108"/>
-      <c r="L24" s="108"/>
+      <c r="L24" s="143"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
@@ -4117,7 +4123,7 @@
       <c r="I47" s="108"/>
       <c r="J47" s="108"/>
       <c r="K47" s="108"/>
-      <c r="L47" s="108"/>
+      <c r="L47" s="143"/>
       <c r="N47" s="107" t="s">
         <v>28</v>
       </c>
@@ -4131,7 +4137,7 @@
       <c r="V47" s="108"/>
       <c r="W47" s="108"/>
       <c r="X47" s="108"/>
-      <c r="Y47" s="108"/>
+      <c r="Y47" s="143"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
@@ -5641,7 +5647,7 @@
       <c r="I70" s="110"/>
       <c r="J70" s="110"/>
       <c r="K70" s="110"/>
-      <c r="L70" s="110"/>
+      <c r="L70" s="144"/>
       <c r="N70" s="107" t="s">
         <v>31</v>
       </c>
@@ -5655,7 +5661,7 @@
       <c r="V70" s="108"/>
       <c r="W70" s="108"/>
       <c r="X70" s="108"/>
-      <c r="Y70" s="108"/>
+      <c r="Y70" s="143"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
@@ -7376,10 +7382,6 @@
       <c r="E94" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H94">
-        <f t="shared" ref="H94:H109" si="11">SUM(C73:L73)</f>
-        <v>212</v>
-      </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
@@ -7397,10 +7399,6 @@
       <c r="E95" s="52">
         <f>1-Dati_OPTN!$D95</f>
         <v>5.4000000000000048E-2</v>
-      </c>
-      <c r="H95">
-        <f t="shared" si="11"/>
-        <v>167715</v>
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
@@ -7418,12 +7416,8 @@
         <f>1-Dati_OPTN!$D96</f>
         <v>0.122</v>
       </c>
-      <c r="H96">
-        <f t="shared" si="11"/>
-        <v>13865</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="36"/>
       <c r="B97" s="37">
         <v>5</v>
@@ -7438,12 +7432,8 @@
         <f>1-Dati_OPTN!$D97</f>
         <v>0.21325000000000005</v>
       </c>
-      <c r="H97">
-        <f t="shared" si="11"/>
-        <v>82040</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="36" t="s">
         <v>23</v>
       </c>
@@ -7460,12 +7450,8 @@
         <f>1-Dati_OPTN!$D98</f>
         <v>5.4000000000000048E-2</v>
       </c>
-      <c r="H98">
-        <f t="shared" si="11"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="36"/>
       <c r="B99" s="37">
         <v>3</v>
@@ -7480,12 +7466,8 @@
         <f>1-Dati_OPTN!$D99</f>
         <v>0.124</v>
       </c>
-      <c r="H99">
-        <f t="shared" si="11"/>
-        <v>76050</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="36"/>
       <c r="B100" s="37">
         <v>5</v>
@@ -7500,12 +7482,8 @@
         <f>1-Dati_OPTN!$D100</f>
         <v>0.21499999999999997</v>
       </c>
-      <c r="H100">
-        <f t="shared" si="11"/>
-        <v>5890</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="36" t="s">
         <v>24</v>
       </c>
@@ -7522,12 +7500,8 @@
         <f>1-Dati_OPTN!$D101</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="H101">
-        <f t="shared" si="11"/>
-        <v>66196</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="36"/>
       <c r="B102" s="37">
         <v>3</v>
@@ -7542,12 +7516,8 @@
         <f>1-Dati_OPTN!$D102</f>
         <v>0.122</v>
       </c>
-      <c r="H102">
-        <f t="shared" si="11"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="36"/>
       <c r="B103" s="37">
         <v>5</v>
@@ -7562,12 +7532,8 @@
         <f>1-Dati_OPTN!$D103</f>
         <v>0.21499999999999997</v>
       </c>
-      <c r="H103">
-        <f t="shared" si="11"/>
-        <v>60520</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="36" t="s">
         <v>25</v>
       </c>
@@ -7584,12 +7550,8 @@
         <f>1-Dati_OPTN!$D104</f>
         <v>5.600000000000005E-2</v>
       </c>
-      <c r="H104">
-        <f t="shared" si="11"/>
-        <v>5616</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="36"/>
       <c r="B105" s="37">
         <v>3</v>
@@ -7604,12 +7566,8 @@
         <f>1-Dati_OPTN!$D105</f>
         <v>0.124</v>
       </c>
-      <c r="H105">
-        <f t="shared" si="11"/>
-        <v>24589</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="36"/>
       <c r="B106" s="37">
         <v>5</v>
@@ -7624,12 +7582,8 @@
         <f>1-Dati_OPTN!$D106</f>
         <v>0.22399999999999998</v>
       </c>
-      <c r="H106">
-        <f t="shared" si="11"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="36" t="s">
         <v>26</v>
       </c>
@@ -7646,12 +7600,8 @@
         <f>1-Dati_OPTN!$D107</f>
         <v>5.3000000000000047E-2</v>
       </c>
-      <c r="H107">
-        <f t="shared" si="11"/>
-        <v>22795</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="36"/>
       <c r="B108" s="37">
         <v>3</v>
@@ -7666,12 +7616,8 @@
         <f>1-Dati_OPTN!$D108</f>
         <v>0.11799999999999999</v>
       </c>
-      <c r="H108">
-        <f t="shared" si="11"/>
-        <v>1751</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="39">
         <v>5</v>
@@ -7685,10 +7631,6 @@
       <c r="E109" s="54">
         <f>1-Dati_OPTN!$D109</f>
         <v>0.19899999999999995</v>
-      </c>
-      <c r="H109">
-        <f t="shared" si="11"/>
-        <v>8967</v>
       </c>
     </row>
   </sheetData>
@@ -14269,32 +14211,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="142" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="131" t="s">
+      <c r="G1" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="131"/>
-      <c r="I1" s="131"/>
-      <c r="J1" s="131"/>
-      <c r="K1" s="131"/>
-      <c r="L1" s="131"/>
-      <c r="M1" s="131"/>
+      <c r="H1" s="142"/>
+      <c r="I1" s="142"/>
+      <c r="J1" s="142"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="132"/>
+      <c r="C2" s="134"/>
       <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
@@ -14305,11 +14247,11 @@
       <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="132" t="s">
+      <c r="H2" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="132"/>
-      <c r="J2" s="132"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
@@ -14324,10 +14266,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="133" t="s">
+      <c r="B3" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="133"/>
+      <c r="C3" s="131"/>
       <c r="D3">
         <f>Dati_OPTN!C53/(Dati_OPTN!C7+Dati_OPTN!P76)</f>
         <v>8.022815115013697E-2</v>
@@ -14339,11 +14281,11 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="133" t="s">
+      <c r="H3" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="133"/>
-      <c r="J3" s="133"/>
+      <c r="I3" s="131"/>
+      <c r="J3" s="131"/>
       <c r="K3">
         <f>Dati_OPTN!P76/(Dati_OPTN!C53+Dati_OPTN!C7)</f>
         <v>0.28016187130341974</v>
@@ -14360,10 +14302,10 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="133" t="s">
+      <c r="B4" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="133"/>
+      <c r="C4" s="131"/>
       <c r="D4">
         <f>Dati_OPTN!C57/(Dati_OPTN!C11+Dati_OPTN!P80)</f>
         <v>6.2610333058726611E-2</v>
@@ -14375,11 +14317,11 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="133" t="s">
+      <c r="H4" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="133"/>
-      <c r="J4" s="133"/>
+      <c r="I4" s="131"/>
+      <c r="J4" s="131"/>
       <c r="K4">
         <f>Dati_OPTN!P80/(Dati_OPTN!C57+Dati_OPTN!C11)</f>
         <v>0.24349263186888859</v>
@@ -14396,10 +14338,10 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="133"/>
+      <c r="C5" s="131"/>
       <c r="D5">
         <f>Dati_OPTN!C61/(Dati_OPTN!C15+Dati_OPTN!P84)</f>
         <v>8.022640580780116E-2</v>
@@ -14411,11 +14353,11 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="133" t="s">
+      <c r="H5" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="133"/>
-      <c r="J5" s="133"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
       <c r="K5">
         <f>Dati_OPTN!P84/(Dati_OPTN!C61+Dati_OPTN!C15)</f>
         <v>0.29046009113626342</v>
@@ -14432,10 +14374,10 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="133" t="s">
+      <c r="B6" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="131"/>
       <c r="D6">
         <f>Dati_OPTN!C65/(Dati_OPTN!C19+Dati_OPTN!P88)</f>
         <v>5.2356020942408377E-2</v>
@@ -14447,11 +14389,11 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="133" t="s">
+      <c r="H6" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="133"/>
-      <c r="J6" s="133"/>
+      <c r="I6" s="131"/>
+      <c r="J6" s="131"/>
       <c r="K6">
         <f>Dati_OPTN!P88/(Dati_OPTN!C65+Dati_OPTN!C19)</f>
         <v>0.18794326241134751</v>
@@ -14468,25 +14410,25 @@
       <c r="C7" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="134"/>
-      <c r="C9" s="134"/>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
-      <c r="G9" s="134"/>
-      <c r="I9" s="134" t="s">
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="I9" s="140" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="134"/>
-      <c r="K9" s="134"/>
-      <c r="L9" s="134"/>
-      <c r="M9" s="134"/>
-      <c r="N9" s="134"/>
-      <c r="O9" s="134"/>
-      <c r="P9" s="134"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -14495,12 +14437,12 @@
       <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="133"/>
-      <c r="E10" s="133"/>
-      <c r="F10" s="133"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
       <c r="G10">
         <f>Dati_OPTN!C8/365*(1-M3-E3)</f>
         <v>1.9239971433924447E-2</v>
@@ -14508,16 +14450,16 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="135" t="s">
+      <c r="J10" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="135"/>
-      <c r="L10" s="133" t="s">
+      <c r="K10" s="141"/>
+      <c r="L10" s="131" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
+      <c r="M10" s="131"/>
+      <c r="N10" s="131"/>
+      <c r="O10" s="131"/>
       <c r="P10">
         <f>G10</f>
         <v>1.9239971433924447E-2</v>
@@ -14527,26 +14469,26 @@
       <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="133" t="s">
+      <c r="C11" s="131" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="133"/>
-      <c r="E11" s="133"/>
-      <c r="F11" s="133"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
       <c r="G11">
         <f>Dati_OPTN!C9/365*(1-M3-E3)</f>
         <v>15.587414751705209</v>
       </c>
-      <c r="J11" s="135" t="s">
+      <c r="J11" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="135"/>
-      <c r="L11" s="133" t="s">
+      <c r="K11" s="141"/>
+      <c r="L11" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
+      <c r="M11" s="131"/>
+      <c r="N11" s="131"/>
+      <c r="O11" s="131"/>
       <c r="P11">
         <f>G11+G19</f>
         <v>20.586769434299157</v>
@@ -14559,12 +14501,12 @@
       <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="133" t="s">
+      <c r="C12" s="131" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="133"/>
-      <c r="E12" s="133"/>
-      <c r="F12" s="133"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
       <c r="G12">
         <f>Dati_OPTN!C12/365*(1-M4-E4)</f>
         <v>9.6958091800653338E-3</v>
@@ -14572,16 +14514,16 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="135" t="s">
+      <c r="J12" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="135"/>
-      <c r="L12" s="133" t="s">
+      <c r="K12" s="141"/>
+      <c r="L12" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
+      <c r="M12" s="131"/>
+      <c r="N12" s="131"/>
+      <c r="O12" s="131"/>
       <c r="P12">
         <f>G12</f>
         <v>9.6958091800653338E-3</v>
@@ -14591,26 +14533,26 @@
       <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="133" t="s">
+      <c r="C13" s="131" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="133"/>
-      <c r="E13" s="133"/>
-      <c r="F13" s="133"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
       <c r="G13">
         <f>Dati_OPTN!C13/365*(1-M4-E4)</f>
         <v>9.6163035447887992</v>
       </c>
-      <c r="J13" s="135" t="s">
+      <c r="J13" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="135"/>
-      <c r="L13" s="133" t="s">
+      <c r="K13" s="141"/>
+      <c r="L13" s="131" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
       <c r="P13">
         <f>G13+G20</f>
         <v>13.038924185351863</v>
@@ -14623,12 +14565,12 @@
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="133" t="s">
+      <c r="C14" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="131"/>
       <c r="G14">
         <f>Dati_OPTN!C16/365*(1-M5-E5)</f>
         <v>6.2825617275598716E-3</v>
@@ -14636,16 +14578,16 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="135" t="s">
+      <c r="J14" s="141" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="135"/>
-      <c r="L14" s="133" t="s">
+      <c r="K14" s="141"/>
+      <c r="L14" s="131" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
+      <c r="M14" s="131"/>
+      <c r="N14" s="131"/>
+      <c r="O14" s="131"/>
       <c r="P14">
         <f>G14</f>
         <v>6.2825617275598716E-3</v>
@@ -14655,26 +14597,26 @@
       <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="133" t="s">
+      <c r="C15" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
       <c r="G15">
         <f>Dati_OPTN!C17/365*(1-M5-E5)</f>
         <v>2.947777962571092</v>
       </c>
-      <c r="J15" s="135" t="s">
+      <c r="J15" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="135"/>
-      <c r="L15" s="133" t="s">
+      <c r="K15" s="141"/>
+      <c r="L15" s="131" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
+      <c r="M15" s="131"/>
+      <c r="N15" s="131"/>
+      <c r="O15" s="131"/>
       <c r="P15">
         <f>G15+G21</f>
         <v>3.8581211568945175</v>
@@ -14687,12 +14629,12 @@
       <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="133" t="s">
+      <c r="C16" s="131" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="133"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
       <c r="G16">
         <f>Dati_OPTN!C20/365*(1-M6-E6)</f>
         <v>1.3134285843629813E-3</v>
@@ -14700,16 +14642,16 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="135" t="s">
+      <c r="J16" s="141" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="135"/>
-      <c r="L16" s="133" t="s">
+      <c r="K16" s="141"/>
+      <c r="L16" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
+      <c r="M16" s="131"/>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
       <c r="P16">
         <f>G16</f>
         <v>1.3134285843629813E-3</v>
@@ -14719,52 +14661,52 @@
       <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="133" t="s">
+      <c r="C17" s="131" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="133"/>
-      <c r="E17" s="133"/>
-      <c r="F17" s="133"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
       <c r="G17">
         <f>Dati_OPTN!C21/365*(1-M6-E6)</f>
         <v>0.76178857893052909</v>
       </c>
-      <c r="J17" s="135" t="s">
+      <c r="J17" s="141" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="135"/>
-      <c r="L17" s="133" t="s">
+      <c r="K17" s="141"/>
+      <c r="L17" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
+      <c r="M17" s="131"/>
+      <c r="N17" s="131"/>
+      <c r="O17" s="131"/>
       <c r="P17">
         <f>G17+G22</f>
         <v>1.0441757245685701</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="134" t="s">
+      <c r="A18" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="134"/>
-      <c r="C18" s="134"/>
-      <c r="D18" s="134"/>
-      <c r="E18" s="134"/>
-      <c r="F18" s="134"/>
-      <c r="G18" s="134"/>
-      <c r="I18" s="134" t="s">
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="140"/>
+      <c r="F18" s="140"/>
+      <c r="G18" s="140"/>
+      <c r="I18" s="140" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="134"/>
-      <c r="K18" s="134"/>
-      <c r="L18" s="134"/>
-      <c r="M18" s="134"/>
-      <c r="N18" s="134"/>
-      <c r="O18" s="134"/>
-      <c r="P18" s="134"/>
-      <c r="Q18" s="134"/>
+      <c r="J18" s="140"/>
+      <c r="K18" s="140"/>
+      <c r="L18" s="140"/>
+      <c r="M18" s="140"/>
+      <c r="N18" s="140"/>
+      <c r="O18" s="140"/>
+      <c r="P18" s="140"/>
+      <c r="Q18" s="140"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
@@ -14775,12 +14717,12 @@
       <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="C19" s="131" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="133"/>
-      <c r="E19" s="133"/>
-      <c r="F19" s="133"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
       <c r="G19">
         <f>Dati_OPTN!C10/365*(1-M3-E3)</f>
         <v>4.999354682593947</v>
@@ -14788,15 +14730,15 @@
       <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="133" t="s">
+      <c r="J19" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="133"/>
+      <c r="K19" s="131"/>
+      <c r="L19" s="131"/>
+      <c r="M19" s="131"/>
+      <c r="N19" s="131"/>
+      <c r="O19" s="131"/>
+      <c r="P19" s="131"/>
       <c r="Q19">
         <f>G10+G11+G19</f>
         <v>20.606009405733079</v>
@@ -14809,12 +14751,12 @@
       <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="133" t="s">
+      <c r="C20" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="133"/>
-      <c r="E20" s="133"/>
-      <c r="F20" s="133"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
       <c r="G20">
         <f>Dati_OPTN!C14/365*(1-M4-E4)</f>
         <v>3.4226206405630637</v>
@@ -14822,15 +14764,15 @@
       <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="133" t="s">
+      <c r="J20" s="131" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="133"/>
+      <c r="K20" s="131"/>
+      <c r="L20" s="131"/>
+      <c r="M20" s="131"/>
+      <c r="N20" s="131"/>
+      <c r="O20" s="131"/>
+      <c r="P20" s="131"/>
       <c r="Q20">
         <f>G12+G13+G20</f>
         <v>13.048619994531929</v>
@@ -14843,12 +14785,12 @@
       <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="133" t="s">
+      <c r="C21" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="133"/>
-      <c r="E21" s="133"/>
-      <c r="F21" s="133"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
       <c r="G21">
         <f>Dati_OPTN!C18/365*(1-M5-E5)</f>
         <v>0.91034319432342548</v>
@@ -14856,15 +14798,15 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="133" t="s">
+      <c r="J21" s="131" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="133"/>
+      <c r="K21" s="131"/>
+      <c r="L21" s="131"/>
+      <c r="M21" s="131"/>
+      <c r="N21" s="131"/>
+      <c r="O21" s="131"/>
+      <c r="P21" s="131"/>
       <c r="Q21">
         <f>G14+G15+G21</f>
         <v>3.8644037186220772</v>
@@ -14877,12 +14819,12 @@
       <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="133" t="s">
+      <c r="C22" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="133"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="133"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
       <c r="G22">
         <f>Dati_OPTN!C22/365*(1-M6-E6)</f>
         <v>0.28238714563804101</v>
@@ -14890,62 +14832,62 @@
       <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="133" t="s">
+      <c r="J22" s="131" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="133"/>
+      <c r="K22" s="131"/>
+      <c r="L22" s="131"/>
+      <c r="M22" s="131"/>
+      <c r="N22" s="131"/>
+      <c r="O22" s="131"/>
+      <c r="P22" s="131"/>
       <c r="Q22">
         <f>G16+G17+G22</f>
         <v>1.0454891531529331</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="137" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="136"/>
-      <c r="C25" s="136"/>
-      <c r="D25" s="136"/>
-      <c r="E25" s="136"/>
-      <c r="F25" s="136"/>
-      <c r="I25" s="136" t="s">
+      <c r="B25" s="137"/>
+      <c r="C25" s="137"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="137"/>
+      <c r="F25" s="137"/>
+      <c r="I25" s="137" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="136"/>
-      <c r="K25" s="136"/>
-      <c r="L25" s="136"/>
-      <c r="M25" s="136"/>
-      <c r="N25" s="136"/>
-      <c r="Q25" s="136" t="s">
+      <c r="J25" s="137"/>
+      <c r="K25" s="137"/>
+      <c r="L25" s="137"/>
+      <c r="M25" s="137"/>
+      <c r="N25" s="137"/>
+      <c r="Q25" s="137" t="s">
         <v>109</v>
       </c>
-      <c r="R25" s="136"/>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
-      <c r="U25" s="136"/>
-      <c r="V25" s="136"/>
-      <c r="Y25" s="136" t="s">
+      <c r="R25" s="137"/>
+      <c r="S25" s="137"/>
+      <c r="T25" s="137"/>
+      <c r="U25" s="137"/>
+      <c r="V25" s="137"/>
+      <c r="Y25" s="137" t="s">
         <v>110</v>
       </c>
-      <c r="Z25" s="136"/>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="136"/>
+      <c r="Z25" s="137"/>
+      <c r="AA25" s="137"/>
+      <c r="AB25" s="137"/>
+      <c r="AC25" s="137"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
+      <c r="C26" s="134"/>
+      <c r="D26" s="134"/>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
@@ -14955,34 +14897,34 @@
       <c r="I26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="132" t="s">
+      <c r="J26" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="132"/>
-      <c r="L26" s="132"/>
-      <c r="M26" s="132"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
       <c r="N26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="132" t="s">
+      <c r="R26" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="S26" s="132"/>
-      <c r="T26" s="132"/>
-      <c r="U26" s="132"/>
+      <c r="S26" s="134"/>
+      <c r="T26" s="134"/>
+      <c r="U26" s="134"/>
       <c r="V26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="132" t="s">
+      <c r="Z26" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="AA26" s="132"/>
+      <c r="AA26" s="134"/>
       <c r="AB26" s="2" t="s">
         <v>46</v>
       </c>
@@ -14994,11 +14936,11 @@
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="133"/>
-      <c r="D27" s="133"/>
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
       <c r="E27">
         <f>Arrivi!D31/Arrivi!D29</f>
         <v>0.45980196406014429</v>
@@ -15010,12 +14952,12 @@
       <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="133" t="s">
+      <c r="J27" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
+      <c r="M27" s="131"/>
       <c r="N27">
         <f>1/(2*E27*Arrivi!H31)</f>
         <v>9.2240298702594314E-2</v>
@@ -15023,12 +14965,12 @@
       <c r="Q27" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="133" t="s">
+      <c r="R27" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="S27" s="133"/>
-      <c r="T27" s="133"/>
-      <c r="U27" s="133"/>
+      <c r="S27" s="131"/>
+      <c r="T27" s="131"/>
+      <c r="U27" s="131"/>
       <c r="V27">
         <f>1/(2*F27*Arrivi!H30)</f>
         <v>6.3479719307352522E-2</v>
@@ -15036,10 +14978,10 @@
       <c r="Y27" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="133" t="s">
+      <c r="Z27" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="AA27" s="133"/>
+      <c r="AA27" s="131"/>
       <c r="AB27">
         <f>E27*N27+F27*V27</f>
         <v>7.6703890200792421E-2</v>
@@ -15053,11 +14995,11 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="131" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="133"/>
-      <c r="D28" s="133"/>
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
       <c r="E28">
         <f>Arrivi!D34/Arrivi!D32</f>
         <v>0.32570024570024569</v>
@@ -15069,12 +15011,12 @@
       <c r="I28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="133" t="s">
+      <c r="J28" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
       <c r="N28">
         <f>1/(2*E28*Arrivi!H34)</f>
         <v>0.29662846521470904</v>
@@ -15082,12 +15024,12 @@
       <c r="Q28" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="133" t="s">
+      <c r="R28" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="S28" s="133"/>
-      <c r="T28" s="133"/>
-      <c r="U28" s="133"/>
+      <c r="S28" s="131"/>
+      <c r="T28" s="131"/>
+      <c r="U28" s="131"/>
       <c r="V28">
         <f>1/(2*F28*Arrivi!H33)</f>
         <v>6.5580601925874338E-2</v>
@@ -15095,10 +15037,10 @@
       <c r="Y28" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="133" t="s">
+      <c r="Z28" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="AA28" s="133"/>
+      <c r="AA28" s="131"/>
       <c r="AB28">
         <f>E28*N28+F28*V28</f>
         <v>0.14083294776756458</v>
@@ -15112,11 +15054,11 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="133" t="s">
+      <c r="B29" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="133"/>
-      <c r="D29" s="133"/>
+      <c r="C29" s="131"/>
+      <c r="D29" s="131"/>
       <c r="E29">
         <f>Arrivi!D37/Arrivi!D35</f>
         <v>0.3090813093980993</v>
@@ -15128,12 +15070,12 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="133" t="s">
+      <c r="J29" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
+      <c r="K29" s="131"/>
+      <c r="L29" s="131"/>
+      <c r="M29" s="131"/>
       <c r="N29">
         <f>1/(2*E29*Arrivi!H37)</f>
         <v>1.0506397061594894</v>
@@ -15141,12 +15083,12 @@
       <c r="Q29" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="133" t="s">
+      <c r="R29" s="131" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="133"/>
-      <c r="T29" s="133"/>
-      <c r="U29" s="133"/>
+      <c r="S29" s="131"/>
+      <c r="T29" s="131"/>
+      <c r="U29" s="131"/>
       <c r="V29">
         <f>1/(2*F29*Arrivi!H36)</f>
         <v>0.20117369900147355</v>
@@ -15154,10 +15096,10 @@
       <c r="Y29" t="s">
         <v>25</v>
       </c>
-      <c r="Z29" s="133" t="s">
+      <c r="Z29" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="AA29" s="133"/>
+      <c r="AA29" s="131"/>
       <c r="AB29">
         <f>E29*N29+F29*V29</f>
         <v>0.46372776478304834</v>
@@ -15171,11 +15113,11 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="133"/>
-      <c r="D30" s="133"/>
+      <c r="C30" s="131"/>
+      <c r="D30" s="131"/>
       <c r="E30">
         <f>Arrivi!D40/Arrivi!D38</f>
         <v>0.20058626465661641</v>
@@ -15187,12 +15129,12 @@
       <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="133" t="s">
+      <c r="J30" s="131" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="133"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
+      <c r="K30" s="131"/>
+      <c r="L30" s="131"/>
+      <c r="M30" s="131"/>
       <c r="N30">
         <f>1/(2*E30*Arrivi!H40)</f>
         <v>8.1235087980912617</v>
@@ -15200,12 +15142,12 @@
       <c r="Q30" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="133" t="s">
+      <c r="R30" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="S30" s="133"/>
-      <c r="T30" s="133"/>
-      <c r="U30" s="133"/>
+      <c r="S30" s="131"/>
+      <c r="T30" s="131"/>
+      <c r="U30" s="131"/>
       <c r="V30">
         <f>1/(2*F30*Arrivi!H39)</f>
         <v>0.58536487085465616</v>
@@ -15213,10 +15155,10 @@
       <c r="Y30" t="s">
         <v>26</v>
       </c>
-      <c r="Z30" s="133" t="s">
+      <c r="Z30" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="AA30" s="133"/>
+      <c r="AA30" s="131"/>
       <c r="AB30">
         <f>E30*N30+F30*V30</f>
         <v>2.0974130036630036</v>
@@ -15227,27 +15169,27 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="137" t="s">
+      <c r="A33" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="137"/>
-      <c r="C33" s="137"/>
-      <c r="D33" s="137"/>
-      <c r="F33" s="138" t="s">
+      <c r="B33" s="136"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="F33" s="139" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="138"/>
-      <c r="H33" s="138"/>
-      <c r="I33" s="138"/>
+      <c r="G33" s="139"/>
+      <c r="H33" s="139"/>
+      <c r="I33" s="139"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="139" t="s">
+      <c r="B34" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="139"/>
+      <c r="C34" s="135"/>
       <c r="D34">
         <f>Q19*AB27</f>
         <v>1.5805610829338461</v>
@@ -15255,10 +15197,10 @@
       <c r="F34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="133" t="s">
+      <c r="G34" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="133"/>
+      <c r="H34" s="131"/>
       <c r="I34">
         <f>1/(2*E27*F27)-1</f>
         <v>1.0130111547150507</v>
@@ -15268,10 +15210,10 @@
       <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="139"/>
+      <c r="C35" s="135"/>
       <c r="D35">
         <f>Q20*AB28</f>
         <v>1.8376756181287139</v>
@@ -15279,10 +15221,10 @@
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="133" t="s">
+      <c r="G35" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="133"/>
+      <c r="H35" s="131"/>
       <c r="I35">
         <f>1/(2*E28*F28)-1</f>
         <v>1.2766638765442981</v>
@@ -15292,10 +15234,10 @@
       <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="139"/>
+      <c r="C36" s="135"/>
       <c r="D36">
         <f>Q21*AB29</f>
         <v>1.7920312986559159</v>
@@ -15303,10 +15245,10 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="133" t="s">
+      <c r="G36" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="133"/>
+      <c r="H36" s="131"/>
       <c r="I36">
         <f>1/(2*E29*F29)-1</f>
         <v>1.3413714565768982</v>
@@ -15316,10 +15258,10 @@
       <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="139" t="s">
+      <c r="B37" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="139"/>
+      <c r="C37" s="135"/>
       <c r="D37">
         <f>Q22*AB30</f>
         <v>2.1928225450115835</v>
@@ -15327,22 +15269,22 @@
       <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="133" t="s">
+      <c r="G37" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="133"/>
+      <c r="H37" s="131"/>
       <c r="I37">
         <f>1/(2*E30*F30)-1</f>
         <v>2.1181514658069514</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="137" t="s">
+      <c r="A40" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="137"/>
-      <c r="C40" s="137"/>
-      <c r="D40" s="137"/>
+      <c r="B40" s="136"/>
+      <c r="C40" s="136"/>
+      <c r="D40" s="136"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -15475,42 +15417,42 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="140" t="s">
+      <c r="A51" s="138" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="140"/>
-      <c r="C51" s="140"/>
-      <c r="D51" s="140"/>
-      <c r="E51" s="140"/>
-      <c r="F51" s="140"/>
-      <c r="G51" s="140"/>
-      <c r="H51" s="140"/>
-      <c r="I51" s="140"/>
-      <c r="J51" s="140"/>
-      <c r="K51" s="140"/>
-      <c r="L51" s="140"/>
-      <c r="M51" s="140"/>
-      <c r="N51" s="140"/>
-      <c r="O51" s="140"/>
+      <c r="B51" s="138"/>
+      <c r="C51" s="138"/>
+      <c r="D51" s="138"/>
+      <c r="E51" s="138"/>
+      <c r="F51" s="138"/>
+      <c r="G51" s="138"/>
+      <c r="H51" s="138"/>
+      <c r="I51" s="138"/>
+      <c r="J51" s="138"/>
+      <c r="K51" s="138"/>
+      <c r="L51" s="138"/>
+      <c r="M51" s="138"/>
+      <c r="N51" s="138"/>
+      <c r="O51" s="138"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="141" t="s">
+      <c r="A52" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="141"/>
-      <c r="C52" s="141"/>
-      <c r="D52" s="141"/>
-      <c r="E52" s="141"/>
-      <c r="F52" s="141"/>
-      <c r="I52" s="141" t="s">
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="I52" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="J52" s="141"/>
-      <c r="K52" s="141"/>
-      <c r="L52" s="141"/>
-      <c r="M52" s="141"/>
-      <c r="N52" s="141"/>
-      <c r="O52" s="141"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
+      <c r="N52" s="133"/>
+      <c r="O52" s="133"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -15519,26 +15461,26 @@
       <c r="B53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="132" t="s">
+      <c r="C53" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="132"/>
-      <c r="E53" s="132"/>
+      <c r="D53" s="134"/>
+      <c r="E53" s="134"/>
       <c r="F53" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="132" t="s">
+      <c r="J53" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="K53" s="132"/>
-      <c r="L53" s="132" t="s">
+      <c r="K53" s="134"/>
+      <c r="L53" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="132"/>
-      <c r="N53" s="132"/>
+      <c r="M53" s="134"/>
+      <c r="N53" s="134"/>
       <c r="O53" s="2" t="s">
         <v>146</v>
       </c>
@@ -15550,11 +15492,11 @@
       <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="133" t="s">
+      <c r="C54" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="133"/>
-      <c r="E54" s="133"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
       <c r="F54">
         <f>(D34*AB27*(1+I34))/(2*(1-D42))</f>
         <v>0.1222042352739537</v>
@@ -15562,15 +15504,15 @@
       <c r="I54" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="133" t="s">
+      <c r="J54" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="133"/>
-      <c r="L54" s="133" t="s">
+      <c r="K54" s="131"/>
+      <c r="L54" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="133"/>
-      <c r="N54" s="133"/>
+      <c r="M54" s="131"/>
+      <c r="N54" s="131"/>
       <c r="O54">
         <f>F54+AB27</f>
         <v>0.19890812547474612</v>
@@ -15580,32 +15522,32 @@
       <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="133" t="s">
+      <c r="C55" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="133"/>
-      <c r="E55" s="133"/>
+      <c r="D55" s="131"/>
+      <c r="E55" s="131"/>
       <c r="F55">
         <f>(D34*AB27*(1+I34))/(2*(1-D42)*(1-D34))</f>
         <v>-0.21049332941229656</v>
       </c>
-      <c r="J55" s="133" t="s">
+      <c r="J55" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="133"/>
-      <c r="L55" s="133" t="s">
+      <c r="K55" s="131"/>
+      <c r="L55" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M55" s="133"/>
-      <c r="N55" s="133"/>
+      <c r="M55" s="131"/>
+      <c r="N55" s="131"/>
       <c r="O55">
         <f>F55+AB27</f>
         <v>-0.13378943921150416</v>
       </c>
-      <c r="S55" s="142" t="s">
+      <c r="S55" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="T55" s="142"/>
+      <c r="T55" s="132"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -15614,11 +15556,11 @@
       <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="133" t="s">
+      <c r="C56" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="133"/>
-      <c r="E56" s="133"/>
+      <c r="D56" s="131"/>
+      <c r="E56" s="131"/>
       <c r="F56">
         <f>(D35*AB28*(1+I35))/(2*(1-D44))</f>
         <v>0.29500914142831403</v>
@@ -15626,15 +15568,15 @@
       <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="133" t="s">
+      <c r="J56" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K56" s="133"/>
-      <c r="L56" s="133" t="s">
+      <c r="K56" s="131"/>
+      <c r="L56" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M56" s="133"/>
-      <c r="N56" s="133"/>
+      <c r="M56" s="131"/>
+      <c r="N56" s="131"/>
       <c r="O56">
         <f>F56+AB28</f>
         <v>0.43584208919587863</v>
@@ -15651,24 +15593,24 @@
       <c r="B57" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="133" t="s">
+      <c r="C57" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="133"/>
-      <c r="E57" s="133"/>
+      <c r="D57" s="131"/>
+      <c r="E57" s="131"/>
       <c r="F57">
         <f>(D35*AB28*(1+I35))/(2*(1-D44)*(1-D35))</f>
         <v>-0.3521758721918346</v>
       </c>
-      <c r="J57" s="133" t="s">
+      <c r="J57" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K57" s="133"/>
-      <c r="L57" s="133" t="s">
+      <c r="K57" s="131"/>
+      <c r="L57" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M57" s="133"/>
-      <c r="N57" s="133"/>
+      <c r="M57" s="131"/>
+      <c r="N57" s="131"/>
       <c r="O57">
         <f>F57+AB28</f>
         <v>-0.21134292442427002</v>
@@ -15688,11 +15630,11 @@
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="133" t="s">
+      <c r="C58" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="133"/>
-      <c r="E58" s="133"/>
+      <c r="D58" s="131"/>
+      <c r="E58" s="131"/>
       <c r="F58">
         <f>(D36*AB29*(1+I36))/(2*(1-D46))</f>
         <v>0.97569961407009964</v>
@@ -15700,15 +15642,15 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="133" t="s">
+      <c r="J58" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="133"/>
-      <c r="L58" s="133" t="s">
+      <c r="K58" s="131"/>
+      <c r="L58" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M58" s="133"/>
-      <c r="N58" s="133"/>
+      <c r="M58" s="131"/>
+      <c r="N58" s="131"/>
       <c r="O58">
         <f>F58+AB29</f>
         <v>1.439427378853148</v>
@@ -15725,24 +15667,24 @@
       <c r="B59" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="133" t="s">
+      <c r="C59" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="133"/>
-      <c r="E59" s="133"/>
+      <c r="D59" s="131"/>
+      <c r="E59" s="131"/>
       <c r="F59">
         <f>(D36*AB29*(1+I36))/(2*(1-D46)*(1-D36))</f>
         <v>-1.2318952744997205</v>
       </c>
-      <c r="J59" s="133" t="s">
+      <c r="J59" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="133"/>
-      <c r="L59" s="133" t="s">
+      <c r="K59" s="131"/>
+      <c r="L59" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M59" s="133"/>
-      <c r="N59" s="133"/>
+      <c r="M59" s="131"/>
+      <c r="N59" s="131"/>
       <c r="O59">
         <f>F59+AB29</f>
         <v>-0.76816750971667214</v>
@@ -15762,11 +15704,11 @@
       <c r="B60" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="133" t="s">
+      <c r="C60" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="133"/>
-      <c r="E60" s="133"/>
+      <c r="D60" s="131"/>
+      <c r="E60" s="131"/>
       <c r="F60">
         <f>(D37*AB30*(1+I37))/(2*(1-D48))</f>
         <v>7.1903942263427414</v>
@@ -15774,15 +15716,15 @@
       <c r="I60" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="133" t="s">
+      <c r="J60" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K60" s="133"/>
-      <c r="L60" s="133" t="s">
+      <c r="K60" s="131"/>
+      <c r="L60" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M60" s="133"/>
-      <c r="N60" s="133"/>
+      <c r="M60" s="131"/>
+      <c r="N60" s="131"/>
       <c r="O60">
         <f>F60+AB30</f>
         <v>9.287807230005745</v>
@@ -15792,71 +15734,71 @@
       <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="133" t="s">
+      <c r="C61" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="133"/>
-      <c r="E61" s="133"/>
+      <c r="D61" s="131"/>
+      <c r="E61" s="131"/>
       <c r="F61">
         <f>(D37*AB30*(1+I37))/(2*(1-D48)*(1-D37))</f>
         <v>-6.0280502379948864</v>
       </c>
-      <c r="J61" s="133" t="s">
+      <c r="J61" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="133"/>
-      <c r="L61" s="133" t="s">
+      <c r="K61" s="131"/>
+      <c r="L61" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M61" s="133"/>
-      <c r="N61" s="133"/>
+      <c r="M61" s="131"/>
+      <c r="N61" s="131"/>
       <c r="O61">
         <f>F61+AB30</f>
         <v>-3.9306372343318827</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="141" t="s">
+      <c r="A62" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="141"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="141"/>
-      <c r="I62" s="141" t="s">
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="133"/>
+      <c r="E62" s="133"/>
+      <c r="F62" s="133"/>
+      <c r="I62" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="J62" s="141"/>
-      <c r="K62" s="141"/>
-      <c r="L62" s="141"/>
-      <c r="M62" s="141"/>
-      <c r="N62" s="141"/>
-      <c r="O62" s="141"/>
+      <c r="J62" s="133"/>
+      <c r="K62" s="133"/>
+      <c r="L62" s="133"/>
+      <c r="M62" s="133"/>
+      <c r="N62" s="133"/>
+      <c r="O62" s="133"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="132" t="s">
+      <c r="B63" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="132"/>
-      <c r="D63" s="132"/>
-      <c r="E63" s="132"/>
+      <c r="C63" s="134"/>
+      <c r="D63" s="134"/>
+      <c r="E63" s="134"/>
       <c r="F63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J63" s="132" t="s">
+      <c r="J63" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="132"/>
-      <c r="L63" s="132"/>
-      <c r="M63" s="132"/>
-      <c r="N63" s="132"/>
+      <c r="K63" s="134"/>
+      <c r="L63" s="134"/>
+      <c r="M63" s="134"/>
+      <c r="N63" s="134"/>
       <c r="O63" s="2" t="s">
         <v>146</v>
       </c>
@@ -15865,12 +15807,12 @@
       <c r="A64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="133" t="s">
+      <c r="B64" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="133"/>
-      <c r="D64" s="133"/>
-      <c r="E64" s="133"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="131"/>
+      <c r="E64" s="131"/>
       <c r="F64">
         <f>C42*F54+C43*F55</f>
         <v>-0.21018268742846255</v>
@@ -15878,13 +15820,13 @@
       <c r="I64" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="133" t="s">
+      <c r="J64" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="133"/>
-      <c r="L64" s="133"/>
-      <c r="M64" s="133"/>
-      <c r="N64" s="133"/>
+      <c r="K64" s="131"/>
+      <c r="L64" s="131"/>
+      <c r="M64" s="131"/>
+      <c r="N64" s="131"/>
       <c r="O64">
         <f>C42*O54+C43*O55</f>
         <v>-0.13347879722767014</v>
@@ -15894,12 +15836,12 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="133" t="s">
+      <c r="B65" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="133"/>
-      <c r="D65" s="133"/>
-      <c r="E65" s="133"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="131"/>
+      <c r="E65" s="131"/>
       <c r="F65">
         <f>C44*F56+C45*F57</f>
         <v>-0.35169497977571024</v>
@@ -15907,13 +15849,13 @@
       <c r="I65" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="133" t="s">
+      <c r="J65" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K65" s="133"/>
-      <c r="L65" s="133"/>
-      <c r="M65" s="133"/>
-      <c r="N65" s="133"/>
+      <c r="K65" s="131"/>
+      <c r="L65" s="131"/>
+      <c r="M65" s="131"/>
+      <c r="N65" s="131"/>
       <c r="O65">
         <f>C44*O56+C45*O57</f>
         <v>-0.21086203200814566</v>
@@ -15923,12 +15865,12 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="133" t="s">
+      <c r="B66" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="133"/>
-      <c r="D66" s="133"/>
-      <c r="E66" s="133"/>
+      <c r="C66" s="131"/>
+      <c r="D66" s="131"/>
+      <c r="E66" s="131"/>
       <c r="F66">
         <f>C46*F58+C47*F59</f>
         <v>-1.2283062728925513</v>
@@ -15936,13 +15878,13 @@
       <c r="I66" t="s">
         <v>25</v>
       </c>
-      <c r="J66" s="133" t="s">
+      <c r="J66" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="133"/>
-      <c r="L66" s="133"/>
-      <c r="M66" s="133"/>
-      <c r="N66" s="133"/>
+      <c r="K66" s="131"/>
+      <c r="L66" s="131"/>
+      <c r="M66" s="131"/>
+      <c r="N66" s="131"/>
       <c r="O66">
         <f>C46*O58+C47*O59</f>
         <v>-0.7645785081095029</v>
@@ -15952,12 +15894,12 @@
       <c r="A67" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="133" t="s">
+      <c r="B67" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="133"/>
-      <c r="D67" s="133"/>
-      <c r="E67" s="133"/>
+      <c r="C67" s="131"/>
+      <c r="D67" s="131"/>
+      <c r="E67" s="131"/>
       <c r="F67">
         <f>C48*F60+C49*F61</f>
         <v>-6.0114441519844126</v>
@@ -15965,36 +15907,36 @@
       <c r="I67" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="133" t="s">
+      <c r="J67" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="133"/>
-      <c r="L67" s="133"/>
-      <c r="M67" s="133"/>
-      <c r="N67" s="133"/>
+      <c r="K67" s="131"/>
+      <c r="L67" s="131"/>
+      <c r="M67" s="131"/>
+      <c r="N67" s="131"/>
       <c r="O67">
         <f>C48*O60+C49*O61</f>
         <v>-3.9140311483214085</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="141" t="s">
+      <c r="A70" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="141"/>
-      <c r="C70" s="141"/>
-      <c r="D70" s="141"/>
-      <c r="E70" s="141"/>
-      <c r="F70" s="141"/>
-      <c r="I70" s="141" t="s">
+      <c r="B70" s="133"/>
+      <c r="C70" s="133"/>
+      <c r="D70" s="133"/>
+      <c r="E70" s="133"/>
+      <c r="F70" s="133"/>
+      <c r="I70" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="J70" s="141"/>
-      <c r="K70" s="141"/>
-      <c r="L70" s="141"/>
-      <c r="M70" s="141"/>
-      <c r="N70" s="141"/>
-      <c r="O70" s="141"/>
+      <c r="J70" s="133"/>
+      <c r="K70" s="133"/>
+      <c r="L70" s="133"/>
+      <c r="M70" s="133"/>
+      <c r="N70" s="133"/>
+      <c r="O70" s="133"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -16003,26 +15945,26 @@
       <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="132" t="s">
+      <c r="C71" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="132"/>
-      <c r="E71" s="132"/>
+      <c r="D71" s="134"/>
+      <c r="E71" s="134"/>
       <c r="F71" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="132" t="s">
+      <c r="J71" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="K71" s="132"/>
-      <c r="L71" s="132" t="s">
+      <c r="K71" s="134"/>
+      <c r="L71" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="M71" s="132"/>
-      <c r="N71" s="132"/>
+      <c r="M71" s="134"/>
+      <c r="N71" s="134"/>
       <c r="O71" s="2" t="s">
         <v>159</v>
       </c>
@@ -16034,11 +15976,11 @@
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="133" t="s">
+      <c r="C72" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="133"/>
-      <c r="E72" s="133"/>
+      <c r="D72" s="131"/>
+      <c r="E72" s="131"/>
       <c r="F72">
         <f t="shared" ref="F72:F79" si="0">P10*F54</f>
         <v>2.3512059957754516E-3</v>
@@ -16046,15 +15988,15 @@
       <c r="I72" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="133" t="s">
+      <c r="J72" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K72" s="133"/>
-      <c r="L72" s="133" t="s">
+      <c r="K72" s="131"/>
+      <c r="L72" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="M72" s="133"/>
-      <c r="N72" s="133"/>
+      <c r="M72" s="131"/>
+      <c r="N72" s="131"/>
       <c r="O72">
         <f t="shared" ref="O72:O79" si="1">P10*O54</f>
         <v>3.8269866521095748E-3</v>
@@ -16064,24 +16006,24 @@
       <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="133" t="s">
+      <c r="C73" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="133"/>
-      <c r="E73" s="133"/>
+      <c r="D73" s="131"/>
+      <c r="E73" s="131"/>
       <c r="F73">
         <f t="shared" si="0"/>
         <v>-4.3333776400689308</v>
       </c>
-      <c r="J73" s="133" t="s">
+      <c r="J73" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K73" s="133"/>
-      <c r="L73" s="133" t="s">
+      <c r="K73" s="131"/>
+      <c r="L73" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="M73" s="133"/>
-      <c r="N73" s="133"/>
+      <c r="M73" s="131"/>
+      <c r="N73" s="131"/>
       <c r="O73">
         <f t="shared" si="1"/>
         <v>-2.7542923377914188</v>
@@ -16094,11 +16036,11 @@
       <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="133" t="s">
+      <c r="C74" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="133"/>
-      <c r="E74" s="133"/>
+      <c r="D74" s="131"/>
+      <c r="E74" s="131"/>
       <c r="F74">
         <f t="shared" si="0"/>
         <v>2.8603523416638396E-3</v>
@@ -16106,15 +16048,15 @@
       <c r="I74" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="133" t="s">
+      <c r="J74" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K74" s="133"/>
-      <c r="L74" s="133" t="s">
+      <c r="K74" s="131"/>
+      <c r="L74" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="M74" s="133"/>
-      <c r="N74" s="133"/>
+      <c r="M74" s="131"/>
+      <c r="N74" s="131"/>
       <c r="O74">
         <f t="shared" si="1"/>
         <v>4.2258417294842544E-3</v>
@@ -16124,24 +16066,24 @@
       <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="133" t="s">
+      <c r="C75" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="133"/>
-      <c r="E75" s="133"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="131"/>
       <c r="F75">
         <f t="shared" si="0"/>
         <v>-4.5919944974194991</v>
       </c>
-      <c r="J75" s="133" t="s">
+      <c r="J75" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K75" s="133"/>
-      <c r="L75" s="133" t="s">
+      <c r="K75" s="131"/>
+      <c r="L75" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="M75" s="133"/>
-      <c r="N75" s="133"/>
+      <c r="M75" s="131"/>
+      <c r="N75" s="131"/>
       <c r="O75">
         <f t="shared" si="1"/>
         <v>-2.7556843686786054</v>
@@ -16154,11 +16096,11 @@
       <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="133" t="s">
+      <c r="C76" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="133"/>
-      <c r="E76" s="133"/>
+      <c r="D76" s="131"/>
+      <c r="E76" s="131"/>
       <c r="F76">
         <f t="shared" si="0"/>
         <v>6.1298930529517454E-3</v>
@@ -16166,15 +16108,15 @@
       <c r="I76" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="133" t="s">
+      <c r="J76" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K76" s="133"/>
-      <c r="L76" s="133" t="s">
+      <c r="K76" s="131"/>
+      <c r="L76" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="M76" s="133"/>
-      <c r="N76" s="133"/>
+      <c r="M76" s="131"/>
+      <c r="N76" s="131"/>
       <c r="O76">
         <f t="shared" si="1"/>
         <v>9.0432913599846117E-3</v>
@@ -16184,24 +16126,24 @@
       <c r="B77" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="133" t="s">
+      <c r="C77" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="133"/>
-      <c r="E77" s="133"/>
+      <c r="D77" s="131"/>
+      <c r="E77" s="131"/>
       <c r="F77">
         <f t="shared" si="0"/>
         <v>-4.7528012216257505</v>
       </c>
-      <c r="J77" s="133" t="s">
+      <c r="J77" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K77" s="133"/>
-      <c r="L77" s="133" t="s">
+      <c r="K77" s="131"/>
+      <c r="L77" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="M77" s="133"/>
-      <c r="N77" s="133"/>
+      <c r="M77" s="131"/>
+      <c r="N77" s="131"/>
       <c r="O77">
         <f t="shared" si="1"/>
         <v>-2.9636833212768678</v>
@@ -16214,11 +16156,11 @@
       <c r="B78" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="133" t="s">
+      <c r="C78" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="133"/>
-      <c r="E78" s="133"/>
+      <c r="D78" s="131"/>
+      <c r="E78" s="131"/>
       <c r="F78">
         <f t="shared" si="0"/>
         <v>9.444069309717102E-3</v>
@@ -16226,15 +16168,15 @@
       <c r="I78" t="s">
         <v>26</v>
       </c>
-      <c r="J78" s="133" t="s">
+      <c r="J78" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K78" s="133"/>
-      <c r="L78" s="133" t="s">
+      <c r="K78" s="131"/>
+      <c r="L78" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="M78" s="133"/>
-      <c r="N78" s="133"/>
+      <c r="M78" s="131"/>
+      <c r="N78" s="131"/>
       <c r="O78">
         <f t="shared" si="1"/>
         <v>1.219887150194271E-2</v>
@@ -16244,71 +16186,71 @@
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="133" t="s">
+      <c r="C79" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="133"/>
-      <c r="E79" s="133"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="131"/>
       <c r="F79">
         <f t="shared" si="0"/>
         <v>-6.2943437249940519</v>
       </c>
-      <c r="J79" s="133" t="s">
+      <c r="J79" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K79" s="133"/>
-      <c r="L79" s="133" t="s">
+      <c r="K79" s="131"/>
+      <c r="L79" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="M79" s="133"/>
-      <c r="N79" s="133"/>
+      <c r="M79" s="131"/>
+      <c r="N79" s="131"/>
       <c r="O79">
         <f t="shared" si="1"/>
         <v>-4.1042759821746939</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="141" t="s">
+      <c r="A80" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="141"/>
-      <c r="C80" s="141"/>
-      <c r="D80" s="141"/>
-      <c r="E80" s="141"/>
-      <c r="F80" s="141"/>
-      <c r="I80" s="141" t="s">
+      <c r="B80" s="133"/>
+      <c r="C80" s="133"/>
+      <c r="D80" s="133"/>
+      <c r="E80" s="133"/>
+      <c r="F80" s="133"/>
+      <c r="I80" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="J80" s="141"/>
-      <c r="K80" s="141"/>
-      <c r="L80" s="141"/>
-      <c r="M80" s="141"/>
-      <c r="N80" s="141"/>
-      <c r="O80" s="141"/>
+      <c r="J80" s="133"/>
+      <c r="K80" s="133"/>
+      <c r="L80" s="133"/>
+      <c r="M80" s="133"/>
+      <c r="N80" s="133"/>
+      <c r="O80" s="133"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="132" t="s">
+      <c r="B81" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="132"/>
-      <c r="D81" s="132"/>
-      <c r="E81" s="132"/>
+      <c r="C81" s="134"/>
+      <c r="D81" s="134"/>
+      <c r="E81" s="134"/>
       <c r="F81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J81" s="132" t="s">
+      <c r="J81" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K81" s="132"/>
-      <c r="L81" s="132"/>
-      <c r="M81" s="132"/>
-      <c r="N81" s="132"/>
+      <c r="K81" s="134"/>
+      <c r="L81" s="134"/>
+      <c r="M81" s="134"/>
+      <c r="N81" s="134"/>
       <c r="O81" s="2" t="s">
         <v>159</v>
       </c>
@@ -16317,12 +16259,12 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="133" t="s">
+      <c r="B82" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="133"/>
-      <c r="D82" s="133"/>
-      <c r="E82" s="133"/>
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
       <c r="F82">
         <f>Q19*F64</f>
         <v>-4.3310264340731548</v>
@@ -16330,13 +16272,13 @@
       <c r="I82" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="133" t="s">
+      <c r="J82" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="133"/>
-      <c r="L82" s="133"/>
-      <c r="M82" s="133"/>
-      <c r="N82" s="133"/>
+      <c r="K82" s="131"/>
+      <c r="L82" s="131"/>
+      <c r="M82" s="131"/>
+      <c r="N82" s="131"/>
       <c r="O82">
         <f>Q19*O64</f>
         <v>-2.7504653511393093</v>
@@ -16346,12 +16288,12 @@
       <c r="A83" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="133" t="s">
+      <c r="B83" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="133"/>
-      <c r="D83" s="133"/>
-      <c r="E83" s="133"/>
+      <c r="C83" s="131"/>
+      <c r="D83" s="131"/>
+      <c r="E83" s="131"/>
       <c r="F83">
         <f>Q20*F65</f>
         <v>-4.5891341450778347</v>
@@ -16359,13 +16301,13 @@
       <c r="I83" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="133" t="s">
+      <c r="J83" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="K83" s="133"/>
-      <c r="L83" s="133"/>
-      <c r="M83" s="133"/>
-      <c r="N83" s="133"/>
+      <c r="K83" s="131"/>
+      <c r="L83" s="131"/>
+      <c r="M83" s="131"/>
+      <c r="N83" s="131"/>
       <c r="O83">
         <f>Q20*O65</f>
         <v>-2.7514585269491212</v>
@@ -16375,12 +16317,12 @@
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="133" t="s">
+      <c r="B84" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="133"/>
-      <c r="D84" s="133"/>
-      <c r="E84" s="133"/>
+      <c r="C84" s="131"/>
+      <c r="D84" s="131"/>
+      <c r="E84" s="131"/>
       <c r="F84">
         <f>Q21*F66</f>
         <v>-4.7466713285727993</v>
@@ -16388,13 +16330,13 @@
       <c r="I84" t="s">
         <v>25</v>
       </c>
-      <c r="J84" s="133" t="s">
+      <c r="J84" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="K84" s="133"/>
-      <c r="L84" s="133"/>
-      <c r="M84" s="133"/>
-      <c r="N84" s="133"/>
+      <c r="K84" s="131"/>
+      <c r="L84" s="131"/>
+      <c r="M84" s="131"/>
+      <c r="N84" s="131"/>
       <c r="O84">
         <f>Q21*O66</f>
         <v>-2.9546400299168831</v>
@@ -16404,12 +16346,12 @@
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="133" t="s">
+      <c r="B85" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="133"/>
-      <c r="D85" s="133"/>
-      <c r="E85" s="133"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
       <c r="F85">
         <f>Q22*F67</f>
         <v>-6.2848996556843355</v>
@@ -16417,62 +16359,62 @@
       <c r="I85" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="133" t="s">
+      <c r="J85" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="K85" s="133"/>
-      <c r="L85" s="133"/>
-      <c r="M85" s="133"/>
-      <c r="N85" s="133"/>
+      <c r="K85" s="131"/>
+      <c r="L85" s="131"/>
+      <c r="M85" s="131"/>
+      <c r="N85" s="131"/>
       <c r="O85">
         <f>Q22*O67</f>
         <v>-4.0920771106727516</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="140" t="s">
+      <c r="A88" s="138" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="140"/>
-      <c r="C88" s="140"/>
-      <c r="D88" s="140"/>
-      <c r="E88" s="140"/>
-      <c r="F88" s="140"/>
-      <c r="G88" s="140"/>
-      <c r="H88" s="140"/>
-      <c r="I88" s="140"/>
-      <c r="J88" s="140"/>
-      <c r="K88" s="140"/>
-      <c r="L88" s="140"/>
-      <c r="M88" s="140"/>
-      <c r="N88" s="140"/>
-      <c r="O88" s="140"/>
+      <c r="B88" s="138"/>
+      <c r="C88" s="138"/>
+      <c r="D88" s="138"/>
+      <c r="E88" s="138"/>
+      <c r="F88" s="138"/>
+      <c r="G88" s="138"/>
+      <c r="H88" s="138"/>
+      <c r="I88" s="138"/>
+      <c r="J88" s="138"/>
+      <c r="K88" s="138"/>
+      <c r="L88" s="138"/>
+      <c r="M88" s="138"/>
+      <c r="N88" s="138"/>
+      <c r="O88" s="138"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="141" t="s">
+      <c r="A89" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="141"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="I89" s="141" t="s">
+      <c r="B89" s="133"/>
+      <c r="C89" s="133"/>
+      <c r="D89" s="133"/>
+      <c r="E89" s="133"/>
+      <c r="F89" s="133"/>
+      <c r="I89" s="133" t="s">
         <v>143</v>
       </c>
-      <c r="J89" s="141"/>
-      <c r="K89" s="141"/>
-      <c r="L89" s="141"/>
-      <c r="M89" s="141"/>
-      <c r="N89" s="141"/>
-      <c r="O89" s="141"/>
-      <c r="R89" s="136" t="s">
+      <c r="J89" s="133"/>
+      <c r="K89" s="133"/>
+      <c r="L89" s="133"/>
+      <c r="M89" s="133"/>
+      <c r="N89" s="133"/>
+      <c r="O89" s="133"/>
+      <c r="R89" s="137" t="s">
         <v>187</v>
       </c>
-      <c r="S89" s="136"/>
-      <c r="T89" s="136"/>
-      <c r="U89" s="136"/>
-      <c r="V89" s="136"/>
+      <c r="S89" s="137"/>
+      <c r="T89" s="137"/>
+      <c r="U89" s="137"/>
+      <c r="V89" s="137"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -16481,36 +16423,36 @@
       <c r="B90" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="132" t="s">
+      <c r="C90" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="132"/>
-      <c r="E90" s="132"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
       <c r="F90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J90" s="132" t="s">
+      <c r="J90" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="K90" s="132"/>
-      <c r="L90" s="132" t="s">
+      <c r="K90" s="134"/>
+      <c r="L90" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="M90" s="132"/>
-      <c r="N90" s="132"/>
+      <c r="M90" s="134"/>
+      <c r="N90" s="134"/>
       <c r="O90" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S90" s="132" t="s">
+      <c r="S90" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="T90" s="132"/>
+      <c r="T90" s="134"/>
       <c r="U90" s="2" t="s">
         <v>46</v>
       </c>
@@ -16525,11 +16467,11 @@
       <c r="B91" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="133" t="s">
+      <c r="C91" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="133"/>
-      <c r="E91" s="133"/>
+      <c r="D91" s="131"/>
+      <c r="E91" s="131"/>
       <c r="F91">
         <f>(U98*U91)/(1-U105)</f>
         <v>2.9654809037870895E-2</v>
@@ -16537,15 +16479,15 @@
       <c r="I91" t="s">
         <v>23</v>
       </c>
-      <c r="J91" s="133" t="s">
+      <c r="J91" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K91" s="133"/>
-      <c r="L91" s="133" t="s">
+      <c r="K91" s="131"/>
+      <c r="L91" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M91" s="133"/>
-      <c r="N91" s="133"/>
+      <c r="M91" s="131"/>
+      <c r="N91" s="131"/>
       <c r="O91">
         <f>F91+U91</f>
         <v>6.7576886959948818E-2</v>
@@ -16553,10 +16495,10 @@
       <c r="R91" t="s">
         <v>23</v>
       </c>
-      <c r="S91" s="133" t="s">
+      <c r="S91" s="131" t="s">
         <v>189</v>
       </c>
-      <c r="T91" s="133"/>
+      <c r="T91" s="131"/>
       <c r="U91">
         <f>1/(Arrivi!H31+Arrivi!H30)</f>
         <v>3.7922077922077919E-2</v>
@@ -16570,24 +16512,24 @@
       <c r="B92" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="133" t="s">
+      <c r="C92" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="133"/>
-      <c r="E92" s="133"/>
+      <c r="D92" s="131"/>
+      <c r="E92" s="131"/>
       <c r="F92">
         <f>(U98*U91)/((1-U105)*(1-U98))</f>
         <v>0.13567194887554843</v>
       </c>
-      <c r="J92" s="133" t="s">
+      <c r="J92" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K92" s="133"/>
-      <c r="L92" s="133" t="s">
+      <c r="K92" s="131"/>
+      <c r="L92" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M92" s="133"/>
-      <c r="N92" s="133"/>
+      <c r="M92" s="131"/>
+      <c r="N92" s="131"/>
       <c r="O92">
         <f>F92+U91</f>
         <v>0.17359402679762634</v>
@@ -16595,10 +16537,10 @@
       <c r="R92" t="s">
         <v>24</v>
       </c>
-      <c r="S92" s="133" t="s">
+      <c r="S92" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="T92" s="133"/>
+      <c r="T92" s="131"/>
       <c r="U92">
         <f>1/(Arrivi!H33+Arrivi!H34)</f>
         <v>6.0671542553191488E-2</v>
@@ -16615,11 +16557,11 @@
       <c r="B93" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="133" t="s">
+      <c r="C93" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="133"/>
-      <c r="E93" s="133"/>
+      <c r="D93" s="131"/>
+      <c r="E93" s="131"/>
       <c r="F93">
         <f>(U99*U92)/(1-U107)</f>
         <v>4.8060713119710698E-2</v>
@@ -16627,15 +16569,15 @@
       <c r="I93" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="133" t="s">
+      <c r="J93" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K93" s="133"/>
-      <c r="L93" s="133" t="s">
+      <c r="K93" s="131"/>
+      <c r="L93" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M93" s="133"/>
-      <c r="N93" s="133"/>
+      <c r="M93" s="131"/>
+      <c r="N93" s="131"/>
       <c r="O93">
         <f>F93+U92</f>
         <v>0.10873225567290218</v>
@@ -16643,10 +16585,10 @@
       <c r="R93" t="s">
         <v>25</v>
       </c>
-      <c r="S93" s="133" t="s">
+      <c r="S93" s="131" t="s">
         <v>192</v>
       </c>
-      <c r="T93" s="133"/>
+      <c r="T93" s="131"/>
       <c r="U93">
         <f>1/(Arrivi!H36+Arrivi!H37)</f>
         <v>0.19466666666666668</v>
@@ -16660,24 +16602,24 @@
       <c r="B94" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="133" t="s">
+      <c r="C94" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="133"/>
-      <c r="E94" s="133"/>
+      <c r="D94" s="131"/>
+      <c r="E94" s="131"/>
       <c r="F94">
         <f>(U99*U92)/((1-U107)*(1-U99))</f>
         <v>0.23070608103349363</v>
       </c>
-      <c r="J94" s="133" t="s">
+      <c r="J94" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K94" s="133"/>
-      <c r="L94" s="133" t="s">
+      <c r="K94" s="131"/>
+      <c r="L94" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M94" s="133"/>
-      <c r="N94" s="133"/>
+      <c r="M94" s="131"/>
+      <c r="N94" s="131"/>
       <c r="O94">
         <f>F94+U92</f>
         <v>0.29137762358668512</v>
@@ -16685,10 +16627,10 @@
       <c r="R94" t="s">
         <v>26</v>
       </c>
-      <c r="S94" s="133" t="s">
+      <c r="S94" s="131" t="s">
         <v>193</v>
       </c>
-      <c r="T94" s="133"/>
+      <c r="T94" s="131"/>
       <c r="U94">
         <f>1/(Arrivi!H39+Arrivi!H40)</f>
         <v>0.72709163346613537</v>
@@ -16705,11 +16647,11 @@
       <c r="B95" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="133" t="s">
+      <c r="C95" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="133"/>
-      <c r="E95" s="133"/>
+      <c r="D95" s="131"/>
+      <c r="E95" s="131"/>
       <c r="F95">
         <f>(U100*U93)/(1-U109)</f>
         <v>0.14662132696261998</v>
@@ -16717,15 +16659,15 @@
       <c r="I95" t="s">
         <v>25</v>
       </c>
-      <c r="J95" s="133" t="s">
+      <c r="J95" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K95" s="133"/>
-      <c r="L95" s="133" t="s">
+      <c r="K95" s="131"/>
+      <c r="L95" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M95" s="133"/>
-      <c r="N95" s="133"/>
+      <c r="M95" s="131"/>
+      <c r="N95" s="131"/>
       <c r="O95">
         <f>F95+U93</f>
         <v>0.34128799362928663</v>
@@ -16735,24 +16677,24 @@
       <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="133" t="s">
+      <c r="C96" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="133"/>
-      <c r="E96" s="133"/>
+      <c r="D96" s="131"/>
+      <c r="E96" s="131"/>
       <c r="F96">
         <f>(U100*U93)/((1-U109)*(1-U100))</f>
         <v>0.59186080204660962</v>
       </c>
-      <c r="J96" s="133" t="s">
+      <c r="J96" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K96" s="133"/>
-      <c r="L96" s="133" t="s">
+      <c r="K96" s="131"/>
+      <c r="L96" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M96" s="133"/>
-      <c r="N96" s="133"/>
+      <c r="M96" s="131"/>
+      <c r="N96" s="131"/>
       <c r="O96">
         <f>F96+U93</f>
         <v>0.78652746871327628</v>
@@ -16765,11 +16707,11 @@
       <c r="B97" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="133" t="s">
+      <c r="C97" s="131" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="133"/>
-      <c r="E97" s="133"/>
+      <c r="D97" s="131"/>
+      <c r="E97" s="131"/>
       <c r="F97">
         <f>(U101*U94)/(1-U111)</f>
         <v>0.55323897499522867</v>
@@ -16777,48 +16719,48 @@
       <c r="I97" t="s">
         <v>26</v>
       </c>
-      <c r="J97" s="133" t="s">
+      <c r="J97" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K97" s="133"/>
-      <c r="L97" s="133" t="s">
+      <c r="K97" s="131"/>
+      <c r="L97" s="131" t="s">
         <v>148</v>
       </c>
-      <c r="M97" s="133"/>
-      <c r="N97" s="133"/>
+      <c r="M97" s="131"/>
+      <c r="N97" s="131"/>
       <c r="O97">
         <f>F97+U93</f>
         <v>0.74790564166189533</v>
       </c>
-      <c r="R97" s="137" t="s">
+      <c r="R97" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="S97" s="137"/>
-      <c r="T97" s="137"/>
-      <c r="U97" s="137"/>
+      <c r="S97" s="136"/>
+      <c r="T97" s="136"/>
+      <c r="U97" s="136"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="133" t="s">
+      <c r="C98" s="131" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="133"/>
-      <c r="E98" s="133"/>
+      <c r="D98" s="131"/>
+      <c r="E98" s="131"/>
       <c r="F98">
         <f>(U101*U94)/((1-U111)*(1-U101))</f>
         <v>2.3067619058366273</v>
       </c>
-      <c r="J98" s="133" t="s">
+      <c r="J98" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K98" s="133"/>
-      <c r="L98" s="133" t="s">
+      <c r="K98" s="131"/>
+      <c r="L98" s="131" t="s">
         <v>150</v>
       </c>
-      <c r="M98" s="133"/>
-      <c r="N98" s="133"/>
+      <c r="M98" s="131"/>
+      <c r="N98" s="131"/>
       <c r="O98">
         <f>F98+U94</f>
         <v>3.0338535393027626</v>
@@ -16826,40 +16768,40 @@
       <c r="R98" t="s">
         <v>23</v>
       </c>
-      <c r="S98" s="139" t="s">
+      <c r="S98" s="135" t="s">
         <v>130</v>
       </c>
-      <c r="T98" s="139"/>
+      <c r="T98" s="135"/>
       <c r="U98">
         <f>Q19*U91</f>
         <v>0.7814226943472804</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="141" t="s">
+      <c r="A99" s="133" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="141"/>
-      <c r="C99" s="141"/>
-      <c r="D99" s="141"/>
-      <c r="E99" s="141"/>
-      <c r="F99" s="141"/>
-      <c r="I99" s="141" t="s">
+      <c r="B99" s="133"/>
+      <c r="C99" s="133"/>
+      <c r="D99" s="133"/>
+      <c r="E99" s="133"/>
+      <c r="F99" s="133"/>
+      <c r="I99" s="133" t="s">
         <v>153</v>
       </c>
-      <c r="J99" s="141"/>
-      <c r="K99" s="141"/>
-      <c r="L99" s="141"/>
-      <c r="M99" s="141"/>
-      <c r="N99" s="141"/>
-      <c r="O99" s="141"/>
+      <c r="J99" s="133"/>
+      <c r="K99" s="133"/>
+      <c r="L99" s="133"/>
+      <c r="M99" s="133"/>
+      <c r="N99" s="133"/>
+      <c r="O99" s="133"/>
       <c r="R99" t="s">
         <v>24</v>
       </c>
-      <c r="S99" s="139" t="s">
+      <c r="S99" s="135" t="s">
         <v>132</v>
       </c>
-      <c r="T99" s="139"/>
+      <c r="T99" s="135"/>
       <c r="U99">
         <f>Q20*U92</f>
         <v>0.79167990325866922</v>
@@ -16869,35 +16811,35 @@
       <c r="A100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="132" t="s">
+      <c r="B100" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="132"/>
-      <c r="D100" s="132"/>
-      <c r="E100" s="132"/>
+      <c r="C100" s="134"/>
+      <c r="D100" s="134"/>
+      <c r="E100" s="134"/>
       <c r="F100" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J100" s="132" t="s">
+      <c r="J100" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="132"/>
-      <c r="L100" s="132"/>
-      <c r="M100" s="132"/>
-      <c r="N100" s="132"/>
+      <c r="K100" s="134"/>
+      <c r="L100" s="134"/>
+      <c r="M100" s="134"/>
+      <c r="N100" s="134"/>
       <c r="O100" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R100" t="s">
         <v>25</v>
       </c>
-      <c r="S100" s="139" t="s">
+      <c r="S100" s="135" t="s">
         <v>133</v>
       </c>
-      <c r="T100" s="139"/>
+      <c r="T100" s="135"/>
       <c r="U100">
         <f>Q21*U93</f>
         <v>0.75227059055843104</v>
@@ -16907,12 +16849,12 @@
       <c r="A101" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="133" t="s">
+      <c r="B101" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="133"/>
-      <c r="D101" s="133"/>
-      <c r="E101" s="133"/>
+      <c r="C101" s="131"/>
+      <c r="D101" s="131"/>
+      <c r="E101" s="131"/>
       <c r="F101">
         <f>T105*F91+T106*F92</f>
         <v>0.13557295994946283</v>
@@ -16920,13 +16862,13 @@
       <c r="I101" t="s">
         <v>23</v>
       </c>
-      <c r="J101" s="133" t="s">
+      <c r="J101" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K101" s="133"/>
-      <c r="L101" s="133"/>
-      <c r="M101" s="133"/>
-      <c r="N101" s="133"/>
+      <c r="K101" s="131"/>
+      <c r="L101" s="131"/>
+      <c r="M101" s="131"/>
+      <c r="N101" s="131"/>
       <c r="O101">
         <f>T105*O91+T106*O92</f>
         <v>0.17349503787154075</v>
@@ -16934,10 +16876,10 @@
       <c r="R101" t="s">
         <v>26</v>
       </c>
-      <c r="S101" s="139" t="s">
+      <c r="S101" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="T101" s="139"/>
+      <c r="T101" s="135"/>
       <c r="U101">
         <f>Q22*U94</f>
         <v>0.76016641613709268</v>
@@ -16947,12 +16889,12 @@
       <c r="A102" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="133" t="s">
+      <c r="B102" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="133"/>
-      <c r="D102" s="133"/>
-      <c r="E102" s="133"/>
+      <c r="C102" s="131"/>
+      <c r="D102" s="131"/>
+      <c r="E102" s="131"/>
       <c r="F102">
         <f>T107*F93+T108*F94</f>
         <v>0.23057036594364833</v>
@@ -16960,13 +16902,13 @@
       <c r="I102" t="s">
         <v>24</v>
       </c>
-      <c r="J102" s="133" t="s">
+      <c r="J102" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K102" s="133"/>
-      <c r="L102" s="133"/>
-      <c r="M102" s="133"/>
-      <c r="N102" s="133"/>
+      <c r="K102" s="131"/>
+      <c r="L102" s="131"/>
+      <c r="M102" s="131"/>
+      <c r="N102" s="131"/>
       <c r="O102">
         <f>T107*O93+T108*O94</f>
         <v>0.29124190849683984</v>
@@ -16976,12 +16918,12 @@
       <c r="A103" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="133" t="s">
+      <c r="B103" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="133"/>
-      <c r="D103" s="133"/>
-      <c r="E103" s="133"/>
+      <c r="C103" s="131"/>
+      <c r="D103" s="131"/>
+      <c r="E103" s="131"/>
       <c r="F103">
         <f>T109*F95+T110*F96</f>
         <v>0.59113695311946934</v>
@@ -16989,34 +16931,34 @@
       <c r="I103" t="s">
         <v>25</v>
       </c>
-      <c r="J103" s="133" t="s">
+      <c r="J103" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K103" s="133"/>
-      <c r="L103" s="133"/>
-      <c r="M103" s="133"/>
-      <c r="N103" s="133"/>
+      <c r="K103" s="131"/>
+      <c r="L103" s="131"/>
+      <c r="M103" s="131"/>
+      <c r="N103" s="131"/>
       <c r="O103">
         <f>T109*O95+T110*O96</f>
         <v>0.785803619786136</v>
       </c>
-      <c r="R103" s="137" t="s">
+      <c r="R103" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="S103" s="137"/>
-      <c r="T103" s="137"/>
-      <c r="U103" s="137"/>
+      <c r="S103" s="136"/>
+      <c r="T103" s="136"/>
+      <c r="U103" s="136"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="133" t="s">
+      <c r="B104" s="131" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="133"/>
-      <c r="D104" s="133"/>
-      <c r="E104" s="133"/>
+      <c r="C104" s="131"/>
+      <c r="D104" s="131"/>
+      <c r="E104" s="131"/>
       <c r="F104">
         <f>T111*F97+T112*F98</f>
         <v>2.3045589875818013</v>
@@ -17024,13 +16966,13 @@
       <c r="I104" t="s">
         <v>26</v>
       </c>
-      <c r="J104" s="133" t="s">
+      <c r="J104" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="K104" s="133"/>
-      <c r="L104" s="133"/>
-      <c r="M104" s="133"/>
-      <c r="N104" s="133"/>
+      <c r="K104" s="131"/>
+      <c r="L104" s="131"/>
+      <c r="M104" s="131"/>
+      <c r="N104" s="131"/>
       <c r="O104">
         <f>T111*O97+T112*O98</f>
         <v>3.0309817454615051</v>
@@ -17078,23 +17020,23 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="141" t="s">
+      <c r="A107" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="141"/>
-      <c r="C107" s="141"/>
-      <c r="D107" s="141"/>
-      <c r="E107" s="141"/>
-      <c r="F107" s="141"/>
-      <c r="I107" s="141" t="s">
+      <c r="B107" s="133"/>
+      <c r="C107" s="133"/>
+      <c r="D107" s="133"/>
+      <c r="E107" s="133"/>
+      <c r="F107" s="133"/>
+      <c r="I107" s="133" t="s">
         <v>157</v>
       </c>
-      <c r="J107" s="141"/>
-      <c r="K107" s="141"/>
-      <c r="L107" s="141"/>
-      <c r="M107" s="141"/>
-      <c r="N107" s="141"/>
-      <c r="O107" s="141"/>
+      <c r="J107" s="133"/>
+      <c r="K107" s="133"/>
+      <c r="L107" s="133"/>
+      <c r="M107" s="133"/>
+      <c r="N107" s="133"/>
+      <c r="O107" s="133"/>
       <c r="R107" t="s">
         <v>24</v>
       </c>
@@ -17117,26 +17059,26 @@
       <c r="B108" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="132" t="s">
+      <c r="C108" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="D108" s="132"/>
-      <c r="E108" s="132"/>
+      <c r="D108" s="134"/>
+      <c r="E108" s="134"/>
       <c r="F108" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J108" s="132" t="s">
+      <c r="J108" s="134" t="s">
         <v>144</v>
       </c>
-      <c r="K108" s="132"/>
-      <c r="L108" s="132" t="s">
+      <c r="K108" s="134"/>
+      <c r="L108" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="M108" s="132"/>
-      <c r="N108" s="132"/>
+      <c r="M108" s="134"/>
+      <c r="N108" s="134"/>
       <c r="O108" s="2" t="s">
         <v>159</v>
       </c>
@@ -17159,11 +17101,11 @@
       <c r="B109" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="133" t="s">
+      <c r="C109" s="131" t="s">
         <v>160</v>
       </c>
-      <c r="D109" s="133"/>
-      <c r="E109" s="133"/>
+      <c r="D109" s="131"/>
+      <c r="E109" s="131"/>
       <c r="F109" s="4">
         <f t="shared" ref="F109:F116" si="2">P10*F91</f>
         <v>5.7055767876712049E-4</v>
@@ -17171,15 +17113,15 @@
       <c r="I109" t="s">
         <v>23</v>
       </c>
-      <c r="J109" s="133" t="s">
+      <c r="J109" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K109" s="133"/>
-      <c r="L109" s="133" t="s">
+      <c r="K109" s="131"/>
+      <c r="L109" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="M109" s="133"/>
-      <c r="N109" s="133"/>
+      <c r="M109" s="131"/>
+      <c r="N109" s="131"/>
       <c r="O109">
         <f t="shared" ref="O109:O116" si="3">P10*O91</f>
         <v>1.3001773747029566E-3</v>
@@ -17203,24 +17145,24 @@
       <c r="B110" t="s">
         <v>80</v>
       </c>
-      <c r="C110" s="133" t="s">
+      <c r="C110" s="131" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="133"/>
-      <c r="E110" s="133"/>
+      <c r="D110" s="131"/>
+      <c r="E110" s="131"/>
       <c r="F110" s="4">
         <f t="shared" si="2"/>
         <v>2.7930471302029383</v>
       </c>
-      <c r="J110" s="133" t="s">
+      <c r="J110" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K110" s="133"/>
-      <c r="L110" s="133" t="s">
+      <c r="K110" s="131"/>
+      <c r="L110" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="M110" s="133"/>
-      <c r="N110" s="133"/>
+      <c r="M110" s="131"/>
+      <c r="N110" s="131"/>
       <c r="O110">
         <f t="shared" si="3"/>
         <v>3.5737402048542828</v>
@@ -17244,11 +17186,11 @@
       <c r="B111" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="133" t="s">
+      <c r="C111" s="131" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="133"/>
-      <c r="E111" s="133"/>
+      <c r="D111" s="131"/>
+      <c r="E111" s="131"/>
       <c r="F111" s="4">
         <f t="shared" si="2"/>
         <v>4.6598750346657741E-4</v>
@@ -17256,15 +17198,15 @@
       <c r="I111" t="s">
         <v>24</v>
       </c>
-      <c r="J111" s="133" t="s">
+      <c r="J111" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K111" s="133"/>
-      <c r="L111" s="133" t="s">
+      <c r="K111" s="131"/>
+      <c r="L111" s="131" t="s">
         <v>165</v>
       </c>
-      <c r="M111" s="133"/>
-      <c r="N111" s="133"/>
+      <c r="M111" s="131"/>
+      <c r="N111" s="131"/>
       <c r="O111">
         <f t="shared" si="3"/>
         <v>1.0542472027225359E-3</v>
@@ -17288,24 +17230,24 @@
       <c r="B112" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="133" t="s">
+      <c r="C112" s="131" t="s">
         <v>166</v>
       </c>
-      <c r="D112" s="133"/>
-      <c r="E112" s="133"/>
+      <c r="D112" s="131"/>
+      <c r="E112" s="131"/>
       <c r="F112" s="4">
         <f t="shared" si="2"/>
         <v>3.0081590996953671</v>
       </c>
-      <c r="J112" s="133" t="s">
+      <c r="J112" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K112" s="133"/>
-      <c r="L112" s="133" t="s">
+      <c r="K112" s="131"/>
+      <c r="L112" s="131" t="s">
         <v>167</v>
       </c>
-      <c r="M112" s="133"/>
-      <c r="N112" s="133"/>
+      <c r="M112" s="131"/>
+      <c r="N112" s="131"/>
       <c r="O112">
         <f t="shared" si="3"/>
         <v>3.7992507432547802</v>
@@ -17329,11 +17271,11 @@
       <c r="B113" t="s">
         <v>77</v>
       </c>
-      <c r="C113" s="133" t="s">
+      <c r="C113" s="131" t="s">
         <v>168</v>
       </c>
-      <c r="D113" s="133"/>
-      <c r="E113" s="133"/>
+      <c r="D113" s="131"/>
+      <c r="E113" s="131"/>
       <c r="F113" s="4">
         <f t="shared" si="2"/>
         <v>9.2115753721939855E-4</v>
@@ -17341,15 +17283,15 @@
       <c r="I113" t="s">
         <v>25</v>
       </c>
-      <c r="J113" s="133" t="s">
+      <c r="J113" s="131" t="s">
         <v>77</v>
       </c>
-      <c r="K113" s="133"/>
-      <c r="L113" s="133" t="s">
+      <c r="K113" s="131"/>
+      <c r="L113" s="131" t="s">
         <v>169</v>
       </c>
-      <c r="M113" s="133"/>
-      <c r="N113" s="133"/>
+      <c r="M113" s="131"/>
+      <c r="N113" s="131"/>
       <c r="O113">
         <f t="shared" si="3"/>
         <v>2.1441628868510533E-3</v>
@@ -17359,24 +17301,24 @@
       <c r="B114" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="133" t="s">
+      <c r="C114" s="131" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="133"/>
-      <c r="E114" s="133"/>
+      <c r="D114" s="131"/>
+      <c r="E114" s="131"/>
       <c r="F114" s="4">
         <f t="shared" si="2"/>
         <v>2.2834706823125823</v>
       </c>
-      <c r="J114" s="133" t="s">
+      <c r="J114" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K114" s="133"/>
-      <c r="L114" s="133" t="s">
+      <c r="K114" s="131"/>
+      <c r="L114" s="131" t="s">
         <v>171</v>
       </c>
-      <c r="M114" s="133"/>
-      <c r="N114" s="133"/>
+      <c r="M114" s="131"/>
+      <c r="N114" s="131"/>
       <c r="O114">
         <f t="shared" si="3"/>
         <v>3.0345182675213818</v>
@@ -17389,11 +17331,11 @@
       <c r="B115" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="133" t="s">
+      <c r="C115" s="131" t="s">
         <v>172</v>
       </c>
-      <c r="D115" s="133"/>
-      <c r="E115" s="133"/>
+      <c r="D115" s="131"/>
+      <c r="E115" s="131"/>
       <c r="F115" s="4">
         <f t="shared" si="2"/>
         <v>7.2663988374241004E-4</v>
@@ -17401,15 +17343,15 @@
       <c r="I115" t="s">
         <v>26</v>
       </c>
-      <c r="J115" s="133" t="s">
+      <c r="J115" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="K115" s="133"/>
-      <c r="L115" s="133" t="s">
+      <c r="K115" s="131"/>
+      <c r="L115" s="131" t="s">
         <v>173</v>
       </c>
-      <c r="M115" s="133"/>
-      <c r="N115" s="133"/>
+      <c r="M115" s="131"/>
+      <c r="N115" s="131"/>
       <c r="O115">
         <f t="shared" si="3"/>
         <v>9.823206481650703E-4</v>
@@ -17419,51 +17361,51 @@
       <c r="B116" t="s">
         <v>80</v>
       </c>
-      <c r="C116" s="133" t="s">
+      <c r="C116" s="131" t="s">
         <v>174</v>
       </c>
-      <c r="D116" s="133"/>
-      <c r="E116" s="133"/>
+      <c r="D116" s="131"/>
+      <c r="E116" s="131"/>
       <c r="F116" s="4">
         <f t="shared" si="2"/>
         <v>2.4086647844341362</v>
       </c>
-      <c r="J116" s="133" t="s">
+      <c r="J116" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="K116" s="133"/>
-      <c r="L116" s="133" t="s">
+      <c r="K116" s="131"/>
+      <c r="L116" s="131" t="s">
         <v>175</v>
       </c>
-      <c r="M116" s="133"/>
-      <c r="N116" s="133"/>
+      <c r="M116" s="131"/>
+      <c r="N116" s="131"/>
       <c r="O116">
         <f t="shared" si="3"/>
         <v>3.1678762176363828</v>
       </c>
-      <c r="S116" s="142" t="s">
+      <c r="S116" s="132" t="s">
         <v>151</v>
       </c>
-      <c r="T116" s="142"/>
+      <c r="T116" s="132"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="141" t="s">
+      <c r="A117" s="133" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="141"/>
-      <c r="C117" s="141"/>
-      <c r="D117" s="141"/>
-      <c r="E117" s="141"/>
-      <c r="F117" s="141"/>
-      <c r="I117" s="141" t="s">
+      <c r="B117" s="133"/>
+      <c r="C117" s="133"/>
+      <c r="D117" s="133"/>
+      <c r="E117" s="133"/>
+      <c r="F117" s="133"/>
+      <c r="I117" s="133" t="s">
         <v>177</v>
       </c>
-      <c r="J117" s="141"/>
-      <c r="K117" s="141"/>
-      <c r="L117" s="141"/>
-      <c r="M117" s="141"/>
-      <c r="N117" s="141"/>
-      <c r="O117" s="141"/>
+      <c r="J117" s="133"/>
+      <c r="K117" s="133"/>
+      <c r="L117" s="133"/>
+      <c r="M117" s="133"/>
+      <c r="N117" s="133"/>
+      <c r="O117" s="133"/>
       <c r="S117" t="s">
         <v>23</v>
       </c>
@@ -17476,25 +17418,25 @@
       <c r="A118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="132" t="s">
+      <c r="B118" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="132"/>
-      <c r="D118" s="132"/>
-      <c r="E118" s="132"/>
+      <c r="C118" s="134"/>
+      <c r="D118" s="134"/>
+      <c r="E118" s="134"/>
       <c r="F118" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J118" s="132" t="s">
+      <c r="J118" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="K118" s="132"/>
-      <c r="L118" s="132"/>
-      <c r="M118" s="132"/>
-      <c r="N118" s="132"/>
+      <c r="K118" s="134"/>
+      <c r="L118" s="134"/>
+      <c r="M118" s="134"/>
+      <c r="N118" s="134"/>
       <c r="O118" s="2" t="s">
         <v>159</v>
       </c>
@@ -17510,12 +17452,12 @@
       <c r="A119" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="133" t="s">
+      <c r="B119" s="131" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="133"/>
-      <c r="D119" s="133"/>
-      <c r="E119" s="133"/>
+      <c r="C119" s="131"/>
+      <c r="D119" s="131"/>
+      <c r="E119" s="131"/>
       <c r="F119">
         <f>Q19*F101</f>
         <v>2.7936176878817052</v>
@@ -17523,13 +17465,13 @@
       <c r="I119" t="s">
         <v>23</v>
       </c>
-      <c r="J119" s="133" t="s">
+      <c r="J119" s="131" t="s">
         <v>179</v>
       </c>
-      <c r="K119" s="133"/>
-      <c r="L119" s="133"/>
-      <c r="M119" s="133"/>
-      <c r="N119" s="133"/>
+      <c r="K119" s="131"/>
+      <c r="L119" s="131"/>
+      <c r="M119" s="131"/>
+      <c r="N119" s="131"/>
       <c r="O119">
         <f>Q19*O101</f>
         <v>3.5750403822289853</v>
@@ -17546,12 +17488,12 @@
       <c r="A120" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="133" t="s">
+      <c r="B120" s="131" t="s">
         <v>180</v>
       </c>
-      <c r="C120" s="133"/>
-      <c r="D120" s="133"/>
-      <c r="E120" s="133"/>
+      <c r="C120" s="131"/>
+      <c r="D120" s="131"/>
+      <c r="E120" s="131"/>
       <c r="F120">
         <f>Q20*F102</f>
         <v>3.0086250871988334</v>
@@ -17559,13 +17501,13 @@
       <c r="I120" t="s">
         <v>24</v>
       </c>
-      <c r="J120" s="133" t="s">
+      <c r="J120" s="131" t="s">
         <v>181</v>
       </c>
-      <c r="K120" s="133"/>
-      <c r="L120" s="133"/>
-      <c r="M120" s="133"/>
-      <c r="N120" s="133"/>
+      <c r="K120" s="131"/>
+      <c r="L120" s="131"/>
+      <c r="M120" s="131"/>
+      <c r="N120" s="131"/>
       <c r="O120">
         <f>Q20*O102</f>
         <v>3.8003049904575028</v>
@@ -17582,12 +17524,12 @@
       <c r="A121" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="133" t="s">
+      <c r="B121" s="131" t="s">
         <v>182</v>
       </c>
-      <c r="C121" s="133"/>
-      <c r="D121" s="133"/>
-      <c r="E121" s="133"/>
+      <c r="C121" s="131"/>
+      <c r="D121" s="131"/>
+      <c r="E121" s="131"/>
       <c r="F121">
         <f>Q21*F103</f>
         <v>2.284391839849802</v>
@@ -17595,13 +17537,13 @@
       <c r="I121" t="s">
         <v>25</v>
       </c>
-      <c r="J121" s="133" t="s">
+      <c r="J121" s="131" t="s">
         <v>183</v>
       </c>
-      <c r="K121" s="133"/>
-      <c r="L121" s="133"/>
-      <c r="M121" s="133"/>
-      <c r="N121" s="133"/>
+      <c r="K121" s="131"/>
+      <c r="L121" s="131"/>
+      <c r="M121" s="131"/>
+      <c r="N121" s="131"/>
       <c r="O121">
         <f>Q21*O103</f>
         <v>3.0366624304082328</v>
@@ -17611,12 +17553,12 @@
       <c r="A122" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="133" t="s">
+      <c r="B122" s="131" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="133"/>
-      <c r="D122" s="133"/>
-      <c r="E122" s="133"/>
+      <c r="C122" s="131"/>
+      <c r="D122" s="131"/>
+      <c r="E122" s="131"/>
       <c r="F122">
         <f>Q22*F104</f>
         <v>2.4093914243178784</v>
@@ -17624,13 +17566,13 @@
       <c r="I122" t="s">
         <v>26</v>
       </c>
-      <c r="J122" s="133" t="s">
+      <c r="J122" s="131" t="s">
         <v>185</v>
       </c>
-      <c r="K122" s="133"/>
-      <c r="L122" s="133"/>
-      <c r="M122" s="133"/>
-      <c r="N122" s="133"/>
+      <c r="K122" s="131"/>
+      <c r="L122" s="131"/>
+      <c r="M122" s="131"/>
+      <c r="N122" s="131"/>
       <c r="O122">
         <f>Q22*O104</f>
         <v>3.1688585382845482</v>
@@ -17638,6 +17580,256 @@
     </row>
   </sheetData>
   <mergeCells count="263">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="I62:O62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="I80:O80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="I89:O89"/>
+    <mergeCell ref="R89:V89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="I99:O99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="J100:N100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="J101:N101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="J102:N102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="I107:O107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:N116"/>
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="J121:N121"/>
     <mergeCell ref="B122:E122"/>
@@ -17651,256 +17843,6 @@
     <mergeCell ref="J119:N119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="J120:N120"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:N114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="L116:N116"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="I107:O107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="J101:N101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="J102:N102"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="I99:O99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="J100:N100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="I89:O89"/>
-    <mergeCell ref="R89:V89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="I80:O80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="I62:O62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="574" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE069188-1117-4011-8010-A5F4DC952932}"/>
+  <xr:revisionPtr revIDLastSave="649" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C62DCE-86DD-4298-8987-2F2577512030}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dati_OPTN" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Arrivi!$J$2:$M$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dati_OPTN!$A$71:$L$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Dati_OPTN!$A$25:$L$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Uscite!$L$48:$P$68</definedName>
   </definedNames>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1401" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="230">
   <si>
     <t>PAZIENTI - ARRIVI</t>
   </si>
@@ -1226,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1441,6 +1441,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1456,10 +1462,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,13 +1486,13 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
@@ -1546,12 +1558,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1637,10 +1643,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1942,8 +1944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q38" sqref="Q38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,34 +1960,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108"/>
-      <c r="C1" s="108"/>
-      <c r="D1" s="108"/>
-      <c r="E1" s="108"/>
-      <c r="F1" s="108"/>
-      <c r="G1" s="108"/>
-      <c r="H1" s="108"/>
-      <c r="I1" s="108"/>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="143"/>
-      <c r="N1" s="107" t="s">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="110"/>
+      <c r="F1" s="110"/>
+      <c r="G1" s="110"/>
+      <c r="H1" s="110"/>
+      <c r="I1" s="110"/>
+      <c r="J1" s="110"/>
+      <c r="K1" s="110"/>
+      <c r="L1" s="111"/>
+      <c r="N1" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="108"/>
-      <c r="P1" s="108"/>
-      <c r="Q1" s="108"/>
-      <c r="R1" s="108"/>
-      <c r="S1" s="108"/>
-      <c r="T1" s="108"/>
-      <c r="U1" s="108"/>
-      <c r="V1" s="108"/>
-      <c r="W1" s="108"/>
-      <c r="X1" s="108"/>
-      <c r="Y1" s="143"/>
+      <c r="O1" s="110"/>
+      <c r="P1" s="110"/>
+      <c r="Q1" s="110"/>
+      <c r="R1" s="110"/>
+      <c r="S1" s="110"/>
+      <c r="T1" s="110"/>
+      <c r="U1" s="110"/>
+      <c r="V1" s="110"/>
+      <c r="W1" s="110"/>
+      <c r="X1" s="110"/>
+      <c r="Y1" s="111"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
@@ -3326,20 +3328,20 @@
       <c r="L23" s="49"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="109" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="108"/>
-      <c r="C24" s="108"/>
-      <c r="D24" s="108"/>
-      <c r="E24" s="108"/>
-      <c r="F24" s="108"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="108"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="108"/>
-      <c r="K24" s="108"/>
-      <c r="L24" s="143"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="J24" s="110"/>
+      <c r="K24" s="110"/>
+      <c r="L24" s="111"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="40" t="s">
@@ -4110,34 +4112,34 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="109" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="108"/>
-      <c r="C47" s="108"/>
-      <c r="D47" s="108"/>
-      <c r="E47" s="108"/>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-      <c r="J47" s="108"/>
-      <c r="K47" s="108"/>
-      <c r="L47" s="143"/>
-      <c r="N47" s="107" t="s">
+      <c r="B47" s="110"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="111"/>
+      <c r="N47" s="109" t="s">
         <v>28</v>
       </c>
-      <c r="O47" s="108"/>
-      <c r="P47" s="108"/>
-      <c r="Q47" s="108"/>
-      <c r="R47" s="108"/>
-      <c r="S47" s="108"/>
-      <c r="T47" s="108"/>
-      <c r="U47" s="108"/>
-      <c r="V47" s="108"/>
-      <c r="W47" s="108"/>
-      <c r="X47" s="108"/>
-      <c r="Y47" s="143"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="110"/>
+      <c r="T47" s="110"/>
+      <c r="U47" s="110"/>
+      <c r="V47" s="110"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" s="111"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="40" t="s">
@@ -5634,34 +5636,34 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A70" s="109" t="s">
+      <c r="A70" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="B70" s="110"/>
-      <c r="C70" s="110"/>
-      <c r="D70" s="110"/>
-      <c r="E70" s="110"/>
-      <c r="F70" s="110"/>
-      <c r="G70" s="110"/>
-      <c r="H70" s="110"/>
-      <c r="I70" s="110"/>
-      <c r="J70" s="110"/>
-      <c r="K70" s="110"/>
-      <c r="L70" s="144"/>
-      <c r="N70" s="107" t="s">
+      <c r="B70" s="113"/>
+      <c r="C70" s="113"/>
+      <c r="D70" s="113"/>
+      <c r="E70" s="113"/>
+      <c r="F70" s="113"/>
+      <c r="G70" s="113"/>
+      <c r="H70" s="113"/>
+      <c r="I70" s="113"/>
+      <c r="J70" s="113"/>
+      <c r="K70" s="113"/>
+      <c r="L70" s="114"/>
+      <c r="N70" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="O70" s="108"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="108"/>
-      <c r="R70" s="108"/>
-      <c r="S70" s="108"/>
-      <c r="T70" s="108"/>
-      <c r="U70" s="108"/>
-      <c r="V70" s="108"/>
-      <c r="W70" s="108"/>
-      <c r="X70" s="108"/>
-      <c r="Y70" s="143"/>
+      <c r="O70" s="110"/>
+      <c r="P70" s="110"/>
+      <c r="Q70" s="110"/>
+      <c r="R70" s="110"/>
+      <c r="S70" s="110"/>
+      <c r="T70" s="110"/>
+      <c r="U70" s="110"/>
+      <c r="V70" s="110"/>
+      <c r="W70" s="110"/>
+      <c r="X70" s="110"/>
+      <c r="Y70" s="111"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A71" s="40" t="s">
@@ -7358,13 +7360,13 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="104" t="s">
+      <c r="A93" s="106" t="s">
         <v>32</v>
       </c>
-      <c r="B93" s="105"/>
-      <c r="C93" s="105"/>
-      <c r="D93" s="105"/>
-      <c r="E93" s="106"/>
+      <c r="B93" s="107"/>
+      <c r="C93" s="107"/>
+      <c r="D93" s="107"/>
+      <c r="E93" s="108"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A94" s="40" t="s">
@@ -7653,8 +7655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7677,30 +7679,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="111" t="s">
+      <c r="A1" s="115" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="113"/>
-      <c r="F1" s="111" t="s">
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="117"/>
+      <c r="F1" s="115" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="112"/>
-      <c r="H1" s="113"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="117"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="111" t="s">
+      <c r="J1" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="113"/>
-      <c r="O1" s="111" t="s">
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="117"/>
+      <c r="O1" s="115" t="s">
         <v>207</v>
       </c>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="113"/>
+      <c r="P1" s="116"/>
+      <c r="Q1" s="116"/>
+      <c r="R1" s="117"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
@@ -8735,23 +8737,23 @@
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A24" s="111" t="s">
+      <c r="A24" s="115" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="112"/>
-      <c r="C24" s="112"/>
-      <c r="D24" s="113"/>
-      <c r="F24" s="111" t="s">
+      <c r="B24" s="116"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="117"/>
+      <c r="F24" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="112"/>
-      <c r="H24" s="113"/>
-      <c r="J24" s="111" t="s">
+      <c r="G24" s="116"/>
+      <c r="H24" s="117"/>
+      <c r="J24" s="115" t="s">
         <v>209</v>
       </c>
-      <c r="K24" s="112"/>
-      <c r="L24" s="112"/>
-      <c r="M24" s="113"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="117"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="58" t="s">
@@ -9345,10 +9347,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q68"/>
+  <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9366,29 +9368,32 @@
     <col min="11" max="11" width="4.7109375" customWidth="1"/>
     <col min="14" max="14" width="15.140625" customWidth="1"/>
     <col min="15" max="16" width="16.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" customWidth="1"/>
+    <col min="22" max="22" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="118" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="114"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="114"/>
-      <c r="E1" s="117"/>
-      <c r="G1" s="114" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="118"/>
+      <c r="E1" s="119"/>
+      <c r="G1" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="118"/>
-      <c r="I1" s="118"/>
-      <c r="J1" s="119"/>
-      <c r="L1" s="114" t="s">
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="123"/>
+      <c r="L1" s="118" t="s">
         <v>210</v>
       </c>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
-      <c r="P1" s="117"/>
+      <c r="M1" s="118"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="118"/>
+      <c r="P1" s="119"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="63" t="s">
@@ -9482,8 +9487,8 @@
         <v>12.593972602739727</v>
       </c>
       <c r="P3" s="89">
-        <f>N3/Arrivi!$C3</f>
-        <v>0.12285324852339846</v>
+        <f>N3/Arrivi!L3</f>
+        <v>0.12575746384007835</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -9528,8 +9533,8 @@
         <v>8.493150684931507E-3</v>
       </c>
       <c r="P4" s="89">
-        <f>N4/Arrivi!$C4</f>
-        <v>8.3035714285714282E-2</v>
+        <f>N4/Arrivi!L4</f>
+        <v>9.0116279069767449E-2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -9574,8 +9579,8 @@
         <v>4.7569863013698628</v>
       </c>
       <c r="P5" s="89">
-        <f>N5/Arrivi!$C5</f>
-        <v>6.1951712654614646E-2</v>
+        <f>N5/Arrivi!L5</f>
+        <v>6.5414610255057834E-2</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -9620,8 +9625,8 @@
         <v>7.828493150684932</v>
       </c>
       <c r="P6" s="89">
-        <f>N6/Arrivi!$C6</f>
-        <v>0.30550625467764353</v>
+        <f>N6/Arrivi!L6</f>
+        <v>0.28644178236679868</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -9672,8 +9677,8 @@
         <v>6.5739726027397261</v>
       </c>
       <c r="P7" s="89">
-        <f>N7/Arrivi!$C7</f>
-        <v>0.13149386234107849</v>
+        <f>N7/Arrivi!L7</f>
+        <v>0.13491327204745437</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
@@ -9718,8 +9723,8 @@
         <v>4.10958904109589E-3</v>
       </c>
       <c r="P8" s="89">
-        <f>N8/Arrivi!$C8</f>
-        <v>7.8947368421052627E-2</v>
+        <f>N8/Arrivi!L8</f>
+        <v>8.3798882681564255E-2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -9764,8 +9769,8 @@
         <v>2.5706849315068494</v>
       </c>
       <c r="P9" s="89">
-        <f>N9/Arrivi!$C9</f>
-        <v>6.8174717543201049E-2</v>
+        <f>N9/Arrivi!L9</f>
+        <v>7.2246947040978171E-2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -9810,8 +9815,8 @@
         <v>3.9991780821917811</v>
       </c>
       <c r="P10" s="89">
-        <f>N10/Arrivi!$C10</f>
-        <v>0.32685948871058035</v>
+        <f>N10/Arrivi!L10</f>
+        <v>0.3053637923099452</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -9862,8 +9867,8 @@
         <v>3.6542465753424658</v>
       </c>
       <c r="P11" s="89">
-        <f>N11/Arrivi!$C11</f>
-        <v>0.10953436807095343</v>
+        <f>N11/Arrivi!L11</f>
+        <v>0.11148724892800721</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -9908,8 +9913,8 @@
         <v>2.7397260273972603E-3</v>
       </c>
       <c r="P12" s="89">
-        <f>N12/Arrivi!$C12</f>
-        <v>9.375E-2</v>
+        <f>N12/Arrivi!L12</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -9954,8 +9959,8 @@
         <v>1.2863013698630137</v>
       </c>
       <c r="P13" s="89">
-        <f>N13/Arrivi!$C13</f>
-        <v>5.2103948950337556E-2</v>
+        <f>N13/Arrivi!L13</f>
+        <v>5.4447408094630639E-2</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -10000,8 +10005,8 @@
         <v>2.3652054794520545</v>
       </c>
       <c r="P14" s="89">
-        <f>N14/Arrivi!$C14</f>
-        <v>0.27358580256694659</v>
+        <f>N14/Arrivi!L14</f>
+        <v>0.25919476386345214</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
@@ -10052,8 +10057,8 @@
         <v>2.0106849315068493</v>
       </c>
       <c r="P15" s="89">
-        <f>N15/Arrivi!$C15</f>
-        <v>0.1318580625842192</v>
+        <f>N15/Arrivi!L15</f>
+        <v>0.13567876356510325</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -10098,11 +10103,11 @@
         <v>1.3698630136986301E-3</v>
       </c>
       <c r="P16" s="89">
-        <f>N16/Arrivi!$C16</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <f>N16/Arrivi!L16</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="6"/>
       <c r="B17" s="56" t="s">
         <v>20</v>
@@ -10144,11 +10149,11 @@
         <v>0.78246575342465763</v>
       </c>
       <c r="P17" s="89">
-        <f>N17/Arrivi!$C17</f>
-        <v>6.7997301694377205E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <f>N17/Arrivi!L17</f>
+        <v>7.2505712109672507E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="56" t="s">
         <v>22</v>
@@ -10191,11 +10196,11 @@
         <v>1.2268493150684932</v>
       </c>
       <c r="P18" s="89">
-        <f>N18/Arrivi!$C18</f>
-        <v>0.32934542780093157</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <f>N18/Arrivi!L18</f>
+        <v>0.30564466589311312</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>26</v>
       </c>
@@ -10244,11 +10249,11 @@
         <v>0.35506849315068489</v>
       </c>
       <c r="P19" s="89">
-        <f>N19/Arrivi!$C19</f>
-        <v>9.0872969498656059E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <f>N19/Arrivi!L19</f>
+        <v>9.2929872364835797E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="6"/>
       <c r="B20" s="56" t="s">
         <v>18</v>
@@ -10291,11 +10296,11 @@
         <v>2.7397260273972606E-4</v>
       </c>
       <c r="P20" s="89">
-        <f>N20/Arrivi!$C20</f>
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <f>N20/Arrivi!L20</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="6"/>
       <c r="B21" s="56" t="s">
         <v>20</v>
@@ -10338,11 +10343,11 @@
         <v>0.11753424657534246</v>
       </c>
       <c r="P21" s="89">
-        <f>N21/Arrivi!$C21</f>
-        <v>4.0760095011876482E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+        <f>N21/Arrivi!L21</f>
+        <v>4.3176328502415456E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="55"/>
       <c r="B22" s="57" t="s">
         <v>22</v>
@@ -10384,12 +10389,12 @@
         <f t="shared" si="0"/>
         <v>0.23726027397260271</v>
       </c>
-      <c r="P22" s="78">
-        <f>N22/Arrivi!$C22</f>
-        <v>0.23279569892473118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P22" s="89">
+        <f>N22/Arrivi!L22</f>
+        <v>0.21677096370463078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="7"/>
@@ -10405,29 +10410,36 @@
       <c r="N23" s="8"/>
       <c r="O23" s="8"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="114" t="s">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="118" t="s">
         <v>201</v>
       </c>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="117"/>
-      <c r="G24" s="114" t="s">
+      <c r="B24" s="118"/>
+      <c r="C24" s="118"/>
+      <c r="D24" s="118"/>
+      <c r="E24" s="119"/>
+      <c r="G24" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="H24" s="118"/>
-      <c r="I24" s="118"/>
-      <c r="J24" s="119"/>
-      <c r="L24" s="114" t="s">
+      <c r="H24" s="122"/>
+      <c r="I24" s="122"/>
+      <c r="J24" s="123"/>
+      <c r="L24" s="118" t="s">
         <v>211</v>
       </c>
-      <c r="M24" s="114"/>
-      <c r="N24" s="114"/>
-      <c r="O24" s="114"/>
-      <c r="P24" s="117"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M24" s="118"/>
+      <c r="N24" s="118"/>
+      <c r="O24" s="118"/>
+      <c r="P24" s="119"/>
+      <c r="R24" s="118" t="s">
+        <v>211</v>
+      </c>
+      <c r="S24" s="118"/>
+      <c r="T24" s="118"/>
+      <c r="U24" s="118"/>
+      <c r="V24" s="119"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>2</v>
       </c>
@@ -10470,8 +10482,20 @@
       <c r="P25" s="68" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R25" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="S25" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="T25" s="63" t="s">
+        <v>203</v>
+      </c>
+      <c r="U25" s="68" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>15</v>
       </c>
@@ -10522,8 +10546,22 @@
         <f>N26/Arrivi!C3</f>
         <v>0.28986556912633293</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R26" s="104" t="s">
+        <v>15</v>
+      </c>
+      <c r="S26" s="105" t="s">
+        <v>16</v>
+      </c>
+      <c r="T26" s="74">
+        <f>AVERAGE(Dati_OPTN!P72:Y72)</f>
+        <v>10845.9</v>
+      </c>
+      <c r="U26" s="73">
+        <f>T26/365</f>
+        <v>29.714794520547944</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="6"/>
       <c r="B27" s="56" t="s">
         <v>18</v>
@@ -10568,8 +10606,20 @@
         <f>N27/Arrivi!C4</f>
         <v>0.11785714285714285</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R27" s="6"/>
+      <c r="S27" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="T27" s="74">
+        <f>AVERAGE(Dati_OPTN!P73:Y73)</f>
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="U27" s="61">
+        <f t="shared" ref="U27:U45" si="2">T27/365</f>
+        <v>1.2054794520547946E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="6"/>
       <c r="B28" s="56" t="s">
         <v>20</v>
@@ -10614,8 +10664,20 @@
         <f>N28/Arrivi!C5</f>
         <v>9.8648905803996198E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R28" s="6"/>
+      <c r="S28" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T28" s="74">
+        <f>AVERAGE(Dati_OPTN!P74:Y74)</f>
+        <v>2764.8</v>
+      </c>
+      <c r="U28" s="61">
+        <f t="shared" si="2"/>
+        <v>7.5747945205479459</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="6"/>
       <c r="B29" s="56" t="s">
         <v>22</v>
@@ -10660,8 +10722,20 @@
         <f>N29/Arrivi!C6</f>
         <v>0.86354110980434085</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R29" s="6"/>
+      <c r="S29" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="74">
+        <f>AVERAGE(Dati_OPTN!P75:Y75)</f>
+        <v>8076.7</v>
+      </c>
+      <c r="U29" s="61">
+        <f t="shared" si="2"/>
+        <v>22.127945205479453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>23</v>
       </c>
@@ -10712,8 +10786,22 @@
         <f>N30/Arrivi!C7</f>
         <v>0.30491560718982902</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="S30" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T30" s="74">
+        <f>AVERAGE(Dati_OPTN!P76:Y76)</f>
+        <v>5564.1</v>
+      </c>
+      <c r="U30" s="61">
+        <f t="shared" si="2"/>
+        <v>15.244109589041097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="6"/>
       <c r="B31" s="56" t="s">
         <v>18</v>
@@ -10758,8 +10846,20 @@
         <f>N31/Arrivi!C8</f>
         <v>0.13157894736842105</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="R31" s="6"/>
+      <c r="S31" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="T31" s="74">
+        <f>AVERAGE(Dati_OPTN!P77:Y77)</f>
+        <v>2.5</v>
+      </c>
+      <c r="U31" s="61">
+        <f>T31/365</f>
+        <v>6.8493150684931503E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="6"/>
       <c r="B32" s="56" t="s">
         <v>20</v>
@@ -10804,8 +10904,20 @@
         <f>N32/Arrivi!C9</f>
         <v>0.10459075551895761</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R32" s="6"/>
+      <c r="S32" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T32" s="74">
+        <f>AVERAGE(Dati_OPTN!P78:Y78)</f>
+        <v>1439.5</v>
+      </c>
+      <c r="U32" s="61">
+        <f t="shared" si="2"/>
+        <v>3.9438356164383563</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="6"/>
       <c r="B33" s="56" t="s">
         <v>22</v>
@@ -10850,8 +10962,20 @@
         <f>N33/Arrivi!C10</f>
         <v>0.92303041612241099</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R33" s="6"/>
+      <c r="S33" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T33" s="74">
+        <f>AVERAGE(Dati_OPTN!P79:Y79)</f>
+        <v>4122.1000000000004</v>
+      </c>
+      <c r="U33" s="61">
+        <f t="shared" si="2"/>
+        <v>11.293424657534247</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>24</v>
       </c>
@@ -10902,8 +11026,22 @@
         <f>N34/Arrivi!C11</f>
         <v>0.2678163751334483</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T34" s="74">
+        <f>AVERAGE(Dati_OPTN!P80:Y80)</f>
+        <v>3261.2</v>
+      </c>
+      <c r="U34" s="61">
+        <f t="shared" si="2"/>
+        <v>8.9347945205479444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="6"/>
       <c r="B35" s="56" t="s">
         <v>18</v>
@@ -10948,8 +11086,20 @@
         <f>N35/Arrivi!C12</f>
         <v>0.1125</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R35" s="6"/>
+      <c r="S35" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="T35" s="74">
+        <f>AVERAGE(Dati_OPTN!P81:Y81)</f>
+        <v>1.2</v>
+      </c>
+      <c r="U35" s="61">
+        <f t="shared" si="2"/>
+        <v>3.2876712328767121E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="6"/>
       <c r="B36" s="56" t="s">
         <v>20</v>
@@ -10994,8 +11144,20 @@
         <f>N36/Arrivi!C13</f>
         <v>9.0857301396467208E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R36" s="6"/>
+      <c r="S36" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T36" s="74">
+        <f>AVERAGE(Dati_OPTN!P82:Y82)</f>
+        <v>818.7</v>
+      </c>
+      <c r="U36" s="61">
+        <f t="shared" si="2"/>
+        <v>2.2430136986301372</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="6"/>
       <c r="B37" s="56" t="s">
         <v>22</v>
@@ -11040,8 +11202,20 @@
         <f>N37/Arrivi!C14</f>
         <v>0.77366502931389647</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R37" s="6"/>
+      <c r="S37" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T37" s="74">
+        <f>AVERAGE(Dati_OPTN!P83:Y83)</f>
+        <v>2441.3000000000002</v>
+      </c>
+      <c r="U37" s="61">
+        <f t="shared" si="2"/>
+        <v>6.6884931506849323</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>25</v>
       </c>
@@ -11092,8 +11266,22 @@
         <f>N38/Arrivi!C15</f>
         <v>0.30590208114987272</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R38" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="S38" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T38" s="74">
+        <f>AVERAGE(Dati_OPTN!P84:Y84)</f>
+        <v>1702.6</v>
+      </c>
+      <c r="U38" s="61">
+        <f t="shared" si="2"/>
+        <v>4.664657534246575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
       <c r="B39" s="56" t="s">
         <v>18</v>
@@ -11138,8 +11326,20 @@
         <f>N39/Arrivi!C16</f>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R39" s="6"/>
+      <c r="S39" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="T39" s="74">
+        <f>AVERAGE(Dati_OPTN!P85:Y85)</f>
+        <v>0.4</v>
+      </c>
+      <c r="U39" s="61">
+        <f t="shared" si="2"/>
+        <v>1.0958904109589042E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
       <c r="B40" s="56" t="s">
         <v>20</v>
@@ -11184,8 +11384,20 @@
         <f>N40/Arrivi!C17</f>
         <v>0.10254354985913257</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R40" s="6"/>
+      <c r="S40" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T40" s="74">
+        <f>AVERAGE(Dati_OPTN!P86:Y86)</f>
+        <v>430.7</v>
+      </c>
+      <c r="U40" s="61">
+        <f t="shared" si="2"/>
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="6"/>
       <c r="B41" s="56" t="s">
         <v>22</v>
@@ -11230,8 +11442,20 @@
         <f>N41/Arrivi!C18</f>
         <v>0.93515567541063982</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R41" s="6"/>
+      <c r="S41" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="T41" s="74">
+        <f>AVERAGE(Dati_OPTN!P87:Y87)</f>
+        <v>1271.5</v>
+      </c>
+      <c r="U41" s="61">
+        <f t="shared" si="2"/>
+        <v>3.4835616438356163</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>26</v>
       </c>
@@ -11282,8 +11506,22 @@
         <f>N42/Arrivi!C19</f>
         <v>0.22318569592146781</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R42" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="S42" s="56" t="s">
+        <v>16</v>
+      </c>
+      <c r="T42" s="74">
+        <f>AVERAGE(Dati_OPTN!P88:Y88)</f>
+        <v>318.3</v>
+      </c>
+      <c r="U42" s="61">
+        <f t="shared" si="2"/>
+        <v>0.87205479452054802</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="6"/>
       <c r="B43" s="56" t="s">
         <v>18</v>
@@ -11328,8 +11566,20 @@
         <f>N43/Arrivi!C20</f>
         <v>0.18</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R43" s="6"/>
+      <c r="S43" s="56" t="s">
+        <v>18</v>
+      </c>
+      <c r="T43" s="74">
+        <f>AVERAGE(Dati_OPTN!P89:Y89)</f>
+        <v>0.3</v>
+      </c>
+      <c r="U43" s="61">
+        <f t="shared" si="2"/>
+        <v>8.2191780821917802E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="6"/>
       <c r="B44" s="56" t="s">
         <v>20</v>
@@ -11374,8 +11624,20 @@
         <f>N44/Arrivi!C21</f>
         <v>7.230403800475059E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R44" s="6"/>
+      <c r="S44" s="56" t="s">
+        <v>20</v>
+      </c>
+      <c r="T44" s="74">
+        <f>AVERAGE(Dati_OPTN!P90:Y90)</f>
+        <v>76.099999999999994</v>
+      </c>
+      <c r="U44" s="61">
+        <f t="shared" si="2"/>
+        <v>0.20849315068493149</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="55"/>
       <c r="B45" s="57" t="s">
         <v>22</v>
@@ -11420,8 +11682,20 @@
         <f>N45/Arrivi!C22</f>
         <v>0.65026881720430108</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R45" s="55"/>
+      <c r="S45" s="57" t="s">
+        <v>22</v>
+      </c>
+      <c r="T45" s="75">
+        <f>AVERAGE(Dati_OPTN!P91:Y91)</f>
+        <v>241.9</v>
+      </c>
+      <c r="U45" s="62">
+        <f t="shared" si="2"/>
+        <v>0.66273972602739728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="7"/>
@@ -11436,31 +11710,31 @@
       <c r="N46" s="8"/>
       <c r="O46" s="8"/>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A47" s="114" t="s">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="B47" s="115"/>
-      <c r="C47" s="115"/>
-      <c r="D47" s="115"/>
-      <c r="E47" s="116"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="120"/>
+      <c r="D47" s="120"/>
+      <c r="E47" s="121"/>
       <c r="F47" s="7"/>
-      <c r="G47" s="114" t="s">
+      <c r="G47" s="118" t="s">
         <v>212</v>
       </c>
-      <c r="H47" s="115"/>
-      <c r="I47" s="115"/>
-      <c r="J47" s="116"/>
-      <c r="L47" s="114" t="s">
+      <c r="H47" s="120"/>
+      <c r="I47" s="120"/>
+      <c r="J47" s="121"/>
+      <c r="L47" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="M47" s="115"/>
-      <c r="N47" s="115"/>
-      <c r="O47" s="115"/>
-      <c r="P47" s="116"/>
+      <c r="M47" s="120"/>
+      <c r="N47" s="120"/>
+      <c r="O47" s="120"/>
+      <c r="P47" s="121"/>
       <c r="Q47" s="8"/>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="63" t="s">
         <v>2</v>
       </c>
@@ -11596,7 +11870,7 @@
         <v>21.2</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" ref="O50:O68" si="2">N50/365</f>
+        <f t="shared" ref="O50:O68" si="3">N50/365</f>
         <v>5.8082191780821919E-2</v>
       </c>
       <c r="P50" s="61">
@@ -11642,7 +11916,7 @@
         <v>16771.5</v>
       </c>
       <c r="O51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>45.949315068493149</v>
       </c>
       <c r="P51" s="61">
@@ -11688,7 +11962,7 @@
         <v>1386.5</v>
       </c>
       <c r="O52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.7986301369863016</v>
       </c>
       <c r="P52" s="61">
@@ -11740,7 +12014,7 @@
         <v>8204</v>
       </c>
       <c r="O53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22.476712328767125</v>
       </c>
       <c r="P53" s="61">
@@ -11786,7 +12060,7 @@
         <v>10</v>
       </c>
       <c r="O54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.7397260273972601E-2</v>
       </c>
       <c r="P54" s="61">
@@ -11832,7 +12106,7 @@
         <v>7605</v>
       </c>
       <c r="O55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20.835616438356166</v>
       </c>
       <c r="P55" s="61">
@@ -11878,7 +12152,7 @@
         <v>589</v>
       </c>
       <c r="O56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.6136986301369862</v>
       </c>
       <c r="P56" s="61">
@@ -11930,7 +12204,7 @@
         <v>6619.6</v>
       </c>
       <c r="O57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.135890410958904</v>
       </c>
       <c r="P57" s="61">
@@ -11976,7 +12250,7 @@
         <v>6</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.643835616438356E-2</v>
       </c>
       <c r="P58" s="61">
@@ -12022,7 +12296,7 @@
         <v>6052</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.580821917808219</v>
       </c>
       <c r="P59" s="61">
@@ -12068,7 +12342,7 @@
         <v>561.6</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5386301369863014</v>
       </c>
       <c r="P60" s="61">
@@ -12120,7 +12394,7 @@
         <v>2458.9</v>
       </c>
       <c r="O61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.7367123287671236</v>
       </c>
       <c r="P61" s="61">
@@ -12166,7 +12440,7 @@
         <v>4.3</v>
       </c>
       <c r="O62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1780821917808219E-2</v>
       </c>
       <c r="P62" s="61">
@@ -12212,7 +12486,7 @@
         <v>2279.5</v>
       </c>
       <c r="O63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2452054794520544</v>
       </c>
       <c r="P63" s="61">
@@ -12258,7 +12532,7 @@
         <v>175.1</v>
       </c>
       <c r="O64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.47972602739726028</v>
       </c>
       <c r="P64" s="61">
@@ -12310,7 +12584,7 @@
         <v>896.7</v>
       </c>
       <c r="O65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4567123287671233</v>
       </c>
       <c r="P65" s="61">
@@ -12356,7 +12630,7 @@
         <v>0.9</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4657534246575342E-3</v>
       </c>
       <c r="P66" s="61">
@@ -12402,7 +12676,7 @@
         <v>835</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.2876712328767121</v>
       </c>
       <c r="P67" s="61">
@@ -12448,7 +12722,7 @@
         <v>60.8</v>
       </c>
       <c r="O68" s="70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16657534246575342</v>
       </c>
       <c r="P68" s="62">
@@ -12457,7 +12731,8 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="R24:V24"/>
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="G47:J47"/>
     <mergeCell ref="L47:P47"/>
@@ -12499,21 +12774,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
-      <c r="J1" s="123" t="s">
+      <c r="B1" s="127"/>
+      <c r="C1" s="127"/>
+      <c r="D1" s="127"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="127"/>
+      <c r="G1" s="127"/>
+      <c r="H1" s="127"/>
+      <c r="J1" s="127" t="s">
         <v>64</v>
       </c>
-      <c r="K1" s="123"/>
-      <c r="L1" s="123"/>
+      <c r="K1" s="127"/>
+      <c r="L1" s="127"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -12719,14 +12994,14 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="123" t="s">
+      <c r="A8" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="123"/>
-      <c r="C8" s="123"/>
-      <c r="D8" s="123"/>
-      <c r="E8" s="123"/>
-      <c r="F8" s="123"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
       <c r="J8" s="16"/>
       <c r="K8" s="17" t="s">
         <v>59</v>
@@ -12969,17 +13244,17 @@
       <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="124" t="s">
         <v>213</v>
       </c>
-      <c r="B19" s="124"/>
-      <c r="C19" s="124"/>
-      <c r="D19" s="124"/>
-      <c r="E19" s="124"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="124"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="125"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="128"/>
+      <c r="D19" s="128"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="129"/>
     </row>
     <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
@@ -13317,18 +13592,18 @@
       <c r="M30" s="20"/>
     </row>
     <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="120" t="s">
+      <c r="A31" s="124" t="s">
         <v>228</v>
       </c>
-      <c r="B31" s="121"/>
-      <c r="C31" s="121"/>
-      <c r="D31" s="121"/>
-      <c r="E31" s="121"/>
-      <c r="F31" s="121"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="121"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="122"/>
+      <c r="B31" s="125"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="126"/>
     </row>
     <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="24" t="s">
@@ -13676,16 +13951,16 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="120" t="s">
+      <c r="A42" s="124" t="s">
         <v>220</v>
       </c>
-      <c r="B42" s="121"/>
-      <c r="C42" s="121"/>
-      <c r="D42" s="121"/>
-      <c r="E42" s="121"/>
-      <c r="F42" s="121"/>
-      <c r="G42" s="121"/>
-      <c r="H42" s="122"/>
+      <c r="B42" s="125"/>
+      <c r="C42" s="125"/>
+      <c r="D42" s="125"/>
+      <c r="E42" s="125"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125"/>
+      <c r="H42" s="126"/>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
@@ -14099,10 +14374,10 @@
         <f>B3*(1-C3)</f>
         <v>4.2922374429223795E-2</v>
       </c>
-      <c r="E3" s="126">
+      <c r="E3" s="130">
         <v>22.4118721461187</v>
       </c>
-      <c r="F3" s="128">
+      <c r="F3" s="132">
         <f>1/E3</f>
         <v>4.4619208671203336E-2</v>
       </c>
@@ -14115,11 +14390,11 @@
         <f>F$3*D3</f>
         <v>1.9151623813210587E-3</v>
       </c>
-      <c r="J3" s="129">
+      <c r="J3" s="133">
         <f>SUM(I3:I4)</f>
         <v>1.3854773644105816</v>
       </c>
-      <c r="K3" s="129">
+      <c r="K3" s="133">
         <f>IF(J3&gt;=1, 0.95,J3)</f>
         <v>0.95</v>
       </c>
@@ -14154,16 +14429,16 @@
         <f>B4*(1-C4)</f>
         <v>31.008219178082232</v>
       </c>
-      <c r="E4" s="127"/>
-      <c r="F4" s="128"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="132"/>
       <c r="G4" s="100"/>
       <c r="H4" s="100"/>
       <c r="I4" s="102">
         <f>F$3*D4</f>
         <v>1.3835622020292604</v>
       </c>
-      <c r="J4" s="130"/>
-      <c r="K4" s="130"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="134"/>
       <c r="L4" s="102">
         <f>IF(A4=1,(F$3*K$3)/(1-I4),(F$3*K$3)/((1-I3)*(1-K$3)))</f>
         <v>0.84939168776026774</v>
@@ -14211,32 +14486,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="146" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="142"/>
-      <c r="C1" s="142"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="142"/>
+      <c r="B1" s="146"/>
+      <c r="C1" s="146"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="142" t="s">
+      <c r="G1" s="146" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="142"/>
-      <c r="I1" s="142"/>
-      <c r="J1" s="142"/>
-      <c r="K1" s="142"/>
-      <c r="L1" s="142"/>
-      <c r="M1" s="142"/>
+      <c r="H1" s="146"/>
+      <c r="I1" s="146"/>
+      <c r="J1" s="146"/>
+      <c r="K1" s="146"/>
+      <c r="L1" s="146"/>
+      <c r="M1" s="146"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="134"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
@@ -14247,11 +14522,11 @@
       <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="134" t="s">
+      <c r="H2" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
@@ -14266,10 +14541,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="131" t="s">
+      <c r="B3" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="131"/>
+      <c r="C3" s="135"/>
       <c r="D3">
         <f>Dati_OPTN!C53/(Dati_OPTN!C7+Dati_OPTN!P76)</f>
         <v>8.022815115013697E-2</v>
@@ -14281,11 +14556,11 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="131" t="s">
+      <c r="H3" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="131"/>
-      <c r="J3" s="131"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
       <c r="K3">
         <f>Dati_OPTN!P76/(Dati_OPTN!C53+Dati_OPTN!C7)</f>
         <v>0.28016187130341974</v>
@@ -14302,10 +14577,10 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="131"/>
+      <c r="C4" s="135"/>
       <c r="D4">
         <f>Dati_OPTN!C57/(Dati_OPTN!C11+Dati_OPTN!P80)</f>
         <v>6.2610333058726611E-2</v>
@@ -14317,11 +14592,11 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="131" t="s">
+      <c r="H4" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="131"/>
-      <c r="J4" s="131"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
       <c r="K4">
         <f>Dati_OPTN!P80/(Dati_OPTN!C57+Dati_OPTN!C11)</f>
         <v>0.24349263186888859</v>
@@ -14338,10 +14613,10 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="131" t="s">
+      <c r="B5" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="131"/>
+      <c r="C5" s="135"/>
       <c r="D5">
         <f>Dati_OPTN!C61/(Dati_OPTN!C15+Dati_OPTN!P84)</f>
         <v>8.022640580780116E-2</v>
@@ -14353,11 +14628,11 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="131" t="s">
+      <c r="H5" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
       <c r="K5">
         <f>Dati_OPTN!P84/(Dati_OPTN!C61+Dati_OPTN!C15)</f>
         <v>0.29046009113626342</v>
@@ -14374,10 +14649,10 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="135" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="131"/>
+      <c r="C6" s="135"/>
       <c r="D6">
         <f>Dati_OPTN!C65/(Dati_OPTN!C19+Dati_OPTN!P88)</f>
         <v>5.2356020942408377E-2</v>
@@ -14389,11 +14664,11 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="131" t="s">
+      <c r="H6" s="135" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="131"/>
-      <c r="J6" s="131"/>
+      <c r="I6" s="135"/>
+      <c r="J6" s="135"/>
       <c r="K6">
         <f>Dati_OPTN!P88/(Dati_OPTN!C65+Dati_OPTN!C19)</f>
         <v>0.18794326241134751</v>
@@ -14410,25 +14685,25 @@
       <c r="C7" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="140" t="s">
+      <c r="A9" s="144" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="I9" s="140" t="s">
+      <c r="B9" s="144"/>
+      <c r="C9" s="144"/>
+      <c r="D9" s="144"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="I9" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="140"/>
-      <c r="O9" s="140"/>
-      <c r="P9" s="140"/>
+      <c r="J9" s="144"/>
+      <c r="K9" s="144"/>
+      <c r="L9" s="144"/>
+      <c r="M9" s="144"/>
+      <c r="N9" s="144"/>
+      <c r="O9" s="144"/>
+      <c r="P9" s="144"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -14437,12 +14712,12 @@
       <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="131" t="s">
+      <c r="C10" s="135" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
+      <c r="D10" s="135"/>
+      <c r="E10" s="135"/>
+      <c r="F10" s="135"/>
       <c r="G10">
         <f>Dati_OPTN!C8/365*(1-M3-E3)</f>
         <v>1.9239971433924447E-2</v>
@@ -14450,16 +14725,16 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="141" t="s">
+      <c r="J10" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="141"/>
-      <c r="L10" s="131" t="s">
+      <c r="K10" s="145"/>
+      <c r="L10" s="135" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="135"/>
+      <c r="O10" s="135"/>
       <c r="P10">
         <f>G10</f>
         <v>1.9239971433924447E-2</v>
@@ -14469,26 +14744,26 @@
       <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="131" t="s">
+      <c r="C11" s="135" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
+      <c r="D11" s="135"/>
+      <c r="E11" s="135"/>
+      <c r="F11" s="135"/>
       <c r="G11">
         <f>Dati_OPTN!C9/365*(1-M3-E3)</f>
         <v>15.587414751705209</v>
       </c>
-      <c r="J11" s="141" t="s">
+      <c r="J11" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="141"/>
-      <c r="L11" s="131" t="s">
+      <c r="K11" s="145"/>
+      <c r="L11" s="135" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="131"/>
-      <c r="N11" s="131"/>
-      <c r="O11" s="131"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="135"/>
+      <c r="O11" s="135"/>
       <c r="P11">
         <f>G11+G19</f>
         <v>20.586769434299157</v>
@@ -14501,12 +14776,12 @@
       <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="131" t="s">
+      <c r="C12" s="135" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="131"/>
-      <c r="E12" s="131"/>
-      <c r="F12" s="131"/>
+      <c r="D12" s="135"/>
+      <c r="E12" s="135"/>
+      <c r="F12" s="135"/>
       <c r="G12">
         <f>Dati_OPTN!C12/365*(1-M4-E4)</f>
         <v>9.6958091800653338E-3</v>
@@ -14514,16 +14789,16 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="141" t="s">
+      <c r="J12" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="141"/>
-      <c r="L12" s="131" t="s">
+      <c r="K12" s="145"/>
+      <c r="L12" s="135" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="131"/>
-      <c r="N12" s="131"/>
-      <c r="O12" s="131"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="135"/>
+      <c r="O12" s="135"/>
       <c r="P12">
         <f>G12</f>
         <v>9.6958091800653338E-3</v>
@@ -14533,26 +14808,26 @@
       <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="C13" s="135" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
+      <c r="D13" s="135"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="135"/>
       <c r="G13">
         <f>Dati_OPTN!C13/365*(1-M4-E4)</f>
         <v>9.6163035447887992</v>
       </c>
-      <c r="J13" s="141" t="s">
+      <c r="J13" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="141"/>
-      <c r="L13" s="131" t="s">
+      <c r="K13" s="145"/>
+      <c r="L13" s="135" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
+      <c r="M13" s="135"/>
+      <c r="N13" s="135"/>
+      <c r="O13" s="135"/>
       <c r="P13">
         <f>G13+G20</f>
         <v>13.038924185351863</v>
@@ -14565,12 +14840,12 @@
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="131" t="s">
+      <c r="C14" s="135" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
+      <c r="D14" s="135"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="135"/>
       <c r="G14">
         <f>Dati_OPTN!C16/365*(1-M5-E5)</f>
         <v>6.2825617275598716E-3</v>
@@ -14578,16 +14853,16 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="141" t="s">
+      <c r="J14" s="145" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="141"/>
-      <c r="L14" s="131" t="s">
+      <c r="K14" s="145"/>
+      <c r="L14" s="135" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="131"/>
-      <c r="N14" s="131"/>
-      <c r="O14" s="131"/>
+      <c r="M14" s="135"/>
+      <c r="N14" s="135"/>
+      <c r="O14" s="135"/>
       <c r="P14">
         <f>G14</f>
         <v>6.2825617275598716E-3</v>
@@ -14597,26 +14872,26 @@
       <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="131" t="s">
+      <c r="C15" s="135" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
       <c r="G15">
         <f>Dati_OPTN!C17/365*(1-M5-E5)</f>
         <v>2.947777962571092</v>
       </c>
-      <c r="J15" s="141" t="s">
+      <c r="J15" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="141"/>
-      <c r="L15" s="131" t="s">
+      <c r="K15" s="145"/>
+      <c r="L15" s="135" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="131"/>
-      <c r="N15" s="131"/>
-      <c r="O15" s="131"/>
+      <c r="M15" s="135"/>
+      <c r="N15" s="135"/>
+      <c r="O15" s="135"/>
       <c r="P15">
         <f>G15+G21</f>
         <v>3.8581211568945175</v>
@@ -14629,12 +14904,12 @@
       <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="131" t="s">
+      <c r="C16" s="135" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
+      <c r="D16" s="135"/>
+      <c r="E16" s="135"/>
+      <c r="F16" s="135"/>
       <c r="G16">
         <f>Dati_OPTN!C20/365*(1-M6-E6)</f>
         <v>1.3134285843629813E-3</v>
@@ -14642,16 +14917,16 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="141" t="s">
+      <c r="J16" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="141"/>
-      <c r="L16" s="131" t="s">
+      <c r="K16" s="145"/>
+      <c r="L16" s="135" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="131"/>
-      <c r="N16" s="131"/>
-      <c r="O16" s="131"/>
+      <c r="M16" s="135"/>
+      <c r="N16" s="135"/>
+      <c r="O16" s="135"/>
       <c r="P16">
         <f>G16</f>
         <v>1.3134285843629813E-3</v>
@@ -14661,52 +14936,52 @@
       <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="131" t="s">
+      <c r="C17" s="135" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
+      <c r="D17" s="135"/>
+      <c r="E17" s="135"/>
+      <c r="F17" s="135"/>
       <c r="G17">
         <f>Dati_OPTN!C21/365*(1-M6-E6)</f>
         <v>0.76178857893052909</v>
       </c>
-      <c r="J17" s="141" t="s">
+      <c r="J17" s="145" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="141"/>
-      <c r="L17" s="131" t="s">
+      <c r="K17" s="145"/>
+      <c r="L17" s="135" t="s">
         <v>95</v>
       </c>
-      <c r="M17" s="131"/>
-      <c r="N17" s="131"/>
-      <c r="O17" s="131"/>
+      <c r="M17" s="135"/>
+      <c r="N17" s="135"/>
+      <c r="O17" s="135"/>
       <c r="P17">
         <f>G17+G22</f>
         <v>1.0441757245685701</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="140" t="s">
+      <c r="A18" s="144" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="I18" s="140" t="s">
+      <c r="B18" s="144"/>
+      <c r="C18" s="144"/>
+      <c r="D18" s="144"/>
+      <c r="E18" s="144"/>
+      <c r="F18" s="144"/>
+      <c r="G18" s="144"/>
+      <c r="I18" s="144" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="140"/>
-      <c r="O18" s="140"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="140"/>
+      <c r="J18" s="144"/>
+      <c r="K18" s="144"/>
+      <c r="L18" s="144"/>
+      <c r="M18" s="144"/>
+      <c r="N18" s="144"/>
+      <c r="O18" s="144"/>
+      <c r="P18" s="144"/>
+      <c r="Q18" s="144"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
@@ -14717,12 +14992,12 @@
       <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="131" t="s">
+      <c r="C19" s="135" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="131"/>
-      <c r="E19" s="131"/>
-      <c r="F19" s="131"/>
+      <c r="D19" s="135"/>
+      <c r="E19" s="135"/>
+      <c r="F19" s="135"/>
       <c r="G19">
         <f>Dati_OPTN!C10/365*(1-M3-E3)</f>
         <v>4.999354682593947</v>
@@ -14730,15 +15005,15 @@
       <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="131" t="s">
+      <c r="J19" s="135" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="131"/>
-      <c r="L19" s="131"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
+      <c r="K19" s="135"/>
+      <c r="L19" s="135"/>
+      <c r="M19" s="135"/>
+      <c r="N19" s="135"/>
+      <c r="O19" s="135"/>
+      <c r="P19" s="135"/>
       <c r="Q19">
         <f>G10+G11+G19</f>
         <v>20.606009405733079</v>
@@ -14751,12 +15026,12 @@
       <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="131" t="s">
+      <c r="C20" s="135" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
       <c r="G20">
         <f>Dati_OPTN!C14/365*(1-M4-E4)</f>
         <v>3.4226206405630637</v>
@@ -14764,15 +15039,15 @@
       <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="131" t="s">
+      <c r="J20" s="135" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="131"/>
-      <c r="O20" s="131"/>
-      <c r="P20" s="131"/>
+      <c r="K20" s="135"/>
+      <c r="L20" s="135"/>
+      <c r="M20" s="135"/>
+      <c r="N20" s="135"/>
+      <c r="O20" s="135"/>
+      <c r="P20" s="135"/>
       <c r="Q20">
         <f>G12+G13+G20</f>
         <v>13.048619994531929</v>
@@ -14785,12 +15060,12 @@
       <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="131" t="s">
+      <c r="C21" s="135" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="131"/>
-      <c r="E21" s="131"/>
-      <c r="F21" s="131"/>
+      <c r="D21" s="135"/>
+      <c r="E21" s="135"/>
+      <c r="F21" s="135"/>
       <c r="G21">
         <f>Dati_OPTN!C18/365*(1-M5-E5)</f>
         <v>0.91034319432342548</v>
@@ -14798,15 +15073,15 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="131" t="s">
+      <c r="J21" s="135" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="131"/>
-      <c r="L21" s="131"/>
-      <c r="M21" s="131"/>
-      <c r="N21" s="131"/>
-      <c r="O21" s="131"/>
-      <c r="P21" s="131"/>
+      <c r="K21" s="135"/>
+      <c r="L21" s="135"/>
+      <c r="M21" s="135"/>
+      <c r="N21" s="135"/>
+      <c r="O21" s="135"/>
+      <c r="P21" s="135"/>
       <c r="Q21">
         <f>G14+G15+G21</f>
         <v>3.8644037186220772</v>
@@ -14819,12 +15094,12 @@
       <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="131" t="s">
+      <c r="C22" s="135" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="131"/>
-      <c r="E22" s="131"/>
-      <c r="F22" s="131"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
       <c r="G22">
         <f>Dati_OPTN!C22/365*(1-M6-E6)</f>
         <v>0.28238714563804101</v>
@@ -14832,62 +15107,62 @@
       <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="131" t="s">
+      <c r="J22" s="135" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="131"/>
-      <c r="L22" s="131"/>
-      <c r="M22" s="131"/>
-      <c r="N22" s="131"/>
-      <c r="O22" s="131"/>
-      <c r="P22" s="131"/>
+      <c r="K22" s="135"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="135"/>
+      <c r="N22" s="135"/>
+      <c r="O22" s="135"/>
+      <c r="P22" s="135"/>
       <c r="Q22">
         <f>G16+G17+G22</f>
         <v>1.0454891531529331</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="137" t="s">
+      <c r="A25" s="141" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="137"/>
-      <c r="C25" s="137"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="137"/>
-      <c r="F25" s="137"/>
-      <c r="I25" s="137" t="s">
+      <c r="B25" s="141"/>
+      <c r="C25" s="141"/>
+      <c r="D25" s="141"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="I25" s="141" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="137"/>
-      <c r="K25" s="137"/>
-      <c r="L25" s="137"/>
-      <c r="M25" s="137"/>
-      <c r="N25" s="137"/>
-      <c r="Q25" s="137" t="s">
+      <c r="J25" s="141"/>
+      <c r="K25" s="141"/>
+      <c r="L25" s="141"/>
+      <c r="M25" s="141"/>
+      <c r="N25" s="141"/>
+      <c r="Q25" s="141" t="s">
         <v>109</v>
       </c>
-      <c r="R25" s="137"/>
-      <c r="S25" s="137"/>
-      <c r="T25" s="137"/>
-      <c r="U25" s="137"/>
-      <c r="V25" s="137"/>
-      <c r="Y25" s="137" t="s">
+      <c r="R25" s="141"/>
+      <c r="S25" s="141"/>
+      <c r="T25" s="141"/>
+      <c r="U25" s="141"/>
+      <c r="V25" s="141"/>
+      <c r="Y25" s="141" t="s">
         <v>110</v>
       </c>
-      <c r="Z25" s="137"/>
-      <c r="AA25" s="137"/>
-      <c r="AB25" s="137"/>
-      <c r="AC25" s="137"/>
+      <c r="Z25" s="141"/>
+      <c r="AA25" s="141"/>
+      <c r="AB25" s="141"/>
+      <c r="AC25" s="141"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="134" t="s">
+      <c r="B26" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="134"/>
-      <c r="D26" s="134"/>
+      <c r="C26" s="138"/>
+      <c r="D26" s="138"/>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
@@ -14897,34 +15172,34 @@
       <c r="I26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="134" t="s">
+      <c r="J26" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="134"/>
-      <c r="L26" s="134"/>
-      <c r="M26" s="134"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
       <c r="N26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="134" t="s">
+      <c r="R26" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="S26" s="134"/>
-      <c r="T26" s="134"/>
-      <c r="U26" s="134"/>
+      <c r="S26" s="138"/>
+      <c r="T26" s="138"/>
+      <c r="U26" s="138"/>
       <c r="V26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="134" t="s">
+      <c r="Z26" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="AA26" s="134"/>
+      <c r="AA26" s="138"/>
       <c r="AB26" s="2" t="s">
         <v>46</v>
       </c>
@@ -14936,11 +15211,11 @@
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="135" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="131"/>
+      <c r="C27" s="135"/>
+      <c r="D27" s="135"/>
       <c r="E27">
         <f>Arrivi!D31/Arrivi!D29</f>
         <v>0.45980196406014429</v>
@@ -14952,12 +15227,12 @@
       <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="131" t="s">
+      <c r="J27" s="135" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="131"/>
-      <c r="L27" s="131"/>
-      <c r="M27" s="131"/>
+      <c r="K27" s="135"/>
+      <c r="L27" s="135"/>
+      <c r="M27" s="135"/>
       <c r="N27">
         <f>1/(2*E27*Arrivi!H31)</f>
         <v>9.2240298702594314E-2</v>
@@ -14965,12 +15240,12 @@
       <c r="Q27" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="131" t="s">
+      <c r="R27" s="135" t="s">
         <v>117</v>
       </c>
-      <c r="S27" s="131"/>
-      <c r="T27" s="131"/>
-      <c r="U27" s="131"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
       <c r="V27">
         <f>1/(2*F27*Arrivi!H30)</f>
         <v>6.3479719307352522E-2</v>
@@ -14978,10 +15253,10 @@
       <c r="Y27" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="131" t="s">
+      <c r="Z27" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="AA27" s="131"/>
+      <c r="AA27" s="135"/>
       <c r="AB27">
         <f>E27*N27+F27*V27</f>
         <v>7.6703890200792421E-2</v>
@@ -14995,11 +15270,11 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="135" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
+      <c r="C28" s="135"/>
+      <c r="D28" s="135"/>
       <c r="E28">
         <f>Arrivi!D34/Arrivi!D32</f>
         <v>0.32570024570024569</v>
@@ -15011,12 +15286,12 @@
       <c r="I28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="131" t="s">
+      <c r="J28" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
+      <c r="K28" s="135"/>
+      <c r="L28" s="135"/>
+      <c r="M28" s="135"/>
       <c r="N28">
         <f>1/(2*E28*Arrivi!H34)</f>
         <v>0.29662846521470904</v>
@@ -15024,12 +15299,12 @@
       <c r="Q28" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="131" t="s">
+      <c r="R28" s="135" t="s">
         <v>121</v>
       </c>
-      <c r="S28" s="131"/>
-      <c r="T28" s="131"/>
-      <c r="U28" s="131"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
       <c r="V28">
         <f>1/(2*F28*Arrivi!H33)</f>
         <v>6.5580601925874338E-2</v>
@@ -15037,10 +15312,10 @@
       <c r="Y28" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="131" t="s">
+      <c r="Z28" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="AA28" s="131"/>
+      <c r="AA28" s="135"/>
       <c r="AB28">
         <f>E28*N28+F28*V28</f>
         <v>0.14083294776756458</v>
@@ -15054,11 +15329,11 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="135" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="131"/>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
       <c r="E29">
         <f>Arrivi!D37/Arrivi!D35</f>
         <v>0.3090813093980993</v>
@@ -15070,12 +15345,12 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="131" t="s">
+      <c r="J29" s="135" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="131"/>
-      <c r="L29" s="131"/>
-      <c r="M29" s="131"/>
+      <c r="K29" s="135"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="135"/>
       <c r="N29">
         <f>1/(2*E29*Arrivi!H37)</f>
         <v>1.0506397061594894</v>
@@ -15083,12 +15358,12 @@
       <c r="Q29" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="131" t="s">
+      <c r="R29" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="131"/>
-      <c r="T29" s="131"/>
-      <c r="U29" s="131"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
       <c r="V29">
         <f>1/(2*F29*Arrivi!H36)</f>
         <v>0.20117369900147355</v>
@@ -15096,10 +15371,10 @@
       <c r="Y29" t="s">
         <v>25</v>
       </c>
-      <c r="Z29" s="131" t="s">
+      <c r="Z29" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="AA29" s="131"/>
+      <c r="AA29" s="135"/>
       <c r="AB29">
         <f>E29*N29+F29*V29</f>
         <v>0.46372776478304834</v>
@@ -15113,11 +15388,11 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="131" t="s">
+      <c r="B30" s="135" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="131"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="135"/>
       <c r="E30">
         <f>Arrivi!D40/Arrivi!D38</f>
         <v>0.20058626465661641</v>
@@ -15129,12 +15404,12 @@
       <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="131" t="s">
+      <c r="J30" s="135" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="131"/>
-      <c r="L30" s="131"/>
-      <c r="M30" s="131"/>
+      <c r="K30" s="135"/>
+      <c r="L30" s="135"/>
+      <c r="M30" s="135"/>
       <c r="N30">
         <f>1/(2*E30*Arrivi!H40)</f>
         <v>8.1235087980912617</v>
@@ -15142,12 +15417,12 @@
       <c r="Q30" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="131" t="s">
+      <c r="R30" s="135" t="s">
         <v>127</v>
       </c>
-      <c r="S30" s="131"/>
-      <c r="T30" s="131"/>
-      <c r="U30" s="131"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
       <c r="V30">
         <f>1/(2*F30*Arrivi!H39)</f>
         <v>0.58536487085465616</v>
@@ -15155,10 +15430,10 @@
       <c r="Y30" t="s">
         <v>26</v>
       </c>
-      <c r="Z30" s="131" t="s">
+      <c r="Z30" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="AA30" s="131"/>
+      <c r="AA30" s="135"/>
       <c r="AB30">
         <f>E30*N30+F30*V30</f>
         <v>2.0974130036630036</v>
@@ -15169,27 +15444,27 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="136"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
-      <c r="F33" s="139" t="s">
+      <c r="B33" s="140"/>
+      <c r="C33" s="140"/>
+      <c r="D33" s="140"/>
+      <c r="F33" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="143"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="135" t="s">
+      <c r="B34" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="135"/>
+      <c r="C34" s="139"/>
       <c r="D34">
         <f>Q19*AB27</f>
         <v>1.5805610829338461</v>
@@ -15197,10 +15472,10 @@
       <c r="F34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="131" t="s">
+      <c r="G34" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="131"/>
+      <c r="H34" s="135"/>
       <c r="I34">
         <f>1/(2*E27*F27)-1</f>
         <v>1.0130111547150507</v>
@@ -15210,10 +15485,10 @@
       <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="135" t="s">
+      <c r="B35" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="135"/>
+      <c r="C35" s="139"/>
       <c r="D35">
         <f>Q20*AB28</f>
         <v>1.8376756181287139</v>
@@ -15221,10 +15496,10 @@
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="131" t="s">
+      <c r="G35" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="131"/>
+      <c r="H35" s="135"/>
       <c r="I35">
         <f>1/(2*E28*F28)-1</f>
         <v>1.2766638765442981</v>
@@ -15234,10 +15509,10 @@
       <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="135"/>
+      <c r="C36" s="139"/>
       <c r="D36">
         <f>Q21*AB29</f>
         <v>1.7920312986559159</v>
@@ -15245,10 +15520,10 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="131" t="s">
+      <c r="G36" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="131"/>
+      <c r="H36" s="135"/>
       <c r="I36">
         <f>1/(2*E29*F29)-1</f>
         <v>1.3413714565768982</v>
@@ -15258,10 +15533,10 @@
       <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="135" t="s">
+      <c r="B37" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="135"/>
+      <c r="C37" s="139"/>
       <c r="D37">
         <f>Q22*AB30</f>
         <v>2.1928225450115835</v>
@@ -15269,22 +15544,22 @@
       <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="131" t="s">
+      <c r="G37" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="131"/>
+      <c r="H37" s="135"/>
       <c r="I37">
         <f>1/(2*E30*F30)-1</f>
         <v>2.1181514658069514</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="136" t="s">
+      <c r="A40" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="136"/>
-      <c r="C40" s="136"/>
-      <c r="D40" s="136"/>
+      <c r="B40" s="140"/>
+      <c r="C40" s="140"/>
+      <c r="D40" s="140"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -15417,42 +15692,42 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="138" t="s">
+      <c r="A51" s="142" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="138"/>
-      <c r="C51" s="138"/>
-      <c r="D51" s="138"/>
-      <c r="E51" s="138"/>
-      <c r="F51" s="138"/>
-      <c r="G51" s="138"/>
-      <c r="H51" s="138"/>
-      <c r="I51" s="138"/>
-      <c r="J51" s="138"/>
-      <c r="K51" s="138"/>
-      <c r="L51" s="138"/>
-      <c r="M51" s="138"/>
-      <c r="N51" s="138"/>
-      <c r="O51" s="138"/>
+      <c r="B51" s="142"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="142"/>
+      <c r="I51" s="142"/>
+      <c r="J51" s="142"/>
+      <c r="K51" s="142"/>
+      <c r="L51" s="142"/>
+      <c r="M51" s="142"/>
+      <c r="N51" s="142"/>
+      <c r="O51" s="142"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="133" t="s">
+      <c r="A52" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="133"/>
-      <c r="C52" s="133"/>
-      <c r="D52" s="133"/>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="I52" s="133" t="s">
+      <c r="B52" s="137"/>
+      <c r="C52" s="137"/>
+      <c r="D52" s="137"/>
+      <c r="E52" s="137"/>
+      <c r="F52" s="137"/>
+      <c r="I52" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="J52" s="133"/>
-      <c r="K52" s="133"/>
-      <c r="L52" s="133"/>
-      <c r="M52" s="133"/>
-      <c r="N52" s="133"/>
-      <c r="O52" s="133"/>
+      <c r="J52" s="137"/>
+      <c r="K52" s="137"/>
+      <c r="L52" s="137"/>
+      <c r="M52" s="137"/>
+      <c r="N52" s="137"/>
+      <c r="O52" s="137"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -15461,26 +15736,26 @@
       <c r="B53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="134" t="s">
+      <c r="C53" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
+      <c r="D53" s="138"/>
+      <c r="E53" s="138"/>
       <c r="F53" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="134" t="s">
+      <c r="J53" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="K53" s="134"/>
-      <c r="L53" s="134" t="s">
+      <c r="K53" s="138"/>
+      <c r="L53" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="134"/>
-      <c r="N53" s="134"/>
+      <c r="M53" s="138"/>
+      <c r="N53" s="138"/>
       <c r="O53" s="2" t="s">
         <v>146</v>
       </c>
@@ -15492,11 +15767,11 @@
       <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="131" t="s">
+      <c r="C54" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
+      <c r="D54" s="135"/>
+      <c r="E54" s="135"/>
       <c r="F54">
         <f>(D34*AB27*(1+I34))/(2*(1-D42))</f>
         <v>0.1222042352739537</v>
@@ -15504,15 +15779,15 @@
       <c r="I54" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="131" t="s">
+      <c r="J54" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="131"/>
-      <c r="L54" s="131" t="s">
+      <c r="K54" s="135"/>
+      <c r="L54" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="131"/>
-      <c r="N54" s="131"/>
+      <c r="M54" s="135"/>
+      <c r="N54" s="135"/>
       <c r="O54">
         <f>F54+AB27</f>
         <v>0.19890812547474612</v>
@@ -15522,32 +15797,32 @@
       <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="131" t="s">
+      <c r="C55" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="131"/>
-      <c r="E55" s="131"/>
+      <c r="D55" s="135"/>
+      <c r="E55" s="135"/>
       <c r="F55">
         <f>(D34*AB27*(1+I34))/(2*(1-D42)*(1-D34))</f>
         <v>-0.21049332941229656</v>
       </c>
-      <c r="J55" s="131" t="s">
+      <c r="J55" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="131"/>
-      <c r="L55" s="131" t="s">
+      <c r="K55" s="135"/>
+      <c r="L55" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="M55" s="131"/>
-      <c r="N55" s="131"/>
+      <c r="M55" s="135"/>
+      <c r="N55" s="135"/>
       <c r="O55">
         <f>F55+AB27</f>
         <v>-0.13378943921150416</v>
       </c>
-      <c r="S55" s="132" t="s">
+      <c r="S55" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="T55" s="132"/>
+      <c r="T55" s="136"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -15556,11 +15831,11 @@
       <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="131" t="s">
+      <c r="C56" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="131"/>
-      <c r="E56" s="131"/>
+      <c r="D56" s="135"/>
+      <c r="E56" s="135"/>
       <c r="F56">
         <f>(D35*AB28*(1+I35))/(2*(1-D44))</f>
         <v>0.29500914142831403</v>
@@ -15568,15 +15843,15 @@
       <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="131" t="s">
+      <c r="J56" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K56" s="131"/>
-      <c r="L56" s="131" t="s">
+      <c r="K56" s="135"/>
+      <c r="L56" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="M56" s="131"/>
-      <c r="N56" s="131"/>
+      <c r="M56" s="135"/>
+      <c r="N56" s="135"/>
       <c r="O56">
         <f>F56+AB28</f>
         <v>0.43584208919587863</v>
@@ -15593,24 +15868,24 @@
       <c r="B57" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="131" t="s">
+      <c r="C57" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="131"/>
-      <c r="E57" s="131"/>
+      <c r="D57" s="135"/>
+      <c r="E57" s="135"/>
       <c r="F57">
         <f>(D35*AB28*(1+I35))/(2*(1-D44)*(1-D35))</f>
         <v>-0.3521758721918346</v>
       </c>
-      <c r="J57" s="131" t="s">
+      <c r="J57" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K57" s="131"/>
-      <c r="L57" s="131" t="s">
+      <c r="K57" s="135"/>
+      <c r="L57" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="M57" s="131"/>
-      <c r="N57" s="131"/>
+      <c r="M57" s="135"/>
+      <c r="N57" s="135"/>
       <c r="O57">
         <f>F57+AB28</f>
         <v>-0.21134292442427002</v>
@@ -15630,11 +15905,11 @@
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="131" t="s">
+      <c r="C58" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="131"/>
-      <c r="E58" s="131"/>
+      <c r="D58" s="135"/>
+      <c r="E58" s="135"/>
       <c r="F58">
         <f>(D36*AB29*(1+I36))/(2*(1-D46))</f>
         <v>0.97569961407009964</v>
@@ -15642,15 +15917,15 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="131" t="s">
+      <c r="J58" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="131"/>
-      <c r="L58" s="131" t="s">
+      <c r="K58" s="135"/>
+      <c r="L58" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="M58" s="131"/>
-      <c r="N58" s="131"/>
+      <c r="M58" s="135"/>
+      <c r="N58" s="135"/>
       <c r="O58">
         <f>F58+AB29</f>
         <v>1.439427378853148</v>
@@ -15667,24 +15942,24 @@
       <c r="B59" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="131" t="s">
+      <c r="C59" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="131"/>
-      <c r="E59" s="131"/>
+      <c r="D59" s="135"/>
+      <c r="E59" s="135"/>
       <c r="F59">
         <f>(D36*AB29*(1+I36))/(2*(1-D46)*(1-D36))</f>
         <v>-1.2318952744997205</v>
       </c>
-      <c r="J59" s="131" t="s">
+      <c r="J59" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="131"/>
-      <c r="L59" s="131" t="s">
+      <c r="K59" s="135"/>
+      <c r="L59" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="M59" s="131"/>
-      <c r="N59" s="131"/>
+      <c r="M59" s="135"/>
+      <c r="N59" s="135"/>
       <c r="O59">
         <f>F59+AB29</f>
         <v>-0.76816750971667214</v>
@@ -15704,11 +15979,11 @@
       <c r="B60" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="131" t="s">
+      <c r="C60" s="135" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="131"/>
-      <c r="E60" s="131"/>
+      <c r="D60" s="135"/>
+      <c r="E60" s="135"/>
       <c r="F60">
         <f>(D37*AB30*(1+I37))/(2*(1-D48))</f>
         <v>7.1903942263427414</v>
@@ -15716,15 +15991,15 @@
       <c r="I60" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="131" t="s">
+      <c r="J60" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="K60" s="131"/>
-      <c r="L60" s="131" t="s">
+      <c r="K60" s="135"/>
+      <c r="L60" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="M60" s="131"/>
-      <c r="N60" s="131"/>
+      <c r="M60" s="135"/>
+      <c r="N60" s="135"/>
       <c r="O60">
         <f>F60+AB30</f>
         <v>9.287807230005745</v>
@@ -15734,71 +16009,71 @@
       <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="131" t="s">
+      <c r="C61" s="135" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="131"/>
-      <c r="E61" s="131"/>
+      <c r="D61" s="135"/>
+      <c r="E61" s="135"/>
       <c r="F61">
         <f>(D37*AB30*(1+I37))/(2*(1-D48)*(1-D37))</f>
         <v>-6.0280502379948864</v>
       </c>
-      <c r="J61" s="131" t="s">
+      <c r="J61" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="131"/>
-      <c r="L61" s="131" t="s">
+      <c r="K61" s="135"/>
+      <c r="L61" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="M61" s="131"/>
-      <c r="N61" s="131"/>
+      <c r="M61" s="135"/>
+      <c r="N61" s="135"/>
       <c r="O61">
         <f>F61+AB30</f>
         <v>-3.9306372343318827</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="133"/>
-      <c r="C62" s="133"/>
-      <c r="D62" s="133"/>
-      <c r="E62" s="133"/>
-      <c r="F62" s="133"/>
-      <c r="I62" s="133" t="s">
+      <c r="B62" s="137"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="I62" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="J62" s="133"/>
-      <c r="K62" s="133"/>
-      <c r="L62" s="133"/>
-      <c r="M62" s="133"/>
-      <c r="N62" s="133"/>
-      <c r="O62" s="133"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="137"/>
+      <c r="M62" s="137"/>
+      <c r="N62" s="137"/>
+      <c r="O62" s="137"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="134" t="s">
+      <c r="B63" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="134"/>
-      <c r="D63" s="134"/>
-      <c r="E63" s="134"/>
+      <c r="C63" s="138"/>
+      <c r="D63" s="138"/>
+      <c r="E63" s="138"/>
       <c r="F63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J63" s="134" t="s">
+      <c r="J63" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="134"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
-      <c r="N63" s="134"/>
+      <c r="K63" s="138"/>
+      <c r="L63" s="138"/>
+      <c r="M63" s="138"/>
+      <c r="N63" s="138"/>
       <c r="O63" s="2" t="s">
         <v>146</v>
       </c>
@@ -15807,12 +16082,12 @@
       <c r="A64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="131" t="s">
+      <c r="B64" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="131"/>
-      <c r="D64" s="131"/>
-      <c r="E64" s="131"/>
+      <c r="C64" s="135"/>
+      <c r="D64" s="135"/>
+      <c r="E64" s="135"/>
       <c r="F64">
         <f>C42*F54+C43*F55</f>
         <v>-0.21018268742846255</v>
@@ -15820,13 +16095,13 @@
       <c r="I64" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="131" t="s">
+      <c r="J64" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="131"/>
-      <c r="L64" s="131"/>
-      <c r="M64" s="131"/>
-      <c r="N64" s="131"/>
+      <c r="K64" s="135"/>
+      <c r="L64" s="135"/>
+      <c r="M64" s="135"/>
+      <c r="N64" s="135"/>
       <c r="O64">
         <f>C42*O54+C43*O55</f>
         <v>-0.13347879722767014</v>
@@ -15836,12 +16111,12 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="131" t="s">
+      <c r="B65" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="131"/>
-      <c r="D65" s="131"/>
-      <c r="E65" s="131"/>
+      <c r="C65" s="135"/>
+      <c r="D65" s="135"/>
+      <c r="E65" s="135"/>
       <c r="F65">
         <f>C44*F56+C45*F57</f>
         <v>-0.35169497977571024</v>
@@ -15849,13 +16124,13 @@
       <c r="I65" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="131" t="s">
+      <c r="J65" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="K65" s="131"/>
-      <c r="L65" s="131"/>
-      <c r="M65" s="131"/>
-      <c r="N65" s="131"/>
+      <c r="K65" s="135"/>
+      <c r="L65" s="135"/>
+      <c r="M65" s="135"/>
+      <c r="N65" s="135"/>
       <c r="O65">
         <f>C44*O56+C45*O57</f>
         <v>-0.21086203200814566</v>
@@ -15865,12 +16140,12 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="131" t="s">
+      <c r="B66" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="131"/>
-      <c r="D66" s="131"/>
-      <c r="E66" s="131"/>
+      <c r="C66" s="135"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="135"/>
       <c r="F66">
         <f>C46*F58+C47*F59</f>
         <v>-1.2283062728925513</v>
@@ -15878,13 +16153,13 @@
       <c r="I66" t="s">
         <v>25</v>
       </c>
-      <c r="J66" s="131" t="s">
+      <c r="J66" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="131"/>
-      <c r="L66" s="131"/>
-      <c r="M66" s="131"/>
-      <c r="N66" s="131"/>
+      <c r="K66" s="135"/>
+      <c r="L66" s="135"/>
+      <c r="M66" s="135"/>
+      <c r="N66" s="135"/>
       <c r="O66">
         <f>C46*O58+C47*O59</f>
         <v>-0.7645785081095029</v>
@@ -15894,12 +16169,12 @@
       <c r="A67" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="131" t="s">
+      <c r="B67" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="131"/>
-      <c r="D67" s="131"/>
-      <c r="E67" s="131"/>
+      <c r="C67" s="135"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="135"/>
       <c r="F67">
         <f>C48*F60+C49*F61</f>
         <v>-6.0114441519844126</v>
@@ -15907,36 +16182,36 @@
       <c r="I67" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="131" t="s">
+      <c r="J67" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="131"/>
-      <c r="L67" s="131"/>
-      <c r="M67" s="131"/>
-      <c r="N67" s="131"/>
+      <c r="K67" s="135"/>
+      <c r="L67" s="135"/>
+      <c r="M67" s="135"/>
+      <c r="N67" s="135"/>
       <c r="O67">
         <f>C48*O60+C49*O61</f>
         <v>-3.9140311483214085</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="133" t="s">
+      <c r="A70" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="133"/>
-      <c r="C70" s="133"/>
-      <c r="D70" s="133"/>
-      <c r="E70" s="133"/>
-      <c r="F70" s="133"/>
-      <c r="I70" s="133" t="s">
+      <c r="B70" s="137"/>
+      <c r="C70" s="137"/>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="I70" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="J70" s="133"/>
-      <c r="K70" s="133"/>
-      <c r="L70" s="133"/>
-      <c r="M70" s="133"/>
-      <c r="N70" s="133"/>
-      <c r="O70" s="133"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="137"/>
+      <c r="M70" s="137"/>
+      <c r="N70" s="137"/>
+      <c r="O70" s="137"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -15945,26 +16220,26 @@
       <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="134" t="s">
+      <c r="C71" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="134"/>
-      <c r="E71" s="134"/>
+      <c r="D71" s="138"/>
+      <c r="E71" s="138"/>
       <c r="F71" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="134" t="s">
+      <c r="J71" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="K71" s="134"/>
-      <c r="L71" s="134" t="s">
+      <c r="K71" s="138"/>
+      <c r="L71" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="M71" s="134"/>
-      <c r="N71" s="134"/>
+      <c r="M71" s="138"/>
+      <c r="N71" s="138"/>
       <c r="O71" s="2" t="s">
         <v>159</v>
       </c>
@@ -15976,11 +16251,11 @@
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="131" t="s">
+      <c r="C72" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="131"/>
-      <c r="E72" s="131"/>
+      <c r="D72" s="135"/>
+      <c r="E72" s="135"/>
       <c r="F72">
         <f t="shared" ref="F72:F79" si="0">P10*F54</f>
         <v>2.3512059957754516E-3</v>
@@ -15988,15 +16263,15 @@
       <c r="I72" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="131" t="s">
+      <c r="J72" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K72" s="131"/>
-      <c r="L72" s="131" t="s">
+      <c r="K72" s="135"/>
+      <c r="L72" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="M72" s="131"/>
-      <c r="N72" s="131"/>
+      <c r="M72" s="135"/>
+      <c r="N72" s="135"/>
       <c r="O72">
         <f t="shared" ref="O72:O79" si="1">P10*O54</f>
         <v>3.8269866521095748E-3</v>
@@ -16006,24 +16281,24 @@
       <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="131" t="s">
+      <c r="C73" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="131"/>
-      <c r="E73" s="131"/>
+      <c r="D73" s="135"/>
+      <c r="E73" s="135"/>
       <c r="F73">
         <f t="shared" si="0"/>
         <v>-4.3333776400689308</v>
       </c>
-      <c r="J73" s="131" t="s">
+      <c r="J73" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K73" s="131"/>
-      <c r="L73" s="131" t="s">
+      <c r="K73" s="135"/>
+      <c r="L73" s="135" t="s">
         <v>163</v>
       </c>
-      <c r="M73" s="131"/>
-      <c r="N73" s="131"/>
+      <c r="M73" s="135"/>
+      <c r="N73" s="135"/>
       <c r="O73">
         <f t="shared" si="1"/>
         <v>-2.7542923377914188</v>
@@ -16036,11 +16311,11 @@
       <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="131" t="s">
+      <c r="C74" s="135" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="131"/>
-      <c r="E74" s="131"/>
+      <c r="D74" s="135"/>
+      <c r="E74" s="135"/>
       <c r="F74">
         <f t="shared" si="0"/>
         <v>2.8603523416638396E-3</v>
@@ -16048,15 +16323,15 @@
       <c r="I74" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="131" t="s">
+      <c r="J74" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K74" s="131"/>
-      <c r="L74" s="131" t="s">
+      <c r="K74" s="135"/>
+      <c r="L74" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="M74" s="131"/>
-      <c r="N74" s="131"/>
+      <c r="M74" s="135"/>
+      <c r="N74" s="135"/>
       <c r="O74">
         <f t="shared" si="1"/>
         <v>4.2258417294842544E-3</v>
@@ -16066,24 +16341,24 @@
       <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="131" t="s">
+      <c r="C75" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="131"/>
-      <c r="E75" s="131"/>
+      <c r="D75" s="135"/>
+      <c r="E75" s="135"/>
       <c r="F75">
         <f t="shared" si="0"/>
         <v>-4.5919944974194991</v>
       </c>
-      <c r="J75" s="131" t="s">
+      <c r="J75" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K75" s="131"/>
-      <c r="L75" s="131" t="s">
+      <c r="K75" s="135"/>
+      <c r="L75" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="M75" s="131"/>
-      <c r="N75" s="131"/>
+      <c r="M75" s="135"/>
+      <c r="N75" s="135"/>
       <c r="O75">
         <f t="shared" si="1"/>
         <v>-2.7556843686786054</v>
@@ -16096,11 +16371,11 @@
       <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="131" t="s">
+      <c r="C76" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="131"/>
-      <c r="E76" s="131"/>
+      <c r="D76" s="135"/>
+      <c r="E76" s="135"/>
       <c r="F76">
         <f t="shared" si="0"/>
         <v>6.1298930529517454E-3</v>
@@ -16108,15 +16383,15 @@
       <c r="I76" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="131" t="s">
+      <c r="J76" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K76" s="131"/>
-      <c r="L76" s="131" t="s">
+      <c r="K76" s="135"/>
+      <c r="L76" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="M76" s="131"/>
-      <c r="N76" s="131"/>
+      <c r="M76" s="135"/>
+      <c r="N76" s="135"/>
       <c r="O76">
         <f t="shared" si="1"/>
         <v>9.0432913599846117E-3</v>
@@ -16126,24 +16401,24 @@
       <c r="B77" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="131" t="s">
+      <c r="C77" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="131"/>
-      <c r="E77" s="131"/>
+      <c r="D77" s="135"/>
+      <c r="E77" s="135"/>
       <c r="F77">
         <f t="shared" si="0"/>
         <v>-4.7528012216257505</v>
       </c>
-      <c r="J77" s="131" t="s">
+      <c r="J77" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K77" s="131"/>
-      <c r="L77" s="131" t="s">
+      <c r="K77" s="135"/>
+      <c r="L77" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="M77" s="131"/>
-      <c r="N77" s="131"/>
+      <c r="M77" s="135"/>
+      <c r="N77" s="135"/>
       <c r="O77">
         <f t="shared" si="1"/>
         <v>-2.9636833212768678</v>
@@ -16156,11 +16431,11 @@
       <c r="B78" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="131" t="s">
+      <c r="C78" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="131"/>
-      <c r="E78" s="131"/>
+      <c r="D78" s="135"/>
+      <c r="E78" s="135"/>
       <c r="F78">
         <f t="shared" si="0"/>
         <v>9.444069309717102E-3</v>
@@ -16168,15 +16443,15 @@
       <c r="I78" t="s">
         <v>26</v>
       </c>
-      <c r="J78" s="131" t="s">
+      <c r="J78" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="K78" s="131"/>
-      <c r="L78" s="131" t="s">
+      <c r="K78" s="135"/>
+      <c r="L78" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="M78" s="131"/>
-      <c r="N78" s="131"/>
+      <c r="M78" s="135"/>
+      <c r="N78" s="135"/>
       <c r="O78">
         <f t="shared" si="1"/>
         <v>1.219887150194271E-2</v>
@@ -16186,71 +16461,71 @@
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="131" t="s">
+      <c r="C79" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="131"/>
-      <c r="E79" s="131"/>
+      <c r="D79" s="135"/>
+      <c r="E79" s="135"/>
       <c r="F79">
         <f t="shared" si="0"/>
         <v>-6.2943437249940519</v>
       </c>
-      <c r="J79" s="131" t="s">
+      <c r="J79" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K79" s="131"/>
-      <c r="L79" s="131" t="s">
+      <c r="K79" s="135"/>
+      <c r="L79" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="M79" s="131"/>
-      <c r="N79" s="131"/>
+      <c r="M79" s="135"/>
+      <c r="N79" s="135"/>
       <c r="O79">
         <f t="shared" si="1"/>
         <v>-4.1042759821746939</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="133" t="s">
+      <c r="A80" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="133"/>
-      <c r="C80" s="133"/>
-      <c r="D80" s="133"/>
-      <c r="E80" s="133"/>
-      <c r="F80" s="133"/>
-      <c r="I80" s="133" t="s">
+      <c r="B80" s="137"/>
+      <c r="C80" s="137"/>
+      <c r="D80" s="137"/>
+      <c r="E80" s="137"/>
+      <c r="F80" s="137"/>
+      <c r="I80" s="137" t="s">
         <v>177</v>
       </c>
-      <c r="J80" s="133"/>
-      <c r="K80" s="133"/>
-      <c r="L80" s="133"/>
-      <c r="M80" s="133"/>
-      <c r="N80" s="133"/>
-      <c r="O80" s="133"/>
+      <c r="J80" s="137"/>
+      <c r="K80" s="137"/>
+      <c r="L80" s="137"/>
+      <c r="M80" s="137"/>
+      <c r="N80" s="137"/>
+      <c r="O80" s="137"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="134" t="s">
+      <c r="B81" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="134"/>
-      <c r="D81" s="134"/>
-      <c r="E81" s="134"/>
+      <c r="C81" s="138"/>
+      <c r="D81" s="138"/>
+      <c r="E81" s="138"/>
       <c r="F81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J81" s="134" t="s">
+      <c r="J81" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="K81" s="134"/>
-      <c r="L81" s="134"/>
-      <c r="M81" s="134"/>
-      <c r="N81" s="134"/>
+      <c r="K81" s="138"/>
+      <c r="L81" s="138"/>
+      <c r="M81" s="138"/>
+      <c r="N81" s="138"/>
       <c r="O81" s="2" t="s">
         <v>159</v>
       </c>
@@ -16259,12 +16534,12 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="131" t="s">
+      <c r="B82" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="131"/>
-      <c r="D82" s="131"/>
-      <c r="E82" s="131"/>
+      <c r="C82" s="135"/>
+      <c r="D82" s="135"/>
+      <c r="E82" s="135"/>
       <c r="F82">
         <f>Q19*F64</f>
         <v>-4.3310264340731548</v>
@@ -16272,13 +16547,13 @@
       <c r="I82" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="131" t="s">
+      <c r="J82" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="131"/>
-      <c r="L82" s="131"/>
-      <c r="M82" s="131"/>
-      <c r="N82" s="131"/>
+      <c r="K82" s="135"/>
+      <c r="L82" s="135"/>
+      <c r="M82" s="135"/>
+      <c r="N82" s="135"/>
       <c r="O82">
         <f>Q19*O64</f>
         <v>-2.7504653511393093</v>
@@ -16288,12 +16563,12 @@
       <c r="A83" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="131" t="s">
+      <c r="B83" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="131"/>
-      <c r="D83" s="131"/>
-      <c r="E83" s="131"/>
+      <c r="C83" s="135"/>
+      <c r="D83" s="135"/>
+      <c r="E83" s="135"/>
       <c r="F83">
         <f>Q20*F65</f>
         <v>-4.5891341450778347</v>
@@ -16301,13 +16576,13 @@
       <c r="I83" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="131" t="s">
+      <c r="J83" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="K83" s="131"/>
-      <c r="L83" s="131"/>
-      <c r="M83" s="131"/>
-      <c r="N83" s="131"/>
+      <c r="K83" s="135"/>
+      <c r="L83" s="135"/>
+      <c r="M83" s="135"/>
+      <c r="N83" s="135"/>
       <c r="O83">
         <f>Q20*O65</f>
         <v>-2.7514585269491212</v>
@@ -16317,12 +16592,12 @@
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="131" t="s">
+      <c r="B84" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="131"/>
-      <c r="D84" s="131"/>
-      <c r="E84" s="131"/>
+      <c r="C84" s="135"/>
+      <c r="D84" s="135"/>
+      <c r="E84" s="135"/>
       <c r="F84">
         <f>Q21*F66</f>
         <v>-4.7466713285727993</v>
@@ -16330,13 +16605,13 @@
       <c r="I84" t="s">
         <v>25</v>
       </c>
-      <c r="J84" s="131" t="s">
+      <c r="J84" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="K84" s="131"/>
-      <c r="L84" s="131"/>
-      <c r="M84" s="131"/>
-      <c r="N84" s="131"/>
+      <c r="K84" s="135"/>
+      <c r="L84" s="135"/>
+      <c r="M84" s="135"/>
+      <c r="N84" s="135"/>
       <c r="O84">
         <f>Q21*O66</f>
         <v>-2.9546400299168831</v>
@@ -16346,12 +16621,12 @@
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="131" t="s">
+      <c r="B85" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="131"/>
-      <c r="D85" s="131"/>
-      <c r="E85" s="131"/>
+      <c r="C85" s="135"/>
+      <c r="D85" s="135"/>
+      <c r="E85" s="135"/>
       <c r="F85">
         <f>Q22*F67</f>
         <v>-6.2848996556843355</v>
@@ -16359,62 +16634,62 @@
       <c r="I85" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="131" t="s">
+      <c r="J85" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="K85" s="131"/>
-      <c r="L85" s="131"/>
-      <c r="M85" s="131"/>
-      <c r="N85" s="131"/>
+      <c r="K85" s="135"/>
+      <c r="L85" s="135"/>
+      <c r="M85" s="135"/>
+      <c r="N85" s="135"/>
       <c r="O85">
         <f>Q22*O67</f>
         <v>-4.0920771106727516</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="138" t="s">
+      <c r="A88" s="142" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="138"/>
-      <c r="C88" s="138"/>
-      <c r="D88" s="138"/>
-      <c r="E88" s="138"/>
-      <c r="F88" s="138"/>
-      <c r="G88" s="138"/>
-      <c r="H88" s="138"/>
-      <c r="I88" s="138"/>
-      <c r="J88" s="138"/>
-      <c r="K88" s="138"/>
-      <c r="L88" s="138"/>
-      <c r="M88" s="138"/>
-      <c r="N88" s="138"/>
-      <c r="O88" s="138"/>
+      <c r="B88" s="142"/>
+      <c r="C88" s="142"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="142"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="142"/>
+      <c r="J88" s="142"/>
+      <c r="K88" s="142"/>
+      <c r="L88" s="142"/>
+      <c r="M88" s="142"/>
+      <c r="N88" s="142"/>
+      <c r="O88" s="142"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="133" t="s">
+      <c r="A89" s="137" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="133"/>
-      <c r="C89" s="133"/>
-      <c r="D89" s="133"/>
-      <c r="E89" s="133"/>
-      <c r="F89" s="133"/>
-      <c r="I89" s="133" t="s">
+      <c r="B89" s="137"/>
+      <c r="C89" s="137"/>
+      <c r="D89" s="137"/>
+      <c r="E89" s="137"/>
+      <c r="F89" s="137"/>
+      <c r="I89" s="137" t="s">
         <v>143</v>
       </c>
-      <c r="J89" s="133"/>
-      <c r="K89" s="133"/>
-      <c r="L89" s="133"/>
-      <c r="M89" s="133"/>
-      <c r="N89" s="133"/>
-      <c r="O89" s="133"/>
-      <c r="R89" s="137" t="s">
+      <c r="J89" s="137"/>
+      <c r="K89" s="137"/>
+      <c r="L89" s="137"/>
+      <c r="M89" s="137"/>
+      <c r="N89" s="137"/>
+      <c r="O89" s="137"/>
+      <c r="R89" s="141" t="s">
         <v>187</v>
       </c>
-      <c r="S89" s="137"/>
-      <c r="T89" s="137"/>
-      <c r="U89" s="137"/>
-      <c r="V89" s="137"/>
+      <c r="S89" s="141"/>
+      <c r="T89" s="141"/>
+      <c r="U89" s="141"/>
+      <c r="V89" s="141"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -16423,36 +16698,36 @@
       <c r="B90" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="134" t="s">
+      <c r="C90" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="134"/>
-      <c r="E90" s="134"/>
+      <c r="D90" s="138"/>
+      <c r="E90" s="138"/>
       <c r="F90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J90" s="134" t="s">
+      <c r="J90" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="K90" s="134"/>
-      <c r="L90" s="134" t="s">
+      <c r="K90" s="138"/>
+      <c r="L90" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="M90" s="134"/>
-      <c r="N90" s="134"/>
+      <c r="M90" s="138"/>
+      <c r="N90" s="138"/>
       <c r="O90" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S90" s="134" t="s">
+      <c r="S90" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="T90" s="134"/>
+      <c r="T90" s="138"/>
       <c r="U90" s="2" t="s">
         <v>46</v>
       </c>
@@ -16467,11 +16742,11 @@
       <c r="B91" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="131" t="s">
+      <c r="C91" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="131"/>
-      <c r="E91" s="131"/>
+      <c r="D91" s="135"/>
+      <c r="E91" s="135"/>
       <c r="F91">
         <f>(U98*U91)/(1-U105)</f>
         <v>2.9654809037870895E-2</v>
@@ -16479,15 +16754,15 @@
       <c r="I91" t="s">
         <v>23</v>
       </c>
-      <c r="J91" s="131" t="s">
+      <c r="J91" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K91" s="131"/>
-      <c r="L91" s="131" t="s">
+      <c r="K91" s="135"/>
+      <c r="L91" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="M91" s="131"/>
-      <c r="N91" s="131"/>
+      <c r="M91" s="135"/>
+      <c r="N91" s="135"/>
       <c r="O91">
         <f>F91+U91</f>
         <v>6.7576886959948818E-2</v>
@@ -16495,10 +16770,10 @@
       <c r="R91" t="s">
         <v>23</v>
       </c>
-      <c r="S91" s="131" t="s">
+      <c r="S91" s="135" t="s">
         <v>189</v>
       </c>
-      <c r="T91" s="131"/>
+      <c r="T91" s="135"/>
       <c r="U91">
         <f>1/(Arrivi!H31+Arrivi!H30)</f>
         <v>3.7922077922077919E-2</v>
@@ -16512,24 +16787,24 @@
       <c r="B92" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="131" t="s">
+      <c r="C92" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="131"/>
-      <c r="E92" s="131"/>
+      <c r="D92" s="135"/>
+      <c r="E92" s="135"/>
       <c r="F92">
         <f>(U98*U91)/((1-U105)*(1-U98))</f>
         <v>0.13567194887554843</v>
       </c>
-      <c r="J92" s="131" t="s">
+      <c r="J92" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K92" s="131"/>
-      <c r="L92" s="131" t="s">
+      <c r="K92" s="135"/>
+      <c r="L92" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="M92" s="131"/>
-      <c r="N92" s="131"/>
+      <c r="M92" s="135"/>
+      <c r="N92" s="135"/>
       <c r="O92">
         <f>F92+U91</f>
         <v>0.17359402679762634</v>
@@ -16537,10 +16812,10 @@
       <c r="R92" t="s">
         <v>24</v>
       </c>
-      <c r="S92" s="131" t="s">
+      <c r="S92" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="T92" s="131"/>
+      <c r="T92" s="135"/>
       <c r="U92">
         <f>1/(Arrivi!H33+Arrivi!H34)</f>
         <v>6.0671542553191488E-2</v>
@@ -16557,11 +16832,11 @@
       <c r="B93" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="131" t="s">
+      <c r="C93" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="131"/>
-      <c r="E93" s="131"/>
+      <c r="D93" s="135"/>
+      <c r="E93" s="135"/>
       <c r="F93">
         <f>(U99*U92)/(1-U107)</f>
         <v>4.8060713119710698E-2</v>
@@ -16569,15 +16844,15 @@
       <c r="I93" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="131" t="s">
+      <c r="J93" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K93" s="131"/>
-      <c r="L93" s="131" t="s">
+      <c r="K93" s="135"/>
+      <c r="L93" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="M93" s="131"/>
-      <c r="N93" s="131"/>
+      <c r="M93" s="135"/>
+      <c r="N93" s="135"/>
       <c r="O93">
         <f>F93+U92</f>
         <v>0.10873225567290218</v>
@@ -16585,10 +16860,10 @@
       <c r="R93" t="s">
         <v>25</v>
       </c>
-      <c r="S93" s="131" t="s">
+      <c r="S93" s="135" t="s">
         <v>192</v>
       </c>
-      <c r="T93" s="131"/>
+      <c r="T93" s="135"/>
       <c r="U93">
         <f>1/(Arrivi!H36+Arrivi!H37)</f>
         <v>0.19466666666666668</v>
@@ -16602,24 +16877,24 @@
       <c r="B94" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="131" t="s">
+      <c r="C94" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="131"/>
-      <c r="E94" s="131"/>
+      <c r="D94" s="135"/>
+      <c r="E94" s="135"/>
       <c r="F94">
         <f>(U99*U92)/((1-U107)*(1-U99))</f>
         <v>0.23070608103349363</v>
       </c>
-      <c r="J94" s="131" t="s">
+      <c r="J94" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K94" s="131"/>
-      <c r="L94" s="131" t="s">
+      <c r="K94" s="135"/>
+      <c r="L94" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="M94" s="131"/>
-      <c r="N94" s="131"/>
+      <c r="M94" s="135"/>
+      <c r="N94" s="135"/>
       <c r="O94">
         <f>F94+U92</f>
         <v>0.29137762358668512</v>
@@ -16627,10 +16902,10 @@
       <c r="R94" t="s">
         <v>26</v>
       </c>
-      <c r="S94" s="131" t="s">
+      <c r="S94" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="T94" s="131"/>
+      <c r="T94" s="135"/>
       <c r="U94">
         <f>1/(Arrivi!H39+Arrivi!H40)</f>
         <v>0.72709163346613537</v>
@@ -16647,11 +16922,11 @@
       <c r="B95" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="131" t="s">
+      <c r="C95" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="131"/>
-      <c r="E95" s="131"/>
+      <c r="D95" s="135"/>
+      <c r="E95" s="135"/>
       <c r="F95">
         <f>(U100*U93)/(1-U109)</f>
         <v>0.14662132696261998</v>
@@ -16659,15 +16934,15 @@
       <c r="I95" t="s">
         <v>25</v>
       </c>
-      <c r="J95" s="131" t="s">
+      <c r="J95" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K95" s="131"/>
-      <c r="L95" s="131" t="s">
+      <c r="K95" s="135"/>
+      <c r="L95" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="M95" s="131"/>
-      <c r="N95" s="131"/>
+      <c r="M95" s="135"/>
+      <c r="N95" s="135"/>
       <c r="O95">
         <f>F95+U93</f>
         <v>0.34128799362928663</v>
@@ -16677,24 +16952,24 @@
       <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="131" t="s">
+      <c r="C96" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="131"/>
-      <c r="E96" s="131"/>
+      <c r="D96" s="135"/>
+      <c r="E96" s="135"/>
       <c r="F96">
         <f>(U100*U93)/((1-U109)*(1-U100))</f>
         <v>0.59186080204660962</v>
       </c>
-      <c r="J96" s="131" t="s">
+      <c r="J96" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K96" s="131"/>
-      <c r="L96" s="131" t="s">
+      <c r="K96" s="135"/>
+      <c r="L96" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="M96" s="131"/>
-      <c r="N96" s="131"/>
+      <c r="M96" s="135"/>
+      <c r="N96" s="135"/>
       <c r="O96">
         <f>F96+U93</f>
         <v>0.78652746871327628</v>
@@ -16707,11 +16982,11 @@
       <c r="B97" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="131" t="s">
+      <c r="C97" s="135" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="131"/>
-      <c r="E97" s="131"/>
+      <c r="D97" s="135"/>
+      <c r="E97" s="135"/>
       <c r="F97">
         <f>(U101*U94)/(1-U111)</f>
         <v>0.55323897499522867</v>
@@ -16719,48 +16994,48 @@
       <c r="I97" t="s">
         <v>26</v>
       </c>
-      <c r="J97" s="131" t="s">
+      <c r="J97" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="K97" s="131"/>
-      <c r="L97" s="131" t="s">
+      <c r="K97" s="135"/>
+      <c r="L97" s="135" t="s">
         <v>148</v>
       </c>
-      <c r="M97" s="131"/>
-      <c r="N97" s="131"/>
+      <c r="M97" s="135"/>
+      <c r="N97" s="135"/>
       <c r="O97">
         <f>F97+U93</f>
         <v>0.74790564166189533</v>
       </c>
-      <c r="R97" s="136" t="s">
+      <c r="R97" s="140" t="s">
         <v>128</v>
       </c>
-      <c r="S97" s="136"/>
-      <c r="T97" s="136"/>
-      <c r="U97" s="136"/>
+      <c r="S97" s="140"/>
+      <c r="T97" s="140"/>
+      <c r="U97" s="140"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="131" t="s">
+      <c r="C98" s="135" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="131"/>
-      <c r="E98" s="131"/>
+      <c r="D98" s="135"/>
+      <c r="E98" s="135"/>
       <c r="F98">
         <f>(U101*U94)/((1-U111)*(1-U101))</f>
         <v>2.3067619058366273</v>
       </c>
-      <c r="J98" s="131" t="s">
+      <c r="J98" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K98" s="131"/>
-      <c r="L98" s="131" t="s">
+      <c r="K98" s="135"/>
+      <c r="L98" s="135" t="s">
         <v>150</v>
       </c>
-      <c r="M98" s="131"/>
-      <c r="N98" s="131"/>
+      <c r="M98" s="135"/>
+      <c r="N98" s="135"/>
       <c r="O98">
         <f>F98+U94</f>
         <v>3.0338535393027626</v>
@@ -16768,40 +17043,40 @@
       <c r="R98" t="s">
         <v>23</v>
       </c>
-      <c r="S98" s="135" t="s">
+      <c r="S98" s="139" t="s">
         <v>130</v>
       </c>
-      <c r="T98" s="135"/>
+      <c r="T98" s="139"/>
       <c r="U98">
         <f>Q19*U91</f>
         <v>0.7814226943472804</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="133" t="s">
+      <c r="A99" s="137" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="133"/>
-      <c r="C99" s="133"/>
-      <c r="D99" s="133"/>
-      <c r="E99" s="133"/>
-      <c r="F99" s="133"/>
-      <c r="I99" s="133" t="s">
+      <c r="B99" s="137"/>
+      <c r="C99" s="137"/>
+      <c r="D99" s="137"/>
+      <c r="E99" s="137"/>
+      <c r="F99" s="137"/>
+      <c r="I99" s="137" t="s">
         <v>153</v>
       </c>
-      <c r="J99" s="133"/>
-      <c r="K99" s="133"/>
-      <c r="L99" s="133"/>
-      <c r="M99" s="133"/>
-      <c r="N99" s="133"/>
-      <c r="O99" s="133"/>
+      <c r="J99" s="137"/>
+      <c r="K99" s="137"/>
+      <c r="L99" s="137"/>
+      <c r="M99" s="137"/>
+      <c r="N99" s="137"/>
+      <c r="O99" s="137"/>
       <c r="R99" t="s">
         <v>24</v>
       </c>
-      <c r="S99" s="135" t="s">
+      <c r="S99" s="139" t="s">
         <v>132</v>
       </c>
-      <c r="T99" s="135"/>
+      <c r="T99" s="139"/>
       <c r="U99">
         <f>Q20*U92</f>
         <v>0.79167990325866922</v>
@@ -16811,35 +17086,35 @@
       <c r="A100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="134" t="s">
+      <c r="B100" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="134"/>
-      <c r="D100" s="134"/>
-      <c r="E100" s="134"/>
+      <c r="C100" s="138"/>
+      <c r="D100" s="138"/>
+      <c r="E100" s="138"/>
       <c r="F100" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J100" s="134" t="s">
+      <c r="J100" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="134"/>
-      <c r="L100" s="134"/>
-      <c r="M100" s="134"/>
-      <c r="N100" s="134"/>
+      <c r="K100" s="138"/>
+      <c r="L100" s="138"/>
+      <c r="M100" s="138"/>
+      <c r="N100" s="138"/>
       <c r="O100" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R100" t="s">
         <v>25</v>
       </c>
-      <c r="S100" s="135" t="s">
+      <c r="S100" s="139" t="s">
         <v>133</v>
       </c>
-      <c r="T100" s="135"/>
+      <c r="T100" s="139"/>
       <c r="U100">
         <f>Q21*U93</f>
         <v>0.75227059055843104</v>
@@ -16849,12 +17124,12 @@
       <c r="A101" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="131" t="s">
+      <c r="B101" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="131"/>
-      <c r="D101" s="131"/>
-      <c r="E101" s="131"/>
+      <c r="C101" s="135"/>
+      <c r="D101" s="135"/>
+      <c r="E101" s="135"/>
       <c r="F101">
         <f>T105*F91+T106*F92</f>
         <v>0.13557295994946283</v>
@@ -16862,13 +17137,13 @@
       <c r="I101" t="s">
         <v>23</v>
       </c>
-      <c r="J101" s="131" t="s">
+      <c r="J101" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="K101" s="131"/>
-      <c r="L101" s="131"/>
-      <c r="M101" s="131"/>
-      <c r="N101" s="131"/>
+      <c r="K101" s="135"/>
+      <c r="L101" s="135"/>
+      <c r="M101" s="135"/>
+      <c r="N101" s="135"/>
       <c r="O101">
         <f>T105*O91+T106*O92</f>
         <v>0.17349503787154075</v>
@@ -16876,10 +17151,10 @@
       <c r="R101" t="s">
         <v>26</v>
       </c>
-      <c r="S101" s="135" t="s">
+      <c r="S101" s="139" t="s">
         <v>134</v>
       </c>
-      <c r="T101" s="135"/>
+      <c r="T101" s="139"/>
       <c r="U101">
         <f>Q22*U94</f>
         <v>0.76016641613709268</v>
@@ -16889,12 +17164,12 @@
       <c r="A102" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="131" t="s">
+      <c r="B102" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="131"/>
-      <c r="D102" s="131"/>
-      <c r="E102" s="131"/>
+      <c r="C102" s="135"/>
+      <c r="D102" s="135"/>
+      <c r="E102" s="135"/>
       <c r="F102">
         <f>T107*F93+T108*F94</f>
         <v>0.23057036594364833</v>
@@ -16902,13 +17177,13 @@
       <c r="I102" t="s">
         <v>24</v>
       </c>
-      <c r="J102" s="131" t="s">
+      <c r="J102" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="K102" s="131"/>
-      <c r="L102" s="131"/>
-      <c r="M102" s="131"/>
-      <c r="N102" s="131"/>
+      <c r="K102" s="135"/>
+      <c r="L102" s="135"/>
+      <c r="M102" s="135"/>
+      <c r="N102" s="135"/>
       <c r="O102">
         <f>T107*O93+T108*O94</f>
         <v>0.29124190849683984</v>
@@ -16918,12 +17193,12 @@
       <c r="A103" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="131" t="s">
+      <c r="B103" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="131"/>
-      <c r="D103" s="131"/>
-      <c r="E103" s="131"/>
+      <c r="C103" s="135"/>
+      <c r="D103" s="135"/>
+      <c r="E103" s="135"/>
       <c r="F103">
         <f>T109*F95+T110*F96</f>
         <v>0.59113695311946934</v>
@@ -16931,34 +17206,34 @@
       <c r="I103" t="s">
         <v>25</v>
       </c>
-      <c r="J103" s="131" t="s">
+      <c r="J103" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="K103" s="131"/>
-      <c r="L103" s="131"/>
-      <c r="M103" s="131"/>
-      <c r="N103" s="131"/>
+      <c r="K103" s="135"/>
+      <c r="L103" s="135"/>
+      <c r="M103" s="135"/>
+      <c r="N103" s="135"/>
       <c r="O103">
         <f>T109*O95+T110*O96</f>
         <v>0.785803619786136</v>
       </c>
-      <c r="R103" s="136" t="s">
+      <c r="R103" s="140" t="s">
         <v>135</v>
       </c>
-      <c r="S103" s="136"/>
-      <c r="T103" s="136"/>
-      <c r="U103" s="136"/>
+      <c r="S103" s="140"/>
+      <c r="T103" s="140"/>
+      <c r="U103" s="140"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="131" t="s">
+      <c r="B104" s="135" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="131"/>
-      <c r="D104" s="131"/>
-      <c r="E104" s="131"/>
+      <c r="C104" s="135"/>
+      <c r="D104" s="135"/>
+      <c r="E104" s="135"/>
       <c r="F104">
         <f>T111*F97+T112*F98</f>
         <v>2.3045589875818013</v>
@@ -16966,13 +17241,13 @@
       <c r="I104" t="s">
         <v>26</v>
       </c>
-      <c r="J104" s="131" t="s">
+      <c r="J104" s="135" t="s">
         <v>155</v>
       </c>
-      <c r="K104" s="131"/>
-      <c r="L104" s="131"/>
-      <c r="M104" s="131"/>
-      <c r="N104" s="131"/>
+      <c r="K104" s="135"/>
+      <c r="L104" s="135"/>
+      <c r="M104" s="135"/>
+      <c r="N104" s="135"/>
       <c r="O104">
         <f>T111*O97+T112*O98</f>
         <v>3.0309817454615051</v>
@@ -17020,23 +17295,23 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="133" t="s">
+      <c r="A107" s="137" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="133"/>
-      <c r="C107" s="133"/>
-      <c r="D107" s="133"/>
-      <c r="E107" s="133"/>
-      <c r="F107" s="133"/>
-      <c r="I107" s="133" t="s">
+      <c r="B107" s="137"/>
+      <c r="C107" s="137"/>
+      <c r="D107" s="137"/>
+      <c r="E107" s="137"/>
+      <c r="F107" s="137"/>
+      <c r="I107" s="137" t="s">
         <v>157</v>
       </c>
-      <c r="J107" s="133"/>
-      <c r="K107" s="133"/>
-      <c r="L107" s="133"/>
-      <c r="M107" s="133"/>
-      <c r="N107" s="133"/>
-      <c r="O107" s="133"/>
+      <c r="J107" s="137"/>
+      <c r="K107" s="137"/>
+      <c r="L107" s="137"/>
+      <c r="M107" s="137"/>
+      <c r="N107" s="137"/>
+      <c r="O107" s="137"/>
       <c r="R107" t="s">
         <v>24</v>
       </c>
@@ -17059,26 +17334,26 @@
       <c r="B108" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="134" t="s">
+      <c r="C108" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="D108" s="134"/>
-      <c r="E108" s="134"/>
+      <c r="D108" s="138"/>
+      <c r="E108" s="138"/>
       <c r="F108" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J108" s="134" t="s">
+      <c r="J108" s="138" t="s">
         <v>144</v>
       </c>
-      <c r="K108" s="134"/>
-      <c r="L108" s="134" t="s">
+      <c r="K108" s="138"/>
+      <c r="L108" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="M108" s="134"/>
-      <c r="N108" s="134"/>
+      <c r="M108" s="138"/>
+      <c r="N108" s="138"/>
       <c r="O108" s="2" t="s">
         <v>159</v>
       </c>
@@ -17101,11 +17376,11 @@
       <c r="B109" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="131" t="s">
+      <c r="C109" s="135" t="s">
         <v>160</v>
       </c>
-      <c r="D109" s="131"/>
-      <c r="E109" s="131"/>
+      <c r="D109" s="135"/>
+      <c r="E109" s="135"/>
       <c r="F109" s="4">
         <f t="shared" ref="F109:F116" si="2">P10*F91</f>
         <v>5.7055767876712049E-4</v>
@@ -17113,15 +17388,15 @@
       <c r="I109" t="s">
         <v>23</v>
       </c>
-      <c r="J109" s="131" t="s">
+      <c r="J109" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K109" s="131"/>
-      <c r="L109" s="131" t="s">
+      <c r="K109" s="135"/>
+      <c r="L109" s="135" t="s">
         <v>161</v>
       </c>
-      <c r="M109" s="131"/>
-      <c r="N109" s="131"/>
+      <c r="M109" s="135"/>
+      <c r="N109" s="135"/>
       <c r="O109">
         <f t="shared" ref="O109:O116" si="3">P10*O91</f>
         <v>1.3001773747029566E-3</v>
@@ -17145,24 +17420,24 @@
       <c r="B110" t="s">
         <v>80</v>
       </c>
-      <c r="C110" s="131" t="s">
+      <c r="C110" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="131"/>
-      <c r="E110" s="131"/>
+      <c r="D110" s="135"/>
+      <c r="E110" s="135"/>
       <c r="F110" s="4">
         <f t="shared" si="2"/>
         <v>2.7930471302029383</v>
       </c>
-      <c r="J110" s="131" t="s">
+      <c r="J110" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K110" s="131"/>
-      <c r="L110" s="131" t="s">
+      <c r="K110" s="135"/>
+      <c r="L110" s="135" t="s">
         <v>163</v>
       </c>
-      <c r="M110" s="131"/>
-      <c r="N110" s="131"/>
+      <c r="M110" s="135"/>
+      <c r="N110" s="135"/>
       <c r="O110">
         <f t="shared" si="3"/>
         <v>3.5737402048542828</v>
@@ -17186,11 +17461,11 @@
       <c r="B111" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="131" t="s">
+      <c r="C111" s="135" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="131"/>
-      <c r="E111" s="131"/>
+      <c r="D111" s="135"/>
+      <c r="E111" s="135"/>
       <c r="F111" s="4">
         <f t="shared" si="2"/>
         <v>4.6598750346657741E-4</v>
@@ -17198,15 +17473,15 @@
       <c r="I111" t="s">
         <v>24</v>
       </c>
-      <c r="J111" s="131" t="s">
+      <c r="J111" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K111" s="131"/>
-      <c r="L111" s="131" t="s">
+      <c r="K111" s="135"/>
+      <c r="L111" s="135" t="s">
         <v>165</v>
       </c>
-      <c r="M111" s="131"/>
-      <c r="N111" s="131"/>
+      <c r="M111" s="135"/>
+      <c r="N111" s="135"/>
       <c r="O111">
         <f t="shared" si="3"/>
         <v>1.0542472027225359E-3</v>
@@ -17230,24 +17505,24 @@
       <c r="B112" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="131" t="s">
+      <c r="C112" s="135" t="s">
         <v>166</v>
       </c>
-      <c r="D112" s="131"/>
-      <c r="E112" s="131"/>
+      <c r="D112" s="135"/>
+      <c r="E112" s="135"/>
       <c r="F112" s="4">
         <f t="shared" si="2"/>
         <v>3.0081590996953671</v>
       </c>
-      <c r="J112" s="131" t="s">
+      <c r="J112" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K112" s="131"/>
-      <c r="L112" s="131" t="s">
+      <c r="K112" s="135"/>
+      <c r="L112" s="135" t="s">
         <v>167</v>
       </c>
-      <c r="M112" s="131"/>
-      <c r="N112" s="131"/>
+      <c r="M112" s="135"/>
+      <c r="N112" s="135"/>
       <c r="O112">
         <f t="shared" si="3"/>
         <v>3.7992507432547802</v>
@@ -17271,11 +17546,11 @@
       <c r="B113" t="s">
         <v>77</v>
       </c>
-      <c r="C113" s="131" t="s">
+      <c r="C113" s="135" t="s">
         <v>168</v>
       </c>
-      <c r="D113" s="131"/>
-      <c r="E113" s="131"/>
+      <c r="D113" s="135"/>
+      <c r="E113" s="135"/>
       <c r="F113" s="4">
         <f t="shared" si="2"/>
         <v>9.2115753721939855E-4</v>
@@ -17283,15 +17558,15 @@
       <c r="I113" t="s">
         <v>25</v>
       </c>
-      <c r="J113" s="131" t="s">
+      <c r="J113" s="135" t="s">
         <v>77</v>
       </c>
-      <c r="K113" s="131"/>
-      <c r="L113" s="131" t="s">
+      <c r="K113" s="135"/>
+      <c r="L113" s="135" t="s">
         <v>169</v>
       </c>
-      <c r="M113" s="131"/>
-      <c r="N113" s="131"/>
+      <c r="M113" s="135"/>
+      <c r="N113" s="135"/>
       <c r="O113">
         <f t="shared" si="3"/>
         <v>2.1441628868510533E-3</v>
@@ -17301,24 +17576,24 @@
       <c r="B114" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="131" t="s">
+      <c r="C114" s="135" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="131"/>
-      <c r="E114" s="131"/>
+      <c r="D114" s="135"/>
+      <c r="E114" s="135"/>
       <c r="F114" s="4">
         <f t="shared" si="2"/>
         <v>2.2834706823125823</v>
       </c>
-      <c r="J114" s="131" t="s">
+      <c r="J114" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K114" s="131"/>
-      <c r="L114" s="131" t="s">
+      <c r="K114" s="135"/>
+      <c r="L114" s="135" t="s">
         <v>171</v>
       </c>
-      <c r="M114" s="131"/>
-      <c r="N114" s="131"/>
+      <c r="M114" s="135"/>
+      <c r="N114" s="135"/>
       <c r="O114">
         <f t="shared" si="3"/>
         <v>3.0345182675213818</v>
@@ -17331,11 +17606,11 @@
       <c r="B115" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="131" t="s">
+      <c r="C115" s="135" t="s">
         <v>172</v>
       </c>
-      <c r="D115" s="131"/>
-      <c r="E115" s="131"/>
+      <c r="D115" s="135"/>
+      <c r="E115" s="135"/>
       <c r="F115" s="4">
         <f t="shared" si="2"/>
         <v>7.2663988374241004E-4</v>
@@ -17343,15 +17618,15 @@
       <c r="I115" t="s">
         <v>26</v>
       </c>
-      <c r="J115" s="131" t="s">
+      <c r="J115" s="135" t="s">
         <v>91</v>
       </c>
-      <c r="K115" s="131"/>
-      <c r="L115" s="131" t="s">
+      <c r="K115" s="135"/>
+      <c r="L115" s="135" t="s">
         <v>173</v>
       </c>
-      <c r="M115" s="131"/>
-      <c r="N115" s="131"/>
+      <c r="M115" s="135"/>
+      <c r="N115" s="135"/>
       <c r="O115">
         <f t="shared" si="3"/>
         <v>9.823206481650703E-4</v>
@@ -17361,51 +17636,51 @@
       <c r="B116" t="s">
         <v>80</v>
       </c>
-      <c r="C116" s="131" t="s">
+      <c r="C116" s="135" t="s">
         <v>174</v>
       </c>
-      <c r="D116" s="131"/>
-      <c r="E116" s="131"/>
+      <c r="D116" s="135"/>
+      <c r="E116" s="135"/>
       <c r="F116" s="4">
         <f t="shared" si="2"/>
         <v>2.4086647844341362</v>
       </c>
-      <c r="J116" s="131" t="s">
+      <c r="J116" s="135" t="s">
         <v>80</v>
       </c>
-      <c r="K116" s="131"/>
-      <c r="L116" s="131" t="s">
+      <c r="K116" s="135"/>
+      <c r="L116" s="135" t="s">
         <v>175</v>
       </c>
-      <c r="M116" s="131"/>
-      <c r="N116" s="131"/>
+      <c r="M116" s="135"/>
+      <c r="N116" s="135"/>
       <c r="O116">
         <f t="shared" si="3"/>
         <v>3.1678762176363828</v>
       </c>
-      <c r="S116" s="132" t="s">
+      <c r="S116" s="136" t="s">
         <v>151</v>
       </c>
-      <c r="T116" s="132"/>
+      <c r="T116" s="136"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="133" t="s">
+      <c r="A117" s="137" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="133"/>
-      <c r="C117" s="133"/>
-      <c r="D117" s="133"/>
-      <c r="E117" s="133"/>
-      <c r="F117" s="133"/>
-      <c r="I117" s="133" t="s">
+      <c r="B117" s="137"/>
+      <c r="C117" s="137"/>
+      <c r="D117" s="137"/>
+      <c r="E117" s="137"/>
+      <c r="F117" s="137"/>
+      <c r="I117" s="137" t="s">
         <v>177</v>
       </c>
-      <c r="J117" s="133"/>
-      <c r="K117" s="133"/>
-      <c r="L117" s="133"/>
-      <c r="M117" s="133"/>
-      <c r="N117" s="133"/>
-      <c r="O117" s="133"/>
+      <c r="J117" s="137"/>
+      <c r="K117" s="137"/>
+      <c r="L117" s="137"/>
+      <c r="M117" s="137"/>
+      <c r="N117" s="137"/>
+      <c r="O117" s="137"/>
       <c r="S117" t="s">
         <v>23</v>
       </c>
@@ -17418,25 +17693,25 @@
       <c r="A118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="134" t="s">
+      <c r="B118" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="134"/>
-      <c r="D118" s="134"/>
-      <c r="E118" s="134"/>
+      <c r="C118" s="138"/>
+      <c r="D118" s="138"/>
+      <c r="E118" s="138"/>
       <c r="F118" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J118" s="134" t="s">
+      <c r="J118" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="K118" s="134"/>
-      <c r="L118" s="134"/>
-      <c r="M118" s="134"/>
-      <c r="N118" s="134"/>
+      <c r="K118" s="138"/>
+      <c r="L118" s="138"/>
+      <c r="M118" s="138"/>
+      <c r="N118" s="138"/>
       <c r="O118" s="2" t="s">
         <v>159</v>
       </c>
@@ -17452,12 +17727,12 @@
       <c r="A119" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="131" t="s">
+      <c r="B119" s="135" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="131"/>
-      <c r="D119" s="131"/>
-      <c r="E119" s="131"/>
+      <c r="C119" s="135"/>
+      <c r="D119" s="135"/>
+      <c r="E119" s="135"/>
       <c r="F119">
         <f>Q19*F101</f>
         <v>2.7936176878817052</v>
@@ -17465,13 +17740,13 @@
       <c r="I119" t="s">
         <v>23</v>
       </c>
-      <c r="J119" s="131" t="s">
+      <c r="J119" s="135" t="s">
         <v>179</v>
       </c>
-      <c r="K119" s="131"/>
-      <c r="L119" s="131"/>
-      <c r="M119" s="131"/>
-      <c r="N119" s="131"/>
+      <c r="K119" s="135"/>
+      <c r="L119" s="135"/>
+      <c r="M119" s="135"/>
+      <c r="N119" s="135"/>
       <c r="O119">
         <f>Q19*O101</f>
         <v>3.5750403822289853</v>
@@ -17488,12 +17763,12 @@
       <c r="A120" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="131" t="s">
+      <c r="B120" s="135" t="s">
         <v>180</v>
       </c>
-      <c r="C120" s="131"/>
-      <c r="D120" s="131"/>
-      <c r="E120" s="131"/>
+      <c r="C120" s="135"/>
+      <c r="D120" s="135"/>
+      <c r="E120" s="135"/>
       <c r="F120">
         <f>Q20*F102</f>
         <v>3.0086250871988334</v>
@@ -17501,13 +17776,13 @@
       <c r="I120" t="s">
         <v>24</v>
       </c>
-      <c r="J120" s="131" t="s">
+      <c r="J120" s="135" t="s">
         <v>181</v>
       </c>
-      <c r="K120" s="131"/>
-      <c r="L120" s="131"/>
-      <c r="M120" s="131"/>
-      <c r="N120" s="131"/>
+      <c r="K120" s="135"/>
+      <c r="L120" s="135"/>
+      <c r="M120" s="135"/>
+      <c r="N120" s="135"/>
       <c r="O120">
         <f>Q20*O102</f>
         <v>3.8003049904575028</v>
@@ -17524,12 +17799,12 @@
       <c r="A121" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="131" t="s">
+      <c r="B121" s="135" t="s">
         <v>182</v>
       </c>
-      <c r="C121" s="131"/>
-      <c r="D121" s="131"/>
-      <c r="E121" s="131"/>
+      <c r="C121" s="135"/>
+      <c r="D121" s="135"/>
+      <c r="E121" s="135"/>
       <c r="F121">
         <f>Q21*F103</f>
         <v>2.284391839849802</v>
@@ -17537,13 +17812,13 @@
       <c r="I121" t="s">
         <v>25</v>
       </c>
-      <c r="J121" s="131" t="s">
+      <c r="J121" s="135" t="s">
         <v>183</v>
       </c>
-      <c r="K121" s="131"/>
-      <c r="L121" s="131"/>
-      <c r="M121" s="131"/>
-      <c r="N121" s="131"/>
+      <c r="K121" s="135"/>
+      <c r="L121" s="135"/>
+      <c r="M121" s="135"/>
+      <c r="N121" s="135"/>
       <c r="O121">
         <f>Q21*O103</f>
         <v>3.0366624304082328</v>
@@ -17553,12 +17828,12 @@
       <c r="A122" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="131" t="s">
+      <c r="B122" s="135" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="131"/>
-      <c r="D122" s="131"/>
-      <c r="E122" s="131"/>
+      <c r="C122" s="135"/>
+      <c r="D122" s="135"/>
+      <c r="E122" s="135"/>
       <c r="F122">
         <f>Q22*F104</f>
         <v>2.4093914243178784</v>
@@ -17566,13 +17841,13 @@
       <c r="I122" t="s">
         <v>26</v>
       </c>
-      <c r="J122" s="131" t="s">
+      <c r="J122" s="135" t="s">
         <v>185</v>
       </c>
-      <c r="K122" s="131"/>
-      <c r="L122" s="131"/>
-      <c r="M122" s="131"/>
-      <c r="N122" s="131"/>
+      <c r="K122" s="135"/>
+      <c r="L122" s="135"/>
+      <c r="M122" s="135"/>
+      <c r="N122" s="135"/>
       <c r="O122">
         <f>Q22*O104</f>
         <v>3.1688585382845482</v>

--- a/data/Modello Analitico.xlsx
+++ b/data/Modello Analitico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniroma2-my.sharepoint.com/personal/livia_simoncini_alumni_uniroma2_eu/Documents/Corsi/Attivi/PMCSN/Progetto/PMCSN_Project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="649" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5C62DCE-86DD-4298-8987-2F2577512030}"/>
+  <xr:revisionPtr revIDLastSave="651" documentId="13_ncr:1_{5C906443-4F5B-40CD-81E0-07D312106D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEA6A97C-1699-49DA-8676-9508D76B7874}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1431" uniqueCount="231">
   <si>
     <t>PAZIENTI - ARRIVI</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t>PAZIENTI - ARRIVI (SENZA RIGETTO)</t>
+  </si>
+  <si>
+    <t>PAZIENTI - TRAPIANTI - (2010-2019)</t>
   </si>
 </sst>
 </file>
@@ -1526,38 +1529,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1643,6 +1646,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -9349,8 +9356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="D49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11726,7 +11733,7 @@
       <c r="I47" s="120"/>
       <c r="J47" s="121"/>
       <c r="L47" s="118" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="M47" s="120"/>
       <c r="N47" s="120"/>
@@ -14486,32 +14493,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="146" t="s">
+      <c r="A1" s="135" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="2"/>
-      <c r="G1" s="146" t="s">
+      <c r="G1" s="135" t="s">
         <v>66</v>
       </c>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="146"/>
-      <c r="K1" s="146"/>
-      <c r="L1" s="146"/>
-      <c r="M1" s="146"/>
+      <c r="H1" s="135"/>
+      <c r="I1" s="135"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="135"/>
+      <c r="M1" s="135"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="138"/>
+      <c r="C2" s="136"/>
       <c r="D2" s="2" t="s">
         <v>69</v>
       </c>
@@ -14522,11 +14529,11 @@
       <c r="G2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H2" s="138" t="s">
+      <c r="H2" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="136"/>
+      <c r="J2" s="136"/>
       <c r="K2" s="2" t="s">
         <v>71</v>
       </c>
@@ -14541,10 +14548,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="135" t="s">
+      <c r="B3" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="135"/>
+      <c r="C3" s="137"/>
       <c r="D3">
         <f>Dati_OPTN!C53/(Dati_OPTN!C7+Dati_OPTN!P76)</f>
         <v>8.022815115013697E-2</v>
@@ -14556,11 +14563,11 @@
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="135" t="s">
+      <c r="H3" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
       <c r="K3">
         <f>Dati_OPTN!P76/(Dati_OPTN!C53+Dati_OPTN!C7)</f>
         <v>0.28016187130341974</v>
@@ -14577,10 +14584,10 @@
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="135" t="s">
+      <c r="B4" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="135"/>
+      <c r="C4" s="137"/>
       <c r="D4">
         <f>Dati_OPTN!C57/(Dati_OPTN!C11+Dati_OPTN!P80)</f>
         <v>6.2610333058726611E-2</v>
@@ -14592,11 +14599,11 @@
       <c r="G4" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
       <c r="K4">
         <f>Dati_OPTN!P80/(Dati_OPTN!C57+Dati_OPTN!C11)</f>
         <v>0.24349263186888859</v>
@@ -14613,10 +14620,10 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="135" t="s">
+      <c r="B5" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="C5" s="135"/>
+      <c r="C5" s="137"/>
       <c r="D5">
         <f>Dati_OPTN!C61/(Dati_OPTN!C15+Dati_OPTN!P84)</f>
         <v>8.022640580780116E-2</v>
@@ -14628,11 +14635,11 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="135" t="s">
+      <c r="H5" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="I5" s="135"/>
-      <c r="J5" s="135"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
       <c r="K5">
         <f>Dati_OPTN!P84/(Dati_OPTN!C61+Dati_OPTN!C15)</f>
         <v>0.29046009113626342</v>
@@ -14649,10 +14656,10 @@
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="135" t="s">
+      <c r="B6" s="137" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="135"/>
+      <c r="C6" s="137"/>
       <c r="D6">
         <f>Dati_OPTN!C65/(Dati_OPTN!C19+Dati_OPTN!P88)</f>
         <v>5.2356020942408377E-2</v>
@@ -14664,11 +14671,11 @@
       <c r="G6" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="135" t="s">
+      <c r="H6" s="137" t="s">
         <v>74</v>
       </c>
-      <c r="I6" s="135"/>
-      <c r="J6" s="135"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
       <c r="K6">
         <f>Dati_OPTN!P88/(Dati_OPTN!C65+Dati_OPTN!C19)</f>
         <v>0.18794326241134751</v>
@@ -14685,25 +14692,25 @@
       <c r="C7" s="2"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="I9" s="144" t="s">
+      <c r="B9" s="138"/>
+      <c r="C9" s="138"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="138"/>
+      <c r="F9" s="138"/>
+      <c r="G9" s="138"/>
+      <c r="I9" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="J9" s="144"/>
-      <c r="K9" s="144"/>
-      <c r="L9" s="144"/>
-      <c r="M9" s="144"/>
-      <c r="N9" s="144"/>
-      <c r="O9" s="144"/>
-      <c r="P9" s="144"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="138"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -14712,12 +14719,12 @@
       <c r="B10" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="135" t="s">
+      <c r="C10" s="137" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="135"/>
-      <c r="E10" s="135"/>
-      <c r="F10" s="135"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
       <c r="G10">
         <f>Dati_OPTN!C8/365*(1-M3-E3)</f>
         <v>1.9239971433924447E-2</v>
@@ -14725,16 +14732,16 @@
       <c r="I10" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="145" t="s">
+      <c r="J10" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="K10" s="145"/>
-      <c r="L10" s="135" t="s">
+      <c r="K10" s="139"/>
+      <c r="L10" s="137" t="s">
         <v>79</v>
       </c>
-      <c r="M10" s="135"/>
-      <c r="N10" s="135"/>
-      <c r="O10" s="135"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="137"/>
       <c r="P10">
         <f>G10</f>
         <v>1.9239971433924447E-2</v>
@@ -14744,26 +14751,26 @@
       <c r="B11" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="135" t="s">
+      <c r="C11" s="137" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="135"/>
-      <c r="E11" s="135"/>
-      <c r="F11" s="135"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
       <c r="G11">
         <f>Dati_OPTN!C9/365*(1-M3-E3)</f>
         <v>15.587414751705209</v>
       </c>
-      <c r="J11" s="145" t="s">
+      <c r="J11" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="K11" s="145"/>
-      <c r="L11" s="135" t="s">
+      <c r="K11" s="139"/>
+      <c r="L11" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="M11" s="135"/>
-      <c r="N11" s="135"/>
-      <c r="O11" s="135"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="137"/>
+      <c r="O11" s="137"/>
       <c r="P11">
         <f>G11+G19</f>
         <v>20.586769434299157</v>
@@ -14776,12 +14783,12 @@
       <c r="B12" t="s">
         <v>77</v>
       </c>
-      <c r="C12" s="135" t="s">
+      <c r="C12" s="137" t="s">
         <v>83</v>
       </c>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="135"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
       <c r="G12">
         <f>Dati_OPTN!C12/365*(1-M4-E4)</f>
         <v>9.6958091800653338E-3</v>
@@ -14789,16 +14796,16 @@
       <c r="I12" t="s">
         <v>24</v>
       </c>
-      <c r="J12" s="145" t="s">
+      <c r="J12" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="K12" s="145"/>
-      <c r="L12" s="135" t="s">
+      <c r="K12" s="139"/>
+      <c r="L12" s="137" t="s">
         <v>84</v>
       </c>
-      <c r="M12" s="135"/>
-      <c r="N12" s="135"/>
-      <c r="O12" s="135"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="137"/>
+      <c r="O12" s="137"/>
       <c r="P12">
         <f>G12</f>
         <v>9.6958091800653338E-3</v>
@@ -14808,26 +14815,26 @@
       <c r="B13" t="s">
         <v>80</v>
       </c>
-      <c r="C13" s="135" t="s">
+      <c r="C13" s="137" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="135"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
       <c r="G13">
         <f>Dati_OPTN!C13/365*(1-M4-E4)</f>
         <v>9.6163035447887992</v>
       </c>
-      <c r="J13" s="145" t="s">
+      <c r="J13" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="K13" s="145"/>
-      <c r="L13" s="135" t="s">
+      <c r="K13" s="139"/>
+      <c r="L13" s="137" t="s">
         <v>86</v>
       </c>
-      <c r="M13" s="135"/>
-      <c r="N13" s="135"/>
-      <c r="O13" s="135"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="137"/>
+      <c r="O13" s="137"/>
       <c r="P13">
         <f>G13+G20</f>
         <v>13.038924185351863</v>
@@ -14840,12 +14847,12 @@
       <c r="B14" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="135" t="s">
+      <c r="C14" s="137" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="135"/>
-      <c r="E14" s="135"/>
-      <c r="F14" s="135"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
       <c r="G14">
         <f>Dati_OPTN!C16/365*(1-M5-E5)</f>
         <v>6.2825617275598716E-3</v>
@@ -14853,16 +14860,16 @@
       <c r="I14" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="145" t="s">
+      <c r="J14" s="139" t="s">
         <v>77</v>
       </c>
-      <c r="K14" s="145"/>
-      <c r="L14" s="135" t="s">
+      <c r="K14" s="139"/>
+      <c r="L14" s="137" t="s">
         <v>88</v>
       </c>
-      <c r="M14" s="135"/>
-      <c r="N14" s="135"/>
-      <c r="O14" s="135"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="137"/>
+      <c r="O14" s="137"/>
       <c r="P14">
         <f>G14</f>
         <v>6.2825617275598716E-3</v>
@@ -14872,26 +14879,26 @@
       <c r="B15" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="135" t="s">
+      <c r="C15" s="137" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="135"/>
-      <c r="E15" s="135"/>
-      <c r="F15" s="135"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
       <c r="G15">
         <f>Dati_OPTN!C17/365*(1-M5-E5)</f>
         <v>2.947777962571092</v>
       </c>
-      <c r="J15" s="145" t="s">
+      <c r="J15" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="K15" s="145"/>
-      <c r="L15" s="135" t="s">
+      <c r="K15" s="139"/>
+      <c r="L15" s="137" t="s">
         <v>90</v>
       </c>
-      <c r="M15" s="135"/>
-      <c r="N15" s="135"/>
-      <c r="O15" s="135"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="137"/>
+      <c r="O15" s="137"/>
       <c r="P15">
         <f>G15+G21</f>
         <v>3.8581211568945175</v>
@@ -14904,12 +14911,12 @@
       <c r="B16" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="135" t="s">
+      <c r="C16" s="137" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="135"/>
-      <c r="E16" s="135"/>
-      <c r="F16" s="135"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
       <c r="G16">
         <f>Dati_OPTN!C20/365*(1-M6-E6)</f>
         <v>1.3134285843629813E-3</v>
@@ -14917,16 +14924,16 @@
       <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="145" t="s">
+      <c r="J16" s="139" t="s">
         <v>91</v>
       </c>
-      <c r="K16" s="145"/>
-      <c r="L16" s="135" t="s">
+      <c r="K16" s="139"/>
+      <c r="L16" s="137" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="135"/>
-      <c r="N16" s="135"/>
-      <c r="O16" s="135"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="137"/>
+      <c r="O16" s="137"/>
       <c r="P16">
         <f>G16</f>
         <v>1.3134285843629813E-3</v>
@@ -14936,52 +14943,52 @@
       <c r="B17" t="s">
         <v>80</v>
       </c>
-      <c r="C17" s="135" t="s">
+      <c r="C17" s="137" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="135"/>
-      <c r="E17" s="135"/>
-      <c r="F17" s="135"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
       <c r="G17">
         <f>Dati_OPTN!C21/365*(1-M6-E6)</f>
         <v>0.76178857893052909</v>
       </c>
-      <c r="J17" s="145" t="s">
+      <c r="J17" s="139" t="s">
         <v>80</v>
       </c>
-      <c r="K17" s="145"/>
-      <c r="L17" s="135" t="s">
+      <c r="K17" s="139"/>
+      <c r="L17" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="M17" s="135"/>
-      <c r="N17" s="135"/>
-      <c r="O17" s="135"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="137"/>
+      <c r="O17" s="137"/>
       <c r="P17">
         <f>G17+G22</f>
         <v>1.0441757245685701</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A18" s="144" t="s">
+      <c r="A18" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="144"/>
-      <c r="C18" s="144"/>
-      <c r="D18" s="144"/>
-      <c r="E18" s="144"/>
-      <c r="F18" s="144"/>
-      <c r="G18" s="144"/>
-      <c r="I18" s="144" t="s">
+      <c r="B18" s="138"/>
+      <c r="C18" s="138"/>
+      <c r="D18" s="138"/>
+      <c r="E18" s="138"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="I18" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="J18" s="144"/>
-      <c r="K18" s="144"/>
-      <c r="L18" s="144"/>
-      <c r="M18" s="144"/>
-      <c r="N18" s="144"/>
-      <c r="O18" s="144"/>
-      <c r="P18" s="144"/>
-      <c r="Q18" s="144"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="138"/>
+      <c r="Q18" s="138"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
     </row>
@@ -14992,12 +14999,12 @@
       <c r="B19" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="135" t="s">
+      <c r="C19" s="137" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="135"/>
-      <c r="E19" s="135"/>
-      <c r="F19" s="135"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
       <c r="G19">
         <f>Dati_OPTN!C10/365*(1-M3-E3)</f>
         <v>4.999354682593947</v>
@@ -15005,15 +15012,15 @@
       <c r="I19" t="s">
         <v>23</v>
       </c>
-      <c r="J19" s="135" t="s">
+      <c r="J19" s="137" t="s">
         <v>100</v>
       </c>
-      <c r="K19" s="135"/>
-      <c r="L19" s="135"/>
-      <c r="M19" s="135"/>
-      <c r="N19" s="135"/>
-      <c r="O19" s="135"/>
-      <c r="P19" s="135"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="137"/>
+      <c r="O19" s="137"/>
+      <c r="P19" s="137"/>
       <c r="Q19">
         <f>G10+G11+G19</f>
         <v>20.606009405733079</v>
@@ -15026,12 +15033,12 @@
       <c r="B20" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="137" t="s">
         <v>101</v>
       </c>
-      <c r="D20" s="135"/>
-      <c r="E20" s="135"/>
-      <c r="F20" s="135"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="137"/>
+      <c r="F20" s="137"/>
       <c r="G20">
         <f>Dati_OPTN!C14/365*(1-M4-E4)</f>
         <v>3.4226206405630637</v>
@@ -15039,15 +15046,15 @@
       <c r="I20" t="s">
         <v>24</v>
       </c>
-      <c r="J20" s="135" t="s">
+      <c r="J20" s="137" t="s">
         <v>102</v>
       </c>
-      <c r="K20" s="135"/>
-      <c r="L20" s="135"/>
-      <c r="M20" s="135"/>
-      <c r="N20" s="135"/>
-      <c r="O20" s="135"/>
-      <c r="P20" s="135"/>
+      <c r="K20" s="137"/>
+      <c r="L20" s="137"/>
+      <c r="M20" s="137"/>
+      <c r="N20" s="137"/>
+      <c r="O20" s="137"/>
+      <c r="P20" s="137"/>
       <c r="Q20">
         <f>G12+G13+G20</f>
         <v>13.048619994531929</v>
@@ -15060,12 +15067,12 @@
       <c r="B21" t="s">
         <v>98</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="137" t="s">
         <v>103</v>
       </c>
-      <c r="D21" s="135"/>
-      <c r="E21" s="135"/>
-      <c r="F21" s="135"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="137"/>
+      <c r="F21" s="137"/>
       <c r="G21">
         <f>Dati_OPTN!C18/365*(1-M5-E5)</f>
         <v>0.91034319432342548</v>
@@ -15073,15 +15080,15 @@
       <c r="I21" t="s">
         <v>25</v>
       </c>
-      <c r="J21" s="135" t="s">
+      <c r="J21" s="137" t="s">
         <v>104</v>
       </c>
-      <c r="K21" s="135"/>
-      <c r="L21" s="135"/>
-      <c r="M21" s="135"/>
-      <c r="N21" s="135"/>
-      <c r="O21" s="135"/>
-      <c r="P21" s="135"/>
+      <c r="K21" s="137"/>
+      <c r="L21" s="137"/>
+      <c r="M21" s="137"/>
+      <c r="N21" s="137"/>
+      <c r="O21" s="137"/>
+      <c r="P21" s="137"/>
       <c r="Q21">
         <f>G14+G15+G21</f>
         <v>3.8644037186220772</v>
@@ -15094,12 +15101,12 @@
       <c r="B22" t="s">
         <v>98</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="137" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
       <c r="G22">
         <f>Dati_OPTN!C22/365*(1-M6-E6)</f>
         <v>0.28238714563804101</v>
@@ -15107,62 +15114,62 @@
       <c r="I22" t="s">
         <v>26</v>
       </c>
-      <c r="J22" s="135" t="s">
+      <c r="J22" s="137" t="s">
         <v>106</v>
       </c>
-      <c r="K22" s="135"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="135"/>
-      <c r="N22" s="135"/>
-      <c r="O22" s="135"/>
-      <c r="P22" s="135"/>
+      <c r="K22" s="137"/>
+      <c r="L22" s="137"/>
+      <c r="M22" s="137"/>
+      <c r="N22" s="137"/>
+      <c r="O22" s="137"/>
+      <c r="P22" s="137"/>
       <c r="Q22">
         <f>G16+G17+G22</f>
         <v>1.0454891531529331</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="B25" s="141"/>
-      <c r="C25" s="141"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="141"/>
-      <c r="F25" s="141"/>
-      <c r="I25" s="141" t="s">
+      <c r="B25" s="140"/>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="I25" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="J25" s="141"/>
-      <c r="K25" s="141"/>
-      <c r="L25" s="141"/>
-      <c r="M25" s="141"/>
-      <c r="N25" s="141"/>
-      <c r="Q25" s="141" t="s">
+      <c r="J25" s="140"/>
+      <c r="K25" s="140"/>
+      <c r="L25" s="140"/>
+      <c r="M25" s="140"/>
+      <c r="N25" s="140"/>
+      <c r="Q25" s="140" t="s">
         <v>109</v>
       </c>
-      <c r="R25" s="141"/>
-      <c r="S25" s="141"/>
-      <c r="T25" s="141"/>
-      <c r="U25" s="141"/>
-      <c r="V25" s="141"/>
-      <c r="Y25" s="141" t="s">
+      <c r="R25" s="140"/>
+      <c r="S25" s="140"/>
+      <c r="T25" s="140"/>
+      <c r="U25" s="140"/>
+      <c r="V25" s="140"/>
+      <c r="Y25" s="140" t="s">
         <v>110</v>
       </c>
-      <c r="Z25" s="141"/>
-      <c r="AA25" s="141"/>
-      <c r="AB25" s="141"/>
-      <c r="AC25" s="141"/>
+      <c r="Z25" s="140"/>
+      <c r="AA25" s="140"/>
+      <c r="AB25" s="140"/>
+      <c r="AC25" s="140"/>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="138" t="s">
+      <c r="B26" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C26" s="138"/>
-      <c r="D26" s="138"/>
+      <c r="C26" s="136"/>
+      <c r="D26" s="136"/>
       <c r="E26" s="2" t="s">
         <v>71</v>
       </c>
@@ -15172,34 +15179,34 @@
       <c r="I26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J26" s="138" t="s">
+      <c r="J26" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="K26" s="138"/>
-      <c r="L26" s="138"/>
-      <c r="M26" s="138"/>
+      <c r="K26" s="136"/>
+      <c r="L26" s="136"/>
+      <c r="M26" s="136"/>
       <c r="N26" s="2" t="s">
         <v>112</v>
       </c>
       <c r="Q26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R26" s="138" t="s">
+      <c r="R26" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="S26" s="138"/>
-      <c r="T26" s="138"/>
-      <c r="U26" s="138"/>
+      <c r="S26" s="136"/>
+      <c r="T26" s="136"/>
+      <c r="U26" s="136"/>
       <c r="V26" s="2" t="s">
         <v>113</v>
       </c>
       <c r="Y26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="Z26" s="138" t="s">
+      <c r="Z26" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="AA26" s="138"/>
+      <c r="AA26" s="136"/>
       <c r="AB26" s="2" t="s">
         <v>46</v>
       </c>
@@ -15211,11 +15218,11 @@
       <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="135" t="s">
+      <c r="B27" s="137" t="s">
         <v>115</v>
       </c>
-      <c r="C27" s="135"/>
-      <c r="D27" s="135"/>
+      <c r="C27" s="137"/>
+      <c r="D27" s="137"/>
       <c r="E27">
         <f>Arrivi!D31/Arrivi!D29</f>
         <v>0.45980196406014429</v>
@@ -15227,12 +15234,12 @@
       <c r="I27" t="s">
         <v>23</v>
       </c>
-      <c r="J27" s="135" t="s">
+      <c r="J27" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="K27" s="135"/>
-      <c r="L27" s="135"/>
-      <c r="M27" s="135"/>
+      <c r="K27" s="137"/>
+      <c r="L27" s="137"/>
+      <c r="M27" s="137"/>
       <c r="N27">
         <f>1/(2*E27*Arrivi!H31)</f>
         <v>9.2240298702594314E-2</v>
@@ -15240,12 +15247,12 @@
       <c r="Q27" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="135" t="s">
+      <c r="R27" s="137" t="s">
         <v>117</v>
       </c>
-      <c r="S27" s="135"/>
-      <c r="T27" s="135"/>
-      <c r="U27" s="135"/>
+      <c r="S27" s="137"/>
+      <c r="T27" s="137"/>
+      <c r="U27" s="137"/>
       <c r="V27">
         <f>1/(2*F27*Arrivi!H30)</f>
         <v>6.3479719307352522E-2</v>
@@ -15253,10 +15260,10 @@
       <c r="Y27" t="s">
         <v>23</v>
       </c>
-      <c r="Z27" s="135" t="s">
+      <c r="Z27" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="AA27" s="135"/>
+      <c r="AA27" s="137"/>
       <c r="AB27">
         <f>E27*N27+F27*V27</f>
         <v>7.6703890200792421E-2</v>
@@ -15270,11 +15277,11 @@
       <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="135" t="s">
+      <c r="B28" s="137" t="s">
         <v>119</v>
       </c>
-      <c r="C28" s="135"/>
-      <c r="D28" s="135"/>
+      <c r="C28" s="137"/>
+      <c r="D28" s="137"/>
       <c r="E28">
         <f>Arrivi!D34/Arrivi!D32</f>
         <v>0.32570024570024569</v>
@@ -15286,12 +15293,12 @@
       <c r="I28" t="s">
         <v>24</v>
       </c>
-      <c r="J28" s="135" t="s">
+      <c r="J28" s="137" t="s">
         <v>120</v>
       </c>
-      <c r="K28" s="135"/>
-      <c r="L28" s="135"/>
-      <c r="M28" s="135"/>
+      <c r="K28" s="137"/>
+      <c r="L28" s="137"/>
+      <c r="M28" s="137"/>
       <c r="N28">
         <f>1/(2*E28*Arrivi!H34)</f>
         <v>0.29662846521470904</v>
@@ -15299,12 +15306,12 @@
       <c r="Q28" t="s">
         <v>24</v>
       </c>
-      <c r="R28" s="135" t="s">
+      <c r="R28" s="137" t="s">
         <v>121</v>
       </c>
-      <c r="S28" s="135"/>
-      <c r="T28" s="135"/>
-      <c r="U28" s="135"/>
+      <c r="S28" s="137"/>
+      <c r="T28" s="137"/>
+      <c r="U28" s="137"/>
       <c r="V28">
         <f>1/(2*F28*Arrivi!H33)</f>
         <v>6.5580601925874338E-2</v>
@@ -15312,10 +15319,10 @@
       <c r="Y28" t="s">
         <v>24</v>
       </c>
-      <c r="Z28" s="135" t="s">
+      <c r="Z28" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="AA28" s="135"/>
+      <c r="AA28" s="137"/>
       <c r="AB28">
         <f>E28*N28+F28*V28</f>
         <v>0.14083294776756458</v>
@@ -15329,11 +15336,11 @@
       <c r="A29" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="135" t="s">
+      <c r="B29" s="137" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
+      <c r="C29" s="137"/>
+      <c r="D29" s="137"/>
       <c r="E29">
         <f>Arrivi!D37/Arrivi!D35</f>
         <v>0.3090813093980993</v>
@@ -15345,12 +15352,12 @@
       <c r="I29" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="135" t="s">
+      <c r="J29" s="137" t="s">
         <v>123</v>
       </c>
-      <c r="K29" s="135"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="135"/>
+      <c r="K29" s="137"/>
+      <c r="L29" s="137"/>
+      <c r="M29" s="137"/>
       <c r="N29">
         <f>1/(2*E29*Arrivi!H37)</f>
         <v>1.0506397061594894</v>
@@ -15358,12 +15365,12 @@
       <c r="Q29" t="s">
         <v>25</v>
       </c>
-      <c r="R29" s="135" t="s">
+      <c r="R29" s="137" t="s">
         <v>124</v>
       </c>
-      <c r="S29" s="135"/>
-      <c r="T29" s="135"/>
-      <c r="U29" s="135"/>
+      <c r="S29" s="137"/>
+      <c r="T29" s="137"/>
+      <c r="U29" s="137"/>
       <c r="V29">
         <f>1/(2*F29*Arrivi!H36)</f>
         <v>0.20117369900147355</v>
@@ -15371,10 +15378,10 @@
       <c r="Y29" t="s">
         <v>25</v>
       </c>
-      <c r="Z29" s="135" t="s">
+      <c r="Z29" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="AA29" s="135"/>
+      <c r="AA29" s="137"/>
       <c r="AB29">
         <f>E29*N29+F29*V29</f>
         <v>0.46372776478304834</v>
@@ -15388,11 +15395,11 @@
       <c r="A30" t="s">
         <v>26</v>
       </c>
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="137" t="s">
         <v>125</v>
       </c>
-      <c r="C30" s="135"/>
-      <c r="D30" s="135"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
       <c r="E30">
         <f>Arrivi!D40/Arrivi!D38</f>
         <v>0.20058626465661641</v>
@@ -15404,12 +15411,12 @@
       <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="J30" s="135" t="s">
+      <c r="J30" s="137" t="s">
         <v>126</v>
       </c>
-      <c r="K30" s="135"/>
-      <c r="L30" s="135"/>
-      <c r="M30" s="135"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
       <c r="N30">
         <f>1/(2*E30*Arrivi!H40)</f>
         <v>8.1235087980912617</v>
@@ -15417,12 +15424,12 @@
       <c r="Q30" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="135" t="s">
+      <c r="R30" s="137" t="s">
         <v>127</v>
       </c>
-      <c r="S30" s="135"/>
-      <c r="T30" s="135"/>
-      <c r="U30" s="135"/>
+      <c r="S30" s="137"/>
+      <c r="T30" s="137"/>
+      <c r="U30" s="137"/>
       <c r="V30">
         <f>1/(2*F30*Arrivi!H39)</f>
         <v>0.58536487085465616</v>
@@ -15430,10 +15437,10 @@
       <c r="Y30" t="s">
         <v>26</v>
       </c>
-      <c r="Z30" s="135" t="s">
+      <c r="Z30" s="137" t="s">
         <v>118</v>
       </c>
-      <c r="AA30" s="135"/>
+      <c r="AA30" s="137"/>
       <c r="AB30">
         <f>E30*N30+F30*V30</f>
         <v>2.0974130036630036</v>
@@ -15444,27 +15451,27 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="140" t="s">
+      <c r="A33" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="140"/>
-      <c r="C33" s="140"/>
-      <c r="D33" s="140"/>
-      <c r="F33" s="143" t="s">
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="F33" s="142" t="s">
         <v>129</v>
       </c>
-      <c r="G33" s="143"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="143"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
-      <c r="B34" s="139" t="s">
+      <c r="B34" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="C34" s="139"/>
+      <c r="C34" s="143"/>
       <c r="D34">
         <f>Q19*AB27</f>
         <v>1.5805610829338461</v>
@@ -15472,10 +15479,10 @@
       <c r="F34" t="s">
         <v>23</v>
       </c>
-      <c r="G34" s="135" t="s">
+      <c r="G34" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="H34" s="135"/>
+      <c r="H34" s="137"/>
       <c r="I34">
         <f>1/(2*E27*F27)-1</f>
         <v>1.0130111547150507</v>
@@ -15485,10 +15492,10 @@
       <c r="A35" t="s">
         <v>24</v>
       </c>
-      <c r="B35" s="139" t="s">
+      <c r="B35" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="C35" s="139"/>
+      <c r="C35" s="143"/>
       <c r="D35">
         <f>Q20*AB28</f>
         <v>1.8376756181287139</v>
@@ -15496,10 +15503,10 @@
       <c r="F35" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="135" t="s">
+      <c r="G35" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="H35" s="135"/>
+      <c r="H35" s="137"/>
       <c r="I35">
         <f>1/(2*E28*F28)-1</f>
         <v>1.2766638765442981</v>
@@ -15509,10 +15516,10 @@
       <c r="A36" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="139" t="s">
+      <c r="B36" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="139"/>
+      <c r="C36" s="143"/>
       <c r="D36">
         <f>Q21*AB29</f>
         <v>1.7920312986559159</v>
@@ -15520,10 +15527,10 @@
       <c r="F36" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="135" t="s">
+      <c r="G36" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="H36" s="135"/>
+      <c r="H36" s="137"/>
       <c r="I36">
         <f>1/(2*E29*F29)-1</f>
         <v>1.3413714565768982</v>
@@ -15533,10 +15540,10 @@
       <c r="A37" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="139" t="s">
+      <c r="B37" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="139"/>
+      <c r="C37" s="143"/>
       <c r="D37">
         <f>Q22*AB30</f>
         <v>2.1928225450115835</v>
@@ -15544,22 +15551,22 @@
       <c r="F37" t="s">
         <v>26</v>
       </c>
-      <c r="G37" s="135" t="s">
+      <c r="G37" s="137" t="s">
         <v>131</v>
       </c>
-      <c r="H37" s="135"/>
+      <c r="H37" s="137"/>
       <c r="I37">
         <f>1/(2*E30*F30)-1</f>
         <v>2.1181514658069514</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="140" t="s">
+      <c r="A40" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="B40" s="140"/>
-      <c r="C40" s="140"/>
-      <c r="D40" s="140"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="141"/>
+      <c r="D40" s="141"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
@@ -15692,42 +15699,42 @@
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A51" s="142" t="s">
+      <c r="A51" s="144" t="s">
         <v>141</v>
       </c>
-      <c r="B51" s="142"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="142"/>
-      <c r="I51" s="142"/>
-      <c r="J51" s="142"/>
-      <c r="K51" s="142"/>
-      <c r="L51" s="142"/>
-      <c r="M51" s="142"/>
-      <c r="N51" s="142"/>
-      <c r="O51" s="142"/>
+      <c r="B51" s="144"/>
+      <c r="C51" s="144"/>
+      <c r="D51" s="144"/>
+      <c r="E51" s="144"/>
+      <c r="F51" s="144"/>
+      <c r="G51" s="144"/>
+      <c r="H51" s="144"/>
+      <c r="I51" s="144"/>
+      <c r="J51" s="144"/>
+      <c r="K51" s="144"/>
+      <c r="L51" s="144"/>
+      <c r="M51" s="144"/>
+      <c r="N51" s="144"/>
+      <c r="O51" s="144"/>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A52" s="137" t="s">
+      <c r="A52" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="B52" s="137"/>
-      <c r="C52" s="137"/>
-      <c r="D52" s="137"/>
-      <c r="E52" s="137"/>
-      <c r="F52" s="137"/>
-      <c r="I52" s="137" t="s">
+      <c r="B52" s="145"/>
+      <c r="C52" s="145"/>
+      <c r="D52" s="145"/>
+      <c r="E52" s="145"/>
+      <c r="F52" s="145"/>
+      <c r="I52" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="J52" s="137"/>
-      <c r="K52" s="137"/>
-      <c r="L52" s="137"/>
-      <c r="M52" s="137"/>
-      <c r="N52" s="137"/>
-      <c r="O52" s="137"/>
+      <c r="J52" s="145"/>
+      <c r="K52" s="145"/>
+      <c r="L52" s="145"/>
+      <c r="M52" s="145"/>
+      <c r="N52" s="145"/>
+      <c r="O52" s="145"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
@@ -15736,26 +15743,26 @@
       <c r="B53" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C53" s="138" t="s">
+      <c r="C53" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="D53" s="138"/>
-      <c r="E53" s="138"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
       <c r="F53" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J53" s="138" t="s">
+      <c r="J53" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="K53" s="138"/>
-      <c r="L53" s="138" t="s">
+      <c r="K53" s="136"/>
+      <c r="L53" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="M53" s="138"/>
-      <c r="N53" s="138"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="136"/>
       <c r="O53" s="2" t="s">
         <v>146</v>
       </c>
@@ -15767,11 +15774,11 @@
       <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="135" t="s">
+      <c r="C54" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="D54" s="135"/>
-      <c r="E54" s="135"/>
+      <c r="D54" s="137"/>
+      <c r="E54" s="137"/>
       <c r="F54">
         <f>(D34*AB27*(1+I34))/(2*(1-D42))</f>
         <v>0.1222042352739537</v>
@@ -15779,15 +15786,15 @@
       <c r="I54" t="s">
         <v>23</v>
       </c>
-      <c r="J54" s="135" t="s">
+      <c r="J54" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K54" s="135"/>
-      <c r="L54" s="135" t="s">
+      <c r="K54" s="137"/>
+      <c r="L54" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="M54" s="135"/>
-      <c r="N54" s="135"/>
+      <c r="M54" s="137"/>
+      <c r="N54" s="137"/>
       <c r="O54">
         <f>F54+AB27</f>
         <v>0.19890812547474612</v>
@@ -15797,32 +15804,32 @@
       <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="135" t="s">
+      <c r="C55" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="D55" s="135"/>
-      <c r="E55" s="135"/>
+      <c r="D55" s="137"/>
+      <c r="E55" s="137"/>
       <c r="F55">
         <f>(D34*AB27*(1+I34))/(2*(1-D42)*(1-D34))</f>
         <v>-0.21049332941229656</v>
       </c>
-      <c r="J55" s="135" t="s">
+      <c r="J55" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K55" s="135"/>
-      <c r="L55" s="135" t="s">
+      <c r="K55" s="137"/>
+      <c r="L55" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="M55" s="135"/>
-      <c r="N55" s="135"/>
+      <c r="M55" s="137"/>
+      <c r="N55" s="137"/>
       <c r="O55">
         <f>F55+AB27</f>
         <v>-0.13378943921150416</v>
       </c>
-      <c r="S55" s="136" t="s">
+      <c r="S55" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="T55" s="136"/>
+      <c r="T55" s="146"/>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -15831,11 +15838,11 @@
       <c r="B56" t="s">
         <v>77</v>
       </c>
-      <c r="C56" s="135" t="s">
+      <c r="C56" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="D56" s="135"/>
-      <c r="E56" s="135"/>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
       <c r="F56">
         <f>(D35*AB28*(1+I35))/(2*(1-D44))</f>
         <v>0.29500914142831403</v>
@@ -15843,15 +15850,15 @@
       <c r="I56" t="s">
         <v>24</v>
       </c>
-      <c r="J56" s="135" t="s">
+      <c r="J56" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K56" s="135"/>
-      <c r="L56" s="135" t="s">
+      <c r="K56" s="137"/>
+      <c r="L56" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="M56" s="135"/>
-      <c r="N56" s="135"/>
+      <c r="M56" s="137"/>
+      <c r="N56" s="137"/>
       <c r="O56">
         <f>F56+AB28</f>
         <v>0.43584208919587863</v>
@@ -15868,24 +15875,24 @@
       <c r="B57" t="s">
         <v>80</v>
       </c>
-      <c r="C57" s="135" t="s">
+      <c r="C57" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="D57" s="135"/>
-      <c r="E57" s="135"/>
+      <c r="D57" s="137"/>
+      <c r="E57" s="137"/>
       <c r="F57">
         <f>(D35*AB28*(1+I35))/(2*(1-D44)*(1-D35))</f>
         <v>-0.3521758721918346</v>
       </c>
-      <c r="J57" s="135" t="s">
+      <c r="J57" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K57" s="135"/>
-      <c r="L57" s="135" t="s">
+      <c r="K57" s="137"/>
+      <c r="L57" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="M57" s="135"/>
-      <c r="N57" s="135"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="137"/>
       <c r="O57">
         <f>F57+AB28</f>
         <v>-0.21134292442427002</v>
@@ -15905,11 +15912,11 @@
       <c r="B58" t="s">
         <v>77</v>
       </c>
-      <c r="C58" s="135" t="s">
+      <c r="C58" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="D58" s="135"/>
-      <c r="E58" s="135"/>
+      <c r="D58" s="137"/>
+      <c r="E58" s="137"/>
       <c r="F58">
         <f>(D36*AB29*(1+I36))/(2*(1-D46))</f>
         <v>0.97569961407009964</v>
@@ -15917,15 +15924,15 @@
       <c r="I58" t="s">
         <v>25</v>
       </c>
-      <c r="J58" s="135" t="s">
+      <c r="J58" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K58" s="135"/>
-      <c r="L58" s="135" t="s">
+      <c r="K58" s="137"/>
+      <c r="L58" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="M58" s="135"/>
-      <c r="N58" s="135"/>
+      <c r="M58" s="137"/>
+      <c r="N58" s="137"/>
       <c r="O58">
         <f>F58+AB29</f>
         <v>1.439427378853148</v>
@@ -15942,24 +15949,24 @@
       <c r="B59" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="135" t="s">
+      <c r="C59" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="135"/>
-      <c r="E59" s="135"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137"/>
       <c r="F59">
         <f>(D36*AB29*(1+I36))/(2*(1-D46)*(1-D36))</f>
         <v>-1.2318952744997205</v>
       </c>
-      <c r="J59" s="135" t="s">
+      <c r="J59" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K59" s="135"/>
-      <c r="L59" s="135" t="s">
+      <c r="K59" s="137"/>
+      <c r="L59" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="M59" s="135"/>
-      <c r="N59" s="135"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="137"/>
       <c r="O59">
         <f>F59+AB29</f>
         <v>-0.76816750971667214</v>
@@ -15979,11 +15986,11 @@
       <c r="B60" t="s">
         <v>91</v>
       </c>
-      <c r="C60" s="135" t="s">
+      <c r="C60" s="137" t="s">
         <v>147</v>
       </c>
-      <c r="D60" s="135"/>
-      <c r="E60" s="135"/>
+      <c r="D60" s="137"/>
+      <c r="E60" s="137"/>
       <c r="F60">
         <f>(D37*AB30*(1+I37))/(2*(1-D48))</f>
         <v>7.1903942263427414</v>
@@ -15991,15 +15998,15 @@
       <c r="I60" t="s">
         <v>26</v>
       </c>
-      <c r="J60" s="135" t="s">
+      <c r="J60" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="K60" s="135"/>
-      <c r="L60" s="135" t="s">
+      <c r="K60" s="137"/>
+      <c r="L60" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="M60" s="135"/>
-      <c r="N60" s="135"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="137"/>
       <c r="O60">
         <f>F60+AB30</f>
         <v>9.287807230005745</v>
@@ -16009,71 +16016,71 @@
       <c r="B61" t="s">
         <v>80</v>
       </c>
-      <c r="C61" s="135" t="s">
+      <c r="C61" s="137" t="s">
         <v>149</v>
       </c>
-      <c r="D61" s="135"/>
-      <c r="E61" s="135"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
       <c r="F61">
         <f>(D37*AB30*(1+I37))/(2*(1-D48)*(1-D37))</f>
         <v>-6.0280502379948864</v>
       </c>
-      <c r="J61" s="135" t="s">
+      <c r="J61" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K61" s="135"/>
-      <c r="L61" s="135" t="s">
+      <c r="K61" s="137"/>
+      <c r="L61" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="M61" s="135"/>
-      <c r="N61" s="135"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="137"/>
       <c r="O61">
         <f>F61+AB30</f>
         <v>-3.9306372343318827</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A62" s="137" t="s">
+      <c r="A62" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="B62" s="137"/>
-      <c r="C62" s="137"/>
-      <c r="D62" s="137"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="137"/>
-      <c r="I62" s="137" t="s">
+      <c r="B62" s="145"/>
+      <c r="C62" s="145"/>
+      <c r="D62" s="145"/>
+      <c r="E62" s="145"/>
+      <c r="F62" s="145"/>
+      <c r="I62" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="J62" s="137"/>
-      <c r="K62" s="137"/>
-      <c r="L62" s="137"/>
-      <c r="M62" s="137"/>
-      <c r="N62" s="137"/>
-      <c r="O62" s="137"/>
+      <c r="J62" s="145"/>
+      <c r="K62" s="145"/>
+      <c r="L62" s="145"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="145"/>
+      <c r="O62" s="145"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B63" s="138" t="s">
+      <c r="B63" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="138"/>
-      <c r="D63" s="138"/>
-      <c r="E63" s="138"/>
+      <c r="C63" s="136"/>
+      <c r="D63" s="136"/>
+      <c r="E63" s="136"/>
       <c r="F63" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J63" s="138" t="s">
+      <c r="J63" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="K63" s="138"/>
-      <c r="L63" s="138"/>
-      <c r="M63" s="138"/>
-      <c r="N63" s="138"/>
+      <c r="K63" s="136"/>
+      <c r="L63" s="136"/>
+      <c r="M63" s="136"/>
+      <c r="N63" s="136"/>
       <c r="O63" s="2" t="s">
         <v>146</v>
       </c>
@@ -16082,12 +16089,12 @@
       <c r="A64" t="s">
         <v>23</v>
       </c>
-      <c r="B64" s="135" t="s">
+      <c r="B64" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C64" s="135"/>
-      <c r="D64" s="135"/>
-      <c r="E64" s="135"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
       <c r="F64">
         <f>C42*F54+C43*F55</f>
         <v>-0.21018268742846255</v>
@@ -16095,13 +16102,13 @@
       <c r="I64" t="s">
         <v>23</v>
       </c>
-      <c r="J64" s="135" t="s">
+      <c r="J64" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="K64" s="135"/>
-      <c r="L64" s="135"/>
-      <c r="M64" s="135"/>
-      <c r="N64" s="135"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="137"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="137"/>
       <c r="O64">
         <f>C42*O54+C43*O55</f>
         <v>-0.13347879722767014</v>
@@ -16111,12 +16118,12 @@
       <c r="A65" t="s">
         <v>24</v>
       </c>
-      <c r="B65" s="135" t="s">
+      <c r="B65" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C65" s="135"/>
-      <c r="D65" s="135"/>
-      <c r="E65" s="135"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
       <c r="F65">
         <f>C44*F56+C45*F57</f>
         <v>-0.35169497977571024</v>
@@ -16124,13 +16131,13 @@
       <c r="I65" t="s">
         <v>24</v>
       </c>
-      <c r="J65" s="135" t="s">
+      <c r="J65" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="K65" s="135"/>
-      <c r="L65" s="135"/>
-      <c r="M65" s="135"/>
-      <c r="N65" s="135"/>
+      <c r="K65" s="137"/>
+      <c r="L65" s="137"/>
+      <c r="M65" s="137"/>
+      <c r="N65" s="137"/>
       <c r="O65">
         <f>C44*O56+C45*O57</f>
         <v>-0.21086203200814566</v>
@@ -16140,12 +16147,12 @@
       <c r="A66" t="s">
         <v>25</v>
       </c>
-      <c r="B66" s="135" t="s">
+      <c r="B66" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C66" s="135"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="135"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
       <c r="F66">
         <f>C46*F58+C47*F59</f>
         <v>-1.2283062728925513</v>
@@ -16153,13 +16160,13 @@
       <c r="I66" t="s">
         <v>25</v>
       </c>
-      <c r="J66" s="135" t="s">
+      <c r="J66" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="K66" s="135"/>
-      <c r="L66" s="135"/>
-      <c r="M66" s="135"/>
-      <c r="N66" s="135"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="137"/>
+      <c r="N66" s="137"/>
       <c r="O66">
         <f>C46*O58+C47*O59</f>
         <v>-0.7645785081095029</v>
@@ -16169,12 +16176,12 @@
       <c r="A67" t="s">
         <v>26</v>
       </c>
-      <c r="B67" s="135" t="s">
+      <c r="B67" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C67" s="135"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="135"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
       <c r="F67">
         <f>C48*F60+C49*F61</f>
         <v>-6.0114441519844126</v>
@@ -16182,36 +16189,36 @@
       <c r="I67" t="s">
         <v>26</v>
       </c>
-      <c r="J67" s="135" t="s">
+      <c r="J67" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="K67" s="135"/>
-      <c r="L67" s="135"/>
-      <c r="M67" s="135"/>
-      <c r="N67" s="135"/>
+      <c r="K67" s="137"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="137"/>
+      <c r="N67" s="137"/>
       <c r="O67">
         <f>C48*O60+C49*O61</f>
         <v>-3.9140311483214085</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A70" s="137" t="s">
+      <c r="A70" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="137"/>
-      <c r="C70" s="137"/>
-      <c r="D70" s="137"/>
-      <c r="E70" s="137"/>
-      <c r="F70" s="137"/>
-      <c r="I70" s="137" t="s">
+      <c r="B70" s="145"/>
+      <c r="C70" s="145"/>
+      <c r="D70" s="145"/>
+      <c r="E70" s="145"/>
+      <c r="F70" s="145"/>
+      <c r="I70" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="J70" s="137"/>
-      <c r="K70" s="137"/>
-      <c r="L70" s="137"/>
-      <c r="M70" s="137"/>
-      <c r="N70" s="137"/>
-      <c r="O70" s="137"/>
+      <c r="J70" s="145"/>
+      <c r="K70" s="145"/>
+      <c r="L70" s="145"/>
+      <c r="M70" s="145"/>
+      <c r="N70" s="145"/>
+      <c r="O70" s="145"/>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
@@ -16220,26 +16227,26 @@
       <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="138" t="s">
+      <c r="C71" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="138"/>
-      <c r="E71" s="138"/>
+      <c r="D71" s="136"/>
+      <c r="E71" s="136"/>
       <c r="F71" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J71" s="138" t="s">
+      <c r="J71" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="K71" s="138"/>
-      <c r="L71" s="138" t="s">
+      <c r="K71" s="136"/>
+      <c r="L71" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="M71" s="138"/>
-      <c r="N71" s="138"/>
+      <c r="M71" s="136"/>
+      <c r="N71" s="136"/>
       <c r="O71" s="2" t="s">
         <v>159</v>
       </c>
@@ -16251,11 +16258,11 @@
       <c r="B72" t="s">
         <v>77</v>
       </c>
-      <c r="C72" s="135" t="s">
+      <c r="C72" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="D72" s="135"/>
-      <c r="E72" s="135"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="137"/>
       <c r="F72">
         <f t="shared" ref="F72:F79" si="0">P10*F54</f>
         <v>2.3512059957754516E-3</v>
@@ -16263,15 +16270,15 @@
       <c r="I72" t="s">
         <v>23</v>
       </c>
-      <c r="J72" s="135" t="s">
+      <c r="J72" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K72" s="135"/>
-      <c r="L72" s="135" t="s">
+      <c r="K72" s="137"/>
+      <c r="L72" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="M72" s="135"/>
-      <c r="N72" s="135"/>
+      <c r="M72" s="137"/>
+      <c r="N72" s="137"/>
       <c r="O72">
         <f t="shared" ref="O72:O79" si="1">P10*O54</f>
         <v>3.8269866521095748E-3</v>
@@ -16281,24 +16288,24 @@
       <c r="B73" t="s">
         <v>80</v>
       </c>
-      <c r="C73" s="135" t="s">
+      <c r="C73" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="D73" s="135"/>
-      <c r="E73" s="135"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="137"/>
       <c r="F73">
         <f t="shared" si="0"/>
         <v>-4.3333776400689308</v>
       </c>
-      <c r="J73" s="135" t="s">
+      <c r="J73" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K73" s="135"/>
-      <c r="L73" s="135" t="s">
+      <c r="K73" s="137"/>
+      <c r="L73" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="M73" s="135"/>
-      <c r="N73" s="135"/>
+      <c r="M73" s="137"/>
+      <c r="N73" s="137"/>
       <c r="O73">
         <f t="shared" si="1"/>
         <v>-2.7542923377914188</v>
@@ -16311,11 +16318,11 @@
       <c r="B74" t="s">
         <v>77</v>
       </c>
-      <c r="C74" s="135" t="s">
+      <c r="C74" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="135"/>
-      <c r="E74" s="135"/>
+      <c r="D74" s="137"/>
+      <c r="E74" s="137"/>
       <c r="F74">
         <f t="shared" si="0"/>
         <v>2.8603523416638396E-3</v>
@@ -16323,15 +16330,15 @@
       <c r="I74" t="s">
         <v>24</v>
       </c>
-      <c r="J74" s="135" t="s">
+      <c r="J74" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K74" s="135"/>
-      <c r="L74" s="135" t="s">
+      <c r="K74" s="137"/>
+      <c r="L74" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="M74" s="135"/>
-      <c r="N74" s="135"/>
+      <c r="M74" s="137"/>
+      <c r="N74" s="137"/>
       <c r="O74">
         <f t="shared" si="1"/>
         <v>4.2258417294842544E-3</v>
@@ -16341,24 +16348,24 @@
       <c r="B75" t="s">
         <v>80</v>
       </c>
-      <c r="C75" s="135" t="s">
+      <c r="C75" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="D75" s="135"/>
-      <c r="E75" s="135"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="137"/>
       <c r="F75">
         <f t="shared" si="0"/>
         <v>-4.5919944974194991</v>
       </c>
-      <c r="J75" s="135" t="s">
+      <c r="J75" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K75" s="135"/>
-      <c r="L75" s="135" t="s">
+      <c r="K75" s="137"/>
+      <c r="L75" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="M75" s="135"/>
-      <c r="N75" s="135"/>
+      <c r="M75" s="137"/>
+      <c r="N75" s="137"/>
       <c r="O75">
         <f t="shared" si="1"/>
         <v>-2.7556843686786054</v>
@@ -16371,11 +16378,11 @@
       <c r="B76" t="s">
         <v>77</v>
       </c>
-      <c r="C76" s="135" t="s">
+      <c r="C76" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="D76" s="135"/>
-      <c r="E76" s="135"/>
+      <c r="D76" s="137"/>
+      <c r="E76" s="137"/>
       <c r="F76">
         <f t="shared" si="0"/>
         <v>6.1298930529517454E-3</v>
@@ -16383,15 +16390,15 @@
       <c r="I76" t="s">
         <v>25</v>
       </c>
-      <c r="J76" s="135" t="s">
+      <c r="J76" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K76" s="135"/>
-      <c r="L76" s="135" t="s">
+      <c r="K76" s="137"/>
+      <c r="L76" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="M76" s="135"/>
-      <c r="N76" s="135"/>
+      <c r="M76" s="137"/>
+      <c r="N76" s="137"/>
       <c r="O76">
         <f t="shared" si="1"/>
         <v>9.0432913599846117E-3</v>
@@ -16401,24 +16408,24 @@
       <c r="B77" t="s">
         <v>80</v>
       </c>
-      <c r="C77" s="135" t="s">
+      <c r="C77" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="D77" s="135"/>
-      <c r="E77" s="135"/>
+      <c r="D77" s="137"/>
+      <c r="E77" s="137"/>
       <c r="F77">
         <f t="shared" si="0"/>
         <v>-4.7528012216257505</v>
       </c>
-      <c r="J77" s="135" t="s">
+      <c r="J77" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K77" s="135"/>
-      <c r="L77" s="135" t="s">
+      <c r="K77" s="137"/>
+      <c r="L77" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="M77" s="135"/>
-      <c r="N77" s="135"/>
+      <c r="M77" s="137"/>
+      <c r="N77" s="137"/>
       <c r="O77">
         <f t="shared" si="1"/>
         <v>-2.9636833212768678</v>
@@ -16431,11 +16438,11 @@
       <c r="B78" t="s">
         <v>91</v>
       </c>
-      <c r="C78" s="135" t="s">
+      <c r="C78" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="D78" s="135"/>
-      <c r="E78" s="135"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="137"/>
       <c r="F78">
         <f t="shared" si="0"/>
         <v>9.444069309717102E-3</v>
@@ -16443,15 +16450,15 @@
       <c r="I78" t="s">
         <v>26</v>
       </c>
-      <c r="J78" s="135" t="s">
+      <c r="J78" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="K78" s="135"/>
-      <c r="L78" s="135" t="s">
+      <c r="K78" s="137"/>
+      <c r="L78" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="M78" s="135"/>
-      <c r="N78" s="135"/>
+      <c r="M78" s="137"/>
+      <c r="N78" s="137"/>
       <c r="O78">
         <f t="shared" si="1"/>
         <v>1.219887150194271E-2</v>
@@ -16461,71 +16468,71 @@
       <c r="B79" t="s">
         <v>80</v>
       </c>
-      <c r="C79" s="135" t="s">
+      <c r="C79" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="D79" s="135"/>
-      <c r="E79" s="135"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="137"/>
       <c r="F79">
         <f t="shared" si="0"/>
         <v>-6.2943437249940519</v>
       </c>
-      <c r="J79" s="135" t="s">
+      <c r="J79" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K79" s="135"/>
-      <c r="L79" s="135" t="s">
+      <c r="K79" s="137"/>
+      <c r="L79" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="M79" s="135"/>
-      <c r="N79" s="135"/>
+      <c r="M79" s="137"/>
+      <c r="N79" s="137"/>
       <c r="O79">
         <f t="shared" si="1"/>
         <v>-4.1042759821746939</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A80" s="137" t="s">
+      <c r="A80" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="B80" s="137"/>
-      <c r="C80" s="137"/>
-      <c r="D80" s="137"/>
-      <c r="E80" s="137"/>
-      <c r="F80" s="137"/>
-      <c r="I80" s="137" t="s">
+      <c r="B80" s="145"/>
+      <c r="C80" s="145"/>
+      <c r="D80" s="145"/>
+      <c r="E80" s="145"/>
+      <c r="F80" s="145"/>
+      <c r="I80" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="J80" s="137"/>
-      <c r="K80" s="137"/>
-      <c r="L80" s="137"/>
-      <c r="M80" s="137"/>
-      <c r="N80" s="137"/>
-      <c r="O80" s="137"/>
+      <c r="J80" s="145"/>
+      <c r="K80" s="145"/>
+      <c r="L80" s="145"/>
+      <c r="M80" s="145"/>
+      <c r="N80" s="145"/>
+      <c r="O80" s="145"/>
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B81" s="138" t="s">
+      <c r="B81" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C81" s="138"/>
-      <c r="D81" s="138"/>
-      <c r="E81" s="138"/>
+      <c r="C81" s="136"/>
+      <c r="D81" s="136"/>
+      <c r="E81" s="136"/>
       <c r="F81" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J81" s="138" t="s">
+      <c r="J81" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="K81" s="138"/>
-      <c r="L81" s="138"/>
-      <c r="M81" s="138"/>
-      <c r="N81" s="138"/>
+      <c r="K81" s="136"/>
+      <c r="L81" s="136"/>
+      <c r="M81" s="136"/>
+      <c r="N81" s="136"/>
       <c r="O81" s="2" t="s">
         <v>159</v>
       </c>
@@ -16534,12 +16541,12 @@
       <c r="A82" t="s">
         <v>23</v>
       </c>
-      <c r="B82" s="135" t="s">
+      <c r="B82" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="C82" s="135"/>
-      <c r="D82" s="135"/>
-      <c r="E82" s="135"/>
+      <c r="C82" s="137"/>
+      <c r="D82" s="137"/>
+      <c r="E82" s="137"/>
       <c r="F82">
         <f>Q19*F64</f>
         <v>-4.3310264340731548</v>
@@ -16547,13 +16554,13 @@
       <c r="I82" t="s">
         <v>23</v>
       </c>
-      <c r="J82" s="135" t="s">
+      <c r="J82" s="137" t="s">
         <v>179</v>
       </c>
-      <c r="K82" s="135"/>
-      <c r="L82" s="135"/>
-      <c r="M82" s="135"/>
-      <c r="N82" s="135"/>
+      <c r="K82" s="137"/>
+      <c r="L82" s="137"/>
+      <c r="M82" s="137"/>
+      <c r="N82" s="137"/>
       <c r="O82">
         <f>Q19*O64</f>
         <v>-2.7504653511393093</v>
@@ -16563,12 +16570,12 @@
       <c r="A83" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="135" t="s">
+      <c r="B83" s="137" t="s">
         <v>180</v>
       </c>
-      <c r="C83" s="135"/>
-      <c r="D83" s="135"/>
-      <c r="E83" s="135"/>
+      <c r="C83" s="137"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="137"/>
       <c r="F83">
         <f>Q20*F65</f>
         <v>-4.5891341450778347</v>
@@ -16576,13 +16583,13 @@
       <c r="I83" t="s">
         <v>24</v>
       </c>
-      <c r="J83" s="135" t="s">
+      <c r="J83" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="K83" s="135"/>
-      <c r="L83" s="135"/>
-      <c r="M83" s="135"/>
-      <c r="N83" s="135"/>
+      <c r="K83" s="137"/>
+      <c r="L83" s="137"/>
+      <c r="M83" s="137"/>
+      <c r="N83" s="137"/>
       <c r="O83">
         <f>Q20*O65</f>
         <v>-2.7514585269491212</v>
@@ -16592,12 +16599,12 @@
       <c r="A84" t="s">
         <v>25</v>
       </c>
-      <c r="B84" s="135" t="s">
+      <c r="B84" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="C84" s="135"/>
-      <c r="D84" s="135"/>
-      <c r="E84" s="135"/>
+      <c r="C84" s="137"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="137"/>
       <c r="F84">
         <f>Q21*F66</f>
         <v>-4.7466713285727993</v>
@@ -16605,13 +16612,13 @@
       <c r="I84" t="s">
         <v>25</v>
       </c>
-      <c r="J84" s="135" t="s">
+      <c r="J84" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="K84" s="135"/>
-      <c r="L84" s="135"/>
-      <c r="M84" s="135"/>
-      <c r="N84" s="135"/>
+      <c r="K84" s="137"/>
+      <c r="L84" s="137"/>
+      <c r="M84" s="137"/>
+      <c r="N84" s="137"/>
       <c r="O84">
         <f>Q21*O66</f>
         <v>-2.9546400299168831</v>
@@ -16621,12 +16628,12 @@
       <c r="A85" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="135" t="s">
+      <c r="B85" s="137" t="s">
         <v>184</v>
       </c>
-      <c r="C85" s="135"/>
-      <c r="D85" s="135"/>
-      <c r="E85" s="135"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
       <c r="F85">
         <f>Q22*F67</f>
         <v>-6.2848996556843355</v>
@@ -16634,62 +16641,62 @@
       <c r="I85" t="s">
         <v>26</v>
       </c>
-      <c r="J85" s="135" t="s">
+      <c r="J85" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="K85" s="135"/>
-      <c r="L85" s="135"/>
-      <c r="M85" s="135"/>
-      <c r="N85" s="135"/>
+      <c r="K85" s="137"/>
+      <c r="L85" s="137"/>
+      <c r="M85" s="137"/>
+      <c r="N85" s="137"/>
       <c r="O85">
         <f>Q22*O67</f>
         <v>-4.0920771106727516</v>
       </c>
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A88" s="142" t="s">
+      <c r="A88" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="B88" s="142"/>
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="142"/>
-      <c r="I88" s="142"/>
-      <c r="J88" s="142"/>
-      <c r="K88" s="142"/>
-      <c r="L88" s="142"/>
-      <c r="M88" s="142"/>
-      <c r="N88" s="142"/>
-      <c r="O88" s="142"/>
+      <c r="B88" s="144"/>
+      <c r="C88" s="144"/>
+      <c r="D88" s="144"/>
+      <c r="E88" s="144"/>
+      <c r="F88" s="144"/>
+      <c r="G88" s="144"/>
+      <c r="H88" s="144"/>
+      <c r="I88" s="144"/>
+      <c r="J88" s="144"/>
+      <c r="K88" s="144"/>
+      <c r="L88" s="144"/>
+      <c r="M88" s="144"/>
+      <c r="N88" s="144"/>
+      <c r="O88" s="144"/>
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A89" s="137" t="s">
+      <c r="A89" s="145" t="s">
         <v>142</v>
       </c>
-      <c r="B89" s="137"/>
-      <c r="C89" s="137"/>
-      <c r="D89" s="137"/>
-      <c r="E89" s="137"/>
-      <c r="F89" s="137"/>
-      <c r="I89" s="137" t="s">
+      <c r="B89" s="145"/>
+      <c r="C89" s="145"/>
+      <c r="D89" s="145"/>
+      <c r="E89" s="145"/>
+      <c r="F89" s="145"/>
+      <c r="I89" s="145" t="s">
         <v>143</v>
       </c>
-      <c r="J89" s="137"/>
-      <c r="K89" s="137"/>
-      <c r="L89" s="137"/>
-      <c r="M89" s="137"/>
-      <c r="N89" s="137"/>
-      <c r="O89" s="137"/>
-      <c r="R89" s="141" t="s">
+      <c r="J89" s="145"/>
+      <c r="K89" s="145"/>
+      <c r="L89" s="145"/>
+      <c r="M89" s="145"/>
+      <c r="N89" s="145"/>
+      <c r="O89" s="145"/>
+      <c r="R89" s="140" t="s">
         <v>187</v>
       </c>
-      <c r="S89" s="141"/>
-      <c r="T89" s="141"/>
-      <c r="U89" s="141"/>
-      <c r="V89" s="141"/>
+      <c r="S89" s="140"/>
+      <c r="T89" s="140"/>
+      <c r="U89" s="140"/>
+      <c r="V89" s="140"/>
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
@@ -16698,36 +16705,36 @@
       <c r="B90" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C90" s="138" t="s">
+      <c r="C90" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="D90" s="138"/>
-      <c r="E90" s="138"/>
+      <c r="D90" s="136"/>
+      <c r="E90" s="136"/>
       <c r="F90" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J90" s="138" t="s">
+      <c r="J90" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="K90" s="138"/>
-      <c r="L90" s="138" t="s">
+      <c r="K90" s="136"/>
+      <c r="L90" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="M90" s="138"/>
-      <c r="N90" s="138"/>
+      <c r="M90" s="136"/>
+      <c r="N90" s="136"/>
       <c r="O90" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R90" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S90" s="138" t="s">
+      <c r="S90" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="T90" s="138"/>
+      <c r="T90" s="136"/>
       <c r="U90" s="2" t="s">
         <v>46</v>
       </c>
@@ -16742,11 +16749,11 @@
       <c r="B91" t="s">
         <v>77</v>
       </c>
-      <c r="C91" s="135" t="s">
+      <c r="C91" s="137" t="s">
         <v>188</v>
       </c>
-      <c r="D91" s="135"/>
-      <c r="E91" s="135"/>
+      <c r="D91" s="137"/>
+      <c r="E91" s="137"/>
       <c r="F91">
         <f>(U98*U91)/(1-U105)</f>
         <v>2.9654809037870895E-2</v>
@@ -16754,15 +16761,15 @@
       <c r="I91" t="s">
         <v>23</v>
       </c>
-      <c r="J91" s="135" t="s">
+      <c r="J91" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K91" s="135"/>
-      <c r="L91" s="135" t="s">
+      <c r="K91" s="137"/>
+      <c r="L91" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="M91" s="135"/>
-      <c r="N91" s="135"/>
+      <c r="M91" s="137"/>
+      <c r="N91" s="137"/>
       <c r="O91">
         <f>F91+U91</f>
         <v>6.7576886959948818E-2</v>
@@ -16770,10 +16777,10 @@
       <c r="R91" t="s">
         <v>23</v>
       </c>
-      <c r="S91" s="135" t="s">
+      <c r="S91" s="137" t="s">
         <v>189</v>
       </c>
-      <c r="T91" s="135"/>
+      <c r="T91" s="137"/>
       <c r="U91">
         <f>1/(Arrivi!H31+Arrivi!H30)</f>
         <v>3.7922077922077919E-2</v>
@@ -16787,24 +16794,24 @@
       <c r="B92" t="s">
         <v>80</v>
       </c>
-      <c r="C92" s="135" t="s">
+      <c r="C92" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="D92" s="135"/>
-      <c r="E92" s="135"/>
+      <c r="D92" s="137"/>
+      <c r="E92" s="137"/>
       <c r="F92">
         <f>(U98*U91)/((1-U105)*(1-U98))</f>
         <v>0.13567194887554843</v>
       </c>
-      <c r="J92" s="135" t="s">
+      <c r="J92" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K92" s="135"/>
-      <c r="L92" s="135" t="s">
+      <c r="K92" s="137"/>
+      <c r="L92" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="M92" s="135"/>
-      <c r="N92" s="135"/>
+      <c r="M92" s="137"/>
+      <c r="N92" s="137"/>
       <c r="O92">
         <f>F92+U91</f>
         <v>0.17359402679762634</v>
@@ -16812,10 +16819,10 @@
       <c r="R92" t="s">
         <v>24</v>
       </c>
-      <c r="S92" s="135" t="s">
+      <c r="S92" s="137" t="s">
         <v>191</v>
       </c>
-      <c r="T92" s="135"/>
+      <c r="T92" s="137"/>
       <c r="U92">
         <f>1/(Arrivi!H33+Arrivi!H34)</f>
         <v>6.0671542553191488E-2</v>
@@ -16832,11 +16839,11 @@
       <c r="B93" t="s">
         <v>77</v>
       </c>
-      <c r="C93" s="135" t="s">
+      <c r="C93" s="137" t="s">
         <v>188</v>
       </c>
-      <c r="D93" s="135"/>
-      <c r="E93" s="135"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="137"/>
       <c r="F93">
         <f>(U99*U92)/(1-U107)</f>
         <v>4.8060713119710698E-2</v>
@@ -16844,15 +16851,15 @@
       <c r="I93" t="s">
         <v>24</v>
       </c>
-      <c r="J93" s="135" t="s">
+      <c r="J93" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K93" s="135"/>
-      <c r="L93" s="135" t="s">
+      <c r="K93" s="137"/>
+      <c r="L93" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="M93" s="135"/>
-      <c r="N93" s="135"/>
+      <c r="M93" s="137"/>
+      <c r="N93" s="137"/>
       <c r="O93">
         <f>F93+U92</f>
         <v>0.10873225567290218</v>
@@ -16860,10 +16867,10 @@
       <c r="R93" t="s">
         <v>25</v>
       </c>
-      <c r="S93" s="135" t="s">
+      <c r="S93" s="137" t="s">
         <v>192</v>
       </c>
-      <c r="T93" s="135"/>
+      <c r="T93" s="137"/>
       <c r="U93">
         <f>1/(Arrivi!H36+Arrivi!H37)</f>
         <v>0.19466666666666668</v>
@@ -16877,24 +16884,24 @@
       <c r="B94" t="s">
         <v>80</v>
       </c>
-      <c r="C94" s="135" t="s">
+      <c r="C94" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="D94" s="135"/>
-      <c r="E94" s="135"/>
+      <c r="D94" s="137"/>
+      <c r="E94" s="137"/>
       <c r="F94">
         <f>(U99*U92)/((1-U107)*(1-U99))</f>
         <v>0.23070608103349363</v>
       </c>
-      <c r="J94" s="135" t="s">
+      <c r="J94" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K94" s="135"/>
-      <c r="L94" s="135" t="s">
+      <c r="K94" s="137"/>
+      <c r="L94" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="M94" s="135"/>
-      <c r="N94" s="135"/>
+      <c r="M94" s="137"/>
+      <c r="N94" s="137"/>
       <c r="O94">
         <f>F94+U92</f>
         <v>0.29137762358668512</v>
@@ -16902,10 +16909,10 @@
       <c r="R94" t="s">
         <v>26</v>
       </c>
-      <c r="S94" s="135" t="s">
+      <c r="S94" s="137" t="s">
         <v>193</v>
       </c>
-      <c r="T94" s="135"/>
+      <c r="T94" s="137"/>
       <c r="U94">
         <f>1/(Arrivi!H39+Arrivi!H40)</f>
         <v>0.72709163346613537</v>
@@ -16922,11 +16929,11 @@
       <c r="B95" t="s">
         <v>77</v>
       </c>
-      <c r="C95" s="135" t="s">
+      <c r="C95" s="137" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="135"/>
-      <c r="E95" s="135"/>
+      <c r="D95" s="137"/>
+      <c r="E95" s="137"/>
       <c r="F95">
         <f>(U100*U93)/(1-U109)</f>
         <v>0.14662132696261998</v>
@@ -16934,15 +16941,15 @@
       <c r="I95" t="s">
         <v>25</v>
       </c>
-      <c r="J95" s="135" t="s">
+      <c r="J95" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K95" s="135"/>
-      <c r="L95" s="135" t="s">
+      <c r="K95" s="137"/>
+      <c r="L95" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="M95" s="135"/>
-      <c r="N95" s="135"/>
+      <c r="M95" s="137"/>
+      <c r="N95" s="137"/>
       <c r="O95">
         <f>F95+U93</f>
         <v>0.34128799362928663</v>
@@ -16952,24 +16959,24 @@
       <c r="B96" t="s">
         <v>80</v>
       </c>
-      <c r="C96" s="135" t="s">
+      <c r="C96" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="D96" s="135"/>
-      <c r="E96" s="135"/>
+      <c r="D96" s="137"/>
+      <c r="E96" s="137"/>
       <c r="F96">
         <f>(U100*U93)/((1-U109)*(1-U100))</f>
         <v>0.59186080204660962</v>
       </c>
-      <c r="J96" s="135" t="s">
+      <c r="J96" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K96" s="135"/>
-      <c r="L96" s="135" t="s">
+      <c r="K96" s="137"/>
+      <c r="L96" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="M96" s="135"/>
-      <c r="N96" s="135"/>
+      <c r="M96" s="137"/>
+      <c r="N96" s="137"/>
       <c r="O96">
         <f>F96+U93</f>
         <v>0.78652746871327628</v>
@@ -16982,11 +16989,11 @@
       <c r="B97" t="s">
         <v>91</v>
       </c>
-      <c r="C97" s="135" t="s">
+      <c r="C97" s="137" t="s">
         <v>188</v>
       </c>
-      <c r="D97" s="135"/>
-      <c r="E97" s="135"/>
+      <c r="D97" s="137"/>
+      <c r="E97" s="137"/>
       <c r="F97">
         <f>(U101*U94)/(1-U111)</f>
         <v>0.55323897499522867</v>
@@ -16994,48 +17001,48 @@
       <c r="I97" t="s">
         <v>26</v>
       </c>
-      <c r="J97" s="135" t="s">
+      <c r="J97" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="K97" s="135"/>
-      <c r="L97" s="135" t="s">
+      <c r="K97" s="137"/>
+      <c r="L97" s="137" t="s">
         <v>148</v>
       </c>
-      <c r="M97" s="135"/>
-      <c r="N97" s="135"/>
+      <c r="M97" s="137"/>
+      <c r="N97" s="137"/>
       <c r="O97">
         <f>F97+U93</f>
         <v>0.74790564166189533</v>
       </c>
-      <c r="R97" s="140" t="s">
+      <c r="R97" s="141" t="s">
         <v>128</v>
       </c>
-      <c r="S97" s="140"/>
-      <c r="T97" s="140"/>
-      <c r="U97" s="140"/>
+      <c r="S97" s="141"/>
+      <c r="T97" s="141"/>
+      <c r="U97" s="141"/>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>80</v>
       </c>
-      <c r="C98" s="135" t="s">
+      <c r="C98" s="137" t="s">
         <v>190</v>
       </c>
-      <c r="D98" s="135"/>
-      <c r="E98" s="135"/>
+      <c r="D98" s="137"/>
+      <c r="E98" s="137"/>
       <c r="F98">
         <f>(U101*U94)/((1-U111)*(1-U101))</f>
         <v>2.3067619058366273</v>
       </c>
-      <c r="J98" s="135" t="s">
+      <c r="J98" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K98" s="135"/>
-      <c r="L98" s="135" t="s">
+      <c r="K98" s="137"/>
+      <c r="L98" s="137" t="s">
         <v>150</v>
       </c>
-      <c r="M98" s="135"/>
-      <c r="N98" s="135"/>
+      <c r="M98" s="137"/>
+      <c r="N98" s="137"/>
       <c r="O98">
         <f>F98+U94</f>
         <v>3.0338535393027626</v>
@@ -17043,40 +17050,40 @@
       <c r="R98" t="s">
         <v>23</v>
       </c>
-      <c r="S98" s="139" t="s">
+      <c r="S98" s="143" t="s">
         <v>130</v>
       </c>
-      <c r="T98" s="139"/>
+      <c r="T98" s="143"/>
       <c r="U98">
         <f>Q19*U91</f>
         <v>0.7814226943472804</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A99" s="137" t="s">
+      <c r="A99" s="145" t="s">
         <v>152</v>
       </c>
-      <c r="B99" s="137"/>
-      <c r="C99" s="137"/>
-      <c r="D99" s="137"/>
-      <c r="E99" s="137"/>
-      <c r="F99" s="137"/>
-      <c r="I99" s="137" t="s">
+      <c r="B99" s="145"/>
+      <c r="C99" s="145"/>
+      <c r="D99" s="145"/>
+      <c r="E99" s="145"/>
+      <c r="F99" s="145"/>
+      <c r="I99" s="145" t="s">
         <v>153</v>
       </c>
-      <c r="J99" s="137"/>
-      <c r="K99" s="137"/>
-      <c r="L99" s="137"/>
-      <c r="M99" s="137"/>
-      <c r="N99" s="137"/>
-      <c r="O99" s="137"/>
+      <c r="J99" s="145"/>
+      <c r="K99" s="145"/>
+      <c r="L99" s="145"/>
+      <c r="M99" s="145"/>
+      <c r="N99" s="145"/>
+      <c r="O99" s="145"/>
       <c r="R99" t="s">
         <v>24</v>
       </c>
-      <c r="S99" s="139" t="s">
+      <c r="S99" s="143" t="s">
         <v>132</v>
       </c>
-      <c r="T99" s="139"/>
+      <c r="T99" s="143"/>
       <c r="U99">
         <f>Q20*U92</f>
         <v>0.79167990325866922</v>
@@ -17086,35 +17093,35 @@
       <c r="A100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="138" t="s">
+      <c r="B100" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="138"/>
-      <c r="D100" s="138"/>
-      <c r="E100" s="138"/>
+      <c r="C100" s="136"/>
+      <c r="D100" s="136"/>
+      <c r="E100" s="136"/>
       <c r="F100" s="2" t="s">
         <v>145</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J100" s="138" t="s">
+      <c r="J100" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="K100" s="138"/>
-      <c r="L100" s="138"/>
-      <c r="M100" s="138"/>
-      <c r="N100" s="138"/>
+      <c r="K100" s="136"/>
+      <c r="L100" s="136"/>
+      <c r="M100" s="136"/>
+      <c r="N100" s="136"/>
       <c r="O100" s="2" t="s">
         <v>146</v>
       </c>
       <c r="R100" t="s">
         <v>25</v>
       </c>
-      <c r="S100" s="139" t="s">
+      <c r="S100" s="143" t="s">
         <v>133</v>
       </c>
-      <c r="T100" s="139"/>
+      <c r="T100" s="143"/>
       <c r="U100">
         <f>Q21*U93</f>
         <v>0.75227059055843104</v>
@@ -17124,12 +17131,12 @@
       <c r="A101" t="s">
         <v>23</v>
       </c>
-      <c r="B101" s="135" t="s">
+      <c r="B101" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C101" s="135"/>
-      <c r="D101" s="135"/>
-      <c r="E101" s="135"/>
+      <c r="C101" s="137"/>
+      <c r="D101" s="137"/>
+      <c r="E101" s="137"/>
       <c r="F101">
         <f>T105*F91+T106*F92</f>
         <v>0.13557295994946283</v>
@@ -17137,13 +17144,13 @@
       <c r="I101" t="s">
         <v>23</v>
       </c>
-      <c r="J101" s="135" t="s">
+      <c r="J101" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="K101" s="135"/>
-      <c r="L101" s="135"/>
-      <c r="M101" s="135"/>
-      <c r="N101" s="135"/>
+      <c r="K101" s="137"/>
+      <c r="L101" s="137"/>
+      <c r="M101" s="137"/>
+      <c r="N101" s="137"/>
       <c r="O101">
         <f>T105*O91+T106*O92</f>
         <v>0.17349503787154075</v>
@@ -17151,10 +17158,10 @@
       <c r="R101" t="s">
         <v>26</v>
       </c>
-      <c r="S101" s="139" t="s">
+      <c r="S101" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="T101" s="139"/>
+      <c r="T101" s="143"/>
       <c r="U101">
         <f>Q22*U94</f>
         <v>0.76016641613709268</v>
@@ -17164,12 +17171,12 @@
       <c r="A102" t="s">
         <v>24</v>
       </c>
-      <c r="B102" s="135" t="s">
+      <c r="B102" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C102" s="135"/>
-      <c r="D102" s="135"/>
-      <c r="E102" s="135"/>
+      <c r="C102" s="137"/>
+      <c r="D102" s="137"/>
+      <c r="E102" s="137"/>
       <c r="F102">
         <f>T107*F93+T108*F94</f>
         <v>0.23057036594364833</v>
@@ -17177,13 +17184,13 @@
       <c r="I102" t="s">
         <v>24</v>
       </c>
-      <c r="J102" s="135" t="s">
+      <c r="J102" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="K102" s="135"/>
-      <c r="L102" s="135"/>
-      <c r="M102" s="135"/>
-      <c r="N102" s="135"/>
+      <c r="K102" s="137"/>
+      <c r="L102" s="137"/>
+      <c r="M102" s="137"/>
+      <c r="N102" s="137"/>
       <c r="O102">
         <f>T107*O93+T108*O94</f>
         <v>0.29124190849683984</v>
@@ -17193,12 +17200,12 @@
       <c r="A103" t="s">
         <v>25</v>
       </c>
-      <c r="B103" s="135" t="s">
+      <c r="B103" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C103" s="135"/>
-      <c r="D103" s="135"/>
-      <c r="E103" s="135"/>
+      <c r="C103" s="137"/>
+      <c r="D103" s="137"/>
+      <c r="E103" s="137"/>
       <c r="F103">
         <f>T109*F95+T110*F96</f>
         <v>0.59113695311946934</v>
@@ -17206,34 +17213,34 @@
       <c r="I103" t="s">
         <v>25</v>
       </c>
-      <c r="J103" s="135" t="s">
+      <c r="J103" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="K103" s="135"/>
-      <c r="L103" s="135"/>
-      <c r="M103" s="135"/>
-      <c r="N103" s="135"/>
+      <c r="K103" s="137"/>
+      <c r="L103" s="137"/>
+      <c r="M103" s="137"/>
+      <c r="N103" s="137"/>
       <c r="O103">
         <f>T109*O95+T110*O96</f>
         <v>0.785803619786136</v>
       </c>
-      <c r="R103" s="140" t="s">
+      <c r="R103" s="141" t="s">
         <v>135</v>
       </c>
-      <c r="S103" s="140"/>
-      <c r="T103" s="140"/>
-      <c r="U103" s="140"/>
+      <c r="S103" s="141"/>
+      <c r="T103" s="141"/>
+      <c r="U103" s="141"/>
     </row>
     <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>26</v>
       </c>
-      <c r="B104" s="135" t="s">
+      <c r="B104" s="137" t="s">
         <v>154</v>
       </c>
-      <c r="C104" s="135"/>
-      <c r="D104" s="135"/>
-      <c r="E104" s="135"/>
+      <c r="C104" s="137"/>
+      <c r="D104" s="137"/>
+      <c r="E104" s="137"/>
       <c r="F104">
         <f>T111*F97+T112*F98</f>
         <v>2.3045589875818013</v>
@@ -17241,13 +17248,13 @@
       <c r="I104" t="s">
         <v>26</v>
       </c>
-      <c r="J104" s="135" t="s">
+      <c r="J104" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="K104" s="135"/>
-      <c r="L104" s="135"/>
-      <c r="M104" s="135"/>
-      <c r="N104" s="135"/>
+      <c r="K104" s="137"/>
+      <c r="L104" s="137"/>
+      <c r="M104" s="137"/>
+      <c r="N104" s="137"/>
       <c r="O104">
         <f>T111*O97+T112*O98</f>
         <v>3.0309817454615051</v>
@@ -17295,23 +17302,23 @@
       </c>
     </row>
     <row r="107" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A107" s="137" t="s">
+      <c r="A107" s="145" t="s">
         <v>156</v>
       </c>
-      <c r="B107" s="137"/>
-      <c r="C107" s="137"/>
-      <c r="D107" s="137"/>
-      <c r="E107" s="137"/>
-      <c r="F107" s="137"/>
-      <c r="I107" s="137" t="s">
+      <c r="B107" s="145"/>
+      <c r="C107" s="145"/>
+      <c r="D107" s="145"/>
+      <c r="E107" s="145"/>
+      <c r="F107" s="145"/>
+      <c r="I107" s="145" t="s">
         <v>157</v>
       </c>
-      <c r="J107" s="137"/>
-      <c r="K107" s="137"/>
-      <c r="L107" s="137"/>
-      <c r="M107" s="137"/>
-      <c r="N107" s="137"/>
-      <c r="O107" s="137"/>
+      <c r="J107" s="145"/>
+      <c r="K107" s="145"/>
+      <c r="L107" s="145"/>
+      <c r="M107" s="145"/>
+      <c r="N107" s="145"/>
+      <c r="O107" s="145"/>
       <c r="R107" t="s">
         <v>24</v>
       </c>
@@ -17334,26 +17341,26 @@
       <c r="B108" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C108" s="138" t="s">
+      <c r="C108" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="D108" s="138"/>
-      <c r="E108" s="138"/>
+      <c r="D108" s="136"/>
+      <c r="E108" s="136"/>
       <c r="F108" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J108" s="138" t="s">
+      <c r="J108" s="136" t="s">
         <v>144</v>
       </c>
-      <c r="K108" s="138"/>
-      <c r="L108" s="138" t="s">
+      <c r="K108" s="136"/>
+      <c r="L108" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="M108" s="138"/>
-      <c r="N108" s="138"/>
+      <c r="M108" s="136"/>
+      <c r="N108" s="136"/>
       <c r="O108" s="2" t="s">
         <v>159</v>
       </c>
@@ -17376,11 +17383,11 @@
       <c r="B109" t="s">
         <v>77</v>
       </c>
-      <c r="C109" s="135" t="s">
+      <c r="C109" s="137" t="s">
         <v>160</v>
       </c>
-      <c r="D109" s="135"/>
-      <c r="E109" s="135"/>
+      <c r="D109" s="137"/>
+      <c r="E109" s="137"/>
       <c r="F109" s="4">
         <f t="shared" ref="F109:F116" si="2">P10*F91</f>
         <v>5.7055767876712049E-4</v>
@@ -17388,15 +17395,15 @@
       <c r="I109" t="s">
         <v>23</v>
       </c>
-      <c r="J109" s="135" t="s">
+      <c r="J109" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K109" s="135"/>
-      <c r="L109" s="135" t="s">
+      <c r="K109" s="137"/>
+      <c r="L109" s="137" t="s">
         <v>161</v>
       </c>
-      <c r="M109" s="135"/>
-      <c r="N109" s="135"/>
+      <c r="M109" s="137"/>
+      <c r="N109" s="137"/>
       <c r="O109">
         <f t="shared" ref="O109:O116" si="3">P10*O91</f>
         <v>1.3001773747029566E-3</v>
@@ -17420,24 +17427,24 @@
       <c r="B110" t="s">
         <v>80</v>
       </c>
-      <c r="C110" s="135" t="s">
+      <c r="C110" s="137" t="s">
         <v>162</v>
       </c>
-      <c r="D110" s="135"/>
-      <c r="E110" s="135"/>
+      <c r="D110" s="137"/>
+      <c r="E110" s="137"/>
       <c r="F110" s="4">
         <f t="shared" si="2"/>
         <v>2.7930471302029383</v>
       </c>
-      <c r="J110" s="135" t="s">
+      <c r="J110" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K110" s="135"/>
-      <c r="L110" s="135" t="s">
+      <c r="K110" s="137"/>
+      <c r="L110" s="137" t="s">
         <v>163</v>
       </c>
-      <c r="M110" s="135"/>
-      <c r="N110" s="135"/>
+      <c r="M110" s="137"/>
+      <c r="N110" s="137"/>
       <c r="O110">
         <f t="shared" si="3"/>
         <v>3.5737402048542828</v>
@@ -17461,11 +17468,11 @@
       <c r="B111" t="s">
         <v>77</v>
       </c>
-      <c r="C111" s="135" t="s">
+      <c r="C111" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="D111" s="135"/>
-      <c r="E111" s="135"/>
+      <c r="D111" s="137"/>
+      <c r="E111" s="137"/>
       <c r="F111" s="4">
         <f t="shared" si="2"/>
         <v>4.6598750346657741E-4</v>
@@ -17473,15 +17480,15 @@
       <c r="I111" t="s">
         <v>24</v>
       </c>
-      <c r="J111" s="135" t="s">
+      <c r="J111" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K111" s="135"/>
-      <c r="L111" s="135" t="s">
+      <c r="K111" s="137"/>
+      <c r="L111" s="137" t="s">
         <v>165</v>
       </c>
-      <c r="M111" s="135"/>
-      <c r="N111" s="135"/>
+      <c r="M111" s="137"/>
+      <c r="N111" s="137"/>
       <c r="O111">
         <f t="shared" si="3"/>
         <v>1.0542472027225359E-3</v>
@@ -17505,24 +17512,24 @@
       <c r="B112" t="s">
         <v>80</v>
       </c>
-      <c r="C112" s="135" t="s">
+      <c r="C112" s="137" t="s">
         <v>166</v>
       </c>
-      <c r="D112" s="135"/>
-      <c r="E112" s="135"/>
+      <c r="D112" s="137"/>
+      <c r="E112" s="137"/>
       <c r="F112" s="4">
         <f t="shared" si="2"/>
         <v>3.0081590996953671</v>
       </c>
-      <c r="J112" s="135" t="s">
+      <c r="J112" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K112" s="135"/>
-      <c r="L112" s="135" t="s">
+      <c r="K112" s="137"/>
+      <c r="L112" s="137" t="s">
         <v>167</v>
       </c>
-      <c r="M112" s="135"/>
-      <c r="N112" s="135"/>
+      <c r="M112" s="137"/>
+      <c r="N112" s="137"/>
       <c r="O112">
         <f t="shared" si="3"/>
         <v>3.7992507432547802</v>
@@ -17546,11 +17553,11 @@
       <c r="B113" t="s">
         <v>77</v>
       </c>
-      <c r="C113" s="135" t="s">
+      <c r="C113" s="137" t="s">
         <v>168</v>
       </c>
-      <c r="D113" s="135"/>
-      <c r="E113" s="135"/>
+      <c r="D113" s="137"/>
+      <c r="E113" s="137"/>
       <c r="F113" s="4">
         <f t="shared" si="2"/>
         <v>9.2115753721939855E-4</v>
@@ -17558,15 +17565,15 @@
       <c r="I113" t="s">
         <v>25</v>
       </c>
-      <c r="J113" s="135" t="s">
+      <c r="J113" s="137" t="s">
         <v>77</v>
       </c>
-      <c r="K113" s="135"/>
-      <c r="L113" s="135" t="s">
+      <c r="K113" s="137"/>
+      <c r="L113" s="137" t="s">
         <v>169</v>
       </c>
-      <c r="M113" s="135"/>
-      <c r="N113" s="135"/>
+      <c r="M113" s="137"/>
+      <c r="N113" s="137"/>
       <c r="O113">
         <f t="shared" si="3"/>
         <v>2.1441628868510533E-3</v>
@@ -17576,24 +17583,24 @@
       <c r="B114" t="s">
         <v>80</v>
       </c>
-      <c r="C114" s="135" t="s">
+      <c r="C114" s="137" t="s">
         <v>170</v>
       </c>
-      <c r="D114" s="135"/>
-      <c r="E114" s="135"/>
+      <c r="D114" s="137"/>
+      <c r="E114" s="137"/>
       <c r="F114" s="4">
         <f t="shared" si="2"/>
         <v>2.2834706823125823</v>
       </c>
-      <c r="J114" s="135" t="s">
+      <c r="J114" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K114" s="135"/>
-      <c r="L114" s="135" t="s">
+      <c r="K114" s="137"/>
+      <c r="L114" s="137" t="s">
         <v>171</v>
       </c>
-      <c r="M114" s="135"/>
-      <c r="N114" s="135"/>
+      <c r="M114" s="137"/>
+      <c r="N114" s="137"/>
       <c r="O114">
         <f t="shared" si="3"/>
         <v>3.0345182675213818</v>
@@ -17606,11 +17613,11 @@
       <c r="B115" t="s">
         <v>91</v>
       </c>
-      <c r="C115" s="135" t="s">
+      <c r="C115" s="137" t="s">
         <v>172</v>
       </c>
-      <c r="D115" s="135"/>
-      <c r="E115" s="135"/>
+      <c r="D115" s="137"/>
+      <c r="E115" s="137"/>
       <c r="F115" s="4">
         <f t="shared" si="2"/>
         <v>7.2663988374241004E-4</v>
@@ -17618,15 +17625,15 @@
       <c r="I115" t="s">
         <v>26</v>
       </c>
-      <c r="J115" s="135" t="s">
+      <c r="J115" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="K115" s="135"/>
-      <c r="L115" s="135" t="s">
+      <c r="K115" s="137"/>
+      <c r="L115" s="137" t="s">
         <v>173</v>
       </c>
-      <c r="M115" s="135"/>
-      <c r="N115" s="135"/>
+      <c r="M115" s="137"/>
+      <c r="N115" s="137"/>
       <c r="O115">
         <f t="shared" si="3"/>
         <v>9.823206481650703E-4</v>
@@ -17636,51 +17643,51 @@
       <c r="B116" t="s">
         <v>80</v>
       </c>
-      <c r="C116" s="135" t="s">
+      <c r="C116" s="137" t="s">
         <v>174</v>
       </c>
-      <c r="D116" s="135"/>
-      <c r="E116" s="135"/>
+      <c r="D116" s="137"/>
+      <c r="E116" s="137"/>
       <c r="F116" s="4">
         <f t="shared" si="2"/>
         <v>2.4086647844341362</v>
       </c>
-      <c r="J116" s="135" t="s">
+      <c r="J116" s="137" t="s">
         <v>80</v>
       </c>
-      <c r="K116" s="135"/>
-      <c r="L116" s="135" t="s">
+      <c r="K116" s="137"/>
+      <c r="L116" s="137" t="s">
         <v>175</v>
       </c>
-      <c r="M116" s="135"/>
-      <c r="N116" s="135"/>
+      <c r="M116" s="137"/>
+      <c r="N116" s="137"/>
       <c r="O116">
         <f t="shared" si="3"/>
         <v>3.1678762176363828</v>
       </c>
-      <c r="S116" s="136" t="s">
+      <c r="S116" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="T116" s="136"/>
+      <c r="T116" s="146"/>
     </row>
     <row r="117" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A117" s="137" t="s">
+      <c r="A117" s="145" t="s">
         <v>176</v>
       </c>
-      <c r="B117" s="137"/>
-      <c r="C117" s="137"/>
-      <c r="D117" s="137"/>
-      <c r="E117" s="137"/>
-      <c r="F117" s="137"/>
-      <c r="I117" s="137" t="s">
+      <c r="B117" s="145"/>
+      <c r="C117" s="145"/>
+      <c r="D117" s="145"/>
+      <c r="E117" s="145"/>
+      <c r="F117" s="145"/>
+      <c r="I117" s="145" t="s">
         <v>177</v>
       </c>
-      <c r="J117" s="137"/>
-      <c r="K117" s="137"/>
-      <c r="L117" s="137"/>
-      <c r="M117" s="137"/>
-      <c r="N117" s="137"/>
-      <c r="O117" s="137"/>
+      <c r="J117" s="145"/>
+      <c r="K117" s="145"/>
+      <c r="L117" s="145"/>
+      <c r="M117" s="145"/>
+      <c r="N117" s="145"/>
+      <c r="O117" s="145"/>
       <c r="S117" t="s">
         <v>23</v>
       </c>
@@ -17693,25 +17700,25 @@
       <c r="A118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="138" t="s">
+      <c r="B118" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="C118" s="138"/>
-      <c r="D118" s="138"/>
-      <c r="E118" s="138"/>
+      <c r="C118" s="136"/>
+      <c r="D118" s="136"/>
+      <c r="E118" s="136"/>
       <c r="F118" s="2" t="s">
         <v>158</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="J118" s="138" t="s">
+      <c r="J118" s="136" t="s">
         <v>68</v>
       </c>
-      <c r="K118" s="138"/>
-      <c r="L118" s="138"/>
-      <c r="M118" s="138"/>
-      <c r="N118" s="138"/>
+      <c r="K118" s="136"/>
+      <c r="L118" s="136"/>
+      <c r="M118" s="136"/>
+      <c r="N118" s="136"/>
       <c r="O118" s="2" t="s">
         <v>159</v>
       </c>
@@ -17727,12 +17734,12 @@
       <c r="A119" t="s">
         <v>23</v>
       </c>
-      <c r="B119" s="135" t="s">
+      <c r="B119" s="137" t="s">
         <v>178</v>
       </c>
-      <c r="C119" s="135"/>
-      <c r="D119" s="135"/>
-      <c r="E119" s="135"/>
+      <c r="C119" s="137"/>
+      <c r="D119" s="137"/>
+      <c r="E119" s="137"/>
       <c r="F119">
         <f>Q19*F101</f>
         <v>2.7936176878817052</v>
@@ -17740,13 +17747,13 @@
       <c r="I119" t="s">
         <v>23</v>
       </c>
-      <c r="J119" s="135" t="s">
+      <c r="J119" s="137" t="s">
         <v>179</v>
       </c>
-      <c r="K119" s="135"/>
-      <c r="L119" s="135"/>
-      <c r="M119" s="135"/>
-      <c r="N119" s="135"/>
+      <c r="K119" s="137"/>
+      <c r="L119" s="137"/>
+      <c r="M119" s="137"/>
+      <c r="N119" s="137"/>
       <c r="O119">
         <f>Q19*O101</f>
         <v>3.5750403822289853</v>
@@ -17763,12 +17770,12 @@
       <c r="A120" t="s">
         <v>24</v>
       </c>
-      <c r="B120" s="135" t="s">
+      <c r="B120" s="137" t="s">
         <v>180</v>
       </c>
-      <c r="C120" s="135"/>
-      <c r="D120" s="135"/>
-      <c r="E120" s="135"/>
+      <c r="C120" s="137"/>
+      <c r="D120" s="137"/>
+      <c r="E120" s="137"/>
       <c r="F120">
         <f>Q20*F102</f>
         <v>3.0086250871988334</v>
@@ -17776,13 +17783,13 @@
       <c r="I120" t="s">
         <v>24</v>
       </c>
-      <c r="J120" s="135" t="s">
+      <c r="J120" s="137" t="s">
         <v>181</v>
       </c>
-      <c r="K120" s="135"/>
-      <c r="L120" s="135"/>
-      <c r="M120" s="135"/>
-      <c r="N120" s="135"/>
+      <c r="K120" s="137"/>
+      <c r="L120" s="137"/>
+      <c r="M120" s="137"/>
+      <c r="N120" s="137"/>
       <c r="O120">
         <f>Q20*O102</f>
         <v>3.8003049904575028</v>
@@ -17799,12 +17806,12 @@
       <c r="A121" t="s">
         <v>25</v>
       </c>
-      <c r="B121" s="135" t="s">
+      <c r="B121" s="137" t="s">
         <v>182</v>
       </c>
-      <c r="C121" s="135"/>
-      <c r="D121" s="135"/>
-      <c r="E121" s="135"/>
+      <c r="C121" s="137"/>
+      <c r="D121" s="137"/>
+      <c r="E121" s="137"/>
       <c r="F121">
         <f>Q21*F103</f>
         <v>2.284391839849802</v>
@@ -17812,13 +17819,13 @@
       <c r="I121" t="s">
         <v>25</v>
       </c>
-      <c r="J121" s="135" t="s">
+      <c r="J121" s="137" t="s">
         <v>183</v>
       </c>
-      <c r="K121" s="135"/>
-      <c r="L121" s="135"/>
-      <c r="M121" s="135"/>
-      <c r="N121" s="135"/>
+      <c r="K121" s="137"/>
+      <c r="L121" s="137"/>
+      <c r="M121" s="137"/>
+      <c r="N121" s="137"/>
       <c r="O121">
         <f>Q21*O103</f>
         <v>3.0366624304082328</v>
@@ -17828,12 +17835,12 @@
       <c r="A122" t="s">
         <v>26</v>
       </c>
-      <c r="B122" s="135" t="s">
+      <c r="B122" s="137" t="s">
         <v>184</v>
       </c>
-      <c r="C122" s="135"/>
-      <c r="D122" s="135"/>
-      <c r="E122" s="135"/>
+      <c r="C122" s="137"/>
+      <c r="D122" s="137"/>
+      <c r="E122" s="137"/>
       <c r="F122">
         <f>Q22*F104</f>
         <v>2.4093914243178784</v>
@@ -17841,13 +17848,13 @@
       <c r="I122" t="s">
         <v>26</v>
       </c>
-      <c r="J122" s="135" t="s">
+      <c r="J122" s="137" t="s">
         <v>185</v>
       </c>
-      <c r="K122" s="135"/>
-      <c r="L122" s="135"/>
-      <c r="M122" s="135"/>
-      <c r="N122" s="135"/>
+      <c r="K122" s="137"/>
+      <c r="L122" s="137"/>
+      <c r="M122" s="137"/>
+      <c r="N122" s="137"/>
       <c r="O122">
         <f>Q22*O104</f>
         <v>3.1688585382845482</v>
@@ -17855,256 +17862,6 @@
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="G1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="I9:P9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="L14:O14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="L15:O15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="L16:O16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="L17:O17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="I18:Q18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="I25:N25"/>
-    <mergeCell ref="Q25:V25"/>
-    <mergeCell ref="Y25:AC25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="R26:U26"/>
-    <mergeCell ref="Z26:AA26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="R27:U27"/>
-    <mergeCell ref="Z27:AA27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="R28:U28"/>
-    <mergeCell ref="Z28:AA28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="R29:U29"/>
-    <mergeCell ref="Z29:AA29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="R30:U30"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="F33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A51:O51"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="I52:O52"/>
-    <mergeCell ref="C53:E53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:N53"/>
-    <mergeCell ref="C54:E54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:N54"/>
-    <mergeCell ref="C55:E55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:N55"/>
-    <mergeCell ref="S55:T55"/>
-    <mergeCell ref="C56:E56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="L56:N56"/>
-    <mergeCell ref="C57:E57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="L57:N57"/>
-    <mergeCell ref="C58:E58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="C59:E59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="C60:E60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="C61:E61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="A62:F62"/>
-    <mergeCell ref="I62:O62"/>
-    <mergeCell ref="B63:E63"/>
-    <mergeCell ref="J63:N63"/>
-    <mergeCell ref="B64:E64"/>
-    <mergeCell ref="J64:N64"/>
-    <mergeCell ref="B65:E65"/>
-    <mergeCell ref="J65:N65"/>
-    <mergeCell ref="B66:E66"/>
-    <mergeCell ref="J66:N66"/>
-    <mergeCell ref="B67:E67"/>
-    <mergeCell ref="J67:N67"/>
-    <mergeCell ref="A70:F70"/>
-    <mergeCell ref="I70:O70"/>
-    <mergeCell ref="C71:E71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="L71:N71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:N72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="L73:N73"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:N74"/>
-    <mergeCell ref="C75:E75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:N75"/>
-    <mergeCell ref="C76:E76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:N76"/>
-    <mergeCell ref="C77:E77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:N77"/>
-    <mergeCell ref="C78:E78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:N78"/>
-    <mergeCell ref="C79:E79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:N79"/>
-    <mergeCell ref="A80:F80"/>
-    <mergeCell ref="I80:O80"/>
-    <mergeCell ref="B81:E81"/>
-    <mergeCell ref="J81:N81"/>
-    <mergeCell ref="B82:E82"/>
-    <mergeCell ref="J82:N82"/>
-    <mergeCell ref="B83:E83"/>
-    <mergeCell ref="J83:N83"/>
-    <mergeCell ref="B84:E84"/>
-    <mergeCell ref="J84:N84"/>
-    <mergeCell ref="B85:E85"/>
-    <mergeCell ref="J85:N85"/>
-    <mergeCell ref="A88:O88"/>
-    <mergeCell ref="A89:F89"/>
-    <mergeCell ref="I89:O89"/>
-    <mergeCell ref="R89:V89"/>
-    <mergeCell ref="C90:E90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:N90"/>
-    <mergeCell ref="S90:T90"/>
-    <mergeCell ref="C91:E91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:N91"/>
-    <mergeCell ref="S91:T91"/>
-    <mergeCell ref="C92:E92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:N92"/>
-    <mergeCell ref="S92:T92"/>
-    <mergeCell ref="C93:E93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="L93:N93"/>
-    <mergeCell ref="S93:T93"/>
-    <mergeCell ref="C94:E94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="L94:N94"/>
-    <mergeCell ref="S94:T94"/>
-    <mergeCell ref="C95:E95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:N95"/>
-    <mergeCell ref="C96:E96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="L96:N96"/>
-    <mergeCell ref="C97:E97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:N97"/>
-    <mergeCell ref="R97:U97"/>
-    <mergeCell ref="C98:E98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="L98:N98"/>
-    <mergeCell ref="S98:T98"/>
-    <mergeCell ref="A99:F99"/>
-    <mergeCell ref="I99:O99"/>
-    <mergeCell ref="S99:T99"/>
-    <mergeCell ref="B100:E100"/>
-    <mergeCell ref="J100:N100"/>
-    <mergeCell ref="S100:T100"/>
-    <mergeCell ref="B101:E101"/>
-    <mergeCell ref="J101:N101"/>
-    <mergeCell ref="S101:T101"/>
-    <mergeCell ref="B102:E102"/>
-    <mergeCell ref="J102:N102"/>
-    <mergeCell ref="B103:E103"/>
-    <mergeCell ref="J103:N103"/>
-    <mergeCell ref="R103:U103"/>
-    <mergeCell ref="B104:E104"/>
-    <mergeCell ref="J104:N104"/>
-    <mergeCell ref="A107:F107"/>
-    <mergeCell ref="I107:O107"/>
-    <mergeCell ref="C108:E108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="L108:N108"/>
-    <mergeCell ref="C109:E109"/>
-    <mergeCell ref="J109:K109"/>
-    <mergeCell ref="L109:N109"/>
-    <mergeCell ref="C110:E110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="L110:N110"/>
-    <mergeCell ref="C111:E111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="L111:N111"/>
-    <mergeCell ref="C112:E112"/>
-    <mergeCell ref="J112:K112"/>
-    <mergeCell ref="L112:N112"/>
-    <mergeCell ref="C113:E113"/>
-    <mergeCell ref="J113:K113"/>
-    <mergeCell ref="L113:N113"/>
-    <mergeCell ref="C114:E114"/>
-    <mergeCell ref="J114:K114"/>
-    <mergeCell ref="L114:N114"/>
-    <mergeCell ref="C115:E115"/>
-    <mergeCell ref="J115:K115"/>
-    <mergeCell ref="L115:N115"/>
-    <mergeCell ref="C116:E116"/>
-    <mergeCell ref="J116:K116"/>
-    <mergeCell ref="L116:N116"/>
     <mergeCell ref="B121:E121"/>
     <mergeCell ref="J121:N121"/>
     <mergeCell ref="B122:E122"/>
@@ -18118,6 +17875,256 @@
     <mergeCell ref="J119:N119"/>
     <mergeCell ref="B120:E120"/>
     <mergeCell ref="J120:N120"/>
+    <mergeCell ref="C114:E114"/>
+    <mergeCell ref="J114:K114"/>
+    <mergeCell ref="L114:N114"/>
+    <mergeCell ref="C115:E115"/>
+    <mergeCell ref="J115:K115"/>
+    <mergeCell ref="L115:N115"/>
+    <mergeCell ref="C116:E116"/>
+    <mergeCell ref="J116:K116"/>
+    <mergeCell ref="L116:N116"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="L111:N111"/>
+    <mergeCell ref="C112:E112"/>
+    <mergeCell ref="J112:K112"/>
+    <mergeCell ref="L112:N112"/>
+    <mergeCell ref="C113:E113"/>
+    <mergeCell ref="J113:K113"/>
+    <mergeCell ref="L113:N113"/>
+    <mergeCell ref="A107:F107"/>
+    <mergeCell ref="I107:O107"/>
+    <mergeCell ref="C108:E108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="L108:N108"/>
+    <mergeCell ref="C109:E109"/>
+    <mergeCell ref="J109:K109"/>
+    <mergeCell ref="L109:N109"/>
+    <mergeCell ref="C110:E110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="L110:N110"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="J101:N101"/>
+    <mergeCell ref="S101:T101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="J102:N102"/>
+    <mergeCell ref="B103:E103"/>
+    <mergeCell ref="J103:N103"/>
+    <mergeCell ref="R103:U103"/>
+    <mergeCell ref="B104:E104"/>
+    <mergeCell ref="J104:N104"/>
+    <mergeCell ref="R97:U97"/>
+    <mergeCell ref="C98:E98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="L98:N98"/>
+    <mergeCell ref="S98:T98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="I99:O99"/>
+    <mergeCell ref="S99:T99"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="J100:N100"/>
+    <mergeCell ref="S100:T100"/>
+    <mergeCell ref="C95:E95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:N95"/>
+    <mergeCell ref="C96:E96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="L96:N96"/>
+    <mergeCell ref="C97:E97"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:N97"/>
+    <mergeCell ref="C92:E92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:N92"/>
+    <mergeCell ref="S92:T92"/>
+    <mergeCell ref="C93:E93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="L93:N93"/>
+    <mergeCell ref="S93:T93"/>
+    <mergeCell ref="C94:E94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="L94:N94"/>
+    <mergeCell ref="S94:T94"/>
+    <mergeCell ref="A89:F89"/>
+    <mergeCell ref="I89:O89"/>
+    <mergeCell ref="R89:V89"/>
+    <mergeCell ref="C90:E90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:N90"/>
+    <mergeCell ref="S90:T90"/>
+    <mergeCell ref="C91:E91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:N91"/>
+    <mergeCell ref="S91:T91"/>
+    <mergeCell ref="B82:E82"/>
+    <mergeCell ref="J82:N82"/>
+    <mergeCell ref="B83:E83"/>
+    <mergeCell ref="J83:N83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="J84:N84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="J85:N85"/>
+    <mergeCell ref="A88:O88"/>
+    <mergeCell ref="C78:E78"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:N78"/>
+    <mergeCell ref="C79:E79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:N79"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="I80:O80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="J81:N81"/>
+    <mergeCell ref="C75:E75"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:N75"/>
+    <mergeCell ref="C76:E76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:N76"/>
+    <mergeCell ref="C77:E77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:N77"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:N72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="L73:N73"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:N74"/>
+    <mergeCell ref="B65:E65"/>
+    <mergeCell ref="J65:N65"/>
+    <mergeCell ref="B66:E66"/>
+    <mergeCell ref="J66:N66"/>
+    <mergeCell ref="B67:E67"/>
+    <mergeCell ref="J67:N67"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="I70:O70"/>
+    <mergeCell ref="C71:E71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="L71:N71"/>
+    <mergeCell ref="C61:E61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="A62:F62"/>
+    <mergeCell ref="I62:O62"/>
+    <mergeCell ref="B63:E63"/>
+    <mergeCell ref="J63:N63"/>
+    <mergeCell ref="B64:E64"/>
+    <mergeCell ref="J64:N64"/>
+    <mergeCell ref="C58:E58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="C59:E59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="C60:E60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="C55:E55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:N55"/>
+    <mergeCell ref="S55:T55"/>
+    <mergeCell ref="C56:E56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="L56:N56"/>
+    <mergeCell ref="C57:E57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="L57:N57"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="A51:O51"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="I52:O52"/>
+    <mergeCell ref="C53:E53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:N53"/>
+    <mergeCell ref="C54:E54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:N54"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="F33:I33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="R28:U28"/>
+    <mergeCell ref="Z28:AA28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="R29:U29"/>
+    <mergeCell ref="Z29:AA29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="R30:U30"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="I25:N25"/>
+    <mergeCell ref="Q25:V25"/>
+    <mergeCell ref="Y25:AC25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="R26:U26"/>
+    <mergeCell ref="Z26:AA26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="R27:U27"/>
+    <mergeCell ref="Z27:AA27"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="I18:Q18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="I9:P9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="H5:J5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
